--- a/Covid_19_Dataset_and_References/References/42.xlsx
+++ b/Covid_19_Dataset_and_References/References/42.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="356">
   <si>
     <t>Doi</t>
   </si>
@@ -1711,6 +1711,401 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 outbreak has led to severe health burden in the elderly.
+ Age, morbidity and dementia have been associated with adverse outcome.
+Aims
+id="Par2"&gt;To evaluate the impact of COVID-19 on health status in home-dwelling patients.
+Methods
+id="Par3"&gt;848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
+ Items regarding change in health status and outcome since the onset of the outbreak were collected.
+ COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
+ Unplanned hospitalization, institutionalization and mortality were recorded.
+Results
+id="Par4"&gt;Patients were 79.7 years old (SD 7.1) and 63.1% were females.
+ Ninety-five (11.2%) patients developed COVID-19-like symptoms.
+ Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
+ 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
+ 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
+ 37.9%, p &amp;lt; 0.001).
+ Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
+ Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
+ Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
+ COVID-19 and COPD were significantly associated with the rate of mortality.
+Discussion/conclusions
+id="Par5"&gt;A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
+ Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
+Electronic supplementary material
+The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,   Alberto%Zucchelli%NULL%1,   Marinella%Turla%NULL%1,   Maria Sofia%Cotelli%NULL%1,   Sara%Fascendini%NULL%1,   Mara%Zanni%NULL%1,   Angelo%Bianchetti%NULL%1,   Matteo Peli%Psy%NULL%1,   Renzo%Rozzini%NULL%1,   Stefano%Boffelli%NULL%1,   Melania%Cappuccio%NULL%1,   Federica Gottardi%Psy%NULL%1,   Chiara Vecchi%Psy%NULL%1,   Daniele%Bellandi%NULL%1,   Claudia%Caminati%NULL%1,   Simona%Gentile%NULL%1,   Elena Lucchi%Psy%NULL%1,   Ignazio%Di Fazio%NULL%1,   Marina Zanetti%Psy%NULL%1,   Giuliana%Vezzadini%NULL%1,   Chiara Forlani%Psy%NULL%1,   Maura Cosseddu%Psy%NULL%1,   Rosanna Turrone%Psy%NULL%1,   Silvia Pelizzari%Psy%NULL%1,   Andrea%Scalvini%NULL%1,   Marco%Di Cesare%NULL%1,   Marta Grigolo%Psy%NULL%1,   Lina%Falanga%NULL%1,   Nives%Medici%NULL%1,   Nives%Palamini%NULL%1,   Elisa Zanacchi%Psy%NULL%1,   Eleonora Grossi%Psy%NULL%1,   Giuseppe%Bellelli%NULL%1,   Alessandra%Marengoni%NULL%1,   Marco%Trabucchi%NULL%1,   Alessandro%Padovani%alessandro.padovani@unibs.it%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
+Methods
+id="Par2"&gt;A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
+ All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
+ Outcomes of severely ill patients and non-severely ill patients were compared.
+Results
+id="Par3"&gt;Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
+ Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
+ Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
+ According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
+ Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
+ 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
+ 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
+ 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
+ 68.6%, p = 0.01), anorexia (60.5% vs.
+ 35.3%, p = 0.01), chest tightness (60.5% vs.
+20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
+ 0%, p = 0.03).
+ Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
+Conclusions
+id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
+ Treatments of COVID-19 is still experimental and more clinical trials are needed.
+</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,   Zhencang%Zheng%NULL%1,   Chao%Zhang%NULL%1,   Xijiang%Zhang%NULL%1,   Huijuan%Wu%NULL%1,   Jingdong%Wang%NULL%1,   Shuwei%Wang%NULL%1,   Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
+ We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
+Methods
+id="Par2"&gt;This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
+Results
+id="Par3"&gt;On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
+ Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
+ There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
+Conclusions
+id="Par4"&gt;The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
+ Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
+Key Points
+id="Par5"&gt;
+• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
+ These findings may help clinicians to identify severe patients quickly at admission.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,   Huangqing%Ouyang%NULL%1,   Lingli%Fu%NULL%1,   Shijie%Wang%NULL%1,   Jianglong%Han%NULL%1,   Kejie%Huang%NULL%1,   Mingfang%Jia%NULL%1,   Qibin%Song%NULL%1,   Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 outbreak has led to severe health burden in the elderly.
+ Age, morbidity and dementia have been associated with adverse outcome.
+Aims
+To evaluate the impact of COVID-19 on health status in home-dwelling patients.
+Methods
+id="Par3"&gt;848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
+ Items regarding change in health status and outcome since the onset of the outbreak were collected.
+ COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
+ Unplanned hospitalization, institutionalization and mortality were recorded.
+Results
+id="Par4"&gt;Patients were 79.7 years old (SD 7.1) and 63.1% were females.
+ Ninety-five (11.2%) patients developed COVID-19-like symptoms.
+ Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
+ 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
+ 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
+ 37.9%, p &amp;lt; 0.001).
+ Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
+ Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
+ Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
+ COVID-19 and COPD were significantly associated with the rate of mortality.
+Discussion/conclusions
+id="Par5"&gt;A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
+ Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
+Electronic supplementary material
+The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,    Alberto%Zucchelli%NULL%1,    Marinella%Turla%NULL%1,    Maria Sofia%Cotelli%NULL%1,    Sara%Fascendini%NULL%1,    Mara%Zanni%NULL%1,    Angelo%Bianchetti%NULL%1,    Matteo Peli%Psy%NULL%1,    Renzo%Rozzini%NULL%1,    Stefano%Boffelli%NULL%1,    Melania%Cappuccio%NULL%1,    Federica Gottardi%Psy%NULL%1,    Chiara Vecchi%Psy%NULL%1,    Daniele%Bellandi%NULL%1,    Claudia%Caminati%NULL%1,    Simona%Gentile%NULL%1,    Elena Lucchi%Psy%NULL%1,    Ignazio%Di Fazio%NULL%1,    Marina Zanetti%Psy%NULL%1,    Giuliana%Vezzadini%NULL%1,    Chiara Forlani%Psy%NULL%1,    Maura Cosseddu%Psy%NULL%1,    Rosanna Turrone%Psy%NULL%1,    Silvia Pelizzari%Psy%NULL%1,    Andrea%Scalvini%NULL%1,    Marco%Di Cesare%NULL%1,    Marta Grigolo%Psy%NULL%1,    Lina%Falanga%NULL%1,    Nives%Medici%NULL%1,    Nives%Palamini%NULL%1,    Elisa Zanacchi%Psy%NULL%1,    Eleonora Grossi%Psy%NULL%1,    Giuseppe%Bellelli%NULL%1,    Alessandra%Marengoni%NULL%1,    Marco%Trabucchi%NULL%1,    Alessandro%Padovani%alessandro.padovani@unibs.it%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
+Methods
+A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
+ All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
+ Outcomes of severely ill patients and non-severely ill patients were compared.
+Results
+id="Par3"&gt;Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
+ Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
+ Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
+ According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
+ Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
+ 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
+ 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
+ 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
+ 68.6%, p = 0.01), anorexia (60.5% vs.
+ 35.3%, p = 0.01), chest tightness (60.5% vs.
+20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
+ 0%, p = 0.03).
+ Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
+Conclusions
+id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
+ Treatments of COVID-19 is still experimental and more clinical trials are needed.
+</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,    Zhencang%Zheng%NULL%1,    Chao%Zhang%NULL%1,    Xijiang%Zhang%NULL%1,    Huijuan%Wu%NULL%1,    Jingdong%Wang%NULL%1,    Shuwei%Wang%NULL%1,    Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
+ We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
+Methods
+This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
+Results
+id="Par3"&gt;On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
+ Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
+ There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
+Conclusions
+id="Par4"&gt;The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
+ Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
+Key Points
+id="Par5"&gt;
+• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
+ These findings may help clinicians to identify severe patients quickly at admission.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,    Huangqing%Ouyang%NULL%1,    Lingli%Fu%NULL%1,    Shijie%Wang%NULL%1,    Jianglong%Han%NULL%1,    Kejie%Huang%NULL%1,    Mingfang%Jia%NULL%1,    Qibin%Song%NULL%1,    Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 outbreak has led to severe health burden in the elderly.
+ Age, morbidity and dementia have been associated with adverse outcome.
+Aims
+To evaluate the impact of COVID-19 on health status in home-dwelling patients.
+Methods
+848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
+ Items regarding change in health status and outcome since the onset of the outbreak were collected.
+ COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
+ Unplanned hospitalization, institutionalization and mortality were recorded.
+Results
+id="Par4"&gt;Patients were 79.7 years old (SD 7.1) and 63.1% were females.
+ Ninety-five (11.2%) patients developed COVID-19-like symptoms.
+ Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
+ 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
+ 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
+ 37.9%, p &amp;lt; 0.001).
+ Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
+ Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
+ Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
+ COVID-19 and COPD were significantly associated with the rate of mortality.
+Discussion/conclusions
+id="Par5"&gt;A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
+ Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
+Electronic supplementary material
+The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,     Alberto%Zucchelli%NULL%1,     Marinella%Turla%NULL%1,     Maria Sofia%Cotelli%NULL%1,     Sara%Fascendini%NULL%1,     Mara%Zanni%NULL%1,     Angelo%Bianchetti%NULL%1,     Matteo Peli%Psy%NULL%1,     Renzo%Rozzini%NULL%1,     Stefano%Boffelli%NULL%1,     Melania%Cappuccio%NULL%1,     Federica Gottardi%Psy%NULL%1,     Chiara Vecchi%Psy%NULL%1,     Daniele%Bellandi%NULL%1,     Claudia%Caminati%NULL%1,     Simona%Gentile%NULL%1,     Elena Lucchi%Psy%NULL%1,     Ignazio%Di Fazio%NULL%1,     Marina Zanetti%Psy%NULL%1,     Giuliana%Vezzadini%NULL%1,     Chiara Forlani%Psy%NULL%1,     Maura Cosseddu%Psy%NULL%1,     Rosanna Turrone%Psy%NULL%1,     Silvia Pelizzari%Psy%NULL%1,     Andrea%Scalvini%NULL%1,     Marco%Di Cesare%NULL%1,     Marta Grigolo%Psy%NULL%1,     Lina%Falanga%NULL%1,     Nives%Medici%NULL%1,     Nives%Palamini%NULL%1,     Elisa Zanacchi%Psy%NULL%1,     Eleonora Grossi%Psy%NULL%1,     Giuseppe%Bellelli%NULL%1,     Alessandra%Marengoni%NULL%1,     Marco%Trabucchi%NULL%1,     Alessandro%Padovani%alessandro.padovani@unibs.it%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
+Methods
+A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
+ All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
+ Outcomes of severely ill patients and non-severely ill patients were compared.
+Results
+Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
+ Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
+ Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
+ According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
+ Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
+ 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
+ 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
+ 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
+ 68.6%, p = 0.01), anorexia (60.5% vs.
+ 35.3%, p = 0.01), chest tightness (60.5% vs.
+20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
+ 0%, p = 0.03).
+ Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
+Conclusions
+id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
+ Treatments of COVID-19 is still experimental and more clinical trials are needed.
+</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,     Zhencang%Zheng%NULL%1,     Chao%Zhang%NULL%1,     Xijiang%Zhang%NULL%1,     Huijuan%Wu%NULL%1,     Jingdong%Wang%NULL%1,     Shuwei%Wang%NULL%1,     Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
+ We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
+Methods
+This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
+Results
+On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
+ Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
+ There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
+Conclusions
+id="Par4"&gt;The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
+ Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
+Key Points
+id="Par5"&gt;
+• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
+ These findings may help clinicians to identify severe patients quickly at admission.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,     Huangqing%Ouyang%NULL%1,     Lingli%Fu%NULL%1,     Shijie%Wang%NULL%1,     Jianglong%Han%NULL%1,     Kejie%Huang%NULL%1,     Mingfang%Jia%NULL%1,     Qibin%Song%NULL%1,     Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 outbreak has led to severe health burden in the elderly.
+ Age, morbidity and dementia have been associated with adverse outcome.
+Aims
+To evaluate the impact of COVID-19 on health status in home-dwelling patients.
+Methods
+848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
+ Items regarding change in health status and outcome since the onset of the outbreak were collected.
+ COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
+ Unplanned hospitalization, institutionalization and mortality were recorded.
+Results
+Patients were 79.7 years old (SD 7.1) and 63.1% were females.
+ Ninety-five (11.2%) patients developed COVID-19-like symptoms.
+ Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
+ 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
+ 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
+ 37.9%, p &amp;lt; 0.001).
+ Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
+ Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
+ Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
+ COVID-19 and COPD were significantly associated with the rate of mortality.
+Discussion/conclusions
+id="Par5"&gt;A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
+ Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
+Electronic supplementary material
+The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,      Alberto%Zucchelli%NULL%1,      Marinella%Turla%NULL%1,      Maria Sofia%Cotelli%NULL%1,      Sara%Fascendini%NULL%1,      Mara%Zanni%NULL%1,      Angelo%Bianchetti%NULL%1,      Matteo Peli%Psy%NULL%1,      Renzo%Rozzini%NULL%1,      Stefano%Boffelli%NULL%1,      Melania%Cappuccio%NULL%1,      Federica Gottardi%Psy%NULL%1,      Chiara Vecchi%Psy%NULL%1,      Daniele%Bellandi%NULL%1,      Claudia%Caminati%NULL%1,      Simona%Gentile%NULL%1,      Elena Lucchi%Psy%NULL%1,      Ignazio%Di Fazio%NULL%1,      Marina Zanetti%Psy%NULL%1,      Giuliana%Vezzadini%NULL%1,      Chiara Forlani%Psy%NULL%1,      Maura Cosseddu%Psy%NULL%1,      Rosanna Turrone%Psy%NULL%1,      Silvia Pelizzari%Psy%NULL%1,      Andrea%Scalvini%NULL%1,      Marco%Di Cesare%NULL%1,      Marta Grigolo%Psy%NULL%1,      Lina%Falanga%NULL%1,      Nives%Medici%NULL%1,      Nives%Palamini%NULL%1,      Elisa Zanacchi%Psy%NULL%1,      Eleonora Grossi%Psy%NULL%1,      Giuseppe%Bellelli%NULL%1,      Alessandra%Marengoni%NULL%1,      Marco%Trabucchi%NULL%1,      Alessandro%Padovani%alessandro.padovani@unibs.it%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
+Methods
+A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
+ All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
+ Outcomes of severely ill patients and non-severely ill patients were compared.
+Results
+Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
+ Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
+ Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
+ According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
+ Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
+ 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
+ 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
+ 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
+ 68.6%, p = 0.01), anorexia (60.5% vs.
+ 35.3%, p = 0.01), chest tightness (60.5% vs.
+20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
+ 0%, p = 0.03).
+ Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
+Conclusions
+Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
+ Treatments of COVID-19 is still experimental and more clinical trials are needed.
+</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,      Zhencang%Zheng%NULL%1,      Chao%Zhang%NULL%1,      Xijiang%Zhang%NULL%1,      Huijuan%Wu%NULL%1,      Jingdong%Wang%NULL%1,      Shuwei%Wang%NULL%1,      Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
+ We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
+Methods
+This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
+Results
+On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
+ Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
+ There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
+Conclusions
+The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
+ Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
+Key Points
+id="Par5"&gt;
+• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
+ These findings may help clinicians to identify severe patients quickly at admission.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,      Huangqing%Ouyang%NULL%1,      Lingli%Fu%NULL%1,      Shijie%Wang%NULL%1,      Jianglong%Han%NULL%1,      Kejie%Huang%NULL%1,      Mingfang%Jia%NULL%1,      Qibin%Song%NULL%1,      Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+COVID-19 outbreak has led to severe health burden in the elderly.
+ Age, morbidity and dementia have been associated with adverse outcome.
+Aims
+To evaluate the impact of COVID-19 on health status in home-dwelling patients.
+Methods
+848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
+ Items regarding change in health status and outcome since the onset of the outbreak were collected.
+ COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
+ Unplanned hospitalization, institutionalization and mortality were recorded.
+Results
+Patients were 79.7 years old (SD 7.1) and 63.1% were females.
+ Ninety-five (11.2%) patients developed COVID-19-like symptoms.
+ Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
+ 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
+ 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
+ 37.9%, p &amp;lt; 0.001).
+ Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
+ Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
+ Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
+ COVID-19 and COPD were significantly associated with the rate of mortality.
+Discussion/conclusions
+A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
+ Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
+Electronic supplementary material
+The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,       Alberto%Zucchelli%NULL%1,       Marinella%Turla%NULL%1,       Maria Sofia%Cotelli%NULL%1,       Sara%Fascendini%NULL%1,       Mara%Zanni%NULL%1,       Angelo%Bianchetti%NULL%1,       Matteo Peli%Psy%NULL%1,       Renzo%Rozzini%NULL%1,       Stefano%Boffelli%NULL%1,       Melania%Cappuccio%NULL%1,       Federica Gottardi%Psy%NULL%1,       Chiara Vecchi%Psy%NULL%1,       Daniele%Bellandi%NULL%1,       Claudia%Caminati%NULL%1,       Simona%Gentile%NULL%1,       Elena Lucchi%Psy%NULL%1,       Ignazio%Di Fazio%NULL%1,       Marina Zanetti%Psy%NULL%1,       Giuliana%Vezzadini%NULL%1,       Chiara Forlani%Psy%NULL%1,       Maura Cosseddu%Psy%NULL%1,       Rosanna Turrone%Psy%NULL%1,       Silvia Pelizzari%Psy%NULL%1,       Andrea%Scalvini%NULL%1,       Marco%Di Cesare%NULL%1,       Marta Grigolo%Psy%NULL%1,       Lina%Falanga%NULL%1,       Nives%Medici%NULL%1,       Nives%Palamini%NULL%1,       Elisa Zanacchi%Psy%NULL%1,       Eleonora Grossi%Psy%NULL%1,       Giuseppe%Bellelli%NULL%1,       Alessandra%Marengoni%NULL%1,       Marco%Trabucchi%NULL%1,       Alessandro%Padovani%alessandro.padovani@unibs.it%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objectives
+To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
+ We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
+Methods
+This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
+Results
+On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
+ Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
+ There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
+Conclusions
+The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
+ Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
+Key Points
+• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
+ These findings may help clinicians to identify severe patients quickly at admission.
+Electronic supplementary material
+The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,       Huangqing%Ouyang%NULL%1,       Lingli%Fu%NULL%1,       Shijie%Wang%NULL%1,       Jianglong%Han%NULL%1,       Kejie%Huang%NULL%1,       Mingfang%Jia%NULL%1,       Qibin%Song%NULL%1,       Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -2262,10 +2657,10 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="F9" t="s">
         <v>98</v>
@@ -2314,10 +2709,10 @@
         <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="F11" t="s">
         <v>107</v>
@@ -3302,10 +3697,10 @@
         <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>354</v>
       </c>
       <c r="E49" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F49" t="s">
         <v>258</v>

--- a/Covid_19_Dataset_and_References/References/42.xlsx
+++ b/Covid_19_Dataset_and_References/References/42.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="328">
   <si>
     <t>Doi</t>
   </si>
@@ -1711,401 +1711,6 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 outbreak has led to severe health burden in the elderly.
- Age, morbidity and dementia have been associated with adverse outcome.
-Aims
-id="Par2"&gt;To evaluate the impact of COVID-19 on health status in home-dwelling patients.
-Methods
-id="Par3"&gt;848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
- Items regarding change in health status and outcome since the onset of the outbreak were collected.
- COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
- Unplanned hospitalization, institutionalization and mortality were recorded.
-Results
-id="Par4"&gt;Patients were 79.7 years old (SD 7.1) and 63.1% were females.
- Ninety-five (11.2%) patients developed COVID-19-like symptoms.
- Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
- 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
- 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
- 37.9%, p &amp;lt; 0.001).
- Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
- Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
- Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
- COVID-19 and COPD were significantly associated with the rate of mortality.
-Discussion/conclusions
-id="Par5"&gt;A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
- Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
-Electronic supplementary material
-The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,   Alberto%Zucchelli%NULL%1,   Marinella%Turla%NULL%1,   Maria Sofia%Cotelli%NULL%1,   Sara%Fascendini%NULL%1,   Mara%Zanni%NULL%1,   Angelo%Bianchetti%NULL%1,   Matteo Peli%Psy%NULL%1,   Renzo%Rozzini%NULL%1,   Stefano%Boffelli%NULL%1,   Melania%Cappuccio%NULL%1,   Federica Gottardi%Psy%NULL%1,   Chiara Vecchi%Psy%NULL%1,   Daniele%Bellandi%NULL%1,   Claudia%Caminati%NULL%1,   Simona%Gentile%NULL%1,   Elena Lucchi%Psy%NULL%1,   Ignazio%Di Fazio%NULL%1,   Marina Zanetti%Psy%NULL%1,   Giuliana%Vezzadini%NULL%1,   Chiara Forlani%Psy%NULL%1,   Maura Cosseddu%Psy%NULL%1,   Rosanna Turrone%Psy%NULL%1,   Silvia Pelizzari%Psy%NULL%1,   Andrea%Scalvini%NULL%1,   Marco%Di Cesare%NULL%1,   Marta Grigolo%Psy%NULL%1,   Lina%Falanga%NULL%1,   Nives%Medici%NULL%1,   Nives%Palamini%NULL%1,   Elisa Zanacchi%Psy%NULL%1,   Eleonora Grossi%Psy%NULL%1,   Giuseppe%Bellelli%NULL%1,   Alessandra%Marengoni%NULL%1,   Marco%Trabucchi%NULL%1,   Alessandro%Padovani%alessandro.padovani@unibs.it%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
-Methods
-id="Par2"&gt;A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
- All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
- Outcomes of severely ill patients and non-severely ill patients were compared.
-Results
-id="Par3"&gt;Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
- Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
- Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
- According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
- Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
- 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
- 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
- 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
- 68.6%, p = 0.01), anorexia (60.5% vs.
- 35.3%, p = 0.01), chest tightness (60.5% vs.
-20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
- 0%, p = 0.03).
- Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
-Conclusions
-id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
- Treatments of COVID-19 is still experimental and more clinical trials are needed.
-</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,   Zhencang%Zheng%NULL%1,   Chao%Zhang%NULL%1,   Xijiang%Zhang%NULL%1,   Huijuan%Wu%NULL%1,   Jingdong%Wang%NULL%1,   Shuwei%Wang%NULL%1,   Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
- We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
-Methods
-id="Par2"&gt;This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
-Results
-id="Par3"&gt;On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
- Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
- There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
-Conclusions
-id="Par4"&gt;The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
- Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
-Key Points
-id="Par5"&gt;
-• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
- These findings may help clinicians to identify severe patients quickly at admission.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,   Huangqing%Ouyang%NULL%1,   Lingli%Fu%NULL%1,   Shijie%Wang%NULL%1,   Jianglong%Han%NULL%1,   Kejie%Huang%NULL%1,   Mingfang%Jia%NULL%1,   Qibin%Song%NULL%1,   Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 outbreak has led to severe health burden in the elderly.
- Age, morbidity and dementia have been associated with adverse outcome.
-Aims
-To evaluate the impact of COVID-19 on health status in home-dwelling patients.
-Methods
-id="Par3"&gt;848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
- Items regarding change in health status and outcome since the onset of the outbreak were collected.
- COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
- Unplanned hospitalization, institutionalization and mortality were recorded.
-Results
-id="Par4"&gt;Patients were 79.7 years old (SD 7.1) and 63.1% were females.
- Ninety-five (11.2%) patients developed COVID-19-like symptoms.
- Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
- 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
- 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
- 37.9%, p &amp;lt; 0.001).
- Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
- Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
- Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
- COVID-19 and COPD were significantly associated with the rate of mortality.
-Discussion/conclusions
-id="Par5"&gt;A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
- Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
-Electronic supplementary material
-The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,    Alberto%Zucchelli%NULL%1,    Marinella%Turla%NULL%1,    Maria Sofia%Cotelli%NULL%1,    Sara%Fascendini%NULL%1,    Mara%Zanni%NULL%1,    Angelo%Bianchetti%NULL%1,    Matteo Peli%Psy%NULL%1,    Renzo%Rozzini%NULL%1,    Stefano%Boffelli%NULL%1,    Melania%Cappuccio%NULL%1,    Federica Gottardi%Psy%NULL%1,    Chiara Vecchi%Psy%NULL%1,    Daniele%Bellandi%NULL%1,    Claudia%Caminati%NULL%1,    Simona%Gentile%NULL%1,    Elena Lucchi%Psy%NULL%1,    Ignazio%Di Fazio%NULL%1,    Marina Zanetti%Psy%NULL%1,    Giuliana%Vezzadini%NULL%1,    Chiara Forlani%Psy%NULL%1,    Maura Cosseddu%Psy%NULL%1,    Rosanna Turrone%Psy%NULL%1,    Silvia Pelizzari%Psy%NULL%1,    Andrea%Scalvini%NULL%1,    Marco%Di Cesare%NULL%1,    Marta Grigolo%Psy%NULL%1,    Lina%Falanga%NULL%1,    Nives%Medici%NULL%1,    Nives%Palamini%NULL%1,    Elisa Zanacchi%Psy%NULL%1,    Eleonora Grossi%Psy%NULL%1,    Giuseppe%Bellelli%NULL%1,    Alessandra%Marengoni%NULL%1,    Marco%Trabucchi%NULL%1,    Alessandro%Padovani%alessandro.padovani@unibs.it%1,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
-Methods
-A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
- All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
- Outcomes of severely ill patients and non-severely ill patients were compared.
-Results
-id="Par3"&gt;Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
- Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
- Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
- According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
- Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
- 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
- 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
- 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
- 68.6%, p = 0.01), anorexia (60.5% vs.
- 35.3%, p = 0.01), chest tightness (60.5% vs.
-20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
- 0%, p = 0.03).
- Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
-Conclusions
-id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
- Treatments of COVID-19 is still experimental and more clinical trials are needed.
-</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,    Zhencang%Zheng%NULL%1,    Chao%Zhang%NULL%1,    Xijiang%Zhang%NULL%1,    Huijuan%Wu%NULL%1,    Jingdong%Wang%NULL%1,    Shuwei%Wang%NULL%1,    Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
- We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
-Methods
-This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
-Results
-id="Par3"&gt;On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
- Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
- There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
-Conclusions
-id="Par4"&gt;The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
- Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
-Key Points
-id="Par5"&gt;
-• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
- These findings may help clinicians to identify severe patients quickly at admission.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,    Huangqing%Ouyang%NULL%1,    Lingli%Fu%NULL%1,    Shijie%Wang%NULL%1,    Jianglong%Han%NULL%1,    Kejie%Huang%NULL%1,    Mingfang%Jia%NULL%1,    Qibin%Song%NULL%1,    Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 outbreak has led to severe health burden in the elderly.
- Age, morbidity and dementia have been associated with adverse outcome.
-Aims
-To evaluate the impact of COVID-19 on health status in home-dwelling patients.
-Methods
-848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
- Items regarding change in health status and outcome since the onset of the outbreak were collected.
- COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
- Unplanned hospitalization, institutionalization and mortality were recorded.
-Results
-id="Par4"&gt;Patients were 79.7 years old (SD 7.1) and 63.1% were females.
- Ninety-five (11.2%) patients developed COVID-19-like symptoms.
- Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
- 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
- 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
- 37.9%, p &amp;lt; 0.001).
- Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
- Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
- Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
- COVID-19 and COPD were significantly associated with the rate of mortality.
-Discussion/conclusions
-id="Par5"&gt;A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
- Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
-Electronic supplementary material
-The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,     Alberto%Zucchelli%NULL%1,     Marinella%Turla%NULL%1,     Maria Sofia%Cotelli%NULL%1,     Sara%Fascendini%NULL%1,     Mara%Zanni%NULL%1,     Angelo%Bianchetti%NULL%1,     Matteo Peli%Psy%NULL%1,     Renzo%Rozzini%NULL%1,     Stefano%Boffelli%NULL%1,     Melania%Cappuccio%NULL%1,     Federica Gottardi%Psy%NULL%1,     Chiara Vecchi%Psy%NULL%1,     Daniele%Bellandi%NULL%1,     Claudia%Caminati%NULL%1,     Simona%Gentile%NULL%1,     Elena Lucchi%Psy%NULL%1,     Ignazio%Di Fazio%NULL%1,     Marina Zanetti%Psy%NULL%1,     Giuliana%Vezzadini%NULL%1,     Chiara Forlani%Psy%NULL%1,     Maura Cosseddu%Psy%NULL%1,     Rosanna Turrone%Psy%NULL%1,     Silvia Pelizzari%Psy%NULL%1,     Andrea%Scalvini%NULL%1,     Marco%Di Cesare%NULL%1,     Marta Grigolo%Psy%NULL%1,     Lina%Falanga%NULL%1,     Nives%Medici%NULL%1,     Nives%Palamini%NULL%1,     Elisa Zanacchi%Psy%NULL%1,     Eleonora Grossi%Psy%NULL%1,     Giuseppe%Bellelli%NULL%1,     Alessandra%Marengoni%NULL%1,     Marco%Trabucchi%NULL%1,     Alessandro%Padovani%alessandro.padovani@unibs.it%1,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
-Methods
-A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
- All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
- Outcomes of severely ill patients and non-severely ill patients were compared.
-Results
-Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
- Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
- Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
- According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
- Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
- 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
- 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
- 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
- 68.6%, p = 0.01), anorexia (60.5% vs.
- 35.3%, p = 0.01), chest tightness (60.5% vs.
-20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
- 0%, p = 0.03).
- Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
-Conclusions
-id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
- Treatments of COVID-19 is still experimental and more clinical trials are needed.
-</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,     Zhencang%Zheng%NULL%1,     Chao%Zhang%NULL%1,     Xijiang%Zhang%NULL%1,     Huijuan%Wu%NULL%1,     Jingdong%Wang%NULL%1,     Shuwei%Wang%NULL%1,     Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
- We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
-Methods
-This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
-Results
-On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
- Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
- There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
-Conclusions
-id="Par4"&gt;The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
- Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
-Key Points
-id="Par5"&gt;
-• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
- These findings may help clinicians to identify severe patients quickly at admission.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,     Huangqing%Ouyang%NULL%1,     Lingli%Fu%NULL%1,     Shijie%Wang%NULL%1,     Jianglong%Han%NULL%1,     Kejie%Huang%NULL%1,     Mingfang%Jia%NULL%1,     Qibin%Song%NULL%1,     Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 outbreak has led to severe health burden in the elderly.
- Age, morbidity and dementia have been associated with adverse outcome.
-Aims
-To evaluate the impact of COVID-19 on health status in home-dwelling patients.
-Methods
-848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
- Items regarding change in health status and outcome since the onset of the outbreak were collected.
- COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
- Unplanned hospitalization, institutionalization and mortality were recorded.
-Results
-Patients were 79.7 years old (SD 7.1) and 63.1% were females.
- Ninety-five (11.2%) patients developed COVID-19-like symptoms.
- Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
- 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
- 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
- 37.9%, p &amp;lt; 0.001).
- Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
- Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
- Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
- COVID-19 and COPD were significantly associated with the rate of mortality.
-Discussion/conclusions
-id="Par5"&gt;A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
- Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
-Electronic supplementary material
-The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,      Alberto%Zucchelli%NULL%1,      Marinella%Turla%NULL%1,      Maria Sofia%Cotelli%NULL%1,      Sara%Fascendini%NULL%1,      Mara%Zanni%NULL%1,      Angelo%Bianchetti%NULL%1,      Matteo Peli%Psy%NULL%1,      Renzo%Rozzini%NULL%1,      Stefano%Boffelli%NULL%1,      Melania%Cappuccio%NULL%1,      Federica Gottardi%Psy%NULL%1,      Chiara Vecchi%Psy%NULL%1,      Daniele%Bellandi%NULL%1,      Claudia%Caminati%NULL%1,      Simona%Gentile%NULL%1,      Elena Lucchi%Psy%NULL%1,      Ignazio%Di Fazio%NULL%1,      Marina Zanetti%Psy%NULL%1,      Giuliana%Vezzadini%NULL%1,      Chiara Forlani%Psy%NULL%1,      Maura Cosseddu%Psy%NULL%1,      Rosanna Turrone%Psy%NULL%1,      Silvia Pelizzari%Psy%NULL%1,      Andrea%Scalvini%NULL%1,      Marco%Di Cesare%NULL%1,      Marta Grigolo%Psy%NULL%1,      Lina%Falanga%NULL%1,      Nives%Medici%NULL%1,      Nives%Palamini%NULL%1,      Elisa Zanacchi%Psy%NULL%1,      Eleonora Grossi%Psy%NULL%1,      Giuseppe%Bellelli%NULL%1,      Alessandra%Marengoni%NULL%1,      Marco%Trabucchi%NULL%1,      Alessandro%Padovani%alessandro.padovani@unibs.it%1,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-The aim of this study was to investigate the clinical characteristics of Corona Virus Disease 2019 in Taizhou, China.
-Methods
-A single center retrospective observational study was performed between Jan 1, 2020 and Mar 11, 2020 at Taizhou Public Health Medical Center, Zhejiang, China.
- All patients with confirmed Corona Virus Disease 2019 were enrolled, and their clinical data were gathered by reviewing electronic medical records.
- Outcomes of severely ill patients and non-severely ill patients were compared.
-Results
-Of 145 hospitalized patients with COVID-19, the average age was 47.5 years old (standard deviation, 14.6) and 54.5% were men.
- Hypertension was the most common comorbidity (15.2%), followed by diabetes mellitus (9.7%).
- Common symptoms included dry cough (81.4%), fever (75.2%), anorexia (42.8%), fatigue (40.7%), chest tightness (32.4%), diarrhea (26.9%) and dizziness (20%).
- According to imaging examination, 79.3% patients showed bilateral pneumonia, 18.6% showed unilateral pneumonia, 61.4% showed ground-glass opacity, and 2.1% showed no abnormal result.
- Compared with non-severely ill patients, severely ill patients were older (mean, years, 52.8 vs.
- 45.3, p &amp;lt; 0.01), had a higher proportion of diabetes mellitus (16.3% vs.
- 6.9%, p = 0.08), had a higher body mass index (mean, 24.78 vs.
- 23.20, p = 0.02) and were more likely to have fever (90.7% vs.
- 68.6%, p = 0.01), anorexia (60.5% vs.
- 35.3%, p = 0.01), chest tightness (60.5% vs.
-20.6%, p &amp;lt; 0.01) and dyspnea (7.0% vs.
- 0%, p = 0.03).
- Of the 43 severely ill patients, 6 (14%) received high-flow nasal cannula oxygen therapy, and 1 (2.3%) received invasive mechanical ventilation.
-Conclusions
-Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
- Treatments of COVID-19 is still experimental and more clinical trials are needed.
-</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,      Zhencang%Zheng%NULL%1,      Chao%Zhang%NULL%1,      Xijiang%Zhang%NULL%1,      Huijuan%Wu%NULL%1,      Jingdong%Wang%NULL%1,      Shuwei%Wang%NULL%1,      Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
- We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
-Methods
-This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
-Results
-On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
- Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
- There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
-Conclusions
-The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
- Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
-Key Points
-id="Par5"&gt;
-• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
- These findings may help clinicians to identify severe patients quickly at admission.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,      Huangqing%Ouyang%NULL%1,      Lingli%Fu%NULL%1,      Shijie%Wang%NULL%1,      Jianglong%Han%NULL%1,      Kejie%Huang%NULL%1,      Mingfang%Jia%NULL%1,      Qibin%Song%NULL%1,      Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-COVID-19 outbreak has led to severe health burden in the elderly.
- Age, morbidity and dementia have been associated with adverse outcome.
-Aims
-To evaluate the impact of COVID-19 on health status in home-dwelling patients.
-Methods
-848 home-dwelling outpatients with dementia contacted from April 27 to 30 and evaluated by a semi-structured interview to evaluate possible health complication due to COVID-19 from February 21 to April 30. Age, sex, education, clinical characteristics (including diagnosis of dementia) and flu vaccination history were obtained from previous medical records.
- Items regarding change in health status and outcome since the onset of the outbreak were collected.
- COVID-19 was diagnosed in patients who developed symptoms according to WHO criteria or tested positive at nasal/throat swab if hospitalized.
- Unplanned hospitalization, institutionalization and mortality were recorded.
-Results
-Patients were 79.7 years old (SD 7.1) and 63.1% were females.
- Ninety-five (11.2%) patients developed COVID-19-like symptoms.
- Non COVID-19 and COVID-19 patients differed for frequency of diabetes (18.5% vs.
- 37.9%, p &amp;lt; 0.001), COPD (7.3% vs.
- 18.9%, p &amp;lt; 0.001), and previous flu vaccination (56.7% vs.
- 37.9%, p &amp;lt; 0.001).
- Diabetes and COPD were positively associated with COVID-19, whereas higher dementia severity and flu vaccination showed an inverse association.
- Among COVID-19 patients, 42 (44.2%) were hospitalized while 32 (33.7%) died.
- Non COVID-19 patients’ hospitalization and mortality rate were 1.9% and 1.2%, respectively.
- COVID-19 and COPD were significantly associated with the rate of mortality.
-Discussion/conclusions
-A high proportion of adverse outcome related to COVID-19 was observed in home-dwelling elderly patients with dementia.
- Active monitoring though telehealth programs would be useful particularly for those at highest risk of developing COVID-19 and its adverse outcomes.
-Electronic supplementary material
-The online version of this article (10.1007/s40520-020-01676-z) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,       Alberto%Zucchelli%NULL%1,       Marinella%Turla%NULL%1,       Maria Sofia%Cotelli%NULL%1,       Sara%Fascendini%NULL%1,       Mara%Zanni%NULL%1,       Angelo%Bianchetti%NULL%1,       Matteo Peli%Psy%NULL%1,       Renzo%Rozzini%NULL%1,       Stefano%Boffelli%NULL%1,       Melania%Cappuccio%NULL%1,       Federica Gottardi%Psy%NULL%1,       Chiara Vecchi%Psy%NULL%1,       Daniele%Bellandi%NULL%1,       Claudia%Caminati%NULL%1,       Simona%Gentile%NULL%1,       Elena Lucchi%Psy%NULL%1,       Ignazio%Di Fazio%NULL%1,       Marina Zanetti%Psy%NULL%1,       Giuliana%Vezzadini%NULL%1,       Chiara Forlani%Psy%NULL%1,       Maura Cosseddu%Psy%NULL%1,       Rosanna Turrone%Psy%NULL%1,       Silvia Pelizzari%Psy%NULL%1,       Andrea%Scalvini%NULL%1,       Marco%Di Cesare%NULL%1,       Marta Grigolo%Psy%NULL%1,       Lina%Falanga%NULL%1,       Nives%Medici%NULL%1,       Nives%Palamini%NULL%1,       Elisa Zanacchi%Psy%NULL%1,       Eleonora Grossi%Psy%NULL%1,       Giuseppe%Bellelli%NULL%1,       Alessandra%Marengoni%NULL%1,       Marco%Trabucchi%NULL%1,       Alessandro%Padovani%alessandro.padovani@unibs.it%1,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objectives
-To characterize the chest computed tomography (CT) findings of severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) according to clinical severity.
- We compared the CT features of common cases and severe cases, symptomatic patients and asymptomatic patients, and febrile and afebrile patients.
-Methods
-This was a retrospective analysis of the clinical and thoracic CT features of 120 consecutive patients with confirmed SARS-CoV-2 pneumonia admitted to a tertiary university hospital between January 10 and February 10, 2020, in Wuhan city, China.
-Results
-On admission, the patients generally complained of fever, cough, shortness of breath, and myalgia or fatigue, with diarrhea often present in severe cases.
- Severe patients were 20 years older on average and had comorbidities and an elevated lactate dehydrogenase (LDH) level.
- There were no differences in the CT findings between asymptomatic and symptomatic common type patients or between afebrile and febrile patients, defined according to Chinese National Health Commission guidelines.
-Conclusions
-The clinical and CT features at admission may enable clinicians to promptly evaluate the prognosis of patients with SARS-CoV-2 pneumonia.
- Clinicians should be aware that clinically silent cases may present with CT features similar to those of symptomatic common patients.
-Key Points
-• The clinical features and predominant patterns of abnormalities on CT for asymptomatic, typic common, and severe cases were summarized.
- These findings may help clinicians to identify severe patients quickly at admission.
-Electronic supplementary material
-The online version of this article (10.1007/s00330-020-06854-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,       Huangqing%Ouyang%NULL%1,       Lingli%Fu%NULL%1,       Shijie%Wang%NULL%1,       Jianglong%Han%NULL%1,       Kejie%Huang%NULL%1,       Mingfang%Jia%NULL%1,       Qibin%Song%NULL%1,       Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
   </si>
 </sst>
 </file>
@@ -2657,10 +2262,10 @@
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
         <v>98</v>
@@ -2709,10 +2314,10 @@
         <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>349</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
         <v>107</v>
@@ -3697,10 +3302,10 @@
         <v>255</v>
       </c>
       <c r="D49" t="s">
-        <v>354</v>
+        <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="F49" t="s">
         <v>258</v>

--- a/Covid_19_Dataset_and_References/References/42.xlsx
+++ b/Covid_19_Dataset_and_References/References/42.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="382">
   <si>
     <t>Doi</t>
   </si>
@@ -1711,6 +1711,168 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,   Sarah%Al-Youha%sarahalyouha@gmail.com%2,   Mohammad H.%Jamal%NULL%2,   Mohannad%Al-Haddad%NULL%2,   Ali%Al-Muhaini%NULL%2,   Fahad%Al-Ghimlas%NULL%2,   Salman%Al-Sabah%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,   Samuel L%Bruce%NULL%0,   Cody L%Slater%NULL%0,   Jonathan R%Tiao%NULL%0,   Matthew R%Baldwin%NULL%0,   R Graham%Barr%NULL%0,   Bernard P%Chang%NULL%0,   Katherine H%Chau%NULL%0,   Justin J%Choi%NULL%0,   Nicholas%Gavin%NULL%0,   Parag%Goyal%NULL%0,   Angela M%Mills%NULL%0,   Ashmi A%Patel%NULL%0,   Marie-Laure S%Romney%NULL%0,   Monika M%Safford%NULL%0,   Neil W%Schluger%NULL%0,   Soumitra%Sengupta%NULL%0,   Magdalena E%Sobieszczyk%NULL%0,   Jason E%Zucker%NULL%0,   Paul A%Asadourian%NULL%0,   Fletcher M%Bell%NULL%0,   Rebekah%Boyd%NULL%0,   Matthew F%Cohen%NULL%0,   MacAlistair I%Colquhoun%NULL%0,   Lucy A%Colville%NULL%0,   Joseph H%de Jonge%NULL%0,   Lyle B%Dershowitz%NULL%0,   Shirin A%Dey%NULL%0,   Katherine A%Eiseman%NULL%0,   Zachary P%Girvin%NULL%0,   Daniella T%Goni%NULL%0,   Amro A%Harb%NULL%0,   Nicholas%Herzik%NULL%0,   Sarah%Householder%NULL%0,   Lara E%Karaaslan%NULL%0,   Heather%Lee%NULL%0,   Evan%Lieberman%NULL%0,   Andrew%Ling%NULL%0,   Ree%Lu%NULL%0,   Arthur Y%Shou%NULL%0,   Alexander C%Sisti%NULL%0,   Zachary E%Snow%NULL%0,   Colin P%Sperring%NULL%0,   Yuqing%Xiong%NULL%0,   Henry W%Zhou%NULL%0,   Karthik%Natarajan%NULL%0,   George%Hripcsak%NULL%0,   Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,   Mark%Caridi-Scheible%NULL%0,   James M.%Blum%NULL%0,   Chad%Robichaux%NULL%0,   Colleen%Kraft%NULL%0,   Jesse T.%Jacob%NULL%0,   Craig S.%Jabaley%NULL%0,   David%Carpenter%NULL%0,   Roberta%Kaplow%NULL%0,   Alfonso C.%Hernandez-Romieu%NULL%0,   Max W.%Adelman%NULL%0,   Greg S.%Martin%NULL%0,   Craig M.%Coopersmith%NULL%0,   David J.%Murphy%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Berenguer%NULL%1,   Pablo%Ryan%NULL%2,   Jesús%Rodríguez-Baño%NULL%1,   Inmaculada%Jarrín%NULL%4,   Jordi%Carratalà%NULL%4,   Jerónimo%Pachón%NULL%2,   María%Yllescas%NULL%1,   José Ramón%Arriba%NULL%1,   NULL%NULL%NULL%0,   Esther%Aznar Muñoz%NULL%1,   Pedro%Gil Divasson%NULL%1,   Patricia%González Muñiz%NULL%1,   Clara%Muñoz Aguirre%NULL%1,   Juan Carlos%López%NULL%3,   Juan Carlos%López%NULL%0,   Juan Carlos%López%NULL%0,   Margarita%Ramírez-Schacke%NULL%1,   Isabel%Gutiérrez%NULL%1,   Francisco%Tejerina%NULL%1,   Teresa%Aldámiz-Echevarría%NULL%1,   Cristina%Díez%NULL%1,   Chiara%Fanciulli%NULL%1,   Leire%Pérez-Latorre%NULL%1,   Francisco%Parras%NULL%1,   Pilar%Catalán%NULL%1,   María E.%García-Leoni%NULL%1,   Isabel%Pérez-Tamayo%NULL%1,   Luis%Puente%NULL%1,   Jamil%Cedeño%NULL%1,   Juan%Berenguer%NULL%1,   Marta%Díaz Menéndez%NULL%3,   Marta%Díaz Menéndez%NULL%0,   Marta%Díaz Menéndez%NULL%0,   Fernando%de la Calle Prieto%NULL%1,   Marta%Arsuaga Vicente%NULL%1,   Elena%Trigo Esteban%NULL%1,   Mª del Mar%Lago Núñez%NULL%1,   Rosa%de Miguel Buckley%NULL%1,   Julen%Cadiñaños Loidi%NULL%1,   Carmen%Busca Arenzana%NULL%1,   Alfredo%Mican%NULL%1,   Marta%Mora Rillo%NULL%1,   Juan Carlos%Ramos Ramos%NULL%1,   Belén%Loeches Yagüe%NULL%1,   José Ignacio%Bernardino de la Serna%NULL%1,   Julio%García Rodríguez%NULL%1,   José Ramón%Arribas López%NULL%1,   Ana%Such Diaz%NULL%3,   Ana%Such Diaz%NULL%0,   Ana%Such Diaz%NULL%0,   Elena%Álvaro Alonso%NULL%1,   Elsa%Izquierdo García%NULL%1,   Juan%Torres Macho%NULL%1,   Guillermo%Cuevas Tascon%NULL%1,   Jesús%Troya García%NULL%1,   Beatriz%Mestre Gómez%NULL%1,   Eva%Jiménez González de Buitrago%NULL%1,   Inés%Fernández Jiménez%NULL%1,   Ana Josefa%Tebar Martínez%NULL%1,   Fátima%Brañas Baztán%NULL%1,   Jorge%Valencia de la Rosa%NULL%1,   Mario%Pérez Butragueño%NULL%1,   Marta%Alvarado Blasco%NULL%1,   Pablo%Ryan%NULL%0,   Mª Antonia%Sepúlveda Berrocal%NULL%3,   Mª Antonia%Sepúlveda Berrocal%NULL%0,   Mª Antonia%Sepúlveda Berrocal%NULL%0,   Carmen%Yera Bergua%NULL%1,   Pilar%Toledano Sierra%NULL%1,   Verónica%Cano Llorente%NULL%1,   Sadaf%Zafar Iqubal-Mirza%NULL%1,   Gema%Muñiz%NULL%1,   Inmaculada%Martín Pérez%NULL%1,   Helena%Mozas Moriñigo%NULL%1,   Ana%Alguacil%NULL%1,   María Paz%García Butenegro%NULL%1,   Ana Isabel%Peláez Ballesta%NULL%3,   Ana Isabel%Peláez Ballesta%NULL%0,   Ana Isabel%Peláez Ballesta%NULL%0,   Elena%Morcillo Rodríguez%NULL%1,   Josune%Goikoetxea Agirre%NULL%3,   Josune%Goikoetxea Agirre%NULL%0,   Josune%Goikoetxea Agirre%NULL%0,   María José%Blanco Vidal%NULL%1,   Javier%Nieto Arana%NULL%1,   Mikel%del Álamo Martínez de Lagos%NULL%1,   Isabel A.%Pérez Hernández%NULL%3,   Isabel A.%Pérez Hernández%NULL%0,   Isabel A.%Pérez Hernández%NULL%0,   Inés%Pérez Zapata%NULL%1,   Rafael%Silvariño Fernández%NULL%3,   Rafael%Silvariño Fernández%NULL%0,   Rafael%Silvariño Fernández%NULL%0,   Jon%Ugalde Espiñeira%NULL%1,   Víctor%Asensi Álvarez%NULL%3,   Víctor%Asensi Álvarez%NULL%0,   Víctor%Asensi Álvarez%NULL%0,   Lucia%Suárez Pérez%NULL%1,   Silvia%Suárez Diaz%NULL%1,   Carmen%Yllera Gutiérrez%NULL%1,   Vicente%Boix%NULL%3,   Vicente%Boix%NULL%0,   Vicente%Boix%NULL%0,   Marcos%Díez Martínez%NULL%1,   Melissa%Carreres Candela%NULL%1,   Cristina%Gómez-Ayerbe%NULL%3,   Cristina%Gómez-Ayerbe%NULL%0,   Cristina%Gómez-Ayerbe%NULL%0,   Javier%Sánchez-Lora%NULL%1,   José Luis%Velasco Garrido%NULL%1,   María%López-Jódar%NULL%1,   Jesús%Santos González%NULL%1,   Jesús%Ruiz Aragón%NULL%3,   Jesús%Ruiz Aragón%NULL%0,   Jesús%Ruiz Aragón%NULL%0,   Ianire%Virto Peña%NULL%1,   Vanessa%Alende Castro%NULL%3,   Vanessa%Alende Castro%NULL%0,   Vanessa%Alende Castro%NULL%0,   Ruth%Brea Aparicio%NULL%1,   Sonia%Vega Molpeceres%NULL%3,   Sonia%Vega Molpeceres%NULL%0,   Sonia%Vega Molpeceres%NULL%0,   Estel%Pons Viñas%NULL%1,   Oscar%del Río Pérez%NULL%3,   Oscar%del Río Pérez%NULL%0,   Oscar%del Río Pérez%NULL%0,   Silvia%Valero Rovira%NULL%1,   Judit%Villar-García%NULL%3,   Judit%Villar-García%NULL%0,   Judit%Villar-García%NULL%0,   Joan%Gómez-Junyent%NULL%1,   Hernando%Knobel%NULL%1,   María Cecilia%Cánepa%NULL%1,   Silvia%Castañeda Espinosa%NULL%1,   Luisa%Sorli Redò%NULL%1,   Roberto%Güerri-Fernández%NULL%1,   María%Milagro Montero%NULL%1,   Juan Pablo%Horcajada%NULL%1,   Elisa%García Vázquez%NULL%3,   Elisa%García Vázquez%NULL%0,   Elisa%García Vázquez%NULL%0,   Encarnación%Moral Escudero%NULL%1,   Alicia%Hernández Torres%NULL%1,   Esther%García Almodóvar%NULL%3,   Esther%García Almodóvar%NULL%0,   Esther%García Almodóvar%NULL%0,   Carmen%Sáez Barberá%NULL%3,   Carmen%Sáez Barberá%NULL%0,   Carmen%Sáez Barberá%NULL%0,   Zineb%Karroud%NULL%1,   José%Hernández Quero%NULL%3,   José%Hernández Quero%NULL%0,   José%Hernández Quero%NULL%0,   David%Vinuesa García%NULL%1,   José Luis%García Fogeda%NULL%1,   José Antonio%Peregrina%NULL%1,   María%Novella Mena%NULL%3,   María%Novella Mena%NULL%0,   María%Novella Mena%NULL%0,   Cristina%Hernández Gutiérrez%NULL%1,   José%Sanz Moreno%NULL%1,   Ramón%Pérez Tanoira%NULL%1,   Rodrigo%Sierra Rodríguez%NULL%1,   David%Alonso Menchén%NULL%1,   Aida%Gutiérrez García%NULL%1,   Alberto%Arranz Caso%NULL%1,   Juan%Cuadros González%NULL%1,   Melchor%Álvarez de Mon Soto%NULL%1,   Vicente Ferrer%Díaz de Brito Fernández%NULL%3,   Vicente Ferrer%Díaz de Brito Fernández%NULL%0,   Vicente Ferrer%Díaz de Brito Fernández%NULL%0,   Montserrat%Sanmarti Vilamala%NULL%1,   Aina%Gabarrell Pascuet%NULL%1,   Daniel%Molina Morant%NULL%1,   Sergio%España Cueto%NULL%1,   Jonathan%Cámara Fernández%NULL%1,   Albert%Sabater Gil%NULL%1,   Laura%Muñoz López%NULL%1,   Paula%Sáez Escolano%NULL%3,   Paula%Sáez Escolano%NULL%0,   Paula%Sáez Escolano%NULL%0,   Esperanza%Bejarano Tello%NULL%1,   Marco Antonio%Sempere Alcocer%NULL%3,   Marco Antonio%Sempere Alcocer%NULL%0,   Marco Antonio%Sempere Alcocer%NULL%0,   Salvador%Álvarez Martin%NULL%1,   Ignacio%De los Santos Gil%NULL%3,   Ignacio%De los Santos Gil%NULL%0,   Ignacio%De los Santos Gil%NULL%0,   Lucio%García-Fraile%NULL%1,   Miguel%Sampedro Núñez%NULL%1,   Ana%Barrios Blandino%NULL%1,   Carlos%Rodríguez Franco%NULL%1,   Daniel%Useros Brañas%NULL%1,   Almudena%Villa Martí%NULL%1,   Javier%Oliver Ortega%NULL%1,   Alexia%Costanza Espiño Álvarez%NULL%1,   Jesús%Sanz Sanz%NULL%1,   María%Rexach Fumaña%NULL%3,   María%Rexach Fumaña%NULL%0,   María%Rexach Fumaña%NULL%0,   Ivette%Abascal Cambras%NULL%1,   Ana del Cielo%Pérez Jaén%NULL%1,   Clara%Sala Jofre%NULL%3,   Clara%Sala Jofre%NULL%0,   Clara%Sala Jofre%NULL%0,   Susana%Casas Rodríguez%NULL%1,   Cecilia%Tortajada Alamilla%NULL%3,   Cecilia%Tortajada Alamilla%NULL%0,   Cecilia%Tortajada Alamilla%NULL%0,   Carmina%Oltra%NULL%1,   Mar%Masiá Canuto%NULL%3,   Mar%Masiá Canuto%NULL%0,   Mar%Masiá Canuto%NULL%0,   Félix%Gutiérrez Rodero%NULL%1,   Ana%Ferrer Ribera%NULL%3,   Ana%Ferrer Ribera%NULL%0,   Ana%Ferrer Ribera%NULL%0,   Carlos%Bea Serrano%NULL%1,   Miguel%Pedromingo Kus%NULL%3,   Miguel%Pedromingo Kus%NULL%0,   Miguel%Pedromingo Kus%NULL%0,   María Ángeles%Garcinuño%NULL%1,   Silvana%Fiorante%NULL%1,   Sergio%Pérez Pinto%NULL%1,   Pilar%Hernández Machín%NULL%3,   Pilar%Hernández Machín%NULL%0,   Pilar%Hernández Machín%NULL%0,   Alba%Alastrué Violeta%NULL%1,   María Carmen%Fariñas Álvarez%NULL%3,   María Carmen%Fariñas Álvarez%NULL%0,   María Carmen%Fariñas Álvarez%NULL%0,   Claudia%González Rico%NULL%1,   Francisco%Arnaiz de las Revillas%NULL%1,   Jorge%Calvo%NULL%1,   Mónica%Gozalo%NULL%1,   Francisco%Mora Gómez%NULL%3,   Francisco%Mora Gómez%NULL%0,   Francisco%Mora Gómez%NULL%0,   Ana%Milagro Beamonte%NULL%3,   Ana%Milagro Beamonte%NULL%0,   Ana%Milagro Beamonte%NULL%0,   Miriam%Latorre-Millán%NULL%1,   Antonio%Rezusta López%NULL%1,   Ana%Martínez Sapiña%NULL%1,   Yolanda%Meije%NULL%3,   Yolanda%Meije%NULL%0,   Yolanda%Meije%NULL%0,   Alejandra%Duarte Borges%NULL%1,   Julia%Pareja Coca%NULL%1,   Mercedes%Clemente Presas%NULL%1,   Juan Emilio%Losa García%NULL%3,   Juan Emilio%Losa García%NULL%0,   Juan Emilio%Losa García%NULL%0,   Ana%Vegas Serrano%NULL%1,   M. Teresa%Pérez-Rodríguez%NULL%3,   M. Teresa%Pérez-Rodríguez%NULL%0,   M. Teresa%Pérez-Rodríguez%NULL%0,   Alexandre%Pérez González%NULL%1,   Moncef%Belhassen-García%NULL%3,   Moncef%Belhassen-García%NULL%0,   Moncef%Belhassen-García%NULL%0,   Beatriz%Rodríguez-Alonso%NULL%1,   Amparo%López-Bernus%NULL%1,   Cristina%Carbonell%NULL%1,   Rafael%Torres Perea%NULL%3,   Rafael%Torres Perea%NULL%0,   Rafael%Torres Perea%NULL%0,   Juan%Cantón de Seoane%NULL%1,   Blanca%Alonso%NULL%1,   Sara Lidia%Kamal%NULL%1,   Lucia%Cajuela%NULL%1,   David%Roa%NULL%1,   Miguel%Cervero%NULL%1,   Alberto%Oreja%NULL%1,   Juan Pablo%Avilés%NULL%1,   Lidia%Martín%NULL%1,   Iván%Pelegrín Senent%NULL%3,   Iván%Pelegrín Senent%NULL%0,   Iván%Pelegrín Senent%NULL%0,   Rosana%Rouco Esteves Marques%NULL%1,   Jorge%Parra Ruiz%NULL%3,   Jorge%Parra Ruiz%NULL%0,   Jorge%Parra Ruiz%NULL%0,   Violeta%Ramos Sesma%NULL%1,   Jessica%Abadia Otero%NULL%3,   Jessica%Abadia Otero%NULL%0,   Jessica%Abadia Otero%NULL%0,   Juan%Salillas Hernando%NULL%3,   Juan%Salillas Hernando%NULL%0,   Juan%Salillas Hernando%NULL%0,   Robert%Torres Sánchez del Arco%NULL%1,   Miguel%Torralba González de Suso%NULL%1,   Alberto%Serrano Martínez%NULL%1,   Sergio%Gilaberte Reyzábal%NULL%1,   Marina%Pacheco Martínez-Atienza%NULL%1,   Mónica%Liébana Gómez%NULL%1,   Sara%Fernández Rodríguez%NULL%1,   Álvaro%Varela Plaza%NULL%1,   Henar%Calvo Sánchez%NULL%1,   Patricia%Martínez Martín%NULL%3,   Patricia%Martínez Martín%NULL%0,   Patricia%Martínez Martín%NULL%0,   Patricia%González- Ruano%NULL%1,   Eduardo%Malmierca Corral%NULL%1,   Isabel%Rábago Lorite%NULL%1,   Beatriz%Pérez-Monte Mínguez%NULL%1,   Ángeles%García Flores%NULL%3,   Ángeles%García Flores%NULL%0,   Ángeles%García Flores%NULL%0,   Pere%Comas Casanova%NULL%1,   Merce%Sirisi%NULL%3,   Merce%Sirisi%NULL%0,   Merce%Sirisi%NULL%0,   Richard%Rojas%NULL%1,   José Luis%Díaz de Tuesta del Arco%NULL%3,   José Luis%Díaz de Tuesta del Arco%NULL%0,   José Luis%Díaz de Tuesta del Arco%NULL%0,   Ruth%Figueroa Cerón%NULL%1,   Ander%González Sarria%NULL%1,   Remedios%Alemán Valls%NULL%3,   Remedios%Alemán Valls%NULL%0,   Remedios%Alemán Valls%NULL%0,   María del Mar%Alonso Socas%NULL%1,   Oscar%Sanz Peláez%NULL%3,   Oscar%Sanz Peláez%NULL%0,   Oscar%Sanz Peláez%NULL%0,   Karim%Mohamed Ramírez%NULL%1,   Melchor%Riera Jaume%NULL%3,   Melchor%Riera Jaume%NULL%0,   Melchor%Riera Jaume%NULL%0,   Helem Haydee%Vilchez%NULL%1,   Francesc%Albertí%NULL%1,   Ana Isabel%Cañabate%NULL%1,   Víctor J.%Moreno Cuerda%NULL%3,   Víctor J.%Moreno Cuerda%NULL%0,   Víctor J.%Moreno Cuerda%NULL%0,   Silvia%Álvarez Kaelis%NULL%1,   Beatriz%Álvarez Zapatero%NULL%1,   Alejandro%García García%NULL%1,   Elena%Isaba Ares%NULL%1,   Covadonga%Morcate Fernández%NULL%1,   Andrea%Pérez Rodríguez%NULL%1,   Lucía%Ramos Merino%NULL%3,   Lucía%Ramos Merino%NULL%0,   Lucía%Ramos Merino%NULL%0,   Laura%Castelo Corral%NULL%1,   María%Rodríguez Mahía%NULL%1,   Mónica%González Bardanca%NULL%1,   Efrén%Sánchez Vidal%NULL%1,   Enrique%Míguez Rey%NULL%1,   Javier%De la Torre Lima%NULL%3,   Javier%De la Torre Lima%NULL%0,   Javier%De la Torre Lima%NULL%0,   José Mª%García de Lomas Guerrero%NULL%1,   Elena%Morte%NULL%3,   Elena%Morte%NULL%0,   Elena%Morte%NULL%0,   Silvia%Loscos%NULL%1,   Ana%Camón%NULL%1,   Lucía%Gómez García%NULL%3,   Lucía%Gómez García%NULL%0,   Lucía%Gómez García%NULL%0,   Lucia%Boix Palop%NULL%1,   Beatriz%Dietl Gómez-Luengo%NULL%1,   Iris%Pedrola Gorrea%NULL%3,   Iris%Pedrola Gorrea%NULL%0,   Iris%Pedrola Gorrea%NULL%0,   Amparo%Blasco Claramunt%NULL%1,   Cristina%López Mestanza%NULL%3,   Cristina%López Mestanza%NULL%0,   Cristina%López Mestanza%NULL%0,   Esther%Fraile Villarejo%NULL%1,   Tomás%Tosco Núñez%NULL%3,   Tomás%Tosco Núñez%NULL%0,   Tomás%Tosco Núñez%NULL%0,   María%Aroca Ferri%NULL%1,   José Tomas%Algado Rabasa%NULL%3,   José Tomas%Algado Rabasa%NULL%0,   José Tomas%Algado Rabasa%NULL%0,   Ana María%Garijo Saiz%NULL%1,   Concepción%Amador Prous%NULL%1,   Jesús Rodriguez%Baño%NULL%3,   Jesús Rodriguez%Baño%NULL%0,   Jesús Rodriguez%Baño%NULL%0,   Pilar%Retamar%NULL%1,   Adoración%Valiente%NULL%1,   Luis E.%López-Cortés%NULL%1,   Jesús%Sojo%NULL%1,   Belén%Gutiérrez-Gutiérrez%NULL%1,   José%Bravo-Ferrer%NULL%1,   Elena%Salamanca%NULL%1,   Zaira R.%Palacios%NULL%1,   Patricia%Pérez-Palacios%NULL%1,   Enrique%Peral%NULL%1,   José Antonio%Pérez de León%NULL%1,   Jesús%Sánchez-Gómez%NULL%1,   Lucía%Marín-Barrera%NULL%1,   Domingo%García-Jiménez%NULL%1,   Jordi%Carratalà%NULL%0,   Jordi%Carratalà%NULL%0,   Jordi%Carratalà%NULL%0,   Gabriela%Abelenda-Alonso%NULL%1,   Carmen%Ardanuy%NULL%1,   Alba%Bergas%NULL%1,   Guillermo%Cuervo%NULL%1,   María Ángeles%Domínguez%NULL%1,   Miguel%Fernández-Huerta%NULL%1,   Carlota%Gudiol%NULL%1,   Laia%Lorenzo-Esteller%NULL%1,   Jordi%Niubó%NULL%1,   Sandra%Pérez-Recio%NULL%1,   Daniel%Podzamczer%NULL%1,   Miquel%Pujol%NULL%1,   Alexander%Rombauts%NULL%1,   Núria%Trullen%NULL%1,   Miguel%Salavert Lletí%NULL%3,   Miguel%Salavert Lletí%NULL%0,   Miguel%Salavert Lletí%NULL%0,   Iván%Castro Hernández%NULL%1,   Adriana%Hernández Belmonte%NULL%3,   Adriana%Hernández Belmonte%NULL%0,   Adriana%Hernández Belmonte%NULL%0,   Raquel%Martínez Goñi%NULL%1,   Marta%Navarro Vilasaró%NULL%3,   Marta%Navarro Vilasaró%NULL%0,   Marta%Navarro Vilasaró%NULL%0,   Sonia%Calzado Isbert%NULL%1,   Manuel%Cervantes García%NULL%1,   Aina%Gomila Grange%NULL%1,   Oriol%Gasch Blasi%NULL%1,   María Luisa%Machado Sicilia%NULL%1,   Eva%Van den Eynde Otero%NULL%1,   Luis%Falgueras López%NULL%1,   María del Carmen%Navarro Sáez%NULL%1,   Esteban%Martínez%NULL%3,   Esteban%Martínez%NULL%0,   Esteban%Martínez%NULL%0,   Mª Ángeles%Marcos%NULL%1,   Mar%Mosquera%NULL%1,   José Luis%Blanco%NULL%1,   Montserrat%Laguno%NULL%1,   Jhon%Rojas%NULL%1,   Ana%González-Cordón%NULL%1,   Alexy%Inciarte%NULL%1,   Berta%Torres%NULL%1,   Lorena%De la Mora%NULL%1,   Alex%Soriano%NULL%0,   Olalla%Martínez Macias%NULL%3,   Olalla%Martínez Macias%NULL%0,   Olalla%Martínez Macias%NULL%0,   Virginia%Pérez Doñate%NULL%1,   Alfonso%Cabello Úbeda%NULL%3,   Alfonso%Cabello Úbeda%NULL%0,   Alfonso%Cabello Úbeda%NULL%0,   Nerea%Carrasco Antón%NULL%1,   Beatriz%Álvarez Álvarez%NULL%1,   Elizabet%Petkova Saiz%NULL%1,   Miguel%Górgolas Hernández-Mora%NULL%1,   Laura%Prieto Pérez%NULL%1,   Irene%Carrillo Acosta%NULL%1,   Sara%Heili Frades%NULL%1,   Felipe%Villar Álvarez%NULL%1,   Ricardo%Fernández Roblas%NULL%1,   José María%Milicua Muñoz%NULL%1,   Virginia%Fernández Espinilla%NULL%3,   Virginia%Fernández Espinilla%NULL%0,   Virginia%Fernández Espinilla%NULL%0,   Carlos Jesús%Dueñas Gutiérrez%NULL%1,   Cristina%Hernán García%NULL%1,   Fernando%González-Romo%NULL%3,   Fernando%González-Romo%NULL%0,   Fernando%González-Romo%NULL%0,   Paloma%Merino Amador%NULL%1,   Alba%Rueda López%NULL%1,   Jorge%Martínez Jordán%NULL%1,   Sara%Medrano Pardo%NULL%1,   Irene%Díaz de la Torre%NULL%1,   Yolanda%Posada Franco%NULL%1,   Alberto%Delgado-Iribarren%NULL%1,   Joaquín%López-Contreras González%NULL%3,   Joaquín%López-Contreras González%NULL%0,   Joaquín%López-Contreras González%NULL%0,   Pablo%Pascual Alonso%NULL%1,   Virginia%Pomar Solchaga%NULL%1,   Nuria%Rabella García%NULL%1,   Natividad%Benito Hernández%NULL%1,   Pere%Domingo Pedrol%NULL%1,   Xavier%Bonfill Cosp%NULL%1,   Rafael%Padrós Selma%NULL%1,   Mireia%Puig Campmany%NULL%1,   Jordi%Mancebo Cortés%NULL%1,   Mercè%Gurguí Ferrer%NULL%1,   Melania%Íñigo Pestaña%NULL%3,   Melania%Íñigo Pestaña%NULL%0,   Melania%Íñigo Pestaña%NULL%0,   Alejandra%Pérez García%NULL%1,   Patricia%Sorní Moreno%NULL%3,   Patricia%Sorní Moreno%NULL%0,   Patricia%Sorní Moreno%NULL%0,   Nora%Izko Gartzia%NULL%1,   Francisco Javier%Membrillo de Novales%NULL%3,   Francisco Javier%Membrillo de Novales%NULL%0,   Francisco Javier%Membrillo de Novales%NULL%0,   María%Simón Sacristán%NULL%1,   Maribel%Zamora Cintas%NULL%1,   Yolanda%Martínez Martínez%NULL%1,   Pablo%Fernández-González%NULL%1,   Francisco%Alcántara Nicolás%NULL%1,   Alejandro%Aguirre Vila-Cora%NULL%1,   Elena%López Tizón%NULL%1,   Germán%Ramírez-Olivencia%NULL%1,   Miriam%Estébanez Muñoz%NULL%1,   Ester%Sáez de Adana Arróniz%NULL%3,   Ester%Sáez de Adana Arróniz%NULL%0,   Ester%Sáez de Adana Arróniz%NULL%0,   Joseba%Portu Zapirain%NULL%1,   Juan Carlos%Gainzarain Arana%NULL%1,   Zuriñe%Ortiz de Zárate Ibarra%NULL%1,   Miguel Ángel%Moran Rodríguez%NULL%1,   Andrés%Canut Blasco%NULL%1,   Silvia%Hernáez Crespo%NULL%1,   Leire%Balerdi Sarasola%NULL%1,   Cristina%Morales García%NULL%1,   Miguel%Corral Saracho%NULL%1,   Zeltia%Valcarce González%NULL%1,   Noelia%Arenal Andrés%NULL%3,   Noelia%Arenal Andrés%NULL%0,   Noelia%Arenal Andrés%NULL%0,   Raquel Elisa%Rodríguez Tarazona%NULL%1,   Laura%Iglesias Llorente%NULL%3,   Laura%Iglesias Llorente%NULL%0,   Laura%Iglesias Llorente%NULL%0,   Beatriz%Loureiro Rodríguez%NULL%1,   Adrián%Sánchez Montalvá%NULL%3,   Adrián%Sánchez Montalvá%NULL%0,   Adrián%Sánchez Montalvá%NULL%0,   Juan%Espinosa Pereiro%NULL%1,   Benito%Almirante%NULL%0,   Marta%Miarons%NULL%1,   Júlia%Sellarés%NULL%1,   María%Larrosa%NULL%1,   Sonia%García%NULL%1,   Blanca%Marzo%NULL%1,   Miguel%Villamarín%NULL%1,   Nuria%Fernández%NULL%1,   Conchita%Pérez-Jorge Peremarch%NULL%3,   Conchita%Pérez-Jorge Peremarch%NULL%0,   Conchita%Pérez-Jorge Peremarch%NULL%0,   Elena%Resino Foz%NULL%1,   Andrea%Espigares Correa%NULL%1,   Teresa%Álvarez de Espejo Montiel%NULL%1,   Iván%Navas Clemente%NULL%1,   María Isabel%Quijano Contreras%NULL%1,   Luis Alberto%Nieto Fernández del Campo%NULL%1,   Guillermo%Jiménez Álvarez%NULL%1,   Mercedes%Guillamón Sánchez%NULL%3,   Mercedes%Guillamón Sánchez%NULL%0,   Mercedes%Guillamón Sánchez%NULL%0,   Josefina%García García%NULL%1,   Constanza%Muñoz Hornero%NULL%3,   Constanza%Muñoz Hornero%NULL%0,   Constanza%Muñoz Hornero%NULL%0,   Ana%Mariño Callejo%NULL%3,   Ana%Mariño Callejo%NULL%0,   Ana%Mariño Callejo%NULL%0,   Nieves%Valcarce Pardeiro%NULL%1,   Alex%Smithson Amat%NULL%3,   Alex%Smithson Amat%NULL%0,   Alex%Smithson Amat%NULL%0,   Cristina%Chico Chumillas%NULL%1,   Adriana%Sánchez Serrano%NULL%3,   Adriana%Sánchez Serrano%NULL%0,   Adriana%Sánchez Serrano%NULL%0,   Eva Pilar%García Villalba%NULL%1,   Isabel%Jiménez Martínez%NULL%3,   Isabel%Jiménez Martínez%NULL%0,   Isabel%Jiménez Martínez%NULL%0,   Guillermo%Estrada Fernández%NULL%1,   María%Lorén Vargas%NULL%1,   Nuria%Parra Arribas%NULL%1,   Carmen%Martínez Cilleros%NULL%1,   Aránzazu%Villasante de la Puente%NULL%1,   Teresa%García Delange%NULL%1,   María José%Ruiz Rodríguez%NULL%1,   Marta%Robledo del Prado%NULL%1,   Juan Carlos%Abad Almendro%NULL%1,   José Román%Muñoz del Rey%NULL%3,   José Román%Muñoz del Rey%NULL%0,   José Román%Muñoz del Rey%NULL%0,   Montaña%Jiménez Álvaro%NULL%1,   Javier%Coy Coy%NULL%3,   Javier%Coy Coy%NULL%0,   Javier%Coy Coy%NULL%0,   Inmaculada%Poquet Catala%NULL%1,   Marta%Santos Peña%NULL%3,   Marta%Santos Peña%NULL%0,   Marta%Santos Peña%NULL%0,   Virginia%Naranjo Velasco%NULL%1,   Tamara%Manso Gómez%NULL%3,   Tamara%Manso Gómez%NULL%0,   Tamara%Manso Gómez%NULL%0,   Delia%Quilez Ágreda%NULL%1,   Gema%Barbeito Castiñeiras%NULL%3,   Gema%Barbeito Castiñeiras%NULL%0,   Gema%Barbeito Castiñeiras%NULL%0,   María Jesús%Domínguez Santalla%NULL%1,   Laura%Mao Martín%NULL%3,   Laura%Mao Martín%NULL%0,   Laura%Mao Martín%NULL%0,   Rodrigo%Alonso Navarro%NULL%1,   Jose David%Ampuero Martinich%NULL%1,   Raquel%Barrós González%NULL%1,   María Aránzazu%Galindo Martín%NULL%1,   Lourdes%Herrera Pacheco%NULL%1,   Rocío%Martínez Avilés%NULL%1,   Sara%Rodrigo González%NULL%1,   Cristóbal Manuel%Rodríguez Leal%NULL%1,   Eva María%Romay Lema%NULL%3,   Eva María%Romay Lema%NULL%0,   Eva María%Romay Lema%NULL%0,   Roi%Suárez Gil%NULL%1,   Maialen%Ibarguren Pinilla%NULL%3,   Maialen%Ibarguren Pinilla%NULL%0,   Maialen%Ibarguren Pinilla%NULL%0,   José María%Marimón Ortiz de Zárate%NULL%1,   Loreto%Vidaur Tello%NULL%1,   Xabier%Kortajarena Urkola%NULL%1,   Miriam%García Gómez%NULL%3,   Miriam%García Gómez%NULL%0,   Miriam%García Gómez%NULL%0,   Asier%Aranguren Arostegui%NULL%1,   Maria%Álvarez de Castro%NULL%3,   Maria%Álvarez de Castro%NULL%0,   Maria%Álvarez de Castro%NULL%0,   Cintia María%Martínez Mateu%NULL%1,   Francisco%Rodríguez Gómez%NULL%3,   Francisco%Rodríguez Gómez%NULL%0,   Francisco%Rodríguez Gómez%NULL%0,   Francisco%Muñoz Beamud%NULL%1,   Elena%Chamarro Martí%NULL%3,   Elena%Chamarro Martí%NULL%0,   Elena%Chamarro Martí%NULL%0,   Merce%Cardona Rivera%NULL%1,   Ismail%Zakariya-Yousef Breval%NULL%3,   Ismail%Zakariya-Yousef Breval%NULL%0,   Ismail%Zakariya-Yousef Breval%NULL%0,   Marta%Rico Rodríguez%NULL%1,   Jara%Llenas García%NULL%3,   Jara%Llenas García%NULL%0,   Jara%Llenas García%NULL%0,   Mª Carmen%Sánchez Arenas%NULL%1,   Ana%Fernández Cruz%NULL%3,   Ana%Fernández Cruz%NULL%0,   Ana%Fernández Cruz%NULL%0,   Jorge%Calderón Parra%NULL%1,   Marcos%López Dosil%NULL%1,   Antonio%Ramos Martínez%NULL%1,   Elena%Múñez Rubio%NULL%1,   Alejandro%Callejas Díaz%NULL%1,   José Manuel%Vázquez Comendador%NULL%1,   Itziar%Diego Yagüe%NULL%1,   Esther%Expósito Palomo%NULL%1,   Jorge%Anel Pedroche%NULL%1,   Raquel%Álvarez Franco%NULL%3,   Raquel%Álvarez Franco%NULL%0,   Raquel%Álvarez Franco%NULL%0,   Lucía%Fernández de Orueta%NULL%1,   Roberto%Vates Gómez%NULL%1,   Andrés Felipe%Cardona Arias%NULL%1,   Pablo%Marguenda Contreras%NULL%1,   Gabriel%Gaspar Alonso-Vega%NULL%1,   Elena María%Aranda Rife%NULL%1,   Blanca%Martínez Cifre%NULL%1,   Daniel%Roger Zapata%NULL%1,   Irene%Martín Rubio%NULL%1,   André%Barbosa Ventura%NULL%3,   André%Barbosa Ventura%NULL%0,   André%Barbosa Ventura%NULL%0,   Iván%Piñero%NULL%1,   Alberto%Bahamonde Carrasco%NULL%3,   Alberto%Bahamonde Carrasco%NULL%0,   Alberto%Bahamonde Carrasco%NULL%0,   Paula%Runza Buznego%NULL%1,   Eva%Talavera García%NULL%3,   Eva%Talavera García%NULL%0,   Eva%Talavera García%NULL%0,   Marta%Lamata Subero%NULL%1,   Ainhoa%Urrutia Losada%NULL%3,   Ainhoa%Urrutia Losada%NULL%0,   Ainhoa%Urrutia Losada%NULL%0,   Lorea%Arteche Eguizabal%NULL%1,   Elisabet%Delgado Sánchez%NULL%3,   Elisabet%Delgado Sánchez%NULL%0,   Elisabet%Delgado Sánchez%NULL%0,   Virginia%Molina Peinado%NULL%1,   Sarah%Caro Bragado%NULL%3,   Sarah%Caro Bragado%NULL%0,   Sarah%Caro Bragado%NULL%0,   Gema%Domínguez de Pablos%NULL%1,   Carolina%Roldán Fontana%NULL%3,   Carolina%Roldán Fontana%NULL%0,   Carolina%Roldán Fontana%NULL%0,   Carmen%Herrero Rodríguez%NULL%1,   Luis%Force Sanmartín%NULL%3,   Luis%Force Sanmartín%NULL%0,   Luis%Force Sanmartín%NULL%0,   Raquel%Aranega%NULL%1,   Arantzazu%Mera Fidalgo%NULL%3,   Arantzazu%Mera Fidalgo%NULL%0,   Arantzazu%Mera Fidalgo%NULL%0,   María Roca%Toda Savall%NULL%1,   Nicolas%Merchante Gutiérrez%NULL%3,   Nicolas%Merchante Gutiérrez%NULL%0,   Nicolas%Merchante Gutiérrez%NULL%0,   Eva María%León Jiménez%NULL%1,   José Luís%Del Pozo%NULL%3,   José Luís%Del Pozo%NULL%0,   José Luís%Del Pozo%NULL%0,   Josefa%Serralta Buades%NULL%3,   Josefa%Serralta Buades%NULL%0,   Josefa%Serralta Buades%NULL%0,   Ginger Giorgiana%Cabrera Tejada%NULL%1,   Mario%Fernández-Ruiz%NULL%3,   Mario%Fernández-Ruiz%NULL%0,   Mario%Fernández-Ruiz%NULL%0,   José María%Aguado%NULL%1,   Guillermo%Maestro de la Calle%NULL%1,   José Miguel%Cisneros%NULL%3,   José Miguel%Cisneros%NULL%0,   José Miguel%Cisneros%NULL%0,   Jerónimo%Pachón%NULL%0,   Manuela%Aguilar-Guisado%NULL%1,   Teresa%Aldabó%NULL%1,   María Dolores%Avilés%NULL%1,   Claudio%Bueno%NULL%1,   Elisa%Cordero-Matía%NULL%1,   Ana%Escoresca%NULL%1,   Lydia%Gálvez-Benítez%NULL%1,   Carmen%Infante%NULL%1,   Guillermo%Martín%NULL%1,   Julia%Praena%NULL%1,   Cristina%Roca%NULL%1,   Celia%Salamanca%NULL%1,   Alejandro%Suárez-Benjumea%NULL%1,   Pilar%Vizcarra%NULL%3,   Pilar%Vizcarra%NULL%0,   Pilar%Vizcarra%NULL%0,   Carmen%Quereda%NULL%1,   Mario José%Rodriguez Dominguez%NULL%1,   Francesca%Gioia%NULL%1,   Francesca%Norman%NULL%1,   Santos%Del Campo%NULL%1,   Rafael%Cantón Moreno%NULL%1,   Antonio%Oteo Revuelta José%NULL%3,   Antonio%Oteo Revuelta José%NULL%0,   Antonio%Oteo Revuelta José%NULL%0,   Paula%Santibáñez Sáenz%NULL%1,   Cristina%Cervera Acedo%NULL%1,   Carlos%Ruiz Martínez%NULL%1,   José R.%Blanco Ramos%NULL%1,   José M.%Azcona Gutiérrez%NULL%1,   Concepción%García García%NULL%1,   Jorge%Alba Fernández%NULL%1,   Valvanera%Ibarra Cucalón%NULL%1,   Mercedes%San Franco%NULL%1,   Luis%Metola Sacristán%NULL%1,   Héctor%Meijide Míguez%NULL%3,   Héctor%Meijide Míguez%NULL%0,   Héctor%Meijide Míguez%NULL%0,   Silvia%Paulos Viñas%NULL%1,   Justo%Menéndez%NULL%3,   Justo%Menéndez%NULL%0,   Justo%Menéndez%NULL%0,   Paula%Villares Fernández%NULL%1,   Lara%Montes Andújar%NULL%1,   Álvaro%Navarro Batet%NULL%3,   Álvaro%Navarro Batet%NULL%0,   Álvaro%Navarro Batet%NULL%0,   Anna%Ferrer Santolaria%NULL%1,   María de la Luz%Padilla Salazar%NULL%3,   María de la Luz%Padilla Salazar%NULL%0,   María de la Luz%Padilla Salazar%NULL%0,   Lucy%Abella Vázquez%NULL%1,   Marcelino%Hayek Peraza%NULL%1,   Antonio%García Pardo%NULL%1,   Carolina%Hernández Carballo%NULL%1,   Andrés Javier%Ruiz Fernández%NULL%3,   Andrés Javier%Ruiz Fernández%NULL%0,   Andrés Javier%Ruiz Fernández%NULL%0,   Isabel%Barrio López%NULL%1,   Alí%Martakoush%NULL%3,   Alí%Martakoush%NULL%0,   Alí%Martakoush%NULL%0,   Agustín%Rojas-Vieyra%NULL%3,   Agustín%Rojas-Vieyra%NULL%0,   Agustín%Rojas-Vieyra%NULL%0,   Sonia%García Calvo%NULL%3,   Sonia%García Calvo%NULL%0,   Sonia%García Calvo%NULL%0,   Mercedes%Villarreal García-Lomas%NULL%1,   Marta%Vizcaíno Callejón%NULL%3,   Marta%Vizcaíno Callejón%NULL%0,   Marta%Vizcaíno Callejón%NULL%0,   María Pilar%García García%NULL%1,   Ana%Lérida Urteaga%NULL%3,   Ana%Lérida Urteaga%NULL%0,   Ana%Lérida Urteaga%NULL%0,   Natalia%Carrasco Fons%NULL%1,   Beatriz%María Sanjuan%NULL%1,   Lydia%Martín González%NULL%1,   Camilo%Sanz Zamudio%NULL%1,   Inmaculada%Jarrín%NULL%0,   Inmaculada%Jarrín%NULL%0,   Inmaculada%Jarrín%NULL%0,   Belén%Alejos%NULL%1,   Cristina%Moreno%NULL%1,   Marta%Rava%NULL%1,   Carlos%Iniesta%NULL%1,   Rebeca%Izquierdo%NULL%1,   Inés%Suárez-García%NULL%1,   Asunción%Díaz%NULL%1,   Marta%Ruiz-Alguero%NULL%1,   Victoria%Hernando%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,   Denise J%McCulloch%NULL%4,   Denise J%McCulloch%NULL%0,   Vidya%Atluri%NULL%2,   Michela%Blain%NULL%2,   Sarah A%McGuffin%NULL%2,   Arun K%Nalla%NULL%2,   Meei-Li%Huang%NULL%2,   Alex L%Greninger%NULL%2,   Keith R%Jerome%NULL%2,   Seth A%Cohen%NULL%2,   Santiago%Neme%NULL%0,   Margaret L%Green%NULL%2,   Helen Y%Chu%NULL%2,   H Nina%Kim%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,   Wenlin%Cheng%NULL%0,   Lei%Yu%NULL%0,   Ya-Kun%Liu%NULL%0,   Xiaoyong%Hu%NULL%0,   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,   Alberto%Zucchelli%NULL%1,   Marinella%Turla%NULL%1,   Maria Sofia%Cotelli%NULL%1,   Sara%Fascendini%NULL%1,   Mara%Zanni%NULL%1,   Angelo%Bianchetti%NULL%1,   Matteo Peli%Psy%NULL%1,   Renzo%Rozzini%NULL%1,   Stefano%Boffelli%NULL%1,   Melania%Cappuccio%NULL%1,   Federica Gottardi%Psy%NULL%1,   Chiara Vecchi%Psy%NULL%1,   Daniele%Bellandi%NULL%1,   Claudia%Caminati%NULL%1,   Simona%Gentile%NULL%1,   Elena Lucchi%Psy%NULL%1,   Ignazio%Di Fazio%NULL%1,   Marina Zanetti%Psy%NULL%1,   Giuliana%Vezzadini%NULL%1,   Chiara Forlani%Psy%NULL%1,   Maura Cosseddu%Psy%NULL%1,   Rosanna Turrone%Psy%NULL%1,   Silvia Pelizzari%Psy%NULL%1,   Andrea%Scalvini%NULL%1,   Marco%Di Cesare%NULL%1,   Marta Grigolo%Psy%NULL%1,   Lina%Falanga%NULL%1,   Nives%Medici%NULL%1,   Nives%Palamini%NULL%1,   Elisa Zanacchi%Psy%NULL%1,   Eleonora Grossi%Psy%NULL%1,   Giuseppe%Bellelli%NULL%1,   Alessandra%Marengoni%NULL%1,   Marco%Trabucchi%NULL%1,   Alessandro%Padovani%alessandro.padovani@unibs.it%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   Nancy%Chow%NULL%0,   Katherine%Fleming-Dutra%NULL%2,   Ryan%Gierke%NULL%0,   Aron%Hall%NULL%0,   Michelle%Hughes%NULL%2,   Tamara%Pilishvili%NULL%0,   Matthew%Ritchey%NULL%0,   Katherine%Roguski%NULL%2,   Tami%Skoff%NULL%2,   Emily%Ussery%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,   Zhencang%Zheng%NULL%1,   Chao%Zhang%NULL%0,   Xijiang%Zhang%NULL%1,   Huijuan%Wu%NULL%1,   Jingdong%Wang%NULL%1,   Shuwei%Wang%NULL%1,   Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,   Wei%Liu%NULL%0,   Kui%Liu%NULL%0,   Yuan-Yuan%Fang%NULL%0,   Jin%Shang%NULL%0,   Ling%Zhou%NULL%0,   Ke%Wang%NULL%0,   Fan%Leng%NULL%0,   Shuang%Wei%NULL%0,   Lei%Chen%NULL%0,   Hui-Guo%Liu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,   Francesco%Innocenti%NULL%1,   Julien%Beauté%NULL%1,   Veronika%Učakar%NULL%1,   Marta%Grgič Vitek%NULL%1,   Eero%Poukka%NULL%1,   Tuula%Hannila-Handelberg%NULL%1,   Charmaine%Gauci%NULL%1,   Tanya%Melillo%NULL%1,   Theano%Georgakopoulou%NULL%1,   Jiri%Jarkovsky%NULL%1,   Pavel%Slezak%NULL%1,   Concepción%Delgado-Sanz%NULL%1,   Carmen%Olmedo-Lucerón%NULL%1,   Heleene%Suija%NULL%1,   Rasa%Liausediene%NULL%1,   Piaras%O’Lorcain%NULL%1,   Niamh%Murphy%NULL%1,   André%Peralta-Santos%NULL%1,   Pedro%Casaca%NULL%1,   Ioanna%Gregoriou%NULL%1,   Nick%Bundle%NULL%1,   Gianfranco%Spiteri%NULL%1,   Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,   Peiyun%Li%NULL%1,   Liang%Ma%NULL%1,   Hang%Liang%NULL%1,   Jie%Lei%NULL%1,   Wenqiang%Li%NULL%1,   Kun%Wang%NULL%0,   Yu%Song%NULL%1,   Shuai%Li%NULL%1,   Wei%Yang%NULL%1,   Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,   Yun%Ling%NULL%0,   Yun%Ling%NULL%0,   Tao%Bai%NULL%0,   Tao%Bai%NULL%0,   Yusang%Xie%NULL%0,   Jie%Huang%NULL%0,   Jie%Huang%NULL%0,   Jian%Li%NULL%0,   Weining%Xiong%NULL%0,   Dexiang%Yang%NULL%0,   Rong%Chen%NULL%0,   Fangying%Lu%NULL%0,   Yunfei%Lu%NULL%0,   Xuhui%Liu%NULL%0,   Yuqing%Chen%NULL%0,   Yuqing%Chen%NULL%0,   Xin%Li%NULL%0,   Yong%Li%NULL%0,   Hanssa Dwarka%Summah%NULL%0,   Huihuang%Lin%NULL%0,   Jiayang%Yan%NULL%0,   Min%Zhou%NULL%0,   Hongzhou%Lu%NULL%0,   Hongzhou%Lu%NULL%0,   Jieming%Qu%NULL%0,   Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,   Massimiliano%Marino%NULL%0,   Debora%Formisano%NULL%0,   Francesco%Venturelli%NULL%0,   Massimo%Vicentini%NULL%0,   Massimo%Vicentini%NULL%0,   Roberto%Grilli%NULL%0,   NULL%NULL%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,   Justin J.%Choi%NULL%3,   Laura C.%Pinheiro%NULL%3,   Edward J.%Schenck%NULL%3,   Ruijun%Chen%NULL%0,   Assem%Jabri%NULL%3,   Michael J.%Satlin%NULL%3,   Thomas R.%Campion%NULL%3,   Musarrat%Nahid%NULL%3,   Joanna B.%Ringel%NULL%3,   Katherine L.%Hoffman%NULL%3,   Mark N.%Alshak%NULL%3,   Han A.%Li%NULL%3,   Graham T.%Wehmeyer%NULL%6,   Graham T.%Wehmeyer%NULL%0,   Mangala%Rajan%NULL%3,   Evgeniya%Reshetnyak%NULL%3,   Nathaniel%Hupert%NULL%3,   Evelyn M.%Horn%NULL%3,   Fernando J.%Martinez%NULL%3,   Roy M.%Gulick%NULL%3,   Monika M.%Safford%NULL%6,   Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,   Norio%Ohmagari%NULL%0,   Daniel%Shin%NULL%1,   George%Diaz%NULL%0,   Erika%Asperges%NULL%1,   Antonella%Castagna%NULL%2,   Torsten%Feldt%NULL%1,   Gary%Green%NULL%1,   Margaret L.%Green%NULL%1,   François-Xavier%Lescure%NULL%3,   Emanuele%Nicastri%NULL%1,   Rentaro%Oda%NULL%2,   Rentaro%Oda%NULL%0,   Kikuo%Yo%NULL%2,   Kikuo%Yo%NULL%0,   Eugenia%Quiros-Roldan%NULL%1,   Alex%Studemeister%NULL%1,   John%Redinski%NULL%1,   Seema%Ahmed%NULL%1,   Jorge%Bernett%NULL%1,   Daniel%Chelliah%NULL%1,   Danny%Chen%NULL%1,   Shingo%Chihara%NULL%1,   Stuart H.%Cohen%NULL%1,   Jennifer%Cunningham%NULL%1,   Antonella%D’Arminio Monforte%NULL%1,   Saad%Ismail%NULL%1,   Hideaki%Kato%NULL%1,   Giuseppe%Lapadula%NULL%1,   Erwan%L’Her%NULL%1,   Toshitaka%Maeno%NULL%1,   Sumit%Majumder%NULL%1,   Marco%Massari%NULL%1,   Marta%Mora-Rillo%NULL%1,   Yoshikazu%Mutoh%NULL%1,   Duc%Nguyen%NULL%1,   Ewa%Verweij%NULL%1,   Alexander%Zoufaly%NULL%1,   Anu O.%Osinusi%NULL%1,   Adam%DeZure%NULL%1,   Yang%Zhao%NULL%1,   Lijie%Zhong%NULL%1,   Anand%Chokkalingam%NULL%1,   Emon%Elboudwarej%NULL%1,   Laura%Telep%NULL%1,   Leighann%Timbs%NULL%1,   Ilana%Henne%NULL%1,   Scott%Sellers%NULL%1,   Huyen%Cao%NULL%1,   Susanna K.%Tan%NULL%1,   Lucinda%Winterbourne%NULL%1,   Polly%Desai%NULL%1,   Robertino%Mera%NULL%1,   Anuj%Gaggar%NULL%1,   Robert P.%Myers%NULL%1,   Diana M.%Brainard%NULL%1,   Richard%Childs%NULL%1,   Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,  Arunthamakun%Justin%coreGivesNoEmail%1,  Athavale%Ambarish M.%coreGivesNoEmail%1,  Bansal%Anip%coreGivesNoEmail%1,  Brenner%Samantha K.%coreGivesNoEmail%1,  Chan%Lili%coreGivesNoEmail%1,  Donnelly%John P.%coreGivesNoEmail%1,  Friedman%Allon N.%coreGivesNoEmail%1,  Gershengorn%Hayley B.%coreGivesNoEmail%1,  Goyal%Nitender%coreGivesNoEmail%1,  Green%Adam%coreGivesNoEmail%1,  Gupta%Shruti%coreGivesNoEmail%1,  Hayek%Salim S.%coreGivesNoEmail%1,  Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,  Kibbelaar%Zoe A.%coreGivesNoEmail%1,  Leaf%David E.%coreGivesNoEmail%1,  Leonberg-Yoo%Amanda%coreGivesNoEmail%1,  Mathews%Kusum S.%coreGivesNoEmail%1,  Melamed%Michal L.%coreGivesNoEmail%1,  Omar%Samah Abu%coreGivesNoEmail%1,  Parikh%Chirag R.%coreGivesNoEmail%1,  Radbel%Jared%coreGivesNoEmail%1,  Reiser%Jochen%coreGivesNoEmail%1,  Schenck%Edward J.%coreGivesNoEmail%1,  Semler%Matthew W.%coreGivesNoEmail%1,  Shaefi%Shahzad%coreGivesNoEmail%1,  Shehata%Alexandre M.%coreGivesNoEmail%1,  Short%Samuel A. P.%coreGivesNoEmail%1,  Srivastava%Anand%coreGivesNoEmail%1,  Sutherland%Anne%coreGivesNoEmail%1,  Velez%Juan Carlos Q.%coreGivesNoEmail%1,  Vijayan%Anitha%coreGivesNoEmail%1,  Wang%Wei%coreGivesNoEmail%1,  Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,   İmran%HASANOĞLU%NULL%2,   İmran%HASANOĞLU%NULL%0,   Bircan%KAYAASLAN%NULL%2,   Bircan%KAYAASLAN%NULL%0,   Adalet%AYPAK%NULL%2,   Adalet%AYPAK%NULL%0,   Ayşe%KAYA KALEM%NULL%2,   Ayşe%KAYA KALEM%NULL%0,   Fatma%ESER%NULL%2,   Fatma%ESER%NULL%0,   Burcu%ÖZDEMİR%NULL%2,   Burcu%ÖZDEMİR%NULL%0,   Elif Mükime%SARICAOĞLU%NULL%2,   Elif Mükime%SARICAOĞLU%NULL%0,   Müge%AYHAN%NULL%2,   Müge%AYHAN%NULL%0,   Yeşim%AYBAR BİLİR%NULL%2,   Yeşim%AYBAR BİLİR%NULL%0,   Işıl%ÖZKOÇAK TURAN%NULL%2,   Işıl%ÖZKOÇAK TURAN%NULL%0,   Deniz%ERDEM%NULL%2,   Deniz%ERDEM%NULL%0,   Nevzat Mehmet%MUTLU%NULL%1,   Turan%BUZGAN%NULL%2,   Turan%BUZGAN%NULL%0,   Bedia%DİNÇ%NULL%2,   Bedia%DİNÇ%NULL%0,   Esragül%AKINCI%NULL%2,   Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,   Elnara%Fazio-Eynullayeva%NULL%2,   Elnara%Fazio-Eynullayeva%NULL%0,   Deirdre A.%Lane%NULL%2,   Deirdre A.%Lane%NULL%0,   Paula%Underhill%NULL%2,   Paula%Underhill%NULL%0,   Gregory Y. H.%Lip%NULL%1,   Mirjam E. E.%Kretzschmar%NULL%3,   Mirjam E. E.%Kretzschmar%NULL%0,   Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,   Min%Xie%NULL%0,   Jianping%Zhao%NULL%0,   Xiansheng%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,   Shaoqiu%Chen%NULL%1,   Yuanyuan%Fu%NULL%1,   Zitong%Gao%NULL%1,   Hui%Long%NULL%1,   Jian-ming%Wang%NULL%0,   Hong-wei%Ren%NULL%1,   Yi%Zuo%NULL%1,   Huan%Li%NULL%0,   Jie%Wang%NULL%1,   Qing-bang%Xu%NULL%1,   Wen-xiong%Yu%NULL%1,   Jia%Liu%NULL%1,   Chen%Shao%NULL%0,   Jun-jie%Hao%NULL%1,   Chuan-zhen%Wang%NULL%1,   Yao%Ma%NULL%1,   Zhanwei%Wang%NULL%1,   Richard%Yanagihara%NULL%1,   Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,  Bayani%Masomeh%coreGivesNoEmail%1,  Bijani%Ali%coreGivesNoEmail%1,  Ebrahimpour%Soheil%coreGivesNoEmail%1,  Gholinejad%Hossein Emam%coreGivesNoEmail%1,  Ghorbani%Hossein%coreGivesNoEmail%1,  Hasanpour%Amir Hossein%coreGivesNoEmail%1,  Javanian%Mostafa%coreGivesNoEmail%1,  Masrour-Roudsari%Jila%coreGivesNoEmail%1,  Mehraeen%Rahele%coreGivesNoEmail%1,  Mohseni%Sima%coreGivesNoEmail%1,  Rostami%Ali%coreGivesNoEmail%1,  Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,  Sepidarkish%Mahdi%coreGivesNoEmail%1,  Shabani%Asieh%coreGivesNoEmail%1,  Shahbazi%Mehdi%coreGivesNoEmail%1,  Shokri%Mehran%coreGivesNoEmail%1,  Tabari%Afrooz Monadi%coreGivesNoEmail%1,  Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,   Matteo%Piccica%NULL%1,   Lucia%Graziani%NULL%1,   Iacopo%Vellere%NULL%1,   Annarita%Botta%NULL%3,   Marta%Tilli%NULL%3,   Letizia%Ottino%NULL%1,   Beatrice%Borchi%NULL%2,   Marco%Pozzi%NULL%1,   Filippo%Bartalesi%NULL%1,   Jessica%Mencarini%NULL%1,   Michele%Spinicci%NULL%1,   Lorenzo%Zammarchi%NULL%1,   Filippo%Pieralli%NULL%1,   Giovanni%Zagli%NULL%1,   Carlo%Nozzoli%NULL%1,   Stefano%Romagnoli%NULL%1,   Alessandro%Bartoloni%NULL%2,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,   Zhao-Wu%Tao%NULL%2,   Lei%Wang%NULL%2,   Ming-Li%Yuan%NULL%0,   Kui%Liu%NULL%0,   Ling%Zhou%NULL%0,   Shuang%Wei%NULL%0,   Yan%Deng%NULL%0,   Jing%Liu%NULL%4,   Hui-Guo%Liu%NULL%0,   Ming%Yang%NULL%3,   Yi%Hu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,   Shuyun%Xu%NULL%0,   Muqing%Yu%NULL%0,   Ke%Wang%NULL%0,   Yu%Tao%NULL%0,   Ying%Zhou%NULL%0,   Jing%Shi%NULL%0,   Min%Zhou%NULL%0,   Bo%Wu%NULL%0,   Zhenyu%Yang%NULL%0,   Cong%Zhang%NULL%0,   Junqing%Yue%NULL%0,   Zhiguo%Zhang%NULL%0,   Harald%Renz%NULL%0,   Xiansheng%Liu%NULL%0,   Jungang%Xie%NULL%0,   Min%Xie%NULL%0,   Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,   Shu%Peng%NULL%1,   Le-qun%Li%NULL%1,   Qi%Wang%NULL%0,   Wei%Ping%NULL%1,   Ni%Zhang%NULL%1,   Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,   Yuanyuan%Xing%NULL%2,   Yu%Xiao%NULL%2,   Liping%Deng%NULL%0,   Qiu%Zhao%NULL%2,   Hongling%Wang%NULL%2,   Yong%Xiong%NULL%0,   Zhenshun%Cheng%NULL%0,   Shicheng%Gao%NULL%0,   Ke%Liang%NULL%0,   Mingqi%Luo%NULL%0,   Tielong%Chen%NULL%2,   Shihui%Song%NULL%0,   Zhiyong%Ma%NULL%0,   Xiaoping%Chen%NULL%0,   Ruiying%Zheng%NULL%2,   Qian%Cao%NULL%2,   Fan%Wang%fanndywang@foxmail.com%2,   Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,   Nicolas%Lopez-Villalobos%NULL%1,   Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,   Adam J%Russak%NULL%2,   Adam J%Russak%NULL%0,   Jessica K%De Freitas%NULL%0,   Anuradha%Lala%NULL%0,   Riccardo%Miotto%NULL%1,   Akhil%Vaid%NULL%1,   Kipp W%Johnson%NULL%1,   Matteo%Danieletto%NULL%1,   Eddye%Golden%NULL%1,   Dara%Meyer%NULL%1,   Manbir%Singh%NULL%1,   Sulaiman%Somani%NULL%1,   Arjun%Kapoor%NULL%1,   Ross%O'Hagan%NULL%1,   Sayan%Manna%NULL%1,   Udit%Nangia%NULL%1,   Suraj K%Jaladanki%NULL%1,   Paul%O’Reilly%NULL%0,   Paul%O’Reilly%NULL%0,   Laura M%Huckins%NULL%1,   Patricia%Glowe%NULL%1,   Arash%Kia%NULL%0,   Prem%Timsina%NULL%0,   Robert M%Freeman%NULL%1,   Matthew A%Levin%NULL%1,   Jeffrey%Jhang%NULL%0,   Adolfo%Firpo%NULL%1,   Patricia%Kovatch%NULL%0,   Joseph%Finkelstein%NULL%1,   Judith A%Aberg%NULL%1,   Emilia%Bagiella%NULL%0,   Carol R%Horowitz%NULL%1,   Barbara%Murphy%NULL%1,   Zahi A%Fayad%NULL%1,   Jagat%Narula%NULL%1,   Eric J%Nestler%NULL%1,   V%Fuster%NULL%1,   Carlos%Cordon-Cardo%NULL%0,   Dennis%Charney%NULL%0,   David L%Reich%NULL%1,   Allan%Just%NULL%0,   Erwin P%Bottinger%NULL%1,   Alexander W%Charney%NULL%1,   Benjamin S%Glicksberg%NULL%0,   Girish N%Nadkarni%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,    X.% Yan%null%2,    X.% Tang%null%1,    J.% Peng%null%1,    Q.% Yu%null%0,    L.% Feng%null%1,    G.% Yuan%null%1,    A.% Zhang%null%0,    Y.% Chen%null%1,    J.% Yuan%null%1,    X.% Huang%null%1,    X.% Zhang%null%0,    P.% Hu%null%1,    Y.% Song%null%1,    C.% Qian%null%1,    Q.% Sun%null%1,    D.% Wang%null%1,    J.% Tong%null%1,    J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,   Kevin Bryan%Lo%NULL%4,   Kevin Bryan%Lo%NULL%0,   Fahad%Gul%NULL%0,   Eric%Peterson%NULL%2,   Robert%De Joy%NULL%2,   Ruchika%Bhargav%NULL%2,   Jerald%Pelayo%NULL%2,   Jeri%Albano%NULL%2,   Zurab%Azmaiparashvili%NULL%2,   Sadia%Benzaquen%NULL%2,   Gabriel%Patarroyo‐Aponte%NULL%2,   Janani%Rangaswami%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,   Mu%Qin%qinmuae@163.com%3,   Yuli%Cai%NULL%3,   Tao%Liu%NULL%4,   Bo%Shen%NULL%3,   Fan%Yang%NULL%0,   Sheng%Cao%NULL%3,   Xu%Liu%NULL%6,   Xu%Liu%NULL%0,   Yaozu%Xiang%NULL%3,   Qinyan%Zhao%NULL%3,   He%Huang%huanghe1977@whu.edu.cn%3,   Bo%Yang%yybb112@whu.edu.cn%0,   Congxin%Huang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,   Fergus%Hamilton%NULL%1,   Samuel%Gunning%NULL%1,   Caitlin%Sheehy%NULL%1,   Ed%Moran%NULL%1,   Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,   Yi%Xiang%NULL%0,   Wei%Fang%NULL%0,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,   Boqun%Li%279685211@qq.com%0,   Boqun%Li%279685211@qq.com%0,   Yanjun%Hu%huyanjun@163.com%0,   Chunhui%Lang%NULL%0,   Daoqiu%Huang%NULL%0,   Qiuyan%Sun%NULL%0,   Yan%Xiong%NULL%0,   Xia%Huang%NULL%0,   Jinglong%Lv%NULL%0,   Yaling%Luo%NULL%0,   Li%Shen%NULL%0,   Haoran%Yang%NULL%0,   Gu%Huang%NULL%0,   Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,  Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,   Wenbo%He%NULL%2,   Xiaomei%Yu%NULL%2,   Dalong%Hu%NULL%2,   Mingwei%Bao%NULL%2,   Huafen%Liu%NULL%2,   Jiali%Zhou%NULL%2,   Hong%Jiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,   Bohan%Yang%NULL%0,   Qianwen%Li%NULL%0,   Lu%Wen%NULL%0,   Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,  Xu%Y%coreGivesNoEmail%1,  Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,   Fen%Li%NULL%2,   Xiao%Wang%NULL%3,   Jie%Yan%NULL%0,   Fen%Zhu%NULL%2,   Shifan%Tang%NULL%2,   Yingzhong%Deng%NULL%2,   Hua%Wang%NULL%3,   Rui%Chen%NULL%2,   Zhili%Yu%NULL%2,   Yaping%Li%NULL%2,   Jingzhou%Shang%NULL%2,   Lingjun%Zeng%NULL%2,   Jie%Zhao%NULL%2,   Chaokun%Guan%NULL%2,   Qiaomei%Liu%NULL%2,   Haifeng%Chen%NULL%2,   Wei%Gong%NULL%2,   Xin%Huang%NULL%3,   Yu‐Jiao%Zhang%NULL%2,   Jianguang%Liu%NULL%2,   Xiaoyan%Dong%NULL%2,   Wen%Zheng%zhengwen12@mails.jlu.edu.cn%2,   Shaoping%Nie%spnie@126.com%2,   Dongsheng%Li%dongshengli196809@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,   Pengfei%Wang%NULL%2,   Pengfei%Wang%NULL%0,   Yuyan%Song%NULL%1,   An%Zhang%zhangan@hospital.cqmu.edu.cn%1,   Guodan%Yuan%71502294@qq.com%1,   Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,  Cao%Yi-yuan%coreGivesNoEmail%3,  Dong%Xiang%coreGivesNoEmail%3,  Gao%Ya-dong%coreGivesNoEmail%3,  Yan%You-qin%coreGivesNoEmail%3,  Yang%Yi-bin%coreGivesNoEmail%3,  Yuan%Ya-dong%coreGivesNoEmail%3,  Zhang%Jin-jin%coreGivesNoEmail%3]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,   Chang%Hu%NULL%3,   Linjie%Luo%NULL%2,   Fang%Fang%NULL%4,   Yongfeng%Chen%NULL%2,   Jianguo%Li%NULL%2,   Zhiyong%Peng%NULL%5,   Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,   Miao%Yu%NULL%1,   Song%Tong%NULL%1,   Lu-Yu%Liu%NULL%1,   Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,   Huangqing%Ouyang%NULL%1,   Lingli%Fu%NULL%1,   Shijie%Wang%NULL%1,   Jianglong%Han%NULL%1,   Kejie%Huang%NULL%1,   Mingfang%Jia%NULL%1,   Qibin%Song%NULL%1,   Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,   Anne%Chen%NULL%0,   Wei%Hou%NULL%0,   James M.%Graham%NULL%1,   Haifang%Li%NULL%1,   Paul S.%Richman%NULL%1,   Henry C.%Thode%NULL%1,   Adam J.%Singer%NULL%1,   Tim Q.%Duong%NULL%1,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2068,6 +2230,9 @@
       <c r="H1" t="s">
         <v>64</v>
       </c>
+      <c r="I1" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2083,7 +2248,7 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="F2" t="s">
         <v>68</v>
@@ -2093,6 +2258,9 @@
       </c>
       <c r="H2" t="s">
         <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="3">
@@ -2109,7 +2277,7 @@
         <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="F3" t="s">
         <v>74</v>
@@ -2119,6 +2287,9 @@
       </c>
       <c r="H3" t="s">
         <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="4">
@@ -2135,7 +2306,7 @@
         <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -2145,6 +2316,9 @@
       </c>
       <c r="H4" t="s">
         <v>80</v>
+      </c>
+      <c r="I4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="5">
@@ -2161,7 +2335,7 @@
         <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>272</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s">
         <v>84</v>
@@ -2171,6 +2345,9 @@
       </c>
       <c r="H5" t="s">
         <v>85</v>
+      </c>
+      <c r="I5" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="6">
@@ -2187,7 +2364,7 @@
         <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
         <v>89</v>
@@ -2197,6 +2374,9 @@
       </c>
       <c r="H6" t="s">
         <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="7">
@@ -2224,6 +2404,9 @@
       <c r="H7" t="s">
         <v>80</v>
       </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -2239,7 +2422,7 @@
         <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
         <v>94</v>
@@ -2249,6 +2432,9 @@
       </c>
       <c r="H8" t="s">
         <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="9">
@@ -2265,7 +2451,7 @@
         <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>275</v>
+        <v>337</v>
       </c>
       <c r="F9" t="s">
         <v>98</v>
@@ -2275,6 +2461,9 @@
       </c>
       <c r="H9" t="s">
         <v>99</v>
+      </c>
+      <c r="I9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="10">
@@ -2291,7 +2480,7 @@
         <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="F10" t="s">
         <v>103</v>
@@ -2301,6 +2490,9 @@
       </c>
       <c r="H10" t="s">
         <v>80</v>
+      </c>
+      <c r="I10" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="11">
@@ -2317,7 +2509,7 @@
         <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
         <v>107</v>
@@ -2327,6 +2519,9 @@
       </c>
       <c r="H11" t="s">
         <v>108</v>
+      </c>
+      <c r="I11" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="12">
@@ -2343,7 +2538,7 @@
         <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="F12" t="s">
         <v>112</v>
@@ -2353,6 +2548,9 @@
       </c>
       <c r="H12" t="s">
         <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="13">
@@ -2369,7 +2567,7 @@
         <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
         <v>116</v>
@@ -2379,6 +2577,9 @@
       </c>
       <c r="H13" t="s">
         <v>117</v>
+      </c>
+      <c r="I13" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="14">
@@ -2395,7 +2596,7 @@
         <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>343</v>
       </c>
       <c r="F14" t="s">
         <v>121</v>
@@ -2405,6 +2606,9 @@
       </c>
       <c r="H14" t="s">
         <v>122</v>
+      </c>
+      <c r="I14" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="15">
@@ -2421,7 +2625,7 @@
         <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
         <v>126</v>
@@ -2431,6 +2635,9 @@
       </c>
       <c r="H15" t="s">
         <v>127</v>
+      </c>
+      <c r="I15" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="16">
@@ -2447,7 +2654,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="F16" t="s">
         <v>131</v>
@@ -2457,6 +2664,9 @@
       </c>
       <c r="H16" t="s">
         <v>132</v>
+      </c>
+      <c r="I16" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="17">
@@ -2473,7 +2683,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="F17" t="s">
         <v>135</v>
@@ -2483,6 +2693,9 @@
       </c>
       <c r="H17" t="s">
         <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="18">
@@ -2499,7 +2712,7 @@
         <v>137</v>
       </c>
       <c r="E18" t="s">
-        <v>284</v>
+        <v>347</v>
       </c>
       <c r="F18" t="s">
         <v>139</v>
@@ -2509,6 +2722,9 @@
       </c>
       <c r="H18" t="s">
         <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="19">
@@ -2525,7 +2741,7 @@
         <v>141</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>348</v>
       </c>
       <c r="F19" t="s">
         <v>143</v>
@@ -2535,6 +2751,9 @@
       </c>
       <c r="H19" t="s">
         <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="20">
@@ -2551,16 +2770,19 @@
         <v>287</v>
       </c>
       <c r="E20" t="s">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
         <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="21">
@@ -2577,7 +2799,7 @@
         <v>145</v>
       </c>
       <c r="E21" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="F21" t="s">
         <v>147</v>
@@ -2587,6 +2809,9 @@
       </c>
       <c r="H21" t="s">
         <v>148</v>
+      </c>
+      <c r="I21" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="22">
@@ -2603,7 +2828,7 @@
         <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="F22" t="s">
         <v>152</v>
@@ -2613,6 +2838,9 @@
       </c>
       <c r="H22" t="s">
         <v>153</v>
+      </c>
+      <c r="I22" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="23">
@@ -2629,7 +2857,7 @@
         <v>155</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="F23" t="s">
         <v>157</v>
@@ -2639,6 +2867,9 @@
       </c>
       <c r="H23" t="s">
         <v>158</v>
+      </c>
+      <c r="I23" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="24">
@@ -2655,7 +2886,7 @@
         <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="F24" t="s">
         <v>162</v>
@@ -2665,6 +2896,9 @@
       </c>
       <c r="H24" t="s">
         <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="25">
@@ -2681,7 +2915,7 @@
         <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="F25" t="s">
         <v>166</v>
@@ -2691,6 +2925,9 @@
       </c>
       <c r="H25" t="s">
         <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="26">
@@ -2707,16 +2944,19 @@
         <v>296</v>
       </c>
       <c r="E26" t="s">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G26" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="H26" t="s">
         <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2973,7 @@
         <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="F27" t="s">
         <v>170</v>
@@ -2743,6 +2983,9 @@
       </c>
       <c r="H27" t="s">
         <v>171</v>
+      </c>
+      <c r="I27" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="28">
@@ -2759,7 +3002,7 @@
         <v>173</v>
       </c>
       <c r="E28" t="s">
-        <v>299</v>
+        <v>357</v>
       </c>
       <c r="F28" t="s">
         <v>175</v>
@@ -2769,6 +3012,9 @@
       </c>
       <c r="H28" t="s">
         <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="29">
@@ -2785,7 +3031,7 @@
         <v>177</v>
       </c>
       <c r="E29" t="s">
-        <v>300</v>
+        <v>358</v>
       </c>
       <c r="F29" t="s">
         <v>179</v>
@@ -2795,6 +3041,9 @@
       </c>
       <c r="H29" t="s">
         <v>180</v>
+      </c>
+      <c r="I29" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="30">
@@ -2811,7 +3060,7 @@
         <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="F30" t="s">
         <v>184</v>
@@ -2821,6 +3070,9 @@
       </c>
       <c r="H30" t="s">
         <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="31">
@@ -2837,7 +3089,7 @@
         <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>302</v>
+        <v>360</v>
       </c>
       <c r="F31" t="s">
         <v>188</v>
@@ -2847,6 +3099,9 @@
       </c>
       <c r="H31" t="s">
         <v>80</v>
+      </c>
+      <c r="I31" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="32">
@@ -2863,7 +3118,7 @@
         <v>190</v>
       </c>
       <c r="E32" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="F32" t="s">
         <v>192</v>
@@ -2873,6 +3128,9 @@
       </c>
       <c r="H32" t="s">
         <v>158</v>
+      </c>
+      <c r="I32" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="33">
@@ -2889,7 +3147,7 @@
         <v>194</v>
       </c>
       <c r="E33" t="s">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="F33" t="s">
         <v>196</v>
@@ -2899,6 +3157,9 @@
       </c>
       <c r="H33" t="s">
         <v>197</v>
+      </c>
+      <c r="I33" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="34">
@@ -2915,16 +3176,19 @@
         <v>199</v>
       </c>
       <c r="E34" t="s">
-        <v>305</v>
+        <v>363</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>202</v>
+      </c>
+      <c r="I34" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="35">
@@ -2941,7 +3205,7 @@
         <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="F35" t="s">
         <v>206</v>
@@ -2951,6 +3215,9 @@
       </c>
       <c r="H35" t="s">
         <v>207</v>
+      </c>
+      <c r="I35" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="36">
@@ -2967,7 +3234,7 @@
         <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>307</v>
+        <v>366</v>
       </c>
       <c r="F36" t="s">
         <v>211</v>
@@ -2977,6 +3244,9 @@
       </c>
       <c r="H36" t="s">
         <v>212</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="37">
@@ -2993,7 +3263,7 @@
         <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>308</v>
+        <v>367</v>
       </c>
       <c r="F37" t="s">
         <v>215</v>
@@ -3003,6 +3273,9 @@
       </c>
       <c r="H37" t="s">
         <v>216</v>
+      </c>
+      <c r="I37" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="38">
@@ -3019,7 +3292,7 @@
         <v>218</v>
       </c>
       <c r="E38" t="s">
-        <v>309</v>
+        <v>368</v>
       </c>
       <c r="F38" t="s">
         <v>220</v>
@@ -3029,6 +3302,9 @@
       </c>
       <c r="H38" t="s">
         <v>221</v>
+      </c>
+      <c r="I38" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="39">
@@ -3045,16 +3321,19 @@
         <v>311</v>
       </c>
       <c r="E39" t="s">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="H39" t="s">
         <v>80</v>
+      </c>
+      <c r="I39" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -3071,7 +3350,7 @@
         <v>223</v>
       </c>
       <c r="E40" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="F40" t="s">
         <v>225</v>
@@ -3081,6 +3360,9 @@
       </c>
       <c r="H40" t="s">
         <v>226</v>
+      </c>
+      <c r="I40" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="41">
@@ -3097,7 +3379,7 @@
         <v>228</v>
       </c>
       <c r="E41" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="F41" t="s">
         <v>230</v>
@@ -3107,6 +3389,9 @@
       </c>
       <c r="H41" t="s">
         <v>80</v>
+      </c>
+      <c r="I41" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="42">
@@ -3123,16 +3408,19 @@
         <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="H42" t="s">
         <v>80</v>
+      </c>
+      <c r="I42" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -3149,7 +3437,7 @@
         <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="F43" t="s">
         <v>234</v>
@@ -3159,6 +3447,9 @@
       </c>
       <c r="H43" t="s">
         <v>235</v>
+      </c>
+      <c r="I43" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="44">
@@ -3175,7 +3466,7 @@
         <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="F44" t="s">
         <v>239</v>
@@ -3185,6 +3476,9 @@
       </c>
       <c r="H44" t="s">
         <v>240</v>
+      </c>
+      <c r="I44" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="45">
@@ -3201,7 +3495,7 @@
         <v>242</v>
       </c>
       <c r="E45" t="s">
-        <v>319</v>
+        <v>375</v>
       </c>
       <c r="F45" t="s">
         <v>244</v>
@@ -3211,6 +3505,9 @@
       </c>
       <c r="H45" t="s">
         <v>80</v>
+      </c>
+      <c r="I45" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="46">
@@ -3227,16 +3524,19 @@
         <v>321</v>
       </c>
       <c r="E46" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="H46" t="s">
         <v>80</v>
+      </c>
+      <c r="I46" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="47">
@@ -3253,7 +3553,7 @@
         <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="F47" t="s">
         <v>248</v>
@@ -3263,6 +3563,9 @@
       </c>
       <c r="H47" t="s">
         <v>249</v>
+      </c>
+      <c r="I47" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="48">
@@ -3279,7 +3582,7 @@
         <v>251</v>
       </c>
       <c r="E48" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="F48" t="s">
         <v>253</v>
@@ -3289,6 +3592,9 @@
       </c>
       <c r="H48" t="s">
         <v>254</v>
+      </c>
+      <c r="I48" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="49">
@@ -3305,7 +3611,7 @@
         <v>256</v>
       </c>
       <c r="E49" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="F49" t="s">
         <v>258</v>
@@ -3315,6 +3621,9 @@
       </c>
       <c r="H49" t="s">
         <v>259</v>
+      </c>
+      <c r="I49" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="50">
@@ -3331,7 +3640,7 @@
         <v>261</v>
       </c>
       <c r="E50" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="F50" t="s">
         <v>263</v>
@@ -3341,6 +3650,9 @@
       </c>
       <c r="H50" t="s">
         <v>264</v>
+      </c>
+      <c r="I50" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="51">
@@ -3368,6 +3680,9 @@
       <c r="H51" t="s">
         <v>80</v>
       </c>
+      <c r="I51" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -3383,7 +3698,7 @@
         <v>266</v>
       </c>
       <c r="E52" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="F52" t="s">
         <v>268</v>
@@ -3393,6 +3708,9 @@
       </c>
       <c r="H52" t="s">
         <v>80</v>
+      </c>
+      <c r="I52" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/42.xlsx
+++ b/Covid_19_Dataset_and_References/References/42.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2166F4-0775-40E7-8A8D-3E9FF59DD4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="484">
   <si>
     <t>Doi</t>
   </si>
@@ -228,9 +235,6 @@
  On multivariable analysis, the risk factors found to be significantly associated with admission to intensive care were age above 50 years old, a qSOFA score above 0, smoking, elevated CRP and elevated procalcitonin levels.
  Asthma, smoking and elevated procalcitonin levels correlated significantly with mortality in our cohort.
 </t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%1, Sarah%Al-Youha%sarahalyouha@gmail.com%1, Mohammad H.%Jamal%NULL%1, Mohannad%Al-Haddad%NULL%1, Ali%Al-Muhaini%NULL%1, Fahad%Al-Ghimlas%NULL%1, Salman%Al-Sabah%NULL%1]</t>
   </si>
   <si>
     <t>PMC7335246</t>
@@ -268,9 +272,6 @@
 </t>
   </si>
   <si>
-    <t>[Michael G%Argenziano%NULL%0, Samuel L%Bruce%NULL%1, Cody L%Slater%NULL%1, Jonathan R%Tiao%NULL%1, Matthew R%Baldwin%NULL%1, R Graham%Barr%NULL%1, Bernard P%Chang%NULL%1, Katherine H%Chau%NULL%1, Justin J%Choi%NULL%1, Nicholas%Gavin%NULL%1, Parag%Goyal%NULL%0, Angela M%Mills%NULL%1, Ashmi A%Patel%NULL%1, Marie-Laure S%Romney%NULL%1, Monika M%Safford%NULL%1, Neil W%Schluger%NULL%1, Soumitra%Sengupta%NULL%1, Magdalena E%Sobieszczyk%NULL%1, Jason E%Zucker%NULL%1, Paul A%Asadourian%NULL%1, Fletcher M%Bell%NULL%1, Rebekah%Boyd%NULL%1, Matthew F%Cohen%NULL%1, MacAlistair I%Colquhoun%NULL%1, Lucy A%Colville%NULL%1, Joseph H%de Jonge%NULL%1, Lyle B%Dershowitz%NULL%1, Shirin A%Dey%NULL%1, Katherine A%Eiseman%NULL%1, Zachary P%Girvin%NULL%1, Daniella T%Goni%NULL%1, Amro A%Harb%NULL%1, Nicholas%Herzik%NULL%1, Sarah%Householder%NULL%1, Lara E%Karaaslan%NULL%1, Heather%Lee%NULL%1, Evan%Lieberman%NULL%1, Andrew%Ling%NULL%1, Ree%Lu%NULL%1, Arthur Y%Shou%NULL%1, Alexander C%Sisti%NULL%1, Zachary E%Snow%NULL%1, Colin P%Sperring%NULL%1, Yuqing%Xiong%NULL%1, Henry W%Zhou%NULL%1, Karthik%Natarajan%NULL%1, George%Hripcsak%NULL%1, Ruijun%Chen%NULL%2]</t>
-  </si>
-  <si>
     <t>PMC7256651</t>
   </si>
   <si>
@@ -295,9 +296,6 @@
 Conclusions:
 Despite multiple reports of mortality rates exceeding 50% among critically ill adults with coronavirus disease 2019, particularly among those requiring mechanical ventilation, our early experience indicates that many patients survive their critical illness.
 </t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0, Mark%Caridi-Scheible%NULL%1, James M.%Blum%NULL%1, Chad%Robichaux%NULL%1, Colleen%Kraft%NULL%1, Jesse T.%Jacob%NULL%1, Craig S.%Jabaley%NULL%1, David%Carpenter%NULL%1, Roberta%Kaplow%NULL%1, Alfonso C.%Hernandez-Romieu%NULL%1, Max W.%Adelman%NULL%1, Greg S.%Martin%NULL%1, Craig M.%Coopersmith%NULL%1, David J.%Murphy%NULL%1, NULL%NULL%NULL%0, NULL%NULL%NULL%0]</t>
   </si>
   <si>
     <t>PMC7255393</t>
@@ -326,9 +324,6 @@
 Conclusions
 Our findings provide comprehensive information about characteristics and complications of severe COVID-19, and may help clinicians identify patients at a higher risk of death.
 </t>
-  </si>
-  <si>
-    <t>[Juan%Berenguer%NULL%2, Pablo%Ryan%NULL%2, Jesús%Rodríguez-Baño%NULL%1, Inmaculada%Jarrín%NULL%4, Jordi%Carratalà%NULL%4, Jerónimo%Pachón%NULL%2, María%Yllescas%NULL%1, José Ramón%Arriba%NULL%1, NULL%NULL%NULL%0, Esther%Aznar Muñoz%NULL%1, Pedro%Gil Divasson%NULL%1, Patricia%González Muñiz%NULL%1, Clara%Muñoz Aguirre%NULL%1, Juan Carlos%López%NULL%3, Juan Carlos%López%NULL%0, Juan Carlos%López%NULL%0, Margarita%Ramírez-Schacke%NULL%1, Isabel%Gutiérrez%NULL%1, Francisco%Tejerina%NULL%1, Teresa%Aldámiz-Echevarría%NULL%1, Cristina%Díez%NULL%1, Chiara%Fanciulli%NULL%1, Leire%Pérez-Latorre%NULL%1, Francisco%Parras%NULL%1, Pilar%Catalán%NULL%1, María E.%García-Leoni%NULL%1, Isabel%Pérez-Tamayo%NULL%1, Luis%Puente%NULL%1, Jamil%Cedeño%NULL%1, Juan%Berenguer%NULL%0, Marta%Díaz Menéndez%NULL%3, Marta%Díaz Menéndez%NULL%0, Marta%Díaz Menéndez%NULL%0, Fernando%de la Calle Prieto%NULL%1, Marta%Arsuaga Vicente%NULL%1, Elena%Trigo Esteban%NULL%1, Mª del Mar%Lago Núñez%NULL%1, Rosa%de Miguel Buckley%NULL%1, Julen%Cadiñaños Loidi%NULL%1, Carmen%Busca Arenzana%NULL%1, Alfredo%Mican%NULL%1, Marta%Mora Rillo%NULL%1, Juan Carlos%Ramos Ramos%NULL%1, Belén%Loeches Yagüe%NULL%1, José Ignacio%Bernardino de la Serna%NULL%1, Julio%García Rodríguez%NULL%1, José Ramón%Arribas López%NULL%1, Ana%Such Diaz%NULL%3, Ana%Such Diaz%NULL%0, Ana%Such Diaz%NULL%0, Elena%Álvaro Alonso%NULL%1, Elsa%Izquierdo García%NULL%1, Juan%Torres Macho%NULL%1, Guillermo%Cuevas Tascon%NULL%1, Jesús%Troya García%NULL%1, Beatriz%Mestre Gómez%NULL%1, Eva%Jiménez González de Buitrago%NULL%1, Inés%Fernández Jiménez%NULL%1, Ana Josefa%Tebar Martínez%NULL%1, Fátima%Brañas Baztán%NULL%1, Jorge%Valencia de la Rosa%NULL%1, Mario%Pérez Butragueño%NULL%1, Marta%Alvarado Blasco%NULL%1, Pablo%Ryan%NULL%0, Mª Antonia%Sepúlveda Berrocal%NULL%3, Mª Antonia%Sepúlveda Berrocal%NULL%0, Mª Antonia%Sepúlveda Berrocal%NULL%0, Carmen%Yera Bergua%NULL%1, Pilar%Toledano Sierra%NULL%1, Verónica%Cano Llorente%NULL%1, Sadaf%Zafar Iqubal-Mirza%NULL%1, Gema%Muñiz%NULL%1, Inmaculada%Martín Pérez%NULL%1, Helena%Mozas Moriñigo%NULL%1, Ana%Alguacil%NULL%1, María Paz%García Butenegro%NULL%1, Ana Isabel%Peláez Ballesta%NULL%3, Ana Isabel%Peláez Ballesta%NULL%0, Ana Isabel%Peláez Ballesta%NULL%0, Elena%Morcillo Rodríguez%NULL%1, Josune%Goikoetxea Agirre%NULL%3, Josune%Goikoetxea Agirre%NULL%0, Josune%Goikoetxea Agirre%NULL%0, María José%Blanco Vidal%NULL%1, Javier%Nieto Arana%NULL%1, Mikel%del Álamo Martínez de Lagos%NULL%1, Isabel A.%Pérez Hernández%NULL%3, Isabel A.%Pérez Hernández%NULL%0, Isabel A.%Pérez Hernández%NULL%0, Inés%Pérez Zapata%NULL%1, Rafael%Silvariño Fernández%NULL%3, Rafael%Silvariño Fernández%NULL%0, Rafael%Silvariño Fernández%NULL%0, Jon%Ugalde Espiñeira%NULL%1, Víctor%Asensi Álvarez%NULL%3, Víctor%Asensi Álvarez%NULL%0, Víctor%Asensi Álvarez%NULL%0, Lucia%Suárez Pérez%NULL%1, Silvia%Suárez Diaz%NULL%1, Carmen%Yllera Gutiérrez%NULL%1, Vicente%Boix%NULL%3, Vicente%Boix%NULL%0, Vicente%Boix%NULL%0, Marcos%Díez Martínez%NULL%1, Melissa%Carreres Candela%NULL%1, Cristina%Gómez-Ayerbe%NULL%3, Cristina%Gómez-Ayerbe%NULL%0, Cristina%Gómez-Ayerbe%NULL%0, Javier%Sánchez-Lora%NULL%1, José Luis%Velasco Garrido%NULL%1, María%López-Jódar%NULL%1, Jesús%Santos González%NULL%1, Jesús%Ruiz Aragón%NULL%3, Jesús%Ruiz Aragón%NULL%0, Jesús%Ruiz Aragón%NULL%0, Ianire%Virto Peña%NULL%1, Vanessa%Alende Castro%NULL%3, Vanessa%Alende Castro%NULL%0, Vanessa%Alende Castro%NULL%0, Ruth%Brea Aparicio%NULL%1, Sonia%Vega Molpeceres%NULL%3, Sonia%Vega Molpeceres%NULL%0, Sonia%Vega Molpeceres%NULL%0, Estel%Pons Viñas%NULL%1, Oscar%del Río Pérez%NULL%3, Oscar%del Río Pérez%NULL%0, Oscar%del Río Pérez%NULL%0, Silvia%Valero Rovira%NULL%1, Judit%Villar-García%NULL%3, Judit%Villar-García%NULL%0, Judit%Villar-García%NULL%0, Joan%Gómez-Junyent%NULL%1, Hernando%Knobel%NULL%1, María Cecilia%Cánepa%NULL%1, Silvia%Castañeda Espinosa%NULL%1, Luisa%Sorli Redò%NULL%1, Roberto%Güerri-Fernández%NULL%1, María%Milagro Montero%NULL%1, Juan Pablo%Horcajada%NULL%1, Elisa%García Vázquez%NULL%3, Elisa%García Vázquez%NULL%0, Elisa%García Vázquez%NULL%0, Encarnación%Moral Escudero%NULL%1, Alicia%Hernández Torres%NULL%1, Esther%García Almodóvar%NULL%3, Esther%García Almodóvar%NULL%0, Esther%García Almodóvar%NULL%0, Carmen%Sáez Barberá%NULL%3, Carmen%Sáez Barberá%NULL%0, Carmen%Sáez Barberá%NULL%0, Zineb%Karroud%NULL%1, José%Hernández Quero%NULL%3, José%Hernández Quero%NULL%0, José%Hernández Quero%NULL%0, David%Vinuesa García%NULL%1, José Luis%García Fogeda%NULL%1, José Antonio%Peregrina%NULL%1, María%Novella Mena%NULL%3, María%Novella Mena%NULL%0, María%Novella Mena%NULL%0, Cristina%Hernández Gutiérrez%NULL%1, José%Sanz Moreno%NULL%1, Ramón%Pérez Tanoira%NULL%1, Rodrigo%Sierra Rodríguez%NULL%1, David%Alonso Menchén%NULL%1, Aida%Gutiérrez García%NULL%1, Alberto%Arranz Caso%NULL%1, Juan%Cuadros González%NULL%1, Melchor%Álvarez de Mon Soto%NULL%1, Vicente Ferrer%Díaz de Brito Fernández%NULL%3, Vicente Ferrer%Díaz de Brito Fernández%NULL%0, Vicente Ferrer%Díaz de Brito Fernández%NULL%0, Montserrat%Sanmarti Vilamala%NULL%1, Aina%Gabarrell Pascuet%NULL%1, Daniel%Molina Morant%NULL%1, Sergio%España Cueto%NULL%1, Jonathan%Cámara Fernández%NULL%1, Albert%Sabater Gil%NULL%1, Laura%Muñoz López%NULL%1, Paula%Sáez Escolano%NULL%3, Paula%Sáez Escolano%NULL%0, Paula%Sáez Escolano%NULL%0, Esperanza%Bejarano Tello%NULL%1, Marco Antonio%Sempere Alcocer%NULL%3, Marco Antonio%Sempere Alcocer%NULL%0, Marco Antonio%Sempere Alcocer%NULL%0, Salvador%Álvarez Martin%NULL%1, Ignacio%De los Santos Gil%NULL%3, Ignacio%De los Santos Gil%NULL%0, Ignacio%De los Santos Gil%NULL%0, Lucio%García-Fraile%NULL%1, Miguel%Sampedro Núñez%NULL%1, Ana%Barrios Blandino%NULL%1, Carlos%Rodríguez Franco%NULL%1, Daniel%Useros Brañas%NULL%1, Almudena%Villa Martí%NULL%1, Javier%Oliver Ortega%NULL%1, Alexia%Costanza Espiño Álvarez%NULL%1, Jesús%Sanz Sanz%NULL%1, María%Rexach Fumaña%NULL%3, María%Rexach Fumaña%NULL%0, María%Rexach Fumaña%NULL%0, Ivette%Abascal Cambras%NULL%1, Ana del Cielo%Pérez Jaén%NULL%1, Clara%Sala Jofre%NULL%3, Clara%Sala Jofre%NULL%0, Clara%Sala Jofre%NULL%0, Susana%Casas Rodríguez%NULL%1, Cecilia%Tortajada Alamilla%NULL%3, Cecilia%Tortajada Alamilla%NULL%0, Cecilia%Tortajada Alamilla%NULL%0, Carmina%Oltra%NULL%1, Mar%Masiá Canuto%NULL%3, Mar%Masiá Canuto%NULL%0, Mar%Masiá Canuto%NULL%0, Félix%Gutiérrez Rodero%NULL%1, Ana%Ferrer Ribera%NULL%3, Ana%Ferrer Ribera%NULL%0, Ana%Ferrer Ribera%NULL%0, Carlos%Bea Serrano%NULL%1, Miguel%Pedromingo Kus%NULL%3, Miguel%Pedromingo Kus%NULL%0, Miguel%Pedromingo Kus%NULL%0, María Ángeles%Garcinuño%NULL%1, Silvana%Fiorante%NULL%1, Sergio%Pérez Pinto%NULL%1, Pilar%Hernández Machín%NULL%3, Pilar%Hernández Machín%NULL%0, Pilar%Hernández Machín%NULL%0, Alba%Alastrué Violeta%NULL%1, María Carmen%Fariñas Álvarez%NULL%3, María Carmen%Fariñas Álvarez%NULL%0, María Carmen%Fariñas Álvarez%NULL%0, Claudia%González Rico%NULL%1, Francisco%Arnaiz de las Revillas%NULL%1, Jorge%Calvo%NULL%1, Mónica%Gozalo%NULL%1, Francisco%Mora Gómez%NULL%3, Francisco%Mora Gómez%NULL%0, Francisco%Mora Gómez%NULL%0, Ana%Milagro Beamonte%NULL%3, Ana%Milagro Beamonte%NULL%0, Ana%Milagro Beamonte%NULL%0, Miriam%Latorre-Millán%NULL%1, Antonio%Rezusta López%NULL%1, Ana%Martínez Sapiña%NULL%1, Yolanda%Meije%NULL%3, Yolanda%Meije%NULL%0, Yolanda%Meije%NULL%0, Alejandra%Duarte Borges%NULL%1, Julia%Pareja Coca%NULL%1, Mercedes%Clemente Presas%NULL%1, Juan Emilio%Losa García%NULL%3, Juan Emilio%Losa García%NULL%0, Juan Emilio%Losa García%NULL%0, Ana%Vegas Serrano%NULL%1, M. Teresa%Pérez-Rodríguez%NULL%3, M. Teresa%Pérez-Rodríguez%NULL%0, M. Teresa%Pérez-Rodríguez%NULL%0, Alexandre%Pérez González%NULL%1, Moncef%Belhassen-García%NULL%3, Moncef%Belhassen-García%NULL%0, Moncef%Belhassen-García%NULL%0, Beatriz%Rodríguez-Alonso%NULL%1, Amparo%López-Bernus%NULL%1, Cristina%Carbonell%NULL%1, Rafael%Torres Perea%NULL%3, Rafael%Torres Perea%NULL%0, Rafael%Torres Perea%NULL%0, Juan%Cantón de Seoane%NULL%1, Blanca%Alonso%NULL%1, Sara Lidia%Kamal%NULL%1, Lucia%Cajuela%NULL%1, David%Roa%NULL%1, Miguel%Cervero%NULL%1, Alberto%Oreja%NULL%1, Juan Pablo%Avilés%NULL%1, Lidia%Martín%NULL%1, Iván%Pelegrín Senent%NULL%3, Iván%Pelegrín Senent%NULL%0, Iván%Pelegrín Senent%NULL%0, Rosana%Rouco Esteves Marques%NULL%1, Jorge%Parra Ruiz%NULL%3, Jorge%Parra Ruiz%NULL%0, Jorge%Parra Ruiz%NULL%0, Violeta%Ramos Sesma%NULL%1, Jessica%Abadia Otero%NULL%3, Jessica%Abadia Otero%NULL%0, Jessica%Abadia Otero%NULL%0, Juan%Salillas Hernando%NULL%3, Juan%Salillas Hernando%NULL%0, Juan%Salillas Hernando%NULL%0, Robert%Torres Sánchez del Arco%NULL%1, Miguel%Torralba González de Suso%NULL%1, Alberto%Serrano Martínez%NULL%1, Sergio%Gilaberte Reyzábal%NULL%1, Marina%Pacheco Martínez-Atienza%NULL%1, Mónica%Liébana Gómez%NULL%1, Sara%Fernández Rodríguez%NULL%1, Álvaro%Varela Plaza%NULL%1, Henar%Calvo Sánchez%NULL%1, Patricia%Martínez Martín%NULL%3, Patricia%Martínez Martín%NULL%0, Patricia%Martínez Martín%NULL%0, Patricia%González- Ruano%NULL%1, Eduardo%Malmierca Corral%NULL%1, Isabel%Rábago Lorite%NULL%1, Beatriz%Pérez-Monte Mínguez%NULL%1, Ángeles%García Flores%NULL%3, Ángeles%García Flores%NULL%0, Ángeles%García Flores%NULL%0, Pere%Comas Casanova%NULL%1, Merce%Sirisi%NULL%3, Merce%Sirisi%NULL%0, Merce%Sirisi%NULL%0, Richard%Rojas%NULL%1, José Luis%Díaz de Tuesta del Arco%NULL%3, José Luis%Díaz de Tuesta del Arco%NULL%0, José Luis%Díaz de Tuesta del Arco%NULL%0, Ruth%Figueroa Cerón%NULL%1, Ander%González Sarria%NULL%1, Remedios%Alemán Valls%NULL%3, Remedios%Alemán Valls%NULL%0, Remedios%Alemán Valls%NULL%0, María del Mar%Alonso Socas%NULL%1, Oscar%Sanz Peláez%NULL%3, Oscar%Sanz Peláez%NULL%0, Oscar%Sanz Peláez%NULL%0, Karim%Mohamed Ramírez%NULL%1, Melchor%Riera Jaume%NULL%3, Melchor%Riera Jaume%NULL%0, Melchor%Riera Jaume%NULL%0, Helem Haydee%Vilchez%NULL%1, Francesc%Albertí%NULL%1, Ana Isabel%Cañabate%NULL%1, Víctor J.%Moreno Cuerda%NULL%3, Víctor J.%Moreno Cuerda%NULL%0, Víctor J.%Moreno Cuerda%NULL%0, Silvia%Álvarez Kaelis%NULL%1, Beatriz%Álvarez Zapatero%NULL%1, Alejandro%García García%NULL%1, Elena%Isaba Ares%NULL%1, Covadonga%Morcate Fernández%NULL%1, Andrea%Pérez Rodríguez%NULL%1, Lucía%Ramos Merino%NULL%3, Lucía%Ramos Merino%NULL%0, Lucía%Ramos Merino%NULL%0, Laura%Castelo Corral%NULL%1, María%Rodríguez Mahía%NULL%1, Mónica%González Bardanca%NULL%1, Efrén%Sánchez Vidal%NULL%1, Enrique%Míguez Rey%NULL%1, Javier%De la Torre Lima%NULL%3, Javier%De la Torre Lima%NULL%0, Javier%De la Torre Lima%NULL%0, José Mª%García de Lomas Guerrero%NULL%1, Elena%Morte%NULL%3, Elena%Morte%NULL%0, Elena%Morte%NULL%0, Silvia%Loscos%NULL%1, Ana%Camón%NULL%1, Lucía%Gómez García%NULL%3, Lucía%Gómez García%NULL%0, Lucía%Gómez García%NULL%0, Lucia%Boix Palop%NULL%1, Beatriz%Dietl Gómez-Luengo%NULL%1, Iris%Pedrola Gorrea%NULL%3, Iris%Pedrola Gorrea%NULL%0, Iris%Pedrola Gorrea%NULL%0, Amparo%Blasco Claramunt%NULL%1, Cristina%López Mestanza%NULL%3, Cristina%López Mestanza%NULL%0, Cristina%López Mestanza%NULL%0, Esther%Fraile Villarejo%NULL%1, Tomás%Tosco Núñez%NULL%3, Tomás%Tosco Núñez%NULL%0, Tomás%Tosco Núñez%NULL%0, María%Aroca Ferri%NULL%1, José Tomas%Algado Rabasa%NULL%3, José Tomas%Algado Rabasa%NULL%0, José Tomas%Algado Rabasa%NULL%0, Ana María%Garijo Saiz%NULL%1, Concepción%Amador Prous%NULL%1, Jesús Rodriguez%Baño%NULL%3, Jesús Rodriguez%Baño%NULL%0, Jesús Rodriguez%Baño%NULL%0, Pilar%Retamar%NULL%1, Adoración%Valiente%NULL%1, Luis E.%López-Cortés%NULL%1, Jesús%Sojo%NULL%1, Belén%Gutiérrez-Gutiérrez%NULL%1, José%Bravo-Ferrer%NULL%1, Elena%Salamanca%NULL%1, Zaira R.%Palacios%NULL%1, Patricia%Pérez-Palacios%NULL%1, Enrique%Peral%NULL%1, José Antonio%Pérez de León%NULL%1, Jesús%Sánchez-Gómez%NULL%1, Lucía%Marín-Barrera%NULL%1, Domingo%García-Jiménez%NULL%1, Jordi%Carratalà%NULL%0, Jordi%Carratalà%NULL%0, Jordi%Carratalà%NULL%0, Gabriela%Abelenda-Alonso%NULL%1, Carmen%Ardanuy%NULL%1, Alba%Bergas%NULL%1, Guillermo%Cuervo%NULL%1, María Ángeles%Domínguez%NULL%1, Miguel%Fernández-Huerta%NULL%1, Carlota%Gudiol%NULL%1, Laia%Lorenzo-Esteller%NULL%1, Jordi%Niubó%NULL%1, Sandra%Pérez-Recio%NULL%1, Daniel%Podzamczer%NULL%1, Miquel%Pujol%NULL%1, Alexander%Rombauts%NULL%1, Núria%Trullen%NULL%1, Miguel%Salavert Lletí%NULL%3, Miguel%Salavert Lletí%NULL%0, Miguel%Salavert Lletí%NULL%0, Iván%Castro Hernández%NULL%1, Adriana%Hernández Belmonte%NULL%3, Adriana%Hernández Belmonte%NULL%0, Adriana%Hernández Belmonte%NULL%0, Raquel%Martínez Goñi%NULL%1, Marta%Navarro Vilasaró%NULL%3, Marta%Navarro Vilasaró%NULL%0, Marta%Navarro Vilasaró%NULL%0, Sonia%Calzado Isbert%NULL%1, Manuel%Cervantes García%NULL%1, Aina%Gomila Grange%NULL%1, Oriol%Gasch Blasi%NULL%1, María Luisa%Machado Sicilia%NULL%1, Eva%Van den Eynde Otero%NULL%1, Luis%Falgueras López%NULL%1, María del Carmen%Navarro Sáez%NULL%1, Esteban%Martínez%NULL%3, Esteban%Martínez%NULL%0, Esteban%Martínez%NULL%0, Mª Ángeles%Marcos%NULL%1, Mar%Mosquera%NULL%1, José Luis%Blanco%NULL%1, Montserrat%Laguno%NULL%1, Jhon%Rojas%NULL%1, Ana%González-Cordón%NULL%1, Alexy%Inciarte%NULL%1, Berta%Torres%NULL%1, Lorena%De la Mora%NULL%1, Alex%Soriano%NULL%1, Olalla%Martínez Macias%NULL%3, Olalla%Martínez Macias%NULL%0, Olalla%Martínez Macias%NULL%0, Virginia%Pérez Doñate%NULL%1, Alfonso%Cabello Úbeda%NULL%3, Alfonso%Cabello Úbeda%NULL%0, Alfonso%Cabello Úbeda%NULL%0, Nerea%Carrasco Antón%NULL%1, Beatriz%Álvarez Álvarez%NULL%1, Elizabet%Petkova Saiz%NULL%1, Miguel%Górgolas Hernández-Mora%NULL%1, Laura%Prieto Pérez%NULL%1, Irene%Carrillo Acosta%NULL%1, Sara%Heili Frades%NULL%1, Felipe%Villar Álvarez%NULL%1, Ricardo%Fernández Roblas%NULL%1, José María%Milicua Muñoz%NULL%1, Virginia%Fernández Espinilla%NULL%3, Virginia%Fernández Espinilla%NULL%0, Virginia%Fernández Espinilla%NULL%0, Carlos Jesús%Dueñas Gutiérrez%NULL%1, Cristina%Hernán García%NULL%1, Fernando%González-Romo%NULL%3, Fernando%González-Romo%NULL%0, Fernando%González-Romo%NULL%0, Paloma%Merino Amador%NULL%1, Alba%Rueda López%NULL%1, Jorge%Martínez Jordán%NULL%1, Sara%Medrano Pardo%NULL%1, Irene%Díaz de la Torre%NULL%1, Yolanda%Posada Franco%NULL%1, Alberto%Delgado-Iribarren%NULL%1, Joaquín%López-Contreras González%NULL%3, Joaquín%López-Contreras González%NULL%0, Joaquín%López-Contreras González%NULL%0, Pablo%Pascual Alonso%NULL%1, Virginia%Pomar Solchaga%NULL%1, Nuria%Rabella García%NULL%1, Natividad%Benito Hernández%NULL%1, Pere%Domingo Pedrol%NULL%1, Xavier%Bonfill Cosp%NULL%1, Rafael%Padrós Selma%NULL%1, Mireia%Puig Campmany%NULL%1, Jordi%Mancebo Cortés%NULL%1, Mercè%Gurguí Ferrer%NULL%1, Melania%Íñigo Pestaña%NULL%3, Melania%Íñigo Pestaña%NULL%0, Melania%Íñigo Pestaña%NULL%0, Alejandra%Pérez García%NULL%1, Patricia%Sorní Moreno%NULL%3, Patricia%Sorní Moreno%NULL%0, Patricia%Sorní Moreno%NULL%0, Nora%Izko Gartzia%NULL%1, Francisco Javier%Membrillo de Novales%NULL%3, Francisco Javier%Membrillo de Novales%NULL%0, Francisco Javier%Membrillo de Novales%NULL%0, María%Simón Sacristán%NULL%1, Maribel%Zamora Cintas%NULL%1, Yolanda%Martínez Martínez%NULL%1, Pablo%Fernández-González%NULL%1, Francisco%Alcántara Nicolás%NULL%1, Alejandro%Aguirre Vila-Cora%NULL%1, Elena%López Tizón%NULL%1, Germán%Ramírez-Olivencia%NULL%1, Miriam%Estébanez Muñoz%NULL%1, Ester%Sáez de Adana Arróniz%NULL%3, Ester%Sáez de Adana Arróniz%NULL%0, Ester%Sáez de Adana Arróniz%NULL%0, Joseba%Portu Zapirain%NULL%1, Juan Carlos%Gainzarain Arana%NULL%1, Zuriñe%Ortiz de Zárate Ibarra%NULL%1, Miguel Ángel%Moran Rodríguez%NULL%1, Andrés%Canut Blasco%NULL%1, Silvia%Hernáez Crespo%NULL%1, Leire%Balerdi Sarasola%NULL%1, Cristina%Morales García%NULL%1, Miguel%Corral Saracho%NULL%1, Zeltia%Valcarce González%NULL%1, Noelia%Arenal Andrés%NULL%3, Noelia%Arenal Andrés%NULL%0, Noelia%Arenal Andrés%NULL%0, Raquel Elisa%Rodríguez Tarazona%NULL%1, Laura%Iglesias Llorente%NULL%3, Laura%Iglesias Llorente%NULL%0, Laura%Iglesias Llorente%NULL%0, Beatriz%Loureiro Rodríguez%NULL%1, Adrián%Sánchez Montalvá%NULL%3, Adrián%Sánchez Montalvá%NULL%0, Adrián%Sánchez Montalvá%NULL%0, Juan%Espinosa Pereiro%NULL%1, Benito%Almirante%NULL%1, Marta%Miarons%NULL%1, Júlia%Sellarés%NULL%1, María%Larrosa%NULL%1, Sonia%García%NULL%1, Blanca%Marzo%NULL%1, Miguel%Villamarín%NULL%1, Nuria%Fernández%NULL%1, Conchita%Pérez-Jorge Peremarch%NULL%3, Conchita%Pérez-Jorge Peremarch%NULL%0, Conchita%Pérez-Jorge Peremarch%NULL%0, Elena%Resino Foz%NULL%1, Andrea%Espigares Correa%NULL%1, Teresa%Álvarez de Espejo Montiel%NULL%1, Iván%Navas Clemente%NULL%1, María Isabel%Quijano Contreras%NULL%1, Luis Alberto%Nieto Fernández del Campo%NULL%1, Guillermo%Jiménez Álvarez%NULL%1, Mercedes%Guillamón Sánchez%NULL%3, Mercedes%Guillamón Sánchez%NULL%0, Mercedes%Guillamón Sánchez%NULL%0, Josefina%García García%NULL%1, Constanza%Muñoz Hornero%NULL%3, Constanza%Muñoz Hornero%NULL%0, Constanza%Muñoz Hornero%NULL%0, Ana%Mariño Callejo%NULL%3, Ana%Mariño Callejo%NULL%0, Ana%Mariño Callejo%NULL%0, Nieves%Valcarce Pardeiro%NULL%1, Alex%Smithson Amat%NULL%3, Alex%Smithson Amat%NULL%0, Alex%Smithson Amat%NULL%0, Cristina%Chico Chumillas%NULL%1, Adriana%Sánchez Serrano%NULL%3, Adriana%Sánchez Serrano%NULL%0, Adriana%Sánchez Serrano%NULL%0, Eva Pilar%García Villalba%NULL%1, Isabel%Jiménez Martínez%NULL%3, Isabel%Jiménez Martínez%NULL%0, Isabel%Jiménez Martínez%NULL%0, Guillermo%Estrada Fernández%NULL%1, María%Lorén Vargas%NULL%1, Nuria%Parra Arribas%NULL%1, Carmen%Martínez Cilleros%NULL%1, Aránzazu%Villasante de la Puente%NULL%1, Teresa%García Delange%NULL%1, María José%Ruiz Rodríguez%NULL%1, Marta%Robledo del Prado%NULL%1, Juan Carlos%Abad Almendro%NULL%1, José Román%Muñoz del Rey%NULL%3, José Román%Muñoz del Rey%NULL%0, José Román%Muñoz del Rey%NULL%0, Montaña%Jiménez Álvaro%NULL%1, Javier%Coy Coy%NULL%3, Javier%Coy Coy%NULL%0, Javier%Coy Coy%NULL%0, Inmaculada%Poquet Catala%NULL%1, Marta%Santos Peña%NULL%3, Marta%Santos Peña%NULL%0, Marta%Santos Peña%NULL%0, Virginia%Naranjo Velasco%NULL%1, Tamara%Manso Gómez%NULL%3, Tamara%Manso Gómez%NULL%0, Tamara%Manso Gómez%NULL%0, Delia%Quilez Ágreda%NULL%1, Gema%Barbeito Castiñeiras%NULL%3, Gema%Barbeito Castiñeiras%NULL%0, Gema%Barbeito Castiñeiras%NULL%0, María Jesús%Domínguez Santalla%NULL%1, Laura%Mao Martín%NULL%3, Laura%Mao Martín%NULL%0, Laura%Mao Martín%NULL%0, Rodrigo%Alonso Navarro%NULL%1, Jose David%Ampuero Martinich%NULL%1, Raquel%Barrós González%NULL%1, María Aránzazu%Galindo Martín%NULL%1, Lourdes%Herrera Pacheco%NULL%1, Rocío%Martínez Avilés%NULL%1, Sara%Rodrigo González%NULL%1, Cristóbal Manuel%Rodríguez Leal%NULL%1, Eva María%Romay Lema%NULL%3, Eva María%Romay Lema%NULL%0, Eva María%Romay Lema%NULL%0, Roi%Suárez Gil%NULL%1, Maialen%Ibarguren Pinilla%NULL%3, Maialen%Ibarguren Pinilla%NULL%0, Maialen%Ibarguren Pinilla%NULL%0, José María%Marimón Ortiz de Zárate%NULL%1, Loreto%Vidaur Tello%NULL%1, Xabier%Kortajarena Urkola%NULL%1, Miriam%García Gómez%NULL%3, Miriam%García Gómez%NULL%0, Miriam%García Gómez%NULL%0, Asier%Aranguren Arostegui%NULL%1, Maria%Álvarez de Castro%NULL%3, Maria%Álvarez de Castro%NULL%0, Maria%Álvarez de Castro%NULL%0, Cintia María%Martínez Mateu%NULL%1, Francisco%Rodríguez Gómez%NULL%3, Francisco%Rodríguez Gómez%NULL%0, Francisco%Rodríguez Gómez%NULL%0, Francisco%Muñoz Beamud%NULL%1, Elena%Chamarro Martí%NULL%3, Elena%Chamarro Martí%NULL%0, Elena%Chamarro Martí%NULL%0, Merce%Cardona Rivera%NULL%1, Ismail%Zakariya-Yousef Breval%NULL%3, Ismail%Zakariya-Yousef Breval%NULL%0, Ismail%Zakariya-Yousef Breval%NULL%0, Marta%Rico Rodríguez%NULL%1, Jara%Llenas García%NULL%3, Jara%Llenas García%NULL%0, Jara%Llenas García%NULL%0, Mª Carmen%Sánchez Arenas%NULL%1, Ana%Fernández Cruz%NULL%3, Ana%Fernández Cruz%NULL%0, Ana%Fernández Cruz%NULL%0, Jorge%Calderón Parra%NULL%1, Marcos%López Dosil%NULL%1, Antonio%Ramos Martínez%NULL%1, Elena%Múñez Rubio%NULL%1, Alejandro%Callejas Díaz%NULL%1, José Manuel%Vázquez Comendador%NULL%1, Itziar%Diego Yagüe%NULL%1, Esther%Expósito Palomo%NULL%1, Jorge%Anel Pedroche%NULL%1, Raquel%Álvarez Franco%NULL%3, Raquel%Álvarez Franco%NULL%0, Raquel%Álvarez Franco%NULL%0, Lucía%Fernández de Orueta%NULL%1, Roberto%Vates Gómez%NULL%1, Andrés Felipe%Cardona Arias%NULL%1, Pablo%Marguenda Contreras%NULL%1, Gabriel%Gaspar Alonso-Vega%NULL%1, Elena María%Aranda Rife%NULL%1, Blanca%Martínez Cifre%NULL%1, Daniel%Roger Zapata%NULL%1, Irene%Martín Rubio%NULL%1, André%Barbosa Ventura%NULL%3, André%Barbosa Ventura%NULL%0, André%Barbosa Ventura%NULL%0, Iván%Piñero%NULL%1, Alberto%Bahamonde Carrasco%NULL%3, Alberto%Bahamonde Carrasco%NULL%0, Alberto%Bahamonde Carrasco%NULL%0, Paula%Runza Buznego%NULL%1, Eva%Talavera García%NULL%3, Eva%Talavera García%NULL%0, Eva%Talavera García%NULL%0, Marta%Lamata Subero%NULL%1, Ainhoa%Urrutia Losada%NULL%3, Ainhoa%Urrutia Losada%NULL%0, Ainhoa%Urrutia Losada%NULL%0, Lorea%Arteche Eguizabal%NULL%1, Elisabet%Delgado Sánchez%NULL%3, Elisabet%Delgado Sánchez%NULL%0, Elisabet%Delgado Sánchez%NULL%0, Virginia%Molina Peinado%NULL%1, Sarah%Caro Bragado%NULL%3, Sarah%Caro Bragado%NULL%0, Sarah%Caro Bragado%NULL%0, Gema%Domínguez de Pablos%NULL%1, Carolina%Roldán Fontana%NULL%3, Carolina%Roldán Fontana%NULL%0, Carolina%Roldán Fontana%NULL%0, Carmen%Herrero Rodríguez%NULL%1, Luis%Force Sanmartín%NULL%3, Luis%Force Sanmartín%NULL%0, Luis%Force Sanmartín%NULL%0, Raquel%Aranega%NULL%1, Arantzazu%Mera Fidalgo%NULL%3, Arantzazu%Mera Fidalgo%NULL%0, Arantzazu%Mera Fidalgo%NULL%0, María Roca%Toda Savall%NULL%1, Nicolas%Merchante Gutiérrez%NULL%3, Nicolas%Merchante Gutiérrez%NULL%0, Nicolas%Merchante Gutiérrez%NULL%0, Eva María%León Jiménez%NULL%1, José Luís%Del Pozo%NULL%3, José Luís%Del Pozo%NULL%0, José Luís%Del Pozo%NULL%0, Josefa%Serralta Buades%NULL%3, Josefa%Serralta Buades%NULL%0, Josefa%Serralta Buades%NULL%0, Ginger Giorgiana%Cabrera Tejada%NULL%1, Mario%Fernández-Ruiz%NULL%3, Mario%Fernández-Ruiz%NULL%0, Mario%Fernández-Ruiz%NULL%0, José María%Aguado%NULL%1, Guillermo%Maestro de la Calle%NULL%1, José Miguel%Cisneros%NULL%3, José Miguel%Cisneros%NULL%0, José Miguel%Cisneros%NULL%0, Jerónimo%Pachón%NULL%0, Manuela%Aguilar-Guisado%NULL%1, Teresa%Aldabó%NULL%1, María Dolores%Avilés%NULL%1, Claudio%Bueno%NULL%1, Elisa%Cordero-Matía%NULL%1, Ana%Escoresca%NULL%1, Lydia%Gálvez-Benítez%NULL%1, Carmen%Infante%NULL%1, Guillermo%Martín%NULL%1, Julia%Praena%NULL%1, Cristina%Roca%NULL%1, Celia%Salamanca%NULL%1, Alejandro%Suárez-Benjumea%NULL%1, Pilar%Vizcarra%NULL%3, Pilar%Vizcarra%NULL%0, Pilar%Vizcarra%NULL%0, Carmen%Quereda%NULL%1, Mario José%Rodriguez Dominguez%NULL%1, Francesca%Gioia%NULL%1, Francesca%Norman%NULL%1, Santos%Del Campo%NULL%1, Rafael%Cantón Moreno%NULL%1, Antonio%Oteo Revuelta José%NULL%3, Antonio%Oteo Revuelta José%NULL%0, Antonio%Oteo Revuelta José%NULL%0, Paula%Santibáñez Sáenz%NULL%1, Cristina%Cervera Acedo%NULL%1, Carlos%Ruiz Martínez%NULL%1, José R.%Blanco Ramos%NULL%1, José M.%Azcona Gutiérrez%NULL%1, Concepción%García García%NULL%1, Jorge%Alba Fernández%NULL%1, Valvanera%Ibarra Cucalón%NULL%1, Mercedes%San Franco%NULL%1, Luis%Metola Sacristán%NULL%1, Héctor%Meijide Míguez%NULL%3, Héctor%Meijide Míguez%NULL%0, Héctor%Meijide Míguez%NULL%0, Silvia%Paulos Viñas%NULL%1, Justo%Menéndez%NULL%3, Justo%Menéndez%NULL%0, Justo%Menéndez%NULL%0, Paula%Villares Fernández%NULL%1, Lara%Montes Andújar%NULL%1, Álvaro%Navarro Batet%NULL%3, Álvaro%Navarro Batet%NULL%0, Álvaro%Navarro Batet%NULL%0, Anna%Ferrer Santolaria%NULL%1, María de la Luz%Padilla Salazar%NULL%3, María de la Luz%Padilla Salazar%NULL%0, María de la Luz%Padilla Salazar%NULL%0, Lucy%Abella Vázquez%NULL%1, Marcelino%Hayek Peraza%NULL%1, Antonio%García Pardo%NULL%1, Carolina%Hernández Carballo%NULL%1, Andrés Javier%Ruiz Fernández%NULL%3, Andrés Javier%Ruiz Fernández%NULL%0, Andrés Javier%Ruiz Fernández%NULL%0, Isabel%Barrio López%NULL%1, Alí%Martakoush%NULL%3, Alí%Martakoush%NULL%0, Alí%Martakoush%NULL%0, Agustín%Rojas-Vieyra%NULL%3, Agustín%Rojas-Vieyra%NULL%0, Agustín%Rojas-Vieyra%NULL%0, Sonia%García Calvo%NULL%3, Sonia%García Calvo%NULL%0, Sonia%García Calvo%NULL%0, Mercedes%Villarreal García-Lomas%NULL%1, Marta%Vizcaíno Callejón%NULL%3, Marta%Vizcaíno Callejón%NULL%0, Marta%Vizcaíno Callejón%NULL%0, María Pilar%García García%NULL%1, Ana%Lérida Urteaga%NULL%3, Ana%Lérida Urteaga%NULL%0, Ana%Lérida Urteaga%NULL%0, Natalia%Carrasco Fons%NULL%1, Beatriz%María Sanjuan%NULL%1, Lydia%Martín González%NULL%1, Camilo%Sanz Zamudio%NULL%1, Inmaculada%Jarrín%NULL%0, Inmaculada%Jarrín%NULL%0, Inmaculada%Jarrín%NULL%0, Belén%Alejos%NULL%1, Cristina%Moreno%NULL%1, Marta%Rava%NULL%1, Carlos%Iniesta%NULL%1, Rebeca%Izquierdo%NULL%1, Inés%Suárez-García%NULL%1, Asunción%Díaz%NULL%1, Marta%Ruiz-Alguero%NULL%1, Victoria%Hernando%NULL%1]</t>
   </si>
   <si>
     <t>PMC7399713</t>
@@ -361,9 +356,6 @@
 During the early days of the COVID-19 epidemic in Washington State, the disease had its greatest impact on elderly patients with medical comorbidities.
  We observed high rates of severe disease and mortality in our hospitalized patients.
 </t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0, Denise J%McCulloch%NULL%2, Denise J%McCulloch%NULL%0, Vidya%Atluri%NULL%1, Michela%Blain%NULL%1, Sarah A%McGuffin%NULL%1, Arun K%Nalla%NULL%1, Meei-Li%Huang%NULL%1, Alex L%Greninger%NULL%1, Keith R%Jerome%NULL%1, Seth A%Cohen%NULL%1, Santiago%Neme%NULL%1, Margaret L%Green%NULL%1, Helen Y%Chu%NULL%1, H Nina%Kim%NULL%1]</t>
   </si>
   <si>
     <t>PMC7314181</t>
@@ -401,9 +393,6 @@
  Our data support those described by others that COVID-19 infection results from human-to-human transmission, including familial clustering of cases, and nosocomial transmission.
  There were no differences in mortality among those who did or did not receive antimicrobial or glucocorticoid drug treatment.
 </t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0, Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1, Wenlin%Cheng%NULL%1, Lei%Yu%NULL%1, Ya-Kun%Liu%NULL%1, Xiaoyong%Hu%NULL%1, Qiang%Liu%NULL%1]</t>
   </si>
   <si>
     <t>PMC7184479</t>
@@ -441,9 +430,6 @@
 </t>
   </si>
   <si>
-    <t>[Salvatore%Caratozzolo%NULL%1, Alberto%Zucchelli%NULL%1, Marinella%Turla%NULL%1, Maria Sofia%Cotelli%NULL%1, Sara%Fascendini%NULL%1, Mara%Zanni%NULL%1, Angelo%Bianchetti%NULL%0, Matteo Peli%Psy%NULL%1, Renzo%Rozzini%NULL%1, Stefano%Boffelli%NULL%1, Melania%Cappuccio%NULL%1, Federica Gottardi%Psy%NULL%1, Chiara Vecchi%Psy%NULL%1, Daniele%Bellandi%NULL%1, Claudia%Caminati%NULL%1, Simona%Gentile%NULL%1, Elena Lucchi%Psy%NULL%1, Ignazio%Di Fazio%NULL%1, Marina Zanetti%Psy%NULL%1, Giuliana%Vezzadini%NULL%1, Chiara Forlani%Psy%NULL%1, Maura Cosseddu%Psy%NULL%1, Rosanna Turrone%Psy%NULL%1, Silvia Pelizzari%Psy%NULL%1, Andrea%Scalvini%NULL%1, Marco%Di Cesare%NULL%1, Marta Grigolo%Psy%NULL%1, Lina%Falanga%NULL%1, Nives%Medici%NULL%1, Nives%Palamini%NULL%1, Elisa Zanacchi%Psy%NULL%1, Eleonora Grossi%Psy%NULL%1, Giuseppe%Bellelli%NULL%1, Alessandra%Marengoni%NULL%1, Marco%Trabucchi%NULL%1, Alessandro%Padovani%alessandro.padovani@unibs.it%1, NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7486591</t>
   </si>
   <si>
@@ -454,9 +440,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Nancy%Chow%NULL%1, Katherine%Fleming-Dutra%NULL%1, Ryan%Gierke%NULL%1, Aron%Hall%NULL%1, Michelle%Hughes%NULL%1, Tamara%Pilishvili%NULL%1, Matthew%Ritchey%NULL%1, Katherine%Roguski%NULL%1, Tami%Skoff%NULL%1, Emily%Ussery%NULL%1]</t>
   </si>
   <si>
     <t>PMC7119513</t>
@@ -489,9 +472,6 @@
 id="Par4"&gt;Older patients or patients with comorbidities such as obesity or diabetes mellitus were more likely to have severe condition.
  Treatments of COVID-19 is still experimental and more clinical trials are needed.
 </t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%1, Zhencang%Zheng%NULL%1, Chao%Zhang%NULL%1, Xijiang%Zhang%NULL%1, Huijuan%Wu%NULL%1, Jingdong%Wang%NULL%1, Shuwei%Wang%NULL%1, Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
   </si>
   <si>
     <t>PMC7186187</t>
@@ -548,9 +528,6 @@
 </t>
   </si>
   <si>
-    <t>[Yan%Deng%NULL%0, Wei%Liu%NULL%0, Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%1, Jin%Shang%NULL%1, Ling%Zhou%NULL%2, Ke%Wang%NULL%0, Fan%Leng%NULL%1, Shuang%Wei%NULL%2, Lei%Chen%NULL%1, Hui-Guo%Liu%NULL%2, Pei-Fang%Wei%NULL%4, Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7289311</t>
   </si>
   <si>
@@ -563,9 +540,6 @@
 </t>
   </si>
   <si>
-    <t>[Nathalie%Nicolay%NULL%1, Francesco%Innocenti%NULL%1, Julien%Beauté%NULL%1, Veronika%Učakar%NULL%1, Marta%Grgič Vitek%NULL%1, Eero%Poukka%NULL%1, Tuula%Hannila-Handelberg%NULL%1, Charmaine%Gauci%NULL%1, Tanya%Melillo%NULL%1, Theano%Georgakopoulou%NULL%1, Jiri%Jarkovsky%NULL%1, Pavel%Slezak%NULL%1, Concepción%Delgado-Sanz%NULL%1, Carmen%Olmedo-Lucerón%NULL%1, Heleene%Suija%NULL%1, Rasa%Liausediene%NULL%1, Piaras%O’Lorcain%NULL%1, Niamh%Murphy%NULL%1, André%Peralta-Santos%NULL%1, Pedro%Casaca%NULL%1, Ioanna%Gregoriou%NULL%1, Nick%Bundle%NULL%1, Gianfranco%Spiteri%NULL%0, Giovanni%Ravasi%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC8641072</t>
   </si>
   <si>
@@ -580,9 +554,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiaobo%Feng%NULL%1, Peiyun%Li%NULL%1, Liang%Ma%NULL%1, Hang%Liang%NULL%1, Jie%Lei%NULL%1, Wenqiang%Li%NULL%1, Kun%Wang%NULL%0, Yu%Song%NULL%1, Shuai%Li%NULL%1, Wei%Yang%NULL%1, Cao%Yang%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7424035</t>
   </si>
   <si>
@@ -594,9 +565,6 @@
   <si>
     <t xml:space="preserve">Rationale: The coronavirus disease (COVID-19) pandemic is now a global health concern.
 </t>
-  </si>
-  <si>
-    <t>[Yun%Feng%NULL%0, Yun%Ling%NULL%2, Yun%Ling%NULL%0, Tao%Bai%NULL%2, Tao%Bai%NULL%0, Yusang%Xie%NULL%1, Jie%Huang%NULL%2, Jie%Huang%NULL%0, Jian%Li%NULL%1, Weining%Xiong%NULL%1, Dexiang%Yang%NULL%1, Rong%Chen%NULL%0, Fangying%Lu%NULL%1, Yunfei%Lu%NULL%1, Xuhui%Liu%NULL%1, Yuqing%Chen%NULL%2, Yuqing%Chen%NULL%0, Xin%Li%NULL%1, Yong%Li%NULL%1, Hanssa Dwarka%Summah%NULL%1, Huihuang%Lin%NULL%1, Jiayang%Yan%NULL%1, Min%Zhou%NULL%2, Hongzhou%Lu%NULL%2, Hongzhou%Lu%NULL%0, Jieming%Qu%NULL%2, Jieming%Qu%NULL%0]</t>
   </si>
   <si>
     <t>PMC7258639</t>
@@ -624,9 +592,6 @@
 </t>
   </si>
   <si>
-    <t>[Paolo%Giorgi Rossi%NULL%0, Massimiliano%Marino%NULL%1, Debora%Formisano%NULL%1, Francesco%Venturelli%NULL%1, Massimo%Vicentini%NULL%2, Massimo%Vicentini%NULL%0, Roberto%Grilli%NULL%1, NULL%NULL%NULL%0, Gianluigi%Forloni%NULL%8, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0, Gianluigi%Forloni%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7451640</t>
   </si>
   <si>
@@ -634,9 +599,6 @@
   </si>
   <si>
     <t>Clinical Characteristics of Covid-19 in New York City</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0, Justin J.%Choi%NULL%1, Laura C.%Pinheiro%NULL%1, Edward J.%Schenck%NULL%1, Ruijun%Chen%NULL%0, Assem%Jabri%NULL%1, Michael J.%Satlin%NULL%1, Thomas R.%Campion%NULL%1, Musarrat%Nahid%NULL%1, Joanna B.%Ringel%NULL%1, Katherine L.%Hoffman%NULL%1, Mark N.%Alshak%NULL%1, Han A.%Li%NULL%1, Graham T.%Wehmeyer%NULL%2, Graham T.%Wehmeyer%NULL%0, Mangala%Rajan%NULL%1, Evgeniya%Reshetnyak%NULL%1, Nathaniel%Hupert%NULL%1, Evelyn M.%Horn%NULL%1, Fernando J.%Martinez%NULL%1, Roy M.%Gulick%NULL%1, Monika M.%Safford%NULL%2, Monika M.%Safford%NULL%0]</t>
   </si>
   <si>
     <t>PMC7182018</t>
@@ -663,9 +625,6 @@
  (Funded by Gilead Sciences.
 )
 </t>
-  </si>
-  <si>
-    <t>[Jonathan%Grein%NULL%1, Norio%Ohmagari%NULL%1, Daniel%Shin%NULL%1, George%Diaz%NULL%1, Erika%Asperges%NULL%1, Antonella%Castagna%NULL%1, Torsten%Feldt%NULL%1, Gary%Green%NULL%1, Margaret L.%Green%NULL%1, François-Xavier%Lescure%NULL%1, Emanuele%Nicastri%NULL%1, Rentaro%Oda%NULL%2, Rentaro%Oda%NULL%0, Kikuo%Yo%NULL%2, Kikuo%Yo%NULL%0, Eugenia%Quiros-Roldan%NULL%1, Alex%Studemeister%NULL%1, John%Redinski%NULL%1, Seema%Ahmed%NULL%1, Jorge%Bernett%NULL%1, Daniel%Chelliah%NULL%1, Danny%Chen%NULL%1, Shingo%Chihara%NULL%1, Stuart H.%Cohen%NULL%1, Jennifer%Cunningham%NULL%1, Antonella%D’Arminio Monforte%NULL%1, Saad%Ismail%NULL%1, Hideaki%Kato%NULL%1, Giuseppe%Lapadula%NULL%1, Erwan%L’Her%NULL%1, Toshitaka%Maeno%NULL%1, Sumit%Majumder%NULL%1, Marco%Massari%NULL%1, Marta%Mora-Rillo%NULL%1, Yoshikazu%Mutoh%NULL%1, Duc%Nguyen%NULL%1, Ewa%Verweij%NULL%1, Alexander%Zoufaly%NULL%1, Anu O.%Osinusi%NULL%1, Adam%DeZure%NULL%1, Yang%Zhao%NULL%1, Lijie%Zhong%NULL%1, Anand%Chokkalingam%NULL%1, Emon%Elboudwarej%NULL%1, Laura%Telep%NULL%1, Leighann%Timbs%NULL%1, Ilana%Henne%NULL%1, Scott%Sellers%NULL%1, Huyen%Cao%NULL%1, Susanna K.%Tan%NULL%1, Lucinda%Winterbourne%NULL%1, Polly%Desai%NULL%1, Robertino%Mera%NULL%1, Anuj%Gaggar%NULL%1, Robert P.%Myers%NULL%1, Diana M.%Brainard%NULL%1, Richard%Childs%NULL%1, Timothy%Flanigan%NULL%1]</t>
   </si>
   <si>
     <t>PMC7169476</t>
@@ -697,9 +656,6 @@
 </t>
   </si>
   <si>
-    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%2, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%1, Wen-hua%Liang%NULL%1, Chun-quan%Ou%NULL%1, Jian-xing%He%NULL%1, Lei%Liu%NULL%1, Hong%Shan%NULL%1, Chun-liang%Lei%NULL%1, David S.C.%Hui%NULL%1, Bin%Du%NULL%1, Lan-juan%Li%NULL%1, Guang%Zeng%NULL%1, Kwok-Yung%Yuen%NULL%1, Ru-chong%Chen%NULL%1, Chun-li%Tang%NULL%1, Tao%Wang%NULL%1, Ping-yan%Chen%NULL%1, Jie%Xiang%NULL%2, Shi-yue%Li%NULL%1, Jin-lin%Wang%NULL%1, Zi-jing%Liang%NULL%1, Yi-xiang%Peng%NULL%1, Li%Wei%NULL%1, Yong%Liu%NULL%1, Ya-hua%Hu%NULL%1, Peng%Peng%NULL%1, Jian-ming%Wang%NULL%2, Ji-yang%Liu%NULL%1, Zhong%Chen%NULL%1, Gang%Li%NULL%1, Zhi-jian%Zheng%NULL%1, Shao-qin%Qiu%NULL%1, Jie%Luo%NULL%1, Chang-jiang%Ye%NULL%1, Shao-yong%Zhu%NULL%1, Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7092819</t>
   </si>
   <si>
@@ -723,9 +679,6 @@
 </t>
   </si>
   <si>
-    <t>[Rahmet%GÜNER%NULL%1, İmran%HASANOĞLU%NULL%2, İmran%HASANOĞLU%NULL%0, Bircan%KAYAASLAN%NULL%2, Bircan%KAYAASLAN%NULL%0, Adalet%AYPAK%NULL%2, Adalet%AYPAK%NULL%0, Ayşe%KAYA KALEM%NULL%2, Ayşe%KAYA KALEM%NULL%0, Fatma%ESER%NULL%2, Fatma%ESER%NULL%0, Burcu%ÖZDEMİR%NULL%2, Burcu%ÖZDEMİR%NULL%0, Elif Mükime%SARICAOĞLU%NULL%2, Elif Mükime%SARICAOĞLU%NULL%0, Müge%AYHAN%NULL%2, Müge%AYHAN%NULL%0, Yeşim%AYBAR BİLİR%NULL%2, Yeşim%AYBAR BİLİR%NULL%0, Işıl%ÖZKOÇAK TURAN%NULL%2, Işıl%ÖZKOÇAK TURAN%NULL%0, Deniz%ERDEM%NULL%2, Deniz%ERDEM%NULL%0, Nevzat Mehmet%MUTLU%NULL%1, Turan%BUZGAN%NULL%2, Turan%BUZGAN%NULL%0, Bedia%DİNÇ%NULL%2, Bedia%DİNÇ%NULL%0, Esragül%AKINCI%NULL%2, Esragül%AKINCI%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7775688</t>
   </si>
   <si>
@@ -752,9 +705,6 @@
 </t>
   </si>
   <si>
-    <t>[Stephanie L.%Harrison%NULL%1, Elnara%Fazio-Eynullayeva%NULL%2, Elnara%Fazio-Eynullayeva%NULL%0, Deirdre A.%Lane%NULL%2, Deirdre A.%Lane%NULL%0, Paula%Underhill%NULL%2, Paula%Underhill%NULL%0, Gregory Y. H.%Lip%NULL%1, Mirjam E. E.%Kretzschmar%NULL%3, Mirjam E. E.%Kretzschmar%NULL%0, Mirjam E. E.%Kretzschmar%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7482833</t>
   </si>
   <si>
@@ -778,9 +728,6 @@
 Conclusions
 COPD increases the risks of death and negative outcomes in patients with severe COVID-19.
 </t>
-  </si>
-  <si>
-    <t>[Yuanzhou%He%NULL%1, Min%Xie%NULL%2, Jianping%Zhao%NULL%3, Xiansheng%Liu%NULL%2]</t>
   </si>
   <si>
     <t>PMC7491229</t>
@@ -809,9 +756,6 @@
 Hypnotics may be an effective ancillary treatment for COVID-19. We also found novel risk factors, such as higher hypersensitive troponin I, predicted poor clinical outcomes.
  Overall, our study provides useful data to guide early clinical decision making to reduce mortality and improve clinical outcomes of COVID-19.
 </t>
-  </si>
-  <si>
-    <t>[Ling%Hu%NULL%0, Shaoqiu%Chen%NULL%1, Yuanyuan%Fu%NULL%1, Zitong%Gao%NULL%1, Hui%Long%NULL%0, Jian-ming%Wang%NULL%0, Hong-wei%Ren%NULL%1, Yi%Zuo%NULL%1, Huan%Li%NULL%1, Jie%Wang%NULL%1, Qing-bang%Xu%NULL%1, Wen-xiong%Yu%NULL%1, Jia%Liu%NULL%1, Chen%Shao%NULL%1, Jun-jie%Hao%NULL%1, Chuan-zhen%Wang%NULL%1, Yao%Ma%NULL%1, Zhanwei%Wang%NULL%1, Richard%Yanagihara%NULL%1, Youping%Deng%dengy@hawaii.edu%1]</t>
   </si>
   <si>
     <t>PMC7197620</t>
@@ -850,9 +794,6 @@
 </t>
   </si>
   <si>
-    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%2, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%2, Li%Zhang%NULL%1, Guohui%Fan%NULL%2, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%2, Zhenshun%Cheng%NULL%2, Ting%Yu%NULL%3, Jiaan%Xia%NULL%1, Yuan%Wei%NULL%2, Wenjuan%Wu%NULL%1, Xuelei%Xie%NULL%1, Wen%Yin%NULL%1, Hui%Li%NULL%2, Min%Liu%NULL%0, Yan%Xiao%NULL%1, Hong%Gao%NULL%1, Li%Guo%NULL%1, Jungang%Xie%NULL%2, Guangfa%Wang%NULL%1, Rongmeng%Jiang%NULL%1, Zhancheng%Gao%NULL%1, Qi%Jin%NULL%1, Jianwei%Wang%wangjw28@163.com%1, Bin%Cao%caobin_ben@163.com%2]</t>
-  </si>
-  <si>
     <t>PMC7159299</t>
   </si>
   <si>
@@ -862,9 +803,6 @@
     <t xml:space="preserve">We analysed the first 84 coronavirus disease (COVID-19) patients hospitalised in an infectious and tropical disease unit in Florence, Italy, over 30 days after the start of the COVID-19 outbreak in Italy.
  A 12% reduction in the rate of intensive care unit transfer was observed after the implementation of intensity care measures in the regular ward such as increasing the nurse/patient ratio, presence of critical care physicians and using high flow nasal cannulae oxygenation.
 </t>
-  </si>
-  <si>
-    <t>[Filippo%Lagi%NULL%1, Matteo%Piccica%NULL%1, Lucia%Graziani%NULL%1, Iacopo%Vellere%NULL%1, Annarita%Botta%NULL%1, Marta%Tilli%NULL%1, Letizia%Ottino%NULL%1, Beatrice%Borchi%NULL%1, Marco%Pozzi%NULL%1, Filippo%Bartalesi%NULL%1, Jessica%Mencarini%NULL%1, Michele%Spinicci%NULL%1, Lorenzo%Zammarchi%NULL%1, Filippo%Pieralli%NULL%1, Giovanni%Zagli%NULL%1, Carlo%Nozzoli%NULL%1, Stefano%Romagnoli%NULL%1, Alessandro%Bartoloni%NULL%1, NULL%NULL%NULL%0]</t>
   </si>
   <si>
     <t>PMC7201949</t>
@@ -911,9 +849,6 @@
 </t>
   </si>
   <si>
-    <t>[Wei%Liu%NULL%0, Zhao-Wu%Tao%NULL%1, Lei%Wang%NULL%0, Ming-Li%Yuan%NULL%1, Kui%Liu%NULL%0, Ling%Zhou%NULL%0, Shuang%Wei%NULL%0, Yan%Deng%NULL%0, Jing%Liu%NULL%0, Hui-Guo%Liu%NULL%0, Ming%Yang%NULL%1, Yi%Hu%NULL%0, Pei-Fang%Wei%NULL%0, Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7147279</t>
   </si>
   <si>
@@ -939,9 +874,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiaochen%Li%NULL%0, Shuyun%Xu%NULL%1, Muqing%Yu%NULL%1, Ke%Wang%NULL%0, Yu%Tao%NULL%1, Ying%Zhou%NULL%1, Jing%Shi%NULL%1, Min%Zhou%NULL%0, Bo%Wu%NULL%1, Zhenyu%Yang%NULL%1, Cong%Zhang%NULL%1, Junqing%Yue%NULL%1, Zhiguo%Zhang%NULL%1, Harald%Renz%NULL%1, Xiansheng%Liu%NULL%0, Jungang%Xie%NULL%0, Min%Xie%NULL%0, Jianping%Zhao%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7152876</t>
   </si>
   <si>
@@ -964,9 +896,6 @@
  It was concluded that Covid-19 is associated with poor prognosis for patients undergoing thoracic operation, especially for those with COPD.
  Implementation of comprehensive protective measures is important to control nosocomial infection.
 </t>
-  </si>
-  <si>
-    <t>[Yang-kai%Li%doclyk@163.com%1, Shu%Peng%NULL%1, Le-qun%Li%NULL%1, Qi%Wang%NULL%1, Wei%Ping%NULL%1, Ni%Zhang%NULL%1, Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
   </si>
   <si>
     <t>PMC7104422</t>
@@ -989,9 +918,6 @@
 Nearly 50% COVID-19 patients could not reach obvious clinical and radiological remission within 10 days after hospitalization.
  The patients with male sex, anorexia and no fever on admission predicted poor efficacy.
 </t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0, Yuanyuan%Xing%NULL%0, Yu%Xiao%NULL%1, Liping%Deng%NULL%1, Qiu%Zhao%NULL%1, Hongling%Wang%NULL%1, Yong%Xiong%NULL%1, Zhenshun%Cheng%NULL%0, Shicheng%Gao%NULL%1, Ke%Liang%NULL%1, Mingqi%Luo%NULL%1, Tielong%Chen%NULL%1, Shihui%Song%NULL%1, Zhiyong%Ma%NULL%1, Xiaoping%Chen%NULL%1, Ruiying%Zheng%NULL%1, Qian%Cao%NULL%1, Fan%Wang%fanndywang@foxmail.com%1, Yongxi%Zhang%znact1936@126.com%1]</t>
   </si>
   <si>
     <t>PMC7184444</t>
@@ -1016,9 +942,6 @@
 A more vulnerable positive patient is depicted by a male patient, older than 41 years, which increases their risk with more prevalent comorbidities such as diabetes, hypertension, and obesity.
  Some implications on outcomes are discussed.
 </t>
-  </si>
-  <si>
-    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1, Nicolas%Lopez-Villalobos%NULL%1, Francisco E.%Parra-Bracamonte%NULL%1]</t>
   </si>
   <si>
     <t>PMC7426229</t>
@@ -1054,9 +977,6 @@
 </t>
   </si>
   <si>
-    <t>[Ishan%Paranjpe%NULL%1, Adam J%Russak%NULL%2, Adam J%Russak%NULL%0, Jessica K%De Freitas%NULL%1, Anuradha%Lala%NULL%1, Riccardo%Miotto%NULL%1, Akhil%Vaid%NULL%1, Kipp W%Johnson%NULL%1, Matteo%Danieletto%NULL%1, Eddye%Golden%NULL%1, Dara%Meyer%NULL%1, Manbir%Singh%NULL%1, Sulaiman%Somani%NULL%1, Arjun%Kapoor%NULL%1, Ross%O'Hagan%NULL%1, Sayan%Manna%NULL%1, Udit%Nangia%NULL%1, Suraj K%Jaladanki%NULL%1, Paul%O’Reilly%NULL%2, Paul%O’Reilly%NULL%0, Laura M%Huckins%NULL%1, Patricia%Glowe%NULL%1, Arash%Kia%NULL%1, Prem%Timsina%NULL%1, Robert M%Freeman%NULL%1, Matthew A%Levin%NULL%1, Jeffrey%Jhang%NULL%1, Adolfo%Firpo%NULL%1, Patricia%Kovatch%NULL%1, Joseph%Finkelstein%NULL%1, Judith A%Aberg%NULL%1, Emilia%Bagiella%NULL%1, Carol R%Horowitz%NULL%1, Barbara%Murphy%NULL%1, Zahi A%Fayad%NULL%1, Jagat%Narula%NULL%1, Eric J%Nestler%NULL%1, V%Fuster%NULL%1, Carlos%Cordon-Cardo%NULL%1, Dennis%Charney%NULL%1, David L%Reich%NULL%1, Allan%Just%NULL%1, Erwin P%Bottinger%NULL%1, Alexander W%Charney%NULL%1, Benjamin S%Glicksberg%NULL%1, Girish N%Nadkarni%NULL%1, NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7702220</t>
   </si>
   <si>
@@ -1070,12 +990,6 @@
 MethodsIn this retrospective, descriptive, multiple-center study, total of 267 patients with COVID-19 confirmed by real-time RT-PCR in Chongqing from Jan 19 to Feb 16, 2020 were recruited. Epidemiological, demographic, clinical, radiological characteristics, laboratory examinations, and treatment regimens were collected on admission. Clinical outcomes were followed up until Feb 16, 2020.
 Results267 laboratory-confirmed COVID-19 patients admitted to 3 designated-hospitals in Chongqing provincial municipality from January 19 to February 16, 2020 were enrolled and categorized on admission. 217 (81.27%) and 50 (18.73%) patients were categorized into non-severe and severe subgroups, respectively. The median age of patients was 48.0 years (IQR, 35.0-65.0), with 129 (48.3%) of the patients were more than 50 years of age. 149 (55.8%) patients were men. Severe patients were significantly older (median age, 71.5 years [IQR, 65.8-77.0] vs 43.0 years [IQR, 32.5-57.0]) and more likely to be male (110 [50.7%] vs 39 [78.0%]) and have coexisting disorders (15 [30.0%] vs 26 [12.0%]). 41 (15.4%) patients had a recent travel to Hubei province, and 139 (52.1%) patients had a history of contact with patients from Hubei. On admission, the most common symptoms of COVID-19 were fever 225(84.3%), fatigue (208 [77.9%]), dry cough (189 [70.8%]), myalgia or arthralgia (136 [50.9%]). Severe patients were more likely to present dyspnea (17 [34.0%] vs 26 [12.0%]) and confusion (10 [20.0%] vs 15 [6.9%]). Rales (32 [12.0%]) and wheezes (20 [7.5%]) are not common noted for COVID-19 patients, especially for the non-severe (11 [5.1%], 10 [4.6%]). 118 (44.2%). Most severe patients demonstrated more laboratory abnormalities. 231 (86.5%), 61 (22.8%) patients had lymphopenia, leukopenia and thrombocytopenia, respectively. CD4+T cell counts decrease was observed in 77.1 % of cases, especially in the severe patients (45, 100%). 53.1% patients had decreased CD+3 T cell counts, count of CD8+T cells was lower than the normal range in part of patients (34.4%). More severe patients had lower level of CD4+ T cells and CD+3 T cells (45 [100.0%] vs 29[56.9%], 31 [68.9%] vs 20 [39.2%]). Most patients had normal level of IL-2, IL-4, TNF- and INF-{gamma}, while high level of IL-6 and IL-17A was common in COVID-19 patients (47 [70.1%], 35 [52.2%]). Level of IL-6, IL-17A and TNF- was remarkably elevated in severe patients (32 [84.2%] vs 15 [51.7%], 25 [65.8%] vs 10 [34.5%], 17 [44.7%] vs 5 [17.2%]). All patients received antiviral therapy (267, 100%). A portion of severe patients (38, 76.0%) received systemic corticosteroid therapy. Invasive mechanical ventilation in prone position, non-invasive mechanical ventilation, high-flow nasal cannula oxygen therapy was adopted only in severe patients with respiratory failure (5[10.0%], 35[70.0%], 12[24.0%]). Traditional Chinese medicine was adopted to most of severe patients (43,86.0%).
 ConclusionOur study firstly demonstrated the regional disparity of COVID-19 in Chongqing municipality and further thoroughly compared the differences between severe and non-severe patients. The 28-day mortality of COVID-19 patients from 3 designed hospitals of Chongqing is 1.5%, lower than that of Hubei province and mainland China including Hubei province. However, the 28-mortality of severe patients was relatively high, with much higher when complications occurred. Notably, the 28-mortality of critically severe patients complicated with severe ARDS is considerably as high as 44.4%. Therefore, early diagnosis and intensive care of critically severe COVID-19 cases, especially those combined with ARDS, will be considerably essential to reduce mortality. </t>
-  </si>
-  <si>
-    <t>[ D.%Qi%null%1,  X.% Yan%null%1,  X.% Tang%null%1,  J.% Peng%null%1,  Q.% Yu%null%1,  L.% Feng%null%1,  G.% Yuan%null%1,  A.% Zhang%null%1,  Y.% Chen%null%1,  J.% Yuan%null%1,  X.% Huang%null%1,  X.% Zhang%null%1,  P.% Hu%null%1,  Y.% Song%null%1,  C.% Qian%null%1,  Q.% Sun%null%1,  D.% Wang%null%1,  J.% Tong%null%1,  J. % Xiang%null%1]</t>
-  </si>
-  <si>
-    <t>medrxiv doi</t>
   </si>
   <si>
     <t>2020-03-03</t>
@@ -1107,9 +1021,6 @@
 </t>
   </si>
   <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0, Kevin Bryan%Lo%NULL%2, Kevin Bryan%Lo%NULL%0, Fahad%Gul%NULL%1, Eric%Peterson%NULL%1, Robert%De Joy%NULL%1, Ruchika%Bhargav%NULL%1, Jerald%Pelayo%NULL%1, Jeri%Albano%NULL%1, Zurab%Azmaiparashvili%NULL%1, Sadia%Benzaquen%NULL%1, Gabriel%Patarroyo‐Aponte%NULL%1, Janani%Rangaswami%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7361748</t>
   </si>
   <si>
@@ -1137,9 +1048,6 @@
 </t>
   </si>
   <si>
-    <t>[Shaobo%Shi%NULL%0, Mu%Qin%qinmuae@163.com%1, Yuli%Cai%NULL%1, Tao%Liu%NULL%1, Bo%Shen%NULL%1, Fan%Yang%NULL%1, Sheng%Cao%NULL%1, Xu%Liu%NULL%2, Xu%Liu%NULL%0, Yaozu%Xiang%NULL%1, Qinyan%Zhao%NULL%1, He%Huang%huanghe1977@whu.edu.cn%1, Bo%Yang%yybb112@whu.edu.cn%1, Congxin%Huang%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7239100</t>
   </si>
   <si>
@@ -1147,9 +1055,6 @@
   </si>
   <si>
     <t>Clinical features of 95 sequential hospitalised patients with novel coronavirus 2019 disease (COVID-19), the first UK cohort</t>
-  </si>
-  <si>
-    <t>[Jennifer%Tomlins%NULL%1, Fergus%Hamilton%NULL%1, Samuel%Gunning%NULL%1, Caitlin%Sheehy%NULL%1, Ed%Moran%NULL%1, Alastair%MacGowan%NULL%1]</t>
   </si>
   <si>
     <t>PMC7184992</t>
@@ -1179,9 +1084,6 @@
  Further studies are required to explore the role of Kaletra and TCM in the treatment of COVID‐19.</t>
   </si>
   <si>
-    <t>[Suxin%Wan%NULL%0, Yi%Xiang%NULL%1, Wei%Fang%NULL%1, Yu%Zheng%yuzheng1@cdutcm.edu.cn%1, Boqun%Li%279685211@qq.com%2, Boqun%Li%279685211@qq.com%0, Yanjun%Hu%huyanjun@163.com%1, Chunhui%Lang%NULL%1, Daoqiu%Huang%NULL%1, Qiuyan%Sun%NULL%1, Yan%Xiong%NULL%1, Xia%Huang%NULL%1, Jinglong%Lv%NULL%1, Yaling%Luo%NULL%1, Li%Shen%NULL%1, Haoran%Yang%NULL%1, Gu%Huang%NULL%1, Ruishan%Yang%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7228368</t>
   </si>
   <si>
@@ -1195,9 +1097,6 @@
               •
               COVID-19 in the elderly patients was severe and highly fatal.
 </t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%1, Wenbo%He%NULL%1, Xiaomei%Yu%NULL%1, Dalong%Hu%NULL%1, Mingwei%Bao%NULL%1, Huafen%Liu%NULL%1, Jiali%Zhou%NULL%1, Hong%Jiang%NULL%1]</t>
   </si>
   <si>
     <t>PMC7118526</t>
@@ -1229,9 +1128,6 @@
 </t>
   </si>
   <si>
-    <t>[Zhongliang%Wang%NULL%0, Bohan%Yang%NULL%1, Qianwen%Li%NULL%1, Lu%Wen%NULL%1, Ruiguang%Zhang%zrg27@163.com%1]</t>
-  </si>
-  <si>
     <t>PMC7184452</t>
   </si>
   <si>
@@ -1256,9 +1152,6 @@
 </t>
   </si>
   <si>
-    <t>[Xisheng%Yan%NULL%0, Fen%Li%NULL%1, Xiao%Wang%NULL%1, Jie%Yan%NULL%0, Fen%Zhu%NULL%1, Shifan%Tang%NULL%1, Yingzhong%Deng%NULL%1, Hua%Wang%NULL%1, Rui%Chen%NULL%1, Zhili%Yu%NULL%1, Yaping%Li%NULL%1, Jingzhou%Shang%NULL%1, Lingjun%Zeng%NULL%1, Jie%Zhao%NULL%1, Chaokun%Guan%NULL%1, Qiaomei%Liu%NULL%1, Haifeng%Chen%NULL%1, Wei%Gong%NULL%1, Xin%Huang%NULL%1, Yu‐Jiao%Zhang%NULL%1, Jianguang%Liu%NULL%1, Xiaoyan%Dong%NULL%1, Wen%Zheng%zhengwen12@mails.jlu.edu.cn%1, Shaoping%Nie%spnie@126.com%1, Dongsheng%Li%dongshengli196809@163.com%1]</t>
-  </si>
-  <si>
     <t>PMC7283791</t>
   </si>
   <si>
@@ -1275,9 +1168,6 @@
 S.
  syndicated corporate loan market.
 </t>
-  </si>
-  <si>
-    <t>[Ping%Yang%NULL%1, Pengfei%Wang%NULL%2, Pengfei%Wang%NULL%0, Yuyan%Song%NULL%1, An%Zhang%zhangan@hospital.cqmu.edu.cn%1, Guodan%Yuan%71502294@qq.com%1, Yong%Cui%754605155@qq.com%1]</t>
   </si>
   <si>
     <t>PMC7272979</t>
@@ -1315,9 +1205,6 @@
 </t>
   </si>
   <si>
-    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%1, Jia'an%Xia%NULL%1, Hong%Liu%NULL%1, Yongran%Wu%NULL%1, Lu%Zhang%NULL%1, Zhui%Yu%NULL%1, Minghao%Fang%NULL%1, Ting%Yu%NULL%0, Yaxin%Wang%NULL%1, Shangwen%Pan%NULL%1, Xiaojing%Zou%NULL%1, Shiying%Yuan%NULL%1, You%Shang%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7102538</t>
   </si>
   <si>
@@ -1342,9 +1229,6 @@
 </t>
   </si>
   <si>
-    <t>[Guqin%Zhang%NULL%1, Chang%Hu%NULL%1, Linjie%Luo%NULL%1, Fang%Fang%NULL%1, Yongfeng%Chen%NULL%1, Jianguo%Li%NULL%1, Zhiyong%Peng%NULL%1, Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
-  </si>
-  <si>
     <t>PMC7194884</t>
   </si>
   <si>
@@ -1358,9 +1242,6 @@
               •
               Male gender and comorbidity were the independent risk factors for death in COVID-19 patients.
 </t>
-  </si>
-  <si>
-    <t>[Jun%Zhang%NULL%1, Miao%Yu%NULL%1, Song%Tong%NULL%1, Lu-Yu%Liu%NULL%1, Liang-V.%Tang%lancet.tang@qq.com%1]</t>
   </si>
   <si>
     <t>PMC7187844</t>
@@ -1393,9 +1274,6 @@
 </t>
   </si>
   <si>
-    <t>[Rui%Zhang%NULL%1, Huangqing%Ouyang%NULL%1, Lingli%Fu%NULL%1, Shijie%Wang%NULL%1, Jianglong%Han%NULL%1, Kejie%Huang%NULL%1, Mingfang%Jia%NULL%1, Qibin%Song%NULL%1, Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
     <t>PMC7150608</t>
   </si>
   <si>
@@ -1418,9 +1296,6 @@
  The risk score model yielded good accuracy with an AUC of 0.74 ([95% CI, 0.63–0.85], p = 0.001) for predicting ICU admission and 0.83 ([95% CI, 0.73–0.92], p&amp;lt;0.001) for predicting mortality for the testing dataset.
  This study identified key independent clinical variables that predicted ICU admission and mortality associated with COVID-19. This risk score system may prove useful for frontline physicians in clinical decision-making under time-sensitive and resource-constrained environment.
 </t>
-  </si>
-  <si>
-    <t>[Zirun%Zhao%NULL%0, Anne%Chen%NULL%1, Wei%Hou%NULL%1, James M.%Graham%NULL%1, Haifang%Li%NULL%1, Paul S.%Richman%NULL%1, Henry C.%Thode%NULL%1, Adam J.%Singer%NULL%1, Tim Q.%Duong%NULL%1, Muhammad%Adrish%NULL%9, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0, Muhammad%Adrish%NULL%0]</t>
   </si>
   <si>
     <t>PMC7392248</t>
@@ -1452,61 +1327,7 @@
 </t>
   </si>
   <si>
-    <t>[Fei%Zhou%NULL%0, Ting%Yu%NULL%0, Ronghui%Du%NULL%1, Guohui%Fan%NULL%0, Ying%Liu%NULL%1, Zhibo%Liu%NULL%1, Jie%Xiang%NULL%0, Yeming%Wang%NULL%0, Bin%Song%NULL%1, Xiaoying%Gu%NULL%0, Lulu%Guan%NULL%1, Yuan%Wei%NULL%0, Hui%Li%NULL%0, Xudong%Wu%NULL%1, Jiuyang%Xu%NULL%0, Shengjin%Tu%NULL%1, Yi%Zhang%NULL%1, Hua%Chen%NULL%1, Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7270627</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%2,  Sarah%Al-Youha%sarahalyouha@gmail.com%2,  Mohammad H.%Jamal%NULL%2,  Mohannad%Al-Haddad%NULL%2,  Ali%Al-Muhaini%NULL%2,  Fahad%Al-Ghimlas%NULL%2,  Salman%Al-Sabah%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,  Samuel L%Bruce%NULL%0,  Cody L%Slater%NULL%0,  Jonathan R%Tiao%NULL%0,  Matthew R%Baldwin%NULL%0,  R Graham%Barr%NULL%0,  Bernard P%Chang%NULL%0,  Katherine H%Chau%NULL%0,  Justin J%Choi%NULL%0,  Nicholas%Gavin%NULL%0,  Parag%Goyal%NULL%0,  Angela M%Mills%NULL%0,  Ashmi A%Patel%NULL%0,  Marie-Laure S%Romney%NULL%0,  Monika M%Safford%NULL%0,  Neil W%Schluger%NULL%0,  Soumitra%Sengupta%NULL%0,  Magdalena E%Sobieszczyk%NULL%0,  Jason E%Zucker%NULL%0,  Paul A%Asadourian%NULL%0,  Fletcher M%Bell%NULL%0,  Rebekah%Boyd%NULL%0,  Matthew F%Cohen%NULL%0,  MacAlistair I%Colquhoun%NULL%0,  Lucy A%Colville%NULL%0,  Joseph H%de Jonge%NULL%0,  Lyle B%Dershowitz%NULL%0,  Shirin A%Dey%NULL%0,  Katherine A%Eiseman%NULL%0,  Zachary P%Girvin%NULL%0,  Daniella T%Goni%NULL%0,  Amro A%Harb%NULL%0,  Nicholas%Herzik%NULL%0,  Sarah%Householder%NULL%0,  Lara E%Karaaslan%NULL%0,  Heather%Lee%NULL%0,  Evan%Lieberman%NULL%0,  Andrew%Ling%NULL%0,  Ree%Lu%NULL%0,  Arthur Y%Shou%NULL%0,  Alexander C%Sisti%NULL%0,  Zachary E%Snow%NULL%0,  Colin P%Sperring%NULL%0,  Yuqing%Xiong%NULL%0,  Henry W%Zhou%NULL%0,  Karthik%Natarajan%NULL%0,  George%Hripcsak%NULL%0,  Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,  Mark%Caridi-Scheible%NULL%0,  James M.%Blum%NULL%0,  Chad%Robichaux%NULL%0,  Colleen%Kraft%NULL%0,  Jesse T.%Jacob%NULL%0,  Craig S.%Jabaley%NULL%0,  David%Carpenter%NULL%0,  Roberta%Kaplow%NULL%0,  Alfonso C.%Hernandez-Romieu%NULL%0,  Max W.%Adelman%NULL%0,  Greg S.%Martin%NULL%0,  Craig M.%Coopersmith%NULL%0,  David J.%Murphy%NULL%0,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Juan%Berenguer%NULL%1,  Pablo%Ryan%NULL%2,  Jesús%Rodríguez-Baño%NULL%1,  Inmaculada%Jarrín%NULL%4,  Jordi%Carratalà%NULL%4,  Jerónimo%Pachón%NULL%2,  María%Yllescas%NULL%1,  José Ramón%Arriba%NULL%1,  NULL%NULL%NULL%0,  Esther%Aznar Muñoz%NULL%1,  Pedro%Gil Divasson%NULL%1,  Patricia%González Muñiz%NULL%1,  Clara%Muñoz Aguirre%NULL%1,  Juan Carlos%López%NULL%3,  Juan Carlos%López%NULL%0,  Juan Carlos%López%NULL%0,  Margarita%Ramírez-Schacke%NULL%1,  Isabel%Gutiérrez%NULL%1,  Francisco%Tejerina%NULL%1,  Teresa%Aldámiz-Echevarría%NULL%1,  Cristina%Díez%NULL%1,  Chiara%Fanciulli%NULL%1,  Leire%Pérez-Latorre%NULL%1,  Francisco%Parras%NULL%1,  Pilar%Catalán%NULL%1,  María E.%García-Leoni%NULL%1,  Isabel%Pérez-Tamayo%NULL%1,  Luis%Puente%NULL%1,  Jamil%Cedeño%NULL%1,  Juan%Berenguer%NULL%1,  Marta%Díaz Menéndez%NULL%3,  Marta%Díaz Menéndez%NULL%0,  Marta%Díaz Menéndez%NULL%0,  Fernando%de la Calle Prieto%NULL%1,  Marta%Arsuaga Vicente%NULL%1,  Elena%Trigo Esteban%NULL%1,  Mª del Mar%Lago Núñez%NULL%1,  Rosa%de Miguel Buckley%NULL%1,  Julen%Cadiñaños Loidi%NULL%1,  Carmen%Busca Arenzana%NULL%1,  Alfredo%Mican%NULL%1,  Marta%Mora Rillo%NULL%1,  Juan Carlos%Ramos Ramos%NULL%1,  Belén%Loeches Yagüe%NULL%1,  José Ignacio%Bernardino de la Serna%NULL%1,  Julio%García Rodríguez%NULL%1,  José Ramón%Arribas López%NULL%1,  Ana%Such Diaz%NULL%3,  Ana%Such Diaz%NULL%0,  Ana%Such Diaz%NULL%0,  Elena%Álvaro Alonso%NULL%1,  Elsa%Izquierdo García%NULL%1,  Juan%Torres Macho%NULL%1,  Guillermo%Cuevas Tascon%NULL%1,  Jesús%Troya García%NULL%1,  Beatriz%Mestre Gómez%NULL%1,  Eva%Jiménez González de Buitrago%NULL%1,  Inés%Fernández Jiménez%NULL%1,  Ana Josefa%Tebar Martínez%NULL%1,  Fátima%Brañas Baztán%NULL%1,  Jorge%Valencia de la Rosa%NULL%1,  Mario%Pérez Butragueño%NULL%1,  Marta%Alvarado Blasco%NULL%1,  Pablo%Ryan%NULL%0,  Mª Antonia%Sepúlveda Berrocal%NULL%3,  Mª Antonia%Sepúlveda Berrocal%NULL%0,  Mª Antonia%Sepúlveda Berrocal%NULL%0,  Carmen%Yera Bergua%NULL%1,  Pilar%Toledano Sierra%NULL%1,  Verónica%Cano Llorente%NULL%1,  Sadaf%Zafar Iqubal-Mirza%NULL%1,  Gema%Muñiz%NULL%1,  Inmaculada%Martín Pérez%NULL%1,  Helena%Mozas Moriñigo%NULL%1,  Ana%Alguacil%NULL%1,  María Paz%García Butenegro%NULL%1,  Ana Isabel%Peláez Ballesta%NULL%3,  Ana Isabel%Peláez Ballesta%NULL%0,  Ana Isabel%Peláez Ballesta%NULL%0,  Elena%Morcillo Rodríguez%NULL%1,  Josune%Goikoetxea Agirre%NULL%3,  Josune%Goikoetxea Agirre%NULL%0,  Josune%Goikoetxea Agirre%NULL%0,  María José%Blanco Vidal%NULL%1,  Javier%Nieto Arana%NULL%1,  Mikel%del Álamo Martínez de Lagos%NULL%1,  Isabel A.%Pérez Hernández%NULL%3,  Isabel A.%Pérez Hernández%NULL%0,  Isabel A.%Pérez Hernández%NULL%0,  Inés%Pérez Zapata%NULL%1,  Rafael%Silvariño Fernández%NULL%3,  Rafael%Silvariño Fernández%NULL%0,  Rafael%Silvariño Fernández%NULL%0,  Jon%Ugalde Espiñeira%NULL%1,  Víctor%Asensi Álvarez%NULL%3,  Víctor%Asensi Álvarez%NULL%0,  Víctor%Asensi Álvarez%NULL%0,  Lucia%Suárez Pérez%NULL%1,  Silvia%Suárez Diaz%NULL%1,  Carmen%Yllera Gutiérrez%NULL%1,  Vicente%Boix%NULL%3,  Vicente%Boix%NULL%0,  Vicente%Boix%NULL%0,  Marcos%Díez Martínez%NULL%1,  Melissa%Carreres Candela%NULL%1,  Cristina%Gómez-Ayerbe%NULL%3,  Cristina%Gómez-Ayerbe%NULL%0,  Cristina%Gómez-Ayerbe%NULL%0,  Javier%Sánchez-Lora%NULL%1,  José Luis%Velasco Garrido%NULL%1,  María%López-Jódar%NULL%1,  Jesús%Santos González%NULL%1,  Jesús%Ruiz Aragón%NULL%3,  Jesús%Ruiz Aragón%NULL%0,  Jesús%Ruiz Aragón%NULL%0,  Ianire%Virto Peña%NULL%1,  Vanessa%Alende Castro%NULL%3,  Vanessa%Alende Castro%NULL%0,  Vanessa%Alende Castro%NULL%0,  Ruth%Brea Aparicio%NULL%1,  Sonia%Vega Molpeceres%NULL%3,  Sonia%Vega Molpeceres%NULL%0,  Sonia%Vega Molpeceres%NULL%0,  Estel%Pons Viñas%NULL%1,  Oscar%del Río Pérez%NULL%3,  Oscar%del Río Pérez%NULL%0,  Oscar%del Río Pérez%NULL%0,  Silvia%Valero Rovira%NULL%1,  Judit%Villar-García%NULL%3,  Judit%Villar-García%NULL%0,  Judit%Villar-García%NULL%0,  Joan%Gómez-Junyent%NULL%1,  Hernando%Knobel%NULL%1,  María Cecilia%Cánepa%NULL%1,  Silvia%Castañeda Espinosa%NULL%1,  Luisa%Sorli Redò%NULL%1,  Roberto%Güerri-Fernández%NULL%1,  María%Milagro Montero%NULL%1,  Juan Pablo%Horcajada%NULL%1,  Elisa%García Vázquez%NULL%3,  Elisa%García Vázquez%NULL%0,  Elisa%García Vázquez%NULL%0,  Encarnación%Moral Escudero%NULL%1,  Alicia%Hernández Torres%NULL%1,  Esther%García Almodóvar%NULL%3,  Esther%García Almodóvar%NULL%0,  Esther%García Almodóvar%NULL%0,  Carmen%Sáez Barberá%NULL%3,  Carmen%Sáez Barberá%NULL%0,  Carmen%Sáez Barberá%NULL%0,  Zineb%Karroud%NULL%1,  José%Hernández Quero%NULL%3,  José%Hernández Quero%NULL%0,  José%Hernández Quero%NULL%0,  David%Vinuesa García%NULL%1,  José Luis%García Fogeda%NULL%1,  José Antonio%Peregrina%NULL%1,  María%Novella Mena%NULL%3,  María%Novella Mena%NULL%0,  María%Novella Mena%NULL%0,  Cristina%Hernández Gutiérrez%NULL%1,  José%Sanz Moreno%NULL%1,  Ramón%Pérez Tanoira%NULL%1,  Rodrigo%Sierra Rodríguez%NULL%1,  David%Alonso Menchén%NULL%1,  Aida%Gutiérrez García%NULL%1,  Alberto%Arranz Caso%NULL%1,  Juan%Cuadros González%NULL%1,  Melchor%Álvarez de Mon Soto%NULL%1,  Vicente Ferrer%Díaz de Brito Fernández%NULL%3,  Vicente Ferrer%Díaz de Brito Fernández%NULL%0,  Vicente Ferrer%Díaz de Brito Fernández%NULL%0,  Montserrat%Sanmarti Vilamala%NULL%1,  Aina%Gabarrell Pascuet%NULL%1,  Daniel%Molina Morant%NULL%1,  Sergio%España Cueto%NULL%1,  Jonathan%Cámara Fernández%NULL%1,  Albert%Sabater Gil%NULL%1,  Laura%Muñoz López%NULL%1,  Paula%Sáez Escolano%NULL%3,  Paula%Sáez Escolano%NULL%0,  Paula%Sáez Escolano%NULL%0,  Esperanza%Bejarano Tello%NULL%1,  Marco Antonio%Sempere Alcocer%NULL%3,  Marco Antonio%Sempere Alcocer%NULL%0,  Marco Antonio%Sempere Alcocer%NULL%0,  Salvador%Álvarez Martin%NULL%1,  Ignacio%De los Santos Gil%NULL%3,  Ignacio%De los Santos Gil%NULL%0,  Ignacio%De los Santos Gil%NULL%0,  Lucio%García-Fraile%NULL%1,  Miguel%Sampedro Núñez%NULL%1,  Ana%Barrios Blandino%NULL%1,  Carlos%Rodríguez Franco%NULL%1,  Daniel%Useros Brañas%NULL%1,  Almudena%Villa Martí%NULL%1,  Javier%Oliver Ortega%NULL%1,  Alexia%Costanza Espiño Álvarez%NULL%1,  Jesús%Sanz Sanz%NULL%1,  María%Rexach Fumaña%NULL%3,  María%Rexach Fumaña%NULL%0,  María%Rexach Fumaña%NULL%0,  Ivette%Abascal Cambras%NULL%1,  Ana del Cielo%Pérez Jaén%NULL%1,  Clara%Sala Jofre%NULL%3,  Clara%Sala Jofre%NULL%0,  Clara%Sala Jofre%NULL%0,  Susana%Casas Rodríguez%NULL%1,  Cecilia%Tortajada Alamilla%NULL%3,  Cecilia%Tortajada Alamilla%NULL%0,  Cecilia%Tortajada Alamilla%NULL%0,  Carmina%Oltra%NULL%1,  Mar%Masiá Canuto%NULL%3,  Mar%Masiá Canuto%NULL%0,  Mar%Masiá Canuto%NULL%0,  Félix%Gutiérrez Rodero%NULL%1,  Ana%Ferrer Ribera%NULL%3,  Ana%Ferrer Ribera%NULL%0,  Ana%Ferrer Ribera%NULL%0,  Carlos%Bea Serrano%NULL%1,  Miguel%Pedromingo Kus%NULL%3,  Miguel%Pedromingo Kus%NULL%0,  Miguel%Pedromingo Kus%NULL%0,  María Ángeles%Garcinuño%NULL%1,  Silvana%Fiorante%NULL%1,  Sergio%Pérez Pinto%NULL%1,  Pilar%Hernández Machín%NULL%3,  Pilar%Hernández Machín%NULL%0,  Pilar%Hernández Machín%NULL%0,  Alba%Alastrué Violeta%NULL%1,  María Carmen%Fariñas Álvarez%NULL%3,  María Carmen%Fariñas Álvarez%NULL%0,  María Carmen%Fariñas Álvarez%NULL%0,  Claudia%González Rico%NULL%1,  Francisco%Arnaiz de las Revillas%NULL%1,  Jorge%Calvo%NULL%1,  Mónica%Gozalo%NULL%1,  Francisco%Mora Gómez%NULL%3,  Francisco%Mora Gómez%NULL%0,  Francisco%Mora Gómez%NULL%0,  Ana%Milagro Beamonte%NULL%3,  Ana%Milagro Beamonte%NULL%0,  Ana%Milagro Beamonte%NULL%0,  Miriam%Latorre-Millán%NULL%1,  Antonio%Rezusta López%NULL%1,  Ana%Martínez Sapiña%NULL%1,  Yolanda%Meije%NULL%3,  Yolanda%Meije%NULL%0,  Yolanda%Meije%NULL%0,  Alejandra%Duarte Borges%NULL%1,  Julia%Pareja Coca%NULL%1,  Mercedes%Clemente Presas%NULL%1,  Juan Emilio%Losa García%NULL%3,  Juan Emilio%Losa García%NULL%0,  Juan Emilio%Losa García%NULL%0,  Ana%Vegas Serrano%NULL%1,  M. Teresa%Pérez-Rodríguez%NULL%3,  M. Teresa%Pérez-Rodríguez%NULL%0,  M. Teresa%Pérez-Rodríguez%NULL%0,  Alexandre%Pérez González%NULL%1,  Moncef%Belhassen-García%NULL%3,  Moncef%Belhassen-García%NULL%0,  Moncef%Belhassen-García%NULL%0,  Beatriz%Rodríguez-Alonso%NULL%1,  Amparo%López-Bernus%NULL%1,  Cristina%Carbonell%NULL%1,  Rafael%Torres Perea%NULL%3,  Rafael%Torres Perea%NULL%0,  Rafael%Torres Perea%NULL%0,  Juan%Cantón de Seoane%NULL%1,  Blanca%Alonso%NULL%1,  Sara Lidia%Kamal%NULL%1,  Lucia%Cajuela%NULL%1,  David%Roa%NULL%1,  Miguel%Cervero%NULL%1,  Alberto%Oreja%NULL%1,  Juan Pablo%Avilés%NULL%1,  Lidia%Martín%NULL%1,  Iván%Pelegrín Senent%NULL%3,  Iván%Pelegrín Senent%NULL%0,  Iván%Pelegrín Senent%NULL%0,  Rosana%Rouco Esteves Marques%NULL%1,  Jorge%Parra Ruiz%NULL%3,  Jorge%Parra Ruiz%NULL%0,  Jorge%Parra Ruiz%NULL%0,  Violeta%Ramos Sesma%NULL%1,  Jessica%Abadia Otero%NULL%3,  Jessica%Abadia Otero%NULL%0,  Jessica%Abadia Otero%NULL%0,  Juan%Salillas Hernando%NULL%3,  Juan%Salillas Hernando%NULL%0,  Juan%Salillas Hernando%NULL%0,  Robert%Torres Sánchez del Arco%NULL%1,  Miguel%Torralba González de Suso%NULL%1,  Alberto%Serrano Martínez%NULL%1,  Sergio%Gilaberte Reyzábal%NULL%1,  Marina%Pacheco Martínez-Atienza%NULL%1,  Mónica%Liébana Gómez%NULL%1,  Sara%Fernández Rodríguez%NULL%1,  Álvaro%Varela Plaza%NULL%1,  Henar%Calvo Sánchez%NULL%1,  Patricia%Martínez Martín%NULL%3,  Patricia%Martínez Martín%NULL%0,  Patricia%Martínez Martín%NULL%0,  Patricia%González- Ruano%NULL%1,  Eduardo%Malmierca Corral%NULL%1,  Isabel%Rábago Lorite%NULL%1,  Beatriz%Pérez-Monte Mínguez%NULL%1,  Ángeles%García Flores%NULL%3,  Ángeles%García Flores%NULL%0,  Ángeles%García Flores%NULL%0,  Pere%Comas Casanova%NULL%1,  Merce%Sirisi%NULL%3,  Merce%Sirisi%NULL%0,  Merce%Sirisi%NULL%0,  Richard%Rojas%NULL%1,  José Luis%Díaz de Tuesta del Arco%NULL%3,  José Luis%Díaz de Tuesta del Arco%NULL%0,  José Luis%Díaz de Tuesta del Arco%NULL%0,  Ruth%Figueroa Cerón%NULL%1,  Ander%González Sarria%NULL%1,  Remedios%Alemán Valls%NULL%3,  Remedios%Alemán Valls%NULL%0,  Remedios%Alemán Valls%NULL%0,  María del Mar%Alonso Socas%NULL%1,  Oscar%Sanz Peláez%NULL%3,  Oscar%Sanz Peláez%NULL%0,  Oscar%Sanz Peláez%NULL%0,  Karim%Mohamed Ramírez%NULL%1,  Melchor%Riera Jaume%NULL%3,  Melchor%Riera Jaume%NULL%0,  Melchor%Riera Jaume%NULL%0,  Helem Haydee%Vilchez%NULL%1,  Francesc%Albertí%NULL%1,  Ana Isabel%Cañabate%NULL%1,  Víctor J.%Moreno Cuerda%NULL%3,  Víctor J.%Moreno Cuerda%NULL%0,  Víctor J.%Moreno Cuerda%NULL%0,  Silvia%Álvarez Kaelis%NULL%1,  Beatriz%Álvarez Zapatero%NULL%1,  Alejandro%García García%NULL%1,  Elena%Isaba Ares%NULL%1,  Covadonga%Morcate Fernández%NULL%1,  Andrea%Pérez Rodríguez%NULL%1,  Lucía%Ramos Merino%NULL%3,  Lucía%Ramos Merino%NULL%0,  Lucía%Ramos Merino%NULL%0,  Laura%Castelo Corral%NULL%1,  María%Rodríguez Mahía%NULL%1,  Mónica%González Bardanca%NULL%1,  Efrén%Sánchez Vidal%NULL%1,  Enrique%Míguez Rey%NULL%1,  Javier%De la Torre Lima%NULL%3,  Javier%De la Torre Lima%NULL%0,  Javier%De la Torre Lima%NULL%0,  José Mª%García de Lomas Guerrero%NULL%1,  Elena%Morte%NULL%3,  Elena%Morte%NULL%0,  Elena%Morte%NULL%0,  Silvia%Loscos%NULL%1,  Ana%Camón%NULL%1,  Lucía%Gómez García%NULL%3,  Lucía%Gómez García%NULL%0,  Lucía%Gómez García%NULL%0,  Lucia%Boix Palop%NULL%1,  Beatriz%Dietl Gómez-Luengo%NULL%1,  Iris%Pedrola Gorrea%NULL%3,  Iris%Pedrola Gorrea%NULL%0,  Iris%Pedrola Gorrea%NULL%0,  Amparo%Blasco Claramunt%NULL%1,  Cristina%López Mestanza%NULL%3,  Cristina%López Mestanza%NULL%0,  Cristina%López Mestanza%NULL%0,  Esther%Fraile Villarejo%NULL%1,  Tomás%Tosco Núñez%NULL%3,  Tomás%Tosco Núñez%NULL%0,  Tomás%Tosco Núñez%NULL%0,  María%Aroca Ferri%NULL%1,  José Tomas%Algado Rabasa%NULL%3,  José Tomas%Algado Rabasa%NULL%0,  José Tomas%Algado Rabasa%NULL%0,  Ana María%Garijo Saiz%NULL%1,  Concepción%Amador Prous%NULL%1,  Jesús Rodriguez%Baño%NULL%3,  Jesús Rodriguez%Baño%NULL%0,  Jesús Rodriguez%Baño%NULL%0,  Pilar%Retamar%NULL%1,  Adoración%Valiente%NULL%1,  Luis E.%López-Cortés%NULL%1,  Jesús%Sojo%NULL%1,  Belén%Gutiérrez-Gutiérrez%NULL%1,  José%Bravo-Ferrer%NULL%1,  Elena%Salamanca%NULL%1,  Zaira R.%Palacios%NULL%1,  Patricia%Pérez-Palacios%NULL%1,  Enrique%Peral%NULL%1,  José Antonio%Pérez de León%NULL%1,  Jesús%Sánchez-Gómez%NULL%1,  Lucía%Marín-Barrera%NULL%1,  Domingo%García-Jiménez%NULL%1,  Jordi%Carratalà%NULL%0,  Jordi%Carratalà%NULL%0,  Jordi%Carratalà%NULL%0,  Gabriela%Abelenda-Alonso%NULL%1,  Carmen%Ardanuy%NULL%1,  Alba%Bergas%NULL%1,  Guillermo%Cuervo%NULL%1,  María Ángeles%Domínguez%NULL%1,  Miguel%Fernández-Huerta%NULL%1,  Carlota%Gudiol%NULL%1,  Laia%Lorenzo-Esteller%NULL%1,  Jordi%Niubó%NULL%1,  Sandra%Pérez-Recio%NULL%1,  Daniel%Podzamczer%NULL%1,  Miquel%Pujol%NULL%1,  Alexander%Rombauts%NULL%1,  Núria%Trullen%NULL%1,  Miguel%Salavert Lletí%NULL%3,  Miguel%Salavert Lletí%NULL%0,  Miguel%Salavert Lletí%NULL%0,  Iván%Castro Hernández%NULL%1,  Adriana%Hernández Belmonte%NULL%3,  Adriana%Hernández Belmonte%NULL%0,  Adriana%Hernández Belmonte%NULL%0,  Raquel%Martínez Goñi%NULL%1,  Marta%Navarro Vilasaró%NULL%3,  Marta%Navarro Vilasaró%NULL%0,  Marta%Navarro Vilasaró%NULL%0,  Sonia%Calzado Isbert%NULL%1,  Manuel%Cervantes García%NULL%1,  Aina%Gomila Grange%NULL%1,  Oriol%Gasch Blasi%NULL%1,  María Luisa%Machado Sicilia%NULL%1,  Eva%Van den Eynde Otero%NULL%1,  Luis%Falgueras López%NULL%1,  María del Carmen%Navarro Sáez%NULL%1,  Esteban%Martínez%NULL%3,  Esteban%Martínez%NULL%0,  Esteban%Martínez%NULL%0,  Mª Ángeles%Marcos%NULL%1,  Mar%Mosquera%NULL%1,  José Luis%Blanco%NULL%1,  Montserrat%Laguno%NULL%1,  Jhon%Rojas%NULL%1,  Ana%González-Cordón%NULL%1,  Alexy%Inciarte%NULL%1,  Berta%Torres%NULL%1,  Lorena%De la Mora%NULL%1,  Alex%Soriano%NULL%1,  Olalla%Martínez Macias%NULL%3,  Olalla%Martínez Macias%NULL%0,  Olalla%Martínez Macias%NULL%0,  Virginia%Pérez Doñate%NULL%1,  Alfonso%Cabello Úbeda%NULL%3,  Alfonso%Cabello Úbeda%NULL%0,  Alfonso%Cabello Úbeda%NULL%0,  Nerea%Carrasco Antón%NULL%1,  Beatriz%Álvarez Álvarez%NULL%1,  Elizabet%Petkova Saiz%NULL%1,  Miguel%Górgolas Hernández-Mora%NULL%1,  Laura%Prieto Pérez%NULL%1,  Irene%Carrillo Acosta%NULL%1,  Sara%Heili Frades%NULL%1,  Felipe%Villar Álvarez%NULL%1,  Ricardo%Fernández Roblas%NULL%1,  José María%Milicua Muñoz%NULL%1,  Virginia%Fernández Espinilla%NULL%3,  Virginia%Fernández Espinilla%NULL%0,  Virginia%Fernández Espinilla%NULL%0,  Carlos Jesús%Dueñas Gutiérrez%NULL%1,  Cristina%Hernán García%NULL%1,  Fernando%González-Romo%NULL%3,  Fernando%González-Romo%NULL%0,  Fernando%González-Romo%NULL%0,  Paloma%Merino Amador%NULL%1,  Alba%Rueda López%NULL%1,  Jorge%Martínez Jordán%NULL%1,  Sara%Medrano Pardo%NULL%1,  Irene%Díaz de la Torre%NULL%1,  Yolanda%Posada Franco%NULL%1,  Alberto%Delgado-Iribarren%NULL%1,  Joaquín%López-Contreras González%NULL%3,  Joaquín%López-Contreras González%NULL%0,  Joaquín%López-Contreras González%NULL%0,  Pablo%Pascual Alonso%NULL%1,  Virginia%Pomar Solchaga%NULL%1,  Nuria%Rabella García%NULL%1,  Natividad%Benito Hernández%NULL%1,  Pere%Domingo Pedrol%NULL%1,  Xavier%Bonfill Cosp%NULL%1,  Rafael%Padrós Selma%NULL%1,  Mireia%Puig Campmany%NULL%1,  Jordi%Mancebo Cortés%NULL%1,  Mercè%Gurguí Ferrer%NULL%1,  Melania%Íñigo Pestaña%NULL%3,  Melania%Íñigo Pestaña%NULL%0,  Melania%Íñigo Pestaña%NULL%0,  Alejandra%Pérez García%NULL%1,  Patricia%Sorní Moreno%NULL%3,  Patricia%Sorní Moreno%NULL%0,  Patricia%Sorní Moreno%NULL%0,  Nora%Izko Gartzia%NULL%1,  Francisco Javier%Membrillo de Novales%NULL%3,  Francisco Javier%Membrillo de Novales%NULL%0,  Francisco Javier%Membrillo de Novales%NULL%0,  María%Simón Sacristán%NULL%1,  Maribel%Zamora Cintas%NULL%1,  Yolanda%Martínez Martínez%NULL%1,  Pablo%Fernández-González%NULL%1,  Francisco%Alcántara Nicolás%NULL%1,  Alejandro%Aguirre Vila-Cora%NULL%1,  Elena%López Tizón%NULL%1,  Germán%Ramírez-Olivencia%NULL%1,  Miriam%Estébanez Muñoz%NULL%1,  Ester%Sáez de Adana Arróniz%NULL%3,  Ester%Sáez de Adana Arróniz%NULL%0,  Ester%Sáez de Adana Arróniz%NULL%0,  Joseba%Portu Zapirain%NULL%1,  Juan Carlos%Gainzarain Arana%NULL%1,  Zuriñe%Ortiz de Zárate Ibarra%NULL%1,  Miguel Ángel%Moran Rodríguez%NULL%1,  Andrés%Canut Blasco%NULL%1,  Silvia%Hernáez Crespo%NULL%1,  Leire%Balerdi Sarasola%NULL%1,  Cristina%Morales García%NULL%1,  Miguel%Corral Saracho%NULL%1,  Zeltia%Valcarce González%NULL%1,  Noelia%Arenal Andrés%NULL%3,  Noelia%Arenal Andrés%NULL%0,  Noelia%Arenal Andrés%NULL%0,  Raquel Elisa%Rodríguez Tarazona%NULL%1,  Laura%Iglesias Llorente%NULL%3,  Laura%Iglesias Llorente%NULL%0,  Laura%Iglesias Llorente%NULL%0,  Beatriz%Loureiro Rodríguez%NULL%1,  Adrián%Sánchez Montalvá%NULL%3,  Adrián%Sánchez Montalvá%NULL%0,  Adrián%Sánchez Montalvá%NULL%0,  Juan%Espinosa Pereiro%NULL%1,  Benito%Almirante%NULL%0,  Marta%Miarons%NULL%1,  Júlia%Sellarés%NULL%1,  María%Larrosa%NULL%1,  Sonia%García%NULL%1,  Blanca%Marzo%NULL%1,  Miguel%Villamarín%NULL%1,  Nuria%Fernández%NULL%1,  Conchita%Pérez-Jorge Peremarch%NULL%3,  Conchita%Pérez-Jorge Peremarch%NULL%0,  Conchita%Pérez-Jorge Peremarch%NULL%0,  Elena%Resino Foz%NULL%1,  Andrea%Espigares Correa%NULL%1,  Teresa%Álvarez de Espejo Montiel%NULL%1,  Iván%Navas Clemente%NULL%1,  María Isabel%Quijano Contreras%NULL%1,  Luis Alberto%Nieto Fernández del Campo%NULL%1,  Guillermo%Jiménez Álvarez%NULL%1,  Mercedes%Guillamón Sánchez%NULL%3,  Mercedes%Guillamón Sánchez%NULL%0,  Mercedes%Guillamón Sánchez%NULL%0,  Josefina%García García%NULL%1,  Constanza%Muñoz Hornero%NULL%3,  Constanza%Muñoz Hornero%NULL%0,  Constanza%Muñoz Hornero%NULL%0,  Ana%Mariño Callejo%NULL%3,  Ana%Mariño Callejo%NULL%0,  Ana%Mariño Callejo%NULL%0,  Nieves%Valcarce Pardeiro%NULL%1,  Alex%Smithson Amat%NULL%3,  Alex%Smithson Amat%NULL%0,  Alex%Smithson Amat%NULL%0,  Cristina%Chico Chumillas%NULL%1,  Adriana%Sánchez Serrano%NULL%3,  Adriana%Sánchez Serrano%NULL%0,  Adriana%Sánchez Serrano%NULL%0,  Eva Pilar%García Villalba%NULL%1,  Isabel%Jiménez Martínez%NULL%3,  Isabel%Jiménez Martínez%NULL%0,  Isabel%Jiménez Martínez%NULL%0,  Guillermo%Estrada Fernández%NULL%1,  María%Lorén Vargas%NULL%1,  Nuria%Parra Arribas%NULL%1,  Carmen%Martínez Cilleros%NULL%1,  Aránzazu%Villasante de la Puente%NULL%1,  Teresa%García Delange%NULL%1,  María José%Ruiz Rodríguez%NULL%1,  Marta%Robledo del Prado%NULL%1,  Juan Carlos%Abad Almendro%NULL%1,  José Román%Muñoz del Rey%NULL%3,  José Román%Muñoz del Rey%NULL%0,  José Román%Muñoz del Rey%NULL%0,  Montaña%Jiménez Álvaro%NULL%1,  Javier%Coy Coy%NULL%3,  Javier%Coy Coy%NULL%0,  Javier%Coy Coy%NULL%0,  Inmaculada%Poquet Catala%NULL%1,  Marta%Santos Peña%NULL%3,  Marta%Santos Peña%NULL%0,  Marta%Santos Peña%NULL%0,  Virginia%Naranjo Velasco%NULL%1,  Tamara%Manso Gómez%NULL%3,  Tamara%Manso Gómez%NULL%0,  Tamara%Manso Gómez%NULL%0,  Delia%Quilez Ágreda%NULL%1,  Gema%Barbeito Castiñeiras%NULL%3,  Gema%Barbeito Castiñeiras%NULL%0,  Gema%Barbeito Castiñeiras%NULL%0,  María Jesús%Domínguez Santalla%NULL%1,  Laura%Mao Martín%NULL%3,  Laura%Mao Martín%NULL%0,  Laura%Mao Martín%NULL%0,  Rodrigo%Alonso Navarro%NULL%1,  Jose David%Ampuero Martinich%NULL%1,  Raquel%Barrós González%NULL%1,  María Aránzazu%Galindo Martín%NULL%1,  Lourdes%Herrera Pacheco%NULL%1,  Rocío%Martínez Avilés%NULL%1,  Sara%Rodrigo González%NULL%1,  Cristóbal Manuel%Rodríguez Leal%NULL%1,  Eva María%Romay Lema%NULL%3,  Eva María%Romay Lema%NULL%0,  Eva María%Romay Lema%NULL%0,  Roi%Suárez Gil%NULL%1,  Maialen%Ibarguren Pinilla%NULL%3,  Maialen%Ibarguren Pinilla%NULL%0,  Maialen%Ibarguren Pinilla%NULL%0,  José María%Marimón Ortiz de Zárate%NULL%1,  Loreto%Vidaur Tello%NULL%1,  Xabier%Kortajarena Urkola%NULL%1,  Miriam%García Gómez%NULL%3,  Miriam%García Gómez%NULL%0,  Miriam%García Gómez%NULL%0,  Asier%Aranguren Arostegui%NULL%1,  Maria%Álvarez de Castro%NULL%3,  Maria%Álvarez de Castro%NULL%0,  Maria%Álvarez de Castro%NULL%0,  Cintia María%Martínez Mateu%NULL%1,  Francisco%Rodríguez Gómez%NULL%3,  Francisco%Rodríguez Gómez%NULL%0,  Francisco%Rodríguez Gómez%NULL%0,  Francisco%Muñoz Beamud%NULL%1,  Elena%Chamarro Martí%NULL%3,  Elena%Chamarro Martí%NULL%0,  Elena%Chamarro Martí%NULL%0,  Merce%Cardona Rivera%NULL%1,  Ismail%Zakariya-Yousef Breval%NULL%3,  Ismail%Zakariya-Yousef Breval%NULL%0,  Ismail%Zakariya-Yousef Breval%NULL%0,  Marta%Rico Rodríguez%NULL%1,  Jara%Llenas García%NULL%3,  Jara%Llenas García%NULL%0,  Jara%Llenas García%NULL%0,  Mª Carmen%Sánchez Arenas%NULL%1,  Ana%Fernández Cruz%NULL%3,  Ana%Fernández Cruz%NULL%0,  Ana%Fernández Cruz%NULL%0,  Jorge%Calderón Parra%NULL%1,  Marcos%López Dosil%NULL%1,  Antonio%Ramos Martínez%NULL%1,  Elena%Múñez Rubio%NULL%1,  Alejandro%Callejas Díaz%NULL%1,  José Manuel%Vázquez Comendador%NULL%1,  Itziar%Diego Yagüe%NULL%1,  Esther%Expósito Palomo%NULL%1,  Jorge%Anel Pedroche%NULL%1,  Raquel%Álvarez Franco%NULL%3,  Raquel%Álvarez Franco%NULL%0,  Raquel%Álvarez Franco%NULL%0,  Lucía%Fernández de Orueta%NULL%1,  Roberto%Vates Gómez%NULL%1,  Andrés Felipe%Cardona Arias%NULL%1,  Pablo%Marguenda Contreras%NULL%1,  Gabriel%Gaspar Alonso-Vega%NULL%1,  Elena María%Aranda Rife%NULL%1,  Blanca%Martínez Cifre%NULL%1,  Daniel%Roger Zapata%NULL%1,  Irene%Martín Rubio%NULL%1,  André%Barbosa Ventura%NULL%3,  André%Barbosa Ventura%NULL%0,  André%Barbosa Ventura%NULL%0,  Iván%Piñero%NULL%1,  Alberto%Bahamonde Carrasco%NULL%3,  Alberto%Bahamonde Carrasco%NULL%0,  Alberto%Bahamonde Carrasco%NULL%0,  Paula%Runza Buznego%NULL%1,  Eva%Talavera García%NULL%3,  Eva%Talavera García%NULL%0,  Eva%Talavera García%NULL%0,  Marta%Lamata Subero%NULL%1,  Ainhoa%Urrutia Losada%NULL%3,  Ainhoa%Urrutia Losada%NULL%0,  Ainhoa%Urrutia Losada%NULL%0,  Lorea%Arteche Eguizabal%NULL%1,  Elisabet%Delgado Sánchez%NULL%3,  Elisabet%Delgado Sánchez%NULL%0,  Elisabet%Delgado Sánchez%NULL%0,  Virginia%Molina Peinado%NULL%1,  Sarah%Caro Bragado%NULL%3,  Sarah%Caro Bragado%NULL%0,  Sarah%Caro Bragado%NULL%0,  Gema%Domínguez de Pablos%NULL%1,  Carolina%Roldán Fontana%NULL%3,  Carolina%Roldán Fontana%NULL%0,  Carolina%Roldán Fontana%NULL%0,  Carmen%Herrero Rodríguez%NULL%1,  Luis%Force Sanmartín%NULL%3,  Luis%Force Sanmartín%NULL%0,  Luis%Force Sanmartín%NULL%0,  Raquel%Aranega%NULL%1,  Arantzazu%Mera Fidalgo%NULL%3,  Arantzazu%Mera Fidalgo%NULL%0,  Arantzazu%Mera Fidalgo%NULL%0,  María Roca%Toda Savall%NULL%1,  Nicolas%Merchante Gutiérrez%NULL%3,  Nicolas%Merchante Gutiérrez%NULL%0,  Nicolas%Merchante Gutiérrez%NULL%0,  Eva María%León Jiménez%NULL%1,  José Luís%Del Pozo%NULL%3,  José Luís%Del Pozo%NULL%0,  José Luís%Del Pozo%NULL%0,  Josefa%Serralta Buades%NULL%3,  Josefa%Serralta Buades%NULL%0,  Josefa%Serralta Buades%NULL%0,  Ginger Giorgiana%Cabrera Tejada%NULL%1,  Mario%Fernández-Ruiz%NULL%4,  Mario%Fernández-Ruiz%NULL%0,  Mario%Fernández-Ruiz%NULL%0,  José María%Aguado%NULL%1,  Guillermo%Maestro de la Calle%NULL%1,  José Miguel%Cisneros%NULL%3,  José Miguel%Cisneros%NULL%0,  José Miguel%Cisneros%NULL%0,  Jerónimo%Pachón%NULL%0,  Manuela%Aguilar-Guisado%NULL%1,  Teresa%Aldabó%NULL%1,  María Dolores%Avilés%NULL%1,  Claudio%Bueno%NULL%1,  Elisa%Cordero-Matía%NULL%1,  Ana%Escoresca%NULL%1,  Lydia%Gálvez-Benítez%NULL%1,  Carmen%Infante%NULL%1,  Guillermo%Martín%NULL%1,  Julia%Praena%NULL%1,  Cristina%Roca%NULL%1,  Celia%Salamanca%NULL%1,  Alejandro%Suárez-Benjumea%NULL%1,  Pilar%Vizcarra%NULL%3,  Pilar%Vizcarra%NULL%0,  Pilar%Vizcarra%NULL%0,  Carmen%Quereda%NULL%1,  Mario José%Rodriguez Dominguez%NULL%1,  Francesca%Gioia%NULL%1,  Francesca%Norman%NULL%1,  Santos%Del Campo%NULL%1,  Rafael%Cantón Moreno%NULL%1,  Antonio%Oteo Revuelta José%NULL%3,  Antonio%Oteo Revuelta José%NULL%0,  Antonio%Oteo Revuelta José%NULL%0,  Paula%Santibáñez Sáenz%NULL%1,  Cristina%Cervera Acedo%NULL%1,  Carlos%Ruiz Martínez%NULL%1,  José R.%Blanco Ramos%NULL%1,  José M.%Azcona Gutiérrez%NULL%1,  Concepción%García García%NULL%1,  Jorge%Alba Fernández%NULL%1,  Valvanera%Ibarra Cucalón%NULL%1,  Mercedes%San Franco%NULL%1,  Luis%Metola Sacristán%NULL%1,  Héctor%Meijide Míguez%NULL%3,  Héctor%Meijide Míguez%NULL%0,  Héctor%Meijide Míguez%NULL%0,  Silvia%Paulos Viñas%NULL%1,  Justo%Menéndez%NULL%3,  Justo%Menéndez%NULL%0,  Justo%Menéndez%NULL%0,  Paula%Villares Fernández%NULL%1,  Lara%Montes Andújar%NULL%1,  Álvaro%Navarro Batet%NULL%3,  Álvaro%Navarro Batet%NULL%0,  Álvaro%Navarro Batet%NULL%0,  Anna%Ferrer Santolaria%NULL%1,  María de la Luz%Padilla Salazar%NULL%3,  María de la Luz%Padilla Salazar%NULL%0,  María de la Luz%Padilla Salazar%NULL%0,  Lucy%Abella Vázquez%NULL%1,  Marcelino%Hayek Peraza%NULL%1,  Antonio%García Pardo%NULL%1,  Carolina%Hernández Carballo%NULL%1,  Andrés Javier%Ruiz Fernández%NULL%3,  Andrés Javier%Ruiz Fernández%NULL%0,  Andrés Javier%Ruiz Fernández%NULL%0,  Isabel%Barrio López%NULL%1,  Alí%Martakoush%NULL%3,  Alí%Martakoush%NULL%0,  Alí%Martakoush%NULL%0,  Agustín%Rojas-Vieyra%NULL%3,  Agustín%Rojas-Vieyra%NULL%0,  Agustín%Rojas-Vieyra%NULL%0,  Sonia%García Calvo%NULL%3,  Sonia%García Calvo%NULL%0,  Sonia%García Calvo%NULL%0,  Mercedes%Villarreal García-Lomas%NULL%1,  Marta%Vizcaíno Callejón%NULL%3,  Marta%Vizcaíno Callejón%NULL%0,  Marta%Vizcaíno Callejón%NULL%0,  María Pilar%García García%NULL%1,  Ana%Lérida Urteaga%NULL%3,  Ana%Lérida Urteaga%NULL%0,  Ana%Lérida Urteaga%NULL%0,  Natalia%Carrasco Fons%NULL%1,  Beatriz%María Sanjuan%NULL%1,  Lydia%Martín González%NULL%1,  Camilo%Sanz Zamudio%NULL%1,  Inmaculada%Jarrín%NULL%0,  Inmaculada%Jarrín%NULL%0,  Inmaculada%Jarrín%NULL%0,  Belén%Alejos%NULL%1,  Cristina%Moreno%NULL%1,  Marta%Rava%NULL%1,  Carlos%Iniesta%NULL%1,  Rebeca%Izquierdo%NULL%1,  Inés%Suárez-García%NULL%1,  Asunción%Díaz%NULL%1,  Marta%Ruiz-Alguero%NULL%1,  Victoria%Hernando%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,  Denise J%McCulloch%NULL%0,  Denise J%McCulloch%NULL%0,  Vidya%Atluri%NULL%0,  Michela%Blain%NULL%0,  Sarah A%McGuffin%NULL%0,  Arun K%Nalla%NULL%0,  Meei-Li%Huang%NULL%0,  Alex L%Greninger%NULL%0,  Keith R%Jerome%NULL%0,  Seth A%Cohen%NULL%0,  Santiago%Neme%NULL%0,  Margaret L%Green%NULL%0,  Helen Y%Chu%NULL%0,  H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,  Wenlin%Cheng%NULL%0,  Lei%Yu%NULL%0,  Ya-Kun%Liu%NULL%0,  Xiaoyong%Hu%NULL%0,  Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,  Alberto%Zucchelli%NULL%1,  Marinella%Turla%NULL%1,  Maria Sofia%Cotelli%NULL%1,  Sara%Fascendini%NULL%1,  Mara%Zanni%NULL%1,  Angelo%Bianchetti%NULL%1,  Matteo Peli%Psy%NULL%1,  Renzo%Rozzini%NULL%1,  Stefano%Boffelli%NULL%1,  Melania%Cappuccio%NULL%1,  Federica Gottardi%Psy%NULL%1,  Chiara Vecchi%Psy%NULL%1,  Daniele%Bellandi%NULL%1,  Claudia%Caminati%NULL%1,  Simona%Gentile%NULL%1,  Elena Lucchi%Psy%NULL%1,  Ignazio%Di Fazio%NULL%1,  Marina Zanetti%Psy%NULL%1,  Giuliana%Vezzadini%NULL%1,  Chiara Forlani%Psy%NULL%1,  Maura Cosseddu%Psy%NULL%1,  Rosanna Turrone%Psy%NULL%1,  Silvia Pelizzari%Psy%NULL%1,  Andrea%Scalvini%NULL%1,  Marco%Di Cesare%NULL%1,  Marta Grigolo%Psy%NULL%1,  Lina%Falanga%NULL%1,  Nives%Medici%NULL%1,  Nives%Palamini%NULL%1,  Elisa Zanacchi%Psy%NULL%1,  Eleonora Grossi%Psy%NULL%1,  Giuseppe%Bellelli%NULL%1,  Alessandra%Marengoni%NULL%1,  Marco%Trabucchi%NULL%1,  Alessandro%Padovani%alessandro.padovani@unibs.it%1,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0,  NULL%NULL%NULL%0,  NULL%NULL%NULL%0,  Nancy%Chow%NULL%0,  Katherine%Fleming-Dutra%NULL%3,  Ryan%Gierke%NULL%0,  Aron%Hall%NULL%0,  Michelle%Hughes%NULL%3,  Tamara%Pilishvili%NULL%0,  Matthew%Ritchey%NULL%0,  Katherine%Roguski%NULL%3,  Tami%Skoff%NULL%3,  Emily%Ussery%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,  Zhencang%Zheng%NULL%1,  Chao%Zhang%NULL%0,  Xijiang%Zhang%NULL%1,  Huijuan%Wu%NULL%1,  Jingdong%Wang%NULL%1,  Shuwei%Wang%NULL%1,  Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,  Wei%Liu%NULL%0,  Kui%Liu%NULL%0,  Yuan-Yuan%Fang%NULL%0,  Jin%Shang%NULL%0,  Ling%Zhou%NULL%0,  Ke%Wang%NULL%0,  Fan%Leng%NULL%0,  Shuang%Wei%NULL%0,  Lei%Chen%NULL%0,  Hui-Guo%Liu%NULL%0,  Pei-Fang%Wei%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nathalie%Nicolay%NULL%1,  Francesco%Innocenti%NULL%1,  Julien%Beauté%NULL%1,  Veronika%Učakar%NULL%1,  Marta%Grgič Vitek%NULL%1,  Eero%Poukka%NULL%1,  Tuula%Hannila-Handelberg%NULL%1,  Charmaine%Gauci%NULL%1,  Tanya%Melillo%NULL%1,  Theano%Georgakopoulou%NULL%1,  Jiri%Jarkovsky%NULL%1,  Pavel%Slezak%NULL%1,  Concepción%Delgado-Sanz%NULL%1,  Carmen%Olmedo-Lucerón%NULL%1,  Heleene%Suija%NULL%1,  Rasa%Liausediene%NULL%1,  Piaras%O’Lorcain%NULL%1,  Niamh%Murphy%NULL%1,  André%Peralta-Santos%NULL%1,  Pedro%Casaca%NULL%1,  Ioanna%Gregoriou%NULL%1,  Nick%Bundle%NULL%1,  Gianfranco%Spiteri%NULL%1,  Giovanni%Ravasi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Feng%NULL%2,  Peiyun%Li%NULL%2,  Liang%Ma%NULL%2,  Hang%Liang%NULL%2,  Jie%Lei%NULL%3,  Wenqiang%Li%NULL%2,  Kun%Wang%NULL%0,  Yu%Song%NULL%2,  Shuai%Li%NULL%2,  Wei%Yang%NULL%2,  Cao%Yang%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Yun%Feng%NULL%0,  Yun%Ling%NULL%0,  Yun%Ling%NULL%0,  Tao%Bai%NULL%0,  Tao%Bai%NULL%0,  Yusang%Xie%NULL%0,  Jie%Huang%NULL%0,  Jie%Huang%NULL%0,  Jian%Li%NULL%0,  Weining%Xiong%NULL%0,  Dexiang%Yang%NULL%0,  Rong%Chen%NULL%0,  Fangying%Lu%NULL%0,  Yunfei%Lu%NULL%0,  Xuhui%Liu%NULL%0,  Yuqing%Chen%NULL%0,  Yuqing%Chen%NULL%0,  Xin%Li%NULL%0,  Yong%Li%NULL%0,  Hanssa Dwarka%Summah%NULL%0,  Huihuang%Lin%NULL%0,  Jiayang%Yan%NULL%0,  Min%Zhou%NULL%0,  Hongzhou%Lu%NULL%0,  Hongzhou%Lu%NULL%0,  Jieming%Qu%NULL%0,  Jieming%Qu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Paolo%Giorgi Rossi%NULL%0,  Massimiliano%Marino%NULL%0,  Debora%Formisano%NULL%0,  Francesco%Venturelli%NULL%0,  Massimo%Vicentini%NULL%0,  Massimo%Vicentini%NULL%0,  Roberto%Grilli%NULL%0,  NULL%NULL%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0,  Gianluigi%Forloni%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,  Justin J.%Choi%NULL%0,  Laura C.%Pinheiro%NULL%0,  Edward J.%Schenck%NULL%0,  Ruijun%Chen%NULL%0,  Assem%Jabri%NULL%0,  Michael J.%Satlin%NULL%0,  Thomas R.%Campion%NULL%0,  Musarrat%Nahid%NULL%0,  Joanna B.%Ringel%NULL%0,  Katherine L.%Hoffman%NULL%0,  Mark N.%Alshak%NULL%0,  Han A.%Li%NULL%0,  Graham T.%Wehmeyer%NULL%0,  Graham T.%Wehmeyer%NULL%0,  Mangala%Rajan%NULL%0,  Evgeniya%Reshetnyak%NULL%0,  Nathaniel%Hupert%NULL%0,  Evelyn M.%Horn%NULL%0,  Fernando J.%Martinez%NULL%0,  Roy M.%Gulick%NULL%0,  Monika M.%Safford%NULL%0,  Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jonathan%Grein%NULL%1,  Norio%Ohmagari%NULL%0,  Daniel%Shin%NULL%1,  George%Diaz%NULL%0,  Erika%Asperges%NULL%1,  Antonella%Castagna%NULL%0,  Torsten%Feldt%NULL%1,  Gary%Green%NULL%1,  Margaret L.%Green%NULL%1,  François-Xavier%Lescure%NULL%3,  Emanuele%Nicastri%NULL%3,  Rentaro%Oda%NULL%2,  Rentaro%Oda%NULL%0,  Kikuo%Yo%NULL%2,  Kikuo%Yo%NULL%0,  Eugenia%Quiros-Roldan%NULL%1,  Alex%Studemeister%NULL%1,  John%Redinski%NULL%1,  Seema%Ahmed%NULL%1,  Jorge%Bernett%NULL%1,  Daniel%Chelliah%NULL%1,  Danny%Chen%NULL%1,  Shingo%Chihara%NULL%1,  Stuart H.%Cohen%NULL%1,  Jennifer%Cunningham%NULL%1,  Antonella%D’Arminio Monforte%NULL%1,  Saad%Ismail%NULL%1,  Hideaki%Kato%NULL%1,  Giuseppe%Lapadula%NULL%1,  Erwan%L’Her%NULL%1,  Toshitaka%Maeno%NULL%1,  Sumit%Majumder%NULL%1,  Marco%Massari%NULL%1,  Marta%Mora-Rillo%NULL%1,  Yoshikazu%Mutoh%NULL%1,  Duc%Nguyen%NULL%1,  Ewa%Verweij%NULL%1,  Alexander%Zoufaly%NULL%1,  Anu O.%Osinusi%NULL%1,  Adam%DeZure%NULL%1,  Yang%Zhao%NULL%1,  Lijie%Zhong%NULL%1,  Anand%Chokkalingam%NULL%1,  Emon%Elboudwarej%NULL%1,  Laura%Telep%NULL%1,  Leighann%Timbs%NULL%1,  Ilana%Henne%NULL%1,  Scott%Sellers%NULL%1,  Huyen%Cao%NULL%1,  Susanna K.%Tan%NULL%1,  Lucinda%Winterbourne%NULL%1,  Polly%Desai%NULL%1,  Robertino%Mera%NULL%1,  Anuj%Gaggar%NULL%1,  Robert P.%Myers%NULL%1,  Diana M.%Brainard%NULL%1,  Richard%Childs%NULL%1,  Timothy%Flanigan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,  Zheng-yi%Ni%NULL%0,  Zheng-yi%Ni%NULL%0,  Yu%Hu%NULL%0,  Wen-hua%Liang%NULL%0,  Chun-quan%Ou%NULL%0,  Jian-xing%He%NULL%0,  Lei%Liu%NULL%0,  Hong%Shan%NULL%0,  Chun-liang%Lei%NULL%0,  David S.C.%Hui%NULL%0,  Bin%Du%NULL%0,  Lan-juan%Li%NULL%0,  Guang%Zeng%NULL%0,  Kwok-Yung%Yuen%NULL%0,  Ru-chong%Chen%NULL%0,  Chun-li%Tang%NULL%0,  Tao%Wang%NULL%0,  Ping-yan%Chen%NULL%0,  Jie%Xiang%NULL%0,  Shi-yue%Li%NULL%0,  Jin-lin%Wang%NULL%0,  Zi-jing%Liang%NULL%0,  Yi-xiang%Peng%NULL%0,  Li%Wei%NULL%0,  Yong%Liu%NULL%0,  Ya-hua%Hu%NULL%0,  Peng%Peng%NULL%0,  Jian-ming%Wang%NULL%0,  Ji-yang%Liu%NULL%0,  Zhong%Chen%NULL%0,  Gang%Li%NULL%0,  Zhi-jian%Zheng%NULL%0,  Shao-qin%Qiu%NULL%0,  Jie%Luo%NULL%0,  Chang-jiang%Ye%NULL%0,  Shao-yong%Zhu%NULL%0,  Nan-shan%Zhong%NULL%0]</t>
   </si>
   <si>
     <t>Factors Associated With Death in Critically Ill Patients With Coronavirus Disease 2019 in the US</t>
@@ -1551,27 +1372,6 @@
  No other disclosures were reported</t>
   </si>
   <si>
-    <t>[Admon%Andrew J.%coreGivesNoEmail%1, Arunthamakun%Justin%coreGivesNoEmail%1, Athavale%Ambarish M.%coreGivesNoEmail%1, Bansal%Anip%coreGivesNoEmail%1, Brenner%Samantha K.%coreGivesNoEmail%1, Chan%Lili%coreGivesNoEmail%1, Donnelly%John P.%coreGivesNoEmail%1, Friedman%Allon N.%coreGivesNoEmail%1, Gershengorn%Hayley B.%coreGivesNoEmail%1, Goyal%Nitender%coreGivesNoEmail%1, Green%Adam%coreGivesNoEmail%1, Gupta%Shruti%coreGivesNoEmail%1, Hayek%Salim S.%coreGivesNoEmail%1, Hern\u00e1n%Miguel A.%coreGivesNoEmail%1, Kibbelaar%Zoe A.%coreGivesNoEmail%1, Leaf%David E.%coreGivesNoEmail%1, Leonberg-Yoo%Amanda%coreGivesNoEmail%1, Mathews%Kusum S.%coreGivesNoEmail%1, Melamed%Michal L.%coreGivesNoEmail%1, Omar%Samah Abu%coreGivesNoEmail%1, Parikh%Chirag R.%coreGivesNoEmail%1, Radbel%Jared%coreGivesNoEmail%1, Reiser%Jochen%coreGivesNoEmail%1, Schenck%Edward J.%coreGivesNoEmail%1, Semler%Matthew W.%coreGivesNoEmail%1, Shaefi%Shahzad%coreGivesNoEmail%1, Shehata%Alexandre M.%coreGivesNoEmail%1, Short%Samuel A. P.%coreGivesNoEmail%1, Srivastava%Anand%coreGivesNoEmail%1, Sutherland%Anne%coreGivesNoEmail%1, Velez%Juan Carlos Q.%coreGivesNoEmail%1, Vijayan%Anitha%coreGivesNoEmail%1, Wang%Wei%coreGivesNoEmail%1, Zhou%Yan%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>CORE</t>
-  </si>
-  <si>
-    <t>[Rahmet%GÜNER%NULL%1,  İmran%HASANOĞLU%NULL%2,  İmran%HASANOĞLU%NULL%0,  Bircan%KAYAASLAN%NULL%2,  Bircan%KAYAASLAN%NULL%0,  Adalet%AYPAK%NULL%2,  Adalet%AYPAK%NULL%0,  Ayşe%KAYA KALEM%NULL%2,  Ayşe%KAYA KALEM%NULL%0,  Fatma%ESER%NULL%2,  Fatma%ESER%NULL%0,  Burcu%ÖZDEMİR%NULL%2,  Burcu%ÖZDEMİR%NULL%0,  Elif Mükime%SARICAOĞLU%NULL%2,  Elif Mükime%SARICAOĞLU%NULL%0,  Müge%AYHAN%NULL%2,  Müge%AYHAN%NULL%0,  Yeşim%AYBAR BİLİR%NULL%2,  Yeşim%AYBAR BİLİR%NULL%0,  Işıl%ÖZKOÇAK TURAN%NULL%2,  Işıl%ÖZKOÇAK TURAN%NULL%0,  Deniz%ERDEM%NULL%2,  Deniz%ERDEM%NULL%0,  Nevzat Mehmet%MUTLU%NULL%1,  Turan%BUZGAN%NULL%2,  Turan%BUZGAN%NULL%0,  Bedia%DİNÇ%NULL%2,  Bedia%DİNÇ%NULL%0,  Esragül%AKINCI%NULL%2,  Esragül%AKINCI%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Stephanie L.%Harrison%NULL%1,  Elnara%Fazio-Eynullayeva%NULL%2,  Elnara%Fazio-Eynullayeva%NULL%0,  Deirdre A.%Lane%NULL%2,  Deirdre A.%Lane%NULL%0,  Paula%Underhill%NULL%2,  Paula%Underhill%NULL%0,  Gregory Y. H.%Lip%NULL%1,  Mirjam E. E.%Kretzschmar%NULL%3,  Mirjam E. E.%Kretzschmar%NULL%0,  Mirjam E. E.%Kretzschmar%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yuanzhou%He%NULL%1,  Min%Xie%NULL%0,  Jianping%Zhao%NULL%0,  Xiansheng%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ling%Hu%NULL%0,  Shaoqiu%Chen%NULL%0,  Yuanyuan%Fu%NULL%0,  Zitong%Gao%NULL%0,  Hui%Long%NULL%0,  Jian-ming%Wang%NULL%0,  Hong-wei%Ren%NULL%0,  Yi%Zuo%NULL%0,  Huan%Li%NULL%0,  Jie%Wang%NULL%0,  Qing-bang%Xu%NULL%0,  Wen-xiong%Yu%NULL%0,  Jia%Liu%NULL%0,  Chen%Shao%NULL%0,  Jun-jie%Hao%NULL%0,  Chuan-zhen%Wang%NULL%0,  Yao%Ma%NULL%0,  Zhanwei%Wang%NULL%0,  Richard%Yanagihara%NULL%0,  Youping%Deng%dengy@hawaii.edu%0]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,  Yeming%Wang%NULL%0,  Xingwang%Li%NULL%0,  Lili%Ren%NULL%0,  Jianping%Zhao%NULL%0,  Yi%Hu%NULL%0,  Li%Zhang%NULL%0,  Guohui%Fan%NULL%0,  Jiuyang%Xu%NULL%0,  Xiaoying%Gu%NULL%0,  Zhenshun%Cheng%NULL%0,  Ting%Yu%NULL%0,  Jiaan%Xia%NULL%0,  Yuan%Wei%NULL%0,  Wenjuan%Wu%NULL%0,  Xuelei%Xie%NULL%0,  Wen%Yin%NULL%0,  Hui%Li%NULL%0,  Min%Liu%NULL%0,  Yan%Xiao%NULL%0,  Hong%Gao%NULL%0,  Li%Guo%NULL%0,  Jungang%Xie%NULL%0,  Guangfa%Wang%NULL%0,  Rongmeng%Jiang%NULL%0,  Zhancheng%Gao%NULL%0,  Qi%Jin%NULL%0,  Jianwei%Wang%wangjw28@163.com%0,  Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
     <t>Clinical and laboratory findings from patients with COVID-19 pneumonia in Babol North of Iran: a retrospective cohort study</t>
   </si>
   <si>
@@ -1579,45 +1379,6 @@
  In December 2019, China has experienced an outbreak of novel coronavirus disease 2019 (COVID-19).
  Coronavirus has now spread to all of the continents.
  We aimed to consider clinical characteristics, laboratory data of COVID-19 that provided more information for the research of this novel virus</t>
-  </si>
-  <si>
-    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1, Bayani%Masomeh%coreGivesNoEmail%1, Bijani%Ali%coreGivesNoEmail%1, Ebrahimpour%Soheil%coreGivesNoEmail%1, Gholinejad%Hossein Emam%coreGivesNoEmail%1, Ghorbani%Hossein%coreGivesNoEmail%1, Hasanpour%Amir Hossein%coreGivesNoEmail%1, Javanian%Mostafa%coreGivesNoEmail%1, Masrour-Roudsari%Jila%coreGivesNoEmail%1, Mehraeen%Rahele%coreGivesNoEmail%1, Mohseni%Sima%coreGivesNoEmail%1, Rostami%Ali%coreGivesNoEmail%1, Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1, Sepidarkish%Mahdi%coreGivesNoEmail%1, Shabani%Asieh%coreGivesNoEmail%1, Shahbazi%Mehdi%coreGivesNoEmail%1, Shokri%Mehran%coreGivesNoEmail%1, Tabari%Afrooz Monadi%coreGivesNoEmail%1, Yeganeh%Babak%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Filippo%Lagi%NULL%1,  Matteo%Piccica%NULL%1,  Lucia%Graziani%NULL%1,  Iacopo%Vellere%NULL%1,  Annarita%Botta%NULL%3,  Marta%Tilli%NULL%3,  Letizia%Ottino%NULL%1,  Beatrice%Borchi%NULL%2,  Marco%Pozzi%NULL%1,  Filippo%Bartalesi%NULL%1,  Jessica%Mencarini%NULL%1,  Michele%Spinicci%NULL%1,  Lorenzo%Zammarchi%NULL%1,  Filippo%Pieralli%NULL%1,  Giovanni%Zagli%NULL%1,  Carlo%Nozzoli%NULL%1,  Stefano%Romagnoli%NULL%1,  Alessandro%Bartoloni%NULL%2,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,  Zhao-Wu%Tao%NULL%0,  Lei%Wang%NULL%0,  Ming-Li%Yuan%NULL%0,  Kui%Liu%NULL%0,  Ling%Zhou%NULL%0,  Shuang%Wei%NULL%0,  Yan%Deng%NULL%0,  Jing%Liu%NULL%0,  Hui-Guo%Liu%NULL%0,  Ming%Yang%NULL%0,  Yi%Hu%NULL%0,  Pei-Fang%Wei%NULL%0,  Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaochen%Li%NULL%0,  Shuyun%Xu%NULL%0,  Muqing%Yu%NULL%0,  Ke%Wang%NULL%0,  Yu%Tao%NULL%0,  Ying%Zhou%NULL%0,  Jing%Shi%NULL%0,  Min%Zhou%NULL%0,  Bo%Wu%NULL%0,  Zhenyu%Yang%NULL%0,  Cong%Zhang%NULL%0,  Junqing%Yue%NULL%0,  Zhiguo%Zhang%NULL%0,  Harald%Renz%NULL%0,  Xiansheng%Liu%NULL%0,  Jungang%Xie%NULL%0,  Min%Xie%NULL%0,  Jianping%Zhao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yang-kai%Li%doclyk@163.com%1,  Shu%Peng%NULL%1,  Le-qun%Li%NULL%1,  Qi%Wang%NULL%0,  Wei%Ping%NULL%1,  Ni%Zhang%NULL%1,  Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,  Yuanyuan%Xing%NULL%3,  Yu%Xiao%NULL%3,  Liping%Deng%NULL%0,  Qiu%Zhao%NULL%3,  Hongling%Wang%NULL%3,  Yong%Xiong%NULL%0,  Zhenshun%Cheng%NULL%0,  Shicheng%Gao%NULL%0,  Ke%Liang%NULL%0,  Mingqi%Luo%NULL%0,  Tielong%Chen%NULL%3,  Shihui%Song%NULL%0,  Zhiyong%Ma%NULL%0,  Xiaoping%Chen%NULL%0,  Ruiying%Zheng%NULL%3,  Qian%Cao%NULL%3,  Fan%Wang%fanndywang@foxmail.com%3,  Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,  Nicolas%Lopez-Villalobos%NULL%1,  Francisco E.%Parra-Bracamonte%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ishan%Paranjpe%NULL%2,  Adam J%Russak%NULL%4,  Adam J%Russak%NULL%0,  Jessica K%De Freitas%NULL%0,  Anuradha%Lala%NULL%0,  Riccardo%Miotto%NULL%2,  Akhil%Vaid%NULL%3,  Kipp W%Johnson%NULL%2,  Matteo%Danieletto%NULL%2,  Eddye%Golden%NULL%2,  Dara%Meyer%NULL%2,  Manbir%Singh%NULL%2,  Sulaiman%Somani%NULL%3,  Arjun%Kapoor%NULL%2,  Ross%O'Hagan%NULL%2,  Sayan%Manna%NULL%2,  Udit%Nangia%NULL%2,  Suraj K%Jaladanki%NULL%2,  Paul%O’Reilly%NULL%0,  Paul%O’Reilly%NULL%0,  Laura M%Huckins%NULL%2,  Patricia%Glowe%NULL%2,  Arash%Kia%NULL%0,  Prem%Timsina%NULL%0,  Robert M%Freeman%NULL%2,  Matthew A%Levin%NULL%2,  Jeffrey%Jhang%NULL%0,  Adolfo%Firpo%NULL%2,  Patricia%Kovatch%NULL%0,  Joseph%Finkelstein%NULL%2,  Judith A%Aberg%NULL%2,  Emilia%Bagiella%NULL%0,  Carol R%Horowitz%NULL%2,  Barbara%Murphy%NULL%2,  Zahi A%Fayad%NULL%2,  Jagat%Narula%NULL%3,  Eric J%Nestler%NULL%2,  V%Fuster%NULL%2,  Carlos%Cordon-Cardo%NULL%0,  Dennis%Charney%NULL%0,  David L%Reich%NULL%2,  Allan%Just%NULL%0,  Erwin P%Bottinger%NULL%2,  Alexander W%Charney%NULL%2,  Benjamin S%Glicksberg%NULL%0,  Girish N%Nadkarni%NULL%2,  NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ D.%Qi%null%1,   X.% Yan%null%2,   X.% Tang%null%1,   J.% Peng%null%1,   Q.% Yu%null%0,   L.% Feng%null%1,   G.% Yuan%null%1,   A.% Zhang%null%0,   Y.% Chen%null%2,   J.% Yuan%null%1,   X.% Huang%null%1,   X.% Zhang%null%0,   P.% Hu%null%1,   Y.% Song%null%1,   C.% Qian%null%1,   Q.% Sun%null%1,   D.% Wang%null%1,   J.% Tong%null%1,   J. % Xiang%null%1]</t>
-  </si>
-  <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,  Kevin Bryan%Lo%NULL%0,  Kevin Bryan%Lo%NULL%0,  Fahad%Gul%NULL%0,  Eric%Peterson%NULL%0,  Robert%De Joy%NULL%0,  Ruchika%Bhargav%NULL%0,  Jerald%Pelayo%NULL%0,  Jeri%Albano%NULL%0,  Zurab%Azmaiparashvili%NULL%0,  Sadia%Benzaquen%NULL%0,  Gabriel%Patarroyo‐Aponte%NULL%0,  Janani%Rangaswami%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,  Mu%Qin%qinmuae@163.com%0,  Yuli%Cai%NULL%0,  Tao%Liu%NULL%0,  Bo%Shen%NULL%0,  Fan%Yang%NULL%0,  Sheng%Cao%NULL%0,  Xu%Liu%NULL%0,  Xu%Liu%NULL%0,  Yaozu%Xiang%NULL%0,  Qinyan%Zhao%NULL%0,  He%Huang%huanghe1977@whu.edu.cn%0,  Bo%Yang%yybb112@whu.edu.cn%0,  Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jennifer%Tomlins%NULL%1,  Fergus%Hamilton%NULL%1,  Samuel%Gunning%NULL%1,  Caitlin%Sheehy%NULL%1,  Ed%Moran%NULL%1,  Alastair%MacGowan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,  Yi%Xiang%NULL%0,  Wei%Fang%NULL%0,  Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,  Boqun%Li%279685211@qq.com%0,  Boqun%Li%279685211@qq.com%0,  Yanjun%Hu%huyanjun@163.com%0,  Chunhui%Lang%NULL%0,  Daoqiu%Huang%NULL%0,  Qiuyan%Sun%NULL%0,  Yan%Xiong%NULL%0,  Xia%Huang%NULL%0,  Jinglong%Lv%NULL%0,  Yaling%Luo%NULL%0,  Li%Shen%NULL%0,  Haoran%Yang%NULL%0,  Gu%Huang%NULL%0,  Ruishan%Yang%NULL%0]</t>
   </si>
   <si>
     <t>Fisiopatologia da insufici\u00eancia card\u00edaca em pacientes com COVID-19</t>
@@ -1646,28 +1407,7 @@
  Conclus\u00f5es: apesar dos avan\u00e7os no conhecimento da etiopatogenia desta doen\u00e7a, ainda \u00e9 necess\u00e1rio esclarecer com precis\u00e3o os mecanismos fisiopatol\u00f3gicos que determinam a apresenta\u00e7\u00e3o da insufici\u00eancia card\u00edaca, embora se reconhe\u00e7a a influ\u00eancia da resposta inflamat\u00f3ria inadequada, induzida por citocinas, na apresenta\u00e7\u00e3o de dano mioc\u00e1rdico</t>
   </si>
   <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0, Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0, Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0, Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%5,  Wenbo%He%NULL%5,  Xiaomei%Yu%NULL%5,  Dalong%Hu%NULL%5,  Mingwei%Bao%NULL%5,  Huafen%Liu%NULL%5,  Jiali%Zhou%NULL%5,  Hong%Jiang%NULL%5]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,  Bohan%Yang%NULL%0,  Qianwen%Li%NULL%0,  Lu%Wen%NULL%0,  Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
     <t>Early antiviral treatment contributes to alleviate the severity and improve the prognosis of patients with novel coronavirus disease (COVID\u201019)</t>
-  </si>
-  <si>
-    <t>[Wu%J%coreGivesNoEmail%2, Xu%Y%coreGivesNoEmail%2, Zhanwei%Du%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,  Fen%Li%NULL%0,  Xiao%Wang%NULL%0,  Jie%Yan%NULL%0,  Fen%Zhu%NULL%0,  Shifan%Tang%NULL%0,  Yingzhong%Deng%NULL%0,  Hua%Wang%NULL%0,  Rui%Chen%NULL%0,  Zhili%Yu%NULL%0,  Yaping%Li%NULL%0,  Jingzhou%Shang%NULL%0,  Lingjun%Zeng%NULL%0,  Jie%Zhao%NULL%0,  Chaokun%Guan%NULL%0,  Qiaomei%Liu%NULL%0,  Haifeng%Chen%NULL%0,  Wei%Gong%NULL%0,  Xin%Huang%NULL%0,  Yu‐Jiao%Zhang%NULL%0,  Jianguang%Liu%NULL%0,  Xiaoyan%Dong%NULL%0,  Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,  Shaoping%Nie%spnie@126.com%0,  Dongsheng%Li%dongshengli196809@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Ping%Yang%NULL%1,  Pengfei%Wang%NULL%2,  Pengfei%Wang%NULL%0,  Yuyan%Song%NULL%1,  An%Zhang%zhangan@hospital.cqmu.edu.cn%1,  Guodan%Yuan%71502294@qq.com%1,  Yong%Cui%754605155@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,  Yuan%Yu%NULL%0,  Jiqian%Xu%NULL%0,  Huaqing%Shu%NULL%0,  Jia'an%Xia%NULL%0,  Hong%Liu%NULL%0,  Yongran%Wu%NULL%0,  Lu%Zhang%NULL%0,  Zhui%Yu%NULL%0,  Minghao%Fang%NULL%0,  Ting%Yu%NULL%0,  Yaxin%Wang%NULL%0,  Shangwen%Pan%NULL%0,  Xiaojing%Zou%NULL%0,  Shiying%Yuan%NULL%0,  You%Shang%NULL%0]</t>
   </si>
   <si>
     <t>Clinical characteristics of 140 patients infected with SARS\u2010CoV\u20102 in Wuhan, China</t>
@@ -1695,226 +1435,803 @@
  Older age, high number of comorbidities, and more prominent laboratory abnormalities were associated with severe patients</t>
   </si>
   <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0, Cao%Yi-yuan%coreGivesNoEmail%0, Dong%Xiang%coreGivesNoEmail%0, Gao%Ya-dong%coreGivesNoEmail%0, Yan%You-qin%coreGivesNoEmail%0, Yang%Yi-bin%coreGivesNoEmail%0, Yuan%Ya-dong%coreGivesNoEmail%0, Zhang%Jin-jin%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%3,  Chang%Hu%NULL%4,  Linjie%Luo%NULL%3,  Fang%Fang%NULL%5,  Yongfeng%Chen%NULL%3,  Jianguo%Li%NULL%3,  Zhiyong%Peng%NULL%0,  Huaqin%Pan%phq2012@whu.edu.cn%3]</t>
-  </si>
-  <si>
-    <t>[Jun%Zhang%NULL%1,  Miao%Yu%NULL%0,  Song%Tong%NULL%1,  Lu-Yu%Liu%NULL%1,  Liang-V.%Tang%lancet.tang@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,  Huangqing%Ouyang%NULL%2,  Lingli%Fu%NULL%2,  Shijie%Wang%NULL%2,  Jianglong%Han%NULL%2,  Kejie%Huang%NULL%2,  Mingfang%Jia%NULL%2,  Qibin%Song%NULL%2,  Zhenming%Fu%davidfuzming@whu.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Zirun%Zhao%NULL%0,  Anne%Chen%NULL%0,  Wei%Hou%NULL%0,  James M.%Graham%NULL%1,  Haifang%Li%NULL%2,  Paul S.%Richman%NULL%1,  Henry C.%Thode%NULL%1,  Adam J.%Singer%NULL%1,  Tim Q.%Duong%NULL%1,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0,  Muhammad%Adrish%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,  Ting%Yu%NULL%0,  Ronghui%Du%NULL%0,  Guohui%Fan%NULL%0,  Ying%Liu%NULL%0,  Zhibo%Liu%NULL%0,  Jie%Xiang%NULL%0,  Yeming%Wang%NULL%0,  Bin%Song%NULL%0,  Xiaoying%Gu%NULL%0,  Lulu%Guan%NULL%0,  Yuan%Wei%NULL%0,  Hui%Li%NULL%0,  Xudong%Wu%NULL%0,  Jiuyang%Xu%NULL%0,  Shengjin%Tu%NULL%0,  Yi%Zhang%NULL%0,  Hua%Chen%NULL%0,  Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[Sulaiman%Almazeedi%NULL%2,   Sarah%Al-Youha%sarahalyouha@gmail.com%2,   Mohammad H.%Jamal%NULL%2,   Mohannad%Al-Haddad%NULL%2,   Ali%Al-Muhaini%NULL%2,   Fahad%Al-Ghimlas%NULL%2,   Salman%Al-Sabah%NULL%2]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
   </si>
   <si>
-    <t>[Michael G%Argenziano%NULL%0,   Samuel L%Bruce%NULL%0,   Cody L%Slater%NULL%0,   Jonathan R%Tiao%NULL%0,   Matthew R%Baldwin%NULL%0,   R Graham%Barr%NULL%0,   Bernard P%Chang%NULL%0,   Katherine H%Chau%NULL%0,   Justin J%Choi%NULL%0,   Nicholas%Gavin%NULL%0,   Parag%Goyal%NULL%0,   Angela M%Mills%NULL%0,   Ashmi A%Patel%NULL%0,   Marie-Laure S%Romney%NULL%0,   Monika M%Safford%NULL%0,   Neil W%Schluger%NULL%0,   Soumitra%Sengupta%NULL%0,   Magdalena E%Sobieszczyk%NULL%0,   Jason E%Zucker%NULL%0,   Paul A%Asadourian%NULL%0,   Fletcher M%Bell%NULL%0,   Rebekah%Boyd%NULL%0,   Matthew F%Cohen%NULL%0,   MacAlistair I%Colquhoun%NULL%0,   Lucy A%Colville%NULL%0,   Joseph H%de Jonge%NULL%0,   Lyle B%Dershowitz%NULL%0,   Shirin A%Dey%NULL%0,   Katherine A%Eiseman%NULL%0,   Zachary P%Girvin%NULL%0,   Daniella T%Goni%NULL%0,   Amro A%Harb%NULL%0,   Nicholas%Herzik%NULL%0,   Sarah%Householder%NULL%0,   Lara E%Karaaslan%NULL%0,   Heather%Lee%NULL%0,   Evan%Lieberman%NULL%0,   Andrew%Ling%NULL%0,   Ree%Lu%NULL%0,   Arthur Y%Shou%NULL%0,   Alexander C%Sisti%NULL%0,   Zachary E%Snow%NULL%0,   Colin P%Sperring%NULL%0,   Yuqing%Xiong%NULL%0,   Henry W%Zhou%NULL%0,   Karthik%Natarajan%NULL%0,   George%Hripcsak%NULL%0,   Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[Sara C.%Auld%NULL%0,   Mark%Caridi-Scheible%NULL%0,   James M.%Blum%NULL%0,   Chad%Robichaux%NULL%0,   Colleen%Kraft%NULL%0,   Jesse T.%Jacob%NULL%0,   Craig S.%Jabaley%NULL%0,   David%Carpenter%NULL%0,   Roberta%Kaplow%NULL%0,   Alfonso C.%Hernandez-Romieu%NULL%0,   Max W.%Adelman%NULL%0,   Greg S.%Martin%NULL%0,   Craig M.%Coopersmith%NULL%0,   David J.%Murphy%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Juan%Berenguer%NULL%1,   Pablo%Ryan%NULL%2,   Jesús%Rodríguez-Baño%NULL%1,   Inmaculada%Jarrín%NULL%4,   Jordi%Carratalà%NULL%4,   Jerónimo%Pachón%NULL%2,   María%Yllescas%NULL%1,   José Ramón%Arriba%NULL%1,   NULL%NULL%NULL%0,   Esther%Aznar Muñoz%NULL%1,   Pedro%Gil Divasson%NULL%1,   Patricia%González Muñiz%NULL%1,   Clara%Muñoz Aguirre%NULL%1,   Juan Carlos%López%NULL%3,   Juan Carlos%López%NULL%0,   Juan Carlos%López%NULL%0,   Margarita%Ramírez-Schacke%NULL%1,   Isabel%Gutiérrez%NULL%1,   Francisco%Tejerina%NULL%1,   Teresa%Aldámiz-Echevarría%NULL%1,   Cristina%Díez%NULL%1,   Chiara%Fanciulli%NULL%1,   Leire%Pérez-Latorre%NULL%1,   Francisco%Parras%NULL%1,   Pilar%Catalán%NULL%1,   María E.%García-Leoni%NULL%1,   Isabel%Pérez-Tamayo%NULL%1,   Luis%Puente%NULL%1,   Jamil%Cedeño%NULL%1,   Juan%Berenguer%NULL%1,   Marta%Díaz Menéndez%NULL%3,   Marta%Díaz Menéndez%NULL%0,   Marta%Díaz Menéndez%NULL%0,   Fernando%de la Calle Prieto%NULL%1,   Marta%Arsuaga Vicente%NULL%1,   Elena%Trigo Esteban%NULL%1,   Mª del Mar%Lago Núñez%NULL%1,   Rosa%de Miguel Buckley%NULL%1,   Julen%Cadiñaños Loidi%NULL%1,   Carmen%Busca Arenzana%NULL%1,   Alfredo%Mican%NULL%1,   Marta%Mora Rillo%NULL%1,   Juan Carlos%Ramos Ramos%NULL%1,   Belén%Loeches Yagüe%NULL%1,   José Ignacio%Bernardino de la Serna%NULL%1,   Julio%García Rodríguez%NULL%1,   José Ramón%Arribas López%NULL%1,   Ana%Such Diaz%NULL%3,   Ana%Such Diaz%NULL%0,   Ana%Such Diaz%NULL%0,   Elena%Álvaro Alonso%NULL%1,   Elsa%Izquierdo García%NULL%1,   Juan%Torres Macho%NULL%1,   Guillermo%Cuevas Tascon%NULL%1,   Jesús%Troya García%NULL%1,   Beatriz%Mestre Gómez%NULL%1,   Eva%Jiménez González de Buitrago%NULL%1,   Inés%Fernández Jiménez%NULL%1,   Ana Josefa%Tebar Martínez%NULL%1,   Fátima%Brañas Baztán%NULL%1,   Jorge%Valencia de la Rosa%NULL%1,   Mario%Pérez Butragueño%NULL%1,   Marta%Alvarado Blasco%NULL%1,   Pablo%Ryan%NULL%0,   Mª Antonia%Sepúlveda Berrocal%NULL%3,   Mª Antonia%Sepúlveda Berrocal%NULL%0,   Mª Antonia%Sepúlveda Berrocal%NULL%0,   Carmen%Yera Bergua%NULL%1,   Pilar%Toledano Sierra%NULL%1,   Verónica%Cano Llorente%NULL%1,   Sadaf%Zafar Iqubal-Mirza%NULL%1,   Gema%Muñiz%NULL%1,   Inmaculada%Martín Pérez%NULL%1,   Helena%Mozas Moriñigo%NULL%1,   Ana%Alguacil%NULL%1,   María Paz%García Butenegro%NULL%1,   Ana Isabel%Peláez Ballesta%NULL%3,   Ana Isabel%Peláez Ballesta%NULL%0,   Ana Isabel%Peláez Ballesta%NULL%0,   Elena%Morcillo Rodríguez%NULL%1,   Josune%Goikoetxea Agirre%NULL%3,   Josune%Goikoetxea Agirre%NULL%0,   Josune%Goikoetxea Agirre%NULL%0,   María José%Blanco Vidal%NULL%1,   Javier%Nieto Arana%NULL%1,   Mikel%del Álamo Martínez de Lagos%NULL%1,   Isabel A.%Pérez Hernández%NULL%3,   Isabel A.%Pérez Hernández%NULL%0,   Isabel A.%Pérez Hernández%NULL%0,   Inés%Pérez Zapata%NULL%1,   Rafael%Silvariño Fernández%NULL%3,   Rafael%Silvariño Fernández%NULL%0,   Rafael%Silvariño Fernández%NULL%0,   Jon%Ugalde Espiñeira%NULL%1,   Víctor%Asensi Álvarez%NULL%3,   Víctor%Asensi Álvarez%NULL%0,   Víctor%Asensi Álvarez%NULL%0,   Lucia%Suárez Pérez%NULL%1,   Silvia%Suárez Diaz%NULL%1,   Carmen%Yllera Gutiérrez%NULL%1,   Vicente%Boix%NULL%3,   Vicente%Boix%NULL%0,   Vicente%Boix%NULL%0,   Marcos%Díez Martínez%NULL%1,   Melissa%Carreres Candela%NULL%1,   Cristina%Gómez-Ayerbe%NULL%3,   Cristina%Gómez-Ayerbe%NULL%0,   Cristina%Gómez-Ayerbe%NULL%0,   Javier%Sánchez-Lora%NULL%1,   José Luis%Velasco Garrido%NULL%1,   María%López-Jódar%NULL%1,   Jesús%Santos González%NULL%1,   Jesús%Ruiz Aragón%NULL%3,   Jesús%Ruiz Aragón%NULL%0,   Jesús%Ruiz Aragón%NULL%0,   Ianire%Virto Peña%NULL%1,   Vanessa%Alende Castro%NULL%3,   Vanessa%Alende Castro%NULL%0,   Vanessa%Alende Castro%NULL%0,   Ruth%Brea Aparicio%NULL%1,   Sonia%Vega Molpeceres%NULL%3,   Sonia%Vega Molpeceres%NULL%0,   Sonia%Vega Molpeceres%NULL%0,   Estel%Pons Viñas%NULL%1,   Oscar%del Río Pérez%NULL%3,   Oscar%del Río Pérez%NULL%0,   Oscar%del Río Pérez%NULL%0,   Silvia%Valero Rovira%NULL%1,   Judit%Villar-García%NULL%3,   Judit%Villar-García%NULL%0,   Judit%Villar-García%NULL%0,   Joan%Gómez-Junyent%NULL%1,   Hernando%Knobel%NULL%1,   María Cecilia%Cánepa%NULL%1,   Silvia%Castañeda Espinosa%NULL%1,   Luisa%Sorli Redò%NULL%1,   Roberto%Güerri-Fernández%NULL%1,   María%Milagro Montero%NULL%1,   Juan Pablo%Horcajada%NULL%1,   Elisa%García Vázquez%NULL%3,   Elisa%García Vázquez%NULL%0,   Elisa%García Vázquez%NULL%0,   Encarnación%Moral Escudero%NULL%1,   Alicia%Hernández Torres%NULL%1,   Esther%García Almodóvar%NULL%3,   Esther%García Almodóvar%NULL%0,   Esther%García Almodóvar%NULL%0,   Carmen%Sáez Barberá%NULL%3,   Carmen%Sáez Barberá%NULL%0,   Carmen%Sáez Barberá%NULL%0,   Zineb%Karroud%NULL%1,   José%Hernández Quero%NULL%3,   José%Hernández Quero%NULL%0,   José%Hernández Quero%NULL%0,   David%Vinuesa García%NULL%1,   José Luis%García Fogeda%NULL%1,   José Antonio%Peregrina%NULL%1,   María%Novella Mena%NULL%3,   María%Novella Mena%NULL%0,   María%Novella Mena%NULL%0,   Cristina%Hernández Gutiérrez%NULL%1,   José%Sanz Moreno%NULL%1,   Ramón%Pérez Tanoira%NULL%1,   Rodrigo%Sierra Rodríguez%NULL%1,   David%Alonso Menchén%NULL%1,   Aida%Gutiérrez García%NULL%1,   Alberto%Arranz Caso%NULL%1,   Juan%Cuadros González%NULL%1,   Melchor%Álvarez de Mon Soto%NULL%1,   Vicente Ferrer%Díaz de Brito Fernández%NULL%3,   Vicente Ferrer%Díaz de Brito Fernández%NULL%0,   Vicente Ferrer%Díaz de Brito Fernández%NULL%0,   Montserrat%Sanmarti Vilamala%NULL%1,   Aina%Gabarrell Pascuet%NULL%1,   Daniel%Molina Morant%NULL%1,   Sergio%España Cueto%NULL%1,   Jonathan%Cámara Fernández%NULL%1,   Albert%Sabater Gil%NULL%1,   Laura%Muñoz López%NULL%1,   Paula%Sáez Escolano%NULL%3,   Paula%Sáez Escolano%NULL%0,   Paula%Sáez Escolano%NULL%0,   Esperanza%Bejarano Tello%NULL%1,   Marco Antonio%Sempere Alcocer%NULL%3,   Marco Antonio%Sempere Alcocer%NULL%0,   Marco Antonio%Sempere Alcocer%NULL%0,   Salvador%Álvarez Martin%NULL%1,   Ignacio%De los Santos Gil%NULL%3,   Ignacio%De los Santos Gil%NULL%0,   Ignacio%De los Santos Gil%NULL%0,   Lucio%García-Fraile%NULL%1,   Miguel%Sampedro Núñez%NULL%1,   Ana%Barrios Blandino%NULL%1,   Carlos%Rodríguez Franco%NULL%1,   Daniel%Useros Brañas%NULL%1,   Almudena%Villa Martí%NULL%1,   Javier%Oliver Ortega%NULL%1,   Alexia%Costanza Espiño Álvarez%NULL%1,   Jesús%Sanz Sanz%NULL%1,   María%Rexach Fumaña%NULL%3,   María%Rexach Fumaña%NULL%0,   María%Rexach Fumaña%NULL%0,   Ivette%Abascal Cambras%NULL%1,   Ana del Cielo%Pérez Jaén%NULL%1,   Clara%Sala Jofre%NULL%3,   Clara%Sala Jofre%NULL%0,   Clara%Sala Jofre%NULL%0,   Susana%Casas Rodríguez%NULL%1,   Cecilia%Tortajada Alamilla%NULL%3,   Cecilia%Tortajada Alamilla%NULL%0,   Cecilia%Tortajada Alamilla%NULL%0,   Carmina%Oltra%NULL%1,   Mar%Masiá Canuto%NULL%3,   Mar%Masiá Canuto%NULL%0,   Mar%Masiá Canuto%NULL%0,   Félix%Gutiérrez Rodero%NULL%1,   Ana%Ferrer Ribera%NULL%3,   Ana%Ferrer Ribera%NULL%0,   Ana%Ferrer Ribera%NULL%0,   Carlos%Bea Serrano%NULL%1,   Miguel%Pedromingo Kus%NULL%3,   Miguel%Pedromingo Kus%NULL%0,   Miguel%Pedromingo Kus%NULL%0,   María Ángeles%Garcinuño%NULL%1,   Silvana%Fiorante%NULL%1,   Sergio%Pérez Pinto%NULL%1,   Pilar%Hernández Machín%NULL%3,   Pilar%Hernández Machín%NULL%0,   Pilar%Hernández Machín%NULL%0,   Alba%Alastrué Violeta%NULL%1,   María Carmen%Fariñas Álvarez%NULL%3,   María Carmen%Fariñas Álvarez%NULL%0,   María Carmen%Fariñas Álvarez%NULL%0,   Claudia%González Rico%NULL%1,   Francisco%Arnaiz de las Revillas%NULL%1,   Jorge%Calvo%NULL%1,   Mónica%Gozalo%NULL%1,   Francisco%Mora Gómez%NULL%3,   Francisco%Mora Gómez%NULL%0,   Francisco%Mora Gómez%NULL%0,   Ana%Milagro Beamonte%NULL%3,   Ana%Milagro Beamonte%NULL%0,   Ana%Milagro Beamonte%NULL%0,   Miriam%Latorre-Millán%NULL%1,   Antonio%Rezusta López%NULL%1,   Ana%Martínez Sapiña%NULL%1,   Yolanda%Meije%NULL%3,   Yolanda%Meije%NULL%0,   Yolanda%Meije%NULL%0,   Alejandra%Duarte Borges%NULL%1,   Julia%Pareja Coca%NULL%1,   Mercedes%Clemente Presas%NULL%1,   Juan Emilio%Losa García%NULL%3,   Juan Emilio%Losa García%NULL%0,   Juan Emilio%Losa García%NULL%0,   Ana%Vegas Serrano%NULL%1,   M. Teresa%Pérez-Rodríguez%NULL%3,   M. Teresa%Pérez-Rodríguez%NULL%0,   M. Teresa%Pérez-Rodríguez%NULL%0,   Alexandre%Pérez González%NULL%1,   Moncef%Belhassen-García%NULL%3,   Moncef%Belhassen-García%NULL%0,   Moncef%Belhassen-García%NULL%0,   Beatriz%Rodríguez-Alonso%NULL%1,   Amparo%López-Bernus%NULL%1,   Cristina%Carbonell%NULL%1,   Rafael%Torres Perea%NULL%3,   Rafael%Torres Perea%NULL%0,   Rafael%Torres Perea%NULL%0,   Juan%Cantón de Seoane%NULL%1,   Blanca%Alonso%NULL%1,   Sara Lidia%Kamal%NULL%1,   Lucia%Cajuela%NULL%1,   David%Roa%NULL%1,   Miguel%Cervero%NULL%1,   Alberto%Oreja%NULL%1,   Juan Pablo%Avilés%NULL%1,   Lidia%Martín%NULL%1,   Iván%Pelegrín Senent%NULL%3,   Iván%Pelegrín Senent%NULL%0,   Iván%Pelegrín Senent%NULL%0,   Rosana%Rouco Esteves Marques%NULL%1,   Jorge%Parra Ruiz%NULL%3,   Jorge%Parra Ruiz%NULL%0,   Jorge%Parra Ruiz%NULL%0,   Violeta%Ramos Sesma%NULL%1,   Jessica%Abadia Otero%NULL%3,   Jessica%Abadia Otero%NULL%0,   Jessica%Abadia Otero%NULL%0,   Juan%Salillas Hernando%NULL%3,   Juan%Salillas Hernando%NULL%0,   Juan%Salillas Hernando%NULL%0,   Robert%Torres Sánchez del Arco%NULL%1,   Miguel%Torralba González de Suso%NULL%1,   Alberto%Serrano Martínez%NULL%1,   Sergio%Gilaberte Reyzábal%NULL%1,   Marina%Pacheco Martínez-Atienza%NULL%1,   Mónica%Liébana Gómez%NULL%1,   Sara%Fernández Rodríguez%NULL%1,   Álvaro%Varela Plaza%NULL%1,   Henar%Calvo Sánchez%NULL%1,   Patricia%Martínez Martín%NULL%3,   Patricia%Martínez Martín%NULL%0,   Patricia%Martínez Martín%NULL%0,   Patricia%González- Ruano%NULL%1,   Eduardo%Malmierca Corral%NULL%1,   Isabel%Rábago Lorite%NULL%1,   Beatriz%Pérez-Monte Mínguez%NULL%1,   Ángeles%García Flores%NULL%3,   Ángeles%García Flores%NULL%0,   Ángeles%García Flores%NULL%0,   Pere%Comas Casanova%NULL%1,   Merce%Sirisi%NULL%3,   Merce%Sirisi%NULL%0,   Merce%Sirisi%NULL%0,   Richard%Rojas%NULL%1,   José Luis%Díaz de Tuesta del Arco%NULL%3,   José Luis%Díaz de Tuesta del Arco%NULL%0,   José Luis%Díaz de Tuesta del Arco%NULL%0,   Ruth%Figueroa Cerón%NULL%1,   Ander%González Sarria%NULL%1,   Remedios%Alemán Valls%NULL%3,   Remedios%Alemán Valls%NULL%0,   Remedios%Alemán Valls%NULL%0,   María del Mar%Alonso Socas%NULL%1,   Oscar%Sanz Peláez%NULL%3,   Oscar%Sanz Peláez%NULL%0,   Oscar%Sanz Peláez%NULL%0,   Karim%Mohamed Ramírez%NULL%1,   Melchor%Riera Jaume%NULL%3,   Melchor%Riera Jaume%NULL%0,   Melchor%Riera Jaume%NULL%0,   Helem Haydee%Vilchez%NULL%1,   Francesc%Albertí%NULL%1,   Ana Isabel%Cañabate%NULL%1,   Víctor J.%Moreno Cuerda%NULL%3,   Víctor J.%Moreno Cuerda%NULL%0,   Víctor J.%Moreno Cuerda%NULL%0,   Silvia%Álvarez Kaelis%NULL%1,   Beatriz%Álvarez Zapatero%NULL%1,   Alejandro%García García%NULL%1,   Elena%Isaba Ares%NULL%1,   Covadonga%Morcate Fernández%NULL%1,   Andrea%Pérez Rodríguez%NULL%1,   Lucía%Ramos Merino%NULL%3,   Lucía%Ramos Merino%NULL%0,   Lucía%Ramos Merino%NULL%0,   Laura%Castelo Corral%NULL%1,   María%Rodríguez Mahía%NULL%1,   Mónica%González Bardanca%NULL%1,   Efrén%Sánchez Vidal%NULL%1,   Enrique%Míguez Rey%NULL%1,   Javier%De la Torre Lima%NULL%3,   Javier%De la Torre Lima%NULL%0,   Javier%De la Torre Lima%NULL%0,   José Mª%García de Lomas Guerrero%NULL%1,   Elena%Morte%NULL%3,   Elena%Morte%NULL%0,   Elena%Morte%NULL%0,   Silvia%Loscos%NULL%1,   Ana%Camón%NULL%1,   Lucía%Gómez García%NULL%3,   Lucía%Gómez García%NULL%0,   Lucía%Gómez García%NULL%0,   Lucia%Boix Palop%NULL%1,   Beatriz%Dietl Gómez-Luengo%NULL%1,   Iris%Pedrola Gorrea%NULL%3,   Iris%Pedrola Gorrea%NULL%0,   Iris%Pedrola Gorrea%NULL%0,   Amparo%Blasco Claramunt%NULL%1,   Cristina%López Mestanza%NULL%3,   Cristina%López Mestanza%NULL%0,   Cristina%López Mestanza%NULL%0,   Esther%Fraile Villarejo%NULL%1,   Tomás%Tosco Núñez%NULL%3,   Tomás%Tosco Núñez%NULL%0,   Tomás%Tosco Núñez%NULL%0,   María%Aroca Ferri%NULL%1,   José Tomas%Algado Rabasa%NULL%3,   José Tomas%Algado Rabasa%NULL%0,   José Tomas%Algado Rabasa%NULL%0,   Ana María%Garijo Saiz%NULL%1,   Concepción%Amador Prous%NULL%1,   Jesús Rodriguez%Baño%NULL%3,   Jesús Rodriguez%Baño%NULL%0,   Jesús Rodriguez%Baño%NULL%0,   Pilar%Retamar%NULL%1,   Adoración%Valiente%NULL%1,   Luis E.%López-Cortés%NULL%1,   Jesús%Sojo%NULL%1,   Belén%Gutiérrez-Gutiérrez%NULL%1,   José%Bravo-Ferrer%NULL%1,   Elena%Salamanca%NULL%1,   Zaira R.%Palacios%NULL%1,   Patricia%Pérez-Palacios%NULL%1,   Enrique%Peral%NULL%1,   José Antonio%Pérez de León%NULL%1,   Jesús%Sánchez-Gómez%NULL%1,   Lucía%Marín-Barrera%NULL%1,   Domingo%García-Jiménez%NULL%1,   Jordi%Carratalà%NULL%0,   Jordi%Carratalà%NULL%0,   Jordi%Carratalà%NULL%0,   Gabriela%Abelenda-Alonso%NULL%1,   Carmen%Ardanuy%NULL%1,   Alba%Bergas%NULL%1,   Guillermo%Cuervo%NULL%1,   María Ángeles%Domínguez%NULL%1,   Miguel%Fernández-Huerta%NULL%1,   Carlota%Gudiol%NULL%1,   Laia%Lorenzo-Esteller%NULL%1,   Jordi%Niubó%NULL%1,   Sandra%Pérez-Recio%NULL%1,   Daniel%Podzamczer%NULL%1,   Miquel%Pujol%NULL%1,   Alexander%Rombauts%NULL%1,   Núria%Trullen%NULL%1,   Miguel%Salavert Lletí%NULL%3,   Miguel%Salavert Lletí%NULL%0,   Miguel%Salavert Lletí%NULL%0,   Iván%Castro Hernández%NULL%1,   Adriana%Hernández Belmonte%NULL%3,   Adriana%Hernández Belmonte%NULL%0,   Adriana%Hernández Belmonte%NULL%0,   Raquel%Martínez Goñi%NULL%1,   Marta%Navarro Vilasaró%NULL%3,   Marta%Navarro Vilasaró%NULL%0,   Marta%Navarro Vilasaró%NULL%0,   Sonia%Calzado Isbert%NULL%1,   Manuel%Cervantes García%NULL%1,   Aina%Gomila Grange%NULL%1,   Oriol%Gasch Blasi%NULL%1,   María Luisa%Machado Sicilia%NULL%1,   Eva%Van den Eynde Otero%NULL%1,   Luis%Falgueras López%NULL%1,   María del Carmen%Navarro Sáez%NULL%1,   Esteban%Martínez%NULL%3,   Esteban%Martínez%NULL%0,   Esteban%Martínez%NULL%0,   Mª Ángeles%Marcos%NULL%1,   Mar%Mosquera%NULL%1,   José Luis%Blanco%NULL%1,   Montserrat%Laguno%NULL%1,   Jhon%Rojas%NULL%1,   Ana%González-Cordón%NULL%1,   Alexy%Inciarte%NULL%1,   Berta%Torres%NULL%1,   Lorena%De la Mora%NULL%1,   Alex%Soriano%NULL%0,   Olalla%Martínez Macias%NULL%3,   Olalla%Martínez Macias%NULL%0,   Olalla%Martínez Macias%NULL%0,   Virginia%Pérez Doñate%NULL%1,   Alfonso%Cabello Úbeda%NULL%3,   Alfonso%Cabello Úbeda%NULL%0,   Alfonso%Cabello Úbeda%NULL%0,   Nerea%Carrasco Antón%NULL%1,   Beatriz%Álvarez Álvarez%NULL%1,   Elizabet%Petkova Saiz%NULL%1,   Miguel%Górgolas Hernández-Mora%NULL%1,   Laura%Prieto Pérez%NULL%1,   Irene%Carrillo Acosta%NULL%1,   Sara%Heili Frades%NULL%1,   Felipe%Villar Álvarez%NULL%1,   Ricardo%Fernández Roblas%NULL%1,   José María%Milicua Muñoz%NULL%1,   Virginia%Fernández Espinilla%NULL%3,   Virginia%Fernández Espinilla%NULL%0,   Virginia%Fernández Espinilla%NULL%0,   Carlos Jesús%Dueñas Gutiérrez%NULL%1,   Cristina%Hernán García%NULL%1,   Fernando%González-Romo%NULL%3,   Fernando%González-Romo%NULL%0,   Fernando%González-Romo%NULL%0,   Paloma%Merino Amador%NULL%1,   Alba%Rueda López%NULL%1,   Jorge%Martínez Jordán%NULL%1,   Sara%Medrano Pardo%NULL%1,   Irene%Díaz de la Torre%NULL%1,   Yolanda%Posada Franco%NULL%1,   Alberto%Delgado-Iribarren%NULL%1,   Joaquín%López-Contreras González%NULL%3,   Joaquín%López-Contreras González%NULL%0,   Joaquín%López-Contreras González%NULL%0,   Pablo%Pascual Alonso%NULL%1,   Virginia%Pomar Solchaga%NULL%1,   Nuria%Rabella García%NULL%1,   Natividad%Benito Hernández%NULL%1,   Pere%Domingo Pedrol%NULL%1,   Xavier%Bonfill Cosp%NULL%1,   Rafael%Padrós Selma%NULL%1,   Mireia%Puig Campmany%NULL%1,   Jordi%Mancebo Cortés%NULL%1,   Mercè%Gurguí Ferrer%NULL%1,   Melania%Íñigo Pestaña%NULL%3,   Melania%Íñigo Pestaña%NULL%0,   Melania%Íñigo Pestaña%NULL%0,   Alejandra%Pérez García%NULL%1,   Patricia%Sorní Moreno%NULL%3,   Patricia%Sorní Moreno%NULL%0,   Patricia%Sorní Moreno%NULL%0,   Nora%Izko Gartzia%NULL%1,   Francisco Javier%Membrillo de Novales%NULL%3,   Francisco Javier%Membrillo de Novales%NULL%0,   Francisco Javier%Membrillo de Novales%NULL%0,   María%Simón Sacristán%NULL%1,   Maribel%Zamora Cintas%NULL%1,   Yolanda%Martínez Martínez%NULL%1,   Pablo%Fernández-González%NULL%1,   Francisco%Alcántara Nicolás%NULL%1,   Alejandro%Aguirre Vila-Cora%NULL%1,   Elena%López Tizón%NULL%1,   Germán%Ramírez-Olivencia%NULL%1,   Miriam%Estébanez Muñoz%NULL%1,   Ester%Sáez de Adana Arróniz%NULL%3,   Ester%Sáez de Adana Arróniz%NULL%0,   Ester%Sáez de Adana Arróniz%NULL%0,   Joseba%Portu Zapirain%NULL%1,   Juan Carlos%Gainzarain Arana%NULL%1,   Zuriñe%Ortiz de Zárate Ibarra%NULL%1,   Miguel Ángel%Moran Rodríguez%NULL%1,   Andrés%Canut Blasco%NULL%1,   Silvia%Hernáez Crespo%NULL%1,   Leire%Balerdi Sarasola%NULL%1,   Cristina%Morales García%NULL%1,   Miguel%Corral Saracho%NULL%1,   Zeltia%Valcarce González%NULL%1,   Noelia%Arenal Andrés%NULL%3,   Noelia%Arenal Andrés%NULL%0,   Noelia%Arenal Andrés%NULL%0,   Raquel Elisa%Rodríguez Tarazona%NULL%1,   Laura%Iglesias Llorente%NULL%3,   Laura%Iglesias Llorente%NULL%0,   Laura%Iglesias Llorente%NULL%0,   Beatriz%Loureiro Rodríguez%NULL%1,   Adrián%Sánchez Montalvá%NULL%3,   Adrián%Sánchez Montalvá%NULL%0,   Adrián%Sánchez Montalvá%NULL%0,   Juan%Espinosa Pereiro%NULL%1,   Benito%Almirante%NULL%0,   Marta%Miarons%NULL%1,   Júlia%Sellarés%NULL%1,   María%Larrosa%NULL%1,   Sonia%García%NULL%1,   Blanca%Marzo%NULL%1,   Miguel%Villamarín%NULL%1,   Nuria%Fernández%NULL%1,   Conchita%Pérez-Jorge Peremarch%NULL%3,   Conchita%Pérez-Jorge Peremarch%NULL%0,   Conchita%Pérez-Jorge Peremarch%NULL%0,   Elena%Resino Foz%NULL%1,   Andrea%Espigares Correa%NULL%1,   Teresa%Álvarez de Espejo Montiel%NULL%1,   Iván%Navas Clemente%NULL%1,   María Isabel%Quijano Contreras%NULL%1,   Luis Alberto%Nieto Fernández del Campo%NULL%1,   Guillermo%Jiménez Álvarez%NULL%1,   Mercedes%Guillamón Sánchez%NULL%3,   Mercedes%Guillamón Sánchez%NULL%0,   Mercedes%Guillamón Sánchez%NULL%0,   Josefina%García García%NULL%1,   Constanza%Muñoz Hornero%NULL%3,   Constanza%Muñoz Hornero%NULL%0,   Constanza%Muñoz Hornero%NULL%0,   Ana%Mariño Callejo%NULL%3,   Ana%Mariño Callejo%NULL%0,   Ana%Mariño Callejo%NULL%0,   Nieves%Valcarce Pardeiro%NULL%1,   Alex%Smithson Amat%NULL%3,   Alex%Smithson Amat%NULL%0,   Alex%Smithson Amat%NULL%0,   Cristina%Chico Chumillas%NULL%1,   Adriana%Sánchez Serrano%NULL%3,   Adriana%Sánchez Serrano%NULL%0,   Adriana%Sánchez Serrano%NULL%0,   Eva Pilar%García Villalba%NULL%1,   Isabel%Jiménez Martínez%NULL%3,   Isabel%Jiménez Martínez%NULL%0,   Isabel%Jiménez Martínez%NULL%0,   Guillermo%Estrada Fernández%NULL%1,   María%Lorén Vargas%NULL%1,   Nuria%Parra Arribas%NULL%1,   Carmen%Martínez Cilleros%NULL%1,   Aránzazu%Villasante de la Puente%NULL%1,   Teresa%García Delange%NULL%1,   María José%Ruiz Rodríguez%NULL%1,   Marta%Robledo del Prado%NULL%1,   Juan Carlos%Abad Almendro%NULL%1,   José Román%Muñoz del Rey%NULL%3,   José Román%Muñoz del Rey%NULL%0,   José Román%Muñoz del Rey%NULL%0,   Montaña%Jiménez Álvaro%NULL%1,   Javier%Coy Coy%NULL%3,   Javier%Coy Coy%NULL%0,   Javier%Coy Coy%NULL%0,   Inmaculada%Poquet Catala%NULL%1,   Marta%Santos Peña%NULL%3,   Marta%Santos Peña%NULL%0,   Marta%Santos Peña%NULL%0,   Virginia%Naranjo Velasco%NULL%1,   Tamara%Manso Gómez%NULL%3,   Tamara%Manso Gómez%NULL%0,   Tamara%Manso Gómez%NULL%0,   Delia%Quilez Ágreda%NULL%1,   Gema%Barbeito Castiñeiras%NULL%3,   Gema%Barbeito Castiñeiras%NULL%0,   Gema%Barbeito Castiñeiras%NULL%0,   María Jesús%Domínguez Santalla%NULL%1,   Laura%Mao Martín%NULL%3,   Laura%Mao Martín%NULL%0,   Laura%Mao Martín%NULL%0,   Rodrigo%Alonso Navarro%NULL%1,   Jose David%Ampuero Martinich%NULL%1,   Raquel%Barrós González%NULL%1,   María Aránzazu%Galindo Martín%NULL%1,   Lourdes%Herrera Pacheco%NULL%1,   Rocío%Martínez Avilés%NULL%1,   Sara%Rodrigo González%NULL%1,   Cristóbal Manuel%Rodríguez Leal%NULL%1,   Eva María%Romay Lema%NULL%3,   Eva María%Romay Lema%NULL%0,   Eva María%Romay Lema%NULL%0,   Roi%Suárez Gil%NULL%1,   Maialen%Ibarguren Pinilla%NULL%3,   Maialen%Ibarguren Pinilla%NULL%0,   Maialen%Ibarguren Pinilla%NULL%0,   José María%Marimón Ortiz de Zárate%NULL%1,   Loreto%Vidaur Tello%NULL%1,   Xabier%Kortajarena Urkola%NULL%1,   Miriam%García Gómez%NULL%3,   Miriam%García Gómez%NULL%0,   Miriam%García Gómez%NULL%0,   Asier%Aranguren Arostegui%NULL%1,   Maria%Álvarez de Castro%NULL%3,   Maria%Álvarez de Castro%NULL%0,   Maria%Álvarez de Castro%NULL%0,   Cintia María%Martínez Mateu%NULL%1,   Francisco%Rodríguez Gómez%NULL%3,   Francisco%Rodríguez Gómez%NULL%0,   Francisco%Rodríguez Gómez%NULL%0,   Francisco%Muñoz Beamud%NULL%1,   Elena%Chamarro Martí%NULL%3,   Elena%Chamarro Martí%NULL%0,   Elena%Chamarro Martí%NULL%0,   Merce%Cardona Rivera%NULL%1,   Ismail%Zakariya-Yousef Breval%NULL%3,   Ismail%Zakariya-Yousef Breval%NULL%0,   Ismail%Zakariya-Yousef Breval%NULL%0,   Marta%Rico Rodríguez%NULL%1,   Jara%Llenas García%NULL%3,   Jara%Llenas García%NULL%0,   Jara%Llenas García%NULL%0,   Mª Carmen%Sánchez Arenas%NULL%1,   Ana%Fernández Cruz%NULL%3,   Ana%Fernández Cruz%NULL%0,   Ana%Fernández Cruz%NULL%0,   Jorge%Calderón Parra%NULL%1,   Marcos%López Dosil%NULL%1,   Antonio%Ramos Martínez%NULL%1,   Elena%Múñez Rubio%NULL%1,   Alejandro%Callejas Díaz%NULL%1,   José Manuel%Vázquez Comendador%NULL%1,   Itziar%Diego Yagüe%NULL%1,   Esther%Expósito Palomo%NULL%1,   Jorge%Anel Pedroche%NULL%1,   Raquel%Álvarez Franco%NULL%3,   Raquel%Álvarez Franco%NULL%0,   Raquel%Álvarez Franco%NULL%0,   Lucía%Fernández de Orueta%NULL%1,   Roberto%Vates Gómez%NULL%1,   Andrés Felipe%Cardona Arias%NULL%1,   Pablo%Marguenda Contreras%NULL%1,   Gabriel%Gaspar Alonso-Vega%NULL%1,   Elena María%Aranda Rife%NULL%1,   Blanca%Martínez Cifre%NULL%1,   Daniel%Roger Zapata%NULL%1,   Irene%Martín Rubio%NULL%1,   André%Barbosa Ventura%NULL%3,   André%Barbosa Ventura%NULL%0,   André%Barbosa Ventura%NULL%0,   Iván%Piñero%NULL%1,   Alberto%Bahamonde Carrasco%NULL%3,   Alberto%Bahamonde Carrasco%NULL%0,   Alberto%Bahamonde Carrasco%NULL%0,   Paula%Runza Buznego%NULL%1,   Eva%Talavera García%NULL%3,   Eva%Talavera García%NULL%0,   Eva%Talavera García%NULL%0,   Marta%Lamata Subero%NULL%1,   Ainhoa%Urrutia Losada%NULL%3,   Ainhoa%Urrutia Losada%NULL%0,   Ainhoa%Urrutia Losada%NULL%0,   Lorea%Arteche Eguizabal%NULL%1,   Elisabet%Delgado Sánchez%NULL%3,   Elisabet%Delgado Sánchez%NULL%0,   Elisabet%Delgado Sánchez%NULL%0,   Virginia%Molina Peinado%NULL%1,   Sarah%Caro Bragado%NULL%3,   Sarah%Caro Bragado%NULL%0,   Sarah%Caro Bragado%NULL%0,   Gema%Domínguez de Pablos%NULL%1,   Carolina%Roldán Fontana%NULL%3,   Carolina%Roldán Fontana%NULL%0,   Carolina%Roldán Fontana%NULL%0,   Carmen%Herrero Rodríguez%NULL%1,   Luis%Force Sanmartín%NULL%3,   Luis%Force Sanmartín%NULL%0,   Luis%Force Sanmartín%NULL%0,   Raquel%Aranega%NULL%1,   Arantzazu%Mera Fidalgo%NULL%3,   Arantzazu%Mera Fidalgo%NULL%0,   Arantzazu%Mera Fidalgo%NULL%0,   María Roca%Toda Savall%NULL%1,   Nicolas%Merchante Gutiérrez%NULL%3,   Nicolas%Merchante Gutiérrez%NULL%0,   Nicolas%Merchante Gutiérrez%NULL%0,   Eva María%León Jiménez%NULL%1,   José Luís%Del Pozo%NULL%3,   José Luís%Del Pozo%NULL%0,   José Luís%Del Pozo%NULL%0,   Josefa%Serralta Buades%NULL%3,   Josefa%Serralta Buades%NULL%0,   Josefa%Serralta Buades%NULL%0,   Ginger Giorgiana%Cabrera Tejada%NULL%1,   Mario%Fernández-Ruiz%NULL%3,   Mario%Fernández-Ruiz%NULL%0,   Mario%Fernández-Ruiz%NULL%0,   José María%Aguado%NULL%1,   Guillermo%Maestro de la Calle%NULL%1,   José Miguel%Cisneros%NULL%3,   José Miguel%Cisneros%NULL%0,   José Miguel%Cisneros%NULL%0,   Jerónimo%Pachón%NULL%0,   Manuela%Aguilar-Guisado%NULL%1,   Teresa%Aldabó%NULL%1,   María Dolores%Avilés%NULL%1,   Claudio%Bueno%NULL%1,   Elisa%Cordero-Matía%NULL%1,   Ana%Escoresca%NULL%1,   Lydia%Gálvez-Benítez%NULL%1,   Carmen%Infante%NULL%1,   Guillermo%Martín%NULL%1,   Julia%Praena%NULL%1,   Cristina%Roca%NULL%1,   Celia%Salamanca%NULL%1,   Alejandro%Suárez-Benjumea%NULL%1,   Pilar%Vizcarra%NULL%3,   Pilar%Vizcarra%NULL%0,   Pilar%Vizcarra%NULL%0,   Carmen%Quereda%NULL%1,   Mario José%Rodriguez Dominguez%NULL%1,   Francesca%Gioia%NULL%1,   Francesca%Norman%NULL%1,   Santos%Del Campo%NULL%1,   Rafael%Cantón Moreno%NULL%1,   Antonio%Oteo Revuelta José%NULL%3,   Antonio%Oteo Revuelta José%NULL%0,   Antonio%Oteo Revuelta José%NULL%0,   Paula%Santibáñez Sáenz%NULL%1,   Cristina%Cervera Acedo%NULL%1,   Carlos%Ruiz Martínez%NULL%1,   José R.%Blanco Ramos%NULL%1,   José M.%Azcona Gutiérrez%NULL%1,   Concepción%García García%NULL%1,   Jorge%Alba Fernández%NULL%1,   Valvanera%Ibarra Cucalón%NULL%1,   Mercedes%San Franco%NULL%1,   Luis%Metola Sacristán%NULL%1,   Héctor%Meijide Míguez%NULL%3,   Héctor%Meijide Míguez%NULL%0,   Héctor%Meijide Míguez%NULL%0,   Silvia%Paulos Viñas%NULL%1,   Justo%Menéndez%NULL%3,   Justo%Menéndez%NULL%0,   Justo%Menéndez%NULL%0,   Paula%Villares Fernández%NULL%1,   Lara%Montes Andújar%NULL%1,   Álvaro%Navarro Batet%NULL%3,   Álvaro%Navarro Batet%NULL%0,   Álvaro%Navarro Batet%NULL%0,   Anna%Ferrer Santolaria%NULL%1,   María de la Luz%Padilla Salazar%NULL%3,   María de la Luz%Padilla Salazar%NULL%0,   María de la Luz%Padilla Salazar%NULL%0,   Lucy%Abella Vázquez%NULL%1,   Marcelino%Hayek Peraza%NULL%1,   Antonio%García Pardo%NULL%1,   Carolina%Hernández Carballo%NULL%1,   Andrés Javier%Ruiz Fernández%NULL%3,   Andrés Javier%Ruiz Fernández%NULL%0,   Andrés Javier%Ruiz Fernández%NULL%0,   Isabel%Barrio López%NULL%1,   Alí%Martakoush%NULL%3,   Alí%Martakoush%NULL%0,   Alí%Martakoush%NULL%0,   Agustín%Rojas-Vieyra%NULL%3,   Agustín%Rojas-Vieyra%NULL%0,   Agustín%Rojas-Vieyra%NULL%0,   Sonia%García Calvo%NULL%3,   Sonia%García Calvo%NULL%0,   Sonia%García Calvo%NULL%0,   Mercedes%Villarreal García-Lomas%NULL%1,   Marta%Vizcaíno Callejón%NULL%3,   Marta%Vizcaíno Callejón%NULL%0,   Marta%Vizcaíno Callejón%NULL%0,   María Pilar%García García%NULL%1,   Ana%Lérida Urteaga%NULL%3,   Ana%Lérida Urteaga%NULL%0,   Ana%Lérida Urteaga%NULL%0,   Natalia%Carrasco Fons%NULL%1,   Beatriz%María Sanjuan%NULL%1,   Lydia%Martín González%NULL%1,   Camilo%Sanz Zamudio%NULL%1,   Inmaculada%Jarrín%NULL%0,   Inmaculada%Jarrín%NULL%0,   Inmaculada%Jarrín%NULL%0,   Belén%Alejos%NULL%1,   Cristina%Moreno%NULL%1,   Marta%Rava%NULL%1,   Carlos%Iniesta%NULL%1,   Rebeca%Izquierdo%NULL%1,   Inés%Suárez-García%NULL%1,   Asunción%Díaz%NULL%1,   Marta%Ruiz-Alguero%NULL%1,   Victoria%Hernando%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,   Denise J%McCulloch%NULL%4,   Denise J%McCulloch%NULL%0,   Vidya%Atluri%NULL%2,   Michela%Blain%NULL%2,   Sarah A%McGuffin%NULL%2,   Arun K%Nalla%NULL%2,   Meei-Li%Huang%NULL%2,   Alex L%Greninger%NULL%2,   Keith R%Jerome%NULL%2,   Seth A%Cohen%NULL%2,   Santiago%Neme%NULL%0,   Margaret L%Green%NULL%2,   Helen Y%Chu%NULL%2,   H Nina%Kim%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,   Wenlin%Cheng%NULL%0,   Lei%Yu%NULL%0,   Ya-Kun%Liu%NULL%0,   Xiaoyong%Hu%NULL%0,   Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,   Alberto%Zucchelli%NULL%1,   Marinella%Turla%NULL%1,   Maria Sofia%Cotelli%NULL%1,   Sara%Fascendini%NULL%1,   Mara%Zanni%NULL%1,   Angelo%Bianchetti%NULL%1,   Matteo Peli%Psy%NULL%1,   Renzo%Rozzini%NULL%1,   Stefano%Boffelli%NULL%1,   Melania%Cappuccio%NULL%1,   Federica Gottardi%Psy%NULL%1,   Chiara Vecchi%Psy%NULL%1,   Daniele%Bellandi%NULL%1,   Claudia%Caminati%NULL%1,   Simona%Gentile%NULL%1,   Elena Lucchi%Psy%NULL%1,   Ignazio%Di Fazio%NULL%1,   Marina Zanetti%Psy%NULL%1,   Giuliana%Vezzadini%NULL%1,   Chiara Forlani%Psy%NULL%1,   Maura Cosseddu%Psy%NULL%1,   Rosanna Turrone%Psy%NULL%1,   Silvia Pelizzari%Psy%NULL%1,   Andrea%Scalvini%NULL%1,   Marco%Di Cesare%NULL%1,   Marta Grigolo%Psy%NULL%1,   Lina%Falanga%NULL%1,   Nives%Medici%NULL%1,   Nives%Palamini%NULL%1,   Elisa Zanacchi%Psy%NULL%1,   Eleonora Grossi%Psy%NULL%1,   Giuseppe%Bellelli%NULL%1,   Alessandra%Marengoni%NULL%1,   Marco%Trabucchi%NULL%1,   Alessandro%Padovani%alessandro.padovani@unibs.it%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
     <t>_PMC_Springer</t>
   </si>
   <si>
-    <t>[NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0,   Nancy%Chow%NULL%0,   Katherine%Fleming-Dutra%NULL%2,   Ryan%Gierke%NULL%0,   Aron%Hall%NULL%0,   Michelle%Hughes%NULL%2,   Tamara%Pilishvili%NULL%0,   Matthew%Ritchey%NULL%0,   Katherine%Roguski%NULL%2,   Tami%Skoff%NULL%2,   Emily%Ussery%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,   Zhencang%Zheng%NULL%1,   Chao%Zhang%NULL%0,   Xijiang%Zhang%NULL%1,   Huijuan%Wu%NULL%1,   Jingdong%Wang%NULL%1,   Shuwei%Wang%NULL%1,   Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,   Wei%Liu%NULL%0,   Kui%Liu%NULL%0,   Yuan-Yuan%Fang%NULL%0,   Jin%Shang%NULL%0,   Ling%Zhou%NULL%0,   Ke%Wang%NULL%0,   Fan%Leng%NULL%0,   Shuang%Wei%NULL%0,   Lei%Chen%NULL%0,   Hui-Guo%Liu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nathalie%Nicolay%NULL%1,   Francesco%Innocenti%NULL%1,   Julien%Beauté%NULL%1,   Veronika%Učakar%NULL%1,   Marta%Grgič Vitek%NULL%1,   Eero%Poukka%NULL%1,   Tuula%Hannila-Handelberg%NULL%1,   Charmaine%Gauci%NULL%1,   Tanya%Melillo%NULL%1,   Theano%Georgakopoulou%NULL%1,   Jiri%Jarkovsky%NULL%1,   Pavel%Slezak%NULL%1,   Concepción%Delgado-Sanz%NULL%1,   Carmen%Olmedo-Lucerón%NULL%1,   Heleene%Suija%NULL%1,   Rasa%Liausediene%NULL%1,   Piaras%O’Lorcain%NULL%1,   Niamh%Murphy%NULL%1,   André%Peralta-Santos%NULL%1,   Pedro%Casaca%NULL%1,   Ioanna%Gregoriou%NULL%1,   Nick%Bundle%NULL%1,   Gianfranco%Spiteri%NULL%1,   Giovanni%Ravasi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Feng%NULL%2,   Peiyun%Li%NULL%1,   Liang%Ma%NULL%1,   Hang%Liang%NULL%1,   Jie%Lei%NULL%1,   Wenqiang%Li%NULL%1,   Kun%Wang%NULL%0,   Yu%Song%NULL%1,   Shuai%Li%NULL%1,   Wei%Yang%NULL%1,   Cao%Yang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yun%Feng%NULL%0,   Yun%Ling%NULL%0,   Yun%Ling%NULL%0,   Tao%Bai%NULL%0,   Tao%Bai%NULL%0,   Yusang%Xie%NULL%0,   Jie%Huang%NULL%0,   Jie%Huang%NULL%0,   Jian%Li%NULL%0,   Weining%Xiong%NULL%0,   Dexiang%Yang%NULL%0,   Rong%Chen%NULL%0,   Fangying%Lu%NULL%0,   Yunfei%Lu%NULL%0,   Xuhui%Liu%NULL%0,   Yuqing%Chen%NULL%0,   Yuqing%Chen%NULL%0,   Xin%Li%NULL%0,   Yong%Li%NULL%0,   Hanssa Dwarka%Summah%NULL%0,   Huihuang%Lin%NULL%0,   Jiayang%Yan%NULL%0,   Min%Zhou%NULL%0,   Hongzhou%Lu%NULL%0,   Hongzhou%Lu%NULL%0,   Jieming%Qu%NULL%0,   Jieming%Qu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Paolo%Giorgi Rossi%NULL%0,   Massimiliano%Marino%NULL%0,   Debora%Formisano%NULL%0,   Francesco%Venturelli%NULL%0,   Massimo%Vicentini%NULL%0,   Massimo%Vicentini%NULL%0,   Roberto%Grilli%NULL%0,   NULL%NULL%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0,   Gianluigi%Forloni%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,   Justin J.%Choi%NULL%3,   Laura C.%Pinheiro%NULL%3,   Edward J.%Schenck%NULL%3,   Ruijun%Chen%NULL%0,   Assem%Jabri%NULL%3,   Michael J.%Satlin%NULL%3,   Thomas R.%Campion%NULL%3,   Musarrat%Nahid%NULL%3,   Joanna B.%Ringel%NULL%3,   Katherine L.%Hoffman%NULL%3,   Mark N.%Alshak%NULL%3,   Han A.%Li%NULL%3,   Graham T.%Wehmeyer%NULL%6,   Graham T.%Wehmeyer%NULL%0,   Mangala%Rajan%NULL%3,   Evgeniya%Reshetnyak%NULL%3,   Nathaniel%Hupert%NULL%3,   Evelyn M.%Horn%NULL%3,   Fernando J.%Martinez%NULL%3,   Roy M.%Gulick%NULL%3,   Monika M.%Safford%NULL%6,   Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jonathan%Grein%NULL%1,   Norio%Ohmagari%NULL%0,   Daniel%Shin%NULL%1,   George%Diaz%NULL%0,   Erika%Asperges%NULL%1,   Antonella%Castagna%NULL%2,   Torsten%Feldt%NULL%1,   Gary%Green%NULL%1,   Margaret L.%Green%NULL%1,   François-Xavier%Lescure%NULL%3,   Emanuele%Nicastri%NULL%1,   Rentaro%Oda%NULL%2,   Rentaro%Oda%NULL%0,   Kikuo%Yo%NULL%2,   Kikuo%Yo%NULL%0,   Eugenia%Quiros-Roldan%NULL%1,   Alex%Studemeister%NULL%1,   John%Redinski%NULL%1,   Seema%Ahmed%NULL%1,   Jorge%Bernett%NULL%1,   Daniel%Chelliah%NULL%1,   Danny%Chen%NULL%1,   Shingo%Chihara%NULL%1,   Stuart H.%Cohen%NULL%1,   Jennifer%Cunningham%NULL%1,   Antonella%D’Arminio Monforte%NULL%1,   Saad%Ismail%NULL%1,   Hideaki%Kato%NULL%1,   Giuseppe%Lapadula%NULL%1,   Erwan%L’Her%NULL%1,   Toshitaka%Maeno%NULL%1,   Sumit%Majumder%NULL%1,   Marco%Massari%NULL%1,   Marta%Mora-Rillo%NULL%1,   Yoshikazu%Mutoh%NULL%1,   Duc%Nguyen%NULL%1,   Ewa%Verweij%NULL%1,   Alexander%Zoufaly%NULL%1,   Anu O.%Osinusi%NULL%1,   Adam%DeZure%NULL%1,   Yang%Zhao%NULL%1,   Lijie%Zhong%NULL%1,   Anand%Chokkalingam%NULL%1,   Emon%Elboudwarej%NULL%1,   Laura%Telep%NULL%1,   Leighann%Timbs%NULL%1,   Ilana%Henne%NULL%1,   Scott%Sellers%NULL%1,   Huyen%Cao%NULL%1,   Susanna K.%Tan%NULL%1,   Lucinda%Winterbourne%NULL%1,   Polly%Desai%NULL%1,   Robertino%Mera%NULL%1,   Anuj%Gaggar%NULL%1,   Robert P.%Myers%NULL%1,   Diana M.%Brainard%NULL%1,   Richard%Childs%NULL%1,   Timothy%Flanigan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,   Zheng-yi%Ni%NULL%0,   Zheng-yi%Ni%NULL%0,   Yu%Hu%NULL%0,   Wen-hua%Liang%NULL%0,   Chun-quan%Ou%NULL%0,   Jian-xing%He%NULL%0,   Lei%Liu%NULL%0,   Hong%Shan%NULL%0,   Chun-liang%Lei%NULL%0,   David S.C.%Hui%NULL%0,   Bin%Du%NULL%0,   Lan-juan%Li%NULL%0,   Guang%Zeng%NULL%0,   Kwok-Yung%Yuen%NULL%0,   Ru-chong%Chen%NULL%0,   Chun-li%Tang%NULL%0,   Tao%Wang%NULL%0,   Ping-yan%Chen%NULL%0,   Jie%Xiang%NULL%0,   Shi-yue%Li%NULL%0,   Jin-lin%Wang%NULL%0,   Zi-jing%Liang%NULL%0,   Yi-xiang%Peng%NULL%0,   Li%Wei%NULL%0,   Yong%Liu%NULL%0,   Ya-hua%Hu%NULL%0,   Peng%Peng%NULL%0,   Jian-ming%Wang%NULL%0,   Ji-yang%Liu%NULL%0,   Zhong%Chen%NULL%0,   Gang%Li%NULL%0,   Zhi-jian%Zheng%NULL%0,   Shao-qin%Qiu%NULL%0,   Jie%Luo%NULL%0,   Chang-jiang%Ye%NULL%0,   Shao-yong%Zhu%NULL%0,   Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Admon%Andrew J.%coreGivesNoEmail%1,  Arunthamakun%Justin%coreGivesNoEmail%1,  Athavale%Ambarish M.%coreGivesNoEmail%1,  Bansal%Anip%coreGivesNoEmail%1,  Brenner%Samantha K.%coreGivesNoEmail%1,  Chan%Lili%coreGivesNoEmail%1,  Donnelly%John P.%coreGivesNoEmail%1,  Friedman%Allon N.%coreGivesNoEmail%1,  Gershengorn%Hayley B.%coreGivesNoEmail%1,  Goyal%Nitender%coreGivesNoEmail%1,  Green%Adam%coreGivesNoEmail%1,  Gupta%Shruti%coreGivesNoEmail%1,  Hayek%Salim S.%coreGivesNoEmail%1,  Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,  Kibbelaar%Zoe A.%coreGivesNoEmail%1,  Leaf%David E.%coreGivesNoEmail%1,  Leonberg-Yoo%Amanda%coreGivesNoEmail%1,  Mathews%Kusum S.%coreGivesNoEmail%1,  Melamed%Michal L.%coreGivesNoEmail%1,  Omar%Samah Abu%coreGivesNoEmail%1,  Parikh%Chirag R.%coreGivesNoEmail%1,  Radbel%Jared%coreGivesNoEmail%1,  Reiser%Jochen%coreGivesNoEmail%1,  Schenck%Edward J.%coreGivesNoEmail%1,  Semler%Matthew W.%coreGivesNoEmail%1,  Shaefi%Shahzad%coreGivesNoEmail%1,  Shehata%Alexandre M.%coreGivesNoEmail%1,  Short%Samuel A. P.%coreGivesNoEmail%1,  Srivastava%Anand%coreGivesNoEmail%1,  Sutherland%Anne%coreGivesNoEmail%1,  Velez%Juan Carlos Q.%coreGivesNoEmail%1,  Vijayan%Anitha%coreGivesNoEmail%1,  Wang%Wei%coreGivesNoEmail%1,  Zhou%Yan%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Rahmet%GÜNER%NULL%1,   İmran%HASANOĞLU%NULL%2,   İmran%HASANOĞLU%NULL%0,   Bircan%KAYAASLAN%NULL%2,   Bircan%KAYAASLAN%NULL%0,   Adalet%AYPAK%NULL%2,   Adalet%AYPAK%NULL%0,   Ayşe%KAYA KALEM%NULL%2,   Ayşe%KAYA KALEM%NULL%0,   Fatma%ESER%NULL%2,   Fatma%ESER%NULL%0,   Burcu%ÖZDEMİR%NULL%2,   Burcu%ÖZDEMİR%NULL%0,   Elif Mükime%SARICAOĞLU%NULL%2,   Elif Mükime%SARICAOĞLU%NULL%0,   Müge%AYHAN%NULL%2,   Müge%AYHAN%NULL%0,   Yeşim%AYBAR BİLİR%NULL%2,   Yeşim%AYBAR BİLİR%NULL%0,   Işıl%ÖZKOÇAK TURAN%NULL%2,   Işıl%ÖZKOÇAK TURAN%NULL%0,   Deniz%ERDEM%NULL%2,   Deniz%ERDEM%NULL%0,   Nevzat Mehmet%MUTLU%NULL%1,   Turan%BUZGAN%NULL%2,   Turan%BUZGAN%NULL%0,   Bedia%DİNÇ%NULL%2,   Bedia%DİNÇ%NULL%0,   Esragül%AKINCI%NULL%2,   Esragül%AKINCI%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Stephanie L.%Harrison%NULL%1,   Elnara%Fazio-Eynullayeva%NULL%2,   Elnara%Fazio-Eynullayeva%NULL%0,   Deirdre A.%Lane%NULL%2,   Deirdre A.%Lane%NULL%0,   Paula%Underhill%NULL%2,   Paula%Underhill%NULL%0,   Gregory Y. H.%Lip%NULL%1,   Mirjam E. E.%Kretzschmar%NULL%3,   Mirjam E. E.%Kretzschmar%NULL%0,   Mirjam E. E.%Kretzschmar%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yuanzhou%He%NULL%1,   Min%Xie%NULL%0,   Jianping%Zhao%NULL%0,   Xiansheng%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Ling%Hu%NULL%0,   Shaoqiu%Chen%NULL%1,   Yuanyuan%Fu%NULL%1,   Zitong%Gao%NULL%1,   Hui%Long%NULL%1,   Jian-ming%Wang%NULL%0,   Hong-wei%Ren%NULL%1,   Yi%Zuo%NULL%1,   Huan%Li%NULL%0,   Jie%Wang%NULL%1,   Qing-bang%Xu%NULL%1,   Wen-xiong%Yu%NULL%1,   Jia%Liu%NULL%1,   Chen%Shao%NULL%0,   Jun-jie%Hao%NULL%1,   Chuan-zhen%Wang%NULL%1,   Yao%Ma%NULL%1,   Zhanwei%Wang%NULL%1,   Richard%Yanagihara%NULL%1,   Youping%Deng%dengy@hawaii.edu%1]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,   Yeming%Wang%NULL%0,   Xingwang%Li%NULL%0,   Lili%Ren%NULL%0,   Jianping%Zhao%NULL%0,   Yi%Hu%NULL%0,   Li%Zhang%NULL%0,   Guohui%Fan%NULL%0,   Jiuyang%Xu%NULL%0,   Xiaoying%Gu%NULL%0,   Zhenshun%Cheng%NULL%0,   Ting%Yu%NULL%0,   Jiaan%Xia%NULL%0,   Yuan%Wei%NULL%0,   Wenjuan%Wu%NULL%0,   Xuelei%Xie%NULL%0,   Wen%Yin%NULL%0,   Hui%Li%NULL%0,   Min%Liu%NULL%0,   Yan%Xiao%NULL%0,   Hong%Gao%NULL%0,   Li%Guo%NULL%0,   Jungang%Xie%NULL%0,   Guangfa%Wang%NULL%0,   Rongmeng%Jiang%NULL%0,   Zhancheng%Gao%NULL%0,   Qi%Jin%NULL%0,   Jianwei%Wang%wangjw28@163.com%0,   Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,  Bayani%Masomeh%coreGivesNoEmail%1,  Bijani%Ali%coreGivesNoEmail%1,  Ebrahimpour%Soheil%coreGivesNoEmail%1,  Gholinejad%Hossein Emam%coreGivesNoEmail%1,  Ghorbani%Hossein%coreGivesNoEmail%1,  Hasanpour%Amir Hossein%coreGivesNoEmail%1,  Javanian%Mostafa%coreGivesNoEmail%1,  Masrour-Roudsari%Jila%coreGivesNoEmail%1,  Mehraeen%Rahele%coreGivesNoEmail%1,  Mohseni%Sima%coreGivesNoEmail%1,  Rostami%Ali%coreGivesNoEmail%1,  Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,  Sepidarkish%Mahdi%coreGivesNoEmail%1,  Shabani%Asieh%coreGivesNoEmail%1,  Shahbazi%Mehdi%coreGivesNoEmail%1,  Shokri%Mehran%coreGivesNoEmail%1,  Tabari%Afrooz Monadi%coreGivesNoEmail%1,  Yeganeh%Babak%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Filippo%Lagi%NULL%1,   Matteo%Piccica%NULL%1,   Lucia%Graziani%NULL%1,   Iacopo%Vellere%NULL%1,   Annarita%Botta%NULL%3,   Marta%Tilli%NULL%3,   Letizia%Ottino%NULL%1,   Beatrice%Borchi%NULL%2,   Marco%Pozzi%NULL%1,   Filippo%Bartalesi%NULL%1,   Jessica%Mencarini%NULL%1,   Michele%Spinicci%NULL%1,   Lorenzo%Zammarchi%NULL%1,   Filippo%Pieralli%NULL%1,   Giovanni%Zagli%NULL%1,   Carlo%Nozzoli%NULL%1,   Stefano%Romagnoli%NULL%1,   Alessandro%Bartoloni%NULL%2,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,   Zhao-Wu%Tao%NULL%2,   Lei%Wang%NULL%2,   Ming-Li%Yuan%NULL%0,   Kui%Liu%NULL%0,   Ling%Zhou%NULL%0,   Shuang%Wei%NULL%0,   Yan%Deng%NULL%0,   Jing%Liu%NULL%4,   Hui-Guo%Liu%NULL%0,   Ming%Yang%NULL%3,   Yi%Hu%NULL%0,   Pei-Fang%Wei%NULL%0,   Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaochen%Li%NULL%0,   Shuyun%Xu%NULL%0,   Muqing%Yu%NULL%0,   Ke%Wang%NULL%0,   Yu%Tao%NULL%0,   Ying%Zhou%NULL%0,   Jing%Shi%NULL%0,   Min%Zhou%NULL%0,   Bo%Wu%NULL%0,   Zhenyu%Yang%NULL%0,   Cong%Zhang%NULL%0,   Junqing%Yue%NULL%0,   Zhiguo%Zhang%NULL%0,   Harald%Renz%NULL%0,   Xiansheng%Liu%NULL%0,   Jungang%Xie%NULL%0,   Min%Xie%NULL%0,   Jianping%Zhao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yang-kai%Li%doclyk@163.com%1,   Shu%Peng%NULL%1,   Le-qun%Li%NULL%1,   Qi%Wang%NULL%0,   Wei%Ping%NULL%1,   Ni%Zhang%NULL%1,   Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,   Yuanyuan%Xing%NULL%2,   Yu%Xiao%NULL%2,   Liping%Deng%NULL%0,   Qiu%Zhao%NULL%2,   Hongling%Wang%NULL%2,   Yong%Xiong%NULL%0,   Zhenshun%Cheng%NULL%0,   Shicheng%Gao%NULL%0,   Ke%Liang%NULL%0,   Mingqi%Luo%NULL%0,   Tielong%Chen%NULL%2,   Shihui%Song%NULL%0,   Zhiyong%Ma%NULL%0,   Xiaoping%Chen%NULL%0,   Ruiying%Zheng%NULL%2,   Qian%Cao%NULL%2,   Fan%Wang%fanndywang@foxmail.com%2,   Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,   Nicolas%Lopez-Villalobos%NULL%1,   Francisco E.%Parra-Bracamonte%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ishan%Paranjpe%NULL%2,   Adam J%Russak%NULL%2,   Adam J%Russak%NULL%0,   Jessica K%De Freitas%NULL%0,   Anuradha%Lala%NULL%0,   Riccardo%Miotto%NULL%1,   Akhil%Vaid%NULL%1,   Kipp W%Johnson%NULL%1,   Matteo%Danieletto%NULL%1,   Eddye%Golden%NULL%1,   Dara%Meyer%NULL%1,   Manbir%Singh%NULL%1,   Sulaiman%Somani%NULL%1,   Arjun%Kapoor%NULL%1,   Ross%O'Hagan%NULL%1,   Sayan%Manna%NULL%1,   Udit%Nangia%NULL%1,   Suraj K%Jaladanki%NULL%1,   Paul%O’Reilly%NULL%0,   Paul%O’Reilly%NULL%0,   Laura M%Huckins%NULL%1,   Patricia%Glowe%NULL%1,   Arash%Kia%NULL%0,   Prem%Timsina%NULL%0,   Robert M%Freeman%NULL%1,   Matthew A%Levin%NULL%1,   Jeffrey%Jhang%NULL%0,   Adolfo%Firpo%NULL%1,   Patricia%Kovatch%NULL%0,   Joseph%Finkelstein%NULL%1,   Judith A%Aberg%NULL%1,   Emilia%Bagiella%NULL%0,   Carol R%Horowitz%NULL%1,   Barbara%Murphy%NULL%1,   Zahi A%Fayad%NULL%1,   Jagat%Narula%NULL%1,   Eric J%Nestler%NULL%1,   V%Fuster%NULL%1,   Carlos%Cordon-Cardo%NULL%0,   Dennis%Charney%NULL%0,   David L%Reich%NULL%1,   Allan%Just%NULL%0,   Erwin P%Bottinger%NULL%1,   Alexander W%Charney%NULL%1,   Benjamin S%Glicksberg%NULL%0,   Girish N%Nadkarni%NULL%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ D.%Qi%null%1,    X.% Yan%null%2,    X.% Tang%null%1,    J.% Peng%null%1,    Q.% Yu%null%0,    L.% Feng%null%1,    G.% Yuan%null%1,    A.% Zhang%null%0,    Y.% Chen%null%1,    J.% Yuan%null%1,    X.% Huang%null%1,    X.% Zhang%null%0,    P.% Hu%null%1,    Y.% Song%null%1,    C.% Qian%null%1,    Q.% Sun%null%1,    D.% Wang%null%1,    J.% Tong%null%1,    J. % Xiang%null%1]</t>
-  </si>
-  <si>
     <t>_MedBiorxiv</t>
   </si>
   <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,   Kevin Bryan%Lo%NULL%4,   Kevin Bryan%Lo%NULL%0,   Fahad%Gul%NULL%0,   Eric%Peterson%NULL%2,   Robert%De Joy%NULL%2,   Ruchika%Bhargav%NULL%2,   Jerald%Pelayo%NULL%2,   Jeri%Albano%NULL%2,   Zurab%Azmaiparashvili%NULL%2,   Sadia%Benzaquen%NULL%2,   Gabriel%Patarroyo‐Aponte%NULL%2,   Janani%Rangaswami%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,   Mu%Qin%qinmuae@163.com%3,   Yuli%Cai%NULL%3,   Tao%Liu%NULL%4,   Bo%Shen%NULL%3,   Fan%Yang%NULL%0,   Sheng%Cao%NULL%3,   Xu%Liu%NULL%6,   Xu%Liu%NULL%0,   Yaozu%Xiang%NULL%3,   Qinyan%Zhao%NULL%3,   He%Huang%huanghe1977@whu.edu.cn%3,   Bo%Yang%yybb112@whu.edu.cn%0,   Congxin%Huang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Jennifer%Tomlins%NULL%1,   Fergus%Hamilton%NULL%1,   Samuel%Gunning%NULL%1,   Caitlin%Sheehy%NULL%1,   Ed%Moran%NULL%1,   Alastair%MacGowan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,   Yi%Xiang%NULL%0,   Wei%Fang%NULL%0,   Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,   Boqun%Li%279685211@qq.com%0,   Boqun%Li%279685211@qq.com%0,   Yanjun%Hu%huyanjun@163.com%0,   Chunhui%Lang%NULL%0,   Daoqiu%Huang%NULL%0,   Qiuyan%Sun%NULL%0,   Yan%Xiong%NULL%0,   Xia%Huang%NULL%0,   Jinglong%Lv%NULL%0,   Yaling%Luo%NULL%0,   Li%Shen%NULL%0,   Haoran%Yang%NULL%0,   Gu%Huang%NULL%0,   Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,  Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%2,  Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%2,  Subert-Salas%Lizandra%coreGivesNoEmail%2]</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%5,   Wenbo%He%NULL%2,   Xiaomei%Yu%NULL%2,   Dalong%Hu%NULL%2,   Mingwei%Bao%NULL%2,   Huafen%Liu%NULL%2,   Jiali%Zhou%NULL%2,   Hong%Jiang%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,   Bohan%Yang%NULL%0,   Qianwen%Li%NULL%0,   Lu%Wen%NULL%0,   Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Wu%J%coreGivesNoEmail%1,  Xu%Y%coreGivesNoEmail%1,  Zhanwei%Du%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,   Fen%Li%NULL%2,   Xiao%Wang%NULL%3,   Jie%Yan%NULL%0,   Fen%Zhu%NULL%2,   Shifan%Tang%NULL%2,   Yingzhong%Deng%NULL%2,   Hua%Wang%NULL%3,   Rui%Chen%NULL%2,   Zhili%Yu%NULL%2,   Yaping%Li%NULL%2,   Jingzhou%Shang%NULL%2,   Lingjun%Zeng%NULL%2,   Jie%Zhao%NULL%2,   Chaokun%Guan%NULL%2,   Qiaomei%Liu%NULL%2,   Haifeng%Chen%NULL%2,   Wei%Gong%NULL%2,   Xin%Huang%NULL%3,   Yu‐Jiao%Zhang%NULL%2,   Jianguang%Liu%NULL%2,   Xiaoyan%Dong%NULL%2,   Wen%Zheng%zhengwen12@mails.jlu.edu.cn%2,   Shaoping%Nie%spnie@126.com%2,   Dongsheng%Li%dongshengli196809@163.com%2]</t>
-  </si>
-  <si>
-    <t>[Ping%Yang%NULL%1,   Pengfei%Wang%NULL%2,   Pengfei%Wang%NULL%0,   Yuyan%Song%NULL%1,   An%Zhang%zhangan@hospital.cqmu.edu.cn%1,   Guodan%Yuan%71502294@qq.com%1,   Yong%Cui%754605155@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,   Yuan%Yu%NULL%0,   Jiqian%Xu%NULL%0,   Huaqing%Shu%NULL%0,   Jia'an%Xia%NULL%0,   Hong%Liu%NULL%0,   Yongran%Wu%NULL%0,   Lu%Zhang%NULL%0,   Zhui%Yu%NULL%0,   Minghao%Fang%NULL%0,   Ting%Yu%NULL%0,   Yaxin%Wang%NULL%0,   Shangwen%Pan%NULL%0,   Xiaojing%Zou%NULL%0,   Shiying%Yuan%NULL%0,   You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,  Cao%Yi-yuan%coreGivesNoEmail%3,  Dong%Xiang%coreGivesNoEmail%3,  Gao%Ya-dong%coreGivesNoEmail%3,  Yan%You-qin%coreGivesNoEmail%3,  Yang%Yi-bin%coreGivesNoEmail%3,  Yuan%Ya-dong%coreGivesNoEmail%3,  Zhang%Jin-jin%coreGivesNoEmail%3]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%3,   Chang%Hu%NULL%3,   Linjie%Luo%NULL%2,   Fang%Fang%NULL%4,   Yongfeng%Chen%NULL%2,   Jianguo%Li%NULL%2,   Zhiyong%Peng%NULL%5,   Huaqin%Pan%phq2012@whu.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Jun%Zhang%NULL%1,   Miao%Yu%NULL%1,   Song%Tong%NULL%1,   Lu-Yu%Liu%NULL%1,   Liang-V.%Tang%lancet.tang@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,   Huangqing%Ouyang%NULL%1,   Lingli%Fu%NULL%1,   Shijie%Wang%NULL%1,   Jianglong%Han%NULL%1,   Kejie%Huang%NULL%1,   Mingfang%Jia%NULL%1,   Qibin%Song%NULL%1,   Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Zirun%Zhao%NULL%0,   Anne%Chen%NULL%0,   Wei%Hou%NULL%0,   James M.%Graham%NULL%1,   Haifang%Li%NULL%1,   Paul S.%Richman%NULL%1,   Henry C.%Thode%NULL%1,   Adam J.%Singer%NULL%1,   Tim Q.%Duong%NULL%1,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0,   Muhammad%Adrish%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
+    <t>[Sulaiman%Almazeedi%NULL%2,    Sarah%Al-Youha%sarahalyouha@gmail.com%2,    Mohammad H.%Jamal%NULL%2,    Mohannad%Al-Haddad%NULL%2,    Ali%Al-Muhaini%NULL%2,    Fahad%Al-Ghimlas%NULL%2,    Salman%Al-Sabah%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,    Samuel L%Bruce%NULL%2,    Cody L%Slater%NULL%2,    Jonathan R%Tiao%NULL%2,    Matthew R%Baldwin%NULL%2,    R Graham%Barr%NULL%2,    Bernard P%Chang%NULL%2,    Katherine H%Chau%NULL%2,    Justin J%Choi%NULL%2,    Nicholas%Gavin%NULL%2,    Parag%Goyal%NULL%2,    Angela M%Mills%NULL%2,    Ashmi A%Patel%NULL%2,    Marie-Laure S%Romney%NULL%2,    Monika M%Safford%NULL%2,    Neil W%Schluger%NULL%2,    Soumitra%Sengupta%NULL%2,    Magdalena E%Sobieszczyk%NULL%2,    Jason E%Zucker%NULL%2,    Paul A%Asadourian%NULL%2,    Fletcher M%Bell%NULL%2,    Rebekah%Boyd%NULL%2,    Matthew F%Cohen%NULL%2,    MacAlistair I%Colquhoun%NULL%2,    Lucy A%Colville%NULL%2,    Joseph H%de Jonge%NULL%2,    Lyle B%Dershowitz%NULL%2,    Shirin A%Dey%NULL%2,    Katherine A%Eiseman%NULL%2,    Zachary P%Girvin%NULL%2,    Daniella T%Goni%NULL%2,    Amro A%Harb%NULL%2,    Nicholas%Herzik%NULL%2,    Sarah%Householder%NULL%2,    Lara E%Karaaslan%NULL%2,    Heather%Lee%NULL%2,    Evan%Lieberman%NULL%2,    Andrew%Ling%NULL%2,    Ree%Lu%NULL%2,    Arthur Y%Shou%NULL%2,    Alexander C%Sisti%NULL%2,    Zachary E%Snow%NULL%2,    Colin P%Sperring%NULL%2,    Yuqing%Xiong%NULL%2,    Henry W%Zhou%NULL%2,    Karthik%Natarajan%NULL%2,    George%Hripcsak%NULL%2,    Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,    Mark%Caridi-Scheible%NULL%4,    James M.%Blum%NULL%3,    Chad%Robichaux%NULL%3,    Colleen%Kraft%NULL%3,    Jesse T.%Jacob%NULL%3,    Craig S.%Jabaley%NULL%3,    David%Carpenter%NULL%3,    Roberta%Kaplow%NULL%3,    Alfonso C.%Hernandez-Romieu%NULL%3,    Max W.%Adelman%NULL%3,    Greg S.%Martin%NULL%3,    Craig M.%Coopersmith%NULL%3,    David J.%Murphy%NULL%3,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Berenguer%NULL%1,    Pablo%Ryan%NULL%0,    Jesús%Rodríguez-Baño%NULL%1,    Inmaculada%Jarrín%NULL%4,    Jordi%Carratalà%NULL%4,    Jerónimo%Pachón%NULL%0,    María%Yllescas%NULL%1,    José Ramón%Arriba%NULL%1,    NULL%NULL%NULL%0,    Esther%Aznar Muñoz%NULL%1,    Pedro%Gil Divasson%NULL%1,    Patricia%González Muñiz%NULL%1,    Clara%Muñoz Aguirre%NULL%1,    Juan Carlos%López%NULL%3,    Juan Carlos%López%NULL%0,    Juan Carlos%López%NULL%0,    Margarita%Ramírez-Schacke%NULL%1,    Isabel%Gutiérrez%NULL%1,    Francisco%Tejerina%NULL%1,    Teresa%Aldámiz-Echevarría%NULL%1,    Cristina%Díez%NULL%1,    Chiara%Fanciulli%NULL%1,    Leire%Pérez-Latorre%NULL%1,    Francisco%Parras%NULL%1,    Pilar%Catalán%NULL%1,    María E.%García-Leoni%NULL%1,    Isabel%Pérez-Tamayo%NULL%1,    Luis%Puente%NULL%1,    Jamil%Cedeño%NULL%1,    Juan%Berenguer%NULL%1,    Marta%Díaz Menéndez%NULL%3,    Marta%Díaz Menéndez%NULL%0,    Marta%Díaz Menéndez%NULL%0,    Fernando%de la Calle Prieto%NULL%1,    Marta%Arsuaga Vicente%NULL%1,    Elena%Trigo Esteban%NULL%1,    Mª del Mar%Lago Núñez%NULL%1,    Rosa%de Miguel Buckley%NULL%1,    Julen%Cadiñaños Loidi%NULL%1,    Carmen%Busca Arenzana%NULL%1,    Alfredo%Mican%NULL%1,    Marta%Mora Rillo%NULL%1,    Juan Carlos%Ramos Ramos%NULL%1,    Belén%Loeches Yagüe%NULL%1,    José Ignacio%Bernardino de la Serna%NULL%1,    Julio%García Rodríguez%NULL%1,    José Ramón%Arribas López%NULL%1,    Ana%Such Diaz%NULL%3,    Ana%Such Diaz%NULL%0,    Ana%Such Diaz%NULL%0,    Elena%Álvaro Alonso%NULL%1,    Elsa%Izquierdo García%NULL%1,    Juan%Torres Macho%NULL%1,    Guillermo%Cuevas Tascon%NULL%1,    Jesús%Troya García%NULL%1,    Beatriz%Mestre Gómez%NULL%1,    Eva%Jiménez González de Buitrago%NULL%1,    Inés%Fernández Jiménez%NULL%1,    Ana Josefa%Tebar Martínez%NULL%1,    Fátima%Brañas Baztán%NULL%1,    Jorge%Valencia de la Rosa%NULL%1,    Mario%Pérez Butragueño%NULL%1,    Marta%Alvarado Blasco%NULL%1,    Pablo%Ryan%NULL%0,    Mª Antonia%Sepúlveda Berrocal%NULL%3,    Mª Antonia%Sepúlveda Berrocal%NULL%0,    Mª Antonia%Sepúlveda Berrocal%NULL%0,    Carmen%Yera Bergua%NULL%1,    Pilar%Toledano Sierra%NULL%1,    Verónica%Cano Llorente%NULL%1,    Sadaf%Zafar Iqubal-Mirza%NULL%1,    Gema%Muñiz%NULL%1,    Inmaculada%Martín Pérez%NULL%1,    Helena%Mozas Moriñigo%NULL%1,    Ana%Alguacil%NULL%1,    María Paz%García Butenegro%NULL%1,    Ana Isabel%Peláez Ballesta%NULL%3,    Ana Isabel%Peláez Ballesta%NULL%0,    Ana Isabel%Peláez Ballesta%NULL%0,    Elena%Morcillo Rodríguez%NULL%1,    Josune%Goikoetxea Agirre%NULL%3,    Josune%Goikoetxea Agirre%NULL%0,    Josune%Goikoetxea Agirre%NULL%0,    María José%Blanco Vidal%NULL%1,    Javier%Nieto Arana%NULL%1,    Mikel%del Álamo Martínez de Lagos%NULL%1,    Isabel A.%Pérez Hernández%NULL%3,    Isabel A.%Pérez Hernández%NULL%0,    Isabel A.%Pérez Hernández%NULL%0,    Inés%Pérez Zapata%NULL%1,    Rafael%Silvariño Fernández%NULL%3,    Rafael%Silvariño Fernández%NULL%0,    Rafael%Silvariño Fernández%NULL%0,    Jon%Ugalde Espiñeira%NULL%1,    Víctor%Asensi Álvarez%NULL%3,    Víctor%Asensi Álvarez%NULL%0,    Víctor%Asensi Álvarez%NULL%0,    Lucia%Suárez Pérez%NULL%1,    Silvia%Suárez Diaz%NULL%1,    Carmen%Yllera Gutiérrez%NULL%1,    Vicente%Boix%NULL%3,    Vicente%Boix%NULL%0,    Vicente%Boix%NULL%0,    Marcos%Díez Martínez%NULL%1,    Melissa%Carreres Candela%NULL%1,    Cristina%Gómez-Ayerbe%NULL%3,    Cristina%Gómez-Ayerbe%NULL%0,    Cristina%Gómez-Ayerbe%NULL%0,    Javier%Sánchez-Lora%NULL%1,    José Luis%Velasco Garrido%NULL%1,    María%López-Jódar%NULL%1,    Jesús%Santos González%NULL%1,    Jesús%Ruiz Aragón%NULL%3,    Jesús%Ruiz Aragón%NULL%0,    Jesús%Ruiz Aragón%NULL%0,    Ianire%Virto Peña%NULL%1,    Vanessa%Alende Castro%NULL%3,    Vanessa%Alende Castro%NULL%0,    Vanessa%Alende Castro%NULL%0,    Ruth%Brea Aparicio%NULL%1,    Sonia%Vega Molpeceres%NULL%3,    Sonia%Vega Molpeceres%NULL%0,    Sonia%Vega Molpeceres%NULL%0,    Estel%Pons Viñas%NULL%1,    Oscar%del Río Pérez%NULL%3,    Oscar%del Río Pérez%NULL%0,    Oscar%del Río Pérez%NULL%0,    Silvia%Valero Rovira%NULL%1,    Judit%Villar-García%NULL%3,    Judit%Villar-García%NULL%0,    Judit%Villar-García%NULL%0,    Joan%Gómez-Junyent%NULL%1,    Hernando%Knobel%NULL%1,    María Cecilia%Cánepa%NULL%1,    Silvia%Castañeda Espinosa%NULL%1,    Luisa%Sorli Redò%NULL%1,    Roberto%Güerri-Fernández%NULL%1,    María%Milagro Montero%NULL%1,    Juan Pablo%Horcajada%NULL%1,    Elisa%García Vázquez%NULL%3,    Elisa%García Vázquez%NULL%0,    Elisa%García Vázquez%NULL%0,    Encarnación%Moral Escudero%NULL%1,    Alicia%Hernández Torres%NULL%1,    Esther%García Almodóvar%NULL%3,    Esther%García Almodóvar%NULL%0,    Esther%García Almodóvar%NULL%0,    Carmen%Sáez Barberá%NULL%3,    Carmen%Sáez Barberá%NULL%0,    Carmen%Sáez Barberá%NULL%0,    Zineb%Karroud%NULL%1,    José%Hernández Quero%NULL%3,    José%Hernández Quero%NULL%0,    José%Hernández Quero%NULL%0,    David%Vinuesa García%NULL%1,    José Luis%García Fogeda%NULL%1,    José Antonio%Peregrina%NULL%1,    María%Novella Mena%NULL%3,    María%Novella Mena%NULL%0,    María%Novella Mena%NULL%0,    Cristina%Hernández Gutiérrez%NULL%1,    José%Sanz Moreno%NULL%1,    Ramón%Pérez Tanoira%NULL%1,    Rodrigo%Sierra Rodríguez%NULL%1,    David%Alonso Menchén%NULL%1,    Aida%Gutiérrez García%NULL%1,    Alberto%Arranz Caso%NULL%1,    Juan%Cuadros González%NULL%1,    Melchor%Álvarez de Mon Soto%NULL%1,    Vicente Ferrer%Díaz de Brito Fernández%NULL%3,    Vicente Ferrer%Díaz de Brito Fernández%NULL%0,    Vicente Ferrer%Díaz de Brito Fernández%NULL%0,    Montserrat%Sanmarti Vilamala%NULL%1,    Aina%Gabarrell Pascuet%NULL%1,    Daniel%Molina Morant%NULL%1,    Sergio%España Cueto%NULL%1,    Jonathan%Cámara Fernández%NULL%1,    Albert%Sabater Gil%NULL%1,    Laura%Muñoz López%NULL%1,    Paula%Sáez Escolano%NULL%3,    Paula%Sáez Escolano%NULL%0,    Paula%Sáez Escolano%NULL%0,    Esperanza%Bejarano Tello%NULL%1,    Marco Antonio%Sempere Alcocer%NULL%3,    Marco Antonio%Sempere Alcocer%NULL%0,    Marco Antonio%Sempere Alcocer%NULL%0,    Salvador%Álvarez Martin%NULL%1,    Ignacio%De los Santos Gil%NULL%3,    Ignacio%De los Santos Gil%NULL%0,    Ignacio%De los Santos Gil%NULL%0,    Lucio%García-Fraile%NULL%1,    Miguel%Sampedro Núñez%NULL%1,    Ana%Barrios Blandino%NULL%1,    Carlos%Rodríguez Franco%NULL%1,    Daniel%Useros Brañas%NULL%1,    Almudena%Villa Martí%NULL%1,    Javier%Oliver Ortega%NULL%1,    Alexia%Costanza Espiño Álvarez%NULL%1,    Jesús%Sanz Sanz%NULL%1,    María%Rexach Fumaña%NULL%3,    María%Rexach Fumaña%NULL%0,    María%Rexach Fumaña%NULL%0,    Ivette%Abascal Cambras%NULL%1,    Ana del Cielo%Pérez Jaén%NULL%1,    Clara%Sala Jofre%NULL%3,    Clara%Sala Jofre%NULL%0,    Clara%Sala Jofre%NULL%0,    Susana%Casas Rodríguez%NULL%1,    Cecilia%Tortajada Alamilla%NULL%3,    Cecilia%Tortajada Alamilla%NULL%0,    Cecilia%Tortajada Alamilla%NULL%0,    Carmina%Oltra%NULL%1,    Mar%Masiá Canuto%NULL%3,    Mar%Masiá Canuto%NULL%0,    Mar%Masiá Canuto%NULL%0,    Félix%Gutiérrez Rodero%NULL%1,    Ana%Ferrer Ribera%NULL%3,    Ana%Ferrer Ribera%NULL%0,    Ana%Ferrer Ribera%NULL%0,    Carlos%Bea Serrano%NULL%1,    Miguel%Pedromingo Kus%NULL%3,    Miguel%Pedromingo Kus%NULL%0,    Miguel%Pedromingo Kus%NULL%0,    María Ángeles%Garcinuño%NULL%1,    Silvana%Fiorante%NULL%1,    Sergio%Pérez Pinto%NULL%1,    Pilar%Hernández Machín%NULL%3,    Pilar%Hernández Machín%NULL%0,    Pilar%Hernández Machín%NULL%0,    Alba%Alastrué Violeta%NULL%1,    María Carmen%Fariñas Álvarez%NULL%3,    María Carmen%Fariñas Álvarez%NULL%0,    María Carmen%Fariñas Álvarez%NULL%0,    Claudia%González Rico%NULL%1,    Francisco%Arnaiz de las Revillas%NULL%1,    Jorge%Calvo%NULL%1,    Mónica%Gozalo%NULL%1,    Francisco%Mora Gómez%NULL%3,    Francisco%Mora Gómez%NULL%0,    Francisco%Mora Gómez%NULL%0,    Ana%Milagro Beamonte%NULL%3,    Ana%Milagro Beamonte%NULL%0,    Ana%Milagro Beamonte%NULL%0,    Miriam%Latorre-Millán%NULL%1,    Antonio%Rezusta López%NULL%1,    Ana%Martínez Sapiña%NULL%1,    Yolanda%Meije%NULL%3,    Yolanda%Meije%NULL%0,    Yolanda%Meije%NULL%0,    Alejandra%Duarte Borges%NULL%1,    Julia%Pareja Coca%NULL%1,    Mercedes%Clemente Presas%NULL%1,    Juan Emilio%Losa García%NULL%3,    Juan Emilio%Losa García%NULL%0,    Juan Emilio%Losa García%NULL%0,    Ana%Vegas Serrano%NULL%1,    M. Teresa%Pérez-Rodríguez%NULL%3,    M. Teresa%Pérez-Rodríguez%NULL%0,    M. Teresa%Pérez-Rodríguez%NULL%0,    Alexandre%Pérez González%NULL%1,    Moncef%Belhassen-García%NULL%3,    Moncef%Belhassen-García%NULL%0,    Moncef%Belhassen-García%NULL%0,    Beatriz%Rodríguez-Alonso%NULL%1,    Amparo%López-Bernus%NULL%1,    Cristina%Carbonell%NULL%1,    Rafael%Torres Perea%NULL%3,    Rafael%Torres Perea%NULL%0,    Rafael%Torres Perea%NULL%0,    Juan%Cantón de Seoane%NULL%1,    Blanca%Alonso%NULL%1,    Sara Lidia%Kamal%NULL%1,    Lucia%Cajuela%NULL%1,    David%Roa%NULL%1,    Miguel%Cervero%NULL%1,    Alberto%Oreja%NULL%1,    Juan Pablo%Avilés%NULL%1,    Lidia%Martín%NULL%1,    Iván%Pelegrín Senent%NULL%3,    Iván%Pelegrín Senent%NULL%0,    Iván%Pelegrín Senent%NULL%0,    Rosana%Rouco Esteves Marques%NULL%1,    Jorge%Parra Ruiz%NULL%3,    Jorge%Parra Ruiz%NULL%0,    Jorge%Parra Ruiz%NULL%0,    Violeta%Ramos Sesma%NULL%1,    Jessica%Abadia Otero%NULL%3,    Jessica%Abadia Otero%NULL%0,    Jessica%Abadia Otero%NULL%0,    Juan%Salillas Hernando%NULL%3,    Juan%Salillas Hernando%NULL%0,    Juan%Salillas Hernando%NULL%0,    Robert%Torres Sánchez del Arco%NULL%1,    Miguel%Torralba González de Suso%NULL%1,    Alberto%Serrano Martínez%NULL%1,    Sergio%Gilaberte Reyzábal%NULL%1,    Marina%Pacheco Martínez-Atienza%NULL%1,    Mónica%Liébana Gómez%NULL%1,    Sara%Fernández Rodríguez%NULL%1,    Álvaro%Varela Plaza%NULL%1,    Henar%Calvo Sánchez%NULL%1,    Patricia%Martínez Martín%NULL%3,    Patricia%Martínez Martín%NULL%0,    Patricia%Martínez Martín%NULL%0,    Patricia%González- Ruano%NULL%1,    Eduardo%Malmierca Corral%NULL%1,    Isabel%Rábago Lorite%NULL%1,    Beatriz%Pérez-Monte Mínguez%NULL%1,    Ángeles%García Flores%NULL%3,    Ángeles%García Flores%NULL%0,    Ángeles%García Flores%NULL%0,    Pere%Comas Casanova%NULL%1,    Merce%Sirisi%NULL%3,    Merce%Sirisi%NULL%0,    Merce%Sirisi%NULL%0,    Richard%Rojas%NULL%1,    José Luis%Díaz de Tuesta del Arco%NULL%3,    José Luis%Díaz de Tuesta del Arco%NULL%0,    José Luis%Díaz de Tuesta del Arco%NULL%0,    Ruth%Figueroa Cerón%NULL%1,    Ander%González Sarria%NULL%1,    Remedios%Alemán Valls%NULL%3,    Remedios%Alemán Valls%NULL%0,    Remedios%Alemán Valls%NULL%0,    María del Mar%Alonso Socas%NULL%1,    Oscar%Sanz Peláez%NULL%3,    Oscar%Sanz Peláez%NULL%0,    Oscar%Sanz Peláez%NULL%0,    Karim%Mohamed Ramírez%NULL%1,    Melchor%Riera Jaume%NULL%3,    Melchor%Riera Jaume%NULL%0,    Melchor%Riera Jaume%NULL%0,    Helem Haydee%Vilchez%NULL%1,    Francesc%Albertí%NULL%1,    Ana Isabel%Cañabate%NULL%1,    Víctor J.%Moreno Cuerda%NULL%3,    Víctor J.%Moreno Cuerda%NULL%0,    Víctor J.%Moreno Cuerda%NULL%0,    Silvia%Álvarez Kaelis%NULL%1,    Beatriz%Álvarez Zapatero%NULL%1,    Alejandro%García García%NULL%1,    Elena%Isaba Ares%NULL%1,    Covadonga%Morcate Fernández%NULL%1,    Andrea%Pérez Rodríguez%NULL%1,    Lucía%Ramos Merino%NULL%3,    Lucía%Ramos Merino%NULL%0,    Lucía%Ramos Merino%NULL%0,    Laura%Castelo Corral%NULL%1,    María%Rodríguez Mahía%NULL%1,    Mónica%González Bardanca%NULL%1,    Efrén%Sánchez Vidal%NULL%1,    Enrique%Míguez Rey%NULL%1,    Javier%De la Torre Lima%NULL%3,    Javier%De la Torre Lima%NULL%0,    Javier%De la Torre Lima%NULL%0,    José Mª%García de Lomas Guerrero%NULL%1,    Elena%Morte%NULL%3,    Elena%Morte%NULL%0,    Elena%Morte%NULL%0,    Silvia%Loscos%NULL%1,    Ana%Camón%NULL%1,    Lucía%Gómez García%NULL%3,    Lucía%Gómez García%NULL%0,    Lucía%Gómez García%NULL%0,    Lucia%Boix Palop%NULL%1,    Beatriz%Dietl Gómez-Luengo%NULL%1,    Iris%Pedrola Gorrea%NULL%3,    Iris%Pedrola Gorrea%NULL%0,    Iris%Pedrola Gorrea%NULL%0,    Amparo%Blasco Claramunt%NULL%1,    Cristina%López Mestanza%NULL%3,    Cristina%López Mestanza%NULL%0,    Cristina%López Mestanza%NULL%0,    Esther%Fraile Villarejo%NULL%1,    Tomás%Tosco Núñez%NULL%3,    Tomás%Tosco Núñez%NULL%0,    Tomás%Tosco Núñez%NULL%0,    María%Aroca Ferri%NULL%1,    José Tomas%Algado Rabasa%NULL%3,    José Tomas%Algado Rabasa%NULL%0,    José Tomas%Algado Rabasa%NULL%0,    Ana María%Garijo Saiz%NULL%1,    Concepción%Amador Prous%NULL%1,    Jesús Rodriguez%Baño%NULL%3,    Jesús Rodriguez%Baño%NULL%0,    Jesús Rodriguez%Baño%NULL%0,    Pilar%Retamar%NULL%1,    Adoración%Valiente%NULL%1,    Luis E.%López-Cortés%NULL%1,    Jesús%Sojo%NULL%1,    Belén%Gutiérrez-Gutiérrez%NULL%1,    José%Bravo-Ferrer%NULL%1,    Elena%Salamanca%NULL%1,    Zaira R.%Palacios%NULL%1,    Patricia%Pérez-Palacios%NULL%1,    Enrique%Peral%NULL%1,    José Antonio%Pérez de León%NULL%1,    Jesús%Sánchez-Gómez%NULL%1,    Lucía%Marín-Barrera%NULL%1,    Domingo%García-Jiménez%NULL%1,    Jordi%Carratalà%NULL%0,    Jordi%Carratalà%NULL%0,    Jordi%Carratalà%NULL%0,    Gabriela%Abelenda-Alonso%NULL%1,    Carmen%Ardanuy%NULL%1,    Alba%Bergas%NULL%1,    Guillermo%Cuervo%NULL%1,    María Ángeles%Domínguez%NULL%1,    Miguel%Fernández-Huerta%NULL%1,    Carlota%Gudiol%NULL%1,    Laia%Lorenzo-Esteller%NULL%1,    Jordi%Niubó%NULL%1,    Sandra%Pérez-Recio%NULL%1,    Daniel%Podzamczer%NULL%1,    Miquel%Pujol%NULL%1,    Alexander%Rombauts%NULL%1,    Núria%Trullen%NULL%1,    Miguel%Salavert Lletí%NULL%3,    Miguel%Salavert Lletí%NULL%0,    Miguel%Salavert Lletí%NULL%0,    Iván%Castro Hernández%NULL%1,    Adriana%Hernández Belmonte%NULL%3,    Adriana%Hernández Belmonte%NULL%0,    Adriana%Hernández Belmonte%NULL%0,    Raquel%Martínez Goñi%NULL%1,    Marta%Navarro Vilasaró%NULL%3,    Marta%Navarro Vilasaró%NULL%0,    Marta%Navarro Vilasaró%NULL%0,    Sonia%Calzado Isbert%NULL%1,    Manuel%Cervantes García%NULL%1,    Aina%Gomila Grange%NULL%1,    Oriol%Gasch Blasi%NULL%1,    María Luisa%Machado Sicilia%NULL%1,    Eva%Van den Eynde Otero%NULL%1,    Luis%Falgueras López%NULL%1,    María del Carmen%Navarro Sáez%NULL%1,    Esteban%Martínez%NULL%3,    Esteban%Martínez%NULL%0,    Esteban%Martínez%NULL%0,    Mª Ángeles%Marcos%NULL%1,    Mar%Mosquera%NULL%1,    José Luis%Blanco%NULL%1,    Montserrat%Laguno%NULL%1,    Jhon%Rojas%NULL%1,    Ana%González-Cordón%NULL%1,    Alexy%Inciarte%NULL%1,    Berta%Torres%NULL%1,    Lorena%De la Mora%NULL%1,    Alex%Soriano%NULL%1,    Olalla%Martínez Macias%NULL%3,    Olalla%Martínez Macias%NULL%0,    Olalla%Martínez Macias%NULL%0,    Virginia%Pérez Doñate%NULL%1,    Alfonso%Cabello Úbeda%NULL%3,    Alfonso%Cabello Úbeda%NULL%0,    Alfonso%Cabello Úbeda%NULL%0,    Nerea%Carrasco Antón%NULL%1,    Beatriz%Álvarez Álvarez%NULL%1,    Elizabet%Petkova Saiz%NULL%1,    Miguel%Górgolas Hernández-Mora%NULL%1,    Laura%Prieto Pérez%NULL%1,    Irene%Carrillo Acosta%NULL%1,    Sara%Heili Frades%NULL%1,    Felipe%Villar Álvarez%NULL%1,    Ricardo%Fernández Roblas%NULL%1,    José María%Milicua Muñoz%NULL%1,    Virginia%Fernández Espinilla%NULL%3,    Virginia%Fernández Espinilla%NULL%0,    Virginia%Fernández Espinilla%NULL%0,    Carlos Jesús%Dueñas Gutiérrez%NULL%1,    Cristina%Hernán García%NULL%1,    Fernando%González-Romo%NULL%3,    Fernando%González-Romo%NULL%0,    Fernando%González-Romo%NULL%0,    Paloma%Merino Amador%NULL%1,    Alba%Rueda López%NULL%1,    Jorge%Martínez Jordán%NULL%1,    Sara%Medrano Pardo%NULL%1,    Irene%Díaz de la Torre%NULL%1,    Yolanda%Posada Franco%NULL%1,    Alberto%Delgado-Iribarren%NULL%1,    Joaquín%López-Contreras González%NULL%3,    Joaquín%López-Contreras González%NULL%0,    Joaquín%López-Contreras González%NULL%0,    Pablo%Pascual Alonso%NULL%1,    Virginia%Pomar Solchaga%NULL%1,    Nuria%Rabella García%NULL%1,    Natividad%Benito Hernández%NULL%1,    Pere%Domingo Pedrol%NULL%1,    Xavier%Bonfill Cosp%NULL%1,    Rafael%Padrós Selma%NULL%1,    Mireia%Puig Campmany%NULL%1,    Jordi%Mancebo Cortés%NULL%1,    Mercè%Gurguí Ferrer%NULL%1,    Melania%Íñigo Pestaña%NULL%3,    Melania%Íñigo Pestaña%NULL%0,    Melania%Íñigo Pestaña%NULL%0,    Alejandra%Pérez García%NULL%1,    Patricia%Sorní Moreno%NULL%3,    Patricia%Sorní Moreno%NULL%0,    Patricia%Sorní Moreno%NULL%0,    Nora%Izko Gartzia%NULL%1,    Francisco Javier%Membrillo de Novales%NULL%3,    Francisco Javier%Membrillo de Novales%NULL%0,    Francisco Javier%Membrillo de Novales%NULL%0,    María%Simón Sacristán%NULL%1,    Maribel%Zamora Cintas%NULL%1,    Yolanda%Martínez Martínez%NULL%1,    Pablo%Fernández-González%NULL%1,    Francisco%Alcántara Nicolás%NULL%1,    Alejandro%Aguirre Vila-Cora%NULL%1,    Elena%López Tizón%NULL%1,    Germán%Ramírez-Olivencia%NULL%1,    Miriam%Estébanez Muñoz%NULL%1,    Ester%Sáez de Adana Arróniz%NULL%3,    Ester%Sáez de Adana Arróniz%NULL%0,    Ester%Sáez de Adana Arróniz%NULL%0,    Joseba%Portu Zapirain%NULL%1,    Juan Carlos%Gainzarain Arana%NULL%1,    Zuriñe%Ortiz de Zárate Ibarra%NULL%1,    Miguel Ángel%Moran Rodríguez%NULL%1,    Andrés%Canut Blasco%NULL%1,    Silvia%Hernáez Crespo%NULL%1,    Leire%Balerdi Sarasola%NULL%1,    Cristina%Morales García%NULL%1,    Miguel%Corral Saracho%NULL%1,    Zeltia%Valcarce González%NULL%1,    Noelia%Arenal Andrés%NULL%3,    Noelia%Arenal Andrés%NULL%0,    Noelia%Arenal Andrés%NULL%0,    Raquel Elisa%Rodríguez Tarazona%NULL%1,    Laura%Iglesias Llorente%NULL%3,    Laura%Iglesias Llorente%NULL%0,    Laura%Iglesias Llorente%NULL%0,    Beatriz%Loureiro Rodríguez%NULL%1,    Adrián%Sánchez Montalvá%NULL%3,    Adrián%Sánchez Montalvá%NULL%0,    Adrián%Sánchez Montalvá%NULL%0,    Juan%Espinosa Pereiro%NULL%1,    Benito%Almirante%NULL%1,    Marta%Miarons%NULL%1,    Júlia%Sellarés%NULL%1,    María%Larrosa%NULL%1,    Sonia%García%NULL%1,    Blanca%Marzo%NULL%1,    Miguel%Villamarín%NULL%1,    Nuria%Fernández%NULL%1,    Conchita%Pérez-Jorge Peremarch%NULL%3,    Conchita%Pérez-Jorge Peremarch%NULL%0,    Conchita%Pérez-Jorge Peremarch%NULL%0,    Elena%Resino Foz%NULL%1,    Andrea%Espigares Correa%NULL%1,    Teresa%Álvarez de Espejo Montiel%NULL%1,    Iván%Navas Clemente%NULL%1,    María Isabel%Quijano Contreras%NULL%1,    Luis Alberto%Nieto Fernández del Campo%NULL%1,    Guillermo%Jiménez Álvarez%NULL%1,    Mercedes%Guillamón Sánchez%NULL%3,    Mercedes%Guillamón Sánchez%NULL%0,    Mercedes%Guillamón Sánchez%NULL%0,    Josefina%García García%NULL%1,    Constanza%Muñoz Hornero%NULL%3,    Constanza%Muñoz Hornero%NULL%0,    Constanza%Muñoz Hornero%NULL%0,    Ana%Mariño Callejo%NULL%3,    Ana%Mariño Callejo%NULL%0,    Ana%Mariño Callejo%NULL%0,    Nieves%Valcarce Pardeiro%NULL%1,    Alex%Smithson Amat%NULL%3,    Alex%Smithson Amat%NULL%0,    Alex%Smithson Amat%NULL%0,    Cristina%Chico Chumillas%NULL%1,    Adriana%Sánchez Serrano%NULL%3,    Adriana%Sánchez Serrano%NULL%0,    Adriana%Sánchez Serrano%NULL%0,    Eva Pilar%García Villalba%NULL%1,    Isabel%Jiménez Martínez%NULL%3,    Isabel%Jiménez Martínez%NULL%0,    Isabel%Jiménez Martínez%NULL%0,    Guillermo%Estrada Fernández%NULL%1,    María%Lorén Vargas%NULL%1,    Nuria%Parra Arribas%NULL%1,    Carmen%Martínez Cilleros%NULL%1,    Aránzazu%Villasante de la Puente%NULL%1,    Teresa%García Delange%NULL%1,    María José%Ruiz Rodríguez%NULL%1,    Marta%Robledo del Prado%NULL%1,    Juan Carlos%Abad Almendro%NULL%1,    José Román%Muñoz del Rey%NULL%3,    José Román%Muñoz del Rey%NULL%0,    José Román%Muñoz del Rey%NULL%0,    Montaña%Jiménez Álvaro%NULL%1,    Javier%Coy Coy%NULL%3,    Javier%Coy Coy%NULL%0,    Javier%Coy Coy%NULL%0,    Inmaculada%Poquet Catala%NULL%1,    Marta%Santos Peña%NULL%3,    Marta%Santos Peña%NULL%0,    Marta%Santos Peña%NULL%0,    Virginia%Naranjo Velasco%NULL%1,    Tamara%Manso Gómez%NULL%3,    Tamara%Manso Gómez%NULL%0,    Tamara%Manso Gómez%NULL%0,    Delia%Quilez Ágreda%NULL%1,    Gema%Barbeito Castiñeiras%NULL%3,    Gema%Barbeito Castiñeiras%NULL%0,    Gema%Barbeito Castiñeiras%NULL%0,    María Jesús%Domínguez Santalla%NULL%1,    Laura%Mao Martín%NULL%3,    Laura%Mao Martín%NULL%0,    Laura%Mao Martín%NULL%0,    Rodrigo%Alonso Navarro%NULL%1,    Jose David%Ampuero Martinich%NULL%1,    Raquel%Barrós González%NULL%1,    María Aránzazu%Galindo Martín%NULL%1,    Lourdes%Herrera Pacheco%NULL%1,    Rocío%Martínez Avilés%NULL%1,    Sara%Rodrigo González%NULL%1,    Cristóbal Manuel%Rodríguez Leal%NULL%1,    Eva María%Romay Lema%NULL%3,    Eva María%Romay Lema%NULL%0,    Eva María%Romay Lema%NULL%0,    Roi%Suárez Gil%NULL%1,    Maialen%Ibarguren Pinilla%NULL%3,    Maialen%Ibarguren Pinilla%NULL%0,    Maialen%Ibarguren Pinilla%NULL%0,    José María%Marimón Ortiz de Zárate%NULL%1,    Loreto%Vidaur Tello%NULL%1,    Xabier%Kortajarena Urkola%NULL%1,    Miriam%García Gómez%NULL%3,    Miriam%García Gómez%NULL%0,    Miriam%García Gómez%NULL%0,    Asier%Aranguren Arostegui%NULL%1,    Maria%Álvarez de Castro%NULL%3,    Maria%Álvarez de Castro%NULL%0,    Maria%Álvarez de Castro%NULL%0,    Cintia María%Martínez Mateu%NULL%1,    Francisco%Rodríguez Gómez%NULL%3,    Francisco%Rodríguez Gómez%NULL%0,    Francisco%Rodríguez Gómez%NULL%0,    Francisco%Muñoz Beamud%NULL%1,    Elena%Chamarro Martí%NULL%3,    Elena%Chamarro Martí%NULL%0,    Elena%Chamarro Martí%NULL%0,    Merce%Cardona Rivera%NULL%1,    Ismail%Zakariya-Yousef Breval%NULL%3,    Ismail%Zakariya-Yousef Breval%NULL%0,    Ismail%Zakariya-Yousef Breval%NULL%0,    Marta%Rico Rodríguez%NULL%1,    Jara%Llenas García%NULL%3,    Jara%Llenas García%NULL%0,    Jara%Llenas García%NULL%0,    Mª Carmen%Sánchez Arenas%NULL%1,    Ana%Fernández Cruz%NULL%3,    Ana%Fernández Cruz%NULL%0,    Ana%Fernández Cruz%NULL%0,    Jorge%Calderón Parra%NULL%1,    Marcos%López Dosil%NULL%1,    Antonio%Ramos Martínez%NULL%1,    Elena%Múñez Rubio%NULL%1,    Alejandro%Callejas Díaz%NULL%1,    José Manuel%Vázquez Comendador%NULL%1,    Itziar%Diego Yagüe%NULL%1,    Esther%Expósito Palomo%NULL%1,    Jorge%Anel Pedroche%NULL%1,    Raquel%Álvarez Franco%NULL%3,    Raquel%Álvarez Franco%NULL%0,    Raquel%Álvarez Franco%NULL%0,    Lucía%Fernández de Orueta%NULL%1,    Roberto%Vates Gómez%NULL%1,    Andrés Felipe%Cardona Arias%NULL%1,    Pablo%Marguenda Contreras%NULL%1,    Gabriel%Gaspar Alonso-Vega%NULL%1,    Elena María%Aranda Rife%NULL%1,    Blanca%Martínez Cifre%NULL%1,    Daniel%Roger Zapata%NULL%1,    Irene%Martín Rubio%NULL%1,    André%Barbosa Ventura%NULL%3,    André%Barbosa Ventura%NULL%0,    André%Barbosa Ventura%NULL%0,    Iván%Piñero%NULL%1,    Alberto%Bahamonde Carrasco%NULL%3,    Alberto%Bahamonde Carrasco%NULL%0,    Alberto%Bahamonde Carrasco%NULL%0,    Paula%Runza Buznego%NULL%1,    Eva%Talavera García%NULL%3,    Eva%Talavera García%NULL%0,    Eva%Talavera García%NULL%0,    Marta%Lamata Subero%NULL%1,    Ainhoa%Urrutia Losada%NULL%3,    Ainhoa%Urrutia Losada%NULL%0,    Ainhoa%Urrutia Losada%NULL%0,    Lorea%Arteche Eguizabal%NULL%1,    Elisabet%Delgado Sánchez%NULL%3,    Elisabet%Delgado Sánchez%NULL%0,    Elisabet%Delgado Sánchez%NULL%0,    Virginia%Molina Peinado%NULL%1,    Sarah%Caro Bragado%NULL%3,    Sarah%Caro Bragado%NULL%0,    Sarah%Caro Bragado%NULL%0,    Gema%Domínguez de Pablos%NULL%1,    Carolina%Roldán Fontana%NULL%3,    Carolina%Roldán Fontana%NULL%0,    Carolina%Roldán Fontana%NULL%0,    Carmen%Herrero Rodríguez%NULL%1,    Luis%Force Sanmartín%NULL%3,    Luis%Force Sanmartín%NULL%0,    Luis%Force Sanmartín%NULL%0,    Raquel%Aranega%NULL%1,    Arantzazu%Mera Fidalgo%NULL%3,    Arantzazu%Mera Fidalgo%NULL%0,    Arantzazu%Mera Fidalgo%NULL%0,    María Roca%Toda Savall%NULL%1,    Nicolas%Merchante Gutiérrez%NULL%3,    Nicolas%Merchante Gutiérrez%NULL%0,    Nicolas%Merchante Gutiérrez%NULL%0,    Eva María%León Jiménez%NULL%1,    José Luís%Del Pozo%NULL%3,    José Luís%Del Pozo%NULL%0,    José Luís%Del Pozo%NULL%0,    Josefa%Serralta Buades%NULL%3,    Josefa%Serralta Buades%NULL%0,    Josefa%Serralta Buades%NULL%0,    Ginger Giorgiana%Cabrera Tejada%NULL%1,    Mario%Fernández-Ruiz%NULL%3,    Mario%Fernández-Ruiz%NULL%0,    Mario%Fernández-Ruiz%NULL%0,    José María%Aguado%NULL%1,    Guillermo%Maestro de la Calle%NULL%1,    José Miguel%Cisneros%NULL%0,    José Miguel%Cisneros%NULL%0,    José Miguel%Cisneros%NULL%0,    Jerónimo%Pachón%NULL%0,    Manuela%Aguilar-Guisado%NULL%1,    Teresa%Aldabó%NULL%1,    María Dolores%Avilés%NULL%0,    Claudio%Bueno%NULL%1,    Elisa%Cordero-Matía%NULL%1,    Ana%Escoresca%NULL%1,    Lydia%Gálvez-Benítez%NULL%1,    Carmen%Infante%NULL%1,    Guillermo%Martín%NULL%1,    Julia%Praena%NULL%1,    Cristina%Roca%NULL%1,    Celia%Salamanca%NULL%1,    Alejandro%Suárez-Benjumea%NULL%1,    Pilar%Vizcarra%NULL%3,    Pilar%Vizcarra%NULL%0,    Pilar%Vizcarra%NULL%0,    Carmen%Quereda%NULL%1,    Mario José%Rodriguez Dominguez%NULL%1,    Francesca%Gioia%NULL%1,    Francesca%Norman%NULL%1,    Santos%Del Campo%NULL%1,    Rafael%Cantón Moreno%NULL%1,    Antonio%Oteo Revuelta José%NULL%3,    Antonio%Oteo Revuelta José%NULL%0,    Antonio%Oteo Revuelta José%NULL%0,    Paula%Santibáñez Sáenz%NULL%1,    Cristina%Cervera Acedo%NULL%1,    Carlos%Ruiz Martínez%NULL%1,    José R.%Blanco Ramos%NULL%1,    José M.%Azcona Gutiérrez%NULL%1,    Concepción%García García%NULL%1,    Jorge%Alba Fernández%NULL%1,    Valvanera%Ibarra Cucalón%NULL%1,    Mercedes%San Franco%NULL%1,    Luis%Metola Sacristán%NULL%1,    Héctor%Meijide Míguez%NULL%3,    Héctor%Meijide Míguez%NULL%0,    Héctor%Meijide Míguez%NULL%0,    Silvia%Paulos Viñas%NULL%1,    Justo%Menéndez%NULL%3,    Justo%Menéndez%NULL%0,    Justo%Menéndez%NULL%0,    Paula%Villares Fernández%NULL%1,    Lara%Montes Andújar%NULL%1,    Álvaro%Navarro Batet%NULL%3,    Álvaro%Navarro Batet%NULL%0,    Álvaro%Navarro Batet%NULL%0,    Anna%Ferrer Santolaria%NULL%1,    María de la Luz%Padilla Salazar%NULL%3,    María de la Luz%Padilla Salazar%NULL%0,    María de la Luz%Padilla Salazar%NULL%0,    Lucy%Abella Vázquez%NULL%1,    Marcelino%Hayek Peraza%NULL%1,    Antonio%García Pardo%NULL%1,    Carolina%Hernández Carballo%NULL%1,    Andrés Javier%Ruiz Fernández%NULL%3,    Andrés Javier%Ruiz Fernández%NULL%0,    Andrés Javier%Ruiz Fernández%NULL%0,    Isabel%Barrio López%NULL%1,    Alí%Martakoush%NULL%3,    Alí%Martakoush%NULL%0,    Alí%Martakoush%NULL%0,    Agustín%Rojas-Vieyra%NULL%3,    Agustín%Rojas-Vieyra%NULL%0,    Agustín%Rojas-Vieyra%NULL%0,    Sonia%García Calvo%NULL%3,    Sonia%García Calvo%NULL%0,    Sonia%García Calvo%NULL%0,    Mercedes%Villarreal García-Lomas%NULL%1,    Marta%Vizcaíno Callejón%NULL%3,    Marta%Vizcaíno Callejón%NULL%0,    Marta%Vizcaíno Callejón%NULL%0,    María Pilar%García García%NULL%1,    Ana%Lérida Urteaga%NULL%3,    Ana%Lérida Urteaga%NULL%0,    Ana%Lérida Urteaga%NULL%0,    Natalia%Carrasco Fons%NULL%1,    Beatriz%María Sanjuan%NULL%1,    Lydia%Martín González%NULL%1,    Camilo%Sanz Zamudio%NULL%1,    Inmaculada%Jarrín%NULL%0,    Inmaculada%Jarrín%NULL%0,    Inmaculada%Jarrín%NULL%0,    Belén%Alejos%NULL%1,    Cristina%Moreno%NULL%1,    Marta%Rava%NULL%1,    Carlos%Iniesta%NULL%1,    Rebeca%Izquierdo%NULL%1,    Inés%Suárez-García%NULL%1,    Asunción%Díaz%NULL%1,    Marta%Ruiz-Alguero%NULL%1,    Victoria%Hernando%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,    Denise J%McCulloch%NULL%0,    Denise J%McCulloch%NULL%0,    Vidya%Atluri%NULL%0,    Michela%Blain%NULL%0,    Sarah A%McGuffin%NULL%0,    Arun K%Nalla%NULL%0,    Meei-Li%Huang%NULL%0,    Alex L%Greninger%NULL%0,    Keith R%Jerome%NULL%0,    Seth A%Cohen%NULL%0,    Santiago%Neme%NULL%0,    Margaret L%Green%NULL%0,    Helen Y%Chu%NULL%0,    H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,    Wenlin%Cheng%NULL%0,    Lei%Yu%NULL%0,    Ya-Kun%Liu%NULL%0,    Xiaoyong%Hu%NULL%0,    Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,    Alberto%Zucchelli%NULL%1,    Marinella%Turla%NULL%1,    Maria Sofia%Cotelli%NULL%1,    Sara%Fascendini%NULL%1,    Mara%Zanni%NULL%1,    Angelo%Bianchetti%NULL%1,    Matteo Peli%Psy%NULL%1,    Renzo%Rozzini%NULL%1,    Stefano%Boffelli%NULL%1,    Melania%Cappuccio%NULL%1,    Federica Gottardi%Psy%NULL%1,    Chiara Vecchi%Psy%NULL%1,    Daniele%Bellandi%NULL%1,    Claudia%Caminati%NULL%1,    Simona%Gentile%NULL%1,    Elena Lucchi%Psy%NULL%1,    Ignazio%Di Fazio%NULL%1,    Marina Zanetti%Psy%NULL%1,    Giuliana%Vezzadini%NULL%1,    Chiara Forlani%Psy%NULL%1,    Maura Cosseddu%Psy%NULL%1,    Rosanna Turrone%Psy%NULL%1,    Silvia Pelizzari%Psy%NULL%1,    Andrea%Scalvini%NULL%1,    Marco%Di Cesare%NULL%1,    Marta Grigolo%Psy%NULL%1,    Lina%Falanga%NULL%1,    Nives%Medici%NULL%1,    Nives%Palamini%NULL%1,    Elisa Zanacchi%Psy%NULL%1,    Eleonora Grossi%Psy%NULL%1,    Giuseppe%Bellelli%NULL%1,    Alessandra%Marengoni%NULL%1,    Marco%Trabucchi%NULL%1,    Alessandro%Padovani%alessandro.padovani@unibs.it%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    Nancy%Chow%NULL%3,    Katherine%Fleming-Dutra%NULL%2,    Ryan%Gierke%NULL%3,    Aron%Hall%NULL%3,    Michelle%Hughes%NULL%2,    Tamara%Pilishvili%NULL%3,    Matthew%Ritchey%NULL%3,    Katherine%Roguski%NULL%2,    Tami%Skoff%NULL%2,    Emily%Ussery%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,    Zhencang%Zheng%NULL%1,    Chao%Zhang%NULL%1,    Xijiang%Zhang%NULL%1,    Huijuan%Wu%NULL%1,    Jingdong%Wang%NULL%1,    Shuwei%Wang%NULL%1,    Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,    Wei%Liu%NULL%0,    Kui%Liu%NULL%0,    Yuan-Yuan%Fang%NULL%0,    Jin%Shang%NULL%0,    Ling%Zhou%NULL%0,    Ke%Wang%NULL%0,    Fan%Leng%NULL%0,    Shuang%Wei%NULL%0,    Lei%Chen%NULL%0,    Hui-Guo%Liu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,    Francesco%Innocenti%NULL%1,    Julien%Beauté%NULL%1,    Veronika%Učakar%NULL%1,    Marta%Grgič Vitek%NULL%1,    Eero%Poukka%NULL%1,    Tuula%Hannila-Handelberg%NULL%1,    Charmaine%Gauci%NULL%1,    Tanya%Melillo%NULL%1,    Theano%Georgakopoulou%NULL%1,    Jiri%Jarkovsky%NULL%1,    Pavel%Slezak%NULL%1,    Concepción%Delgado-Sanz%NULL%1,    Carmen%Olmedo-Lucerón%NULL%1,    Heleene%Suija%NULL%1,    Rasa%Liausediene%NULL%1,    Piaras%O’Lorcain%NULL%1,    Niamh%Murphy%NULL%1,    André%Peralta-Santos%NULL%1,    Pedro%Casaca%NULL%1,    Ioanna%Gregoriou%NULL%1,    Nick%Bundle%NULL%1,    Gianfranco%Spiteri%NULL%1,    Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,    Peiyun%Li%NULL%1,    Liang%Ma%NULL%1,    Hang%Liang%NULL%1,    Jie%Lei%NULL%1,    Wenqiang%Li%NULL%1,    Kun%Wang%NULL%2,    Yu%Song%NULL%1,    Shuai%Li%NULL%1,    Wei%Yang%NULL%0,    Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,    Yun%Ling%NULL%0,    Yun%Ling%NULL%0,    Tao%Bai%NULL%4,    Tao%Bai%NULL%0,    Yusang%Xie%NULL%2,    Jie%Huang%NULL%4,    Jie%Huang%NULL%0,    Jian%Li%NULL%2,    Weining%Xiong%NULL%2,    Dexiang%Yang%NULL%2,    Rong%Chen%NULL%2,    Fangying%Lu%NULL%2,    Yunfei%Lu%NULL%2,    Xuhui%Liu%NULL%2,    Yuqing%Chen%NULL%4,    Yuqing%Chen%NULL%0,    Xin%Li%NULL%4,    Yong%Li%NULL%0,    Hanssa Dwarka%Summah%NULL%2,    Huihuang%Lin%NULL%2,    Jiayang%Yan%NULL%2,    Min%Zhou%NULL%0,    Hongzhou%Lu%NULL%0,    Hongzhou%Lu%NULL%0,    Jieming%Qu%NULL%0,    Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,    Massimiliano%Marino%NULL%0,    Debora%Formisano%NULL%0,    Francesco%Venturelli%NULL%0,    Massimo%Vicentini%NULL%0,    Massimo%Vicentini%NULL%0,    Roberto%Grilli%NULL%0,    NULL%NULL%NULL%0,    Gianluigi%Forloni%NULL%8,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,    Justin J.%Choi%NULL%0,    Laura C.%Pinheiro%NULL%0,    Edward J.%Schenck%NULL%0,    Ruijun%Chen%NULL%0,    Assem%Jabri%NULL%0,    Michael J.%Satlin%NULL%0,    Thomas R.%Campion%NULL%0,    Musarrat%Nahid%NULL%0,    Joanna B.%Ringel%NULL%0,    Katherine L.%Hoffman%NULL%0,    Mark N.%Alshak%NULL%0,    Han A.%Li%NULL%0,    Graham T.%Wehmeyer%NULL%0,    Graham T.%Wehmeyer%NULL%0,    Mangala%Rajan%NULL%0,    Evgeniya%Reshetnyak%NULL%0,    Nathaniel%Hupert%NULL%0,    Evelyn M.%Horn%NULL%0,    Fernando J.%Martinez%NULL%0,    Roy M.%Gulick%NULL%0,    Monika M.%Safford%NULL%0,    Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,    Norio%Ohmagari%NULL%1,    Daniel%Shin%NULL%1,    George%Diaz%NULL%1,    Erika%Asperges%NULL%1,    Antonella%Castagna%NULL%0,    Torsten%Feldt%NULL%1,    Gary%Green%NULL%1,    Margaret L.%Green%NULL%1,    François-Xavier%Lescure%NULL%3,    Emanuele%Nicastri%NULL%1,    Rentaro%Oda%NULL%2,    Rentaro%Oda%NULL%0,    Kikuo%Yo%NULL%2,    Kikuo%Yo%NULL%0,    Eugenia%Quiros-Roldan%NULL%1,    Alex%Studemeister%NULL%1,    John%Redinski%NULL%1,    Seema%Ahmed%NULL%1,    Jorge%Bernett%NULL%1,    Daniel%Chelliah%NULL%1,    Danny%Chen%NULL%1,    Shingo%Chihara%NULL%1,    Stuart H.%Cohen%NULL%1,    Jennifer%Cunningham%NULL%1,    Antonella%D’Arminio Monforte%NULL%1,    Saad%Ismail%NULL%1,    Hideaki%Kato%NULL%1,    Giuseppe%Lapadula%NULL%1,    Erwan%L’Her%NULL%1,    Toshitaka%Maeno%NULL%1,    Sumit%Majumder%NULL%1,    Marco%Massari%NULL%0,    Marta%Mora-Rillo%NULL%1,    Yoshikazu%Mutoh%NULL%1,    Duc%Nguyen%NULL%1,    Ewa%Verweij%NULL%1,    Alexander%Zoufaly%NULL%1,    Anu O.%Osinusi%NULL%1,    Adam%DeZure%NULL%1,    Yang%Zhao%NULL%1,    Lijie%Zhong%NULL%1,    Anand%Chokkalingam%NULL%1,    Emon%Elboudwarej%NULL%1,    Laura%Telep%NULL%1,    Leighann%Timbs%NULL%1,    Ilana%Henne%NULL%1,    Scott%Sellers%NULL%1,    Huyen%Cao%NULL%1,    Susanna K.%Tan%NULL%1,    Lucinda%Winterbourne%NULL%1,    Polly%Desai%NULL%1,    Robertino%Mera%NULL%1,    Anuj%Gaggar%NULL%1,    Robert P.%Myers%NULL%1,    Diana M.%Brainard%NULL%1,    Richard%Childs%NULL%1,    Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%0,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%0,    Chun-quan%Ou%NULL%0,    Jian-xing%He%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    David S.C.%Hui%NULL%0,    Bin%Du%NULL%0,    Lan-juan%Li%NULL%0,    Guang%Zeng%NULL%0,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%0,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%0,    Jin-lin%Wang%NULL%0,    Zi-jing%Liang%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,   Arunthamakun%Justin%coreGivesNoEmail%1,   Athavale%Ambarish M.%coreGivesNoEmail%1,   Bansal%Anip%coreGivesNoEmail%1,   Brenner%Samantha K.%coreGivesNoEmail%1,   Chan%Lili%coreGivesNoEmail%1,   Donnelly%John P.%coreGivesNoEmail%1,   Friedman%Allon N.%coreGivesNoEmail%1,   Gershengorn%Hayley B.%coreGivesNoEmail%1,   Goyal%Nitender%coreGivesNoEmail%1,   Green%Adam%coreGivesNoEmail%1,   Gupta%Shruti%coreGivesNoEmail%1,   Hayek%Salim S.%coreGivesNoEmail%1,   Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,   Kibbelaar%Zoe A.%coreGivesNoEmail%1,   Leaf%David E.%coreGivesNoEmail%1,   Leonberg-Yoo%Amanda%coreGivesNoEmail%1,   Mathews%Kusum S.%coreGivesNoEmail%1,   Melamed%Michal L.%coreGivesNoEmail%1,   Omar%Samah Abu%coreGivesNoEmail%1,   Parikh%Chirag R.%coreGivesNoEmail%1,   Radbel%Jared%coreGivesNoEmail%1,   Reiser%Jochen%coreGivesNoEmail%1,   Schenck%Edward J.%coreGivesNoEmail%1,   Semler%Matthew W.%coreGivesNoEmail%1,   Shaefi%Shahzad%coreGivesNoEmail%1,   Shehata%Alexandre M.%coreGivesNoEmail%1,   Short%Samuel A. P.%coreGivesNoEmail%1,   Srivastava%Anand%coreGivesNoEmail%1,   Sutherland%Anne%coreGivesNoEmail%1,   Velez%Juan Carlos Q.%coreGivesNoEmail%1,   Vijayan%Anitha%coreGivesNoEmail%1,   Wang%Wei%coreGivesNoEmail%1,   Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,    İmran%HASANOĞLU%NULL%2,    İmran%HASANOĞLU%NULL%0,    Bircan%KAYAASLAN%NULL%2,    Bircan%KAYAASLAN%NULL%0,    Adalet%AYPAK%NULL%2,    Adalet%AYPAK%NULL%0,    Ayşe%KAYA KALEM%NULL%2,    Ayşe%KAYA KALEM%NULL%0,    Fatma%ESER%NULL%2,    Fatma%ESER%NULL%0,    Burcu%ÖZDEMİR%NULL%2,    Burcu%ÖZDEMİR%NULL%0,    Elif Mükime%SARICAOĞLU%NULL%2,    Elif Mükime%SARICAOĞLU%NULL%0,    Müge%AYHAN%NULL%2,    Müge%AYHAN%NULL%0,    Yeşim%AYBAR BİLİR%NULL%2,    Yeşim%AYBAR BİLİR%NULL%0,    Işıl%ÖZKOÇAK TURAN%NULL%2,    Işıl%ÖZKOÇAK TURAN%NULL%0,    Deniz%ERDEM%NULL%2,    Deniz%ERDEM%NULL%0,    Nevzat Mehmet%MUTLU%NULL%1,    Turan%BUZGAN%NULL%2,    Turan%BUZGAN%NULL%0,    Bedia%DİNÇ%NULL%2,    Bedia%DİNÇ%NULL%0,    Esragül%AKINCI%NULL%2,    Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,    Elnara%Fazio-Eynullayeva%NULL%2,    Elnara%Fazio-Eynullayeva%NULL%0,    Deirdre A.%Lane%NULL%2,    Deirdre A.%Lane%NULL%0,    Paula%Underhill%NULL%2,    Paula%Underhill%NULL%0,    Gregory Y. H.%Lip%NULL%1,    Mirjam E. E.%Kretzschmar%NULL%3,    Mirjam E. E.%Kretzschmar%NULL%0,    Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,    Min%Xie%NULL%3,    Jianping%Zhao%NULL%0,    Xiansheng%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,    Shaoqiu%Chen%NULL%0,    Yuanyuan%Fu%NULL%0,    Zitong%Gao%NULL%0,    Hui%Long%NULL%0,    Jian-ming%Wang%NULL%0,    Hong-wei%Ren%NULL%0,    Yi%Zuo%NULL%0,    Huan%Li%NULL%0,    Jie%Wang%NULL%0,    Qing-bang%Xu%NULL%0,    Wen-xiong%Yu%NULL%0,    Jia%Liu%NULL%0,    Chen%Shao%NULL%0,    Jun-jie%Hao%NULL%0,    Chuan-zhen%Wang%NULL%0,    Yao%Ma%NULL%0,    Zhanwei%Wang%NULL%0,    Richard%Yanagihara%NULL%0,    Youping%Deng%dengy@hawaii.edu%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%0,    Lili%Ren%NULL%0,    Jianping%Zhao%NULL%0,    Yi%Hu%NULL%0,    Li%Zhang%NULL%0,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%0,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%0,    Xuelei%Xie%NULL%0,    Wen%Yin%NULL%0,    Hui%Li%NULL%0,    Min%Liu%NULL%0,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Li%Guo%NULL%0,    Jungang%Xie%NULL%0,    Guangfa%Wang%NULL%0,    Rongmeng%Jiang%NULL%0,    Zhancheng%Gao%NULL%0,    Qi%Jin%NULL%0,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,   Bayani%Masomeh%coreGivesNoEmail%1,   Bijani%Ali%coreGivesNoEmail%1,   Ebrahimpour%Soheil%coreGivesNoEmail%1,   Gholinejad%Hossein Emam%coreGivesNoEmail%1,   Ghorbani%Hossein%coreGivesNoEmail%1,   Hasanpour%Amir Hossein%coreGivesNoEmail%1,   Javanian%Mostafa%coreGivesNoEmail%1,   Masrour-Roudsari%Jila%coreGivesNoEmail%1,   Mehraeen%Rahele%coreGivesNoEmail%1,   Mohseni%Sima%coreGivesNoEmail%1,   Rostami%Ali%coreGivesNoEmail%1,   Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,   Sepidarkish%Mahdi%coreGivesNoEmail%1,   Shabani%Asieh%coreGivesNoEmail%1,   Shahbazi%Mehdi%coreGivesNoEmail%1,   Shokri%Mehran%coreGivesNoEmail%1,   Tabari%Afrooz Monadi%coreGivesNoEmail%1,   Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,    Matteo%Piccica%NULL%1,    Lucia%Graziani%NULL%1,    Iacopo%Vellere%NULL%1,    Annarita%Botta%NULL%3,    Marta%Tilli%NULL%3,    Letizia%Ottino%NULL%1,    Beatrice%Borchi%NULL%2,    Marco%Pozzi%NULL%1,    Filippo%Bartalesi%NULL%1,    Jessica%Mencarini%NULL%1,    Michele%Spinicci%NULL%1,    Lorenzo%Zammarchi%NULL%1,    Filippo%Pieralli%NULL%1,    Giovanni%Zagli%NULL%1,    Carlo%Nozzoli%NULL%1,    Stefano%Romagnoli%NULL%1,    Alessandro%Bartoloni%NULL%2,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,    Zhao-Wu%Tao%NULL%0,    Lei%Wang%NULL%0,    Ming-Li%Yuan%NULL%0,    Kui%Liu%NULL%0,    Ling%Zhou%NULL%0,    Shuang%Wei%NULL%0,    Yan%Deng%NULL%0,    Jing%Liu%NULL%0,    Hui-Guo%Liu%NULL%0,    Ming%Yang%NULL%0,    Yi%Hu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,    Shuyun%Xu%NULL%2,    Muqing%Yu%NULL%2,    Ke%Wang%NULL%0,    Yu%Tao%NULL%0,    Ying%Zhou%NULL%0,    Jing%Shi%NULL%2,    Min%Zhou%NULL%0,    Bo%Wu%NULL%2,    Zhenyu%Yang%NULL%2,    Cong%Zhang%NULL%0,    Junqing%Yue%NULL%2,    Zhiguo%Zhang%NULL%2,    Harald%Renz%NULL%2,    Xiansheng%Liu%NULL%0,    Jungang%Xie%NULL%0,    Min%Xie%NULL%0,    Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,    Shu%Peng%NULL%1,    Le-qun%Li%NULL%1,    Qi%Wang%NULL%2,    Wei%Ping%NULL%1,    Ni%Zhang%NULL%1,    Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,    Yuanyuan%Xing%NULL%0,    Yu%Xiao%NULL%0,    Liping%Deng%NULL%0,    Qiu%Zhao%NULL%0,    Hongling%Wang%NULL%0,    Yong%Xiong%NULL%0,    Zhenshun%Cheng%NULL%0,    Shicheng%Gao%NULL%0,    Ke%Liang%NULL%0,    Mingqi%Luo%NULL%0,    Tielong%Chen%NULL%0,    Shihui%Song%NULL%0,    Zhiyong%Ma%NULL%0,    Xiaoping%Chen%NULL%0,    Ruiying%Zheng%NULL%0,    Qian%Cao%NULL%0,    Fan%Wang%fanndywang@foxmail.com%0,    Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,    Nicolas%Lopez-Villalobos%NULL%1,    Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,    Adam J%Russak%NULL%0,    Adam J%Russak%NULL%0,    Jessica K%De Freitas%NULL%0,    Anuradha%Lala%NULL%0,    Riccardo%Miotto%NULL%0,    Akhil%Vaid%NULL%0,    Kipp W%Johnson%NULL%0,    Matteo%Danieletto%NULL%0,    Eddye%Golden%NULL%0,    Dara%Meyer%NULL%0,    Manbir%Singh%NULL%0,    Sulaiman%Somani%NULL%0,    Arjun%Kapoor%NULL%1,    Ross%O'Hagan%NULL%1,    Sayan%Manna%NULL%1,    Udit%Nangia%NULL%1,    Suraj K%Jaladanki%NULL%1,    Paul%O’Reilly%NULL%2,    Paul%O’Reilly%NULL%0,    Laura M%Huckins%NULL%1,    Patricia%Glowe%NULL%1,    Arash%Kia%NULL%0,    Prem%Timsina%NULL%0,    Robert M%Freeman%NULL%1,    Matthew A%Levin%NULL%0,    Jeffrey%Jhang%NULL%0,    Adolfo%Firpo%NULL%1,    Patricia%Kovatch%NULL%0,    Joseph%Finkelstein%NULL%0,    Judith A%Aberg%NULL%0,    Emilia%Bagiella%NULL%0,    Carol R%Horowitz%NULL%0,    Barbara%Murphy%NULL%0,    Zahi A%Fayad%NULL%0,    Jagat%Narula%NULL%0,    Eric J%Nestler%NULL%0,    V%Fuster%NULL%1,    Carlos%Cordon-Cardo%NULL%0,    Dennis%Charney%NULL%1,    David L%Reich%NULL%0,    Allan%Just%NULL%1,    Erwin P%Bottinger%NULL%0,    Alexander W%Charney%NULL%0,    Benjamin S%Glicksberg%NULL%0,    Girish N%Nadkarni%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,     X.% Yan%null%2,     X.% Tang%null%1,     J.% Peng%null%1,     Q.% Yu%null%1,     L.% Feng%null%1,     G.% Yuan%null%1,     A.% Zhang%null%1,     Y.% Chen%null%1,     J.% Yuan%null%1,     X.% Huang%null%1,     X.% Zhang%null%1,     P.% Hu%null%1,     Y.% Song%null%1,     C.% Qian%null%1,     Q.% Sun%null%1,     D.% Wang%null%1,     J.% Tong%null%1,     J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,    Kevin Bryan%Lo%NULL%0,    Kevin Bryan%Lo%NULL%0,    Fahad%Gul%NULL%0,    Eric%Peterson%NULL%0,    Robert%De Joy%NULL%0,    Ruchika%Bhargav%NULL%0,    Jerald%Pelayo%NULL%0,    Jeri%Albano%NULL%0,    Zurab%Azmaiparashvili%NULL%0,    Sadia%Benzaquen%NULL%0,    Gabriel%Patarroyo‐Aponte%NULL%0,    Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,    Mu%Qin%qinmuae@163.com%0,    Yuli%Cai%NULL%0,    Tao%Liu%NULL%0,    Bo%Shen%NULL%0,    Fan%Yang%NULL%0,    Sheng%Cao%NULL%0,    Xu%Liu%NULL%0,    Xu%Liu%NULL%0,    Yaozu%Xiang%NULL%0,    Qinyan%Zhao%NULL%0,    He%Huang%huanghe1977@whu.edu.cn%0,    Bo%Yang%yybb112@whu.edu.cn%0,    Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,    Fergus%Hamilton%NULL%1,    Samuel%Gunning%NULL%1,    Caitlin%Sheehy%NULL%1,    Ed%Moran%NULL%1,    Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,    Yi%Xiang%NULL%0,    Wei%Fang%NULL%0,    Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,    Boqun%Li%279685211@qq.com%0,    Boqun%Li%279685211@qq.com%0,    Yanjun%Hu%huyanjun@163.com%0,    Chunhui%Lang%NULL%0,    Daoqiu%Huang%NULL%0,    Qiuyan%Sun%NULL%0,    Yan%Xiong%NULL%0,    Xia%Huang%NULL%0,    Jinglong%Lv%NULL%0,    Yaling%Luo%NULL%0,    Li%Shen%NULL%0,    Haoran%Yang%NULL%0,    Gu%Huang%NULL%0,    Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,    Wenbo%He%NULL%2,    Xiaomei%Yu%NULL%2,    Dalong%Hu%NULL%2,    Mingwei%Bao%NULL%2,    Huafen%Liu%NULL%2,    Jiali%Zhou%NULL%2,    Hong%Jiang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,    Bohan%Yang%NULL%0,    Qianwen%Li%NULL%0,    Lu%Wen%NULL%0,    Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,   Xu%Y%coreGivesNoEmail%1,   Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,    Fen%Li%NULL%0,    Xiao%Wang%NULL%0,    Jie%Yan%NULL%0,    Fen%Zhu%NULL%0,    Shifan%Tang%NULL%0,    Yingzhong%Deng%NULL%0,    Hua%Wang%NULL%0,    Rui%Chen%NULL%0,    Zhili%Yu%NULL%0,    Yaping%Li%NULL%0,    Jingzhou%Shang%NULL%0,    Lingjun%Zeng%NULL%0,    Jie%Zhao%NULL%0,    Chaokun%Guan%NULL%0,    Qiaomei%Liu%NULL%0,    Haifeng%Chen%NULL%0,    Wei%Gong%NULL%0,    Xin%Huang%NULL%0,    Yu‐Jiao%Zhang%NULL%0,    Jianguang%Liu%NULL%0,    Xiaoyan%Dong%NULL%0,    Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,    Shaoping%Nie%spnie@126.com%0,    Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,    Pengfei%Wang%NULL%2,    Pengfei%Wang%NULL%0,    Yuyan%Song%NULL%1,    An%Zhang%zhangan@hospital.cqmu.edu.cn%1,    Guodan%Yuan%71502294@qq.com%1,    Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,   Cao%Yi-yuan%coreGivesNoEmail%0,   Dong%Xiang%coreGivesNoEmail%0,   Gao%Ya-dong%coreGivesNoEmail%0,   Yan%You-qin%coreGivesNoEmail%0,   Yang%Yi-bin%coreGivesNoEmail%0,   Yuan%Ya-dong%coreGivesNoEmail%0,   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,    Chang%Hu%NULL%3,    Linjie%Luo%NULL%2,    Fang%Fang%NULL%4,    Yongfeng%Chen%NULL%2,    Jianguo%Li%NULL%2,    Zhiyong%Peng%NULL%0,    Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,    Miao%Yu%NULL%0,    Song%Tong%NULL%1,    Lu-Yu%Liu%NULL%1,    Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,    Huangqing%Ouyang%NULL%1,    Lingli%Fu%NULL%1,    Shijie%Wang%NULL%1,    Jianglong%Han%NULL%1,    Kejie%Huang%NULL%1,    Mingfang%Jia%NULL%1,    Qibin%Song%NULL%1,    Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,    Anne%Chen%NULL%0,    Wei%Hou%NULL%0,    James M.%Graham%NULL%0,    Haifang%Li%NULL%0,    Paul S.%Richman%NULL%0,    Henry C.%Thode%NULL%0,    Adam J.%Singer%NULL%0,    Tim Q.%Duong%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,     Sarah%Al-Youha%sarahalyouha@gmail.com%2,     Mohammad H.%Jamal%NULL%2,     Mohannad%Al-Haddad%NULL%2,     Ali%Al-Muhaini%NULL%2,     Fahad%Al-Ghimlas%NULL%2,     Salman%Al-Sabah%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,     Samuel L%Bruce%NULL%3,     Cody L%Slater%NULL%3,     Jonathan R%Tiao%NULL%3,     Matthew R%Baldwin%NULL%4,     R Graham%Barr%NULL%3,     Bernard P%Chang%NULL%3,     Katherine H%Chau%NULL%3,     Justin J%Choi%NULL%3,     Nicholas%Gavin%NULL%3,     Parag%Goyal%NULL%3,     Angela M%Mills%NULL%3,     Ashmi A%Patel%NULL%3,     Marie-Laure S%Romney%NULL%3,     Monika M%Safford%NULL%3,     Neil W%Schluger%NULL%3,     Soumitra%Sengupta%NULL%3,     Magdalena E%Sobieszczyk%NULL%3,     Jason E%Zucker%NULL%3,     Paul A%Asadourian%NULL%3,     Fletcher M%Bell%NULL%3,     Rebekah%Boyd%NULL%3,     Matthew F%Cohen%NULL%3,     MacAlistair I%Colquhoun%NULL%3,     Lucy A%Colville%NULL%3,     Joseph H%de Jonge%NULL%3,     Lyle B%Dershowitz%NULL%3,     Shirin A%Dey%NULL%3,     Katherine A%Eiseman%NULL%3,     Zachary P%Girvin%NULL%3,     Daniella T%Goni%NULL%3,     Amro A%Harb%NULL%3,     Nicholas%Herzik%NULL%3,     Sarah%Householder%NULL%3,     Lara E%Karaaslan%NULL%3,     Heather%Lee%NULL%3,     Evan%Lieberman%NULL%3,     Andrew%Ling%NULL%3,     Ree%Lu%NULL%3,     Arthur Y%Shou%NULL%3,     Alexander C%Sisti%NULL%3,     Zachary E%Snow%NULL%3,     Colin P%Sperring%NULL%3,     Yuqing%Xiong%NULL%3,     Henry W%Zhou%NULL%3,     Karthik%Natarajan%NULL%3,     George%Hripcsak%NULL%3,     Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,     Mark%Caridi-Scheible%NULL%6,     James M.%Blum%NULL%4,     Chad%Robichaux%NULL%4,     Colleen%Kraft%NULL%4,     Jesse T.%Jacob%NULL%4,     Craig S.%Jabaley%NULL%4,     David%Carpenter%NULL%4,     Roberta%Kaplow%NULL%4,     Alfonso C.%Hernandez-Romieu%NULL%4,     Max W.%Adelman%NULL%4,     Greg S.%Martin%NULL%4,     Craig M.%Coopersmith%NULL%4,     David J.%Murphy%NULL%4,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Berenguer%NULL%1,     Pablo%Ryan%NULL%0,     Jesús%Rodríguez-Baño%NULL%1,     Inmaculada%Jarrín%NULL%4,     Jordi%Carratalà%NULL%4,     Jerónimo%Pachón%NULL%0,     María%Yllescas%NULL%1,     José Ramón%Arriba%NULL%1,     NULL%NULL%NULL%0,     Esther%Aznar Muñoz%NULL%1,     Pedro%Gil Divasson%NULL%1,     Patricia%González Muñiz%NULL%1,     Clara%Muñoz Aguirre%NULL%1,     Juan Carlos%López%NULL%3,     Juan Carlos%López%NULL%0,     Juan Carlos%López%NULL%0,     Margarita%Ramírez-Schacke%NULL%1,     Isabel%Gutiérrez%NULL%1,     Francisco%Tejerina%NULL%1,     Teresa%Aldámiz-Echevarría%NULL%1,     Cristina%Díez%NULL%1,     Chiara%Fanciulli%NULL%1,     Leire%Pérez-Latorre%NULL%1,     Francisco%Parras%NULL%1,     Pilar%Catalán%NULL%1,     María E.%García-Leoni%NULL%1,     Isabel%Pérez-Tamayo%NULL%1,     Luis%Puente%NULL%1,     Jamil%Cedeño%NULL%1,     Juan%Berenguer%NULL%1,     Marta%Díaz Menéndez%NULL%3,     Marta%Díaz Menéndez%NULL%0,     Marta%Díaz Menéndez%NULL%0,     Fernando%de la Calle Prieto%NULL%1,     Marta%Arsuaga Vicente%NULL%1,     Elena%Trigo Esteban%NULL%1,     Mª del Mar%Lago Núñez%NULL%1,     Rosa%de Miguel Buckley%NULL%1,     Julen%Cadiñaños Loidi%NULL%1,     Carmen%Busca Arenzana%NULL%1,     Alfredo%Mican%NULL%1,     Marta%Mora Rillo%NULL%1,     Juan Carlos%Ramos Ramos%NULL%1,     Belén%Loeches Yagüe%NULL%1,     José Ignacio%Bernardino de la Serna%NULL%1,     Julio%García Rodríguez%NULL%1,     José Ramón%Arribas López%NULL%1,     Ana%Such Diaz%NULL%3,     Ana%Such Diaz%NULL%0,     Ana%Such Diaz%NULL%0,     Elena%Álvaro Alonso%NULL%1,     Elsa%Izquierdo García%NULL%1,     Juan%Torres Macho%NULL%1,     Guillermo%Cuevas Tascon%NULL%1,     Jesús%Troya García%NULL%1,     Beatriz%Mestre Gómez%NULL%1,     Eva%Jiménez González de Buitrago%NULL%1,     Inés%Fernández Jiménez%NULL%1,     Ana Josefa%Tebar Martínez%NULL%1,     Fátima%Brañas Baztán%NULL%1,     Jorge%Valencia de la Rosa%NULL%1,     Mario%Pérez Butragueño%NULL%1,     Marta%Alvarado Blasco%NULL%1,     Pablo%Ryan%NULL%0,     Mª Antonia%Sepúlveda Berrocal%NULL%3,     Mª Antonia%Sepúlveda Berrocal%NULL%0,     Mª Antonia%Sepúlveda Berrocal%NULL%0,     Carmen%Yera Bergua%NULL%1,     Pilar%Toledano Sierra%NULL%1,     Verónica%Cano Llorente%NULL%1,     Sadaf%Zafar Iqubal-Mirza%NULL%1,     Gema%Muñiz%NULL%1,     Inmaculada%Martín Pérez%NULL%1,     Helena%Mozas Moriñigo%NULL%1,     Ana%Alguacil%NULL%1,     María Paz%García Butenegro%NULL%1,     Ana Isabel%Peláez Ballesta%NULL%3,     Ana Isabel%Peláez Ballesta%NULL%0,     Ana Isabel%Peláez Ballesta%NULL%0,     Elena%Morcillo Rodríguez%NULL%1,     Josune%Goikoetxea Agirre%NULL%3,     Josune%Goikoetxea Agirre%NULL%0,     Josune%Goikoetxea Agirre%NULL%0,     María José%Blanco Vidal%NULL%1,     Javier%Nieto Arana%NULL%1,     Mikel%del Álamo Martínez de Lagos%NULL%1,     Isabel A.%Pérez Hernández%NULL%3,     Isabel A.%Pérez Hernández%NULL%0,     Isabel A.%Pérez Hernández%NULL%0,     Inés%Pérez Zapata%NULL%1,     Rafael%Silvariño Fernández%NULL%3,     Rafael%Silvariño Fernández%NULL%0,     Rafael%Silvariño Fernández%NULL%0,     Jon%Ugalde Espiñeira%NULL%1,     Víctor%Asensi Álvarez%NULL%3,     Víctor%Asensi Álvarez%NULL%0,     Víctor%Asensi Álvarez%NULL%0,     Lucia%Suárez Pérez%NULL%1,     Silvia%Suárez Diaz%NULL%1,     Carmen%Yllera Gutiérrez%NULL%1,     Vicente%Boix%NULL%3,     Vicente%Boix%NULL%0,     Vicente%Boix%NULL%0,     Marcos%Díez Martínez%NULL%1,     Melissa%Carreres Candela%NULL%1,     Cristina%Gómez-Ayerbe%NULL%3,     Cristina%Gómez-Ayerbe%NULL%0,     Cristina%Gómez-Ayerbe%NULL%0,     Javier%Sánchez-Lora%NULL%1,     José Luis%Velasco Garrido%NULL%1,     María%López-Jódar%NULL%1,     Jesús%Santos González%NULL%1,     Jesús%Ruiz Aragón%NULL%3,     Jesús%Ruiz Aragón%NULL%0,     Jesús%Ruiz Aragón%NULL%0,     Ianire%Virto Peña%NULL%1,     Vanessa%Alende Castro%NULL%3,     Vanessa%Alende Castro%NULL%0,     Vanessa%Alende Castro%NULL%0,     Ruth%Brea Aparicio%NULL%1,     Sonia%Vega Molpeceres%NULL%3,     Sonia%Vega Molpeceres%NULL%0,     Sonia%Vega Molpeceres%NULL%0,     Estel%Pons Viñas%NULL%1,     Oscar%del Río Pérez%NULL%3,     Oscar%del Río Pérez%NULL%0,     Oscar%del Río Pérez%NULL%0,     Silvia%Valero Rovira%NULL%1,     Judit%Villar-García%NULL%3,     Judit%Villar-García%NULL%0,     Judit%Villar-García%NULL%0,     Joan%Gómez-Junyent%NULL%1,     Hernando%Knobel%NULL%1,     María Cecilia%Cánepa%NULL%1,     Silvia%Castañeda Espinosa%NULL%1,     Luisa%Sorli Redò%NULL%1,     Roberto%Güerri-Fernández%NULL%1,     María%Milagro Montero%NULL%1,     Juan Pablo%Horcajada%NULL%1,     Elisa%García Vázquez%NULL%3,     Elisa%García Vázquez%NULL%0,     Elisa%García Vázquez%NULL%0,     Encarnación%Moral Escudero%NULL%1,     Alicia%Hernández Torres%NULL%1,     Esther%García Almodóvar%NULL%3,     Esther%García Almodóvar%NULL%0,     Esther%García Almodóvar%NULL%0,     Carmen%Sáez Barberá%NULL%3,     Carmen%Sáez Barberá%NULL%0,     Carmen%Sáez Barberá%NULL%0,     Zineb%Karroud%NULL%1,     José%Hernández Quero%NULL%3,     José%Hernández Quero%NULL%0,     José%Hernández Quero%NULL%0,     David%Vinuesa García%NULL%1,     José Luis%García Fogeda%NULL%1,     José Antonio%Peregrina%NULL%1,     María%Novella Mena%NULL%3,     María%Novella Mena%NULL%0,     María%Novella Mena%NULL%0,     Cristina%Hernández Gutiérrez%NULL%1,     José%Sanz Moreno%NULL%1,     Ramón%Pérez Tanoira%NULL%1,     Rodrigo%Sierra Rodríguez%NULL%1,     David%Alonso Menchén%NULL%1,     Aida%Gutiérrez García%NULL%1,     Alberto%Arranz Caso%NULL%1,     Juan%Cuadros González%NULL%1,     Melchor%Álvarez de Mon Soto%NULL%1,     Vicente Ferrer%Díaz de Brito Fernández%NULL%3,     Vicente Ferrer%Díaz de Brito Fernández%NULL%0,     Vicente Ferrer%Díaz de Brito Fernández%NULL%0,     Montserrat%Sanmarti Vilamala%NULL%1,     Aina%Gabarrell Pascuet%NULL%1,     Daniel%Molina Morant%NULL%1,     Sergio%España Cueto%NULL%1,     Jonathan%Cámara Fernández%NULL%1,     Albert%Sabater Gil%NULL%1,     Laura%Muñoz López%NULL%1,     Paula%Sáez Escolano%NULL%3,     Paula%Sáez Escolano%NULL%0,     Paula%Sáez Escolano%NULL%0,     Esperanza%Bejarano Tello%NULL%1,     Marco Antonio%Sempere Alcocer%NULL%3,     Marco Antonio%Sempere Alcocer%NULL%0,     Marco Antonio%Sempere Alcocer%NULL%0,     Salvador%Álvarez Martin%NULL%1,     Ignacio%De los Santos Gil%NULL%3,     Ignacio%De los Santos Gil%NULL%0,     Ignacio%De los Santos Gil%NULL%0,     Lucio%García-Fraile%NULL%1,     Miguel%Sampedro Núñez%NULL%1,     Ana%Barrios Blandino%NULL%1,     Carlos%Rodríguez Franco%NULL%1,     Daniel%Useros Brañas%NULL%1,     Almudena%Villa Martí%NULL%1,     Javier%Oliver Ortega%NULL%1,     Alexia%Costanza Espiño Álvarez%NULL%1,     Jesús%Sanz Sanz%NULL%1,     María%Rexach Fumaña%NULL%3,     María%Rexach Fumaña%NULL%0,     María%Rexach Fumaña%NULL%0,     Ivette%Abascal Cambras%NULL%1,     Ana del Cielo%Pérez Jaén%NULL%1,     Clara%Sala Jofre%NULL%3,     Clara%Sala Jofre%NULL%0,     Clara%Sala Jofre%NULL%0,     Susana%Casas Rodríguez%NULL%1,     Cecilia%Tortajada Alamilla%NULL%3,     Cecilia%Tortajada Alamilla%NULL%0,     Cecilia%Tortajada Alamilla%NULL%0,     Carmina%Oltra%NULL%1,     Mar%Masiá Canuto%NULL%3,     Mar%Masiá Canuto%NULL%0,     Mar%Masiá Canuto%NULL%0,     Félix%Gutiérrez Rodero%NULL%1,     Ana%Ferrer Ribera%NULL%3,     Ana%Ferrer Ribera%NULL%0,     Ana%Ferrer Ribera%NULL%0,     Carlos%Bea Serrano%NULL%1,     Miguel%Pedromingo Kus%NULL%3,     Miguel%Pedromingo Kus%NULL%0,     Miguel%Pedromingo Kus%NULL%0,     María Ángeles%Garcinuño%NULL%1,     Silvana%Fiorante%NULL%1,     Sergio%Pérez Pinto%NULL%1,     Pilar%Hernández Machín%NULL%3,     Pilar%Hernández Machín%NULL%0,     Pilar%Hernández Machín%NULL%0,     Alba%Alastrué Violeta%NULL%1,     María Carmen%Fariñas Álvarez%NULL%3,     María Carmen%Fariñas Álvarez%NULL%0,     María Carmen%Fariñas Álvarez%NULL%0,     Claudia%González Rico%NULL%1,     Francisco%Arnaiz de las Revillas%NULL%1,     Jorge%Calvo%NULL%1,     Mónica%Gozalo%NULL%1,     Francisco%Mora Gómez%NULL%3,     Francisco%Mora Gómez%NULL%0,     Francisco%Mora Gómez%NULL%0,     Ana%Milagro Beamonte%NULL%3,     Ana%Milagro Beamonte%NULL%0,     Ana%Milagro Beamonte%NULL%0,     Miriam%Latorre-Millán%NULL%1,     Antonio%Rezusta López%NULL%1,     Ana%Martínez Sapiña%NULL%1,     Yolanda%Meije%NULL%3,     Yolanda%Meije%NULL%0,     Yolanda%Meije%NULL%0,     Alejandra%Duarte Borges%NULL%1,     Julia%Pareja Coca%NULL%1,     Mercedes%Clemente Presas%NULL%1,     Juan Emilio%Losa García%NULL%3,     Juan Emilio%Losa García%NULL%0,     Juan Emilio%Losa García%NULL%0,     Ana%Vegas Serrano%NULL%1,     M. Teresa%Pérez-Rodríguez%NULL%3,     M. Teresa%Pérez-Rodríguez%NULL%0,     M. Teresa%Pérez-Rodríguez%NULL%0,     Alexandre%Pérez González%NULL%1,     Moncef%Belhassen-García%NULL%3,     Moncef%Belhassen-García%NULL%0,     Moncef%Belhassen-García%NULL%0,     Beatriz%Rodríguez-Alonso%NULL%1,     Amparo%López-Bernus%NULL%1,     Cristina%Carbonell%NULL%1,     Rafael%Torres Perea%NULL%3,     Rafael%Torres Perea%NULL%0,     Rafael%Torres Perea%NULL%0,     Juan%Cantón de Seoane%NULL%1,     Blanca%Alonso%NULL%1,     Sara Lidia%Kamal%NULL%1,     Lucia%Cajuela%NULL%1,     David%Roa%NULL%1,     Miguel%Cervero%NULL%1,     Alberto%Oreja%NULL%1,     Juan Pablo%Avilés%NULL%1,     Lidia%Martín%NULL%1,     Iván%Pelegrín Senent%NULL%3,     Iván%Pelegrín Senent%NULL%0,     Iván%Pelegrín Senent%NULL%0,     Rosana%Rouco Esteves Marques%NULL%1,     Jorge%Parra Ruiz%NULL%3,     Jorge%Parra Ruiz%NULL%0,     Jorge%Parra Ruiz%NULL%0,     Violeta%Ramos Sesma%NULL%1,     Jessica%Abadia Otero%NULL%3,     Jessica%Abadia Otero%NULL%0,     Jessica%Abadia Otero%NULL%0,     Juan%Salillas Hernando%NULL%3,     Juan%Salillas Hernando%NULL%0,     Juan%Salillas Hernando%NULL%0,     Robert%Torres Sánchez del Arco%NULL%1,     Miguel%Torralba González de Suso%NULL%1,     Alberto%Serrano Martínez%NULL%1,     Sergio%Gilaberte Reyzábal%NULL%1,     Marina%Pacheco Martínez-Atienza%NULL%1,     Mónica%Liébana Gómez%NULL%1,     Sara%Fernández Rodríguez%NULL%1,     Álvaro%Varela Plaza%NULL%1,     Henar%Calvo Sánchez%NULL%1,     Patricia%Martínez Martín%NULL%3,     Patricia%Martínez Martín%NULL%0,     Patricia%Martínez Martín%NULL%0,     Patricia%González- Ruano%NULL%1,     Eduardo%Malmierca Corral%NULL%1,     Isabel%Rábago Lorite%NULL%1,     Beatriz%Pérez-Monte Mínguez%NULL%1,     Ángeles%García Flores%NULL%3,     Ángeles%García Flores%NULL%0,     Ángeles%García Flores%NULL%0,     Pere%Comas Casanova%NULL%1,     Merce%Sirisi%NULL%3,     Merce%Sirisi%NULL%0,     Merce%Sirisi%NULL%0,     Richard%Rojas%NULL%1,     José Luis%Díaz de Tuesta del Arco%NULL%3,     José Luis%Díaz de Tuesta del Arco%NULL%0,     José Luis%Díaz de Tuesta del Arco%NULL%0,     Ruth%Figueroa Cerón%NULL%1,     Ander%González Sarria%NULL%1,     Remedios%Alemán Valls%NULL%3,     Remedios%Alemán Valls%NULL%0,     Remedios%Alemán Valls%NULL%0,     María del Mar%Alonso Socas%NULL%1,     Oscar%Sanz Peláez%NULL%3,     Oscar%Sanz Peláez%NULL%0,     Oscar%Sanz Peláez%NULL%0,     Karim%Mohamed Ramírez%NULL%1,     Melchor%Riera Jaume%NULL%3,     Melchor%Riera Jaume%NULL%0,     Melchor%Riera Jaume%NULL%0,     Helem Haydee%Vilchez%NULL%1,     Francesc%Albertí%NULL%1,     Ana Isabel%Cañabate%NULL%1,     Víctor J.%Moreno Cuerda%NULL%3,     Víctor J.%Moreno Cuerda%NULL%0,     Víctor J.%Moreno Cuerda%NULL%0,     Silvia%Álvarez Kaelis%NULL%1,     Beatriz%Álvarez Zapatero%NULL%1,     Alejandro%García García%NULL%1,     Elena%Isaba Ares%NULL%1,     Covadonga%Morcate Fernández%NULL%1,     Andrea%Pérez Rodríguez%NULL%1,     Lucía%Ramos Merino%NULL%3,     Lucía%Ramos Merino%NULL%0,     Lucía%Ramos Merino%NULL%0,     Laura%Castelo Corral%NULL%1,     María%Rodríguez Mahía%NULL%1,     Mónica%González Bardanca%NULL%1,     Efrén%Sánchez Vidal%NULL%1,     Enrique%Míguez Rey%NULL%1,     Javier%De la Torre Lima%NULL%3,     Javier%De la Torre Lima%NULL%0,     Javier%De la Torre Lima%NULL%0,     José Mª%García de Lomas Guerrero%NULL%1,     Elena%Morte%NULL%3,     Elena%Morte%NULL%0,     Elena%Morte%NULL%0,     Silvia%Loscos%NULL%1,     Ana%Camón%NULL%1,     Lucía%Gómez García%NULL%3,     Lucía%Gómez García%NULL%0,     Lucía%Gómez García%NULL%0,     Lucia%Boix Palop%NULL%1,     Beatriz%Dietl Gómez-Luengo%NULL%1,     Iris%Pedrola Gorrea%NULL%3,     Iris%Pedrola Gorrea%NULL%0,     Iris%Pedrola Gorrea%NULL%0,     Amparo%Blasco Claramunt%NULL%1,     Cristina%López Mestanza%NULL%3,     Cristina%López Mestanza%NULL%0,     Cristina%López Mestanza%NULL%0,     Esther%Fraile Villarejo%NULL%1,     Tomás%Tosco Núñez%NULL%3,     Tomás%Tosco Núñez%NULL%0,     Tomás%Tosco Núñez%NULL%0,     María%Aroca Ferri%NULL%1,     José Tomas%Algado Rabasa%NULL%3,     José Tomas%Algado Rabasa%NULL%0,     José Tomas%Algado Rabasa%NULL%0,     Ana María%Garijo Saiz%NULL%1,     Concepción%Amador Prous%NULL%1,     Jesús Rodriguez%Baño%NULL%3,     Jesús Rodriguez%Baño%NULL%0,     Jesús Rodriguez%Baño%NULL%0,     Pilar%Retamar%NULL%1,     Adoración%Valiente%NULL%1,     Luis E.%López-Cortés%NULL%1,     Jesús%Sojo%NULL%1,     Belén%Gutiérrez-Gutiérrez%NULL%1,     José%Bravo-Ferrer%NULL%1,     Elena%Salamanca%NULL%1,     Zaira R.%Palacios%NULL%1,     Patricia%Pérez-Palacios%NULL%1,     Enrique%Peral%NULL%1,     José Antonio%Pérez de León%NULL%1,     Jesús%Sánchez-Gómez%NULL%1,     Lucía%Marín-Barrera%NULL%1,     Domingo%García-Jiménez%NULL%1,     Jordi%Carratalà%NULL%0,     Jordi%Carratalà%NULL%0,     Jordi%Carratalà%NULL%0,     Gabriela%Abelenda-Alonso%NULL%1,     Carmen%Ardanuy%NULL%1,     Alba%Bergas%NULL%1,     Guillermo%Cuervo%NULL%1,     María Ángeles%Domínguez%NULL%1,     Miguel%Fernández-Huerta%NULL%1,     Carlota%Gudiol%NULL%1,     Laia%Lorenzo-Esteller%NULL%1,     Jordi%Niubó%NULL%1,     Sandra%Pérez-Recio%NULL%1,     Daniel%Podzamczer%NULL%1,     Miquel%Pujol%NULL%1,     Alexander%Rombauts%NULL%1,     Núria%Trullen%NULL%1,     Miguel%Salavert Lletí%NULL%3,     Miguel%Salavert Lletí%NULL%0,     Miguel%Salavert Lletí%NULL%0,     Iván%Castro Hernández%NULL%1,     Adriana%Hernández Belmonte%NULL%3,     Adriana%Hernández Belmonte%NULL%0,     Adriana%Hernández Belmonte%NULL%0,     Raquel%Martínez Goñi%NULL%1,     Marta%Navarro Vilasaró%NULL%3,     Marta%Navarro Vilasaró%NULL%0,     Marta%Navarro Vilasaró%NULL%0,     Sonia%Calzado Isbert%NULL%1,     Manuel%Cervantes García%NULL%1,     Aina%Gomila Grange%NULL%1,     Oriol%Gasch Blasi%NULL%1,     María Luisa%Machado Sicilia%NULL%1,     Eva%Van den Eynde Otero%NULL%1,     Luis%Falgueras López%NULL%1,     María del Carmen%Navarro Sáez%NULL%1,     Esteban%Martínez%NULL%3,     Esteban%Martínez%NULL%0,     Esteban%Martínez%NULL%0,     Mª Ángeles%Marcos%NULL%1,     Mar%Mosquera%NULL%1,     José Luis%Blanco%NULL%1,     Montserrat%Laguno%NULL%1,     Jhon%Rojas%NULL%1,     Ana%González-Cordón%NULL%1,     Alexy%Inciarte%NULL%1,     Berta%Torres%NULL%1,     Lorena%De la Mora%NULL%1,     Alex%Soriano%NULL%1,     Olalla%Martínez Macias%NULL%3,     Olalla%Martínez Macias%NULL%0,     Olalla%Martínez Macias%NULL%0,     Virginia%Pérez Doñate%NULL%1,     Alfonso%Cabello Úbeda%NULL%3,     Alfonso%Cabello Úbeda%NULL%0,     Alfonso%Cabello Úbeda%NULL%0,     Nerea%Carrasco Antón%NULL%1,     Beatriz%Álvarez Álvarez%NULL%1,     Elizabet%Petkova Saiz%NULL%1,     Miguel%Górgolas Hernández-Mora%NULL%1,     Laura%Prieto Pérez%NULL%1,     Irene%Carrillo Acosta%NULL%1,     Sara%Heili Frades%NULL%1,     Felipe%Villar Álvarez%NULL%1,     Ricardo%Fernández Roblas%NULL%1,     José María%Milicua Muñoz%NULL%1,     Virginia%Fernández Espinilla%NULL%3,     Virginia%Fernández Espinilla%NULL%0,     Virginia%Fernández Espinilla%NULL%0,     Carlos Jesús%Dueñas Gutiérrez%NULL%1,     Cristina%Hernán García%NULL%1,     Fernando%González-Romo%NULL%3,     Fernando%González-Romo%NULL%0,     Fernando%González-Romo%NULL%0,     Paloma%Merino Amador%NULL%1,     Alba%Rueda López%NULL%1,     Jorge%Martínez Jordán%NULL%1,     Sara%Medrano Pardo%NULL%1,     Irene%Díaz de la Torre%NULL%1,     Yolanda%Posada Franco%NULL%1,     Alberto%Delgado-Iribarren%NULL%1,     Joaquín%López-Contreras González%NULL%3,     Joaquín%López-Contreras González%NULL%0,     Joaquín%López-Contreras González%NULL%0,     Pablo%Pascual Alonso%NULL%1,     Virginia%Pomar Solchaga%NULL%1,     Nuria%Rabella García%NULL%1,     Natividad%Benito Hernández%NULL%1,     Pere%Domingo Pedrol%NULL%1,     Xavier%Bonfill Cosp%NULL%1,     Rafael%Padrós Selma%NULL%1,     Mireia%Puig Campmany%NULL%1,     Jordi%Mancebo Cortés%NULL%1,     Mercè%Gurguí Ferrer%NULL%1,     Melania%Íñigo Pestaña%NULL%3,     Melania%Íñigo Pestaña%NULL%0,     Melania%Íñigo Pestaña%NULL%0,     Alejandra%Pérez García%NULL%1,     Patricia%Sorní Moreno%NULL%3,     Patricia%Sorní Moreno%NULL%0,     Patricia%Sorní Moreno%NULL%0,     Nora%Izko Gartzia%NULL%1,     Francisco Javier%Membrillo de Novales%NULL%3,     Francisco Javier%Membrillo de Novales%NULL%0,     Francisco Javier%Membrillo de Novales%NULL%0,     María%Simón Sacristán%NULL%1,     Maribel%Zamora Cintas%NULL%1,     Yolanda%Martínez Martínez%NULL%1,     Pablo%Fernández-González%NULL%1,     Francisco%Alcántara Nicolás%NULL%1,     Alejandro%Aguirre Vila-Cora%NULL%1,     Elena%López Tizón%NULL%1,     Germán%Ramírez-Olivencia%NULL%1,     Miriam%Estébanez Muñoz%NULL%1,     Ester%Sáez de Adana Arróniz%NULL%3,     Ester%Sáez de Adana Arróniz%NULL%0,     Ester%Sáez de Adana Arróniz%NULL%0,     Joseba%Portu Zapirain%NULL%1,     Juan Carlos%Gainzarain Arana%NULL%1,     Zuriñe%Ortiz de Zárate Ibarra%NULL%1,     Miguel Ángel%Moran Rodríguez%NULL%1,     Andrés%Canut Blasco%NULL%1,     Silvia%Hernáez Crespo%NULL%1,     Leire%Balerdi Sarasola%NULL%1,     Cristina%Morales García%NULL%1,     Miguel%Corral Saracho%NULL%1,     Zeltia%Valcarce González%NULL%1,     Noelia%Arenal Andrés%NULL%3,     Noelia%Arenal Andrés%NULL%0,     Noelia%Arenal Andrés%NULL%0,     Raquel Elisa%Rodríguez Tarazona%NULL%1,     Laura%Iglesias Llorente%NULL%3,     Laura%Iglesias Llorente%NULL%0,     Laura%Iglesias Llorente%NULL%0,     Beatriz%Loureiro Rodríguez%NULL%1,     Adrián%Sánchez Montalvá%NULL%3,     Adrián%Sánchez Montalvá%NULL%0,     Adrián%Sánchez Montalvá%NULL%0,     Juan%Espinosa Pereiro%NULL%1,     Benito%Almirante%NULL%1,     Marta%Miarons%NULL%1,     Júlia%Sellarés%NULL%1,     María%Larrosa%NULL%1,     Sonia%García%NULL%1,     Blanca%Marzo%NULL%1,     Miguel%Villamarín%NULL%1,     Nuria%Fernández%NULL%1,     Conchita%Pérez-Jorge Peremarch%NULL%3,     Conchita%Pérez-Jorge Peremarch%NULL%0,     Conchita%Pérez-Jorge Peremarch%NULL%0,     Elena%Resino Foz%NULL%1,     Andrea%Espigares Correa%NULL%1,     Teresa%Álvarez de Espejo Montiel%NULL%1,     Iván%Navas Clemente%NULL%1,     María Isabel%Quijano Contreras%NULL%1,     Luis Alberto%Nieto Fernández del Campo%NULL%1,     Guillermo%Jiménez Álvarez%NULL%1,     Mercedes%Guillamón Sánchez%NULL%3,     Mercedes%Guillamón Sánchez%NULL%0,     Mercedes%Guillamón Sánchez%NULL%0,     Josefina%García García%NULL%1,     Constanza%Muñoz Hornero%NULL%3,     Constanza%Muñoz Hornero%NULL%0,     Constanza%Muñoz Hornero%NULL%0,     Ana%Mariño Callejo%NULL%3,     Ana%Mariño Callejo%NULL%0,     Ana%Mariño Callejo%NULL%0,     Nieves%Valcarce Pardeiro%NULL%1,     Alex%Smithson Amat%NULL%3,     Alex%Smithson Amat%NULL%0,     Alex%Smithson Amat%NULL%0,     Cristina%Chico Chumillas%NULL%1,     Adriana%Sánchez Serrano%NULL%3,     Adriana%Sánchez Serrano%NULL%0,     Adriana%Sánchez Serrano%NULL%0,     Eva Pilar%García Villalba%NULL%1,     Isabel%Jiménez Martínez%NULL%3,     Isabel%Jiménez Martínez%NULL%0,     Isabel%Jiménez Martínez%NULL%0,     Guillermo%Estrada Fernández%NULL%1,     María%Lorén Vargas%NULL%1,     Nuria%Parra Arribas%NULL%1,     Carmen%Martínez Cilleros%NULL%1,     Aránzazu%Villasante de la Puente%NULL%1,     Teresa%García Delange%NULL%1,     María José%Ruiz Rodríguez%NULL%1,     Marta%Robledo del Prado%NULL%1,     Juan Carlos%Abad Almendro%NULL%1,     José Román%Muñoz del Rey%NULL%3,     José Román%Muñoz del Rey%NULL%0,     José Román%Muñoz del Rey%NULL%0,     Montaña%Jiménez Álvaro%NULL%1,     Javier%Coy Coy%NULL%3,     Javier%Coy Coy%NULL%0,     Javier%Coy Coy%NULL%0,     Inmaculada%Poquet Catala%NULL%1,     Marta%Santos Peña%NULL%3,     Marta%Santos Peña%NULL%0,     Marta%Santos Peña%NULL%0,     Virginia%Naranjo Velasco%NULL%1,     Tamara%Manso Gómez%NULL%3,     Tamara%Manso Gómez%NULL%0,     Tamara%Manso Gómez%NULL%0,     Delia%Quilez Ágreda%NULL%1,     Gema%Barbeito Castiñeiras%NULL%3,     Gema%Barbeito Castiñeiras%NULL%0,     Gema%Barbeito Castiñeiras%NULL%0,     María Jesús%Domínguez Santalla%NULL%1,     Laura%Mao Martín%NULL%3,     Laura%Mao Martín%NULL%0,     Laura%Mao Martín%NULL%0,     Rodrigo%Alonso Navarro%NULL%1,     Jose David%Ampuero Martinich%NULL%1,     Raquel%Barrós González%NULL%1,     María Aránzazu%Galindo Martín%NULL%1,     Lourdes%Herrera Pacheco%NULL%1,     Rocío%Martínez Avilés%NULL%1,     Sara%Rodrigo González%NULL%1,     Cristóbal Manuel%Rodríguez Leal%NULL%1,     Eva María%Romay Lema%NULL%3,     Eva María%Romay Lema%NULL%0,     Eva María%Romay Lema%NULL%0,     Roi%Suárez Gil%NULL%1,     Maialen%Ibarguren Pinilla%NULL%3,     Maialen%Ibarguren Pinilla%NULL%0,     Maialen%Ibarguren Pinilla%NULL%0,     José María%Marimón Ortiz de Zárate%NULL%1,     Loreto%Vidaur Tello%NULL%1,     Xabier%Kortajarena Urkola%NULL%1,     Miriam%García Gómez%NULL%3,     Miriam%García Gómez%NULL%0,     Miriam%García Gómez%NULL%0,     Asier%Aranguren Arostegui%NULL%1,     Maria%Álvarez de Castro%NULL%3,     Maria%Álvarez de Castro%NULL%0,     Maria%Álvarez de Castro%NULL%0,     Cintia María%Martínez Mateu%NULL%1,     Francisco%Rodríguez Gómez%NULL%3,     Francisco%Rodríguez Gómez%NULL%0,     Francisco%Rodríguez Gómez%NULL%0,     Francisco%Muñoz Beamud%NULL%1,     Elena%Chamarro Martí%NULL%3,     Elena%Chamarro Martí%NULL%0,     Elena%Chamarro Martí%NULL%0,     Merce%Cardona Rivera%NULL%1,     Ismail%Zakariya-Yousef Breval%NULL%3,     Ismail%Zakariya-Yousef Breval%NULL%0,     Ismail%Zakariya-Yousef Breval%NULL%0,     Marta%Rico Rodríguez%NULL%1,     Jara%Llenas García%NULL%3,     Jara%Llenas García%NULL%0,     Jara%Llenas García%NULL%0,     Mª Carmen%Sánchez Arenas%NULL%1,     Ana%Fernández Cruz%NULL%3,     Ana%Fernández Cruz%NULL%0,     Ana%Fernández Cruz%NULL%0,     Jorge%Calderón Parra%NULL%1,     Marcos%López Dosil%NULL%1,     Antonio%Ramos Martínez%NULL%1,     Elena%Múñez Rubio%NULL%1,     Alejandro%Callejas Díaz%NULL%1,     José Manuel%Vázquez Comendador%NULL%1,     Itziar%Diego Yagüe%NULL%1,     Esther%Expósito Palomo%NULL%1,     Jorge%Anel Pedroche%NULL%1,     Raquel%Álvarez Franco%NULL%3,     Raquel%Álvarez Franco%NULL%0,     Raquel%Álvarez Franco%NULL%0,     Lucía%Fernández de Orueta%NULL%1,     Roberto%Vates Gómez%NULL%1,     Andrés Felipe%Cardona Arias%NULL%1,     Pablo%Marguenda Contreras%NULL%1,     Gabriel%Gaspar Alonso-Vega%NULL%1,     Elena María%Aranda Rife%NULL%1,     Blanca%Martínez Cifre%NULL%1,     Daniel%Roger Zapata%NULL%1,     Irene%Martín Rubio%NULL%1,     André%Barbosa Ventura%NULL%3,     André%Barbosa Ventura%NULL%0,     André%Barbosa Ventura%NULL%0,     Iván%Piñero%NULL%1,     Alberto%Bahamonde Carrasco%NULL%3,     Alberto%Bahamonde Carrasco%NULL%0,     Alberto%Bahamonde Carrasco%NULL%0,     Paula%Runza Buznego%NULL%1,     Eva%Talavera García%NULL%3,     Eva%Talavera García%NULL%0,     Eva%Talavera García%NULL%0,     Marta%Lamata Subero%NULL%1,     Ainhoa%Urrutia Losada%NULL%3,     Ainhoa%Urrutia Losada%NULL%0,     Ainhoa%Urrutia Losada%NULL%0,     Lorea%Arteche Eguizabal%NULL%1,     Elisabet%Delgado Sánchez%NULL%3,     Elisabet%Delgado Sánchez%NULL%0,     Elisabet%Delgado Sánchez%NULL%0,     Virginia%Molina Peinado%NULL%1,     Sarah%Caro Bragado%NULL%3,     Sarah%Caro Bragado%NULL%0,     Sarah%Caro Bragado%NULL%0,     Gema%Domínguez de Pablos%NULL%1,     Carolina%Roldán Fontana%NULL%3,     Carolina%Roldán Fontana%NULL%0,     Carolina%Roldán Fontana%NULL%0,     Carmen%Herrero Rodríguez%NULL%1,     Luis%Force Sanmartín%NULL%3,     Luis%Force Sanmartín%NULL%0,     Luis%Force Sanmartín%NULL%0,     Raquel%Aranega%NULL%1,     Arantzazu%Mera Fidalgo%NULL%3,     Arantzazu%Mera Fidalgo%NULL%0,     Arantzazu%Mera Fidalgo%NULL%0,     María Roca%Toda Savall%NULL%1,     Nicolas%Merchante Gutiérrez%NULL%3,     Nicolas%Merchante Gutiérrez%NULL%0,     Nicolas%Merchante Gutiérrez%NULL%0,     Eva María%León Jiménez%NULL%1,     José Luís%Del Pozo%NULL%3,     José Luís%Del Pozo%NULL%0,     José Luís%Del Pozo%NULL%0,     Josefa%Serralta Buades%NULL%3,     Josefa%Serralta Buades%NULL%0,     Josefa%Serralta Buades%NULL%0,     Ginger Giorgiana%Cabrera Tejada%NULL%1,     Mario%Fernández-Ruiz%NULL%4,     Mario%Fernández-Ruiz%NULL%0,     Mario%Fernández-Ruiz%NULL%0,     José María%Aguado%NULL%1,     Guillermo%Maestro de la Calle%NULL%1,     José Miguel%Cisneros%NULL%0,     José Miguel%Cisneros%NULL%0,     José Miguel%Cisneros%NULL%0,     Jerónimo%Pachón%NULL%0,     Manuela%Aguilar-Guisado%NULL%1,     Teresa%Aldabó%NULL%1,     María Dolores%Avilés%NULL%0,     Claudio%Bueno%NULL%1,     Elisa%Cordero-Matía%NULL%1,     Ana%Escoresca%NULL%1,     Lydia%Gálvez-Benítez%NULL%1,     Carmen%Infante%NULL%1,     Guillermo%Martín%NULL%1,     Julia%Praena%NULL%1,     Cristina%Roca%NULL%1,     Celia%Salamanca%NULL%1,     Alejandro%Suárez-Benjumea%NULL%1,     Pilar%Vizcarra%NULL%3,     Pilar%Vizcarra%NULL%0,     Pilar%Vizcarra%NULL%0,     Carmen%Quereda%NULL%1,     Mario José%Rodriguez Dominguez%NULL%1,     Francesca%Gioia%NULL%1,     Francesca%Norman%NULL%1,     Santos%Del Campo%NULL%1,     Rafael%Cantón Moreno%NULL%1,     Antonio%Oteo Revuelta José%NULL%3,     Antonio%Oteo Revuelta José%NULL%0,     Antonio%Oteo Revuelta José%NULL%0,     Paula%Santibáñez Sáenz%NULL%1,     Cristina%Cervera Acedo%NULL%1,     Carlos%Ruiz Martínez%NULL%1,     José R.%Blanco Ramos%NULL%1,     José M.%Azcona Gutiérrez%NULL%1,     Concepción%García García%NULL%1,     Jorge%Alba Fernández%NULL%1,     Valvanera%Ibarra Cucalón%NULL%1,     Mercedes%San Franco%NULL%1,     Luis%Metola Sacristán%NULL%1,     Héctor%Meijide Míguez%NULL%3,     Héctor%Meijide Míguez%NULL%0,     Héctor%Meijide Míguez%NULL%0,     Silvia%Paulos Viñas%NULL%1,     Justo%Menéndez%NULL%3,     Justo%Menéndez%NULL%0,     Justo%Menéndez%NULL%0,     Paula%Villares Fernández%NULL%1,     Lara%Montes Andújar%NULL%1,     Álvaro%Navarro Batet%NULL%3,     Álvaro%Navarro Batet%NULL%0,     Álvaro%Navarro Batet%NULL%0,     Anna%Ferrer Santolaria%NULL%1,     María de la Luz%Padilla Salazar%NULL%3,     María de la Luz%Padilla Salazar%NULL%0,     María de la Luz%Padilla Salazar%NULL%0,     Lucy%Abella Vázquez%NULL%1,     Marcelino%Hayek Peraza%NULL%1,     Antonio%García Pardo%NULL%1,     Carolina%Hernández Carballo%NULL%1,     Andrés Javier%Ruiz Fernández%NULL%3,     Andrés Javier%Ruiz Fernández%NULL%0,     Andrés Javier%Ruiz Fernández%NULL%0,     Isabel%Barrio López%NULL%1,     Alí%Martakoush%NULL%3,     Alí%Martakoush%NULL%0,     Alí%Martakoush%NULL%0,     Agustín%Rojas-Vieyra%NULL%3,     Agustín%Rojas-Vieyra%NULL%0,     Agustín%Rojas-Vieyra%NULL%0,     Sonia%García Calvo%NULL%3,     Sonia%García Calvo%NULL%0,     Sonia%García Calvo%NULL%0,     Mercedes%Villarreal García-Lomas%NULL%1,     Marta%Vizcaíno Callejón%NULL%3,     Marta%Vizcaíno Callejón%NULL%0,     Marta%Vizcaíno Callejón%NULL%0,     María Pilar%García García%NULL%1,     Ana%Lérida Urteaga%NULL%3,     Ana%Lérida Urteaga%NULL%0,     Ana%Lérida Urteaga%NULL%0,     Natalia%Carrasco Fons%NULL%1,     Beatriz%María Sanjuan%NULL%1,     Lydia%Martín González%NULL%1,     Camilo%Sanz Zamudio%NULL%1,     Inmaculada%Jarrín%NULL%0,     Inmaculada%Jarrín%NULL%0,     Inmaculada%Jarrín%NULL%0,     Belén%Alejos%NULL%1,     Cristina%Moreno%NULL%1,     Marta%Rava%NULL%1,     Carlos%Iniesta%NULL%1,     Rebeca%Izquierdo%NULL%1,     Inés%Suárez-García%NULL%1,     Asunción%Díaz%NULL%1,     Marta%Ruiz-Alguero%NULL%1,     Victoria%Hernando%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,     Denise J%McCulloch%NULL%0,     Denise J%McCulloch%NULL%0,     Vidya%Atluri%NULL%0,     Michela%Blain%NULL%0,     Sarah A%McGuffin%NULL%0,     Arun K%Nalla%NULL%0,     Meei-Li%Huang%NULL%0,     Alex L%Greninger%NULL%0,     Keith R%Jerome%NULL%0,     Seth A%Cohen%NULL%0,     Santiago%Neme%NULL%0,     Margaret L%Green%NULL%0,     Helen Y%Chu%NULL%0,     H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,     Wenlin%Cheng%NULL%0,     Lei%Yu%NULL%0,     Ya-Kun%Liu%NULL%0,     Xiaoyong%Hu%NULL%0,     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,     Alberto%Zucchelli%NULL%1,     Marinella%Turla%NULL%1,     Maria Sofia%Cotelli%NULL%1,     Sara%Fascendini%NULL%1,     Mara%Zanni%NULL%1,     Angelo%Bianchetti%NULL%1,     Matteo Peli%Psy%NULL%1,     Renzo%Rozzini%NULL%1,     Stefano%Boffelli%NULL%1,     Melania%Cappuccio%NULL%1,     Federica Gottardi%Psy%NULL%1,     Chiara Vecchi%Psy%NULL%1,     Daniele%Bellandi%NULL%1,     Claudia%Caminati%NULL%1,     Simona%Gentile%NULL%1,     Elena Lucchi%Psy%NULL%1,     Ignazio%Di Fazio%NULL%1,     Marina Zanetti%Psy%NULL%1,     Giuliana%Vezzadini%NULL%1,     Chiara Forlani%Psy%NULL%1,     Maura Cosseddu%Psy%NULL%1,     Rosanna Turrone%Psy%NULL%1,     Silvia Pelizzari%Psy%NULL%1,     Andrea%Scalvini%NULL%1,     Marco%Di Cesare%NULL%1,     Marta Grigolo%Psy%NULL%1,     Lina%Falanga%NULL%1,     Nives%Medici%NULL%1,     Nives%Palamini%NULL%1,     Elisa Zanacchi%Psy%NULL%1,     Eleonora Grossi%Psy%NULL%1,     Giuseppe%Bellelli%NULL%1,     Alessandra%Marengoni%NULL%1,     Marco%Trabucchi%NULL%1,     Alessandro%Padovani%alessandro.padovani@unibs.it%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     Nancy%Chow%NULL%2,     Katherine%Fleming-Dutra%NULL%1,     Ryan%Gierke%NULL%2,     Aron%Hall%NULL%2,     Michelle%Hughes%NULL%1,     Tamara%Pilishvili%NULL%2,     Matthew%Ritchey%NULL%2,     Katherine%Roguski%NULL%1,     Tami%Skoff%NULL%1,     Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,     Zhencang%Zheng%NULL%1,     Chao%Zhang%NULL%1,     Xijiang%Zhang%NULL%1,     Huijuan%Wu%NULL%1,     Jingdong%Wang%NULL%1,     Shuwei%Wang%NULL%1,     Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,     Wei%Liu%NULL%0,     Kui%Liu%NULL%0,     Yuan-Yuan%Fang%NULL%0,     Jin%Shang%NULL%0,     Ling%Zhou%NULL%0,     Ke%Wang%NULL%0,     Fan%Leng%NULL%0,     Shuang%Wei%NULL%0,     Lei%Chen%NULL%0,     Hui-Guo%Liu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,     Francesco%Innocenti%NULL%1,     Julien%Beauté%NULL%1,     Veronika%Učakar%NULL%1,     Marta%Grgič Vitek%NULL%1,     Eero%Poukka%NULL%1,     Tuula%Hannila-Handelberg%NULL%1,     Charmaine%Gauci%NULL%1,     Tanya%Melillo%NULL%1,     Theano%Georgakopoulou%NULL%1,     Jiri%Jarkovsky%NULL%1,     Pavel%Slezak%NULL%1,     Concepción%Delgado-Sanz%NULL%1,     Carmen%Olmedo-Lucerón%NULL%1,     Heleene%Suija%NULL%1,     Rasa%Liausediene%NULL%1,     Piaras%O’Lorcain%NULL%1,     Niamh%Murphy%NULL%1,     André%Peralta-Santos%NULL%1,     Pedro%Casaca%NULL%1,     Ioanna%Gregoriou%NULL%1,     Nick%Bundle%NULL%1,     Gianfranco%Spiteri%NULL%1,     Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,     Peiyun%Li%NULL%1,     Liang%Ma%NULL%1,     Hang%Liang%NULL%1,     Jie%Lei%NULL%1,     Wenqiang%Li%NULL%1,     Kun%Wang%NULL%1,     Yu%Song%NULL%1,     Shuai%Li%NULL%1,     Wei%Yang%NULL%0,     Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,     Yun%Ling%NULL%0,     Yun%Ling%NULL%0,     Tao%Bai%NULL%2,     Tao%Bai%NULL%0,     Yusang%Xie%NULL%1,     Jie%Huang%NULL%2,     Jie%Huang%NULL%0,     Jian%Li%NULL%1,     Weining%Xiong%NULL%1,     Dexiang%Yang%NULL%1,     Rong%Chen%NULL%1,     Fangying%Lu%NULL%1,     Yunfei%Lu%NULL%1,     Xuhui%Liu%NULL%1,     Yuqing%Chen%NULL%2,     Yuqing%Chen%NULL%0,     Xin%Li%NULL%1,     Yong%Li%NULL%0,     Hanssa Dwarka%Summah%NULL%1,     Huihuang%Lin%NULL%1,     Jiayang%Yan%NULL%1,     Min%Zhou%NULL%0,     Hongzhou%Lu%NULL%0,     Hongzhou%Lu%NULL%0,     Jieming%Qu%NULL%0,     Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,     Massimiliano%Marino%NULL%0,     Debora%Formisano%NULL%0,     Francesco%Venturelli%NULL%0,     Massimo%Vicentini%NULL%0,     Massimo%Vicentini%NULL%0,     Roberto%Grilli%NULL%0,     NULL%NULL%NULL%0,     Gianluigi%Forloni%NULL%8,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,     Justin J.%Choi%NULL%0,     Laura C.%Pinheiro%NULL%0,     Edward J.%Schenck%NULL%0,     Ruijun%Chen%NULL%0,     Assem%Jabri%NULL%0,     Michael J.%Satlin%NULL%0,     Thomas R.%Campion%NULL%0,     Musarrat%Nahid%NULL%0,     Joanna B.%Ringel%NULL%0,     Katherine L.%Hoffman%NULL%0,     Mark N.%Alshak%NULL%0,     Han A.%Li%NULL%0,     Graham T.%Wehmeyer%NULL%0,     Graham T.%Wehmeyer%NULL%0,     Mangala%Rajan%NULL%0,     Evgeniya%Reshetnyak%NULL%0,     Nathaniel%Hupert%NULL%0,     Evelyn M.%Horn%NULL%0,     Fernando J.%Martinez%NULL%0,     Roy M.%Gulick%NULL%0,     Monika M.%Safford%NULL%0,     Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,     Norio%Ohmagari%NULL%1,     Daniel%Shin%NULL%1,     George%Diaz%NULL%1,     Erika%Asperges%NULL%1,     Antonella%Castagna%NULL%0,     Torsten%Feldt%NULL%1,     Gary%Green%NULL%1,     Margaret L.%Green%NULL%1,     François-Xavier%Lescure%NULL%2,     Emanuele%Nicastri%NULL%1,     Rentaro%Oda%NULL%2,     Rentaro%Oda%NULL%0,     Kikuo%Yo%NULL%2,     Kikuo%Yo%NULL%0,     Eugenia%Quiros-Roldan%NULL%1,     Alex%Studemeister%NULL%1,     John%Redinski%NULL%1,     Seema%Ahmed%NULL%1,     Jorge%Bernett%NULL%1,     Daniel%Chelliah%NULL%1,     Danny%Chen%NULL%1,     Shingo%Chihara%NULL%1,     Stuart H.%Cohen%NULL%1,     Jennifer%Cunningham%NULL%1,     Antonella%D’Arminio Monforte%NULL%1,     Saad%Ismail%NULL%1,     Hideaki%Kato%NULL%1,     Giuseppe%Lapadula%NULL%1,     Erwan%L’Her%NULL%1,     Toshitaka%Maeno%NULL%1,     Sumit%Majumder%NULL%1,     Marco%Massari%NULL%0,     Marta%Mora-Rillo%NULL%1,     Yoshikazu%Mutoh%NULL%1,     Duc%Nguyen%NULL%1,     Ewa%Verweij%NULL%1,     Alexander%Zoufaly%NULL%1,     Anu O.%Osinusi%NULL%1,     Adam%DeZure%NULL%1,     Yang%Zhao%NULL%1,     Lijie%Zhong%NULL%1,     Anand%Chokkalingam%NULL%1,     Emon%Elboudwarej%NULL%1,     Laura%Telep%NULL%1,     Leighann%Timbs%NULL%1,     Ilana%Henne%NULL%1,     Scott%Sellers%NULL%1,     Huyen%Cao%NULL%1,     Susanna K.%Tan%NULL%1,     Lucinda%Winterbourne%NULL%1,     Polly%Desai%NULL%1,     Robertino%Mera%NULL%1,     Anuj%Gaggar%NULL%1,     Robert P.%Myers%NULL%1,     Diana M.%Brainard%NULL%1,     Richard%Childs%NULL%1,     Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,    Arunthamakun%Justin%coreGivesNoEmail%1,    Athavale%Ambarish M.%coreGivesNoEmail%1,    Bansal%Anip%coreGivesNoEmail%1,    Brenner%Samantha K.%coreGivesNoEmail%1,    Chan%Lili%coreGivesNoEmail%1,    Donnelly%John P.%coreGivesNoEmail%1,    Friedman%Allon N.%coreGivesNoEmail%1,    Gershengorn%Hayley B.%coreGivesNoEmail%1,    Goyal%Nitender%coreGivesNoEmail%1,    Green%Adam%coreGivesNoEmail%1,    Gupta%Shruti%coreGivesNoEmail%1,    Hayek%Salim S.%coreGivesNoEmail%1,    Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,    Kibbelaar%Zoe A.%coreGivesNoEmail%1,    Leaf%David E.%coreGivesNoEmail%1,    Leonberg-Yoo%Amanda%coreGivesNoEmail%1,    Mathews%Kusum S.%coreGivesNoEmail%1,    Melamed%Michal L.%coreGivesNoEmail%1,    Omar%Samah Abu%coreGivesNoEmail%1,    Parikh%Chirag R.%coreGivesNoEmail%1,    Radbel%Jared%coreGivesNoEmail%1,    Reiser%Jochen%coreGivesNoEmail%1,    Schenck%Edward J.%coreGivesNoEmail%1,    Semler%Matthew W.%coreGivesNoEmail%1,    Shaefi%Shahzad%coreGivesNoEmail%1,    Shehata%Alexandre M.%coreGivesNoEmail%1,    Short%Samuel A. P.%coreGivesNoEmail%1,    Srivastava%Anand%coreGivesNoEmail%1,    Sutherland%Anne%coreGivesNoEmail%1,    Velez%Juan Carlos Q.%coreGivesNoEmail%1,    Vijayan%Anitha%coreGivesNoEmail%1,    Wang%Wei%coreGivesNoEmail%1,    Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,     İmran%HASANOĞLU%NULL%2,     İmran%HASANOĞLU%NULL%0,     Bircan%KAYAASLAN%NULL%2,     Bircan%KAYAASLAN%NULL%0,     Adalet%AYPAK%NULL%2,     Adalet%AYPAK%NULL%0,     Ayşe%KAYA KALEM%NULL%2,     Ayşe%KAYA KALEM%NULL%0,     Fatma%ESER%NULL%2,     Fatma%ESER%NULL%0,     Burcu%ÖZDEMİR%NULL%2,     Burcu%ÖZDEMİR%NULL%0,     Elif Mükime%SARICAOĞLU%NULL%2,     Elif Mükime%SARICAOĞLU%NULL%0,     Müge%AYHAN%NULL%2,     Müge%AYHAN%NULL%0,     Yeşim%AYBAR BİLİR%NULL%2,     Yeşim%AYBAR BİLİR%NULL%0,     Işıl%ÖZKOÇAK TURAN%NULL%2,     Işıl%ÖZKOÇAK TURAN%NULL%0,     Deniz%ERDEM%NULL%2,     Deniz%ERDEM%NULL%0,     Nevzat Mehmet%MUTLU%NULL%1,     Turan%BUZGAN%NULL%2,     Turan%BUZGAN%NULL%0,     Bedia%DİNÇ%NULL%2,     Bedia%DİNÇ%NULL%0,     Esragül%AKINCI%NULL%2,     Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,     Elnara%Fazio-Eynullayeva%NULL%2,     Elnara%Fazio-Eynullayeva%NULL%0,     Deirdre A.%Lane%NULL%2,     Deirdre A.%Lane%NULL%0,     Paula%Underhill%NULL%2,     Paula%Underhill%NULL%0,     Gregory Y. H.%Lip%NULL%1,     Mirjam E. E.%Kretzschmar%NULL%3,     Mirjam E. E.%Kretzschmar%NULL%0,     Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,     Min%Xie%NULL%3,     Jianping%Zhao%NULL%0,     Xiansheng%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,     Shaoqiu%Chen%NULL%0,     Yuanyuan%Fu%NULL%0,     Zitong%Gao%NULL%0,     Hui%Long%NULL%0,     Jian-ming%Wang%NULL%0,     Hong-wei%Ren%NULL%0,     Yi%Zuo%NULL%0,     Huan%Li%NULL%0,     Jie%Wang%NULL%0,     Qing-bang%Xu%NULL%0,     Wen-xiong%Yu%NULL%0,     Jia%Liu%NULL%0,     Chen%Shao%NULL%0,     Jun-jie%Hao%NULL%0,     Chuan-zhen%Wang%NULL%0,     Yao%Ma%NULL%0,     Zhanwei%Wang%NULL%0,     Richard%Yanagihara%NULL%0,     Youping%Deng%dengy@hawaii.edu%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,    Bayani%Masomeh%coreGivesNoEmail%1,    Bijani%Ali%coreGivesNoEmail%1,    Ebrahimpour%Soheil%coreGivesNoEmail%1,    Gholinejad%Hossein Emam%coreGivesNoEmail%1,    Ghorbani%Hossein%coreGivesNoEmail%1,    Hasanpour%Amir Hossein%coreGivesNoEmail%1,    Javanian%Mostafa%coreGivesNoEmail%1,    Masrour-Roudsari%Jila%coreGivesNoEmail%1,    Mehraeen%Rahele%coreGivesNoEmail%1,    Mohseni%Sima%coreGivesNoEmail%1,    Rostami%Ali%coreGivesNoEmail%1,    Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,    Sepidarkish%Mahdi%coreGivesNoEmail%1,    Shabani%Asieh%coreGivesNoEmail%1,    Shahbazi%Mehdi%coreGivesNoEmail%1,    Shokri%Mehran%coreGivesNoEmail%1,    Tabari%Afrooz Monadi%coreGivesNoEmail%1,    Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,     Matteo%Piccica%NULL%1,     Lucia%Graziani%NULL%1,     Iacopo%Vellere%NULL%1,     Annarita%Botta%NULL%1,     Marta%Tilli%NULL%1,     Letizia%Ottino%NULL%1,     Beatrice%Borchi%NULL%1,     Marco%Pozzi%NULL%1,     Filippo%Bartalesi%NULL%1,     Jessica%Mencarini%NULL%1,     Michele%Spinicci%NULL%1,     Lorenzo%Zammarchi%NULL%1,     Filippo%Pieralli%NULL%1,     Giovanni%Zagli%NULL%1,     Carlo%Nozzoli%NULL%1,     Stefano%Romagnoli%NULL%1,     Alessandro%Bartoloni%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,     Zhao-Wu%Tao%NULL%0,     Lei%Wang%NULL%0,     Ming-Li%Yuan%NULL%0,     Kui%Liu%NULL%0,     Ling%Zhou%NULL%0,     Shuang%Wei%NULL%0,     Yan%Deng%NULL%0,     Jing%Liu%NULL%0,     Hui-Guo%Liu%NULL%0,     Ming%Yang%NULL%0,     Yi%Hu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,     Shuyun%Xu%NULL%2,     Muqing%Yu%NULL%2,     Ke%Wang%NULL%0,     Yu%Tao%NULL%0,     Ying%Zhou%NULL%0,     Jing%Shi%NULL%2,     Min%Zhou%NULL%0,     Bo%Wu%NULL%2,     Zhenyu%Yang%NULL%2,     Cong%Zhang%NULL%0,     Junqing%Yue%NULL%2,     Zhiguo%Zhang%NULL%2,     Harald%Renz%NULL%2,     Xiansheng%Liu%NULL%0,     Jungang%Xie%NULL%0,     Min%Xie%NULL%0,     Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,     Shu%Peng%NULL%1,     Le-qun%Li%NULL%1,     Qi%Wang%NULL%1,     Wei%Ping%NULL%1,     Ni%Zhang%NULL%1,     Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,     Yuanyuan%Xing%NULL%0,     Yu%Xiao%NULL%0,     Liping%Deng%NULL%0,     Qiu%Zhao%NULL%0,     Hongling%Wang%NULL%0,     Yong%Xiong%NULL%0,     Zhenshun%Cheng%NULL%0,     Shicheng%Gao%NULL%0,     Ke%Liang%NULL%0,     Mingqi%Luo%NULL%0,     Tielong%Chen%NULL%0,     Shihui%Song%NULL%0,     Zhiyong%Ma%NULL%0,     Xiaoping%Chen%NULL%0,     Ruiying%Zheng%NULL%0,     Qian%Cao%NULL%0,     Fan%Wang%fanndywang@foxmail.com%0,     Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,     Nicolas%Lopez-Villalobos%NULL%1,     Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,     Adam J%Russak%NULL%0,     Adam J%Russak%NULL%0,     Jessica K%De Freitas%NULL%0,     Anuradha%Lala%NULL%0,     Riccardo%Miotto%NULL%0,     Akhil%Vaid%NULL%0,     Kipp W%Johnson%NULL%0,     Matteo%Danieletto%NULL%0,     Eddye%Golden%NULL%0,     Dara%Meyer%NULL%0,     Manbir%Singh%NULL%0,     Sulaiman%Somani%NULL%0,     Arjun%Kapoor%NULL%1,     Ross%O'Hagan%NULL%1,     Sayan%Manna%NULL%1,     Udit%Nangia%NULL%1,     Suraj K%Jaladanki%NULL%1,     Paul%O’Reilly%NULL%2,     Paul%O’Reilly%NULL%0,     Laura M%Huckins%NULL%1,     Patricia%Glowe%NULL%1,     Arash%Kia%NULL%0,     Prem%Timsina%NULL%0,     Robert M%Freeman%NULL%1,     Matthew A%Levin%NULL%0,     Jeffrey%Jhang%NULL%0,     Adolfo%Firpo%NULL%1,     Patricia%Kovatch%NULL%0,     Joseph%Finkelstein%NULL%0,     Judith A%Aberg%NULL%0,     Emilia%Bagiella%NULL%0,     Carol R%Horowitz%NULL%0,     Barbara%Murphy%NULL%0,     Zahi A%Fayad%NULL%0,     Jagat%Narula%NULL%0,     Eric J%Nestler%NULL%0,     V%Fuster%NULL%1,     Carlos%Cordon-Cardo%NULL%0,     Dennis%Charney%NULL%1,     David L%Reich%NULL%0,     Allan%Just%NULL%1,     Erwin P%Bottinger%NULL%0,     Alexander W%Charney%NULL%0,     Benjamin S%Glicksberg%NULL%0,     Girish N%Nadkarni%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,      X.% Yan%null%1,      X.% Tang%null%1,      J.% Peng%null%1,      Q.% Yu%null%1,      L.% Feng%null%1,      G.% Yuan%null%1,      A.% Zhang%null%1,      Y.% Chen%null%2,      J.% Yuan%null%1,      X.% Huang%null%1,      X.% Zhang%null%1,      P.% Hu%null%1,      Y.% Song%null%1,      C.% Qian%null%1,      Q.% Sun%null%1,      D.% Wang%null%1,      J.% Tong%null%1,      J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,     Kevin Bryan%Lo%NULL%0,     Kevin Bryan%Lo%NULL%0,     Fahad%Gul%NULL%0,     Eric%Peterson%NULL%0,     Robert%De Joy%NULL%0,     Ruchika%Bhargav%NULL%0,     Jerald%Pelayo%NULL%0,     Jeri%Albano%NULL%0,     Zurab%Azmaiparashvili%NULL%0,     Sadia%Benzaquen%NULL%0,     Gabriel%Patarroyo‐Aponte%NULL%0,     Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,     Mu%Qin%qinmuae@163.com%0,     Yuli%Cai%NULL%0,     Tao%Liu%NULL%0,     Bo%Shen%NULL%0,     Fan%Yang%NULL%0,     Sheng%Cao%NULL%0,     Xu%Liu%NULL%0,     Xu%Liu%NULL%0,     Yaozu%Xiang%NULL%0,     Qinyan%Zhao%NULL%0,     He%Huang%huanghe1977@whu.edu.cn%0,     Bo%Yang%yybb112@whu.edu.cn%0,     Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,     Fergus%Hamilton%NULL%1,     Samuel%Gunning%NULL%1,     Caitlin%Sheehy%NULL%1,     Ed%Moran%NULL%1,     Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,     Yi%Xiang%NULL%0,     Wei%Fang%NULL%0,     Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,     Boqun%Li%279685211@qq.com%0,     Boqun%Li%279685211@qq.com%0,     Yanjun%Hu%huyanjun@163.com%0,     Chunhui%Lang%NULL%0,     Daoqiu%Huang%NULL%0,     Qiuyan%Sun%NULL%0,     Yan%Xiong%NULL%0,     Xia%Huang%NULL%0,     Jinglong%Lv%NULL%0,     Yaling%Luo%NULL%0,     Li%Shen%NULL%0,     Haoran%Yang%NULL%0,     Gu%Huang%NULL%0,     Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,     Wenbo%He%NULL%3,     Xiaomei%Yu%NULL%3,     Dalong%Hu%NULL%3,     Mingwei%Bao%NULL%3,     Huafen%Liu%NULL%3,     Jiali%Zhou%NULL%3,     Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,     Bohan%Yang%NULL%0,     Qianwen%Li%NULL%0,     Lu%Wen%NULL%0,     Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,    Xu%Y%coreGivesNoEmail%1,    Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,     Fen%Li%NULL%0,     Xiao%Wang%NULL%0,     Jie%Yan%NULL%0,     Fen%Zhu%NULL%0,     Shifan%Tang%NULL%0,     Yingzhong%Deng%NULL%0,     Hua%Wang%NULL%0,     Rui%Chen%NULL%0,     Zhili%Yu%NULL%0,     Yaping%Li%NULL%0,     Jingzhou%Shang%NULL%0,     Lingjun%Zeng%NULL%0,     Jie%Zhao%NULL%0,     Chaokun%Guan%NULL%0,     Qiaomei%Liu%NULL%0,     Haifeng%Chen%NULL%0,     Wei%Gong%NULL%0,     Xin%Huang%NULL%0,     Yu‐Jiao%Zhang%NULL%0,     Jianguang%Liu%NULL%0,     Xiaoyan%Dong%NULL%0,     Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,     Shaoping%Nie%spnie@126.com%0,     Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,     Pengfei%Wang%NULL%2,     Pengfei%Wang%NULL%0,     Yuyan%Song%NULL%1,     An%Zhang%zhangan@hospital.cqmu.edu.cn%1,     Guodan%Yuan%71502294@qq.com%1,     Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,    Cao%Yi-yuan%coreGivesNoEmail%0,    Dong%Xiang%coreGivesNoEmail%0,    Gao%Ya-dong%coreGivesNoEmail%0,    Yan%You-qin%coreGivesNoEmail%0,    Yang%Yi-bin%coreGivesNoEmail%0,    Yuan%Ya-dong%coreGivesNoEmail%0,    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,     Chang%Hu%NULL%3,     Linjie%Luo%NULL%2,     Fang%Fang%NULL%4,     Yongfeng%Chen%NULL%2,     Jianguo%Li%NULL%2,     Zhiyong%Peng%NULL%0,     Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,     Miao%Yu%NULL%0,     Song%Tong%NULL%1,     Lu-Yu%Liu%NULL%1,     Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,     Huangqing%Ouyang%NULL%1,     Lingli%Fu%NULL%1,     Shijie%Wang%NULL%1,     Jianglong%Han%NULL%1,     Kejie%Huang%NULL%1,     Mingfang%Jia%NULL%1,     Qibin%Song%NULL%1,     Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,     Anne%Chen%NULL%0,     Wei%Hou%NULL%0,     James M.%Graham%NULL%0,     Haifang%Li%NULL%0,     Paul S.%Richman%NULL%0,     Henry C.%Thode%NULL%0,     Adam J.%Singer%NULL%0,     Tim Q.%Duong%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,      Sarah%Al-Youha%sarahalyouha@gmail.com%1,      Mohammad H.%Jamal%NULL%1,      Mohannad%Al-Haddad%NULL%1,      Ali%Al-Muhaini%NULL%1,      Fahad%Al-Ghimlas%NULL%1,      Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,      Samuel L%Bruce%NULL%2,      Cody L%Slater%NULL%2,      Jonathan R%Tiao%NULL%2,      Matthew R%Baldwin%NULL%3,      R Graham%Barr%NULL%2,      Bernard P%Chang%NULL%2,      Katherine H%Chau%NULL%2,      Justin J%Choi%NULL%2,      Nicholas%Gavin%NULL%2,      Parag%Goyal%NULL%2,      Angela M%Mills%NULL%2,      Ashmi A%Patel%NULL%2,      Marie-Laure S%Romney%NULL%2,      Monika M%Safford%NULL%2,      Neil W%Schluger%NULL%2,      Soumitra%Sengupta%NULL%2,      Magdalena E%Sobieszczyk%NULL%2,      Jason E%Zucker%NULL%2,      Paul A%Asadourian%NULL%2,      Fletcher M%Bell%NULL%2,      Rebekah%Boyd%NULL%2,      Matthew F%Cohen%NULL%2,      MacAlistair I%Colquhoun%NULL%2,      Lucy A%Colville%NULL%2,      Joseph H%de Jonge%NULL%2,      Lyle B%Dershowitz%NULL%2,      Shirin A%Dey%NULL%2,      Katherine A%Eiseman%NULL%2,      Zachary P%Girvin%NULL%2,      Daniella T%Goni%NULL%2,      Amro A%Harb%NULL%2,      Nicholas%Herzik%NULL%2,      Sarah%Householder%NULL%2,      Lara E%Karaaslan%NULL%2,      Heather%Lee%NULL%2,      Evan%Lieberman%NULL%2,      Andrew%Ling%NULL%2,      Ree%Lu%NULL%2,      Arthur Y%Shou%NULL%2,      Alexander C%Sisti%NULL%2,      Zachary E%Snow%NULL%2,      Colin P%Sperring%NULL%2,      Yuqing%Xiong%NULL%2,      Henry W%Zhou%NULL%2,      Karthik%Natarajan%NULL%2,      George%Hripcsak%NULL%2,      Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,      Mark%Caridi-Scheible%NULL%5,      James M.%Blum%NULL%3,      Chad%Robichaux%NULL%3,      Colleen%Kraft%NULL%3,      Jesse T.%Jacob%NULL%3,      Craig S.%Jabaley%NULL%3,      David%Carpenter%NULL%3,      Roberta%Kaplow%NULL%3,      Alfonso C.%Hernandez-Romieu%NULL%3,      Max W.%Adelman%NULL%3,      Greg S.%Martin%NULL%3,      Craig M.%Coopersmith%NULL%3,      David J.%Murphy%NULL%3,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Berenguer%NULL%1,      Pablo%Ryan%NULL%0,      Jesús%Rodríguez-Baño%NULL%1,      Inmaculada%Jarrín%NULL%4,      Jordi%Carratalà%NULL%4,      Jerónimo%Pachón%NULL%0,      María%Yllescas%NULL%1,      José Ramón%Arriba%NULL%1,      NULL%NULL%NULL%0,      Esther%Aznar Muñoz%NULL%1,      Pedro%Gil Divasson%NULL%1,      Patricia%González Muñiz%NULL%1,      Clara%Muñoz Aguirre%NULL%1,      Juan Carlos%López%NULL%3,      Juan Carlos%López%NULL%0,      Juan Carlos%López%NULL%0,      Margarita%Ramírez-Schacke%NULL%1,      Isabel%Gutiérrez%NULL%1,      Francisco%Tejerina%NULL%1,      Teresa%Aldámiz-Echevarría%NULL%1,      Cristina%Díez%NULL%1,      Chiara%Fanciulli%NULL%1,      Leire%Pérez-Latorre%NULL%1,      Francisco%Parras%NULL%1,      Pilar%Catalán%NULL%1,      María E.%García-Leoni%NULL%1,      Isabel%Pérez-Tamayo%NULL%1,      Luis%Puente%NULL%1,      Jamil%Cedeño%NULL%1,      Juan%Berenguer%NULL%1,      Marta%Díaz Menéndez%NULL%3,      Marta%Díaz Menéndez%NULL%0,      Marta%Díaz Menéndez%NULL%0,      Fernando%de la Calle Prieto%NULL%1,      Marta%Arsuaga Vicente%NULL%1,      Elena%Trigo Esteban%NULL%1,      Mª del Mar%Lago Núñez%NULL%1,      Rosa%de Miguel Buckley%NULL%1,      Julen%Cadiñaños Loidi%NULL%1,      Carmen%Busca Arenzana%NULL%1,      Alfredo%Mican%NULL%1,      Marta%Mora Rillo%NULL%1,      Juan Carlos%Ramos Ramos%NULL%1,      Belén%Loeches Yagüe%NULL%1,      José Ignacio%Bernardino de la Serna%NULL%1,      Julio%García Rodríguez%NULL%1,      José Ramón%Arribas López%NULL%1,      Ana%Such Diaz%NULL%3,      Ana%Such Diaz%NULL%0,      Ana%Such Diaz%NULL%0,      Elena%Álvaro Alonso%NULL%1,      Elsa%Izquierdo García%NULL%1,      Juan%Torres Macho%NULL%1,      Guillermo%Cuevas Tascon%NULL%1,      Jesús%Troya García%NULL%1,      Beatriz%Mestre Gómez%NULL%1,      Eva%Jiménez González de Buitrago%NULL%1,      Inés%Fernández Jiménez%NULL%1,      Ana Josefa%Tebar Martínez%NULL%1,      Fátima%Brañas Baztán%NULL%1,      Jorge%Valencia de la Rosa%NULL%1,      Mario%Pérez Butragueño%NULL%1,      Marta%Alvarado Blasco%NULL%1,      Pablo%Ryan%NULL%0,      Mª Antonia%Sepúlveda Berrocal%NULL%3,      Mª Antonia%Sepúlveda Berrocal%NULL%0,      Mª Antonia%Sepúlveda Berrocal%NULL%0,      Carmen%Yera Bergua%NULL%1,      Pilar%Toledano Sierra%NULL%1,      Verónica%Cano Llorente%NULL%1,      Sadaf%Zafar Iqubal-Mirza%NULL%1,      Gema%Muñiz%NULL%1,      Inmaculada%Martín Pérez%NULL%1,      Helena%Mozas Moriñigo%NULL%1,      Ana%Alguacil%NULL%1,      María Paz%García Butenegro%NULL%1,      Ana Isabel%Peláez Ballesta%NULL%3,      Ana Isabel%Peláez Ballesta%NULL%0,      Ana Isabel%Peláez Ballesta%NULL%0,      Elena%Morcillo Rodríguez%NULL%1,      Josune%Goikoetxea Agirre%NULL%3,      Josune%Goikoetxea Agirre%NULL%0,      Josune%Goikoetxea Agirre%NULL%0,      María José%Blanco Vidal%NULL%1,      Javier%Nieto Arana%NULL%1,      Mikel%del Álamo Martínez de Lagos%NULL%1,      Isabel A.%Pérez Hernández%NULL%3,      Isabel A.%Pérez Hernández%NULL%0,      Isabel A.%Pérez Hernández%NULL%0,      Inés%Pérez Zapata%NULL%1,      Rafael%Silvariño Fernández%NULL%3,      Rafael%Silvariño Fernández%NULL%0,      Rafael%Silvariño Fernández%NULL%0,      Jon%Ugalde Espiñeira%NULL%1,      Víctor%Asensi Álvarez%NULL%3,      Víctor%Asensi Álvarez%NULL%0,      Víctor%Asensi Álvarez%NULL%0,      Lucia%Suárez Pérez%NULL%1,      Silvia%Suárez Diaz%NULL%1,      Carmen%Yllera Gutiérrez%NULL%1,      Vicente%Boix%NULL%3,      Vicente%Boix%NULL%0,      Vicente%Boix%NULL%0,      Marcos%Díez Martínez%NULL%1,      Melissa%Carreres Candela%NULL%1,      Cristina%Gómez-Ayerbe%NULL%3,      Cristina%Gómez-Ayerbe%NULL%0,      Cristina%Gómez-Ayerbe%NULL%0,      Javier%Sánchez-Lora%NULL%1,      José Luis%Velasco Garrido%NULL%1,      María%López-Jódar%NULL%1,      Jesús%Santos González%NULL%1,      Jesús%Ruiz Aragón%NULL%3,      Jesús%Ruiz Aragón%NULL%0,      Jesús%Ruiz Aragón%NULL%0,      Ianire%Virto Peña%NULL%1,      Vanessa%Alende Castro%NULL%3,      Vanessa%Alende Castro%NULL%0,      Vanessa%Alende Castro%NULL%0,      Ruth%Brea Aparicio%NULL%1,      Sonia%Vega Molpeceres%NULL%3,      Sonia%Vega Molpeceres%NULL%0,      Sonia%Vega Molpeceres%NULL%0,      Estel%Pons Viñas%NULL%1,      Oscar%del Río Pérez%NULL%3,      Oscar%del Río Pérez%NULL%0,      Oscar%del Río Pérez%NULL%0,      Silvia%Valero Rovira%NULL%1,      Judit%Villar-García%NULL%3,      Judit%Villar-García%NULL%0,      Judit%Villar-García%NULL%0,      Joan%Gómez-Junyent%NULL%1,      Hernando%Knobel%NULL%1,      María Cecilia%Cánepa%NULL%1,      Silvia%Castañeda Espinosa%NULL%1,      Luisa%Sorli Redò%NULL%1,      Roberto%Güerri-Fernández%NULL%1,      María%Milagro Montero%NULL%1,      Juan Pablo%Horcajada%NULL%1,      Elisa%García Vázquez%NULL%3,      Elisa%García Vázquez%NULL%0,      Elisa%García Vázquez%NULL%0,      Encarnación%Moral Escudero%NULL%1,      Alicia%Hernández Torres%NULL%1,      Esther%García Almodóvar%NULL%3,      Esther%García Almodóvar%NULL%0,      Esther%García Almodóvar%NULL%0,      Carmen%Sáez Barberá%NULL%3,      Carmen%Sáez Barberá%NULL%0,      Carmen%Sáez Barberá%NULL%0,      Zineb%Karroud%NULL%1,      José%Hernández Quero%NULL%3,      José%Hernández Quero%NULL%0,      José%Hernández Quero%NULL%0,      David%Vinuesa García%NULL%1,      José Luis%García Fogeda%NULL%1,      José Antonio%Peregrina%NULL%1,      María%Novella Mena%NULL%3,      María%Novella Mena%NULL%0,      María%Novella Mena%NULL%0,      Cristina%Hernández Gutiérrez%NULL%1,      José%Sanz Moreno%NULL%1,      Ramón%Pérez Tanoira%NULL%1,      Rodrigo%Sierra Rodríguez%NULL%1,      David%Alonso Menchén%NULL%1,      Aida%Gutiérrez García%NULL%1,      Alberto%Arranz Caso%NULL%1,      Juan%Cuadros González%NULL%1,      Melchor%Álvarez de Mon Soto%NULL%1,      Vicente Ferrer%Díaz de Brito Fernández%NULL%3,      Vicente Ferrer%Díaz de Brito Fernández%NULL%0,      Vicente Ferrer%Díaz de Brito Fernández%NULL%0,      Montserrat%Sanmarti Vilamala%NULL%1,      Aina%Gabarrell Pascuet%NULL%1,      Daniel%Molina Morant%NULL%1,      Sergio%España Cueto%NULL%1,      Jonathan%Cámara Fernández%NULL%1,      Albert%Sabater Gil%NULL%1,      Laura%Muñoz López%NULL%1,      Paula%Sáez Escolano%NULL%3,      Paula%Sáez Escolano%NULL%0,      Paula%Sáez Escolano%NULL%0,      Esperanza%Bejarano Tello%NULL%1,      Marco Antonio%Sempere Alcocer%NULL%3,      Marco Antonio%Sempere Alcocer%NULL%0,      Marco Antonio%Sempere Alcocer%NULL%0,      Salvador%Álvarez Martin%NULL%1,      Ignacio%De los Santos Gil%NULL%3,      Ignacio%De los Santos Gil%NULL%0,      Ignacio%De los Santos Gil%NULL%0,      Lucio%García-Fraile%NULL%1,      Miguel%Sampedro Núñez%NULL%1,      Ana%Barrios Blandino%NULL%1,      Carlos%Rodríguez Franco%NULL%1,      Daniel%Useros Brañas%NULL%1,      Almudena%Villa Martí%NULL%1,      Javier%Oliver Ortega%NULL%1,      Alexia%Costanza Espiño Álvarez%NULL%1,      Jesús%Sanz Sanz%NULL%1,      María%Rexach Fumaña%NULL%3,      María%Rexach Fumaña%NULL%0,      María%Rexach Fumaña%NULL%0,      Ivette%Abascal Cambras%NULL%1,      Ana del Cielo%Pérez Jaén%NULL%1,      Clara%Sala Jofre%NULL%3,      Clara%Sala Jofre%NULL%0,      Clara%Sala Jofre%NULL%0,      Susana%Casas Rodríguez%NULL%1,      Cecilia%Tortajada Alamilla%NULL%3,      Cecilia%Tortajada Alamilla%NULL%0,      Cecilia%Tortajada Alamilla%NULL%0,      Carmina%Oltra%NULL%1,      Mar%Masiá Canuto%NULL%3,      Mar%Masiá Canuto%NULL%0,      Mar%Masiá Canuto%NULL%0,      Félix%Gutiérrez Rodero%NULL%1,      Ana%Ferrer Ribera%NULL%3,      Ana%Ferrer Ribera%NULL%0,      Ana%Ferrer Ribera%NULL%0,      Carlos%Bea Serrano%NULL%1,      Miguel%Pedromingo Kus%NULL%3,      Miguel%Pedromingo Kus%NULL%0,      Miguel%Pedromingo Kus%NULL%0,      María Ángeles%Garcinuño%NULL%1,      Silvana%Fiorante%NULL%1,      Sergio%Pérez Pinto%NULL%1,      Pilar%Hernández Machín%NULL%3,      Pilar%Hernández Machín%NULL%0,      Pilar%Hernández Machín%NULL%0,      Alba%Alastrué Violeta%NULL%1,      María Carmen%Fariñas Álvarez%NULL%3,      María Carmen%Fariñas Álvarez%NULL%0,      María Carmen%Fariñas Álvarez%NULL%0,      Claudia%González Rico%NULL%1,      Francisco%Arnaiz de las Revillas%NULL%1,      Jorge%Calvo%NULL%1,      Mónica%Gozalo%NULL%1,      Francisco%Mora Gómez%NULL%3,      Francisco%Mora Gómez%NULL%0,      Francisco%Mora Gómez%NULL%0,      Ana%Milagro Beamonte%NULL%3,      Ana%Milagro Beamonte%NULL%0,      Ana%Milagro Beamonte%NULL%0,      Miriam%Latorre-Millán%NULL%1,      Antonio%Rezusta López%NULL%1,      Ana%Martínez Sapiña%NULL%1,      Yolanda%Meije%NULL%3,      Yolanda%Meije%NULL%0,      Yolanda%Meije%NULL%0,      Alejandra%Duarte Borges%NULL%1,      Julia%Pareja Coca%NULL%1,      Mercedes%Clemente Presas%NULL%1,      Juan Emilio%Losa García%NULL%3,      Juan Emilio%Losa García%NULL%0,      Juan Emilio%Losa García%NULL%0,      Ana%Vegas Serrano%NULL%1,      M. Teresa%Pérez-Rodríguez%NULL%3,      M. Teresa%Pérez-Rodríguez%NULL%0,      M. Teresa%Pérez-Rodríguez%NULL%0,      Alexandre%Pérez González%NULL%1,      Moncef%Belhassen-García%NULL%3,      Moncef%Belhassen-García%NULL%0,      Moncef%Belhassen-García%NULL%0,      Beatriz%Rodríguez-Alonso%NULL%1,      Amparo%López-Bernus%NULL%1,      Cristina%Carbonell%NULL%1,      Rafael%Torres Perea%NULL%3,      Rafael%Torres Perea%NULL%0,      Rafael%Torres Perea%NULL%0,      Juan%Cantón de Seoane%NULL%1,      Blanca%Alonso%NULL%1,      Sara Lidia%Kamal%NULL%1,      Lucia%Cajuela%NULL%1,      David%Roa%NULL%1,      Miguel%Cervero%NULL%1,      Alberto%Oreja%NULL%1,      Juan Pablo%Avilés%NULL%1,      Lidia%Martín%NULL%1,      Iván%Pelegrín Senent%NULL%3,      Iván%Pelegrín Senent%NULL%0,      Iván%Pelegrín Senent%NULL%0,      Rosana%Rouco Esteves Marques%NULL%1,      Jorge%Parra Ruiz%NULL%3,      Jorge%Parra Ruiz%NULL%0,      Jorge%Parra Ruiz%NULL%0,      Violeta%Ramos Sesma%NULL%1,      Jessica%Abadia Otero%NULL%3,      Jessica%Abadia Otero%NULL%0,      Jessica%Abadia Otero%NULL%0,      Juan%Salillas Hernando%NULL%3,      Juan%Salillas Hernando%NULL%0,      Juan%Salillas Hernando%NULL%0,      Robert%Torres Sánchez del Arco%NULL%1,      Miguel%Torralba González de Suso%NULL%1,      Alberto%Serrano Martínez%NULL%1,      Sergio%Gilaberte Reyzábal%NULL%1,      Marina%Pacheco Martínez-Atienza%NULL%1,      Mónica%Liébana Gómez%NULL%1,      Sara%Fernández Rodríguez%NULL%1,      Álvaro%Varela Plaza%NULL%1,      Henar%Calvo Sánchez%NULL%1,      Patricia%Martínez Martín%NULL%3,      Patricia%Martínez Martín%NULL%0,      Patricia%Martínez Martín%NULL%0,      Patricia%González- Ruano%NULL%1,      Eduardo%Malmierca Corral%NULL%1,      Isabel%Rábago Lorite%NULL%1,      Beatriz%Pérez-Monte Mínguez%NULL%1,      Ángeles%García Flores%NULL%3,      Ángeles%García Flores%NULL%0,      Ángeles%García Flores%NULL%0,      Pere%Comas Casanova%NULL%1,      Merce%Sirisi%NULL%3,      Merce%Sirisi%NULL%0,      Merce%Sirisi%NULL%0,      Richard%Rojas%NULL%1,      José Luis%Díaz de Tuesta del Arco%NULL%3,      José Luis%Díaz de Tuesta del Arco%NULL%0,      José Luis%Díaz de Tuesta del Arco%NULL%0,      Ruth%Figueroa Cerón%NULL%1,      Ander%González Sarria%NULL%1,      Remedios%Alemán Valls%NULL%3,      Remedios%Alemán Valls%NULL%0,      Remedios%Alemán Valls%NULL%0,      María del Mar%Alonso Socas%NULL%1,      Oscar%Sanz Peláez%NULL%3,      Oscar%Sanz Peláez%NULL%0,      Oscar%Sanz Peláez%NULL%0,      Karim%Mohamed Ramírez%NULL%1,      Melchor%Riera Jaume%NULL%3,      Melchor%Riera Jaume%NULL%0,      Melchor%Riera Jaume%NULL%0,      Helem Haydee%Vilchez%NULL%1,      Francesc%Albertí%NULL%1,      Ana Isabel%Cañabate%NULL%1,      Víctor J.%Moreno Cuerda%NULL%3,      Víctor J.%Moreno Cuerda%NULL%0,      Víctor J.%Moreno Cuerda%NULL%0,      Silvia%Álvarez Kaelis%NULL%1,      Beatriz%Álvarez Zapatero%NULL%1,      Alejandro%García García%NULL%1,      Elena%Isaba Ares%NULL%1,      Covadonga%Morcate Fernández%NULL%1,      Andrea%Pérez Rodríguez%NULL%1,      Lucía%Ramos Merino%NULL%3,      Lucía%Ramos Merino%NULL%0,      Lucía%Ramos Merino%NULL%0,      Laura%Castelo Corral%NULL%1,      María%Rodríguez Mahía%NULL%1,      Mónica%González Bardanca%NULL%1,      Efrén%Sánchez Vidal%NULL%1,      Enrique%Míguez Rey%NULL%1,      Javier%De la Torre Lima%NULL%3,      Javier%De la Torre Lima%NULL%0,      Javier%De la Torre Lima%NULL%0,      José Mª%García de Lomas Guerrero%NULL%1,      Elena%Morte%NULL%3,      Elena%Morte%NULL%0,      Elena%Morte%NULL%0,      Silvia%Loscos%NULL%1,      Ana%Camón%NULL%1,      Lucía%Gómez García%NULL%3,      Lucía%Gómez García%NULL%0,      Lucía%Gómez García%NULL%0,      Lucia%Boix Palop%NULL%1,      Beatriz%Dietl Gómez-Luengo%NULL%1,      Iris%Pedrola Gorrea%NULL%3,      Iris%Pedrola Gorrea%NULL%0,      Iris%Pedrola Gorrea%NULL%0,      Amparo%Blasco Claramunt%NULL%1,      Cristina%López Mestanza%NULL%3,      Cristina%López Mestanza%NULL%0,      Cristina%López Mestanza%NULL%0,      Esther%Fraile Villarejo%NULL%1,      Tomás%Tosco Núñez%NULL%3,      Tomás%Tosco Núñez%NULL%0,      Tomás%Tosco Núñez%NULL%0,      María%Aroca Ferri%NULL%1,      José Tomas%Algado Rabasa%NULL%3,      José Tomas%Algado Rabasa%NULL%0,      José Tomas%Algado Rabasa%NULL%0,      Ana María%Garijo Saiz%NULL%1,      Concepción%Amador Prous%NULL%1,      Jesús Rodriguez%Baño%NULL%3,      Jesús Rodriguez%Baño%NULL%0,      Jesús Rodriguez%Baño%NULL%0,      Pilar%Retamar%NULL%1,      Adoración%Valiente%NULL%1,      Luis E.%López-Cortés%NULL%1,      Jesús%Sojo%NULL%1,      Belén%Gutiérrez-Gutiérrez%NULL%1,      José%Bravo-Ferrer%NULL%1,      Elena%Salamanca%NULL%1,      Zaira R.%Palacios%NULL%1,      Patricia%Pérez-Palacios%NULL%1,      Enrique%Peral%NULL%1,      José Antonio%Pérez de León%NULL%1,      Jesús%Sánchez-Gómez%NULL%1,      Lucía%Marín-Barrera%NULL%1,      Domingo%García-Jiménez%NULL%1,      Jordi%Carratalà%NULL%0,      Jordi%Carratalà%NULL%0,      Jordi%Carratalà%NULL%0,      Gabriela%Abelenda-Alonso%NULL%1,      Carmen%Ardanuy%NULL%1,      Alba%Bergas%NULL%1,      Guillermo%Cuervo%NULL%1,      María Ángeles%Domínguez%NULL%1,      Miguel%Fernández-Huerta%NULL%1,      Carlota%Gudiol%NULL%1,      Laia%Lorenzo-Esteller%NULL%1,      Jordi%Niubó%NULL%1,      Sandra%Pérez-Recio%NULL%1,      Daniel%Podzamczer%NULL%1,      Miquel%Pujol%NULL%1,      Alexander%Rombauts%NULL%1,      Núria%Trullen%NULL%1,      Miguel%Salavert Lletí%NULL%3,      Miguel%Salavert Lletí%NULL%0,      Miguel%Salavert Lletí%NULL%0,      Iván%Castro Hernández%NULL%1,      Adriana%Hernández Belmonte%NULL%3,      Adriana%Hernández Belmonte%NULL%0,      Adriana%Hernández Belmonte%NULL%0,      Raquel%Martínez Goñi%NULL%1,      Marta%Navarro Vilasaró%NULL%3,      Marta%Navarro Vilasaró%NULL%0,      Marta%Navarro Vilasaró%NULL%0,      Sonia%Calzado Isbert%NULL%1,      Manuel%Cervantes García%NULL%1,      Aina%Gomila Grange%NULL%1,      Oriol%Gasch Blasi%NULL%1,      María Luisa%Machado Sicilia%NULL%1,      Eva%Van den Eynde Otero%NULL%1,      Luis%Falgueras López%NULL%1,      María del Carmen%Navarro Sáez%NULL%1,      Esteban%Martínez%NULL%3,      Esteban%Martínez%NULL%0,      Esteban%Martínez%NULL%0,      Mª Ángeles%Marcos%NULL%1,      Mar%Mosquera%NULL%1,      José Luis%Blanco%NULL%1,      Montserrat%Laguno%NULL%1,      Jhon%Rojas%NULL%1,      Ana%González-Cordón%NULL%1,      Alexy%Inciarte%NULL%1,      Berta%Torres%NULL%1,      Lorena%De la Mora%NULL%1,      Alex%Soriano%NULL%1,      Olalla%Martínez Macias%NULL%3,      Olalla%Martínez Macias%NULL%0,      Olalla%Martínez Macias%NULL%0,      Virginia%Pérez Doñate%NULL%1,      Alfonso%Cabello Úbeda%NULL%3,      Alfonso%Cabello Úbeda%NULL%0,      Alfonso%Cabello Úbeda%NULL%0,      Nerea%Carrasco Antón%NULL%1,      Beatriz%Álvarez Álvarez%NULL%1,      Elizabet%Petkova Saiz%NULL%1,      Miguel%Górgolas Hernández-Mora%NULL%1,      Laura%Prieto Pérez%NULL%1,      Irene%Carrillo Acosta%NULL%1,      Sara%Heili Frades%NULL%1,      Felipe%Villar Álvarez%NULL%1,      Ricardo%Fernández Roblas%NULL%1,      José María%Milicua Muñoz%NULL%1,      Virginia%Fernández Espinilla%NULL%3,      Virginia%Fernández Espinilla%NULL%0,      Virginia%Fernández Espinilla%NULL%0,      Carlos Jesús%Dueñas Gutiérrez%NULL%1,      Cristina%Hernán García%NULL%1,      Fernando%González-Romo%NULL%3,      Fernando%González-Romo%NULL%0,      Fernando%González-Romo%NULL%0,      Paloma%Merino Amador%NULL%1,      Alba%Rueda López%NULL%1,      Jorge%Martínez Jordán%NULL%1,      Sara%Medrano Pardo%NULL%1,      Irene%Díaz de la Torre%NULL%1,      Yolanda%Posada Franco%NULL%1,      Alberto%Delgado-Iribarren%NULL%1,      Joaquín%López-Contreras González%NULL%3,      Joaquín%López-Contreras González%NULL%0,      Joaquín%López-Contreras González%NULL%0,      Pablo%Pascual Alonso%NULL%1,      Virginia%Pomar Solchaga%NULL%1,      Nuria%Rabella García%NULL%1,      Natividad%Benito Hernández%NULL%1,      Pere%Domingo Pedrol%NULL%1,      Xavier%Bonfill Cosp%NULL%1,      Rafael%Padrós Selma%NULL%1,      Mireia%Puig Campmany%NULL%1,      Jordi%Mancebo Cortés%NULL%1,      Mercè%Gurguí Ferrer%NULL%1,      Melania%Íñigo Pestaña%NULL%3,      Melania%Íñigo Pestaña%NULL%0,      Melania%Íñigo Pestaña%NULL%0,      Alejandra%Pérez García%NULL%1,      Patricia%Sorní Moreno%NULL%3,      Patricia%Sorní Moreno%NULL%0,      Patricia%Sorní Moreno%NULL%0,      Nora%Izko Gartzia%NULL%1,      Francisco Javier%Membrillo de Novales%NULL%3,      Francisco Javier%Membrillo de Novales%NULL%0,      Francisco Javier%Membrillo de Novales%NULL%0,      María%Simón Sacristán%NULL%1,      Maribel%Zamora Cintas%NULL%1,      Yolanda%Martínez Martínez%NULL%1,      Pablo%Fernández-González%NULL%1,      Francisco%Alcántara Nicolás%NULL%1,      Alejandro%Aguirre Vila-Cora%NULL%1,      Elena%López Tizón%NULL%1,      Germán%Ramírez-Olivencia%NULL%1,      Miriam%Estébanez Muñoz%NULL%1,      Ester%Sáez de Adana Arróniz%NULL%3,      Ester%Sáez de Adana Arróniz%NULL%0,      Ester%Sáez de Adana Arróniz%NULL%0,      Joseba%Portu Zapirain%NULL%1,      Juan Carlos%Gainzarain Arana%NULL%1,      Zuriñe%Ortiz de Zárate Ibarra%NULL%1,      Miguel Ángel%Moran Rodríguez%NULL%1,      Andrés%Canut Blasco%NULL%1,      Silvia%Hernáez Crespo%NULL%1,      Leire%Balerdi Sarasola%NULL%1,      Cristina%Morales García%NULL%1,      Miguel%Corral Saracho%NULL%1,      Zeltia%Valcarce González%NULL%1,      Noelia%Arenal Andrés%NULL%3,      Noelia%Arenal Andrés%NULL%0,      Noelia%Arenal Andrés%NULL%0,      Raquel Elisa%Rodríguez Tarazona%NULL%1,      Laura%Iglesias Llorente%NULL%3,      Laura%Iglesias Llorente%NULL%0,      Laura%Iglesias Llorente%NULL%0,      Beatriz%Loureiro Rodríguez%NULL%1,      Adrián%Sánchez Montalvá%NULL%3,      Adrián%Sánchez Montalvá%NULL%0,      Adrián%Sánchez Montalvá%NULL%0,      Juan%Espinosa Pereiro%NULL%1,      Benito%Almirante%NULL%1,      Marta%Miarons%NULL%1,      Júlia%Sellarés%NULL%1,      María%Larrosa%NULL%1,      Sonia%García%NULL%1,      Blanca%Marzo%NULL%1,      Miguel%Villamarín%NULL%1,      Nuria%Fernández%NULL%1,      Conchita%Pérez-Jorge Peremarch%NULL%3,      Conchita%Pérez-Jorge Peremarch%NULL%0,      Conchita%Pérez-Jorge Peremarch%NULL%0,      Elena%Resino Foz%NULL%1,      Andrea%Espigares Correa%NULL%1,      Teresa%Álvarez de Espejo Montiel%NULL%1,      Iván%Navas Clemente%NULL%1,      María Isabel%Quijano Contreras%NULL%1,      Luis Alberto%Nieto Fernández del Campo%NULL%1,      Guillermo%Jiménez Álvarez%NULL%1,      Mercedes%Guillamón Sánchez%NULL%3,      Mercedes%Guillamón Sánchez%NULL%0,      Mercedes%Guillamón Sánchez%NULL%0,      Josefina%García García%NULL%1,      Constanza%Muñoz Hornero%NULL%3,      Constanza%Muñoz Hornero%NULL%0,      Constanza%Muñoz Hornero%NULL%0,      Ana%Mariño Callejo%NULL%3,      Ana%Mariño Callejo%NULL%0,      Ana%Mariño Callejo%NULL%0,      Nieves%Valcarce Pardeiro%NULL%1,      Alex%Smithson Amat%NULL%3,      Alex%Smithson Amat%NULL%0,      Alex%Smithson Amat%NULL%0,      Cristina%Chico Chumillas%NULL%1,      Adriana%Sánchez Serrano%NULL%3,      Adriana%Sánchez Serrano%NULL%0,      Adriana%Sánchez Serrano%NULL%0,      Eva Pilar%García Villalba%NULL%1,      Isabel%Jiménez Martínez%NULL%3,      Isabel%Jiménez Martínez%NULL%0,      Isabel%Jiménez Martínez%NULL%0,      Guillermo%Estrada Fernández%NULL%1,      María%Lorén Vargas%NULL%1,      Nuria%Parra Arribas%NULL%1,      Carmen%Martínez Cilleros%NULL%1,      Aránzazu%Villasante de la Puente%NULL%1,      Teresa%García Delange%NULL%1,      María José%Ruiz Rodríguez%NULL%1,      Marta%Robledo del Prado%NULL%1,      Juan Carlos%Abad Almendro%NULL%1,      José Román%Muñoz del Rey%NULL%3,      José Román%Muñoz del Rey%NULL%0,      José Román%Muñoz del Rey%NULL%0,      Montaña%Jiménez Álvaro%NULL%1,      Javier%Coy Coy%NULL%3,      Javier%Coy Coy%NULL%0,      Javier%Coy Coy%NULL%0,      Inmaculada%Poquet Catala%NULL%1,      Marta%Santos Peña%NULL%3,      Marta%Santos Peña%NULL%0,      Marta%Santos Peña%NULL%0,      Virginia%Naranjo Velasco%NULL%1,      Tamara%Manso Gómez%NULL%3,      Tamara%Manso Gómez%NULL%0,      Tamara%Manso Gómez%NULL%0,      Delia%Quilez Ágreda%NULL%1,      Gema%Barbeito Castiñeiras%NULL%3,      Gema%Barbeito Castiñeiras%NULL%0,      Gema%Barbeito Castiñeiras%NULL%0,      María Jesús%Domínguez Santalla%NULL%1,      Laura%Mao Martín%NULL%3,      Laura%Mao Martín%NULL%0,      Laura%Mao Martín%NULL%0,      Rodrigo%Alonso Navarro%NULL%1,      Jose David%Ampuero Martinich%NULL%1,      Raquel%Barrós González%NULL%1,      María Aránzazu%Galindo Martín%NULL%1,      Lourdes%Herrera Pacheco%NULL%1,      Rocío%Martínez Avilés%NULL%1,      Sara%Rodrigo González%NULL%1,      Cristóbal Manuel%Rodríguez Leal%NULL%1,      Eva María%Romay Lema%NULL%3,      Eva María%Romay Lema%NULL%0,      Eva María%Romay Lema%NULL%0,      Roi%Suárez Gil%NULL%1,      Maialen%Ibarguren Pinilla%NULL%3,      Maialen%Ibarguren Pinilla%NULL%0,      Maialen%Ibarguren Pinilla%NULL%0,      José María%Marimón Ortiz de Zárate%NULL%1,      Loreto%Vidaur Tello%NULL%1,      Xabier%Kortajarena Urkola%NULL%1,      Miriam%García Gómez%NULL%3,      Miriam%García Gómez%NULL%0,      Miriam%García Gómez%NULL%0,      Asier%Aranguren Arostegui%NULL%1,      Maria%Álvarez de Castro%NULL%3,      Maria%Álvarez de Castro%NULL%0,      Maria%Álvarez de Castro%NULL%0,      Cintia María%Martínez Mateu%NULL%1,      Francisco%Rodríguez Gómez%NULL%3,      Francisco%Rodríguez Gómez%NULL%0,      Francisco%Rodríguez Gómez%NULL%0,      Francisco%Muñoz Beamud%NULL%1,      Elena%Chamarro Martí%NULL%3,      Elena%Chamarro Martí%NULL%0,      Elena%Chamarro Martí%NULL%0,      Merce%Cardona Rivera%NULL%1,      Ismail%Zakariya-Yousef Breval%NULL%3,      Ismail%Zakariya-Yousef Breval%NULL%0,      Ismail%Zakariya-Yousef Breval%NULL%0,      Marta%Rico Rodríguez%NULL%1,      Jara%Llenas García%NULL%3,      Jara%Llenas García%NULL%0,      Jara%Llenas García%NULL%0,      Mª Carmen%Sánchez Arenas%NULL%1,      Ana%Fernández Cruz%NULL%3,      Ana%Fernández Cruz%NULL%0,      Ana%Fernández Cruz%NULL%0,      Jorge%Calderón Parra%NULL%1,      Marcos%López Dosil%NULL%1,      Antonio%Ramos Martínez%NULL%1,      Elena%Múñez Rubio%NULL%1,      Alejandro%Callejas Díaz%NULL%1,      José Manuel%Vázquez Comendador%NULL%1,      Itziar%Diego Yagüe%NULL%1,      Esther%Expósito Palomo%NULL%1,      Jorge%Anel Pedroche%NULL%1,      Raquel%Álvarez Franco%NULL%3,      Raquel%Álvarez Franco%NULL%0,      Raquel%Álvarez Franco%NULL%0,      Lucía%Fernández de Orueta%NULL%1,      Roberto%Vates Gómez%NULL%1,      Andrés Felipe%Cardona Arias%NULL%1,      Pablo%Marguenda Contreras%NULL%1,      Gabriel%Gaspar Alonso-Vega%NULL%1,      Elena María%Aranda Rife%NULL%1,      Blanca%Martínez Cifre%NULL%1,      Daniel%Roger Zapata%NULL%1,      Irene%Martín Rubio%NULL%1,      André%Barbosa Ventura%NULL%3,      André%Barbosa Ventura%NULL%0,      André%Barbosa Ventura%NULL%0,      Iván%Piñero%NULL%1,      Alberto%Bahamonde Carrasco%NULL%3,      Alberto%Bahamonde Carrasco%NULL%0,      Alberto%Bahamonde Carrasco%NULL%0,      Paula%Runza Buznego%NULL%1,      Eva%Talavera García%NULL%3,      Eva%Talavera García%NULL%0,      Eva%Talavera García%NULL%0,      Marta%Lamata Subero%NULL%1,      Ainhoa%Urrutia Losada%NULL%3,      Ainhoa%Urrutia Losada%NULL%0,      Ainhoa%Urrutia Losada%NULL%0,      Lorea%Arteche Eguizabal%NULL%1,      Elisabet%Delgado Sánchez%NULL%3,      Elisabet%Delgado Sánchez%NULL%0,      Elisabet%Delgado Sánchez%NULL%0,      Virginia%Molina Peinado%NULL%1,      Sarah%Caro Bragado%NULL%3,      Sarah%Caro Bragado%NULL%0,      Sarah%Caro Bragado%NULL%0,      Gema%Domínguez de Pablos%NULL%1,      Carolina%Roldán Fontana%NULL%3,      Carolina%Roldán Fontana%NULL%0,      Carolina%Roldán Fontana%NULL%0,      Carmen%Herrero Rodríguez%NULL%1,      Luis%Force Sanmartín%NULL%3,      Luis%Force Sanmartín%NULL%0,      Luis%Force Sanmartín%NULL%0,      Raquel%Aranega%NULL%1,      Arantzazu%Mera Fidalgo%NULL%3,      Arantzazu%Mera Fidalgo%NULL%0,      Arantzazu%Mera Fidalgo%NULL%0,      María Roca%Toda Savall%NULL%1,      Nicolas%Merchante Gutiérrez%NULL%3,      Nicolas%Merchante Gutiérrez%NULL%0,      Nicolas%Merchante Gutiérrez%NULL%0,      Eva María%León Jiménez%NULL%1,      José Luís%Del Pozo%NULL%3,      José Luís%Del Pozo%NULL%0,      José Luís%Del Pozo%NULL%0,      Josefa%Serralta Buades%NULL%3,      Josefa%Serralta Buades%NULL%0,      Josefa%Serralta Buades%NULL%0,      Ginger Giorgiana%Cabrera Tejada%NULL%1,      Mario%Fernández-Ruiz%NULL%4,      Mario%Fernández-Ruiz%NULL%0,      Mario%Fernández-Ruiz%NULL%0,      José María%Aguado%NULL%1,      Guillermo%Maestro de la Calle%NULL%1,      José Miguel%Cisneros%NULL%0,      José Miguel%Cisneros%NULL%0,      José Miguel%Cisneros%NULL%0,      Jerónimo%Pachón%NULL%0,      Manuela%Aguilar-Guisado%NULL%1,      Teresa%Aldabó%NULL%1,      María Dolores%Avilés%NULL%0,      Claudio%Bueno%NULL%1,      Elisa%Cordero-Matía%NULL%1,      Ana%Escoresca%NULL%1,      Lydia%Gálvez-Benítez%NULL%1,      Carmen%Infante%NULL%1,      Guillermo%Martín%NULL%1,      Julia%Praena%NULL%1,      Cristina%Roca%NULL%1,      Celia%Salamanca%NULL%1,      Alejandro%Suárez-Benjumea%NULL%1,      Pilar%Vizcarra%NULL%3,      Pilar%Vizcarra%NULL%0,      Pilar%Vizcarra%NULL%0,      Carmen%Quereda%NULL%1,      Mario José%Rodriguez Dominguez%NULL%1,      Francesca%Gioia%NULL%1,      Francesca%Norman%NULL%1,      Santos%Del Campo%NULL%1,      Rafael%Cantón Moreno%NULL%1,      Antonio%Oteo Revuelta José%NULL%3,      Antonio%Oteo Revuelta José%NULL%0,      Antonio%Oteo Revuelta José%NULL%0,      Paula%Santibáñez Sáenz%NULL%1,      Cristina%Cervera Acedo%NULL%1,      Carlos%Ruiz Martínez%NULL%1,      José R.%Blanco Ramos%NULL%1,      José M.%Azcona Gutiérrez%NULL%1,      Concepción%García García%NULL%1,      Jorge%Alba Fernández%NULL%1,      Valvanera%Ibarra Cucalón%NULL%1,      Mercedes%San Franco%NULL%1,      Luis%Metola Sacristán%NULL%1,      Héctor%Meijide Míguez%NULL%3,      Héctor%Meijide Míguez%NULL%0,      Héctor%Meijide Míguez%NULL%0,      Silvia%Paulos Viñas%NULL%1,      Justo%Menéndez%NULL%3,      Justo%Menéndez%NULL%0,      Justo%Menéndez%NULL%0,      Paula%Villares Fernández%NULL%1,      Lara%Montes Andújar%NULL%1,      Álvaro%Navarro Batet%NULL%3,      Álvaro%Navarro Batet%NULL%0,      Álvaro%Navarro Batet%NULL%0,      Anna%Ferrer Santolaria%NULL%1,      María de la Luz%Padilla Salazar%NULL%3,      María de la Luz%Padilla Salazar%NULL%0,      María de la Luz%Padilla Salazar%NULL%0,      Lucy%Abella Vázquez%NULL%1,      Marcelino%Hayek Peraza%NULL%1,      Antonio%García Pardo%NULL%1,      Carolina%Hernández Carballo%NULL%1,      Andrés Javier%Ruiz Fernández%NULL%3,      Andrés Javier%Ruiz Fernández%NULL%0,      Andrés Javier%Ruiz Fernández%NULL%0,      Isabel%Barrio López%NULL%1,      Alí%Martakoush%NULL%3,      Alí%Martakoush%NULL%0,      Alí%Martakoush%NULL%0,      Agustín%Rojas-Vieyra%NULL%3,      Agustín%Rojas-Vieyra%NULL%0,      Agustín%Rojas-Vieyra%NULL%0,      Sonia%García Calvo%NULL%3,      Sonia%García Calvo%NULL%0,      Sonia%García Calvo%NULL%0,      Mercedes%Villarreal García-Lomas%NULL%1,      Marta%Vizcaíno Callejón%NULL%3,      Marta%Vizcaíno Callejón%NULL%0,      Marta%Vizcaíno Callejón%NULL%0,      María Pilar%García García%NULL%1,      Ana%Lérida Urteaga%NULL%3,      Ana%Lérida Urteaga%NULL%0,      Ana%Lérida Urteaga%NULL%0,      Natalia%Carrasco Fons%NULL%1,      Beatriz%María Sanjuan%NULL%1,      Lydia%Martín González%NULL%1,      Camilo%Sanz Zamudio%NULL%1,      Inmaculada%Jarrín%NULL%0,      Inmaculada%Jarrín%NULL%0,      Inmaculada%Jarrín%NULL%0,      Belén%Alejos%NULL%1,      Cristina%Moreno%NULL%1,      Marta%Rava%NULL%1,      Carlos%Iniesta%NULL%1,      Rebeca%Izquierdo%NULL%1,      Inés%Suárez-García%NULL%1,      Asunción%Díaz%NULL%1,      Marta%Ruiz-Alguero%NULL%1,      Victoria%Hernando%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,      Denise J%McCulloch%NULL%0,      Denise J%McCulloch%NULL%0,      Vidya%Atluri%NULL%0,      Michela%Blain%NULL%0,      Sarah A%McGuffin%NULL%0,      Arun K%Nalla%NULL%0,      Meei-Li%Huang%NULL%0,      Alex L%Greninger%NULL%0,      Keith R%Jerome%NULL%0,      Seth A%Cohen%NULL%0,      Santiago%Neme%NULL%0,      Margaret L%Green%NULL%0,      Helen Y%Chu%NULL%0,      H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,      Wenlin%Cheng%NULL%0,      Lei%Yu%NULL%0,      Ya-Kun%Liu%NULL%0,      Xiaoyong%Hu%NULL%0,      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,      Alberto%Zucchelli%NULL%1,      Marinella%Turla%NULL%1,      Maria Sofia%Cotelli%NULL%1,      Sara%Fascendini%NULL%1,      Mara%Zanni%NULL%1,      Angelo%Bianchetti%NULL%1,      Matteo Peli%Psy%NULL%1,      Renzo%Rozzini%NULL%1,      Stefano%Boffelli%NULL%1,      Melania%Cappuccio%NULL%1,      Federica Gottardi%Psy%NULL%1,      Chiara Vecchi%Psy%NULL%1,      Daniele%Bellandi%NULL%1,      Claudia%Caminati%NULL%1,      Simona%Gentile%NULL%1,      Elena Lucchi%Psy%NULL%1,      Ignazio%Di Fazio%NULL%1,      Marina Zanetti%Psy%NULL%1,      Giuliana%Vezzadini%NULL%1,      Chiara Forlani%Psy%NULL%1,      Maura Cosseddu%Psy%NULL%1,      Rosanna Turrone%Psy%NULL%1,      Silvia Pelizzari%Psy%NULL%1,      Andrea%Scalvini%NULL%1,      Marco%Di Cesare%NULL%1,      Marta Grigolo%Psy%NULL%1,      Lina%Falanga%NULL%1,      Nives%Medici%NULL%1,      Nives%Palamini%NULL%1,      Elisa Zanacchi%Psy%NULL%1,      Eleonora Grossi%Psy%NULL%1,      Giuseppe%Bellelli%NULL%1,      Alessandra%Marengoni%NULL%1,      Marco%Trabucchi%NULL%1,      Alessandro%Padovani%alessandro.padovani@unibs.it%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      Nancy%Chow%NULL%2,      Katherine%Fleming-Dutra%NULL%1,      Ryan%Gierke%NULL%2,      Aron%Hall%NULL%2,      Michelle%Hughes%NULL%1,      Tamara%Pilishvili%NULL%2,      Matthew%Ritchey%NULL%2,      Katherine%Roguski%NULL%1,      Tami%Skoff%NULL%1,      Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,      Zhencang%Zheng%NULL%1,      Chao%Zhang%NULL%1,      Xijiang%Zhang%NULL%1,      Huijuan%Wu%NULL%1,      Jingdong%Wang%NULL%1,      Shuwei%Wang%NULL%1,      Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,      Wei%Liu%NULL%0,      Kui%Liu%NULL%0,      Yuan-Yuan%Fang%NULL%0,      Jin%Shang%NULL%0,      Ling%Zhou%NULL%0,      Ke%Wang%NULL%0,      Fan%Leng%NULL%0,      Shuang%Wei%NULL%0,      Lei%Chen%NULL%0,      Hui-Guo%Liu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,      Francesco%Innocenti%NULL%1,      Julien%Beauté%NULL%1,      Veronika%Učakar%NULL%1,      Marta%Grgič Vitek%NULL%1,      Eero%Poukka%NULL%1,      Tuula%Hannila-Handelberg%NULL%1,      Charmaine%Gauci%NULL%1,      Tanya%Melillo%NULL%1,      Theano%Georgakopoulou%NULL%1,      Jiri%Jarkovsky%NULL%1,      Pavel%Slezak%NULL%1,      Concepción%Delgado-Sanz%NULL%1,      Carmen%Olmedo-Lucerón%NULL%1,      Heleene%Suija%NULL%1,      Rasa%Liausediene%NULL%1,      Piaras%O’Lorcain%NULL%1,      Niamh%Murphy%NULL%1,      André%Peralta-Santos%NULL%1,      Pedro%Casaca%NULL%1,      Ioanna%Gregoriou%NULL%1,      Nick%Bundle%NULL%1,      Gianfranco%Spiteri%NULL%1,      Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,      Peiyun%Li%NULL%1,      Liang%Ma%NULL%1,      Hang%Liang%NULL%1,      Jie%Lei%NULL%1,      Wenqiang%Li%NULL%1,      Kun%Wang%NULL%1,      Yu%Song%NULL%1,      Shuai%Li%NULL%1,      Wei%Yang%NULL%0,      Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,      Yun%Ling%NULL%0,      Yun%Ling%NULL%0,      Tao%Bai%NULL%2,      Tao%Bai%NULL%0,      Yusang%Xie%NULL%1,      Jie%Huang%NULL%2,      Jie%Huang%NULL%0,      Jian%Li%NULL%1,      Weining%Xiong%NULL%1,      Dexiang%Yang%NULL%1,      Rong%Chen%NULL%1,      Fangying%Lu%NULL%1,      Yunfei%Lu%NULL%1,      Xuhui%Liu%NULL%1,      Yuqing%Chen%NULL%2,      Yuqing%Chen%NULL%0,      Xin%Li%NULL%1,      Yong%Li%NULL%0,      Hanssa Dwarka%Summah%NULL%1,      Huihuang%Lin%NULL%1,      Jiayang%Yan%NULL%1,      Min%Zhou%NULL%0,      Hongzhou%Lu%NULL%0,      Hongzhou%Lu%NULL%0,      Jieming%Qu%NULL%0,      Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,      Massimiliano%Marino%NULL%0,      Debora%Formisano%NULL%0,      Francesco%Venturelli%NULL%0,      Massimo%Vicentini%NULL%0,      Massimo%Vicentini%NULL%0,      Roberto%Grilli%NULL%0,      NULL%NULL%NULL%0,      Gianluigi%Forloni%NULL%8,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,      Justin J.%Choi%NULL%0,      Laura C.%Pinheiro%NULL%0,      Edward J.%Schenck%NULL%0,      Ruijun%Chen%NULL%0,      Assem%Jabri%NULL%0,      Michael J.%Satlin%NULL%0,      Thomas R.%Campion%NULL%0,      Musarrat%Nahid%NULL%0,      Joanna B.%Ringel%NULL%0,      Katherine L.%Hoffman%NULL%0,      Mark N.%Alshak%NULL%0,      Han A.%Li%NULL%0,      Graham T.%Wehmeyer%NULL%0,      Graham T.%Wehmeyer%NULL%0,      Mangala%Rajan%NULL%0,      Evgeniya%Reshetnyak%NULL%0,      Nathaniel%Hupert%NULL%0,      Evelyn M.%Horn%NULL%0,      Fernando J.%Martinez%NULL%0,      Roy M.%Gulick%NULL%0,      Monika M.%Safford%NULL%0,      Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,      Norio%Ohmagari%NULL%1,      Daniel%Shin%NULL%1,      George%Diaz%NULL%1,      Erika%Asperges%NULL%1,      Antonella%Castagna%NULL%0,      Torsten%Feldt%NULL%1,      Gary%Green%NULL%1,      Margaret L.%Green%NULL%1,      François-Xavier%Lescure%NULL%1,      Emanuele%Nicastri%NULL%1,      Rentaro%Oda%NULL%2,      Rentaro%Oda%NULL%0,      Kikuo%Yo%NULL%2,      Kikuo%Yo%NULL%0,      Eugenia%Quiros-Roldan%NULL%1,      Alex%Studemeister%NULL%1,      John%Redinski%NULL%1,      Seema%Ahmed%NULL%1,      Jorge%Bernett%NULL%1,      Daniel%Chelliah%NULL%1,      Danny%Chen%NULL%1,      Shingo%Chihara%NULL%1,      Stuart H.%Cohen%NULL%1,      Jennifer%Cunningham%NULL%1,      Antonella%D’Arminio Monforte%NULL%1,      Saad%Ismail%NULL%1,      Hideaki%Kato%NULL%1,      Giuseppe%Lapadula%NULL%1,      Erwan%L’Her%NULL%1,      Toshitaka%Maeno%NULL%1,      Sumit%Majumder%NULL%1,      Marco%Massari%NULL%0,      Marta%Mora-Rillo%NULL%1,      Yoshikazu%Mutoh%NULL%1,      Duc%Nguyen%NULL%1,      Ewa%Verweij%NULL%1,      Alexander%Zoufaly%NULL%1,      Anu O.%Osinusi%NULL%1,      Adam%DeZure%NULL%1,      Yang%Zhao%NULL%1,      Lijie%Zhong%NULL%1,      Anand%Chokkalingam%NULL%1,      Emon%Elboudwarej%NULL%1,      Laura%Telep%NULL%1,      Leighann%Timbs%NULL%1,      Ilana%Henne%NULL%1,      Scott%Sellers%NULL%1,      Huyen%Cao%NULL%1,      Susanna K.%Tan%NULL%1,      Lucinda%Winterbourne%NULL%1,      Polly%Desai%NULL%1,      Robertino%Mera%NULL%1,      Anuj%Gaggar%NULL%1,      Robert P.%Myers%NULL%1,      Diana M.%Brainard%NULL%1,      Richard%Childs%NULL%1,      Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,     Arunthamakun%Justin%coreGivesNoEmail%1,     Athavale%Ambarish M.%coreGivesNoEmail%1,     Bansal%Anip%coreGivesNoEmail%1,     Brenner%Samantha K.%coreGivesNoEmail%1,     Chan%Lili%coreGivesNoEmail%1,     Donnelly%John P.%coreGivesNoEmail%1,     Friedman%Allon N.%coreGivesNoEmail%1,     Gershengorn%Hayley B.%coreGivesNoEmail%1,     Goyal%Nitender%coreGivesNoEmail%1,     Green%Adam%coreGivesNoEmail%1,     Gupta%Shruti%coreGivesNoEmail%1,     Hayek%Salim S.%coreGivesNoEmail%1,     Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,     Kibbelaar%Zoe A.%coreGivesNoEmail%1,     Leaf%David E.%coreGivesNoEmail%1,     Leonberg-Yoo%Amanda%coreGivesNoEmail%1,     Mathews%Kusum S.%coreGivesNoEmail%1,     Melamed%Michal L.%coreGivesNoEmail%1,     Omar%Samah Abu%coreGivesNoEmail%1,     Parikh%Chirag R.%coreGivesNoEmail%1,     Radbel%Jared%coreGivesNoEmail%1,     Reiser%Jochen%coreGivesNoEmail%1,     Schenck%Edward J.%coreGivesNoEmail%1,     Semler%Matthew W.%coreGivesNoEmail%1,     Shaefi%Shahzad%coreGivesNoEmail%1,     Shehata%Alexandre M.%coreGivesNoEmail%1,     Short%Samuel A. P.%coreGivesNoEmail%1,     Srivastava%Anand%coreGivesNoEmail%1,     Sutherland%Anne%coreGivesNoEmail%1,     Velez%Juan Carlos Q.%coreGivesNoEmail%1,     Vijayan%Anitha%coreGivesNoEmail%1,     Wang%Wei%coreGivesNoEmail%1,     Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,      İmran%HASANOĞLU%NULL%2,      İmran%HASANOĞLU%NULL%0,      Bircan%KAYAASLAN%NULL%2,      Bircan%KAYAASLAN%NULL%0,      Adalet%AYPAK%NULL%2,      Adalet%AYPAK%NULL%0,      Ayşe%KAYA KALEM%NULL%2,      Ayşe%KAYA KALEM%NULL%0,      Fatma%ESER%NULL%2,      Fatma%ESER%NULL%0,      Burcu%ÖZDEMİR%NULL%2,      Burcu%ÖZDEMİR%NULL%0,      Elif Mükime%SARICAOĞLU%NULL%2,      Elif Mükime%SARICAOĞLU%NULL%0,      Müge%AYHAN%NULL%2,      Müge%AYHAN%NULL%0,      Yeşim%AYBAR BİLİR%NULL%2,      Yeşim%AYBAR BİLİR%NULL%0,      Işıl%ÖZKOÇAK TURAN%NULL%2,      Işıl%ÖZKOÇAK TURAN%NULL%0,      Deniz%ERDEM%NULL%2,      Deniz%ERDEM%NULL%0,      Nevzat Mehmet%MUTLU%NULL%1,      Turan%BUZGAN%NULL%2,      Turan%BUZGAN%NULL%0,      Bedia%DİNÇ%NULL%2,      Bedia%DİNÇ%NULL%0,      Esragül%AKINCI%NULL%2,      Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,      Elnara%Fazio-Eynullayeva%NULL%2,      Elnara%Fazio-Eynullayeva%NULL%0,      Deirdre A.%Lane%NULL%2,      Deirdre A.%Lane%NULL%0,      Paula%Underhill%NULL%2,      Paula%Underhill%NULL%0,      Gregory Y. H.%Lip%NULL%1,      Mirjam E. E.%Kretzschmar%NULL%3,      Mirjam E. E.%Kretzschmar%NULL%0,      Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,      Min%Xie%NULL%3,      Jianping%Zhao%NULL%0,      Xiansheng%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,      Shaoqiu%Chen%NULL%0,      Yuanyuan%Fu%NULL%0,      Zitong%Gao%NULL%0,      Hui%Long%NULL%0,      Jian-ming%Wang%NULL%0,      Hong-wei%Ren%NULL%0,      Yi%Zuo%NULL%0,      Huan%Li%NULL%0,      Jie%Wang%NULL%0,      Qing-bang%Xu%NULL%0,      Wen-xiong%Yu%NULL%0,      Jia%Liu%NULL%0,      Chen%Shao%NULL%0,      Jun-jie%Hao%NULL%0,      Chuan-zhen%Wang%NULL%0,      Yao%Ma%NULL%0,      Zhanwei%Wang%NULL%0,      Richard%Yanagihara%NULL%0,      Youping%Deng%dengy@hawaii.edu%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,     Bayani%Masomeh%coreGivesNoEmail%1,     Bijani%Ali%coreGivesNoEmail%1,     Ebrahimpour%Soheil%coreGivesNoEmail%1,     Gholinejad%Hossein Emam%coreGivesNoEmail%1,     Ghorbani%Hossein%coreGivesNoEmail%1,     Hasanpour%Amir Hossein%coreGivesNoEmail%1,     Javanian%Mostafa%coreGivesNoEmail%1,     Masrour-Roudsari%Jila%coreGivesNoEmail%1,     Mehraeen%Rahele%coreGivesNoEmail%1,     Mohseni%Sima%coreGivesNoEmail%1,     Rostami%Ali%coreGivesNoEmail%1,     Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,     Sepidarkish%Mahdi%coreGivesNoEmail%1,     Shabani%Asieh%coreGivesNoEmail%1,     Shahbazi%Mehdi%coreGivesNoEmail%1,     Shokri%Mehran%coreGivesNoEmail%1,     Tabari%Afrooz Monadi%coreGivesNoEmail%1,     Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,      Matteo%Piccica%NULL%1,      Lucia%Graziani%NULL%1,      Iacopo%Vellere%NULL%1,      Annarita%Botta%NULL%1,      Marta%Tilli%NULL%1,      Letizia%Ottino%NULL%1,      Beatrice%Borchi%NULL%1,      Marco%Pozzi%NULL%1,      Filippo%Bartalesi%NULL%1,      Jessica%Mencarini%NULL%1,      Michele%Spinicci%NULL%1,      Lorenzo%Zammarchi%NULL%1,      Filippo%Pieralli%NULL%1,      Giovanni%Zagli%NULL%1,      Carlo%Nozzoli%NULL%1,      Stefano%Romagnoli%NULL%1,      Alessandro%Bartoloni%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,      Zhao-Wu%Tao%NULL%0,      Lei%Wang%NULL%0,      Ming-Li%Yuan%NULL%0,      Kui%Liu%NULL%0,      Ling%Zhou%NULL%0,      Shuang%Wei%NULL%0,      Yan%Deng%NULL%0,      Jing%Liu%NULL%0,      Hui-Guo%Liu%NULL%0,      Ming%Yang%NULL%0,      Yi%Hu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,      Shuyun%Xu%NULL%2,      Muqing%Yu%NULL%2,      Ke%Wang%NULL%0,      Yu%Tao%NULL%0,      Ying%Zhou%NULL%0,      Jing%Shi%NULL%2,      Min%Zhou%NULL%0,      Bo%Wu%NULL%2,      Zhenyu%Yang%NULL%2,      Cong%Zhang%NULL%0,      Junqing%Yue%NULL%2,      Zhiguo%Zhang%NULL%2,      Harald%Renz%NULL%2,      Xiansheng%Liu%NULL%0,      Jungang%Xie%NULL%0,      Min%Xie%NULL%0,      Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,      Shu%Peng%NULL%1,      Le-qun%Li%NULL%1,      Qi%Wang%NULL%1,      Wei%Ping%NULL%1,      Ni%Zhang%NULL%1,      Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,      Yuanyuan%Xing%NULL%0,      Yu%Xiao%NULL%0,      Liping%Deng%NULL%0,      Qiu%Zhao%NULL%0,      Hongling%Wang%NULL%0,      Yong%Xiong%NULL%0,      Zhenshun%Cheng%NULL%0,      Shicheng%Gao%NULL%0,      Ke%Liang%NULL%0,      Mingqi%Luo%NULL%0,      Tielong%Chen%NULL%0,      Shihui%Song%NULL%0,      Zhiyong%Ma%NULL%0,      Xiaoping%Chen%NULL%0,      Ruiying%Zheng%NULL%0,      Qian%Cao%NULL%0,      Fan%Wang%fanndywang@foxmail.com%0,      Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,      Nicolas%Lopez-Villalobos%NULL%1,      Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,      Adam J%Russak%NULL%0,      Adam J%Russak%NULL%0,      Jessica K%De Freitas%NULL%0,      Anuradha%Lala%NULL%0,      Riccardo%Miotto%NULL%0,      Akhil%Vaid%NULL%0,      Kipp W%Johnson%NULL%0,      Matteo%Danieletto%NULL%0,      Eddye%Golden%NULL%0,      Dara%Meyer%NULL%0,      Manbir%Singh%NULL%0,      Sulaiman%Somani%NULL%0,      Arjun%Kapoor%NULL%1,      Ross%O'Hagan%NULL%1,      Sayan%Manna%NULL%1,      Udit%Nangia%NULL%1,      Suraj K%Jaladanki%NULL%1,      Paul%O’Reilly%NULL%2,      Paul%O’Reilly%NULL%0,      Laura M%Huckins%NULL%1,      Patricia%Glowe%NULL%1,      Arash%Kia%NULL%0,      Prem%Timsina%NULL%0,      Robert M%Freeman%NULL%1,      Matthew A%Levin%NULL%0,      Jeffrey%Jhang%NULL%0,      Adolfo%Firpo%NULL%1,      Patricia%Kovatch%NULL%0,      Joseph%Finkelstein%NULL%0,      Judith A%Aberg%NULL%0,      Emilia%Bagiella%NULL%0,      Carol R%Horowitz%NULL%0,      Barbara%Murphy%NULL%0,      Zahi A%Fayad%NULL%0,      Jagat%Narula%NULL%0,      Eric J%Nestler%NULL%0,      V%Fuster%NULL%1,      Carlos%Cordon-Cardo%NULL%0,      Dennis%Charney%NULL%1,      David L%Reich%NULL%0,      Allan%Just%NULL%1,      Erwin P%Bottinger%NULL%0,      Alexander W%Charney%NULL%0,      Benjamin S%Glicksberg%NULL%0,      Girish N%Nadkarni%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,       X.% Yan%null%1,       X.% Tang%null%1,       J.% Peng%null%1,       Q.% Yu%null%1,       L.% Feng%null%1,       G.% Yuan%null%1,       A.% Zhang%null%1,       Y.% Chen%null%2,       J.% Yuan%null%1,       X.% Huang%null%1,       X.% Zhang%null%1,       P.% Hu%null%1,       Y.% Song%null%1,       C.% Qian%null%1,       Q.% Sun%null%1,       D.% Wang%null%1,       J.% Tong%null%1,       J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,      Kevin Bryan%Lo%NULL%0,      Kevin Bryan%Lo%NULL%0,      Fahad%Gul%NULL%0,      Eric%Peterson%NULL%0,      Robert%De Joy%NULL%0,      Ruchika%Bhargav%NULL%0,      Jerald%Pelayo%NULL%0,      Jeri%Albano%NULL%0,      Zurab%Azmaiparashvili%NULL%0,      Sadia%Benzaquen%NULL%0,      Gabriel%Patarroyo‐Aponte%NULL%0,      Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,      Mu%Qin%qinmuae@163.com%0,      Yuli%Cai%NULL%0,      Tao%Liu%NULL%0,      Bo%Shen%NULL%0,      Fan%Yang%NULL%0,      Sheng%Cao%NULL%0,      Xu%Liu%NULL%0,      Xu%Liu%NULL%0,      Yaozu%Xiang%NULL%0,      Qinyan%Zhao%NULL%0,      He%Huang%huanghe1977@whu.edu.cn%0,      Bo%Yang%yybb112@whu.edu.cn%0,      Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,      Fergus%Hamilton%NULL%1,      Samuel%Gunning%NULL%1,      Caitlin%Sheehy%NULL%1,      Ed%Moran%NULL%1,      Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,      Yi%Xiang%NULL%0,      Wei%Fang%NULL%0,      Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,      Boqun%Li%279685211@qq.com%0,      Boqun%Li%279685211@qq.com%0,      Yanjun%Hu%huyanjun@163.com%0,      Chunhui%Lang%NULL%0,      Daoqiu%Huang%NULL%0,      Qiuyan%Sun%NULL%0,      Yan%Xiong%NULL%0,      Xia%Huang%NULL%0,      Jinglong%Lv%NULL%0,      Yaling%Luo%NULL%0,      Li%Shen%NULL%0,      Haoran%Yang%NULL%0,      Gu%Huang%NULL%0,      Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,      Wenbo%He%NULL%3,      Xiaomei%Yu%NULL%3,      Dalong%Hu%NULL%3,      Mingwei%Bao%NULL%3,      Huafen%Liu%NULL%3,      Jiali%Zhou%NULL%3,      Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,      Bohan%Yang%NULL%0,      Qianwen%Li%NULL%0,      Lu%Wen%NULL%0,      Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,     Xu%Y%coreGivesNoEmail%1,     Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,      Fen%Li%NULL%0,      Xiao%Wang%NULL%0,      Jie%Yan%NULL%0,      Fen%Zhu%NULL%0,      Shifan%Tang%NULL%0,      Yingzhong%Deng%NULL%0,      Hua%Wang%NULL%0,      Rui%Chen%NULL%0,      Zhili%Yu%NULL%0,      Yaping%Li%NULL%0,      Jingzhou%Shang%NULL%0,      Lingjun%Zeng%NULL%0,      Jie%Zhao%NULL%0,      Chaokun%Guan%NULL%0,      Qiaomei%Liu%NULL%0,      Haifeng%Chen%NULL%0,      Wei%Gong%NULL%0,      Xin%Huang%NULL%0,      Yu‐Jiao%Zhang%NULL%0,      Jianguang%Liu%NULL%0,      Xiaoyan%Dong%NULL%0,      Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,      Shaoping%Nie%spnie@126.com%0,      Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,      Pengfei%Wang%NULL%2,      Pengfei%Wang%NULL%0,      Yuyan%Song%NULL%1,      An%Zhang%zhangan@hospital.cqmu.edu.cn%1,      Guodan%Yuan%71502294@qq.com%1,      Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,     Cao%Yi-yuan%coreGivesNoEmail%0,     Dong%Xiang%coreGivesNoEmail%0,     Gao%Ya-dong%coreGivesNoEmail%0,     Yan%You-qin%coreGivesNoEmail%0,     Yang%Yi-bin%coreGivesNoEmail%0,     Yuan%Ya-dong%coreGivesNoEmail%0,     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,      Chang%Hu%NULL%3,      Linjie%Luo%NULL%2,      Fang%Fang%NULL%4,      Yongfeng%Chen%NULL%2,      Jianguo%Li%NULL%2,      Zhiyong%Peng%NULL%0,      Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,      Miao%Yu%NULL%0,      Song%Tong%NULL%1,      Lu-Yu%Liu%NULL%1,      Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,      Huangqing%Ouyang%NULL%1,      Lingli%Fu%NULL%1,      Shijie%Wang%NULL%1,      Jianglong%Han%NULL%1,      Kejie%Huang%NULL%1,      Mingfang%Jia%NULL%1,      Qibin%Song%NULL%1,      Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,      Anne%Chen%NULL%0,      Wei%Hou%NULL%0,      James M.%Graham%NULL%0,      Haifang%Li%NULL%0,      Paul S.%Richman%NULL%0,      Henry C.%Thode%NULL%0,      Adam J.%Singer%NULL%0,      Tim Q.%Duong%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,       Sarah%Al-Youha%sarahalyouha@gmail.com%1,       Mohammad H.%Jamal%NULL%1,       Mohannad%Al-Haddad%NULL%1,       Ali%Al-Muhaini%NULL%1,       Fahad%Al-Ghimlas%NULL%1,       Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,       Samuel L%Bruce%NULL%2,       Cody L%Slater%NULL%2,       Jonathan R%Tiao%NULL%2,       Matthew R%Baldwin%NULL%3,       R Graham%Barr%NULL%2,       Bernard P%Chang%NULL%2,       Katherine H%Chau%NULL%2,       Justin J%Choi%NULL%2,       Nicholas%Gavin%NULL%2,       Parag%Goyal%NULL%2,       Angela M%Mills%NULL%2,       Ashmi A%Patel%NULL%2,       Marie-Laure S%Romney%NULL%2,       Monika M%Safford%NULL%2,       Neil W%Schluger%NULL%2,       Soumitra%Sengupta%NULL%2,       Magdalena E%Sobieszczyk%NULL%2,       Jason E%Zucker%NULL%2,       Paul A%Asadourian%NULL%2,       Fletcher M%Bell%NULL%2,       Rebekah%Boyd%NULL%2,       Matthew F%Cohen%NULL%2,       MacAlistair I%Colquhoun%NULL%2,       Lucy A%Colville%NULL%2,       Joseph H%de Jonge%NULL%2,       Lyle B%Dershowitz%NULL%2,       Shirin A%Dey%NULL%2,       Katherine A%Eiseman%NULL%2,       Zachary P%Girvin%NULL%2,       Daniella T%Goni%NULL%2,       Amro A%Harb%NULL%2,       Nicholas%Herzik%NULL%2,       Sarah%Householder%NULL%2,       Lara E%Karaaslan%NULL%2,       Heather%Lee%NULL%2,       Evan%Lieberman%NULL%2,       Andrew%Ling%NULL%2,       Ree%Lu%NULL%2,       Arthur Y%Shou%NULL%2,       Alexander C%Sisti%NULL%2,       Zachary E%Snow%NULL%2,       Colin P%Sperring%NULL%2,       Yuqing%Xiong%NULL%2,       Henry W%Zhou%NULL%2,       Karthik%Natarajan%NULL%2,       George%Hripcsak%NULL%2,       Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,       Mark%Caridi-Scheible%NULL%5,       James M.%Blum%NULL%3,       Chad%Robichaux%NULL%3,       Colleen%Kraft%NULL%3,       Jesse T.%Jacob%NULL%3,       Craig S.%Jabaley%NULL%3,       David%Carpenter%NULL%3,       Roberta%Kaplow%NULL%3,       Alfonso C.%Hernandez-Romieu%NULL%3,       Max W.%Adelman%NULL%3,       Greg S.%Martin%NULL%3,       Craig M.%Coopersmith%NULL%3,       David J.%Murphy%NULL%3,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Berenguer%NULL%1,       Pablo%Ryan%NULL%0,       Jesús%Rodríguez-Baño%NULL%1,       Inmaculada%Jarrín%NULL%4,       Jordi%Carratalà%NULL%4,       Jerónimo%Pachón%NULL%0,       María%Yllescas%NULL%1,       José Ramón%Arriba%NULL%1,       NULL%NULL%NULL%0,       Esther%Aznar Muñoz%NULL%1,       Pedro%Gil Divasson%NULL%1,       Patricia%González Muñiz%NULL%1,       Clara%Muñoz Aguirre%NULL%1,       Juan Carlos%López%NULL%3,       Juan Carlos%López%NULL%0,       Juan Carlos%López%NULL%0,       Margarita%Ramírez-Schacke%NULL%1,       Isabel%Gutiérrez%NULL%1,       Francisco%Tejerina%NULL%1,       Teresa%Aldámiz-Echevarría%NULL%1,       Cristina%Díez%NULL%1,       Chiara%Fanciulli%NULL%1,       Leire%Pérez-Latorre%NULL%1,       Francisco%Parras%NULL%1,       Pilar%Catalán%NULL%1,       María E.%García-Leoni%NULL%1,       Isabel%Pérez-Tamayo%NULL%1,       Luis%Puente%NULL%1,       Jamil%Cedeño%NULL%1,       Juan%Berenguer%NULL%1,       Marta%Díaz Menéndez%NULL%3,       Marta%Díaz Menéndez%NULL%0,       Marta%Díaz Menéndez%NULL%0,       Fernando%de la Calle Prieto%NULL%1,       Marta%Arsuaga Vicente%NULL%1,       Elena%Trigo Esteban%NULL%1,       Mª del Mar%Lago Núñez%NULL%1,       Rosa%de Miguel Buckley%NULL%1,       Julen%Cadiñaños Loidi%NULL%1,       Carmen%Busca Arenzana%NULL%1,       Alfredo%Mican%NULL%1,       Marta%Mora Rillo%NULL%1,       Juan Carlos%Ramos Ramos%NULL%1,       Belén%Loeches Yagüe%NULL%1,       José Ignacio%Bernardino de la Serna%NULL%1,       Julio%García Rodríguez%NULL%1,       José Ramón%Arribas López%NULL%1,       Ana%Such Diaz%NULL%3,       Ana%Such Diaz%NULL%0,       Ana%Such Diaz%NULL%0,       Elena%Álvaro Alonso%NULL%1,       Elsa%Izquierdo García%NULL%1,       Juan%Torres Macho%NULL%1,       Guillermo%Cuevas Tascon%NULL%1,       Jesús%Troya García%NULL%1,       Beatriz%Mestre Gómez%NULL%1,       Eva%Jiménez González de Buitrago%NULL%1,       Inés%Fernández Jiménez%NULL%1,       Ana Josefa%Tebar Martínez%NULL%1,       Fátima%Brañas Baztán%NULL%1,       Jorge%Valencia de la Rosa%NULL%1,       Mario%Pérez Butragueño%NULL%1,       Marta%Alvarado Blasco%NULL%1,       Pablo%Ryan%NULL%0,       Mª Antonia%Sepúlveda Berrocal%NULL%3,       Mª Antonia%Sepúlveda Berrocal%NULL%0,       Mª Antonia%Sepúlveda Berrocal%NULL%0,       Carmen%Yera Bergua%NULL%1,       Pilar%Toledano Sierra%NULL%1,       Verónica%Cano Llorente%NULL%1,       Sadaf%Zafar Iqubal-Mirza%NULL%1,       Gema%Muñiz%NULL%1,       Inmaculada%Martín Pérez%NULL%1,       Helena%Mozas Moriñigo%NULL%1,       Ana%Alguacil%NULL%1,       María Paz%García Butenegro%NULL%1,       Ana Isabel%Peláez Ballesta%NULL%3,       Ana Isabel%Peláez Ballesta%NULL%0,       Ana Isabel%Peláez Ballesta%NULL%0,       Elena%Morcillo Rodríguez%NULL%1,       Josune%Goikoetxea Agirre%NULL%3,       Josune%Goikoetxea Agirre%NULL%0,       Josune%Goikoetxea Agirre%NULL%0,       María José%Blanco Vidal%NULL%1,       Javier%Nieto Arana%NULL%1,       Mikel%del Álamo Martínez de Lagos%NULL%1,       Isabel A.%Pérez Hernández%NULL%3,       Isabel A.%Pérez Hernández%NULL%0,       Isabel A.%Pérez Hernández%NULL%0,       Inés%Pérez Zapata%NULL%1,       Rafael%Silvariño Fernández%NULL%3,       Rafael%Silvariño Fernández%NULL%0,       Rafael%Silvariño Fernández%NULL%0,       Jon%Ugalde Espiñeira%NULL%1,       Víctor%Asensi Álvarez%NULL%3,       Víctor%Asensi Álvarez%NULL%0,       Víctor%Asensi Álvarez%NULL%0,       Lucia%Suárez Pérez%NULL%1,       Silvia%Suárez Diaz%NULL%1,       Carmen%Yllera Gutiérrez%NULL%1,       Vicente%Boix%NULL%3,       Vicente%Boix%NULL%0,       Vicente%Boix%NULL%0,       Marcos%Díez Martínez%NULL%1,       Melissa%Carreres Candela%NULL%1,       Cristina%Gómez-Ayerbe%NULL%3,       Cristina%Gómez-Ayerbe%NULL%0,       Cristina%Gómez-Ayerbe%NULL%0,       Javier%Sánchez-Lora%NULL%1,       José Luis%Velasco Garrido%NULL%1,       María%López-Jódar%NULL%1,       Jesús%Santos González%NULL%1,       Jesús%Ruiz Aragón%NULL%3,       Jesús%Ruiz Aragón%NULL%0,       Jesús%Ruiz Aragón%NULL%0,       Ianire%Virto Peña%NULL%1,       Vanessa%Alende Castro%NULL%3,       Vanessa%Alende Castro%NULL%0,       Vanessa%Alende Castro%NULL%0,       Ruth%Brea Aparicio%NULL%1,       Sonia%Vega Molpeceres%NULL%3,       Sonia%Vega Molpeceres%NULL%0,       Sonia%Vega Molpeceres%NULL%0,       Estel%Pons Viñas%NULL%1,       Oscar%del Río Pérez%NULL%3,       Oscar%del Río Pérez%NULL%0,       Oscar%del Río Pérez%NULL%0,       Silvia%Valero Rovira%NULL%1,       Judit%Villar-García%NULL%3,       Judit%Villar-García%NULL%0,       Judit%Villar-García%NULL%0,       Joan%Gómez-Junyent%NULL%1,       Hernando%Knobel%NULL%1,       María Cecilia%Cánepa%NULL%1,       Silvia%Castañeda Espinosa%NULL%1,       Luisa%Sorli Redò%NULL%1,       Roberto%Güerri-Fernández%NULL%1,       María%Milagro Montero%NULL%1,       Juan Pablo%Horcajada%NULL%1,       Elisa%García Vázquez%NULL%3,       Elisa%García Vázquez%NULL%0,       Elisa%García Vázquez%NULL%0,       Encarnación%Moral Escudero%NULL%1,       Alicia%Hernández Torres%NULL%1,       Esther%García Almodóvar%NULL%3,       Esther%García Almodóvar%NULL%0,       Esther%García Almodóvar%NULL%0,       Carmen%Sáez Barberá%NULL%3,       Carmen%Sáez Barberá%NULL%0,       Carmen%Sáez Barberá%NULL%0,       Zineb%Karroud%NULL%1,       José%Hernández Quero%NULL%3,       José%Hernández Quero%NULL%0,       José%Hernández Quero%NULL%0,       David%Vinuesa García%NULL%1,       José Luis%García Fogeda%NULL%1,       José Antonio%Peregrina%NULL%1,       María%Novella Mena%NULL%3,       María%Novella Mena%NULL%0,       María%Novella Mena%NULL%0,       Cristina%Hernández Gutiérrez%NULL%1,       José%Sanz Moreno%NULL%1,       Ramón%Pérez Tanoira%NULL%1,       Rodrigo%Sierra Rodríguez%NULL%1,       David%Alonso Menchén%NULL%1,       Aida%Gutiérrez García%NULL%1,       Alberto%Arranz Caso%NULL%1,       Juan%Cuadros González%NULL%1,       Melchor%Álvarez de Mon Soto%NULL%1,       Vicente Ferrer%Díaz de Brito Fernández%NULL%3,       Vicente Ferrer%Díaz de Brito Fernández%NULL%0,       Vicente Ferrer%Díaz de Brito Fernández%NULL%0,       Montserrat%Sanmarti Vilamala%NULL%1,       Aina%Gabarrell Pascuet%NULL%1,       Daniel%Molina Morant%NULL%1,       Sergio%España Cueto%NULL%1,       Jonathan%Cámara Fernández%NULL%1,       Albert%Sabater Gil%NULL%1,       Laura%Muñoz López%NULL%1,       Paula%Sáez Escolano%NULL%3,       Paula%Sáez Escolano%NULL%0,       Paula%Sáez Escolano%NULL%0,       Esperanza%Bejarano Tello%NULL%1,       Marco Antonio%Sempere Alcocer%NULL%3,       Marco Antonio%Sempere Alcocer%NULL%0,       Marco Antonio%Sempere Alcocer%NULL%0,       Salvador%Álvarez Martin%NULL%1,       Ignacio%De los Santos Gil%NULL%3,       Ignacio%De los Santos Gil%NULL%0,       Ignacio%De los Santos Gil%NULL%0,       Lucio%García-Fraile%NULL%1,       Miguel%Sampedro Núñez%NULL%1,       Ana%Barrios Blandino%NULL%1,       Carlos%Rodríguez Franco%NULL%1,       Daniel%Useros Brañas%NULL%1,       Almudena%Villa Martí%NULL%1,       Javier%Oliver Ortega%NULL%1,       Alexia%Costanza Espiño Álvarez%NULL%1,       Jesús%Sanz Sanz%NULL%1,       María%Rexach Fumaña%NULL%3,       María%Rexach Fumaña%NULL%0,       María%Rexach Fumaña%NULL%0,       Ivette%Abascal Cambras%NULL%1,       Ana del Cielo%Pérez Jaén%NULL%1,       Clara%Sala Jofre%NULL%3,       Clara%Sala Jofre%NULL%0,       Clara%Sala Jofre%NULL%0,       Susana%Casas Rodríguez%NULL%1,       Cecilia%Tortajada Alamilla%NULL%3,       Cecilia%Tortajada Alamilla%NULL%0,       Cecilia%Tortajada Alamilla%NULL%0,       Carmina%Oltra%NULL%1,       Mar%Masiá Canuto%NULL%3,       Mar%Masiá Canuto%NULL%0,       Mar%Masiá Canuto%NULL%0,       Félix%Gutiérrez Rodero%NULL%1,       Ana%Ferrer Ribera%NULL%3,       Ana%Ferrer Ribera%NULL%0,       Ana%Ferrer Ribera%NULL%0,       Carlos%Bea Serrano%NULL%1,       Miguel%Pedromingo Kus%NULL%3,       Miguel%Pedromingo Kus%NULL%0,       Miguel%Pedromingo Kus%NULL%0,       María Ángeles%Garcinuño%NULL%1,       Silvana%Fiorante%NULL%1,       Sergio%Pérez Pinto%NULL%1,       Pilar%Hernández Machín%NULL%3,       Pilar%Hernández Machín%NULL%0,       Pilar%Hernández Machín%NULL%0,       Alba%Alastrué Violeta%NULL%1,       María Carmen%Fariñas Álvarez%NULL%3,       María Carmen%Fariñas Álvarez%NULL%0,       María Carmen%Fariñas Álvarez%NULL%0,       Claudia%González Rico%NULL%1,       Francisco%Arnaiz de las Revillas%NULL%1,       Jorge%Calvo%NULL%1,       Mónica%Gozalo%NULL%1,       Francisco%Mora Gómez%NULL%3,       Francisco%Mora Gómez%NULL%0,       Francisco%Mora Gómez%NULL%0,       Ana%Milagro Beamonte%NULL%3,       Ana%Milagro Beamonte%NULL%0,       Ana%Milagro Beamonte%NULL%0,       Miriam%Latorre-Millán%NULL%1,       Antonio%Rezusta López%NULL%1,       Ana%Martínez Sapiña%NULL%1,       Yolanda%Meije%NULL%3,       Yolanda%Meije%NULL%0,       Yolanda%Meije%NULL%0,       Alejandra%Duarte Borges%NULL%1,       Julia%Pareja Coca%NULL%1,       Mercedes%Clemente Presas%NULL%1,       Juan Emilio%Losa García%NULL%3,       Juan Emilio%Losa García%NULL%0,       Juan Emilio%Losa García%NULL%0,       Ana%Vegas Serrano%NULL%1,       M. Teresa%Pérez-Rodríguez%NULL%3,       M. Teresa%Pérez-Rodríguez%NULL%0,       M. Teresa%Pérez-Rodríguez%NULL%0,       Alexandre%Pérez González%NULL%1,       Moncef%Belhassen-García%NULL%3,       Moncef%Belhassen-García%NULL%0,       Moncef%Belhassen-García%NULL%0,       Beatriz%Rodríguez-Alonso%NULL%1,       Amparo%López-Bernus%NULL%1,       Cristina%Carbonell%NULL%1,       Rafael%Torres Perea%NULL%3,       Rafael%Torres Perea%NULL%0,       Rafael%Torres Perea%NULL%0,       Juan%Cantón de Seoane%NULL%1,       Blanca%Alonso%NULL%1,       Sara Lidia%Kamal%NULL%1,       Lucia%Cajuela%NULL%1,       David%Roa%NULL%1,       Miguel%Cervero%NULL%1,       Alberto%Oreja%NULL%1,       Juan Pablo%Avilés%NULL%1,       Lidia%Martín%NULL%1,       Iván%Pelegrín Senent%NULL%3,       Iván%Pelegrín Senent%NULL%0,       Iván%Pelegrín Senent%NULL%0,       Rosana%Rouco Esteves Marques%NULL%1,       Jorge%Parra Ruiz%NULL%3,       Jorge%Parra Ruiz%NULL%0,       Jorge%Parra Ruiz%NULL%0,       Violeta%Ramos Sesma%NULL%1,       Jessica%Abadia Otero%NULL%3,       Jessica%Abadia Otero%NULL%0,       Jessica%Abadia Otero%NULL%0,       Juan%Salillas Hernando%NULL%3,       Juan%Salillas Hernando%NULL%0,       Juan%Salillas Hernando%NULL%0,       Robert%Torres Sánchez del Arco%NULL%1,       Miguel%Torralba González de Suso%NULL%1,       Alberto%Serrano Martínez%NULL%1,       Sergio%Gilaberte Reyzábal%NULL%1,       Marina%Pacheco Martínez-Atienza%NULL%1,       Mónica%Liébana Gómez%NULL%1,       Sara%Fernández Rodríguez%NULL%1,       Álvaro%Varela Plaza%NULL%1,       Henar%Calvo Sánchez%NULL%1,       Patricia%Martínez Martín%NULL%3,       Patricia%Martínez Martín%NULL%0,       Patricia%Martínez Martín%NULL%0,       Patricia%González- Ruano%NULL%1,       Eduardo%Malmierca Corral%NULL%1,       Isabel%Rábago Lorite%NULL%1,       Beatriz%Pérez-Monte Mínguez%NULL%1,       Ángeles%García Flores%NULL%3,       Ángeles%García Flores%NULL%0,       Ángeles%García Flores%NULL%0,       Pere%Comas Casanova%NULL%1,       Merce%Sirisi%NULL%3,       Merce%Sirisi%NULL%0,       Merce%Sirisi%NULL%0,       Richard%Rojas%NULL%1,       José Luis%Díaz de Tuesta del Arco%NULL%3,       José Luis%Díaz de Tuesta del Arco%NULL%0,       José Luis%Díaz de Tuesta del Arco%NULL%0,       Ruth%Figueroa Cerón%NULL%1,       Ander%González Sarria%NULL%1,       Remedios%Alemán Valls%NULL%3,       Remedios%Alemán Valls%NULL%0,       Remedios%Alemán Valls%NULL%0,       María del Mar%Alonso Socas%NULL%1,       Oscar%Sanz Peláez%NULL%3,       Oscar%Sanz Peláez%NULL%0,       Oscar%Sanz Peláez%NULL%0,       Karim%Mohamed Ramírez%NULL%1,       Melchor%Riera Jaume%NULL%3,       Melchor%Riera Jaume%NULL%0,       Melchor%Riera Jaume%NULL%0,       Helem Haydee%Vilchez%NULL%1,       Francesc%Albertí%NULL%1,       Ana Isabel%Cañabate%NULL%1,       Víctor J.%Moreno Cuerda%NULL%3,       Víctor J.%Moreno Cuerda%NULL%0,       Víctor J.%Moreno Cuerda%NULL%0,       Silvia%Álvarez Kaelis%NULL%1,       Beatriz%Álvarez Zapatero%NULL%1,       Alejandro%García García%NULL%1,       Elena%Isaba Ares%NULL%1,       Covadonga%Morcate Fernández%NULL%1,       Andrea%Pérez Rodríguez%NULL%1,       Lucía%Ramos Merino%NULL%3,       Lucía%Ramos Merino%NULL%0,       Lucía%Ramos Merino%NULL%0,       Laura%Castelo Corral%NULL%1,       María%Rodríguez Mahía%NULL%1,       Mónica%González Bardanca%NULL%1,       Efrén%Sánchez Vidal%NULL%1,       Enrique%Míguez Rey%NULL%1,       Javier%De la Torre Lima%NULL%3,       Javier%De la Torre Lima%NULL%0,       Javier%De la Torre Lima%NULL%0,       José Mª%García de Lomas Guerrero%NULL%1,       Elena%Morte%NULL%3,       Elena%Morte%NULL%0,       Elena%Morte%NULL%0,       Silvia%Loscos%NULL%1,       Ana%Camón%NULL%1,       Lucía%Gómez García%NULL%3,       Lucía%Gómez García%NULL%0,       Lucía%Gómez García%NULL%0,       Lucia%Boix Palop%NULL%1,       Beatriz%Dietl Gómez-Luengo%NULL%1,       Iris%Pedrola Gorrea%NULL%3,       Iris%Pedrola Gorrea%NULL%0,       Iris%Pedrola Gorrea%NULL%0,       Amparo%Blasco Claramunt%NULL%1,       Cristina%López Mestanza%NULL%3,       Cristina%López Mestanza%NULL%0,       Cristina%López Mestanza%NULL%0,       Esther%Fraile Villarejo%NULL%1,       Tomás%Tosco Núñez%NULL%3,       Tomás%Tosco Núñez%NULL%0,       Tomás%Tosco Núñez%NULL%0,       María%Aroca Ferri%NULL%1,       José Tomas%Algado Rabasa%NULL%3,       José Tomas%Algado Rabasa%NULL%0,       José Tomas%Algado Rabasa%NULL%0,       Ana María%Garijo Saiz%NULL%1,       Concepción%Amador Prous%NULL%1,       Jesús Rodriguez%Baño%NULL%3,       Jesús Rodriguez%Baño%NULL%0,       Jesús Rodriguez%Baño%NULL%0,       Pilar%Retamar%NULL%1,       Adoración%Valiente%NULL%1,       Luis E.%López-Cortés%NULL%1,       Jesús%Sojo%NULL%1,       Belén%Gutiérrez-Gutiérrez%NULL%1,       José%Bravo-Ferrer%NULL%1,       Elena%Salamanca%NULL%1,       Zaira R.%Palacios%NULL%1,       Patricia%Pérez-Palacios%NULL%1,       Enrique%Peral%NULL%1,       José Antonio%Pérez de León%NULL%1,       Jesús%Sánchez-Gómez%NULL%1,       Lucía%Marín-Barrera%NULL%1,       Domingo%García-Jiménez%NULL%1,       Jordi%Carratalà%NULL%0,       Jordi%Carratalà%NULL%0,       Jordi%Carratalà%NULL%0,       Gabriela%Abelenda-Alonso%NULL%1,       Carmen%Ardanuy%NULL%1,       Alba%Bergas%NULL%1,       Guillermo%Cuervo%NULL%1,       María Ángeles%Domínguez%NULL%1,       Miguel%Fernández-Huerta%NULL%1,       Carlota%Gudiol%NULL%1,       Laia%Lorenzo-Esteller%NULL%1,       Jordi%Niubó%NULL%1,       Sandra%Pérez-Recio%NULL%1,       Daniel%Podzamczer%NULL%1,       Miquel%Pujol%NULL%1,       Alexander%Rombauts%NULL%1,       Núria%Trullen%NULL%1,       Miguel%Salavert Lletí%NULL%3,       Miguel%Salavert Lletí%NULL%0,       Miguel%Salavert Lletí%NULL%0,       Iván%Castro Hernández%NULL%1,       Adriana%Hernández Belmonte%NULL%3,       Adriana%Hernández Belmonte%NULL%0,       Adriana%Hernández Belmonte%NULL%0,       Raquel%Martínez Goñi%NULL%1,       Marta%Navarro Vilasaró%NULL%3,       Marta%Navarro Vilasaró%NULL%0,       Marta%Navarro Vilasaró%NULL%0,       Sonia%Calzado Isbert%NULL%1,       Manuel%Cervantes García%NULL%1,       Aina%Gomila Grange%NULL%1,       Oriol%Gasch Blasi%NULL%1,       María Luisa%Machado Sicilia%NULL%1,       Eva%Van den Eynde Otero%NULL%1,       Luis%Falgueras López%NULL%1,       María del Carmen%Navarro Sáez%NULL%1,       Esteban%Martínez%NULL%3,       Esteban%Martínez%NULL%0,       Esteban%Martínez%NULL%0,       Mª Ángeles%Marcos%NULL%1,       Mar%Mosquera%NULL%1,       José Luis%Blanco%NULL%1,       Montserrat%Laguno%NULL%1,       Jhon%Rojas%NULL%1,       Ana%González-Cordón%NULL%1,       Alexy%Inciarte%NULL%1,       Berta%Torres%NULL%1,       Lorena%De la Mora%NULL%1,       Alex%Soriano%NULL%1,       Olalla%Martínez Macias%NULL%3,       Olalla%Martínez Macias%NULL%0,       Olalla%Martínez Macias%NULL%0,       Virginia%Pérez Doñate%NULL%1,       Alfonso%Cabello Úbeda%NULL%3,       Alfonso%Cabello Úbeda%NULL%0,       Alfonso%Cabello Úbeda%NULL%0,       Nerea%Carrasco Antón%NULL%1,       Beatriz%Álvarez Álvarez%NULL%1,       Elizabet%Petkova Saiz%NULL%1,       Miguel%Górgolas Hernández-Mora%NULL%1,       Laura%Prieto Pérez%NULL%1,       Irene%Carrillo Acosta%NULL%1,       Sara%Heili Frades%NULL%1,       Felipe%Villar Álvarez%NULL%1,       Ricardo%Fernández Roblas%NULL%1,       José María%Milicua Muñoz%NULL%1,       Virginia%Fernández Espinilla%NULL%3,       Virginia%Fernández Espinilla%NULL%0,       Virginia%Fernández Espinilla%NULL%0,       Carlos Jesús%Dueñas Gutiérrez%NULL%1,       Cristina%Hernán García%NULL%1,       Fernando%González-Romo%NULL%3,       Fernando%González-Romo%NULL%0,       Fernando%González-Romo%NULL%0,       Paloma%Merino Amador%NULL%1,       Alba%Rueda López%NULL%1,       Jorge%Martínez Jordán%NULL%1,       Sara%Medrano Pardo%NULL%1,       Irene%Díaz de la Torre%NULL%1,       Yolanda%Posada Franco%NULL%1,       Alberto%Delgado-Iribarren%NULL%1,       Joaquín%López-Contreras González%NULL%3,       Joaquín%López-Contreras González%NULL%0,       Joaquín%López-Contreras González%NULL%0,       Pablo%Pascual Alonso%NULL%1,       Virginia%Pomar Solchaga%NULL%1,       Nuria%Rabella García%NULL%1,       Natividad%Benito Hernández%NULL%1,       Pere%Domingo Pedrol%NULL%1,       Xavier%Bonfill Cosp%NULL%1,       Rafael%Padrós Selma%NULL%1,       Mireia%Puig Campmany%NULL%1,       Jordi%Mancebo Cortés%NULL%1,       Mercè%Gurguí Ferrer%NULL%1,       Melania%Íñigo Pestaña%NULL%3,       Melania%Íñigo Pestaña%NULL%0,       Melania%Íñigo Pestaña%NULL%0,       Alejandra%Pérez García%NULL%1,       Patricia%Sorní Moreno%NULL%3,       Patricia%Sorní Moreno%NULL%0,       Patricia%Sorní Moreno%NULL%0,       Nora%Izko Gartzia%NULL%1,       Francisco Javier%Membrillo de Novales%NULL%3,       Francisco Javier%Membrillo de Novales%NULL%0,       Francisco Javier%Membrillo de Novales%NULL%0,       María%Simón Sacristán%NULL%1,       Maribel%Zamora Cintas%NULL%1,       Yolanda%Martínez Martínez%NULL%1,       Pablo%Fernández-González%NULL%1,       Francisco%Alcántara Nicolás%NULL%1,       Alejandro%Aguirre Vila-Cora%NULL%1,       Elena%López Tizón%NULL%1,       Germán%Ramírez-Olivencia%NULL%1,       Miriam%Estébanez Muñoz%NULL%1,       Ester%Sáez de Adana Arróniz%NULL%3,       Ester%Sáez de Adana Arróniz%NULL%0,       Ester%Sáez de Adana Arróniz%NULL%0,       Joseba%Portu Zapirain%NULL%1,       Juan Carlos%Gainzarain Arana%NULL%1,       Zuriñe%Ortiz de Zárate Ibarra%NULL%1,       Miguel Ángel%Moran Rodríguez%NULL%1,       Andrés%Canut Blasco%NULL%1,       Silvia%Hernáez Crespo%NULL%1,       Leire%Balerdi Sarasola%NULL%1,       Cristina%Morales García%NULL%1,       Miguel%Corral Saracho%NULL%1,       Zeltia%Valcarce González%NULL%1,       Noelia%Arenal Andrés%NULL%3,       Noelia%Arenal Andrés%NULL%0,       Noelia%Arenal Andrés%NULL%0,       Raquel Elisa%Rodríguez Tarazona%NULL%1,       Laura%Iglesias Llorente%NULL%3,       Laura%Iglesias Llorente%NULL%0,       Laura%Iglesias Llorente%NULL%0,       Beatriz%Loureiro Rodríguez%NULL%1,       Adrián%Sánchez Montalvá%NULL%3,       Adrián%Sánchez Montalvá%NULL%0,       Adrián%Sánchez Montalvá%NULL%0,       Juan%Espinosa Pereiro%NULL%1,       Benito%Almirante%NULL%1,       Marta%Miarons%NULL%1,       Júlia%Sellarés%NULL%1,       María%Larrosa%NULL%1,       Sonia%García%NULL%1,       Blanca%Marzo%NULL%1,       Miguel%Villamarín%NULL%1,       Nuria%Fernández%NULL%1,       Conchita%Pérez-Jorge Peremarch%NULL%3,       Conchita%Pérez-Jorge Peremarch%NULL%0,       Conchita%Pérez-Jorge Peremarch%NULL%0,       Elena%Resino Foz%NULL%1,       Andrea%Espigares Correa%NULL%1,       Teresa%Álvarez de Espejo Montiel%NULL%1,       Iván%Navas Clemente%NULL%1,       María Isabel%Quijano Contreras%NULL%1,       Luis Alberto%Nieto Fernández del Campo%NULL%1,       Guillermo%Jiménez Álvarez%NULL%1,       Mercedes%Guillamón Sánchez%NULL%3,       Mercedes%Guillamón Sánchez%NULL%0,       Mercedes%Guillamón Sánchez%NULL%0,       Josefina%García García%NULL%1,       Constanza%Muñoz Hornero%NULL%3,       Constanza%Muñoz Hornero%NULL%0,       Constanza%Muñoz Hornero%NULL%0,       Ana%Mariño Callejo%NULL%3,       Ana%Mariño Callejo%NULL%0,       Ana%Mariño Callejo%NULL%0,       Nieves%Valcarce Pardeiro%NULL%1,       Alex%Smithson Amat%NULL%3,       Alex%Smithson Amat%NULL%0,       Alex%Smithson Amat%NULL%0,       Cristina%Chico Chumillas%NULL%1,       Adriana%Sánchez Serrano%NULL%3,       Adriana%Sánchez Serrano%NULL%0,       Adriana%Sánchez Serrano%NULL%0,       Eva Pilar%García Villalba%NULL%1,       Isabel%Jiménez Martínez%NULL%3,       Isabel%Jiménez Martínez%NULL%0,       Isabel%Jiménez Martínez%NULL%0,       Guillermo%Estrada Fernández%NULL%1,       María%Lorén Vargas%NULL%1,       Nuria%Parra Arribas%NULL%1,       Carmen%Martínez Cilleros%NULL%1,       Aránzazu%Villasante de la Puente%NULL%1,       Teresa%García Delange%NULL%1,       María José%Ruiz Rodríguez%NULL%1,       Marta%Robledo del Prado%NULL%1,       Juan Carlos%Abad Almendro%NULL%1,       José Román%Muñoz del Rey%NULL%3,       José Román%Muñoz del Rey%NULL%0,       José Román%Muñoz del Rey%NULL%0,       Montaña%Jiménez Álvaro%NULL%1,       Javier%Coy Coy%NULL%3,       Javier%Coy Coy%NULL%0,       Javier%Coy Coy%NULL%0,       Inmaculada%Poquet Catala%NULL%1,       Marta%Santos Peña%NULL%3,       Marta%Santos Peña%NULL%0,       Marta%Santos Peña%NULL%0,       Virginia%Naranjo Velasco%NULL%1,       Tamara%Manso Gómez%NULL%3,       Tamara%Manso Gómez%NULL%0,       Tamara%Manso Gómez%NULL%0,       Delia%Quilez Ágreda%NULL%1,       Gema%Barbeito Castiñeiras%NULL%3,       Gema%Barbeito Castiñeiras%NULL%0,       Gema%Barbeito Castiñeiras%NULL%0,       María Jesús%Domínguez Santalla%NULL%1,       Laura%Mao Martín%NULL%3,       Laura%Mao Martín%NULL%0,       Laura%Mao Martín%NULL%0,       Rodrigo%Alonso Navarro%NULL%1,       Jose David%Ampuero Martinich%NULL%1,       Raquel%Barrós González%NULL%1,       María Aránzazu%Galindo Martín%NULL%1,       Lourdes%Herrera Pacheco%NULL%1,       Rocío%Martínez Avilés%NULL%1,       Sara%Rodrigo González%NULL%1,       Cristóbal Manuel%Rodríguez Leal%NULL%1,       Eva María%Romay Lema%NULL%3,       Eva María%Romay Lema%NULL%0,       Eva María%Romay Lema%NULL%0,       Roi%Suárez Gil%NULL%1,       Maialen%Ibarguren Pinilla%NULL%3,       Maialen%Ibarguren Pinilla%NULL%0,       Maialen%Ibarguren Pinilla%NULL%0,       José María%Marimón Ortiz de Zárate%NULL%1,       Loreto%Vidaur Tello%NULL%1,       Xabier%Kortajarena Urkola%NULL%1,       Miriam%García Gómez%NULL%3,       Miriam%García Gómez%NULL%0,       Miriam%García Gómez%NULL%0,       Asier%Aranguren Arostegui%NULL%1,       Maria%Álvarez de Castro%NULL%3,       Maria%Álvarez de Castro%NULL%0,       Maria%Álvarez de Castro%NULL%0,       Cintia María%Martínez Mateu%NULL%1,       Francisco%Rodríguez Gómez%NULL%3,       Francisco%Rodríguez Gómez%NULL%0,       Francisco%Rodríguez Gómez%NULL%0,       Francisco%Muñoz Beamud%NULL%1,       Elena%Chamarro Martí%NULL%3,       Elena%Chamarro Martí%NULL%0,       Elena%Chamarro Martí%NULL%0,       Merce%Cardona Rivera%NULL%1,       Ismail%Zakariya-Yousef Breval%NULL%3,       Ismail%Zakariya-Yousef Breval%NULL%0,       Ismail%Zakariya-Yousef Breval%NULL%0,       Marta%Rico Rodríguez%NULL%1,       Jara%Llenas García%NULL%3,       Jara%Llenas García%NULL%0,       Jara%Llenas García%NULL%0,       Mª Carmen%Sánchez Arenas%NULL%1,       Ana%Fernández Cruz%NULL%3,       Ana%Fernández Cruz%NULL%0,       Ana%Fernández Cruz%NULL%0,       Jorge%Calderón Parra%NULL%1,       Marcos%López Dosil%NULL%1,       Antonio%Ramos Martínez%NULL%1,       Elena%Múñez Rubio%NULL%1,       Alejandro%Callejas Díaz%NULL%1,       José Manuel%Vázquez Comendador%NULL%1,       Itziar%Diego Yagüe%NULL%1,       Esther%Expósito Palomo%NULL%1,       Jorge%Anel Pedroche%NULL%1,       Raquel%Álvarez Franco%NULL%3,       Raquel%Álvarez Franco%NULL%0,       Raquel%Álvarez Franco%NULL%0,       Lucía%Fernández de Orueta%NULL%1,       Roberto%Vates Gómez%NULL%1,       Andrés Felipe%Cardona Arias%NULL%1,       Pablo%Marguenda Contreras%NULL%1,       Gabriel%Gaspar Alonso-Vega%NULL%1,       Elena María%Aranda Rife%NULL%1,       Blanca%Martínez Cifre%NULL%1,       Daniel%Roger Zapata%NULL%1,       Irene%Martín Rubio%NULL%1,       André%Barbosa Ventura%NULL%3,       André%Barbosa Ventura%NULL%0,       André%Barbosa Ventura%NULL%0,       Iván%Piñero%NULL%1,       Alberto%Bahamonde Carrasco%NULL%3,       Alberto%Bahamonde Carrasco%NULL%0,       Alberto%Bahamonde Carrasco%NULL%0,       Paula%Runza Buznego%NULL%1,       Eva%Talavera García%NULL%3,       Eva%Talavera García%NULL%0,       Eva%Talavera García%NULL%0,       Marta%Lamata Subero%NULL%1,       Ainhoa%Urrutia Losada%NULL%3,       Ainhoa%Urrutia Losada%NULL%0,       Ainhoa%Urrutia Losada%NULL%0,       Lorea%Arteche Eguizabal%NULL%1,       Elisabet%Delgado Sánchez%NULL%3,       Elisabet%Delgado Sánchez%NULL%0,       Elisabet%Delgado Sánchez%NULL%0,       Virginia%Molina Peinado%NULL%1,       Sarah%Caro Bragado%NULL%3,       Sarah%Caro Bragado%NULL%0,       Sarah%Caro Bragado%NULL%0,       Gema%Domínguez de Pablos%NULL%1,       Carolina%Roldán Fontana%NULL%3,       Carolina%Roldán Fontana%NULL%0,       Carolina%Roldán Fontana%NULL%0,       Carmen%Herrero Rodríguez%NULL%1,       Luis%Force Sanmartín%NULL%3,       Luis%Force Sanmartín%NULL%0,       Luis%Force Sanmartín%NULL%0,       Raquel%Aranega%NULL%1,       Arantzazu%Mera Fidalgo%NULL%3,       Arantzazu%Mera Fidalgo%NULL%0,       Arantzazu%Mera Fidalgo%NULL%0,       María Roca%Toda Savall%NULL%1,       Nicolas%Merchante Gutiérrez%NULL%3,       Nicolas%Merchante Gutiérrez%NULL%0,       Nicolas%Merchante Gutiérrez%NULL%0,       Eva María%León Jiménez%NULL%1,       José Luís%Del Pozo%NULL%3,       José Luís%Del Pozo%NULL%0,       José Luís%Del Pozo%NULL%0,       Josefa%Serralta Buades%NULL%3,       Josefa%Serralta Buades%NULL%0,       Josefa%Serralta Buades%NULL%0,       Ginger Giorgiana%Cabrera Tejada%NULL%1,       Mario%Fernández-Ruiz%NULL%4,       Mario%Fernández-Ruiz%NULL%0,       Mario%Fernández-Ruiz%NULL%0,       José María%Aguado%NULL%1,       Guillermo%Maestro de la Calle%NULL%1,       José Miguel%Cisneros%NULL%0,       José Miguel%Cisneros%NULL%0,       José Miguel%Cisneros%NULL%0,       Jerónimo%Pachón%NULL%0,       Manuela%Aguilar-Guisado%NULL%1,       Teresa%Aldabó%NULL%1,       María Dolores%Avilés%NULL%0,       Claudio%Bueno%NULL%1,       Elisa%Cordero-Matía%NULL%1,       Ana%Escoresca%NULL%1,       Lydia%Gálvez-Benítez%NULL%1,       Carmen%Infante%NULL%1,       Guillermo%Martín%NULL%1,       Julia%Praena%NULL%1,       Cristina%Roca%NULL%1,       Celia%Salamanca%NULL%1,       Alejandro%Suárez-Benjumea%NULL%1,       Pilar%Vizcarra%NULL%3,       Pilar%Vizcarra%NULL%0,       Pilar%Vizcarra%NULL%0,       Carmen%Quereda%NULL%1,       Mario José%Rodriguez Dominguez%NULL%1,       Francesca%Gioia%NULL%1,       Francesca%Norman%NULL%1,       Santos%Del Campo%NULL%1,       Rafael%Cantón Moreno%NULL%1,       Antonio%Oteo Revuelta José%NULL%3,       Antonio%Oteo Revuelta José%NULL%0,       Antonio%Oteo Revuelta José%NULL%0,       Paula%Santibáñez Sáenz%NULL%1,       Cristina%Cervera Acedo%NULL%1,       Carlos%Ruiz Martínez%NULL%1,       José R.%Blanco Ramos%NULL%1,       José M.%Azcona Gutiérrez%NULL%1,       Concepción%García García%NULL%1,       Jorge%Alba Fernández%NULL%1,       Valvanera%Ibarra Cucalón%NULL%1,       Mercedes%San Franco%NULL%1,       Luis%Metola Sacristán%NULL%1,       Héctor%Meijide Míguez%NULL%3,       Héctor%Meijide Míguez%NULL%0,       Héctor%Meijide Míguez%NULL%0,       Silvia%Paulos Viñas%NULL%1,       Justo%Menéndez%NULL%3,       Justo%Menéndez%NULL%0,       Justo%Menéndez%NULL%0,       Paula%Villares Fernández%NULL%1,       Lara%Montes Andújar%NULL%1,       Álvaro%Navarro Batet%NULL%3,       Álvaro%Navarro Batet%NULL%0,       Álvaro%Navarro Batet%NULL%0,       Anna%Ferrer Santolaria%NULL%1,       María de la Luz%Padilla Salazar%NULL%3,       María de la Luz%Padilla Salazar%NULL%0,       María de la Luz%Padilla Salazar%NULL%0,       Lucy%Abella Vázquez%NULL%1,       Marcelino%Hayek Peraza%NULL%1,       Antonio%García Pardo%NULL%1,       Carolina%Hernández Carballo%NULL%1,       Andrés Javier%Ruiz Fernández%NULL%3,       Andrés Javier%Ruiz Fernández%NULL%0,       Andrés Javier%Ruiz Fernández%NULL%0,       Isabel%Barrio López%NULL%1,       Alí%Martakoush%NULL%3,       Alí%Martakoush%NULL%0,       Alí%Martakoush%NULL%0,       Agustín%Rojas-Vieyra%NULL%3,       Agustín%Rojas-Vieyra%NULL%0,       Agustín%Rojas-Vieyra%NULL%0,       Sonia%García Calvo%NULL%3,       Sonia%García Calvo%NULL%0,       Sonia%García Calvo%NULL%0,       Mercedes%Villarreal García-Lomas%NULL%1,       Marta%Vizcaíno Callejón%NULL%3,       Marta%Vizcaíno Callejón%NULL%0,       Marta%Vizcaíno Callejón%NULL%0,       María Pilar%García García%NULL%1,       Ana%Lérida Urteaga%NULL%3,       Ana%Lérida Urteaga%NULL%0,       Ana%Lérida Urteaga%NULL%0,       Natalia%Carrasco Fons%NULL%1,       Beatriz%María Sanjuan%NULL%1,       Lydia%Martín González%NULL%1,       Camilo%Sanz Zamudio%NULL%1,       Inmaculada%Jarrín%NULL%0,       Inmaculada%Jarrín%NULL%0,       Inmaculada%Jarrín%NULL%0,       Belén%Alejos%NULL%1,       Cristina%Moreno%NULL%1,       Marta%Rava%NULL%1,       Carlos%Iniesta%NULL%1,       Rebeca%Izquierdo%NULL%1,       Inés%Suárez-García%NULL%1,       Asunción%Díaz%NULL%1,       Marta%Ruiz-Alguero%NULL%1,       Victoria%Hernando%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,       Denise J%McCulloch%NULL%0,       Denise J%McCulloch%NULL%0,       Vidya%Atluri%NULL%0,       Michela%Blain%NULL%0,       Sarah A%McGuffin%NULL%0,       Arun K%Nalla%NULL%0,       Meei-Li%Huang%NULL%0,       Alex L%Greninger%NULL%0,       Keith R%Jerome%NULL%0,       Seth A%Cohen%NULL%0,       Santiago%Neme%NULL%0,       Margaret L%Green%NULL%0,       Helen Y%Chu%NULL%0,       H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,       Wenlin%Cheng%NULL%0,       Lei%Yu%NULL%0,       Ya-Kun%Liu%NULL%0,       Xiaoyong%Hu%NULL%0,       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,       Alberto%Zucchelli%NULL%1,       Marinella%Turla%NULL%1,       Maria Sofia%Cotelli%NULL%1,       Sara%Fascendini%NULL%1,       Mara%Zanni%NULL%1,       Angelo%Bianchetti%NULL%1,       Matteo Peli%Psy%NULL%1,       Renzo%Rozzini%NULL%1,       Stefano%Boffelli%NULL%1,       Melania%Cappuccio%NULL%1,       Federica Gottardi%Psy%NULL%1,       Chiara Vecchi%Psy%NULL%1,       Daniele%Bellandi%NULL%1,       Claudia%Caminati%NULL%1,       Simona%Gentile%NULL%1,       Elena Lucchi%Psy%NULL%1,       Ignazio%Di Fazio%NULL%1,       Marina Zanetti%Psy%NULL%1,       Giuliana%Vezzadini%NULL%1,       Chiara Forlani%Psy%NULL%1,       Maura Cosseddu%Psy%NULL%1,       Rosanna Turrone%Psy%NULL%1,       Silvia Pelizzari%Psy%NULL%1,       Andrea%Scalvini%NULL%1,       Marco%Di Cesare%NULL%1,       Marta Grigolo%Psy%NULL%1,       Lina%Falanga%NULL%1,       Nives%Medici%NULL%1,       Nives%Palamini%NULL%1,       Elisa Zanacchi%Psy%NULL%1,       Eleonora Grossi%Psy%NULL%1,       Giuseppe%Bellelli%NULL%1,       Alessandra%Marengoni%NULL%1,       Marco%Trabucchi%NULL%1,       Alessandro%Padovani%alessandro.padovani@unibs.it%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       Nancy%Chow%NULL%2,       Katherine%Fleming-Dutra%NULL%1,       Ryan%Gierke%NULL%2,       Aron%Hall%NULL%2,       Michelle%Hughes%NULL%1,       Tamara%Pilishvili%NULL%2,       Matthew%Ritchey%NULL%2,       Katherine%Roguski%NULL%1,       Tami%Skoff%NULL%1,       Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,       Zhencang%Zheng%NULL%1,       Chao%Zhang%NULL%1,       Xijiang%Zhang%NULL%1,       Huijuan%Wu%NULL%1,       Jingdong%Wang%NULL%1,       Shuwei%Wang%NULL%1,       Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,       Wei%Liu%NULL%0,       Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%0,       Jin%Shang%NULL%0,       Ling%Zhou%NULL%0,       Ke%Wang%NULL%0,       Fan%Leng%NULL%0,       Shuang%Wei%NULL%0,       Lei%Chen%NULL%0,       Hui-Guo%Liu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,       Francesco%Innocenti%NULL%1,       Julien%Beauté%NULL%1,       Veronika%Učakar%NULL%1,       Marta%Grgič Vitek%NULL%1,       Eero%Poukka%NULL%1,       Tuula%Hannila-Handelberg%NULL%1,       Charmaine%Gauci%NULL%1,       Tanya%Melillo%NULL%1,       Theano%Georgakopoulou%NULL%1,       Jiri%Jarkovsky%NULL%1,       Pavel%Slezak%NULL%1,       Concepción%Delgado-Sanz%NULL%1,       Carmen%Olmedo-Lucerón%NULL%1,       Heleene%Suija%NULL%1,       Rasa%Liausediene%NULL%1,       Piaras%O’Lorcain%NULL%1,       Niamh%Murphy%NULL%1,       André%Peralta-Santos%NULL%1,       Pedro%Casaca%NULL%1,       Ioanna%Gregoriou%NULL%1,       Nick%Bundle%NULL%1,       Gianfranco%Spiteri%NULL%1,       Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,       Peiyun%Li%NULL%1,       Liang%Ma%NULL%1,       Hang%Liang%NULL%1,       Jie%Lei%NULL%1,       Wenqiang%Li%NULL%1,       Kun%Wang%NULL%1,       Yu%Song%NULL%1,       Shuai%Li%NULL%1,       Wei%Yang%NULL%0,       Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,       Yun%Ling%NULL%0,       Yun%Ling%NULL%0,       Tao%Bai%NULL%2,       Tao%Bai%NULL%0,       Yusang%Xie%NULL%1,       Jie%Huang%NULL%2,       Jie%Huang%NULL%0,       Jian%Li%NULL%1,       Weining%Xiong%NULL%1,       Dexiang%Yang%NULL%1,       Rong%Chen%NULL%1,       Fangying%Lu%NULL%1,       Yunfei%Lu%NULL%1,       Xuhui%Liu%NULL%1,       Yuqing%Chen%NULL%2,       Yuqing%Chen%NULL%0,       Xin%Li%NULL%1,       Yong%Li%NULL%0,       Hanssa Dwarka%Summah%NULL%1,       Huihuang%Lin%NULL%1,       Jiayang%Yan%NULL%1,       Min%Zhou%NULL%0,       Hongzhou%Lu%NULL%0,       Hongzhou%Lu%NULL%0,       Jieming%Qu%NULL%0,       Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,       Massimiliano%Marino%NULL%0,       Debora%Formisano%NULL%0,       Francesco%Venturelli%NULL%0,       Massimo%Vicentini%NULL%0,       Massimo%Vicentini%NULL%0,       Roberto%Grilli%NULL%0,       NULL%NULL%NULL%0,       Gianluigi%Forloni%NULL%8,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,       Justin J.%Choi%NULL%0,       Laura C.%Pinheiro%NULL%0,       Edward J.%Schenck%NULL%0,       Ruijun%Chen%NULL%0,       Assem%Jabri%NULL%0,       Michael J.%Satlin%NULL%0,       Thomas R.%Campion%NULL%0,       Musarrat%Nahid%NULL%0,       Joanna B.%Ringel%NULL%0,       Katherine L.%Hoffman%NULL%0,       Mark N.%Alshak%NULL%0,       Han A.%Li%NULL%0,       Graham T.%Wehmeyer%NULL%0,       Graham T.%Wehmeyer%NULL%0,       Mangala%Rajan%NULL%0,       Evgeniya%Reshetnyak%NULL%0,       Nathaniel%Hupert%NULL%0,       Evelyn M.%Horn%NULL%0,       Fernando J.%Martinez%NULL%0,       Roy M.%Gulick%NULL%0,       Monika M.%Safford%NULL%0,       Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,       Norio%Ohmagari%NULL%1,       Daniel%Shin%NULL%1,       George%Diaz%NULL%1,       Erika%Asperges%NULL%1,       Antonella%Castagna%NULL%0,       Torsten%Feldt%NULL%1,       Gary%Green%NULL%1,       Margaret L.%Green%NULL%1,       François-Xavier%Lescure%NULL%1,       Emanuele%Nicastri%NULL%1,       Rentaro%Oda%NULL%2,       Rentaro%Oda%NULL%0,       Kikuo%Yo%NULL%2,       Kikuo%Yo%NULL%0,       Eugenia%Quiros-Roldan%NULL%1,       Alex%Studemeister%NULL%1,       John%Redinski%NULL%1,       Seema%Ahmed%NULL%1,       Jorge%Bernett%NULL%1,       Daniel%Chelliah%NULL%1,       Danny%Chen%NULL%1,       Shingo%Chihara%NULL%1,       Stuart H.%Cohen%NULL%1,       Jennifer%Cunningham%NULL%1,       Antonella%D’Arminio Monforte%NULL%1,       Saad%Ismail%NULL%1,       Hideaki%Kato%NULL%1,       Giuseppe%Lapadula%NULL%1,       Erwan%L’Her%NULL%1,       Toshitaka%Maeno%NULL%1,       Sumit%Majumder%NULL%1,       Marco%Massari%NULL%0,       Marta%Mora-Rillo%NULL%1,       Yoshikazu%Mutoh%NULL%1,       Duc%Nguyen%NULL%1,       Ewa%Verweij%NULL%1,       Alexander%Zoufaly%NULL%1,       Anu O.%Osinusi%NULL%1,       Adam%DeZure%NULL%1,       Yang%Zhao%NULL%1,       Lijie%Zhong%NULL%1,       Anand%Chokkalingam%NULL%1,       Emon%Elboudwarej%NULL%1,       Laura%Telep%NULL%1,       Leighann%Timbs%NULL%1,       Ilana%Henne%NULL%1,       Scott%Sellers%NULL%1,       Huyen%Cao%NULL%1,       Susanna K.%Tan%NULL%1,       Lucinda%Winterbourne%NULL%1,       Polly%Desai%NULL%1,       Robertino%Mera%NULL%1,       Anuj%Gaggar%NULL%1,       Robert P.%Myers%NULL%1,       Diana M.%Brainard%NULL%1,       Richard%Childs%NULL%1,       Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,      Arunthamakun%Justin%coreGivesNoEmail%1,      Athavale%Ambarish M.%coreGivesNoEmail%1,      Bansal%Anip%coreGivesNoEmail%1,      Brenner%Samantha K.%coreGivesNoEmail%1,      Chan%Lili%coreGivesNoEmail%1,      Donnelly%John P.%coreGivesNoEmail%1,      Friedman%Allon N.%coreGivesNoEmail%1,      Gershengorn%Hayley B.%coreGivesNoEmail%1,      Goyal%Nitender%coreGivesNoEmail%1,      Green%Adam%coreGivesNoEmail%1,      Gupta%Shruti%coreGivesNoEmail%1,      Hayek%Salim S.%coreGivesNoEmail%1,      Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,      Kibbelaar%Zoe A.%coreGivesNoEmail%1,      Leaf%David E.%coreGivesNoEmail%1,      Leonberg-Yoo%Amanda%coreGivesNoEmail%1,      Mathews%Kusum S.%coreGivesNoEmail%1,      Melamed%Michal L.%coreGivesNoEmail%1,      Omar%Samah Abu%coreGivesNoEmail%1,      Parikh%Chirag R.%coreGivesNoEmail%1,      Radbel%Jared%coreGivesNoEmail%1,      Reiser%Jochen%coreGivesNoEmail%1,      Schenck%Edward J.%coreGivesNoEmail%1,      Semler%Matthew W.%coreGivesNoEmail%1,      Shaefi%Shahzad%coreGivesNoEmail%1,      Shehata%Alexandre M.%coreGivesNoEmail%1,      Short%Samuel A. P.%coreGivesNoEmail%1,      Srivastava%Anand%coreGivesNoEmail%1,      Sutherland%Anne%coreGivesNoEmail%1,      Velez%Juan Carlos Q.%coreGivesNoEmail%1,      Vijayan%Anitha%coreGivesNoEmail%1,      Wang%Wei%coreGivesNoEmail%1,      Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,       İmran%HASANOĞLU%NULL%2,       İmran%HASANOĞLU%NULL%0,       Bircan%KAYAASLAN%NULL%2,       Bircan%KAYAASLAN%NULL%0,       Adalet%AYPAK%NULL%2,       Adalet%AYPAK%NULL%0,       Ayşe%KAYA KALEM%NULL%2,       Ayşe%KAYA KALEM%NULL%0,       Fatma%ESER%NULL%2,       Fatma%ESER%NULL%0,       Burcu%ÖZDEMİR%NULL%2,       Burcu%ÖZDEMİR%NULL%0,       Elif Mükime%SARICAOĞLU%NULL%2,       Elif Mükime%SARICAOĞLU%NULL%0,       Müge%AYHAN%NULL%2,       Müge%AYHAN%NULL%0,       Yeşim%AYBAR BİLİR%NULL%2,       Yeşim%AYBAR BİLİR%NULL%0,       Işıl%ÖZKOÇAK TURAN%NULL%2,       Işıl%ÖZKOÇAK TURAN%NULL%0,       Deniz%ERDEM%NULL%2,       Deniz%ERDEM%NULL%0,       Nevzat Mehmet%MUTLU%NULL%1,       Turan%BUZGAN%NULL%2,       Turan%BUZGAN%NULL%0,       Bedia%DİNÇ%NULL%2,       Bedia%DİNÇ%NULL%0,       Esragül%AKINCI%NULL%2,       Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,       Elnara%Fazio-Eynullayeva%NULL%2,       Elnara%Fazio-Eynullayeva%NULL%0,       Deirdre A.%Lane%NULL%2,       Deirdre A.%Lane%NULL%0,       Paula%Underhill%NULL%2,       Paula%Underhill%NULL%0,       Gregory Y. H.%Lip%NULL%1,       Mirjam E. E.%Kretzschmar%NULL%3,       Mirjam E. E.%Kretzschmar%NULL%0,       Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,       Min%Xie%NULL%3,       Jianping%Zhao%NULL%0,       Xiansheng%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,       Shaoqiu%Chen%NULL%0,       Yuanyuan%Fu%NULL%0,       Zitong%Gao%NULL%0,       Hui%Long%NULL%0,       Jian-ming%Wang%NULL%0,       Hong-wei%Ren%NULL%0,       Yi%Zuo%NULL%0,       Huan%Li%NULL%0,       Jie%Wang%NULL%0,       Qing-bang%Xu%NULL%0,       Wen-xiong%Yu%NULL%0,       Jia%Liu%NULL%0,       Chen%Shao%NULL%0,       Jun-jie%Hao%NULL%0,       Chuan-zhen%Wang%NULL%0,       Yao%Ma%NULL%0,       Zhanwei%Wang%NULL%0,       Richard%Yanagihara%NULL%0,       Youping%Deng%dengy@hawaii.edu%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,      Bayani%Masomeh%coreGivesNoEmail%1,      Bijani%Ali%coreGivesNoEmail%1,      Ebrahimpour%Soheil%coreGivesNoEmail%1,      Gholinejad%Hossein Emam%coreGivesNoEmail%1,      Ghorbani%Hossein%coreGivesNoEmail%1,      Hasanpour%Amir Hossein%coreGivesNoEmail%1,      Javanian%Mostafa%coreGivesNoEmail%1,      Masrour-Roudsari%Jila%coreGivesNoEmail%1,      Mehraeen%Rahele%coreGivesNoEmail%1,      Mohseni%Sima%coreGivesNoEmail%1,      Rostami%Ali%coreGivesNoEmail%1,      Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,      Sepidarkish%Mahdi%coreGivesNoEmail%1,      Shabani%Asieh%coreGivesNoEmail%1,      Shahbazi%Mehdi%coreGivesNoEmail%1,      Shokri%Mehran%coreGivesNoEmail%1,      Tabari%Afrooz Monadi%coreGivesNoEmail%1,      Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,       Matteo%Piccica%NULL%1,       Lucia%Graziani%NULL%1,       Iacopo%Vellere%NULL%1,       Annarita%Botta%NULL%1,       Marta%Tilli%NULL%1,       Letizia%Ottino%NULL%1,       Beatrice%Borchi%NULL%1,       Marco%Pozzi%NULL%1,       Filippo%Bartalesi%NULL%1,       Jessica%Mencarini%NULL%1,       Michele%Spinicci%NULL%1,       Lorenzo%Zammarchi%NULL%1,       Filippo%Pieralli%NULL%1,       Giovanni%Zagli%NULL%1,       Carlo%Nozzoli%NULL%1,       Stefano%Romagnoli%NULL%1,       Alessandro%Bartoloni%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,       Zhao-Wu%Tao%NULL%0,       Lei%Wang%NULL%0,       Ming-Li%Yuan%NULL%0,       Kui%Liu%NULL%0,       Ling%Zhou%NULL%0,       Shuang%Wei%NULL%0,       Yan%Deng%NULL%0,       Jing%Liu%NULL%0,       Hui-Guo%Liu%NULL%0,       Ming%Yang%NULL%0,       Yi%Hu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,       Shuyun%Xu%NULL%2,       Muqing%Yu%NULL%2,       Ke%Wang%NULL%0,       Yu%Tao%NULL%0,       Ying%Zhou%NULL%0,       Jing%Shi%NULL%2,       Min%Zhou%NULL%0,       Bo%Wu%NULL%2,       Zhenyu%Yang%NULL%2,       Cong%Zhang%NULL%0,       Junqing%Yue%NULL%2,       Zhiguo%Zhang%NULL%2,       Harald%Renz%NULL%2,       Xiansheng%Liu%NULL%0,       Jungang%Xie%NULL%0,       Min%Xie%NULL%0,       Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,       Shu%Peng%NULL%1,       Le-qun%Li%NULL%1,       Qi%Wang%NULL%1,       Wei%Ping%NULL%1,       Ni%Zhang%NULL%1,       Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,       Yuanyuan%Xing%NULL%0,       Yu%Xiao%NULL%0,       Liping%Deng%NULL%0,       Qiu%Zhao%NULL%0,       Hongling%Wang%NULL%0,       Yong%Xiong%NULL%0,       Zhenshun%Cheng%NULL%0,       Shicheng%Gao%NULL%0,       Ke%Liang%NULL%0,       Mingqi%Luo%NULL%0,       Tielong%Chen%NULL%0,       Shihui%Song%NULL%0,       Zhiyong%Ma%NULL%0,       Xiaoping%Chen%NULL%0,       Ruiying%Zheng%NULL%0,       Qian%Cao%NULL%0,       Fan%Wang%fanndywang@foxmail.com%0,       Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,       Nicolas%Lopez-Villalobos%NULL%1,       Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,       Adam J%Russak%NULL%0,       Adam J%Russak%NULL%0,       Jessica K%De Freitas%NULL%0,       Anuradha%Lala%NULL%0,       Riccardo%Miotto%NULL%0,       Akhil%Vaid%NULL%0,       Kipp W%Johnson%NULL%0,       Matteo%Danieletto%NULL%0,       Eddye%Golden%NULL%0,       Dara%Meyer%NULL%0,       Manbir%Singh%NULL%0,       Sulaiman%Somani%NULL%0,       Arjun%Kapoor%NULL%1,       Ross%O'Hagan%NULL%1,       Sayan%Manna%NULL%1,       Udit%Nangia%NULL%1,       Suraj K%Jaladanki%NULL%1,       Paul%O’Reilly%NULL%2,       Paul%O’Reilly%NULL%0,       Laura M%Huckins%NULL%1,       Patricia%Glowe%NULL%1,       Arash%Kia%NULL%0,       Prem%Timsina%NULL%0,       Robert M%Freeman%NULL%1,       Matthew A%Levin%NULL%0,       Jeffrey%Jhang%NULL%0,       Adolfo%Firpo%NULL%1,       Patricia%Kovatch%NULL%0,       Joseph%Finkelstein%NULL%0,       Judith A%Aberg%NULL%0,       Emilia%Bagiella%NULL%0,       Carol R%Horowitz%NULL%0,       Barbara%Murphy%NULL%0,       Zahi A%Fayad%NULL%0,       Jagat%Narula%NULL%0,       Eric J%Nestler%NULL%0,       V%Fuster%NULL%1,       Carlos%Cordon-Cardo%NULL%0,       Dennis%Charney%NULL%1,       David L%Reich%NULL%0,       Allan%Just%NULL%1,       Erwin P%Bottinger%NULL%0,       Alexander W%Charney%NULL%0,       Benjamin S%Glicksberg%NULL%0,       Girish N%Nadkarni%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,        X.% Yan%null%1,        X.% Tang%null%1,        J.% Peng%null%1,        Q.% Yu%null%1,        L.% Feng%null%1,        G.% Yuan%null%1,        A.% Zhang%null%1,        Y.% Chen%null%2,        J.% Yuan%null%1,        X.% Huang%null%1,        X.% Zhang%null%1,        P.% Hu%null%1,        Y.% Song%null%1,        C.% Qian%null%1,        Q.% Sun%null%1,        D.% Wang%null%1,        J.% Tong%null%1,        J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,       Kevin Bryan%Lo%NULL%0,       Kevin Bryan%Lo%NULL%0,       Fahad%Gul%NULL%0,       Eric%Peterson%NULL%0,       Robert%De Joy%NULL%0,       Ruchika%Bhargav%NULL%0,       Jerald%Pelayo%NULL%0,       Jeri%Albano%NULL%0,       Zurab%Azmaiparashvili%NULL%0,       Sadia%Benzaquen%NULL%0,       Gabriel%Patarroyo‐Aponte%NULL%0,       Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,       Mu%Qin%qinmuae@163.com%0,       Yuli%Cai%NULL%0,       Tao%Liu%NULL%0,       Bo%Shen%NULL%0,       Fan%Yang%NULL%0,       Sheng%Cao%NULL%0,       Xu%Liu%NULL%0,       Xu%Liu%NULL%0,       Yaozu%Xiang%NULL%0,       Qinyan%Zhao%NULL%0,       He%Huang%huanghe1977@whu.edu.cn%0,       Bo%Yang%yybb112@whu.edu.cn%0,       Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,       Fergus%Hamilton%NULL%1,       Samuel%Gunning%NULL%1,       Caitlin%Sheehy%NULL%1,       Ed%Moran%NULL%1,       Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,       Yi%Xiang%NULL%0,       Wei%Fang%NULL%0,       Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,       Boqun%Li%279685211@qq.com%0,       Boqun%Li%279685211@qq.com%0,       Yanjun%Hu%huyanjun@163.com%0,       Chunhui%Lang%NULL%0,       Daoqiu%Huang%NULL%0,       Qiuyan%Sun%NULL%0,       Yan%Xiong%NULL%0,       Xia%Huang%NULL%0,       Jinglong%Lv%NULL%0,       Yaling%Luo%NULL%0,       Li%Shen%NULL%0,       Haoran%Yang%NULL%0,       Gu%Huang%NULL%0,       Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,       Wenbo%He%NULL%3,       Xiaomei%Yu%NULL%3,       Dalong%Hu%NULL%3,       Mingwei%Bao%NULL%3,       Huafen%Liu%NULL%3,       Jiali%Zhou%NULL%3,       Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,       Bohan%Yang%NULL%0,       Qianwen%Li%NULL%0,       Lu%Wen%NULL%0,       Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,      Xu%Y%coreGivesNoEmail%1,      Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,       Fen%Li%NULL%0,       Xiao%Wang%NULL%0,       Jie%Yan%NULL%0,       Fen%Zhu%NULL%0,       Shifan%Tang%NULL%0,       Yingzhong%Deng%NULL%0,       Hua%Wang%NULL%0,       Rui%Chen%NULL%0,       Zhili%Yu%NULL%0,       Yaping%Li%NULL%0,       Jingzhou%Shang%NULL%0,       Lingjun%Zeng%NULL%0,       Jie%Zhao%NULL%0,       Chaokun%Guan%NULL%0,       Qiaomei%Liu%NULL%0,       Haifeng%Chen%NULL%0,       Wei%Gong%NULL%0,       Xin%Huang%NULL%0,       Yu‐Jiao%Zhang%NULL%0,       Jianguang%Liu%NULL%0,       Xiaoyan%Dong%NULL%0,       Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,       Shaoping%Nie%spnie@126.com%0,       Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,       Pengfei%Wang%NULL%2,       Pengfei%Wang%NULL%0,       Yuyan%Song%NULL%1,       An%Zhang%zhangan@hospital.cqmu.edu.cn%1,       Guodan%Yuan%71502294@qq.com%1,       Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,      Cao%Yi-yuan%coreGivesNoEmail%0,      Dong%Xiang%coreGivesNoEmail%0,      Gao%Ya-dong%coreGivesNoEmail%0,      Yan%You-qin%coreGivesNoEmail%0,      Yang%Yi-bin%coreGivesNoEmail%0,      Yuan%Ya-dong%coreGivesNoEmail%0,      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,       Chang%Hu%NULL%3,       Linjie%Luo%NULL%2,       Fang%Fang%NULL%4,       Yongfeng%Chen%NULL%2,       Jianguo%Li%NULL%2,       Zhiyong%Peng%NULL%0,       Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,       Miao%Yu%NULL%0,       Song%Tong%NULL%1,       Lu-Yu%Liu%NULL%1,       Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,       Huangqing%Ouyang%NULL%1,       Lingli%Fu%NULL%1,       Shijie%Wang%NULL%1,       Jianglong%Han%NULL%1,       Kejie%Huang%NULL%1,       Mingfang%Jia%NULL%1,       Qibin%Song%NULL%1,       Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,       Anne%Chen%NULL%0,       Wei%Hou%NULL%0,       James M.%Graham%NULL%0,       Haifang%Li%NULL%0,       Paul S.%Richman%NULL%0,       Henry C.%Thode%NULL%0,       Adam J.%Singer%NULL%0,       Tim Q.%Duong%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,        Sarah%Al-Youha%sarahalyouha@gmail.com%1,        Mohammad H.%Jamal%NULL%1,        Mohannad%Al-Haddad%NULL%1,        Ali%Al-Muhaini%NULL%1,        Fahad%Al-Ghimlas%NULL%1,        Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,        Samuel L%Bruce%NULL%2,        Cody L%Slater%NULL%2,        Jonathan R%Tiao%NULL%2,        Matthew R%Baldwin%NULL%3,        R Graham%Barr%NULL%2,        Bernard P%Chang%NULL%2,        Katherine H%Chau%NULL%2,        Justin J%Choi%NULL%2,        Nicholas%Gavin%NULL%2,        Parag%Goyal%NULL%2,        Angela M%Mills%NULL%2,        Ashmi A%Patel%NULL%2,        Marie-Laure S%Romney%NULL%2,        Monika M%Safford%NULL%2,        Neil W%Schluger%NULL%2,        Soumitra%Sengupta%NULL%2,        Magdalena E%Sobieszczyk%NULL%2,        Jason E%Zucker%NULL%2,        Paul A%Asadourian%NULL%2,        Fletcher M%Bell%NULL%2,        Rebekah%Boyd%NULL%2,        Matthew F%Cohen%NULL%2,        MacAlistair I%Colquhoun%NULL%2,        Lucy A%Colville%NULL%2,        Joseph H%de Jonge%NULL%2,        Lyle B%Dershowitz%NULL%2,        Shirin A%Dey%NULL%2,        Katherine A%Eiseman%NULL%2,        Zachary P%Girvin%NULL%2,        Daniella T%Goni%NULL%2,        Amro A%Harb%NULL%2,        Nicholas%Herzik%NULL%2,        Sarah%Householder%NULL%2,        Lara E%Karaaslan%NULL%2,        Heather%Lee%NULL%2,        Evan%Lieberman%NULL%2,        Andrew%Ling%NULL%2,        Ree%Lu%NULL%2,        Arthur Y%Shou%NULL%2,        Alexander C%Sisti%NULL%2,        Zachary E%Snow%NULL%2,        Colin P%Sperring%NULL%2,        Yuqing%Xiong%NULL%2,        Henry W%Zhou%NULL%2,        Karthik%Natarajan%NULL%2,        George%Hripcsak%NULL%2,        Ruijun%Chen%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,        Mark%Caridi-Scheible%NULL%5,        James M.%Blum%NULL%3,        Chad%Robichaux%NULL%3,        Colleen%Kraft%NULL%3,        Jesse T.%Jacob%NULL%3,        Craig S.%Jabaley%NULL%3,        David%Carpenter%NULL%3,        Roberta%Kaplow%NULL%3,        Alfonso C.%Hernandez-Romieu%NULL%3,        Max W.%Adelman%NULL%3,        Greg S.%Martin%NULL%3,        Craig M.%Coopersmith%NULL%3,        David J.%Murphy%NULL%3,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Berenguer%NULL%1,        Pablo%Ryan%NULL%0,        Jesús%Rodríguez-Baño%NULL%1,        Inmaculada%Jarrín%NULL%4,        Jordi%Carratalà%NULL%4,        Jerónimo%Pachón%NULL%0,        María%Yllescas%NULL%1,        José Ramón%Arriba%NULL%1,        NULL%NULL%NULL%0,        Esther%Aznar Muñoz%NULL%1,        Pedro%Gil Divasson%NULL%1,        Patricia%González Muñiz%NULL%1,        Clara%Muñoz Aguirre%NULL%1,        Juan Carlos%López%NULL%3,        Juan Carlos%López%NULL%0,        Juan Carlos%López%NULL%0,        Margarita%Ramírez-Schacke%NULL%1,        Isabel%Gutiérrez%NULL%1,        Francisco%Tejerina%NULL%1,        Teresa%Aldámiz-Echevarría%NULL%1,        Cristina%Díez%NULL%1,        Chiara%Fanciulli%NULL%1,        Leire%Pérez-Latorre%NULL%1,        Francisco%Parras%NULL%1,        Pilar%Catalán%NULL%1,        María E.%García-Leoni%NULL%1,        Isabel%Pérez-Tamayo%NULL%1,        Luis%Puente%NULL%1,        Jamil%Cedeño%NULL%1,        Juan%Berenguer%NULL%1,        Marta%Díaz Menéndez%NULL%3,        Marta%Díaz Menéndez%NULL%0,        Marta%Díaz Menéndez%NULL%0,        Fernando%de la Calle Prieto%NULL%1,        Marta%Arsuaga Vicente%NULL%1,        Elena%Trigo Esteban%NULL%1,        Mª del Mar%Lago Núñez%NULL%1,        Rosa%de Miguel Buckley%NULL%1,        Julen%Cadiñaños Loidi%NULL%1,        Carmen%Busca Arenzana%NULL%1,        Alfredo%Mican%NULL%1,        Marta%Mora Rillo%NULL%1,        Juan Carlos%Ramos Ramos%NULL%1,        Belén%Loeches Yagüe%NULL%1,        José Ignacio%Bernardino de la Serna%NULL%1,        Julio%García Rodríguez%NULL%1,        José Ramón%Arribas López%NULL%1,        Ana%Such Diaz%NULL%3,        Ana%Such Diaz%NULL%0,        Ana%Such Diaz%NULL%0,        Elena%Álvaro Alonso%NULL%1,        Elsa%Izquierdo García%NULL%1,        Juan%Torres Macho%NULL%1,        Guillermo%Cuevas Tascon%NULL%1,        Jesús%Troya García%NULL%1,        Beatriz%Mestre Gómez%NULL%1,        Eva%Jiménez González de Buitrago%NULL%1,        Inés%Fernández Jiménez%NULL%1,        Ana Josefa%Tebar Martínez%NULL%1,        Fátima%Brañas Baztán%NULL%1,        Jorge%Valencia de la Rosa%NULL%1,        Mario%Pérez Butragueño%NULL%1,        Marta%Alvarado Blasco%NULL%1,        Pablo%Ryan%NULL%0,        Mª Antonia%Sepúlveda Berrocal%NULL%3,        Mª Antonia%Sepúlveda Berrocal%NULL%0,        Mª Antonia%Sepúlveda Berrocal%NULL%0,        Carmen%Yera Bergua%NULL%1,        Pilar%Toledano Sierra%NULL%1,        Verónica%Cano Llorente%NULL%1,        Sadaf%Zafar Iqubal-Mirza%NULL%1,        Gema%Muñiz%NULL%1,        Inmaculada%Martín Pérez%NULL%1,        Helena%Mozas Moriñigo%NULL%1,        Ana%Alguacil%NULL%1,        María Paz%García Butenegro%NULL%1,        Ana Isabel%Peláez Ballesta%NULL%3,        Ana Isabel%Peláez Ballesta%NULL%0,        Ana Isabel%Peláez Ballesta%NULL%0,        Elena%Morcillo Rodríguez%NULL%1,        Josune%Goikoetxea Agirre%NULL%3,        Josune%Goikoetxea Agirre%NULL%0,        Josune%Goikoetxea Agirre%NULL%0,        María José%Blanco Vidal%NULL%1,        Javier%Nieto Arana%NULL%1,        Mikel%del Álamo Martínez de Lagos%NULL%1,        Isabel A.%Pérez Hernández%NULL%3,        Isabel A.%Pérez Hernández%NULL%0,        Isabel A.%Pérez Hernández%NULL%0,        Inés%Pérez Zapata%NULL%1,        Rafael%Silvariño Fernández%NULL%3,        Rafael%Silvariño Fernández%NULL%0,        Rafael%Silvariño Fernández%NULL%0,        Jon%Ugalde Espiñeira%NULL%1,        Víctor%Asensi Álvarez%NULL%3,        Víctor%Asensi Álvarez%NULL%0,        Víctor%Asensi Álvarez%NULL%0,        Lucia%Suárez Pérez%NULL%1,        Silvia%Suárez Diaz%NULL%1,        Carmen%Yllera Gutiérrez%NULL%1,        Vicente%Boix%NULL%3,        Vicente%Boix%NULL%0,        Vicente%Boix%NULL%0,        Marcos%Díez Martínez%NULL%1,        Melissa%Carreres Candela%NULL%1,        Cristina%Gómez-Ayerbe%NULL%3,        Cristina%Gómez-Ayerbe%NULL%0,        Cristina%Gómez-Ayerbe%NULL%0,        Javier%Sánchez-Lora%NULL%1,        José Luis%Velasco Garrido%NULL%1,        María%López-Jódar%NULL%1,        Jesús%Santos González%NULL%1,        Jesús%Ruiz Aragón%NULL%3,        Jesús%Ruiz Aragón%NULL%0,        Jesús%Ruiz Aragón%NULL%0,        Ianire%Virto Peña%NULL%1,        Vanessa%Alende Castro%NULL%3,        Vanessa%Alende Castro%NULL%0,        Vanessa%Alende Castro%NULL%0,        Ruth%Brea Aparicio%NULL%1,        Sonia%Vega Molpeceres%NULL%3,        Sonia%Vega Molpeceres%NULL%0,        Sonia%Vega Molpeceres%NULL%0,        Estel%Pons Viñas%NULL%1,        Oscar%del Río Pérez%NULL%3,        Oscar%del Río Pérez%NULL%0,        Oscar%del Río Pérez%NULL%0,        Silvia%Valero Rovira%NULL%1,        Judit%Villar-García%NULL%3,        Judit%Villar-García%NULL%0,        Judit%Villar-García%NULL%0,        Joan%Gómez-Junyent%NULL%1,        Hernando%Knobel%NULL%1,        María Cecilia%Cánepa%NULL%1,        Silvia%Castañeda Espinosa%NULL%1,        Luisa%Sorli Redò%NULL%1,        Roberto%Güerri-Fernández%NULL%1,        María%Milagro Montero%NULL%1,        Juan Pablo%Horcajada%NULL%1,        Elisa%García Vázquez%NULL%3,        Elisa%García Vázquez%NULL%0,        Elisa%García Vázquez%NULL%0,        Encarnación%Moral Escudero%NULL%1,        Alicia%Hernández Torres%NULL%1,        Esther%García Almodóvar%NULL%3,        Esther%García Almodóvar%NULL%0,        Esther%García Almodóvar%NULL%0,        Carmen%Sáez Barberá%NULL%3,        Carmen%Sáez Barberá%NULL%0,        Carmen%Sáez Barberá%NULL%0,        Zineb%Karroud%NULL%1,        José%Hernández Quero%NULL%3,        José%Hernández Quero%NULL%0,        José%Hernández Quero%NULL%0,        David%Vinuesa García%NULL%1,        José Luis%García Fogeda%NULL%1,        José Antonio%Peregrina%NULL%1,        María%Novella Mena%NULL%3,        María%Novella Mena%NULL%0,        María%Novella Mena%NULL%0,        Cristina%Hernández Gutiérrez%NULL%1,        José%Sanz Moreno%NULL%1,        Ramón%Pérez Tanoira%NULL%1,        Rodrigo%Sierra Rodríguez%NULL%1,        David%Alonso Menchén%NULL%1,        Aida%Gutiérrez García%NULL%1,        Alberto%Arranz Caso%NULL%1,        Juan%Cuadros González%NULL%1,        Melchor%Álvarez de Mon Soto%NULL%1,        Vicente Ferrer%Díaz de Brito Fernández%NULL%3,        Vicente Ferrer%Díaz de Brito Fernández%NULL%0,        Vicente Ferrer%Díaz de Brito Fernández%NULL%0,        Montserrat%Sanmarti Vilamala%NULL%1,        Aina%Gabarrell Pascuet%NULL%1,        Daniel%Molina Morant%NULL%1,        Sergio%España Cueto%NULL%1,        Jonathan%Cámara Fernández%NULL%1,        Albert%Sabater Gil%NULL%1,        Laura%Muñoz López%NULL%1,        Paula%Sáez Escolano%NULL%3,        Paula%Sáez Escolano%NULL%0,        Paula%Sáez Escolano%NULL%0,        Esperanza%Bejarano Tello%NULL%1,        Marco Antonio%Sempere Alcocer%NULL%3,        Marco Antonio%Sempere Alcocer%NULL%0,        Marco Antonio%Sempere Alcocer%NULL%0,        Salvador%Álvarez Martin%NULL%1,        Ignacio%De los Santos Gil%NULL%3,        Ignacio%De los Santos Gil%NULL%0,        Ignacio%De los Santos Gil%NULL%0,        Lucio%García-Fraile%NULL%1,        Miguel%Sampedro Núñez%NULL%1,        Ana%Barrios Blandino%NULL%1,        Carlos%Rodríguez Franco%NULL%1,        Daniel%Useros Brañas%NULL%1,        Almudena%Villa Martí%NULL%1,        Javier%Oliver Ortega%NULL%1,        Alexia%Costanza Espiño Álvarez%NULL%1,        Jesús%Sanz Sanz%NULL%1,        María%Rexach Fumaña%NULL%3,        María%Rexach Fumaña%NULL%0,        María%Rexach Fumaña%NULL%0,        Ivette%Abascal Cambras%NULL%1,        Ana del Cielo%Pérez Jaén%NULL%1,        Clara%Sala Jofre%NULL%3,        Clara%Sala Jofre%NULL%0,        Clara%Sala Jofre%NULL%0,        Susana%Casas Rodríguez%NULL%1,        Cecilia%Tortajada Alamilla%NULL%3,        Cecilia%Tortajada Alamilla%NULL%0,        Cecilia%Tortajada Alamilla%NULL%0,        Carmina%Oltra%NULL%1,        Mar%Masiá Canuto%NULL%3,        Mar%Masiá Canuto%NULL%0,        Mar%Masiá Canuto%NULL%0,        Félix%Gutiérrez Rodero%NULL%1,        Ana%Ferrer Ribera%NULL%3,        Ana%Ferrer Ribera%NULL%0,        Ana%Ferrer Ribera%NULL%0,        Carlos%Bea Serrano%NULL%1,        Miguel%Pedromingo Kus%NULL%3,        Miguel%Pedromingo Kus%NULL%0,        Miguel%Pedromingo Kus%NULL%0,        María Ángeles%Garcinuño%NULL%1,        Silvana%Fiorante%NULL%1,        Sergio%Pérez Pinto%NULL%1,        Pilar%Hernández Machín%NULL%3,        Pilar%Hernández Machín%NULL%0,        Pilar%Hernández Machín%NULL%0,        Alba%Alastrué Violeta%NULL%1,        María Carmen%Fariñas Álvarez%NULL%3,        María Carmen%Fariñas Álvarez%NULL%0,        María Carmen%Fariñas Álvarez%NULL%0,        Claudia%González Rico%NULL%1,        Francisco%Arnaiz de las Revillas%NULL%1,        Jorge%Calvo%NULL%1,        Mónica%Gozalo%NULL%1,        Francisco%Mora Gómez%NULL%3,        Francisco%Mora Gómez%NULL%0,        Francisco%Mora Gómez%NULL%0,        Ana%Milagro Beamonte%NULL%3,        Ana%Milagro Beamonte%NULL%0,        Ana%Milagro Beamonte%NULL%0,        Miriam%Latorre-Millán%NULL%1,        Antonio%Rezusta López%NULL%1,        Ana%Martínez Sapiña%NULL%1,        Yolanda%Meije%NULL%3,        Yolanda%Meije%NULL%0,        Yolanda%Meije%NULL%0,        Alejandra%Duarte Borges%NULL%1,        Julia%Pareja Coca%NULL%1,        Mercedes%Clemente Presas%NULL%1,        Juan Emilio%Losa García%NULL%3,        Juan Emilio%Losa García%NULL%0,        Juan Emilio%Losa García%NULL%0,        Ana%Vegas Serrano%NULL%1,        M. Teresa%Pérez-Rodríguez%NULL%3,        M. Teresa%Pérez-Rodríguez%NULL%0,        M. Teresa%Pérez-Rodríguez%NULL%0,        Alexandre%Pérez González%NULL%1,        Moncef%Belhassen-García%NULL%3,        Moncef%Belhassen-García%NULL%0,        Moncef%Belhassen-García%NULL%0,        Beatriz%Rodríguez-Alonso%NULL%1,        Amparo%López-Bernus%NULL%1,        Cristina%Carbonell%NULL%1,        Rafael%Torres Perea%NULL%3,        Rafael%Torres Perea%NULL%0,        Rafael%Torres Perea%NULL%0,        Juan%Cantón de Seoane%NULL%1,        Blanca%Alonso%NULL%1,        Sara Lidia%Kamal%NULL%1,        Lucia%Cajuela%NULL%1,        David%Roa%NULL%1,        Miguel%Cervero%NULL%1,        Alberto%Oreja%NULL%1,        Juan Pablo%Avilés%NULL%1,        Lidia%Martín%NULL%1,        Iván%Pelegrín Senent%NULL%3,        Iván%Pelegrín Senent%NULL%0,        Iván%Pelegrín Senent%NULL%0,        Rosana%Rouco Esteves Marques%NULL%1,        Jorge%Parra Ruiz%NULL%3,        Jorge%Parra Ruiz%NULL%0,        Jorge%Parra Ruiz%NULL%0,        Violeta%Ramos Sesma%NULL%1,        Jessica%Abadia Otero%NULL%3,        Jessica%Abadia Otero%NULL%0,        Jessica%Abadia Otero%NULL%0,        Juan%Salillas Hernando%NULL%3,        Juan%Salillas Hernando%NULL%0,        Juan%Salillas Hernando%NULL%0,        Robert%Torres Sánchez del Arco%NULL%1,        Miguel%Torralba González de Suso%NULL%1,        Alberto%Serrano Martínez%NULL%1,        Sergio%Gilaberte Reyzábal%NULL%1,        Marina%Pacheco Martínez-Atienza%NULL%1,        Mónica%Liébana Gómez%NULL%1,        Sara%Fernández Rodríguez%NULL%1,        Álvaro%Varela Plaza%NULL%1,        Henar%Calvo Sánchez%NULL%1,        Patricia%Martínez Martín%NULL%3,        Patricia%Martínez Martín%NULL%0,        Patricia%Martínez Martín%NULL%0,        Patricia%González- Ruano%NULL%1,        Eduardo%Malmierca Corral%NULL%1,        Isabel%Rábago Lorite%NULL%1,        Beatriz%Pérez-Monte Mínguez%NULL%1,        Ángeles%García Flores%NULL%3,        Ángeles%García Flores%NULL%0,        Ángeles%García Flores%NULL%0,        Pere%Comas Casanova%NULL%1,        Merce%Sirisi%NULL%3,        Merce%Sirisi%NULL%0,        Merce%Sirisi%NULL%0,        Richard%Rojas%NULL%1,        José Luis%Díaz de Tuesta del Arco%NULL%3,        José Luis%Díaz de Tuesta del Arco%NULL%0,        José Luis%Díaz de Tuesta del Arco%NULL%0,        Ruth%Figueroa Cerón%NULL%1,        Ander%González Sarria%NULL%1,        Remedios%Alemán Valls%NULL%3,        Remedios%Alemán Valls%NULL%0,        Remedios%Alemán Valls%NULL%0,        María del Mar%Alonso Socas%NULL%1,        Oscar%Sanz Peláez%NULL%3,        Oscar%Sanz Peláez%NULL%0,        Oscar%Sanz Peláez%NULL%0,        Karim%Mohamed Ramírez%NULL%1,        Melchor%Riera Jaume%NULL%3,        Melchor%Riera Jaume%NULL%0,        Melchor%Riera Jaume%NULL%0,        Helem Haydee%Vilchez%NULL%1,        Francesc%Albertí%NULL%1,        Ana Isabel%Cañabate%NULL%1,        Víctor J.%Moreno Cuerda%NULL%3,        Víctor J.%Moreno Cuerda%NULL%0,        Víctor J.%Moreno Cuerda%NULL%0,        Silvia%Álvarez Kaelis%NULL%1,        Beatriz%Álvarez Zapatero%NULL%1,        Alejandro%García García%NULL%1,        Elena%Isaba Ares%NULL%1,        Covadonga%Morcate Fernández%NULL%1,        Andrea%Pérez Rodríguez%NULL%1,        Lucía%Ramos Merino%NULL%3,        Lucía%Ramos Merino%NULL%0,        Lucía%Ramos Merino%NULL%0,        Laura%Castelo Corral%NULL%1,        María%Rodríguez Mahía%NULL%1,        Mónica%González Bardanca%NULL%1,        Efrén%Sánchez Vidal%NULL%1,        Enrique%Míguez Rey%NULL%1,        Javier%De la Torre Lima%NULL%3,        Javier%De la Torre Lima%NULL%0,        Javier%De la Torre Lima%NULL%0,        José Mª%García de Lomas Guerrero%NULL%1,        Elena%Morte%NULL%3,        Elena%Morte%NULL%0,        Elena%Morte%NULL%0,        Silvia%Loscos%NULL%1,        Ana%Camón%NULL%1,        Lucía%Gómez García%NULL%3,        Lucía%Gómez García%NULL%0,        Lucía%Gómez García%NULL%0,        Lucia%Boix Palop%NULL%1,        Beatriz%Dietl Gómez-Luengo%NULL%1,        Iris%Pedrola Gorrea%NULL%3,        Iris%Pedrola Gorrea%NULL%0,        Iris%Pedrola Gorrea%NULL%0,        Amparo%Blasco Claramunt%NULL%1,        Cristina%López Mestanza%NULL%3,        Cristina%López Mestanza%NULL%0,        Cristina%López Mestanza%NULL%0,        Esther%Fraile Villarejo%NULL%1,        Tomás%Tosco Núñez%NULL%3,        Tomás%Tosco Núñez%NULL%0,        Tomás%Tosco Núñez%NULL%0,        María%Aroca Ferri%NULL%1,        José Tomas%Algado Rabasa%NULL%3,        José Tomas%Algado Rabasa%NULL%0,        José Tomas%Algado Rabasa%NULL%0,        Ana María%Garijo Saiz%NULL%1,        Concepción%Amador Prous%NULL%1,        Jesús Rodriguez%Baño%NULL%3,        Jesús Rodriguez%Baño%NULL%0,        Jesús Rodriguez%Baño%NULL%0,        Pilar%Retamar%NULL%1,        Adoración%Valiente%NULL%1,        Luis E.%López-Cortés%NULL%1,        Jesús%Sojo%NULL%1,        Belén%Gutiérrez-Gutiérrez%NULL%1,        José%Bravo-Ferrer%NULL%1,        Elena%Salamanca%NULL%1,        Zaira R.%Palacios%NULL%1,        Patricia%Pérez-Palacios%NULL%1,        Enrique%Peral%NULL%1,        José Antonio%Pérez de León%NULL%1,        Jesús%Sánchez-Gómez%NULL%1,        Lucía%Marín-Barrera%NULL%1,        Domingo%García-Jiménez%NULL%1,        Jordi%Carratalà%NULL%0,        Jordi%Carratalà%NULL%0,        Jordi%Carratalà%NULL%0,        Gabriela%Abelenda-Alonso%NULL%1,        Carmen%Ardanuy%NULL%1,        Alba%Bergas%NULL%1,        Guillermo%Cuervo%NULL%1,        María Ángeles%Domínguez%NULL%1,        Miguel%Fernández-Huerta%NULL%1,        Carlota%Gudiol%NULL%1,        Laia%Lorenzo-Esteller%NULL%1,        Jordi%Niubó%NULL%1,        Sandra%Pérez-Recio%NULL%1,        Daniel%Podzamczer%NULL%1,        Miquel%Pujol%NULL%1,        Alexander%Rombauts%NULL%1,        Núria%Trullen%NULL%1,        Miguel%Salavert Lletí%NULL%3,        Miguel%Salavert Lletí%NULL%0,        Miguel%Salavert Lletí%NULL%0,        Iván%Castro Hernández%NULL%1,        Adriana%Hernández Belmonte%NULL%3,        Adriana%Hernández Belmonte%NULL%0,        Adriana%Hernández Belmonte%NULL%0,        Raquel%Martínez Goñi%NULL%1,        Marta%Navarro Vilasaró%NULL%3,        Marta%Navarro Vilasaró%NULL%0,        Marta%Navarro Vilasaró%NULL%0,        Sonia%Calzado Isbert%NULL%1,        Manuel%Cervantes García%NULL%1,        Aina%Gomila Grange%NULL%1,        Oriol%Gasch Blasi%NULL%1,        María Luisa%Machado Sicilia%NULL%1,        Eva%Van den Eynde Otero%NULL%1,        Luis%Falgueras López%NULL%1,        María del Carmen%Navarro Sáez%NULL%1,        Esteban%Martínez%NULL%3,        Esteban%Martínez%NULL%0,        Esteban%Martínez%NULL%0,        Mª Ángeles%Marcos%NULL%1,        Mar%Mosquera%NULL%1,        José Luis%Blanco%NULL%1,        Montserrat%Laguno%NULL%1,        Jhon%Rojas%NULL%1,        Ana%González-Cordón%NULL%1,        Alexy%Inciarte%NULL%1,        Berta%Torres%NULL%1,        Lorena%De la Mora%NULL%1,        Alex%Soriano%NULL%1,        Olalla%Martínez Macias%NULL%3,        Olalla%Martínez Macias%NULL%0,        Olalla%Martínez Macias%NULL%0,        Virginia%Pérez Doñate%NULL%1,        Alfonso%Cabello Úbeda%NULL%3,        Alfonso%Cabello Úbeda%NULL%0,        Alfonso%Cabello Úbeda%NULL%0,        Nerea%Carrasco Antón%NULL%1,        Beatriz%Álvarez Álvarez%NULL%1,        Elizabet%Petkova Saiz%NULL%1,        Miguel%Górgolas Hernández-Mora%NULL%1,        Laura%Prieto Pérez%NULL%1,        Irene%Carrillo Acosta%NULL%1,        Sara%Heili Frades%NULL%1,        Felipe%Villar Álvarez%NULL%1,        Ricardo%Fernández Roblas%NULL%1,        José María%Milicua Muñoz%NULL%1,        Virginia%Fernández Espinilla%NULL%3,        Virginia%Fernández Espinilla%NULL%0,        Virginia%Fernández Espinilla%NULL%0,        Carlos Jesús%Dueñas Gutiérrez%NULL%1,        Cristina%Hernán García%NULL%1,        Fernando%González-Romo%NULL%3,        Fernando%González-Romo%NULL%0,        Fernando%González-Romo%NULL%0,        Paloma%Merino Amador%NULL%1,        Alba%Rueda López%NULL%1,        Jorge%Martínez Jordán%NULL%1,        Sara%Medrano Pardo%NULL%1,        Irene%Díaz de la Torre%NULL%1,        Yolanda%Posada Franco%NULL%1,        Alberto%Delgado-Iribarren%NULL%1,        Joaquín%López-Contreras González%NULL%3,        Joaquín%López-Contreras González%NULL%0,        Joaquín%López-Contreras González%NULL%0,        Pablo%Pascual Alonso%NULL%1,        Virginia%Pomar Solchaga%NULL%1,        Nuria%Rabella García%NULL%1,        Natividad%Benito Hernández%NULL%1,        Pere%Domingo Pedrol%NULL%1,        Xavier%Bonfill Cosp%NULL%1,        Rafael%Padrós Selma%NULL%1,        Mireia%Puig Campmany%NULL%1,        Jordi%Mancebo Cortés%NULL%1,        Mercè%Gurguí Ferrer%NULL%1,        Melania%Íñigo Pestaña%NULL%3,        Melania%Íñigo Pestaña%NULL%0,        Melania%Íñigo Pestaña%NULL%0,        Alejandra%Pérez García%NULL%1,        Patricia%Sorní Moreno%NULL%3,        Patricia%Sorní Moreno%NULL%0,        Patricia%Sorní Moreno%NULL%0,        Nora%Izko Gartzia%NULL%1,        Francisco Javier%Membrillo de Novales%NULL%3,        Francisco Javier%Membrillo de Novales%NULL%0,        Francisco Javier%Membrillo de Novales%NULL%0,        María%Simón Sacristán%NULL%1,        Maribel%Zamora Cintas%NULL%1,        Yolanda%Martínez Martínez%NULL%1,        Pablo%Fernández-González%NULL%1,        Francisco%Alcántara Nicolás%NULL%1,        Alejandro%Aguirre Vila-Cora%NULL%1,        Elena%López Tizón%NULL%1,        Germán%Ramírez-Olivencia%NULL%1,        Miriam%Estébanez Muñoz%NULL%1,        Ester%Sáez de Adana Arróniz%NULL%3,        Ester%Sáez de Adana Arróniz%NULL%0,        Ester%Sáez de Adana Arróniz%NULL%0,        Joseba%Portu Zapirain%NULL%1,        Juan Carlos%Gainzarain Arana%NULL%1,        Zuriñe%Ortiz de Zárate Ibarra%NULL%1,        Miguel Ángel%Moran Rodríguez%NULL%1,        Andrés%Canut Blasco%NULL%1,        Silvia%Hernáez Crespo%NULL%1,        Leire%Balerdi Sarasola%NULL%1,        Cristina%Morales García%NULL%1,        Miguel%Corral Saracho%NULL%1,        Zeltia%Valcarce González%NULL%1,        Noelia%Arenal Andrés%NULL%3,        Noelia%Arenal Andrés%NULL%0,        Noelia%Arenal Andrés%NULL%0,        Raquel Elisa%Rodríguez Tarazona%NULL%1,        Laura%Iglesias Llorente%NULL%3,        Laura%Iglesias Llorente%NULL%0,        Laura%Iglesias Llorente%NULL%0,        Beatriz%Loureiro Rodríguez%NULL%1,        Adrián%Sánchez Montalvá%NULL%3,        Adrián%Sánchez Montalvá%NULL%0,        Adrián%Sánchez Montalvá%NULL%0,        Juan%Espinosa Pereiro%NULL%1,        Benito%Almirante%NULL%1,        Marta%Miarons%NULL%1,        Júlia%Sellarés%NULL%1,        María%Larrosa%NULL%1,        Sonia%García%NULL%1,        Blanca%Marzo%NULL%1,        Miguel%Villamarín%NULL%1,        Nuria%Fernández%NULL%1,        Conchita%Pérez-Jorge Peremarch%NULL%3,        Conchita%Pérez-Jorge Peremarch%NULL%0,        Conchita%Pérez-Jorge Peremarch%NULL%0,        Elena%Resino Foz%NULL%1,        Andrea%Espigares Correa%NULL%1,        Teresa%Álvarez de Espejo Montiel%NULL%1,        Iván%Navas Clemente%NULL%1,        María Isabel%Quijano Contreras%NULL%1,        Luis Alberto%Nieto Fernández del Campo%NULL%1,        Guillermo%Jiménez Álvarez%NULL%1,        Mercedes%Guillamón Sánchez%NULL%3,        Mercedes%Guillamón Sánchez%NULL%0,        Mercedes%Guillamón Sánchez%NULL%0,        Josefina%García García%NULL%1,        Constanza%Muñoz Hornero%NULL%3,        Constanza%Muñoz Hornero%NULL%0,        Constanza%Muñoz Hornero%NULL%0,        Ana%Mariño Callejo%NULL%3,        Ana%Mariño Callejo%NULL%0,        Ana%Mariño Callejo%NULL%0,        Nieves%Valcarce Pardeiro%NULL%1,        Alex%Smithson Amat%NULL%3,        Alex%Smithson Amat%NULL%0,        Alex%Smithson Amat%NULL%0,        Cristina%Chico Chumillas%NULL%1,        Adriana%Sánchez Serrano%NULL%3,        Adriana%Sánchez Serrano%NULL%0,        Adriana%Sánchez Serrano%NULL%0,        Eva Pilar%García Villalba%NULL%1,        Isabel%Jiménez Martínez%NULL%3,        Isabel%Jiménez Martínez%NULL%0,        Isabel%Jiménez Martínez%NULL%0,        Guillermo%Estrada Fernández%NULL%1,        María%Lorén Vargas%NULL%1,        Nuria%Parra Arribas%NULL%1,        Carmen%Martínez Cilleros%NULL%1,        Aránzazu%Villasante de la Puente%NULL%1,        Teresa%García Delange%NULL%1,        María José%Ruiz Rodríguez%NULL%1,        Marta%Robledo del Prado%NULL%1,        Juan Carlos%Abad Almendro%NULL%1,        José Román%Muñoz del Rey%NULL%3,        José Román%Muñoz del Rey%NULL%0,        José Román%Muñoz del Rey%NULL%0,        Montaña%Jiménez Álvaro%NULL%1,        Javier%Coy Coy%NULL%3,        Javier%Coy Coy%NULL%0,        Javier%Coy Coy%NULL%0,        Inmaculada%Poquet Catala%NULL%1,        Marta%Santos Peña%NULL%3,        Marta%Santos Peña%NULL%0,        Marta%Santos Peña%NULL%0,        Virginia%Naranjo Velasco%NULL%1,        Tamara%Manso Gómez%NULL%3,        Tamara%Manso Gómez%NULL%0,        Tamara%Manso Gómez%NULL%0,        Delia%Quilez Ágreda%NULL%1,        Gema%Barbeito Castiñeiras%NULL%3,        Gema%Barbeito Castiñeiras%NULL%0,        Gema%Barbeito Castiñeiras%NULL%0,        María Jesús%Domínguez Santalla%NULL%1,        Laura%Mao Martín%NULL%3,        Laura%Mao Martín%NULL%0,        Laura%Mao Martín%NULL%0,        Rodrigo%Alonso Navarro%NULL%1,        Jose David%Ampuero Martinich%NULL%1,        Raquel%Barrós González%NULL%1,        María Aránzazu%Galindo Martín%NULL%1,        Lourdes%Herrera Pacheco%NULL%1,        Rocío%Martínez Avilés%NULL%1,        Sara%Rodrigo González%NULL%1,        Cristóbal Manuel%Rodríguez Leal%NULL%1,        Eva María%Romay Lema%NULL%3,        Eva María%Romay Lema%NULL%0,        Eva María%Romay Lema%NULL%0,        Roi%Suárez Gil%NULL%1,        Maialen%Ibarguren Pinilla%NULL%3,        Maialen%Ibarguren Pinilla%NULL%0,        Maialen%Ibarguren Pinilla%NULL%0,        José María%Marimón Ortiz de Zárate%NULL%1,        Loreto%Vidaur Tello%NULL%1,        Xabier%Kortajarena Urkola%NULL%1,        Miriam%García Gómez%NULL%3,        Miriam%García Gómez%NULL%0,        Miriam%García Gómez%NULL%0,        Asier%Aranguren Arostegui%NULL%1,        Maria%Álvarez de Castro%NULL%3,        Maria%Álvarez de Castro%NULL%0,        Maria%Álvarez de Castro%NULL%0,        Cintia María%Martínez Mateu%NULL%1,        Francisco%Rodríguez Gómez%NULL%3,        Francisco%Rodríguez Gómez%NULL%0,        Francisco%Rodríguez Gómez%NULL%0,        Francisco%Muñoz Beamud%NULL%1,        Elena%Chamarro Martí%NULL%3,        Elena%Chamarro Martí%NULL%0,        Elena%Chamarro Martí%NULL%0,        Merce%Cardona Rivera%NULL%1,        Ismail%Zakariya-Yousef Breval%NULL%3,        Ismail%Zakariya-Yousef Breval%NULL%0,        Ismail%Zakariya-Yousef Breval%NULL%0,        Marta%Rico Rodríguez%NULL%1,        Jara%Llenas García%NULL%3,        Jara%Llenas García%NULL%0,        Jara%Llenas García%NULL%0,        Mª Carmen%Sánchez Arenas%NULL%1,        Ana%Fernández Cruz%NULL%3,        Ana%Fernández Cruz%NULL%0,        Ana%Fernández Cruz%NULL%0,        Jorge%Calderón Parra%NULL%1,        Marcos%López Dosil%NULL%1,        Antonio%Ramos Martínez%NULL%1,        Elena%Múñez Rubio%NULL%1,        Alejandro%Callejas Díaz%NULL%1,        José Manuel%Vázquez Comendador%NULL%1,        Itziar%Diego Yagüe%NULL%1,        Esther%Expósito Palomo%NULL%1,        Jorge%Anel Pedroche%NULL%1,        Raquel%Álvarez Franco%NULL%3,        Raquel%Álvarez Franco%NULL%0,        Raquel%Álvarez Franco%NULL%0,        Lucía%Fernández de Orueta%NULL%1,        Roberto%Vates Gómez%NULL%1,        Andrés Felipe%Cardona Arias%NULL%1,        Pablo%Marguenda Contreras%NULL%1,        Gabriel%Gaspar Alonso-Vega%NULL%1,        Elena María%Aranda Rife%NULL%1,        Blanca%Martínez Cifre%NULL%1,        Daniel%Roger Zapata%NULL%1,        Irene%Martín Rubio%NULL%1,        André%Barbosa Ventura%NULL%3,        André%Barbosa Ventura%NULL%0,        André%Barbosa Ventura%NULL%0,        Iván%Piñero%NULL%1,        Alberto%Bahamonde Carrasco%NULL%3,        Alberto%Bahamonde Carrasco%NULL%0,        Alberto%Bahamonde Carrasco%NULL%0,        Paula%Runza Buznego%NULL%1,        Eva%Talavera García%NULL%3,        Eva%Talavera García%NULL%0,        Eva%Talavera García%NULL%0,        Marta%Lamata Subero%NULL%1,        Ainhoa%Urrutia Losada%NULL%3,        Ainhoa%Urrutia Losada%NULL%0,        Ainhoa%Urrutia Losada%NULL%0,        Lorea%Arteche Eguizabal%NULL%1,        Elisabet%Delgado Sánchez%NULL%3,        Elisabet%Delgado Sánchez%NULL%0,        Elisabet%Delgado Sánchez%NULL%0,        Virginia%Molina Peinado%NULL%1,        Sarah%Caro Bragado%NULL%3,        Sarah%Caro Bragado%NULL%0,        Sarah%Caro Bragado%NULL%0,        Gema%Domínguez de Pablos%NULL%1,        Carolina%Roldán Fontana%NULL%3,        Carolina%Roldán Fontana%NULL%0,        Carolina%Roldán Fontana%NULL%0,        Carmen%Herrero Rodríguez%NULL%1,        Luis%Force Sanmartín%NULL%3,        Luis%Force Sanmartín%NULL%0,        Luis%Force Sanmartín%NULL%0,        Raquel%Aranega%NULL%1,        Arantzazu%Mera Fidalgo%NULL%3,        Arantzazu%Mera Fidalgo%NULL%0,        Arantzazu%Mera Fidalgo%NULL%0,        María Roca%Toda Savall%NULL%1,        Nicolas%Merchante Gutiérrez%NULL%3,        Nicolas%Merchante Gutiérrez%NULL%0,        Nicolas%Merchante Gutiérrez%NULL%0,        Eva María%León Jiménez%NULL%1,        José Luís%Del Pozo%NULL%3,        José Luís%Del Pozo%NULL%0,        José Luís%Del Pozo%NULL%0,        Josefa%Serralta Buades%NULL%3,        Josefa%Serralta Buades%NULL%0,        Josefa%Serralta Buades%NULL%0,        Ginger Giorgiana%Cabrera Tejada%NULL%1,        Mario%Fernández-Ruiz%NULL%4,        Mario%Fernández-Ruiz%NULL%0,        Mario%Fernández-Ruiz%NULL%0,        José María%Aguado%NULL%1,        Guillermo%Maestro de la Calle%NULL%1,        José Miguel%Cisneros%NULL%0,        José Miguel%Cisneros%NULL%0,        José Miguel%Cisneros%NULL%0,        Jerónimo%Pachón%NULL%0,        Manuela%Aguilar-Guisado%NULL%1,        Teresa%Aldabó%NULL%1,        María Dolores%Avilés%NULL%0,        Claudio%Bueno%NULL%1,        Elisa%Cordero-Matía%NULL%1,        Ana%Escoresca%NULL%1,        Lydia%Gálvez-Benítez%NULL%1,        Carmen%Infante%NULL%1,        Guillermo%Martín%NULL%1,        Julia%Praena%NULL%1,        Cristina%Roca%NULL%1,        Celia%Salamanca%NULL%1,        Alejandro%Suárez-Benjumea%NULL%1,        Pilar%Vizcarra%NULL%3,        Pilar%Vizcarra%NULL%0,        Pilar%Vizcarra%NULL%0,        Carmen%Quereda%NULL%1,        Mario José%Rodriguez Dominguez%NULL%1,        Francesca%Gioia%NULL%1,        Francesca%Norman%NULL%1,        Santos%Del Campo%NULL%1,        Rafael%Cantón Moreno%NULL%1,        Antonio%Oteo Revuelta José%NULL%3,        Antonio%Oteo Revuelta José%NULL%0,        Antonio%Oteo Revuelta José%NULL%0,        Paula%Santibáñez Sáenz%NULL%1,        Cristina%Cervera Acedo%NULL%1,        Carlos%Ruiz Martínez%NULL%1,        José R.%Blanco Ramos%NULL%1,        José M.%Azcona Gutiérrez%NULL%1,        Concepción%García García%NULL%1,        Jorge%Alba Fernández%NULL%1,        Valvanera%Ibarra Cucalón%NULL%1,        Mercedes%San Franco%NULL%1,        Luis%Metola Sacristán%NULL%1,        Héctor%Meijide Míguez%NULL%3,        Héctor%Meijide Míguez%NULL%0,        Héctor%Meijide Míguez%NULL%0,        Silvia%Paulos Viñas%NULL%1,        Justo%Menéndez%NULL%3,        Justo%Menéndez%NULL%0,        Justo%Menéndez%NULL%0,        Paula%Villares Fernández%NULL%1,        Lara%Montes Andújar%NULL%1,        Álvaro%Navarro Batet%NULL%3,        Álvaro%Navarro Batet%NULL%0,        Álvaro%Navarro Batet%NULL%0,        Anna%Ferrer Santolaria%NULL%1,        María de la Luz%Padilla Salazar%NULL%3,        María de la Luz%Padilla Salazar%NULL%0,        María de la Luz%Padilla Salazar%NULL%0,        Lucy%Abella Vázquez%NULL%1,        Marcelino%Hayek Peraza%NULL%1,        Antonio%García Pardo%NULL%1,        Carolina%Hernández Carballo%NULL%1,        Andrés Javier%Ruiz Fernández%NULL%3,        Andrés Javier%Ruiz Fernández%NULL%0,        Andrés Javier%Ruiz Fernández%NULL%0,        Isabel%Barrio López%NULL%1,        Alí%Martakoush%NULL%3,        Alí%Martakoush%NULL%0,        Alí%Martakoush%NULL%0,        Agustín%Rojas-Vieyra%NULL%3,        Agustín%Rojas-Vieyra%NULL%0,        Agustín%Rojas-Vieyra%NULL%0,        Sonia%García Calvo%NULL%3,        Sonia%García Calvo%NULL%0,        Sonia%García Calvo%NULL%0,        Mercedes%Villarreal García-Lomas%NULL%1,        Marta%Vizcaíno Callejón%NULL%3,        Marta%Vizcaíno Callejón%NULL%0,        Marta%Vizcaíno Callejón%NULL%0,        María Pilar%García García%NULL%1,        Ana%Lérida Urteaga%NULL%3,        Ana%Lérida Urteaga%NULL%0,        Ana%Lérida Urteaga%NULL%0,        Natalia%Carrasco Fons%NULL%1,        Beatriz%María Sanjuan%NULL%1,        Lydia%Martín González%NULL%1,        Camilo%Sanz Zamudio%NULL%1,        Inmaculada%Jarrín%NULL%0,        Inmaculada%Jarrín%NULL%0,        Inmaculada%Jarrín%NULL%0,        Belén%Alejos%NULL%1,        Cristina%Moreno%NULL%1,        Marta%Rava%NULL%1,        Carlos%Iniesta%NULL%1,        Rebeca%Izquierdo%NULL%1,        Inés%Suárez-García%NULL%1,        Asunción%Díaz%NULL%1,        Marta%Ruiz-Alguero%NULL%1,        Victoria%Hernando%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,        Denise J%McCulloch%NULL%0,        Denise J%McCulloch%NULL%0,        Vidya%Atluri%NULL%0,        Michela%Blain%NULL%0,        Sarah A%McGuffin%NULL%0,        Arun K%Nalla%NULL%0,        Meei-Li%Huang%NULL%0,        Alex L%Greninger%NULL%0,        Keith R%Jerome%NULL%0,        Seth A%Cohen%NULL%0,        Santiago%Neme%NULL%0,        Margaret L%Green%NULL%0,        Helen Y%Chu%NULL%0,        H Nina%Kim%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,        Wenlin%Cheng%NULL%0,        Lei%Yu%NULL%0,        Ya-Kun%Liu%NULL%0,        Xiaoyong%Hu%NULL%0,        Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,        Alberto%Zucchelli%NULL%1,        Marinella%Turla%NULL%1,        Maria Sofia%Cotelli%NULL%1,        Sara%Fascendini%NULL%1,        Mara%Zanni%NULL%1,        Angelo%Bianchetti%NULL%1,        Matteo Peli%Psy%NULL%1,        Renzo%Rozzini%NULL%1,        Stefano%Boffelli%NULL%1,        Melania%Cappuccio%NULL%1,        Federica Gottardi%Psy%NULL%1,        Chiara Vecchi%Psy%NULL%1,        Daniele%Bellandi%NULL%1,        Claudia%Caminati%NULL%1,        Simona%Gentile%NULL%1,        Elena Lucchi%Psy%NULL%1,        Ignazio%Di Fazio%NULL%1,        Marina Zanetti%Psy%NULL%1,        Giuliana%Vezzadini%NULL%1,        Chiara Forlani%Psy%NULL%1,        Maura Cosseddu%Psy%NULL%1,        Rosanna Turrone%Psy%NULL%1,        Silvia Pelizzari%Psy%NULL%1,        Andrea%Scalvini%NULL%1,        Marco%Di Cesare%NULL%1,        Marta Grigolo%Psy%NULL%1,        Lina%Falanga%NULL%1,        Nives%Medici%NULL%1,        Nives%Palamini%NULL%1,        Elisa Zanacchi%Psy%NULL%1,        Eleonora Grossi%Psy%NULL%1,        Giuseppe%Bellelli%NULL%1,        Alessandra%Marengoni%NULL%1,        Marco%Trabucchi%NULL%1,        Alessandro%Padovani%alessandro.padovani@unibs.it%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        Nancy%Chow%NULL%2,        Katherine%Fleming-Dutra%NULL%1,        Ryan%Gierke%NULL%2,        Aron%Hall%NULL%2,        Michelle%Hughes%NULL%1,        Tamara%Pilishvili%NULL%2,        Matthew%Ritchey%NULL%2,        Katherine%Roguski%NULL%1,        Tami%Skoff%NULL%1,        Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,        Zhencang%Zheng%NULL%1,        Chao%Zhang%NULL%1,        Xijiang%Zhang%NULL%1,        Huijuan%Wu%NULL%1,        Jingdong%Wang%NULL%1,        Shuwei%Wang%NULL%1,        Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,        Wei%Liu%NULL%0,        Kui%Liu%NULL%0,        Yuan-Yuan%Fang%NULL%0,        Jin%Shang%NULL%0,        Ling%Zhou%NULL%0,        Ke%Wang%NULL%0,        Fan%Leng%NULL%0,        Shuang%Wei%NULL%0,        Lei%Chen%NULL%0,        Hui-Guo%Liu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,        Francesco%Innocenti%NULL%1,        Julien%Beauté%NULL%1,        Veronika%Učakar%NULL%1,        Marta%Grgič Vitek%NULL%1,        Eero%Poukka%NULL%1,        Tuula%Hannila-Handelberg%NULL%1,        Charmaine%Gauci%NULL%1,        Tanya%Melillo%NULL%1,        Theano%Georgakopoulou%NULL%1,        Jiri%Jarkovsky%NULL%1,        Pavel%Slezak%NULL%1,        Concepción%Delgado-Sanz%NULL%1,        Carmen%Olmedo-Lucerón%NULL%1,        Heleene%Suija%NULL%1,        Rasa%Liausediene%NULL%1,        Piaras%O’Lorcain%NULL%1,        Niamh%Murphy%NULL%1,        André%Peralta-Santos%NULL%1,        Pedro%Casaca%NULL%1,        Ioanna%Gregoriou%NULL%1,        Nick%Bundle%NULL%1,        Gianfranco%Spiteri%NULL%1,        Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,        Peiyun%Li%NULL%1,        Liang%Ma%NULL%1,        Hang%Liang%NULL%1,        Jie%Lei%NULL%1,        Wenqiang%Li%NULL%1,        Kun%Wang%NULL%1,        Yu%Song%NULL%1,        Shuai%Li%NULL%1,        Wei%Yang%NULL%0,        Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,        Yun%Ling%NULL%0,        Yun%Ling%NULL%0,        Tao%Bai%NULL%2,        Tao%Bai%NULL%0,        Yusang%Xie%NULL%1,        Jie%Huang%NULL%2,        Jie%Huang%NULL%0,        Jian%Li%NULL%1,        Weining%Xiong%NULL%1,        Dexiang%Yang%NULL%1,        Rong%Chen%NULL%1,        Fangying%Lu%NULL%1,        Yunfei%Lu%NULL%1,        Xuhui%Liu%NULL%1,        Yuqing%Chen%NULL%2,        Yuqing%Chen%NULL%0,        Xin%Li%NULL%1,        Yong%Li%NULL%0,        Hanssa Dwarka%Summah%NULL%1,        Huihuang%Lin%NULL%1,        Jiayang%Yan%NULL%1,        Min%Zhou%NULL%0,        Hongzhou%Lu%NULL%0,        Hongzhou%Lu%NULL%0,        Jieming%Qu%NULL%0,        Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,        Massimiliano%Marino%NULL%0,        Debora%Formisano%NULL%0,        Francesco%Venturelli%NULL%0,        Massimo%Vicentini%NULL%0,        Massimo%Vicentini%NULL%0,        Roberto%Grilli%NULL%0,        NULL%NULL%NULL%0,        Gianluigi%Forloni%NULL%8,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,        Justin J.%Choi%NULL%0,        Laura C.%Pinheiro%NULL%0,        Edward J.%Schenck%NULL%0,        Ruijun%Chen%NULL%0,        Assem%Jabri%NULL%0,        Michael J.%Satlin%NULL%0,        Thomas R.%Campion%NULL%0,        Musarrat%Nahid%NULL%0,        Joanna B.%Ringel%NULL%0,        Katherine L.%Hoffman%NULL%0,        Mark N.%Alshak%NULL%0,        Han A.%Li%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Mangala%Rajan%NULL%0,        Evgeniya%Reshetnyak%NULL%0,        Nathaniel%Hupert%NULL%0,        Evelyn M.%Horn%NULL%0,        Fernando J.%Martinez%NULL%0,        Roy M.%Gulick%NULL%0,        Monika M.%Safford%NULL%0,        Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,        Norio%Ohmagari%NULL%1,        Daniel%Shin%NULL%1,        George%Diaz%NULL%1,        Erika%Asperges%NULL%1,        Antonella%Castagna%NULL%0,        Torsten%Feldt%NULL%1,        Gary%Green%NULL%1,        Margaret L.%Green%NULL%1,        François-Xavier%Lescure%NULL%1,        Emanuele%Nicastri%NULL%1,        Rentaro%Oda%NULL%2,        Rentaro%Oda%NULL%0,        Kikuo%Yo%NULL%2,        Kikuo%Yo%NULL%0,        Eugenia%Quiros-Roldan%NULL%1,        Alex%Studemeister%NULL%1,        John%Redinski%NULL%1,        Seema%Ahmed%NULL%1,        Jorge%Bernett%NULL%1,        Daniel%Chelliah%NULL%1,        Danny%Chen%NULL%1,        Shingo%Chihara%NULL%1,        Stuart H.%Cohen%NULL%1,        Jennifer%Cunningham%NULL%1,        Antonella%D’Arminio Monforte%NULL%1,        Saad%Ismail%NULL%1,        Hideaki%Kato%NULL%1,        Giuseppe%Lapadula%NULL%1,        Erwan%L’Her%NULL%1,        Toshitaka%Maeno%NULL%1,        Sumit%Majumder%NULL%1,        Marco%Massari%NULL%0,        Marta%Mora-Rillo%NULL%1,        Yoshikazu%Mutoh%NULL%1,        Duc%Nguyen%NULL%1,        Ewa%Verweij%NULL%1,        Alexander%Zoufaly%NULL%1,        Anu O.%Osinusi%NULL%1,        Adam%DeZure%NULL%1,        Yang%Zhao%NULL%1,        Lijie%Zhong%NULL%1,        Anand%Chokkalingam%NULL%1,        Emon%Elboudwarej%NULL%1,        Laura%Telep%NULL%1,        Leighann%Timbs%NULL%1,        Ilana%Henne%NULL%1,        Scott%Sellers%NULL%1,        Huyen%Cao%NULL%1,        Susanna K.%Tan%NULL%1,        Lucinda%Winterbourne%NULL%1,        Polly%Desai%NULL%1,        Robertino%Mera%NULL%1,        Anuj%Gaggar%NULL%1,        Robert P.%Myers%NULL%1,        Diana M.%Brainard%NULL%1,        Richard%Childs%NULL%1,        Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,       Arunthamakun%Justin%coreGivesNoEmail%1,       Athavale%Ambarish M.%coreGivesNoEmail%1,       Bansal%Anip%coreGivesNoEmail%1,       Brenner%Samantha K.%coreGivesNoEmail%1,       Chan%Lili%coreGivesNoEmail%1,       Donnelly%John P.%coreGivesNoEmail%1,       Friedman%Allon N.%coreGivesNoEmail%1,       Gershengorn%Hayley B.%coreGivesNoEmail%1,       Goyal%Nitender%coreGivesNoEmail%1,       Green%Adam%coreGivesNoEmail%1,       Gupta%Shruti%coreGivesNoEmail%1,       Hayek%Salim S.%coreGivesNoEmail%1,       Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,       Kibbelaar%Zoe A.%coreGivesNoEmail%1,       Leaf%David E.%coreGivesNoEmail%1,       Leonberg-Yoo%Amanda%coreGivesNoEmail%1,       Mathews%Kusum S.%coreGivesNoEmail%1,       Melamed%Michal L.%coreGivesNoEmail%1,       Omar%Samah Abu%coreGivesNoEmail%1,       Parikh%Chirag R.%coreGivesNoEmail%1,       Radbel%Jared%coreGivesNoEmail%1,       Reiser%Jochen%coreGivesNoEmail%1,       Schenck%Edward J.%coreGivesNoEmail%1,       Semler%Matthew W.%coreGivesNoEmail%1,       Shaefi%Shahzad%coreGivesNoEmail%1,       Shehata%Alexandre M.%coreGivesNoEmail%1,       Short%Samuel A. P.%coreGivesNoEmail%1,       Srivastava%Anand%coreGivesNoEmail%1,       Sutherland%Anne%coreGivesNoEmail%1,       Velez%Juan Carlos Q.%coreGivesNoEmail%1,       Vijayan%Anitha%coreGivesNoEmail%1,       Wang%Wei%coreGivesNoEmail%1,       Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,        İmran%HASANOĞLU%NULL%2,        İmran%HASANOĞLU%NULL%0,        Bircan%KAYAASLAN%NULL%2,        Bircan%KAYAASLAN%NULL%0,        Adalet%AYPAK%NULL%2,        Adalet%AYPAK%NULL%0,        Ayşe%KAYA KALEM%NULL%2,        Ayşe%KAYA KALEM%NULL%0,        Fatma%ESER%NULL%2,        Fatma%ESER%NULL%0,        Burcu%ÖZDEMİR%NULL%2,        Burcu%ÖZDEMİR%NULL%0,        Elif Mükime%SARICAOĞLU%NULL%2,        Elif Mükime%SARICAOĞLU%NULL%0,        Müge%AYHAN%NULL%2,        Müge%AYHAN%NULL%0,        Yeşim%AYBAR BİLİR%NULL%2,        Yeşim%AYBAR BİLİR%NULL%0,        Işıl%ÖZKOÇAK TURAN%NULL%2,        Işıl%ÖZKOÇAK TURAN%NULL%0,        Deniz%ERDEM%NULL%2,        Deniz%ERDEM%NULL%0,        Nevzat Mehmet%MUTLU%NULL%1,        Turan%BUZGAN%NULL%2,        Turan%BUZGAN%NULL%0,        Bedia%DİNÇ%NULL%2,        Bedia%DİNÇ%NULL%0,        Esragül%AKINCI%NULL%2,        Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,        Elnara%Fazio-Eynullayeva%NULL%2,        Elnara%Fazio-Eynullayeva%NULL%0,        Deirdre A.%Lane%NULL%2,        Deirdre A.%Lane%NULL%0,        Paula%Underhill%NULL%2,        Paula%Underhill%NULL%0,        Gregory Y. H.%Lip%NULL%1,        Mirjam E. E.%Kretzschmar%NULL%3,        Mirjam E. E.%Kretzschmar%NULL%0,        Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,        Min%Xie%NULL%3,        Jianping%Zhao%NULL%0,        Xiansheng%Liu%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,        Shaoqiu%Chen%NULL%0,        Yuanyuan%Fu%NULL%0,        Zitong%Gao%NULL%0,        Hui%Long%NULL%0,        Jian-ming%Wang%NULL%0,        Hong-wei%Ren%NULL%0,        Yi%Zuo%NULL%0,        Huan%Li%NULL%0,        Jie%Wang%NULL%0,        Qing-bang%Xu%NULL%0,        Wen-xiong%Yu%NULL%0,        Jia%Liu%NULL%0,        Chen%Shao%NULL%0,        Jun-jie%Hao%NULL%0,        Chuan-zhen%Wang%NULL%0,        Yao%Ma%NULL%0,        Zhanwei%Wang%NULL%0,        Richard%Yanagihara%NULL%0,        Youping%Deng%dengy@hawaii.edu%0]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,       Bayani%Masomeh%coreGivesNoEmail%1,       Bijani%Ali%coreGivesNoEmail%1,       Ebrahimpour%Soheil%coreGivesNoEmail%1,       Gholinejad%Hossein Emam%coreGivesNoEmail%1,       Ghorbani%Hossein%coreGivesNoEmail%1,       Hasanpour%Amir Hossein%coreGivesNoEmail%1,       Javanian%Mostafa%coreGivesNoEmail%1,       Masrour-Roudsari%Jila%coreGivesNoEmail%1,       Mehraeen%Rahele%coreGivesNoEmail%1,       Mohseni%Sima%coreGivesNoEmail%1,       Rostami%Ali%coreGivesNoEmail%1,       Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,       Sepidarkish%Mahdi%coreGivesNoEmail%1,       Shabani%Asieh%coreGivesNoEmail%1,       Shahbazi%Mehdi%coreGivesNoEmail%1,       Shokri%Mehran%coreGivesNoEmail%1,       Tabari%Afrooz Monadi%coreGivesNoEmail%1,       Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,        Matteo%Piccica%NULL%1,        Lucia%Graziani%NULL%1,        Iacopo%Vellere%NULL%1,        Annarita%Botta%NULL%1,        Marta%Tilli%NULL%1,        Letizia%Ottino%NULL%1,        Beatrice%Borchi%NULL%1,        Marco%Pozzi%NULL%1,        Filippo%Bartalesi%NULL%1,        Jessica%Mencarini%NULL%1,        Michele%Spinicci%NULL%1,        Lorenzo%Zammarchi%NULL%1,        Filippo%Pieralli%NULL%1,        Giovanni%Zagli%NULL%1,        Carlo%Nozzoli%NULL%1,        Stefano%Romagnoli%NULL%1,        Alessandro%Bartoloni%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,        Zhao-Wu%Tao%NULL%0,        Lei%Wang%NULL%0,        Ming-Li%Yuan%NULL%0,        Kui%Liu%NULL%0,        Ling%Zhou%NULL%0,        Shuang%Wei%NULL%0,        Yan%Deng%NULL%0,        Jing%Liu%NULL%0,        Hui-Guo%Liu%NULL%0,        Ming%Yang%NULL%0,        Yi%Hu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,        Shuyun%Xu%NULL%2,        Muqing%Yu%NULL%2,        Ke%Wang%NULL%0,        Yu%Tao%NULL%0,        Ying%Zhou%NULL%0,        Jing%Shi%NULL%2,        Min%Zhou%NULL%0,        Bo%Wu%NULL%2,        Zhenyu%Yang%NULL%2,        Cong%Zhang%NULL%0,        Junqing%Yue%NULL%2,        Zhiguo%Zhang%NULL%2,        Harald%Renz%NULL%2,        Xiansheng%Liu%NULL%0,        Jungang%Xie%NULL%0,        Min%Xie%NULL%0,        Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,        Shu%Peng%NULL%1,        Le-qun%Li%NULL%1,        Qi%Wang%NULL%1,        Wei%Ping%NULL%1,        Ni%Zhang%NULL%1,        Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,        Yuanyuan%Xing%NULL%0,        Yu%Xiao%NULL%0,        Liping%Deng%NULL%0,        Qiu%Zhao%NULL%0,        Hongling%Wang%NULL%0,        Yong%Xiong%NULL%0,        Zhenshun%Cheng%NULL%0,        Shicheng%Gao%NULL%0,        Ke%Liang%NULL%0,        Mingqi%Luo%NULL%0,        Tielong%Chen%NULL%0,        Shihui%Song%NULL%0,        Zhiyong%Ma%NULL%0,        Xiaoping%Chen%NULL%0,        Ruiying%Zheng%NULL%0,        Qian%Cao%NULL%0,        Fan%Wang%fanndywang@foxmail.com%0,        Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,        Nicolas%Lopez-Villalobos%NULL%1,        Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,        Adam J%Russak%NULL%0,        Adam J%Russak%NULL%0,        Jessica K%De Freitas%NULL%0,        Anuradha%Lala%NULL%0,        Riccardo%Miotto%NULL%0,        Akhil%Vaid%NULL%0,        Kipp W%Johnson%NULL%0,        Matteo%Danieletto%NULL%0,        Eddye%Golden%NULL%0,        Dara%Meyer%NULL%0,        Manbir%Singh%NULL%0,        Sulaiman%Somani%NULL%0,        Arjun%Kapoor%NULL%1,        Ross%O'Hagan%NULL%1,        Sayan%Manna%NULL%1,        Udit%Nangia%NULL%1,        Suraj K%Jaladanki%NULL%1,        Paul%O’Reilly%NULL%2,        Paul%O’Reilly%NULL%0,        Laura M%Huckins%NULL%1,        Patricia%Glowe%NULL%1,        Arash%Kia%NULL%0,        Prem%Timsina%NULL%0,        Robert M%Freeman%NULL%1,        Matthew A%Levin%NULL%0,        Jeffrey%Jhang%NULL%0,        Adolfo%Firpo%NULL%1,        Patricia%Kovatch%NULL%0,        Joseph%Finkelstein%NULL%0,        Judith A%Aberg%NULL%0,        Emilia%Bagiella%NULL%0,        Carol R%Horowitz%NULL%0,        Barbara%Murphy%NULL%0,        Zahi A%Fayad%NULL%0,        Jagat%Narula%NULL%0,        Eric J%Nestler%NULL%0,        V%Fuster%NULL%1,        Carlos%Cordon-Cardo%NULL%0,        Dennis%Charney%NULL%1,        David L%Reich%NULL%0,        Allan%Just%NULL%1,        Erwin P%Bottinger%NULL%0,        Alexander W%Charney%NULL%0,        Benjamin S%Glicksberg%NULL%0,        Girish N%Nadkarni%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,         X.% Yan%null%1,         X.% Tang%null%1,         J.% Peng%null%1,         Q.% Yu%null%1,         L.% Feng%null%1,         G.% Yuan%null%1,         A.% Zhang%null%1,         Y.% Chen%null%2,         J.% Yuan%null%1,         X.% Huang%null%1,         X.% Zhang%null%1,         P.% Hu%null%1,         Y.% Song%null%1,         C.% Qian%null%1,         Q.% Sun%null%1,         D.% Wang%null%1,         J.% Tong%null%1,         J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,        Kevin Bryan%Lo%NULL%0,        Kevin Bryan%Lo%NULL%0,        Fahad%Gul%NULL%0,        Eric%Peterson%NULL%0,        Robert%De Joy%NULL%0,        Ruchika%Bhargav%NULL%0,        Jerald%Pelayo%NULL%0,        Jeri%Albano%NULL%0,        Zurab%Azmaiparashvili%NULL%0,        Sadia%Benzaquen%NULL%0,        Gabriel%Patarroyo‐Aponte%NULL%0,        Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,        Mu%Qin%qinmuae@163.com%0,        Yuli%Cai%NULL%0,        Tao%Liu%NULL%0,        Bo%Shen%NULL%0,        Fan%Yang%NULL%0,        Sheng%Cao%NULL%0,        Xu%Liu%NULL%0,        Xu%Liu%NULL%0,        Yaozu%Xiang%NULL%0,        Qinyan%Zhao%NULL%0,        He%Huang%huanghe1977@whu.edu.cn%0,        Bo%Yang%yybb112@whu.edu.cn%0,        Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,        Fergus%Hamilton%NULL%1,        Samuel%Gunning%NULL%1,        Caitlin%Sheehy%NULL%1,        Ed%Moran%NULL%1,        Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,        Yi%Xiang%NULL%0,        Wei%Fang%NULL%0,        Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,        Boqun%Li%279685211@qq.com%0,        Boqun%Li%279685211@qq.com%0,        Yanjun%Hu%huyanjun@163.com%0,        Chunhui%Lang%NULL%0,        Daoqiu%Huang%NULL%0,        Qiuyan%Sun%NULL%0,        Yan%Xiong%NULL%0,        Xia%Huang%NULL%0,        Jinglong%Lv%NULL%0,        Yaling%Luo%NULL%0,        Li%Shen%NULL%0,        Haoran%Yang%NULL%0,        Gu%Huang%NULL%0,        Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,        Wenbo%He%NULL%3,        Xiaomei%Yu%NULL%3,        Dalong%Hu%NULL%3,        Mingwei%Bao%NULL%3,        Huafen%Liu%NULL%3,        Jiali%Zhou%NULL%3,        Hong%Jiang%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,        Bohan%Yang%NULL%0,        Qianwen%Li%NULL%0,        Lu%Wen%NULL%0,        Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,       Xu%Y%coreGivesNoEmail%1,       Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,        Fen%Li%NULL%0,        Xiao%Wang%NULL%0,        Jie%Yan%NULL%0,        Fen%Zhu%NULL%0,        Shifan%Tang%NULL%0,        Yingzhong%Deng%NULL%0,        Hua%Wang%NULL%0,        Rui%Chen%NULL%0,        Zhili%Yu%NULL%0,        Yaping%Li%NULL%0,        Jingzhou%Shang%NULL%0,        Lingjun%Zeng%NULL%0,        Jie%Zhao%NULL%0,        Chaokun%Guan%NULL%0,        Qiaomei%Liu%NULL%0,        Haifeng%Chen%NULL%0,        Wei%Gong%NULL%0,        Xin%Huang%NULL%0,        Yu‐Jiao%Zhang%NULL%0,        Jianguang%Liu%NULL%0,        Xiaoyan%Dong%NULL%0,        Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,        Shaoping%Nie%spnie@126.com%0,        Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,        Pengfei%Wang%NULL%2,        Pengfei%Wang%NULL%0,        Yuyan%Song%NULL%1,        An%Zhang%zhangan@hospital.cqmu.edu.cn%1,        Guodan%Yuan%71502294@qq.com%1,        Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%0,       Dong%Xiang%coreGivesNoEmail%0,       Gao%Ya-dong%coreGivesNoEmail%0,       Yan%You-qin%coreGivesNoEmail%0,       Yang%Yi-bin%coreGivesNoEmail%0,       Yuan%Ya-dong%coreGivesNoEmail%0,       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,        Chang%Hu%NULL%3,        Linjie%Luo%NULL%2,        Fang%Fang%NULL%4,        Yongfeng%Chen%NULL%2,        Jianguo%Li%NULL%2,        Zhiyong%Peng%NULL%0,        Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,        Miao%Yu%NULL%0,        Song%Tong%NULL%1,        Lu-Yu%Liu%NULL%1,        Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,        Huangqing%Ouyang%NULL%1,        Lingli%Fu%NULL%1,        Shijie%Wang%NULL%1,        Jianglong%Han%NULL%1,        Kejie%Huang%NULL%1,        Mingfang%Jia%NULL%1,        Qibin%Song%NULL%1,        Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,        Anne%Chen%NULL%0,        Wei%Hou%NULL%0,        James M.%Graham%NULL%0,        Haifang%Li%NULL%0,        Paul S.%Richman%NULL%0,        Henry C.%Thode%NULL%0,        Adam J.%Singer%NULL%0,        Tim Q.%Duong%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="166" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="167" formatCode="dd mmm yyyy"/>
-    <numFmt numFmtId="168" formatCode="dd mmmm yyyy"/>
-    <numFmt numFmtId="169" formatCode="mmmm d, yyyy"/>
-    <numFmt numFmtId="170" formatCode="d mmm yyyy"/>
-    <numFmt numFmtId="171" formatCode="yyyy mmmm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="166" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="167" formatCode="dd\ mmm\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="dd\ mmmm\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="yyyy\ mmmm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1922,7 +2239,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1938,71 +2255,61 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2192,20 +2499,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:G51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2231,15 +2543,15 @@
         <v>64</v>
       </c>
       <c r="I1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>44016.0</v>
+        <v>44016</v>
       </c>
       <c r="C2" t="s">
         <v>65</v>
@@ -2248,143 +2560,143 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>329</v>
+        <v>435</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
       <c r="I2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>43980.0</v>
+        <v>43980</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
-        <v>333</v>
-      </c>
-      <c r="F4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
       <c r="I4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>334</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
       <c r="I5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
-        <v>44154.0</v>
+        <v>44154</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>439</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -2402,781 +2714,781 @@
         <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>44040.0</v>
+        <v>44040</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>440</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3">
-        <v>43924.0</v>
+        <v>43924</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>443</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>43987.0</v>
+        <v>43987</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>444</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7">
-        <v>44503.0</v>
+        <v>44503</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>445</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="9">
-        <v>44049.0</v>
+        <v>44049</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>446</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>44070.0</v>
+        <v>44070</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3">
-        <v>43993.0</v>
+        <v>43993</v>
       </c>
       <c r="C17" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>346</v>
+        <v>449</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
-        <v>43993.0</v>
+        <v>43993</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>347</v>
+        <v>450</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3">
-        <v>43951.0</v>
+        <v>43951</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>348</v>
+        <v>451</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="11">
-        <v>44027.0</v>
+      <c r="B20" s="10">
+        <v>44027</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>349</v>
+        <v>452</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3">
-        <v>44182.0</v>
+        <v>44182</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
       <c r="F21" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3">
-        <v>44084.0</v>
+        <v>44084</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>351</v>
+        <v>454</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="I22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3">
-        <v>44078.0</v>
+        <v>44078</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>352</v>
+        <v>455</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
-        <v>44154.0</v>
+        <v>44154</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>353</v>
+        <v>456</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3">
-        <v>43876.0</v>
+        <v>43876</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>457</v>
       </c>
       <c r="F25" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="G25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C26" t="s">
-        <v>295</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>296</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>355</v>
+        <v>458</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="12">
-        <v>43951.0</v>
+      <c r="B27" s="11">
+        <v>43951</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>356</v>
+        <v>459</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="4">
-        <v>43956.0</v>
+        <v>43956</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>357</v>
+        <v>460</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="5">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C29" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>358</v>
+        <v>461</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="G29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="I29" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="5">
-        <v>43922.0</v>
+        <v>43922</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="D30" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>359</v>
+        <v>462</v>
       </c>
       <c r="F30" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="3">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>360</v>
+        <v>463</v>
       </c>
       <c r="F31" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="G31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="5">
-        <v>44166.0</v>
+        <v>44166</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D32" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>361</v>
+        <v>464</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H32" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3">
-        <v>44162.0</v>
+        <v>44162</v>
       </c>
       <c r="C33" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>362</v>
+        <v>465</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>363</v>
+        <v>466</v>
       </c>
       <c r="F34" t="s">
         <v>62</v>
@@ -3185,482 +3497,482 @@
         <v>63</v>
       </c>
       <c r="H34" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="I34" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="5">
-        <v>44197.0</v>
+        <v>44197</v>
       </c>
       <c r="C35" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>365</v>
+        <v>467</v>
       </c>
       <c r="F35" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="I35" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="3">
-        <v>43989.0</v>
+        <v>43989</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
       <c r="F36" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="5">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C37" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>367</v>
+        <v>469</v>
       </c>
       <c r="F37" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="I37" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="5">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>368</v>
+        <v>470</v>
       </c>
       <c r="F38" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="I38" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="3">
-        <v>43907.0</v>
+        <v>43907</v>
       </c>
       <c r="C39" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="D39" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>369</v>
+        <v>471</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="5">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C40" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="D40" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>370</v>
+        <v>472</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H40" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="I40" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="3">
-        <v>44040.0</v>
+        <v>44040</v>
       </c>
       <c r="C41" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>371</v>
+        <v>473</v>
       </c>
       <c r="F41" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="G41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="5">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C42" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
         <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>372</v>
+        <v>474</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="5">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="C43" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>373</v>
+        <v>475</v>
       </c>
       <c r="F43" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="G43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H43" t="s">
+        <v>197</v>
+      </c>
+      <c r="I43" t="s">
         <v>235</v>
       </c>
-      <c r="I43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="5">
-        <v>44105.0</v>
+        <v>44105</v>
       </c>
       <c r="C44" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>374</v>
+        <v>476</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="G44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H44" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="I44" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="14">
-        <v>43952.0</v>
+      <c r="B45" s="13">
+        <v>43952</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>375</v>
+        <v>477</v>
       </c>
       <c r="F45" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="G45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="5">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C46" t="s">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="D46" t="s">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>376</v>
+        <v>478</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="5">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C47" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H47" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="I47" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="5">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C48" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>378</v>
+        <v>480</v>
       </c>
       <c r="F48" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="I48" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="5">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="D49" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>379</v>
+        <v>481</v>
       </c>
       <c r="F49" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H49" t="s">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c r="I49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="3">
-        <v>44042.0</v>
+        <v>44042</v>
       </c>
       <c r="C50" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="D50" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>380</v>
+        <v>482</v>
       </c>
       <c r="F50" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="G50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="I50" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="5">
-        <v>43891.0</v>
+        <v>43891</v>
       </c>
       <c r="C51" t="s">
         <v>57</v>
@@ -3678,93 +3990,93 @@
         <v>63</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="3">
-        <v>43918.0</v>
+        <v>43918</v>
       </c>
       <c r="C52" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="D52" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>381</v>
+        <v>483</v>
       </c>
       <c r="F52" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s">
-        <v>330</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A21"/>
-    <hyperlink r:id="rId20" ref="A22"/>
-    <hyperlink r:id="rId21" ref="A23"/>
-    <hyperlink r:id="rId22" ref="A24"/>
-    <hyperlink r:id="rId23" ref="A25"/>
-    <hyperlink r:id="rId24" ref="A26"/>
-    <hyperlink r:id="rId25" ref="A27"/>
-    <hyperlink r:id="rId26" ref="A28"/>
-    <hyperlink r:id="rId27" ref="A29"/>
-    <hyperlink r:id="rId28" ref="A30"/>
-    <hyperlink r:id="rId29" ref="A31"/>
-    <hyperlink r:id="rId30" ref="A32"/>
-    <hyperlink r:id="rId31" ref="A33"/>
-    <hyperlink r:id="rId32" ref="A35"/>
-    <hyperlink r:id="rId33" ref="A36"/>
-    <hyperlink r:id="rId34" ref="A37"/>
-    <hyperlink r:id="rId35" ref="A38"/>
-    <hyperlink r:id="rId36" ref="A39"/>
-    <hyperlink r:id="rId37" ref="A40"/>
-    <hyperlink r:id="rId38" ref="A41"/>
-    <hyperlink r:id="rId39" ref="A42"/>
-    <hyperlink r:id="rId40" ref="A43"/>
-    <hyperlink r:id="rId41" ref="A44"/>
-    <hyperlink r:id="rId42" ref="A45"/>
-    <hyperlink r:id="rId43" ref="A46"/>
-    <hyperlink r:id="rId44" ref="A47"/>
-    <hyperlink r:id="rId45" ref="A48"/>
-    <hyperlink r:id="rId46" ref="A49"/>
-    <hyperlink r:id="rId47" ref="A50"/>
-    <hyperlink r:id="rId48" ref="A51"/>
-    <hyperlink r:id="rId49" ref="A52"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
   </hyperlinks>
-  <drawing r:id="rId50"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/42.xlsx
+++ b/Covid_19_Dataset_and_References/References/42.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="588">
   <si>
     <t>Doi</t>
   </si>
@@ -2186,6 +2186,327 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,         Sarah%Al-Youha%sarahalyouha@gmail.com%1,         Mohammad H.%Jamal%NULL%1,         Mohannad%Al-Haddad%NULL%1,         Ali%Al-Muhaini%NULL%1,         Fahad%Al-Ghimlas%NULL%1,         Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,         Samuel L%Bruce%NULL%2,         Cody L%Slater%NULL%2,         Jonathan R%Tiao%NULL%2,         Matthew R%Baldwin%NULL%3,         R Graham%Barr%NULL%2,         Bernard P%Chang%NULL%2,         Katherine H%Chau%NULL%2,         Justin J%Choi%NULL%2,         Nicholas%Gavin%NULL%2,         Parag%Goyal%NULL%2,         Angela M%Mills%NULL%2,         Ashmi A%Patel%NULL%2,         Marie-Laure S%Romney%NULL%2,         Monika M%Safford%NULL%2,         Neil W%Schluger%NULL%2,         Soumitra%Sengupta%NULL%2,         Magdalena E%Sobieszczyk%NULL%2,         Jason E%Zucker%NULL%2,         Paul A%Asadourian%NULL%2,         Fletcher M%Bell%NULL%2,         Rebekah%Boyd%NULL%2,         Matthew F%Cohen%NULL%2,         MacAlistair I%Colquhoun%NULL%2,         Lucy A%Colville%NULL%2,         Joseph H%de Jonge%NULL%2,         Lyle B%Dershowitz%NULL%2,         Shirin A%Dey%NULL%2,         Katherine A%Eiseman%NULL%2,         Zachary P%Girvin%NULL%2,         Daniella T%Goni%NULL%2,         Amro A%Harb%NULL%2,         Nicholas%Herzik%NULL%2,         Sarah%Householder%NULL%2,         Lara E%Karaaslan%NULL%2,         Heather%Lee%NULL%2,         Evan%Lieberman%NULL%2,         Andrew%Ling%NULL%2,         Ree%Lu%NULL%2,         Arthur Y%Shou%NULL%2,         Alexander C%Sisti%NULL%2,         Zachary E%Snow%NULL%2,         Colin P%Sperring%NULL%2,         Yuqing%Xiong%NULL%2,         Henry W%Zhou%NULL%2,         Karthik%Natarajan%NULL%2,         George%Hripcsak%NULL%2,         Ruijun%Chen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,         Mark%Caridi-Scheible%NULL%4,         James M.%Blum%NULL%3,         Chad%Robichaux%NULL%3,         Colleen%Kraft%NULL%3,         Jesse T.%Jacob%NULL%3,         Craig S.%Jabaley%NULL%3,         David%Carpenter%NULL%3,         Roberta%Kaplow%NULL%3,         Alfonso C.%Hernandez-Romieu%NULL%3,         Max W.%Adelman%NULL%3,         Greg S.%Martin%NULL%3,         Craig M.%Coopersmith%NULL%3,         David J.%Murphy%NULL%3,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Berenguer%NULL%1,         Pablo%Ryan%NULL%2,         Jesús%Rodríguez-Baño%NULL%1,         Inmaculada%Jarrín%NULL%4,         Jordi%Carratalà%NULL%4,         Jerónimo%Pachón%NULL%2,         María%Yllescas%NULL%1,         José Ramón%Arriba%NULL%1,         NULL%NULL%NULL%0,         Esther%Aznar Muñoz%NULL%1,         Pedro%Gil Divasson%NULL%1,         Patricia%González Muñiz%NULL%1,         Clara%Muñoz Aguirre%NULL%1,         Juan Carlos%López%NULL%3,         Juan Carlos%López%NULL%0,         Juan Carlos%López%NULL%0,         Margarita%Ramírez-Schacke%NULL%1,         Isabel%Gutiérrez%NULL%1,         Francisco%Tejerina%NULL%1,         Teresa%Aldámiz-Echevarría%NULL%1,         Cristina%Díez%NULL%1,         Chiara%Fanciulli%NULL%1,         Leire%Pérez-Latorre%NULL%1,         Francisco%Parras%NULL%1,         Pilar%Catalán%NULL%1,         María E.%García-Leoni%NULL%1,         Isabel%Pérez-Tamayo%NULL%1,         Luis%Puente%NULL%1,         Jamil%Cedeño%NULL%1,         Juan%Berenguer%NULL%1,         Marta%Díaz Menéndez%NULL%3,         Marta%Díaz Menéndez%NULL%0,         Marta%Díaz Menéndez%NULL%0,         Fernando%de la Calle Prieto%NULL%1,         Marta%Arsuaga Vicente%NULL%1,         Elena%Trigo Esteban%NULL%1,         Mª del Mar%Lago Núñez%NULL%1,         Rosa%de Miguel Buckley%NULL%1,         Julen%Cadiñaños Loidi%NULL%1,         Carmen%Busca Arenzana%NULL%1,         Alfredo%Mican%NULL%1,         Marta%Mora Rillo%NULL%1,         Juan Carlos%Ramos Ramos%NULL%1,         Belén%Loeches Yagüe%NULL%1,         José Ignacio%Bernardino de la Serna%NULL%1,         Julio%García Rodríguez%NULL%1,         José Ramón%Arribas López%NULL%1,         Ana%Such Diaz%NULL%3,         Ana%Such Diaz%NULL%0,         Ana%Such Diaz%NULL%0,         Elena%Álvaro Alonso%NULL%1,         Elsa%Izquierdo García%NULL%1,         Juan%Torres Macho%NULL%1,         Guillermo%Cuevas Tascon%NULL%1,         Jesús%Troya García%NULL%1,         Beatriz%Mestre Gómez%NULL%1,         Eva%Jiménez González de Buitrago%NULL%1,         Inés%Fernández Jiménez%NULL%1,         Ana Josefa%Tebar Martínez%NULL%1,         Fátima%Brañas Baztán%NULL%1,         Jorge%Valencia de la Rosa%NULL%1,         Mario%Pérez Butragueño%NULL%1,         Marta%Alvarado Blasco%NULL%1,         Pablo%Ryan%NULL%0,         Mª Antonia%Sepúlveda Berrocal%NULL%3,         Mª Antonia%Sepúlveda Berrocal%NULL%0,         Mª Antonia%Sepúlveda Berrocal%NULL%0,         Carmen%Yera Bergua%NULL%1,         Pilar%Toledano Sierra%NULL%1,         Verónica%Cano Llorente%NULL%1,         Sadaf%Zafar Iqubal-Mirza%NULL%1,         Gema%Muñiz%NULL%1,         Inmaculada%Martín Pérez%NULL%1,         Helena%Mozas Moriñigo%NULL%1,         Ana%Alguacil%NULL%1,         María Paz%García Butenegro%NULL%1,         Ana Isabel%Peláez Ballesta%NULL%3,         Ana Isabel%Peláez Ballesta%NULL%0,         Ana Isabel%Peláez Ballesta%NULL%0,         Elena%Morcillo Rodríguez%NULL%1,         Josune%Goikoetxea Agirre%NULL%3,         Josune%Goikoetxea Agirre%NULL%0,         Josune%Goikoetxea Agirre%NULL%0,         María José%Blanco Vidal%NULL%1,         Javier%Nieto Arana%NULL%1,         Mikel%del Álamo Martínez de Lagos%NULL%1,         Isabel A.%Pérez Hernández%NULL%3,         Isabel A.%Pérez Hernández%NULL%0,         Isabel A.%Pérez Hernández%NULL%0,         Inés%Pérez Zapata%NULL%1,         Rafael%Silvariño Fernández%NULL%3,         Rafael%Silvariño Fernández%NULL%0,         Rafael%Silvariño Fernández%NULL%0,         Jon%Ugalde Espiñeira%NULL%1,         Víctor%Asensi Álvarez%NULL%3,         Víctor%Asensi Álvarez%NULL%0,         Víctor%Asensi Álvarez%NULL%0,         Lucia%Suárez Pérez%NULL%1,         Silvia%Suárez Diaz%NULL%1,         Carmen%Yllera Gutiérrez%NULL%1,         Vicente%Boix%NULL%3,         Vicente%Boix%NULL%0,         Vicente%Boix%NULL%0,         Marcos%Díez Martínez%NULL%1,         Melissa%Carreres Candela%NULL%1,         Cristina%Gómez-Ayerbe%NULL%3,         Cristina%Gómez-Ayerbe%NULL%0,         Cristina%Gómez-Ayerbe%NULL%0,         Javier%Sánchez-Lora%NULL%1,         José Luis%Velasco Garrido%NULL%1,         María%López-Jódar%NULL%1,         Jesús%Santos González%NULL%1,         Jesús%Ruiz Aragón%NULL%3,         Jesús%Ruiz Aragón%NULL%0,         Jesús%Ruiz Aragón%NULL%0,         Ianire%Virto Peña%NULL%1,         Vanessa%Alende Castro%NULL%3,         Vanessa%Alende Castro%NULL%0,         Vanessa%Alende Castro%NULL%0,         Ruth%Brea Aparicio%NULL%1,         Sonia%Vega Molpeceres%NULL%3,         Sonia%Vega Molpeceres%NULL%0,         Sonia%Vega Molpeceres%NULL%0,         Estel%Pons Viñas%NULL%1,         Oscar%del Río Pérez%NULL%3,         Oscar%del Río Pérez%NULL%0,         Oscar%del Río Pérez%NULL%0,         Silvia%Valero Rovira%NULL%1,         Judit%Villar-García%NULL%3,         Judit%Villar-García%NULL%0,         Judit%Villar-García%NULL%0,         Joan%Gómez-Junyent%NULL%1,         Hernando%Knobel%NULL%1,         María Cecilia%Cánepa%NULL%1,         Silvia%Castañeda Espinosa%NULL%1,         Luisa%Sorli Redò%NULL%1,         Roberto%Güerri-Fernández%NULL%1,         María%Milagro Montero%NULL%1,         Juan Pablo%Horcajada%NULL%1,         Elisa%García Vázquez%NULL%3,         Elisa%García Vázquez%NULL%0,         Elisa%García Vázquez%NULL%0,         Encarnación%Moral Escudero%NULL%1,         Alicia%Hernández Torres%NULL%1,         Esther%García Almodóvar%NULL%3,         Esther%García Almodóvar%NULL%0,         Esther%García Almodóvar%NULL%0,         Carmen%Sáez Barberá%NULL%3,         Carmen%Sáez Barberá%NULL%0,         Carmen%Sáez Barberá%NULL%0,         Zineb%Karroud%NULL%1,         José%Hernández Quero%NULL%3,         José%Hernández Quero%NULL%0,         José%Hernández Quero%NULL%0,         David%Vinuesa García%NULL%1,         José Luis%García Fogeda%NULL%1,         José Antonio%Peregrina%NULL%1,         María%Novella Mena%NULL%3,         María%Novella Mena%NULL%0,         María%Novella Mena%NULL%0,         Cristina%Hernández Gutiérrez%NULL%1,         José%Sanz Moreno%NULL%1,         Ramón%Pérez Tanoira%NULL%1,         Rodrigo%Sierra Rodríguez%NULL%1,         David%Alonso Menchén%NULL%1,         Aida%Gutiérrez García%NULL%1,         Alberto%Arranz Caso%NULL%1,         Juan%Cuadros González%NULL%1,         Melchor%Álvarez de Mon Soto%NULL%1,         Vicente Ferrer%Díaz de Brito Fernández%NULL%3,         Vicente Ferrer%Díaz de Brito Fernández%NULL%0,         Vicente Ferrer%Díaz de Brito Fernández%NULL%0,         Montserrat%Sanmarti Vilamala%NULL%1,         Aina%Gabarrell Pascuet%NULL%1,         Daniel%Molina Morant%NULL%1,         Sergio%España Cueto%NULL%1,         Jonathan%Cámara Fernández%NULL%1,         Albert%Sabater Gil%NULL%1,         Laura%Muñoz López%NULL%1,         Paula%Sáez Escolano%NULL%3,         Paula%Sáez Escolano%NULL%0,         Paula%Sáez Escolano%NULL%0,         Esperanza%Bejarano Tello%NULL%1,         Marco Antonio%Sempere Alcocer%NULL%3,         Marco Antonio%Sempere Alcocer%NULL%0,         Marco Antonio%Sempere Alcocer%NULL%0,         Salvador%Álvarez Martin%NULL%1,         Ignacio%De los Santos Gil%NULL%3,         Ignacio%De los Santos Gil%NULL%0,         Ignacio%De los Santos Gil%NULL%0,         Lucio%García-Fraile%NULL%1,         Miguel%Sampedro Núñez%NULL%1,         Ana%Barrios Blandino%NULL%1,         Carlos%Rodríguez Franco%NULL%1,         Daniel%Useros Brañas%NULL%1,         Almudena%Villa Martí%NULL%1,         Javier%Oliver Ortega%NULL%1,         Alexia%Costanza Espiño Álvarez%NULL%1,         Jesús%Sanz Sanz%NULL%1,         María%Rexach Fumaña%NULL%3,         María%Rexach Fumaña%NULL%0,         María%Rexach Fumaña%NULL%0,         Ivette%Abascal Cambras%NULL%1,         Ana del Cielo%Pérez Jaén%NULL%1,         Clara%Sala Jofre%NULL%3,         Clara%Sala Jofre%NULL%0,         Clara%Sala Jofre%NULL%0,         Susana%Casas Rodríguez%NULL%1,         Cecilia%Tortajada Alamilla%NULL%3,         Cecilia%Tortajada Alamilla%NULL%0,         Cecilia%Tortajada Alamilla%NULL%0,         Carmina%Oltra%NULL%1,         Mar%Masiá Canuto%NULL%3,         Mar%Masiá Canuto%NULL%0,         Mar%Masiá Canuto%NULL%0,         Félix%Gutiérrez Rodero%NULL%1,         Ana%Ferrer Ribera%NULL%3,         Ana%Ferrer Ribera%NULL%0,         Ana%Ferrer Ribera%NULL%0,         Carlos%Bea Serrano%NULL%1,         Miguel%Pedromingo Kus%NULL%3,         Miguel%Pedromingo Kus%NULL%0,         Miguel%Pedromingo Kus%NULL%0,         María Ángeles%Garcinuño%NULL%1,         Silvana%Fiorante%NULL%1,         Sergio%Pérez Pinto%NULL%1,         Pilar%Hernández Machín%NULL%3,         Pilar%Hernández Machín%NULL%0,         Pilar%Hernández Machín%NULL%0,         Alba%Alastrué Violeta%NULL%1,         María Carmen%Fariñas Álvarez%NULL%3,         María Carmen%Fariñas Álvarez%NULL%0,         María Carmen%Fariñas Álvarez%NULL%0,         Claudia%González Rico%NULL%1,         Francisco%Arnaiz de las Revillas%NULL%1,         Jorge%Calvo%NULL%1,         Mónica%Gozalo%NULL%1,         Francisco%Mora Gómez%NULL%3,         Francisco%Mora Gómez%NULL%0,         Francisco%Mora Gómez%NULL%0,         Ana%Milagro Beamonte%NULL%3,         Ana%Milagro Beamonte%NULL%0,         Ana%Milagro Beamonte%NULL%0,         Miriam%Latorre-Millán%NULL%1,         Antonio%Rezusta López%NULL%1,         Ana%Martínez Sapiña%NULL%1,         Yolanda%Meije%NULL%3,         Yolanda%Meije%NULL%0,         Yolanda%Meije%NULL%0,         Alejandra%Duarte Borges%NULL%1,         Julia%Pareja Coca%NULL%1,         Mercedes%Clemente Presas%NULL%1,         Juan Emilio%Losa García%NULL%3,         Juan Emilio%Losa García%NULL%0,         Juan Emilio%Losa García%NULL%0,         Ana%Vegas Serrano%NULL%1,         M. Teresa%Pérez-Rodríguez%NULL%3,         M. Teresa%Pérez-Rodríguez%NULL%0,         M. Teresa%Pérez-Rodríguez%NULL%0,         Alexandre%Pérez González%NULL%1,         Moncef%Belhassen-García%NULL%3,         Moncef%Belhassen-García%NULL%0,         Moncef%Belhassen-García%NULL%0,         Beatriz%Rodríguez-Alonso%NULL%1,         Amparo%López-Bernus%NULL%1,         Cristina%Carbonell%NULL%1,         Rafael%Torres Perea%NULL%3,         Rafael%Torres Perea%NULL%0,         Rafael%Torres Perea%NULL%0,         Juan%Cantón de Seoane%NULL%1,         Blanca%Alonso%NULL%1,         Sara Lidia%Kamal%NULL%1,         Lucia%Cajuela%NULL%1,         David%Roa%NULL%1,         Miguel%Cervero%NULL%1,         Alberto%Oreja%NULL%1,         Juan Pablo%Avilés%NULL%1,         Lidia%Martín%NULL%1,         Iván%Pelegrín Senent%NULL%3,         Iván%Pelegrín Senent%NULL%0,         Iván%Pelegrín Senent%NULL%0,         Rosana%Rouco Esteves Marques%NULL%1,         Jorge%Parra Ruiz%NULL%3,         Jorge%Parra Ruiz%NULL%0,         Jorge%Parra Ruiz%NULL%0,         Violeta%Ramos Sesma%NULL%1,         Jessica%Abadia Otero%NULL%3,         Jessica%Abadia Otero%NULL%0,         Jessica%Abadia Otero%NULL%0,         Juan%Salillas Hernando%NULL%3,         Juan%Salillas Hernando%NULL%0,         Juan%Salillas Hernando%NULL%0,         Robert%Torres Sánchez del Arco%NULL%1,         Miguel%Torralba González de Suso%NULL%1,         Alberto%Serrano Martínez%NULL%1,         Sergio%Gilaberte Reyzábal%NULL%1,         Marina%Pacheco Martínez-Atienza%NULL%1,         Mónica%Liébana Gómez%NULL%1,         Sara%Fernández Rodríguez%NULL%1,         Álvaro%Varela Plaza%NULL%1,         Henar%Calvo Sánchez%NULL%1,         Patricia%Martínez Martín%NULL%3,         Patricia%Martínez Martín%NULL%0,         Patricia%Martínez Martín%NULL%0,         Patricia%González- Ruano%NULL%1,         Eduardo%Malmierca Corral%NULL%1,         Isabel%Rábago Lorite%NULL%1,         Beatriz%Pérez-Monte Mínguez%NULL%1,         Ángeles%García Flores%NULL%3,         Ángeles%García Flores%NULL%0,         Ángeles%García Flores%NULL%0,         Pere%Comas Casanova%NULL%1,         Merce%Sirisi%NULL%3,         Merce%Sirisi%NULL%0,         Merce%Sirisi%NULL%0,         Richard%Rojas%NULL%1,         José Luis%Díaz de Tuesta del Arco%NULL%3,         José Luis%Díaz de Tuesta del Arco%NULL%0,         José Luis%Díaz de Tuesta del Arco%NULL%0,         Ruth%Figueroa Cerón%NULL%1,         Ander%González Sarria%NULL%1,         Remedios%Alemán Valls%NULL%3,         Remedios%Alemán Valls%NULL%0,         Remedios%Alemán Valls%NULL%0,         María del Mar%Alonso Socas%NULL%1,         Oscar%Sanz Peláez%NULL%3,         Oscar%Sanz Peláez%NULL%0,         Oscar%Sanz Peláez%NULL%0,         Karim%Mohamed Ramírez%NULL%1,         Melchor%Riera Jaume%NULL%3,         Melchor%Riera Jaume%NULL%0,         Melchor%Riera Jaume%NULL%0,         Helem Haydee%Vilchez%NULL%1,         Francesc%Albertí%NULL%1,         Ana Isabel%Cañabate%NULL%1,         Víctor J.%Moreno Cuerda%NULL%3,         Víctor J.%Moreno Cuerda%NULL%0,         Víctor J.%Moreno Cuerda%NULL%0,         Silvia%Álvarez Kaelis%NULL%1,         Beatriz%Álvarez Zapatero%NULL%1,         Alejandro%García García%NULL%1,         Elena%Isaba Ares%NULL%1,         Covadonga%Morcate Fernández%NULL%1,         Andrea%Pérez Rodríguez%NULL%1,         Lucía%Ramos Merino%NULL%3,         Lucía%Ramos Merino%NULL%0,         Lucía%Ramos Merino%NULL%0,         Laura%Castelo Corral%NULL%1,         María%Rodríguez Mahía%NULL%1,         Mónica%González Bardanca%NULL%1,         Efrén%Sánchez Vidal%NULL%1,         Enrique%Míguez Rey%NULL%1,         Javier%De la Torre Lima%NULL%3,         Javier%De la Torre Lima%NULL%0,         Javier%De la Torre Lima%NULL%0,         José Mª%García de Lomas Guerrero%NULL%1,         Elena%Morte%NULL%3,         Elena%Morte%NULL%0,         Elena%Morte%NULL%0,         Silvia%Loscos%NULL%1,         Ana%Camón%NULL%1,         Lucía%Gómez García%NULL%3,         Lucía%Gómez García%NULL%0,         Lucía%Gómez García%NULL%0,         Lucia%Boix Palop%NULL%1,         Beatriz%Dietl Gómez-Luengo%NULL%1,         Iris%Pedrola Gorrea%NULL%3,         Iris%Pedrola Gorrea%NULL%0,         Iris%Pedrola Gorrea%NULL%0,         Amparo%Blasco Claramunt%NULL%1,         Cristina%López Mestanza%NULL%3,         Cristina%López Mestanza%NULL%0,         Cristina%López Mestanza%NULL%0,         Esther%Fraile Villarejo%NULL%1,         Tomás%Tosco Núñez%NULL%3,         Tomás%Tosco Núñez%NULL%0,         Tomás%Tosco Núñez%NULL%0,         María%Aroca Ferri%NULL%1,         José Tomas%Algado Rabasa%NULL%3,         José Tomas%Algado Rabasa%NULL%0,         José Tomas%Algado Rabasa%NULL%0,         Ana María%Garijo Saiz%NULL%1,         Concepción%Amador Prous%NULL%1,         Jesús Rodriguez%Baño%NULL%3,         Jesús Rodriguez%Baño%NULL%0,         Jesús Rodriguez%Baño%NULL%0,         Pilar%Retamar%NULL%1,         Adoración%Valiente%NULL%1,         Luis E.%López-Cortés%NULL%1,         Jesús%Sojo%NULL%1,         Belén%Gutiérrez-Gutiérrez%NULL%1,         José%Bravo-Ferrer%NULL%1,         Elena%Salamanca%NULL%1,         Zaira R.%Palacios%NULL%1,         Patricia%Pérez-Palacios%NULL%1,         Enrique%Peral%NULL%1,         José Antonio%Pérez de León%NULL%1,         Jesús%Sánchez-Gómez%NULL%1,         Lucía%Marín-Barrera%NULL%1,         Domingo%García-Jiménez%NULL%1,         Jordi%Carratalà%NULL%0,         Jordi%Carratalà%NULL%0,         Jordi%Carratalà%NULL%0,         Gabriela%Abelenda-Alonso%NULL%1,         Carmen%Ardanuy%NULL%1,         Alba%Bergas%NULL%1,         Guillermo%Cuervo%NULL%1,         María Ángeles%Domínguez%NULL%1,         Miguel%Fernández-Huerta%NULL%1,         Carlota%Gudiol%NULL%1,         Laia%Lorenzo-Esteller%NULL%1,         Jordi%Niubó%NULL%1,         Sandra%Pérez-Recio%NULL%1,         Daniel%Podzamczer%NULL%1,         Miquel%Pujol%NULL%1,         Alexander%Rombauts%NULL%1,         Núria%Trullen%NULL%1,         Miguel%Salavert Lletí%NULL%3,         Miguel%Salavert Lletí%NULL%0,         Miguel%Salavert Lletí%NULL%0,         Iván%Castro Hernández%NULL%1,         Adriana%Hernández Belmonte%NULL%3,         Adriana%Hernández Belmonte%NULL%0,         Adriana%Hernández Belmonte%NULL%0,         Raquel%Martínez Goñi%NULL%1,         Marta%Navarro Vilasaró%NULL%3,         Marta%Navarro Vilasaró%NULL%0,         Marta%Navarro Vilasaró%NULL%0,         Sonia%Calzado Isbert%NULL%1,         Manuel%Cervantes García%NULL%1,         Aina%Gomila Grange%NULL%1,         Oriol%Gasch Blasi%NULL%1,         María Luisa%Machado Sicilia%NULL%1,         Eva%Van den Eynde Otero%NULL%1,         Luis%Falgueras López%NULL%1,         María del Carmen%Navarro Sáez%NULL%1,         Esteban%Martínez%NULL%3,         Esteban%Martínez%NULL%0,         Esteban%Martínez%NULL%0,         Mª Ángeles%Marcos%NULL%1,         Mar%Mosquera%NULL%1,         José Luis%Blanco%NULL%1,         Montserrat%Laguno%NULL%1,         Jhon%Rojas%NULL%1,         Ana%González-Cordón%NULL%1,         Alexy%Inciarte%NULL%1,         Berta%Torres%NULL%1,         Lorena%De la Mora%NULL%1,         Alex%Soriano%NULL%1,         Olalla%Martínez Macias%NULL%3,         Olalla%Martínez Macias%NULL%0,         Olalla%Martínez Macias%NULL%0,         Virginia%Pérez Doñate%NULL%1,         Alfonso%Cabello Úbeda%NULL%3,         Alfonso%Cabello Úbeda%NULL%0,         Alfonso%Cabello Úbeda%NULL%0,         Nerea%Carrasco Antón%NULL%1,         Beatriz%Álvarez Álvarez%NULL%1,         Elizabet%Petkova Saiz%NULL%1,         Miguel%Górgolas Hernández-Mora%NULL%1,         Laura%Prieto Pérez%NULL%1,         Irene%Carrillo Acosta%NULL%1,         Sara%Heili Frades%NULL%1,         Felipe%Villar Álvarez%NULL%1,         Ricardo%Fernández Roblas%NULL%1,         José María%Milicua Muñoz%NULL%1,         Virginia%Fernández Espinilla%NULL%3,         Virginia%Fernández Espinilla%NULL%0,         Virginia%Fernández Espinilla%NULL%0,         Carlos Jesús%Dueñas Gutiérrez%NULL%1,         Cristina%Hernán García%NULL%1,         Fernando%González-Romo%NULL%3,         Fernando%González-Romo%NULL%0,         Fernando%González-Romo%NULL%0,         Paloma%Merino Amador%NULL%1,         Alba%Rueda López%NULL%1,         Jorge%Martínez Jordán%NULL%1,         Sara%Medrano Pardo%NULL%1,         Irene%Díaz de la Torre%NULL%1,         Yolanda%Posada Franco%NULL%1,         Alberto%Delgado-Iribarren%NULL%1,         Joaquín%López-Contreras González%NULL%3,         Joaquín%López-Contreras González%NULL%0,         Joaquín%López-Contreras González%NULL%0,         Pablo%Pascual Alonso%NULL%1,         Virginia%Pomar Solchaga%NULL%1,         Nuria%Rabella García%NULL%1,         Natividad%Benito Hernández%NULL%1,         Pere%Domingo Pedrol%NULL%1,         Xavier%Bonfill Cosp%NULL%1,         Rafael%Padrós Selma%NULL%1,         Mireia%Puig Campmany%NULL%1,         Jordi%Mancebo Cortés%NULL%1,         Mercè%Gurguí Ferrer%NULL%1,         Melania%Íñigo Pestaña%NULL%3,         Melania%Íñigo Pestaña%NULL%0,         Melania%Íñigo Pestaña%NULL%0,         Alejandra%Pérez García%NULL%1,         Patricia%Sorní Moreno%NULL%3,         Patricia%Sorní Moreno%NULL%0,         Patricia%Sorní Moreno%NULL%0,         Nora%Izko Gartzia%NULL%1,         Francisco Javier%Membrillo de Novales%NULL%3,         Francisco Javier%Membrillo de Novales%NULL%0,         Francisco Javier%Membrillo de Novales%NULL%0,         María%Simón Sacristán%NULL%1,         Maribel%Zamora Cintas%NULL%1,         Yolanda%Martínez Martínez%NULL%1,         Pablo%Fernández-González%NULL%1,         Francisco%Alcántara Nicolás%NULL%1,         Alejandro%Aguirre Vila-Cora%NULL%1,         Elena%López Tizón%NULL%1,         Germán%Ramírez-Olivencia%NULL%1,         Miriam%Estébanez Muñoz%NULL%1,         Ester%Sáez de Adana Arróniz%NULL%3,         Ester%Sáez de Adana Arróniz%NULL%0,         Ester%Sáez de Adana Arróniz%NULL%0,         Joseba%Portu Zapirain%NULL%1,         Juan Carlos%Gainzarain Arana%NULL%1,         Zuriñe%Ortiz de Zárate Ibarra%NULL%1,         Miguel Ángel%Moran Rodríguez%NULL%1,         Andrés%Canut Blasco%NULL%1,         Silvia%Hernáez Crespo%NULL%1,         Leire%Balerdi Sarasola%NULL%1,         Cristina%Morales García%NULL%1,         Miguel%Corral Saracho%NULL%1,         Zeltia%Valcarce González%NULL%1,         Noelia%Arenal Andrés%NULL%3,         Noelia%Arenal Andrés%NULL%0,         Noelia%Arenal Andrés%NULL%0,         Raquel Elisa%Rodríguez Tarazona%NULL%1,         Laura%Iglesias Llorente%NULL%3,         Laura%Iglesias Llorente%NULL%0,         Laura%Iglesias Llorente%NULL%0,         Beatriz%Loureiro Rodríguez%NULL%1,         Adrián%Sánchez Montalvá%NULL%3,         Adrián%Sánchez Montalvá%NULL%0,         Adrián%Sánchez Montalvá%NULL%0,         Juan%Espinosa Pereiro%NULL%1,         Benito%Almirante%NULL%1,         Marta%Miarons%NULL%1,         Júlia%Sellarés%NULL%1,         María%Larrosa%NULL%1,         Sonia%García%NULL%1,         Blanca%Marzo%NULL%1,         Miguel%Villamarín%NULL%1,         Nuria%Fernández%NULL%1,         Conchita%Pérez-Jorge Peremarch%NULL%3,         Conchita%Pérez-Jorge Peremarch%NULL%0,         Conchita%Pérez-Jorge Peremarch%NULL%0,         Elena%Resino Foz%NULL%1,         Andrea%Espigares Correa%NULL%1,         Teresa%Álvarez de Espejo Montiel%NULL%1,         Iván%Navas Clemente%NULL%1,         María Isabel%Quijano Contreras%NULL%1,         Luis Alberto%Nieto Fernández del Campo%NULL%1,         Guillermo%Jiménez Álvarez%NULL%1,         Mercedes%Guillamón Sánchez%NULL%3,         Mercedes%Guillamón Sánchez%NULL%0,         Mercedes%Guillamón Sánchez%NULL%0,         Josefina%García García%NULL%1,         Constanza%Muñoz Hornero%NULL%3,         Constanza%Muñoz Hornero%NULL%0,         Constanza%Muñoz Hornero%NULL%0,         Ana%Mariño Callejo%NULL%3,         Ana%Mariño Callejo%NULL%0,         Ana%Mariño Callejo%NULL%0,         Nieves%Valcarce Pardeiro%NULL%1,         Alex%Smithson Amat%NULL%3,         Alex%Smithson Amat%NULL%0,         Alex%Smithson Amat%NULL%0,         Cristina%Chico Chumillas%NULL%1,         Adriana%Sánchez Serrano%NULL%3,         Adriana%Sánchez Serrano%NULL%0,         Adriana%Sánchez Serrano%NULL%0,         Eva Pilar%García Villalba%NULL%1,         Isabel%Jiménez Martínez%NULL%3,         Isabel%Jiménez Martínez%NULL%0,         Isabel%Jiménez Martínez%NULL%0,         Guillermo%Estrada Fernández%NULL%1,         María%Lorén Vargas%NULL%1,         Nuria%Parra Arribas%NULL%1,         Carmen%Martínez Cilleros%NULL%1,         Aránzazu%Villasante de la Puente%NULL%1,         Teresa%García Delange%NULL%1,         María José%Ruiz Rodríguez%NULL%1,         Marta%Robledo del Prado%NULL%1,         Juan Carlos%Abad Almendro%NULL%1,         José Román%Muñoz del Rey%NULL%3,         José Román%Muñoz del Rey%NULL%0,         José Román%Muñoz del Rey%NULL%0,         Montaña%Jiménez Álvaro%NULL%1,         Javier%Coy Coy%NULL%3,         Javier%Coy Coy%NULL%0,         Javier%Coy Coy%NULL%0,         Inmaculada%Poquet Catala%NULL%1,         Marta%Santos Peña%NULL%3,         Marta%Santos Peña%NULL%0,         Marta%Santos Peña%NULL%0,         Virginia%Naranjo Velasco%NULL%1,         Tamara%Manso Gómez%NULL%3,         Tamara%Manso Gómez%NULL%0,         Tamara%Manso Gómez%NULL%0,         Delia%Quilez Ágreda%NULL%1,         Gema%Barbeito Castiñeiras%NULL%3,         Gema%Barbeito Castiñeiras%NULL%0,         Gema%Barbeito Castiñeiras%NULL%0,         María Jesús%Domínguez Santalla%NULL%1,         Laura%Mao Martín%NULL%3,         Laura%Mao Martín%NULL%0,         Laura%Mao Martín%NULL%0,         Rodrigo%Alonso Navarro%NULL%1,         Jose David%Ampuero Martinich%NULL%1,         Raquel%Barrós González%NULL%1,         María Aránzazu%Galindo Martín%NULL%1,         Lourdes%Herrera Pacheco%NULL%1,         Rocío%Martínez Avilés%NULL%1,         Sara%Rodrigo González%NULL%1,         Cristóbal Manuel%Rodríguez Leal%NULL%1,         Eva María%Romay Lema%NULL%3,         Eva María%Romay Lema%NULL%0,         Eva María%Romay Lema%NULL%0,         Roi%Suárez Gil%NULL%1,         Maialen%Ibarguren Pinilla%NULL%3,         Maialen%Ibarguren Pinilla%NULL%0,         Maialen%Ibarguren Pinilla%NULL%0,         José María%Marimón Ortiz de Zárate%NULL%1,         Loreto%Vidaur Tello%NULL%1,         Xabier%Kortajarena Urkola%NULL%1,         Miriam%García Gómez%NULL%3,         Miriam%García Gómez%NULL%0,         Miriam%García Gómez%NULL%0,         Asier%Aranguren Arostegui%NULL%1,         Maria%Álvarez de Castro%NULL%3,         Maria%Álvarez de Castro%NULL%0,         Maria%Álvarez de Castro%NULL%0,         Cintia María%Martínez Mateu%NULL%1,         Francisco%Rodríguez Gómez%NULL%3,         Francisco%Rodríguez Gómez%NULL%0,         Francisco%Rodríguez Gómez%NULL%0,         Francisco%Muñoz Beamud%NULL%1,         Elena%Chamarro Martí%NULL%3,         Elena%Chamarro Martí%NULL%0,         Elena%Chamarro Martí%NULL%0,         Merce%Cardona Rivera%NULL%1,         Ismail%Zakariya-Yousef Breval%NULL%3,         Ismail%Zakariya-Yousef Breval%NULL%0,         Ismail%Zakariya-Yousef Breval%NULL%0,         Marta%Rico Rodríguez%NULL%1,         Jara%Llenas García%NULL%3,         Jara%Llenas García%NULL%0,         Jara%Llenas García%NULL%0,         Mª Carmen%Sánchez Arenas%NULL%1,         Ana%Fernández Cruz%NULL%3,         Ana%Fernández Cruz%NULL%0,         Ana%Fernández Cruz%NULL%0,         Jorge%Calderón Parra%NULL%1,         Marcos%López Dosil%NULL%1,         Antonio%Ramos Martínez%NULL%1,         Elena%Múñez Rubio%NULL%1,         Alejandro%Callejas Díaz%NULL%1,         José Manuel%Vázquez Comendador%NULL%1,         Itziar%Diego Yagüe%NULL%1,         Esther%Expósito Palomo%NULL%1,         Jorge%Anel Pedroche%NULL%1,         Raquel%Álvarez Franco%NULL%3,         Raquel%Álvarez Franco%NULL%0,         Raquel%Álvarez Franco%NULL%0,         Lucía%Fernández de Orueta%NULL%1,         Roberto%Vates Gómez%NULL%1,         Andrés Felipe%Cardona Arias%NULL%1,         Pablo%Marguenda Contreras%NULL%1,         Gabriel%Gaspar Alonso-Vega%NULL%1,         Elena María%Aranda Rife%NULL%1,         Blanca%Martínez Cifre%NULL%1,         Daniel%Roger Zapata%NULL%1,         Irene%Martín Rubio%NULL%1,         André%Barbosa Ventura%NULL%3,         André%Barbosa Ventura%NULL%0,         André%Barbosa Ventura%NULL%0,         Iván%Piñero%NULL%1,         Alberto%Bahamonde Carrasco%NULL%3,         Alberto%Bahamonde Carrasco%NULL%0,         Alberto%Bahamonde Carrasco%NULL%0,         Paula%Runza Buznego%NULL%1,         Eva%Talavera García%NULL%3,         Eva%Talavera García%NULL%0,         Eva%Talavera García%NULL%0,         Marta%Lamata Subero%NULL%1,         Ainhoa%Urrutia Losada%NULL%3,         Ainhoa%Urrutia Losada%NULL%0,         Ainhoa%Urrutia Losada%NULL%0,         Lorea%Arteche Eguizabal%NULL%1,         Elisabet%Delgado Sánchez%NULL%3,         Elisabet%Delgado Sánchez%NULL%0,         Elisabet%Delgado Sánchez%NULL%0,         Virginia%Molina Peinado%NULL%1,         Sarah%Caro Bragado%NULL%3,         Sarah%Caro Bragado%NULL%0,         Sarah%Caro Bragado%NULL%0,         Gema%Domínguez de Pablos%NULL%1,         Carolina%Roldán Fontana%NULL%3,         Carolina%Roldán Fontana%NULL%0,         Carolina%Roldán Fontana%NULL%0,         Carmen%Herrero Rodríguez%NULL%1,         Luis%Force Sanmartín%NULL%3,         Luis%Force Sanmartín%NULL%0,         Luis%Force Sanmartín%NULL%0,         Raquel%Aranega%NULL%1,         Arantzazu%Mera Fidalgo%NULL%3,         Arantzazu%Mera Fidalgo%NULL%0,         Arantzazu%Mera Fidalgo%NULL%0,         María Roca%Toda Savall%NULL%1,         Nicolas%Merchante Gutiérrez%NULL%3,         Nicolas%Merchante Gutiérrez%NULL%0,         Nicolas%Merchante Gutiérrez%NULL%0,         Eva María%León Jiménez%NULL%1,         José Luís%Del Pozo%NULL%3,         José Luís%Del Pozo%NULL%0,         José Luís%Del Pozo%NULL%0,         Josefa%Serralta Buades%NULL%3,         Josefa%Serralta Buades%NULL%0,         Josefa%Serralta Buades%NULL%0,         Ginger Giorgiana%Cabrera Tejada%NULL%1,         Mario%Fernández-Ruiz%NULL%3,         Mario%Fernández-Ruiz%NULL%0,         Mario%Fernández-Ruiz%NULL%0,         José María%Aguado%NULL%1,         Guillermo%Maestro de la Calle%NULL%1,         José Miguel%Cisneros%NULL%3,         José Miguel%Cisneros%NULL%0,         José Miguel%Cisneros%NULL%0,         Jerónimo%Pachón%NULL%0,         Manuela%Aguilar-Guisado%NULL%1,         Teresa%Aldabó%NULL%1,         María Dolores%Avilés%NULL%1,         Claudio%Bueno%NULL%1,         Elisa%Cordero-Matía%NULL%1,         Ana%Escoresca%NULL%1,         Lydia%Gálvez-Benítez%NULL%1,         Carmen%Infante%NULL%1,         Guillermo%Martín%NULL%1,         Julia%Praena%NULL%1,         Cristina%Roca%NULL%1,         Celia%Salamanca%NULL%1,         Alejandro%Suárez-Benjumea%NULL%1,         Pilar%Vizcarra%NULL%3,         Pilar%Vizcarra%NULL%0,         Pilar%Vizcarra%NULL%0,         Carmen%Quereda%NULL%1,         Mario José%Rodriguez Dominguez%NULL%1,         Francesca%Gioia%NULL%1,         Francesca%Norman%NULL%1,         Santos%Del Campo%NULL%1,         Rafael%Cantón Moreno%NULL%1,         Antonio%Oteo Revuelta José%NULL%3,         Antonio%Oteo Revuelta José%NULL%0,         Antonio%Oteo Revuelta José%NULL%0,         Paula%Santibáñez Sáenz%NULL%1,         Cristina%Cervera Acedo%NULL%1,         Carlos%Ruiz Martínez%NULL%1,         José R.%Blanco Ramos%NULL%1,         José M.%Azcona Gutiérrez%NULL%1,         Concepción%García García%NULL%1,         Jorge%Alba Fernández%NULL%1,         Valvanera%Ibarra Cucalón%NULL%1,         Mercedes%San Franco%NULL%1,         Luis%Metola Sacristán%NULL%1,         Héctor%Meijide Míguez%NULL%3,         Héctor%Meijide Míguez%NULL%0,         Héctor%Meijide Míguez%NULL%0,         Silvia%Paulos Viñas%NULL%1,         Justo%Menéndez%NULL%3,         Justo%Menéndez%NULL%0,         Justo%Menéndez%NULL%0,         Paula%Villares Fernández%NULL%1,         Lara%Montes Andújar%NULL%1,         Álvaro%Navarro Batet%NULL%3,         Álvaro%Navarro Batet%NULL%0,         Álvaro%Navarro Batet%NULL%0,         Anna%Ferrer Santolaria%NULL%1,         María de la Luz%Padilla Salazar%NULL%3,         María de la Luz%Padilla Salazar%NULL%0,         María de la Luz%Padilla Salazar%NULL%0,         Lucy%Abella Vázquez%NULL%1,         Marcelino%Hayek Peraza%NULL%1,         Antonio%García Pardo%NULL%1,         Carolina%Hernández Carballo%NULL%1,         Andrés Javier%Ruiz Fernández%NULL%3,         Andrés Javier%Ruiz Fernández%NULL%0,         Andrés Javier%Ruiz Fernández%NULL%0,         Isabel%Barrio López%NULL%1,         Alí%Martakoush%NULL%3,         Alí%Martakoush%NULL%0,         Alí%Martakoush%NULL%0,         Agustín%Rojas-Vieyra%NULL%3,         Agustín%Rojas-Vieyra%NULL%0,         Agustín%Rojas-Vieyra%NULL%0,         Sonia%García Calvo%NULL%3,         Sonia%García Calvo%NULL%0,         Sonia%García Calvo%NULL%0,         Mercedes%Villarreal García-Lomas%NULL%1,         Marta%Vizcaíno Callejón%NULL%3,         Marta%Vizcaíno Callejón%NULL%0,         Marta%Vizcaíno Callejón%NULL%0,         María Pilar%García García%NULL%1,         Ana%Lérida Urteaga%NULL%3,         Ana%Lérida Urteaga%NULL%0,         Ana%Lérida Urteaga%NULL%0,         Natalia%Carrasco Fons%NULL%1,         Beatriz%María Sanjuan%NULL%1,         Lydia%Martín González%NULL%1,         Camilo%Sanz Zamudio%NULL%1,         Inmaculada%Jarrín%NULL%0,         Inmaculada%Jarrín%NULL%0,         Inmaculada%Jarrín%NULL%0,         Belén%Alejos%NULL%1,         Cristina%Moreno%NULL%1,         Marta%Rava%NULL%1,         Carlos%Iniesta%NULL%1,         Rebeca%Izquierdo%NULL%1,         Inés%Suárez-García%NULL%1,         Asunción%Díaz%NULL%1,         Marta%Ruiz-Alguero%NULL%1,         Victoria%Hernando%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,         Denise J%McCulloch%NULL%4,         Denise J%McCulloch%NULL%0,         Vidya%Atluri%NULL%2,         Michela%Blain%NULL%2,         Sarah A%McGuffin%NULL%2,         Arun K%Nalla%NULL%2,         Meei-Li%Huang%NULL%2,         Alex L%Greninger%NULL%2,         Keith R%Jerome%NULL%2,         Seth A%Cohen%NULL%2,         Santiago%Neme%NULL%2,         Margaret L%Green%NULL%2,         Helen Y%Chu%NULL%2,         H Nina%Kim%NULL%2]</t>
+  </si>
+  <si>
+    <t>"Obesity and COVID-19 Severity in a Designated Hospital in Shenzhen, China"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n                  OBJECTIVE\n                  Patients with obesity are at increased risk of exacerbations from viral respiratory infections.
+ However, the association of obesity with the severity of coronavirus disease 2019 (COVID-19) is unclear.
+ We examined this association using data from the only referral hospital in Shenzhen, China.
+\n               \n               \n                  RESEARCH DESIGN AND METHODS\n                  A total of 383 consecutively hospitalized patients with COVID-19 admitted from 11 January 2020 to 16 February 2020 and followed until 26 March 2020 at the Third People\u2019s Hospital of Shenzhen were included.
+ Underweight was defined as a BMI &amp;amp;lt;18.5 kg\/m2, normal weight as 18.5\u201323.9 kg\/m2, overweight as 24.0\u201327.9 kg\/m2, and obesity as \u226528 kg\/m2.\n               \n               \n                  RESULTS\n                  Of the 383 patients, 53.1% were normal weight, 4.2% were underweight, 32.0% were overweight, and 10.7% were obese at admission.
+ Obese patients tended to have symptoms of cough (P = 0.03) and fever (P = 0.06) compared with patients who were not obese.
+ Compared with normal weight patients, those who were overweight had 1.84-fold odds of developing severe COVID-19 (odds ratio [OR] 1.84, 95% CI 0.99\u20133.43, P = 0.05), while those who were obese were at 3.40-fold odds of developing severe disease (OR 3.40, 95% CI 1.40\u20132.86, P = 0.007), after adjusting for age, sex, epidemiological characteristics, days from disease onset to hospitalization, presence of hypertension, diabetes, cardiovascular disease, chronic obstructive pulmonary disease, liver disease, and cancer, and drug used for treatment.
+ Additionally, after similar adjustment, men who were obese versus those who were normal weight were at increased odds of developing severe COVID-19 (OR 5.66, 95% CI 1.80\u201317.75, P = 0.003).
+\n               \n               \n                  CONCLUSIONS\n                  In this study, obese patients had increased odds of progressing to severe COVID-19. As the severe acute respiratory syndrome coronavirus 2 may continue to spread worldwide, clinicians should pay close attention to obese patients, who should be carefully managed with prompt and aggressive treatment.
+\n               </t>
+  </si>
+  <si>
+    <t>[Qingxian%Cai%xref no email%1, Fengjuan%Chen%xref no email%1, Tao%Wang%xref no email%0, Fang%Luo%xref no email%1, Xiaohui%Liu%xref no email%1, Qikai%Wu%xref no email%1, Qing%He%xref no email%1, Zhaoqin%Wang%xref no email%1, Yingxia%Liu%xref no email%0, Lei%Liu%xref no email%1, Jun%Chen%xref no email%0, Lin%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-25</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,         Wenlin%Cheng%NULL%0,         Lei%Yu%NULL%0,         Ya-Kun%Liu%NULL%0,         Xiaoyong%Hu%NULL%0,         Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,         Alberto%Zucchelli%NULL%1,         Marinella%Turla%NULL%1,         Maria Sofia%Cotelli%NULL%1,         Sara%Fascendini%NULL%1,         Mara%Zanni%NULL%1,         Angelo%Bianchetti%NULL%1,         Matteo Peli%Psy%NULL%1,         Renzo%Rozzini%NULL%1,         Stefano%Boffelli%NULL%1,         Melania%Cappuccio%NULL%1,         Federica Gottardi%Psy%NULL%1,         Chiara Vecchi%Psy%NULL%1,         Daniele%Bellandi%NULL%1,         Claudia%Caminati%NULL%1,         Simona%Gentile%NULL%1,         Elena Lucchi%Psy%NULL%1,         Ignazio%Di Fazio%NULL%1,         Marina Zanetti%Psy%NULL%1,         Giuliana%Vezzadini%NULL%1,         Chiara Forlani%Psy%NULL%1,         Maura Cosseddu%Psy%NULL%1,         Rosanna Turrone%Psy%NULL%1,         Silvia Pelizzari%Psy%NULL%1,         Andrea%Scalvini%NULL%1,         Marco%Di Cesare%NULL%1,         Marta Grigolo%Psy%NULL%1,         Lina%Falanga%NULL%1,         Nives%Medici%NULL%1,         Nives%Palamini%NULL%1,         Elisa Zanacchi%Psy%NULL%1,         Eleonora Grossi%Psy%NULL%1,         Giuseppe%Bellelli%NULL%1,         Alessandra%Marengoni%NULL%1,         Marco%Trabucchi%NULL%1,         Alessandro%Padovani%alessandro.padovani@unibs.it%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         Nancy%Chow%NULL%3,         Katherine%Fleming-Dutra%NULL%2,         Ryan%Gierke%NULL%3,         Aron%Hall%NULL%3,         Michelle%Hughes%NULL%2,         Tamara%Pilishvili%NULL%3,         Matthew%Ritchey%NULL%3,         Katherine%Roguski%NULL%2,         Tami%Skoff%NULL%2,         Emily%Ussery%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,         Zhencang%Zheng%NULL%2,         Chao%Zhang%NULL%2,         Xijiang%Zhang%NULL%2,         Huijuan%Wu%NULL%2,         Jingdong%Wang%NULL%2,         Shuwei%Wang%NULL%2,         Cheng%Zheng%dr.zhengcheng@foxmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,         Wei%Liu%NULL%0,         Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%0,         Jin%Shang%NULL%0,         Ling%Zhou%NULL%0,         Ke%Wang%NULL%0,         Fan%Leng%NULL%0,         Shuang%Wei%NULL%0,         Lei%Chen%NULL%0,         Hui-Guo%Liu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,         Francesco%Innocenti%NULL%1,         Julien%Beauté%NULL%0,         Veronika%Učakar%NULL%1,         Marta%Grgič Vitek%NULL%1,         Eero%Poukka%NULL%1,         Tuula%Hannila-Handelberg%NULL%1,         Charmaine%Gauci%NULL%1,         Tanya%Melillo%NULL%1,         Theano%Georgakopoulou%NULL%1,         Jiri%Jarkovsky%NULL%1,         Pavel%Slezak%NULL%1,         Concepción%Delgado-Sanz%NULL%1,         Carmen%Olmedo-Lucerón%NULL%1,         Heleene%Suija%NULL%1,         Rasa%Liausediene%NULL%1,         Piaras%O’Lorcain%NULL%1,         Niamh%Murphy%NULL%1,         André%Peralta-Santos%NULL%1,         Pedro%Casaca%NULL%1,         Ioanna%Gregoriou%NULL%1,         Nick%Bundle%NULL%0,         Gianfranco%Spiteri%NULL%1,         Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,         Peiyun%Li%NULL%2,         Liang%Ma%NULL%2,         Hang%Liang%NULL%2,         Jie%Lei%NULL%3,         Wenqiang%Li%NULL%2,         Kun%Wang%NULL%3,         Yu%Song%NULL%2,         Shuai%Li%NULL%2,         Wei%Yang%NULL%2,         Cao%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,         Yun%Ling%NULL%0,         Yun%Ling%NULL%0,         Tao%Bai%NULL%6,         Tao%Bai%NULL%0,         Yusang%Xie%NULL%2,         Jie%Huang%NULL%4,         Jie%Huang%NULL%0,         Jian%Li%NULL%2,         Weining%Xiong%NULL%2,         Dexiang%Yang%NULL%2,         Rong%Chen%NULL%2,         Fangying%Lu%NULL%2,         Yunfei%Lu%NULL%3,         Xuhui%Liu%NULL%2,         Yuqing%Chen%NULL%4,         Yuqing%Chen%NULL%0,         Xin%Li%NULL%3,         Yong%Li%NULL%2,         Hanssa Dwarka%Summah%NULL%2,         Huihuang%Lin%NULL%2,         Jiayang%Yan%NULL%2,         Min%Zhou%NULL%0,         Hongzhou%Lu%NULL%0,         Hongzhou%Lu%NULL%0,         Jieming%Qu%NULL%0,         Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,         Massimiliano%Marino%NULL%1,         Debora%Formisano%NULL%1,         Francesco%Venturelli%NULL%1,         Massimo%Vicentini%NULL%2,         Massimo%Vicentini%NULL%0,         Roberto%Grilli%NULL%1,         NULL%NULL%NULL%0,         Gianluigi%Forloni%NULL%8,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,         Justin J.%Choi%NULL%1,         Laura C.%Pinheiro%NULL%1,         Edward J.%Schenck%NULL%1,         Ruijun%Chen%NULL%0,         Assem%Jabri%NULL%1,         Michael J.%Satlin%NULL%1,         Thomas R.%Campion%NULL%1,         Musarrat%Nahid%NULL%1,         Joanna B.%Ringel%NULL%1,         Katherine L.%Hoffman%NULL%1,         Mark N.%Alshak%NULL%1,         Han A.%Li%NULL%1,         Graham T.%Wehmeyer%NULL%2,         Graham T.%Wehmeyer%NULL%0,         Mangala%Rajan%NULL%1,         Evgeniya%Reshetnyak%NULL%1,         Nathaniel%Hupert%NULL%1,         Evelyn M.%Horn%NULL%1,         Fernando J.%Martinez%NULL%1,         Roy M.%Gulick%NULL%1,         Monika M.%Safford%NULL%2,         Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,         Norio%Ohmagari%NULL%1,         Daniel%Shin%NULL%1,         George%Diaz%NULL%1,         Erika%Asperges%NULL%1,         Antonella%Castagna%NULL%0,         Torsten%Feldt%NULL%1,         Gary%Green%NULL%1,         Margaret L.%Green%NULL%1,         François-Xavier%Lescure%NULL%1,         Emanuele%Nicastri%NULL%0,         Rentaro%Oda%NULL%2,         Rentaro%Oda%NULL%0,         Kikuo%Yo%NULL%2,         Kikuo%Yo%NULL%0,         Eugenia%Quiros-Roldan%NULL%1,         Alex%Studemeister%NULL%1,         John%Redinski%NULL%1,         Seema%Ahmed%NULL%1,         Jorge%Bernett%NULL%1,         Daniel%Chelliah%NULL%1,         Danny%Chen%NULL%1,         Shingo%Chihara%NULL%1,         Stuart H.%Cohen%NULL%1,         Jennifer%Cunningham%NULL%1,         Antonella%D’Arminio Monforte%NULL%1,         Saad%Ismail%NULL%1,         Hideaki%Kato%NULL%1,         Giuseppe%Lapadula%NULL%1,         Erwan%L’Her%NULL%1,         Toshitaka%Maeno%NULL%1,         Sumit%Majumder%NULL%1,         Marco%Massari%NULL%1,         Marta%Mora-Rillo%NULL%1,         Yoshikazu%Mutoh%NULL%1,         Duc%Nguyen%NULL%1,         Ewa%Verweij%NULL%1,         Alexander%Zoufaly%NULL%1,         Anu O.%Osinusi%NULL%1,         Adam%DeZure%NULL%1,         Yang%Zhao%NULL%1,         Lijie%Zhong%NULL%1,         Anand%Chokkalingam%NULL%1,         Emon%Elboudwarej%NULL%1,         Laura%Telep%NULL%1,         Leighann%Timbs%NULL%1,         Ilana%Henne%NULL%1,         Scott%Sellers%NULL%1,         Huyen%Cao%NULL%1,         Susanna K.%Tan%NULL%1,         Lucinda%Winterbourne%NULL%1,         Polly%Desai%NULL%1,         Robertino%Mera%NULL%1,         Anuj%Gaggar%NULL%1,         Robert P.%Myers%NULL%1,         Diana M.%Brainard%NULL%1,         Richard%Childs%NULL%1,         Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,        Arunthamakun%Justin%coreGivesNoEmail%1,        Athavale%Ambarish M.%coreGivesNoEmail%1,        Bansal%Anip%coreGivesNoEmail%1,        Brenner%Samantha K.%coreGivesNoEmail%1,        Chan%Lili%coreGivesNoEmail%1,        Donnelly%John P.%coreGivesNoEmail%1,        Friedman%Allon N.%coreGivesNoEmail%1,        Gershengorn%Hayley B.%coreGivesNoEmail%1,        Goyal%Nitender%coreGivesNoEmail%1,        Green%Adam%coreGivesNoEmail%1,        Gupta%Shruti%coreGivesNoEmail%1,        Hayek%Salim S.%coreGivesNoEmail%1,        Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,        Kibbelaar%Zoe A.%coreGivesNoEmail%1,        Leaf%David E.%coreGivesNoEmail%1,        Leonberg-Yoo%Amanda%coreGivesNoEmail%1,        Mathews%Kusum S.%coreGivesNoEmail%1,        Melamed%Michal L.%coreGivesNoEmail%1,        Omar%Samah Abu%coreGivesNoEmail%1,        Parikh%Chirag R.%coreGivesNoEmail%1,        Radbel%Jared%coreGivesNoEmail%1,        Reiser%Jochen%coreGivesNoEmail%1,        Schenck%Edward J.%coreGivesNoEmail%1,        Semler%Matthew W.%coreGivesNoEmail%1,        Shaefi%Shahzad%coreGivesNoEmail%1,        Shehata%Alexandre M.%coreGivesNoEmail%1,        Short%Samuel A. P.%coreGivesNoEmail%1,        Srivastava%Anand%coreGivesNoEmail%1,        Sutherland%Anne%coreGivesNoEmail%1,        Velez%Juan Carlos Q.%coreGivesNoEmail%1,        Vijayan%Anitha%coreGivesNoEmail%1,        Wang%Wei%coreGivesNoEmail%2,        Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,         İmran%HASANOĞLU%NULL%2,         İmran%HASANOĞLU%NULL%0,         Bircan%KAYAASLAN%NULL%2,         Bircan%KAYAASLAN%NULL%0,         Adalet%AYPAK%NULL%2,         Adalet%AYPAK%NULL%0,         Ayşe%KAYA KALEM%NULL%2,         Ayşe%KAYA KALEM%NULL%0,         Fatma%ESER%NULL%2,         Fatma%ESER%NULL%0,         Burcu%ÖZDEMİR%NULL%2,         Burcu%ÖZDEMİR%NULL%0,         Elif Mükime%SARICAOĞLU%NULL%2,         Elif Mükime%SARICAOĞLU%NULL%0,         Müge%AYHAN%NULL%2,         Müge%AYHAN%NULL%0,         Yeşim%AYBAR BİLİR%NULL%2,         Yeşim%AYBAR BİLİR%NULL%0,         Işıl%ÖZKOÇAK TURAN%NULL%2,         Işıl%ÖZKOÇAK TURAN%NULL%0,         Deniz%ERDEM%NULL%2,         Deniz%ERDEM%NULL%0,         Nevzat Mehmet%MUTLU%NULL%1,         Turan%BUZGAN%NULL%2,         Turan%BUZGAN%NULL%0,         Bedia%DİNÇ%NULL%2,         Bedia%DİNÇ%NULL%0,         Esragül%AKINCI%NULL%2,         Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,         Elnara%Fazio-Eynullayeva%NULL%2,         Elnara%Fazio-Eynullayeva%NULL%0,         Deirdre A.%Lane%NULL%2,         Deirdre A.%Lane%NULL%0,         Paula%Underhill%NULL%2,         Paula%Underhill%NULL%0,         Gregory Y. H.%Lip%NULL%1,         Mirjam E. E.%Kretzschmar%NULL%3,         Mirjam E. E.%Kretzschmar%NULL%0,         Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,         Min%Xie%NULL%2,         Jianping%Zhao%NULL%0,         Xiansheng%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,         Shaoqiu%Chen%NULL%1,         Yuanyuan%Fu%NULL%1,         Zitong%Gao%NULL%1,         Hui%Long%NULL%1,         Jian-ming%Wang%NULL%0,         Hong-wei%Ren%NULL%1,         Yi%Zuo%NULL%1,         Huan%Li%NULL%0,         Jie%Wang%NULL%1,         Qing-bang%Xu%NULL%1,         Wen-xiong%Yu%NULL%1,         Jia%Liu%NULL%1,         Chen%Shao%NULL%1,         Jun-jie%Hao%NULL%1,         Chuan-zhen%Wang%NULL%1,         Yao%Ma%NULL%1,         Zhanwei%Wang%NULL%1,         Richard%Yanagihara%NULL%1,         Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,        Bayani%Masomeh%coreGivesNoEmail%1,        Bijani%Ali%coreGivesNoEmail%1,        Ebrahimpour%Soheil%coreGivesNoEmail%1,        Gholinejad%Hossein Emam%coreGivesNoEmail%1,        Ghorbani%Hossein%coreGivesNoEmail%1,        Hasanpour%Amir Hossein%coreGivesNoEmail%1,        Javanian%Mostafa%coreGivesNoEmail%1,        Masrour-Roudsari%Jila%coreGivesNoEmail%1,        Mehraeen%Rahele%coreGivesNoEmail%1,        Mohseni%Sima%coreGivesNoEmail%1,        Rostami%Ali%coreGivesNoEmail%1,        Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,        Sepidarkish%Mahdi%coreGivesNoEmail%1,        Shabani%Asieh%coreGivesNoEmail%1,        Shahbazi%Mehdi%coreGivesNoEmail%1,        Shokri%Mehran%coreGivesNoEmail%1,        Tabari%Afrooz Monadi%coreGivesNoEmail%1,        Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,         Matteo%Piccica%NULL%1,         Lucia%Graziani%NULL%1,         Iacopo%Vellere%NULL%1,         Annarita%Botta%NULL%1,         Marta%Tilli%NULL%1,         Letizia%Ottino%NULL%1,         Beatrice%Borchi%NULL%1,         Marco%Pozzi%NULL%1,         Filippo%Bartalesi%NULL%1,         Jessica%Mencarini%NULL%1,         Michele%Spinicci%NULL%1,         Lorenzo%Zammarchi%NULL%1,         Filippo%Pieralli%NULL%1,         Giovanni%Zagli%NULL%1,         Carlo%Nozzoli%NULL%1,         Stefano%Romagnoli%NULL%1,         Alessandro%Bartoloni%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,         Zhao-Wu%Tao%NULL%0,         Lei%Wang%NULL%0,         Ming-Li%Yuan%NULL%0,         Kui%Liu%NULL%0,         Ling%Zhou%NULL%0,         Shuang%Wei%NULL%0,         Yan%Deng%NULL%0,         Jing%Liu%NULL%0,         Hui-Guo%Liu%NULL%0,         Ming%Yang%NULL%0,         Yi%Hu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,         Shuyun%Xu%NULL%1,         Muqing%Yu%NULL%1,         Ke%Wang%NULL%0,         Yu%Tao%NULL%0,         Ying%Zhou%NULL%0,         Jing%Shi%NULL%2,         Min%Zhou%NULL%0,         Bo%Wu%NULL%1,         Zhenyu%Yang%NULL%1,         Cong%Zhang%NULL%0,         Junqing%Yue%NULL%1,         Zhiguo%Zhang%NULL%1,         Harald%Renz%NULL%1,         Xiansheng%Liu%NULL%0,         Jungang%Xie%NULL%0,         Min%Xie%NULL%0,         Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,         Shu%Peng%NULL%1,         Le-qun%Li%NULL%1,         Qi%Wang%NULL%0,         Wei%Ping%NULL%1,         Ni%Zhang%NULL%1,         Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,         Yuanyuan%Xing%NULL%0,         Yu%Xiao%NULL%0,         Liping%Deng%NULL%0,         Qiu%Zhao%NULL%0,         Hongling%Wang%NULL%0,         Yong%Xiong%NULL%0,         Zhenshun%Cheng%NULL%0,         Shicheng%Gao%NULL%0,         Ke%Liang%NULL%0,         Mingqi%Luo%NULL%0,         Tielong%Chen%NULL%0,         Shihui%Song%NULL%0,         Zhiyong%Ma%NULL%0,         Xiaoping%Chen%NULL%0,         Ruiying%Zheng%NULL%0,         Qian%Cao%NULL%0,         Fan%Wang%fanndywang@foxmail.com%0,         Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,         Nicolas%Lopez-Villalobos%NULL%1,         Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,         Adam J%Russak%NULL%4,         Adam J%Russak%NULL%0,         Jessica K%De Freitas%NULL%2,         Anuradha%Lala%NULL%2,         Riccardo%Miotto%NULL%2,         Akhil%Vaid%NULL%2,         Kipp W%Johnson%NULL%2,         Matteo%Danieletto%NULL%2,         Eddye%Golden%NULL%2,         Dara%Meyer%NULL%2,         Manbir%Singh%NULL%2,         Sulaiman%Somani%NULL%2,         Arjun%Kapoor%NULL%2,         Ross%O'Hagan%NULL%2,         Sayan%Manna%NULL%2,         Udit%Nangia%NULL%2,         Suraj K%Jaladanki%NULL%2,         Paul%O’Reilly%NULL%4,         Paul%O’Reilly%NULL%0,         Laura M%Huckins%NULL%2,         Patricia%Glowe%NULL%2,         Arash%Kia%NULL%2,         Prem%Timsina%NULL%2,         Robert M%Freeman%NULL%2,         Matthew A%Levin%NULL%2,         Jeffrey%Jhang%NULL%2,         Adolfo%Firpo%NULL%2,         Patricia%Kovatch%NULL%2,         Joseph%Finkelstein%NULL%2,         Judith A%Aberg%NULL%2,         Emilia%Bagiella%NULL%2,         Carol R%Horowitz%NULL%2,         Barbara%Murphy%NULL%2,         Zahi A%Fayad%NULL%2,         Jagat%Narula%NULL%2,         Eric J%Nestler%NULL%2,         V%Fuster%NULL%2,         Carlos%Cordon-Cardo%NULL%2,         Dennis%Charney%NULL%2,         David L%Reich%NULL%2,         Allan%Just%NULL%2,         Erwin P%Bottinger%NULL%2,         Alexander W%Charney%NULL%2,         Benjamin S%Glicksberg%NULL%2,         Girish N%Nadkarni%NULL%2,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,          X.% Yan%null%1,          X.% Tang%null%1,          J.% Peng%null%1,          Q.% Yu%null%1,          L.% Feng%null%1,          G.% Yuan%null%1,          A.% Zhang%null%1,          Y.% Chen%null%1,          J.% Yuan%null%1,          X.% Huang%null%1,          X.% Zhang%null%1,          P.% Hu%null%1,          Y.% Song%null%1,          C.% Qian%null%1,          Q.% Sun%null%1,          D.% Wang%null%1,          J.% Tong%null%1,          J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,         Kevin Bryan%Lo%NULL%0,         Kevin Bryan%Lo%NULL%0,         Fahad%Gul%NULL%0,         Eric%Peterson%NULL%0,         Robert%De Joy%NULL%0,         Ruchika%Bhargav%NULL%0,         Jerald%Pelayo%NULL%0,         Jeri%Albano%NULL%0,         Zurab%Azmaiparashvili%NULL%0,         Sadia%Benzaquen%NULL%0,         Gabriel%Patarroyo‐Aponte%NULL%0,         Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,         Mu%Qin%qinmuae@163.com%0,         Yuli%Cai%NULL%0,         Tao%Liu%NULL%0,         Bo%Shen%NULL%0,         Fan%Yang%NULL%0,         Sheng%Cao%NULL%0,         Xu%Liu%NULL%0,         Xu%Liu%NULL%0,         Yaozu%Xiang%NULL%0,         Qinyan%Zhao%NULL%0,         He%Huang%huanghe1977@whu.edu.cn%0,         Bo%Yang%yybb112@whu.edu.cn%0,         Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,         Fergus%Hamilton%NULL%1,         Samuel%Gunning%NULL%1,         Caitlin%Sheehy%NULL%1,         Ed%Moran%NULL%1,         Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,         Yi%Xiang%NULL%0,         Wei%Fang%NULL%0,         Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,         Boqun%Li%279685211@qq.com%0,         Boqun%Li%279685211@qq.com%0,         Yanjun%Hu%huyanjun@163.com%0,         Chunhui%Lang%NULL%0,         Daoqiu%Huang%NULL%0,         Qiuyan%Sun%NULL%0,         Yan%Xiong%NULL%0,         Xia%Huang%NULL%0,         Jinglong%Lv%NULL%0,         Yaling%Luo%NULL%0,         Li%Shen%NULL%0,         Haoran%Yang%NULL%0,         Gu%Huang%NULL%0,         Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,         Wenbo%He%NULL%4,         Xiaomei%Yu%NULL%4,         Dalong%Hu%NULL%4,         Mingwei%Bao%NULL%4,         Huafen%Liu%NULL%4,         Jiali%Zhou%NULL%4,         Hong%Jiang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,         Bohan%Yang%NULL%0,         Qianwen%Li%NULL%0,         Lu%Wen%NULL%0,         Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,        Xu%Y%coreGivesNoEmail%1,        Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,         Fen%Li%NULL%0,         Xiao%Wang%NULL%0,         Jie%Yan%NULL%0,         Fen%Zhu%NULL%0,         Shifan%Tang%NULL%0,         Yingzhong%Deng%NULL%0,         Hua%Wang%NULL%0,         Rui%Chen%NULL%0,         Zhili%Yu%NULL%0,         Yaping%Li%NULL%0,         Jingzhou%Shang%NULL%0,         Lingjun%Zeng%NULL%0,         Jie%Zhao%NULL%0,         Chaokun%Guan%NULL%0,         Qiaomei%Liu%NULL%0,         Haifeng%Chen%NULL%0,         Wei%Gong%NULL%0,         Xin%Huang%NULL%0,         Yu‐Jiao%Zhang%NULL%0,         Jianguang%Liu%NULL%0,         Xiaoyan%Dong%NULL%0,         Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,         Shaoping%Nie%spnie@126.com%0,         Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,         Pengfei%Wang%NULL%2,         Pengfei%Wang%NULL%0,         Yuyan%Song%NULL%1,         An%Zhang%zhangan@hospital.cqmu.edu.cn%1,         Guodan%Yuan%71502294@qq.com%1,         Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,        Cao%Yi-yuan%coreGivesNoEmail%0,        Dong%Xiang%coreGivesNoEmail%0,        Gao%Ya-dong%coreGivesNoEmail%0,        Yan%You-qin%coreGivesNoEmail%0,        Yang%Yi-bin%coreGivesNoEmail%0,        Yuan%Ya-dong%coreGivesNoEmail%0,        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%4,         Chang%Hu%NULL%4,         Linjie%Luo%NULL%3,         Fang%Fang%NULL%5,         Yongfeng%Chen%NULL%3,         Jianguo%Li%NULL%3,         Zhiyong%Peng%NULL%0,         Huaqin%Pan%phq2012@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,         Miao%Yu%NULL%1,         Song%Tong%NULL%1,         Lu-Yu%Liu%NULL%1,         Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,         Huangqing%Ouyang%NULL%2,         Lingli%Fu%NULL%2,         Shijie%Wang%NULL%2,         Jianglong%Han%NULL%2,         Kejie%Huang%NULL%2,         Mingfang%Jia%NULL%2,         Qibin%Song%NULL%2,         Zhenming%Fu%davidfuzming@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,         Anne%Chen%NULL%1,         Wei%Hou%NULL%3,         James M.%Graham%NULL%1,         Haifang%Li%NULL%1,         Paul S.%Richman%NULL%1,         Henry C.%Thode%NULL%1,         Adam J.%Singer%NULL%1,         Tim Q.%Duong%NULL%1,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,          Sarah%Al-Youha%sarahalyouha@gmail.com%1,          Mohammad H.%Jamal%NULL%1,          Mohannad%Al-Haddad%NULL%1,          Ali%Al-Muhaini%NULL%1,          Fahad%Al-Ghimlas%NULL%1,          Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,          Samuel L%Bruce%NULL%2,          Cody L%Slater%NULL%2,          Jonathan R%Tiao%NULL%2,          Matthew R%Baldwin%NULL%3,          R Graham%Barr%NULL%2,          Bernard P%Chang%NULL%2,          Katherine H%Chau%NULL%2,          Justin J%Choi%NULL%2,          Nicholas%Gavin%NULL%2,          Parag%Goyal%NULL%2,          Angela M%Mills%NULL%2,          Ashmi A%Patel%NULL%2,          Marie-Laure S%Romney%NULL%2,          Monika M%Safford%NULL%2,          Neil W%Schluger%NULL%2,          Soumitra%Sengupta%NULL%2,          Magdalena E%Sobieszczyk%NULL%2,          Jason E%Zucker%NULL%2,          Paul A%Asadourian%NULL%2,          Fletcher M%Bell%NULL%2,          Rebekah%Boyd%NULL%2,          Matthew F%Cohen%NULL%2,          MacAlistair I%Colquhoun%NULL%2,          Lucy A%Colville%NULL%2,          Joseph H%de Jonge%NULL%2,          Lyle B%Dershowitz%NULL%2,          Shirin A%Dey%NULL%2,          Katherine A%Eiseman%NULL%2,          Zachary P%Girvin%NULL%2,          Daniella T%Goni%NULL%2,          Amro A%Harb%NULL%2,          Nicholas%Herzik%NULL%2,          Sarah%Householder%NULL%2,          Lara E%Karaaslan%NULL%2,          Heather%Lee%NULL%2,          Evan%Lieberman%NULL%2,          Andrew%Ling%NULL%2,          Ree%Lu%NULL%2,          Arthur Y%Shou%NULL%2,          Alexander C%Sisti%NULL%2,          Zachary E%Snow%NULL%2,          Colin P%Sperring%NULL%2,          Yuqing%Xiong%NULL%2,          Henry W%Zhou%NULL%2,          Karthik%Natarajan%NULL%2,          George%Hripcsak%NULL%2,          Ruijun%Chen%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,          Mark%Caridi-Scheible%NULL%4,          James M.%Blum%NULL%3,          Chad%Robichaux%NULL%3,          Colleen%Kraft%NULL%3,          Jesse T.%Jacob%NULL%3,          Craig S.%Jabaley%NULL%3,          David%Carpenter%NULL%3,          Roberta%Kaplow%NULL%3,          Alfonso C.%Hernandez-Romieu%NULL%3,          Max W.%Adelman%NULL%3,          Greg S.%Martin%NULL%3,          Craig M.%Coopersmith%NULL%3,          David J.%Murphy%NULL%3,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Juan%Berenguer%NULL%1,          Pablo%Ryan%NULL%2,          Jesús%Rodríguez-Baño%NULL%1,          Inmaculada%Jarrín%NULL%4,          Jordi%Carratalà%NULL%4,          Jerónimo%Pachón%NULL%2,          María%Yllescas%NULL%1,          José Ramón%Arriba%NULL%1,          NULL%NULL%NULL%0,          Esther%Aznar Muñoz%NULL%1,          Pedro%Gil Divasson%NULL%1,          Patricia%González Muñiz%NULL%1,          Clara%Muñoz Aguirre%NULL%1,          Juan Carlos%López%NULL%3,          Juan Carlos%López%NULL%0,          Juan Carlos%López%NULL%0,          Margarita%Ramírez-Schacke%NULL%1,          Isabel%Gutiérrez%NULL%1,          Francisco%Tejerina%NULL%1,          Teresa%Aldámiz-Echevarría%NULL%1,          Cristina%Díez%NULL%1,          Chiara%Fanciulli%NULL%1,          Leire%Pérez-Latorre%NULL%1,          Francisco%Parras%NULL%1,          Pilar%Catalán%NULL%1,          María E.%García-Leoni%NULL%1,          Isabel%Pérez-Tamayo%NULL%1,          Luis%Puente%NULL%1,          Jamil%Cedeño%NULL%1,          Juan%Berenguer%NULL%1,          Marta%Díaz Menéndez%NULL%3,          Marta%Díaz Menéndez%NULL%0,          Marta%Díaz Menéndez%NULL%0,          Fernando%de la Calle Prieto%NULL%1,          Marta%Arsuaga Vicente%NULL%1,          Elena%Trigo Esteban%NULL%1,          Mª del Mar%Lago Núñez%NULL%1,          Rosa%de Miguel Buckley%NULL%1,          Julen%Cadiñaños Loidi%NULL%1,          Carmen%Busca Arenzana%NULL%1,          Alfredo%Mican%NULL%1,          Marta%Mora Rillo%NULL%1,          Juan Carlos%Ramos Ramos%NULL%1,          Belén%Loeches Yagüe%NULL%1,          José Ignacio%Bernardino de la Serna%NULL%1,          Julio%García Rodríguez%NULL%1,          José Ramón%Arribas López%NULL%1,          Ana%Such Diaz%NULL%3,          Ana%Such Diaz%NULL%0,          Ana%Such Diaz%NULL%0,          Elena%Álvaro Alonso%NULL%1,          Elsa%Izquierdo García%NULL%1,          Juan%Torres Macho%NULL%1,          Guillermo%Cuevas Tascon%NULL%1,          Jesús%Troya García%NULL%1,          Beatriz%Mestre Gómez%NULL%1,          Eva%Jiménez González de Buitrago%NULL%1,          Inés%Fernández Jiménez%NULL%1,          Ana Josefa%Tebar Martínez%NULL%1,          Fátima%Brañas Baztán%NULL%1,          Jorge%Valencia de la Rosa%NULL%1,          Mario%Pérez Butragueño%NULL%1,          Marta%Alvarado Blasco%NULL%1,          Pablo%Ryan%NULL%0,          Mª Antonia%Sepúlveda Berrocal%NULL%3,          Mª Antonia%Sepúlveda Berrocal%NULL%0,          Mª Antonia%Sepúlveda Berrocal%NULL%0,          Carmen%Yera Bergua%NULL%1,          Pilar%Toledano Sierra%NULL%1,          Verónica%Cano Llorente%NULL%1,          Sadaf%Zafar Iqubal-Mirza%NULL%1,          Gema%Muñiz%NULL%1,          Inmaculada%Martín Pérez%NULL%1,          Helena%Mozas Moriñigo%NULL%1,          Ana%Alguacil%NULL%1,          María Paz%García Butenegro%NULL%1,          Ana Isabel%Peláez Ballesta%NULL%3,          Ana Isabel%Peláez Ballesta%NULL%0,          Ana Isabel%Peláez Ballesta%NULL%0,          Elena%Morcillo Rodríguez%NULL%1,          Josune%Goikoetxea Agirre%NULL%3,          Josune%Goikoetxea Agirre%NULL%0,          Josune%Goikoetxea Agirre%NULL%0,          María José%Blanco Vidal%NULL%1,          Javier%Nieto Arana%NULL%1,          Mikel%del Álamo Martínez de Lagos%NULL%1,          Isabel A.%Pérez Hernández%NULL%3,          Isabel A.%Pérez Hernández%NULL%0,          Isabel A.%Pérez Hernández%NULL%0,          Inés%Pérez Zapata%NULL%1,          Rafael%Silvariño Fernández%NULL%3,          Rafael%Silvariño Fernández%NULL%0,          Rafael%Silvariño Fernández%NULL%0,          Jon%Ugalde Espiñeira%NULL%1,          Víctor%Asensi Álvarez%NULL%3,          Víctor%Asensi Álvarez%NULL%0,          Víctor%Asensi Álvarez%NULL%0,          Lucia%Suárez Pérez%NULL%1,          Silvia%Suárez Diaz%NULL%1,          Carmen%Yllera Gutiérrez%NULL%1,          Vicente%Boix%NULL%3,          Vicente%Boix%NULL%0,          Vicente%Boix%NULL%0,          Marcos%Díez Martínez%NULL%1,          Melissa%Carreres Candela%NULL%1,          Cristina%Gómez-Ayerbe%NULL%3,          Cristina%Gómez-Ayerbe%NULL%0,          Cristina%Gómez-Ayerbe%NULL%0,          Javier%Sánchez-Lora%NULL%1,          José Luis%Velasco Garrido%NULL%1,          María%López-Jódar%NULL%1,          Jesús%Santos González%NULL%1,          Jesús%Ruiz Aragón%NULL%3,          Jesús%Ruiz Aragón%NULL%0,          Jesús%Ruiz Aragón%NULL%0,          Ianire%Virto Peña%NULL%1,          Vanessa%Alende Castro%NULL%3,          Vanessa%Alende Castro%NULL%0,          Vanessa%Alende Castro%NULL%0,          Ruth%Brea Aparicio%NULL%1,          Sonia%Vega Molpeceres%NULL%3,          Sonia%Vega Molpeceres%NULL%0,          Sonia%Vega Molpeceres%NULL%0,          Estel%Pons Viñas%NULL%1,          Oscar%del Río Pérez%NULL%3,          Oscar%del Río Pérez%NULL%0,          Oscar%del Río Pérez%NULL%0,          Silvia%Valero Rovira%NULL%1,          Judit%Villar-García%NULL%3,          Judit%Villar-García%NULL%0,          Judit%Villar-García%NULL%0,          Joan%Gómez-Junyent%NULL%1,          Hernando%Knobel%NULL%1,          María Cecilia%Cánepa%NULL%1,          Silvia%Castañeda Espinosa%NULL%1,          Luisa%Sorli Redò%NULL%1,          Roberto%Güerri-Fernández%NULL%1,          María%Milagro Montero%NULL%1,          Juan Pablo%Horcajada%NULL%1,          Elisa%García Vázquez%NULL%3,          Elisa%García Vázquez%NULL%0,          Elisa%García Vázquez%NULL%0,          Encarnación%Moral Escudero%NULL%1,          Alicia%Hernández Torres%NULL%1,          Esther%García Almodóvar%NULL%3,          Esther%García Almodóvar%NULL%0,          Esther%García Almodóvar%NULL%0,          Carmen%Sáez Barberá%NULL%3,          Carmen%Sáez Barberá%NULL%0,          Carmen%Sáez Barberá%NULL%0,          Zineb%Karroud%NULL%1,          José%Hernández Quero%NULL%3,          José%Hernández Quero%NULL%0,          José%Hernández Quero%NULL%0,          David%Vinuesa García%NULL%1,          José Luis%García Fogeda%NULL%1,          José Antonio%Peregrina%NULL%1,          María%Novella Mena%NULL%3,          María%Novella Mena%NULL%0,          María%Novella Mena%NULL%0,          Cristina%Hernández Gutiérrez%NULL%1,          José%Sanz Moreno%NULL%1,          Ramón%Pérez Tanoira%NULL%1,          Rodrigo%Sierra Rodríguez%NULL%1,          David%Alonso Menchén%NULL%1,          Aida%Gutiérrez García%NULL%1,          Alberto%Arranz Caso%NULL%1,          Juan%Cuadros González%NULL%1,          Melchor%Álvarez de Mon Soto%NULL%1,          Vicente Ferrer%Díaz de Brito Fernández%NULL%3,          Vicente Ferrer%Díaz de Brito Fernández%NULL%0,          Vicente Ferrer%Díaz de Brito Fernández%NULL%0,          Montserrat%Sanmarti Vilamala%NULL%1,          Aina%Gabarrell Pascuet%NULL%1,          Daniel%Molina Morant%NULL%1,          Sergio%España Cueto%NULL%1,          Jonathan%Cámara Fernández%NULL%1,          Albert%Sabater Gil%NULL%1,          Laura%Muñoz López%NULL%1,          Paula%Sáez Escolano%NULL%3,          Paula%Sáez Escolano%NULL%0,          Paula%Sáez Escolano%NULL%0,          Esperanza%Bejarano Tello%NULL%1,          Marco Antonio%Sempere Alcocer%NULL%3,          Marco Antonio%Sempere Alcocer%NULL%0,          Marco Antonio%Sempere Alcocer%NULL%0,          Salvador%Álvarez Martin%NULL%1,          Ignacio%De los Santos Gil%NULL%3,          Ignacio%De los Santos Gil%NULL%0,          Ignacio%De los Santos Gil%NULL%0,          Lucio%García-Fraile%NULL%1,          Miguel%Sampedro Núñez%NULL%1,          Ana%Barrios Blandino%NULL%1,          Carlos%Rodríguez Franco%NULL%1,          Daniel%Useros Brañas%NULL%1,          Almudena%Villa Martí%NULL%1,          Javier%Oliver Ortega%NULL%1,          Alexia%Costanza Espiño Álvarez%NULL%1,          Jesús%Sanz Sanz%NULL%1,          María%Rexach Fumaña%NULL%3,          María%Rexach Fumaña%NULL%0,          María%Rexach Fumaña%NULL%0,          Ivette%Abascal Cambras%NULL%1,          Ana del Cielo%Pérez Jaén%NULL%1,          Clara%Sala Jofre%NULL%3,          Clara%Sala Jofre%NULL%0,          Clara%Sala Jofre%NULL%0,          Susana%Casas Rodríguez%NULL%1,          Cecilia%Tortajada Alamilla%NULL%3,          Cecilia%Tortajada Alamilla%NULL%0,          Cecilia%Tortajada Alamilla%NULL%0,          Carmina%Oltra%NULL%1,          Mar%Masiá Canuto%NULL%3,          Mar%Masiá Canuto%NULL%0,          Mar%Masiá Canuto%NULL%0,          Félix%Gutiérrez Rodero%NULL%1,          Ana%Ferrer Ribera%NULL%3,          Ana%Ferrer Ribera%NULL%0,          Ana%Ferrer Ribera%NULL%0,          Carlos%Bea Serrano%NULL%1,          Miguel%Pedromingo Kus%NULL%3,          Miguel%Pedromingo Kus%NULL%0,          Miguel%Pedromingo Kus%NULL%0,          María Ángeles%Garcinuño%NULL%1,          Silvana%Fiorante%NULL%1,          Sergio%Pérez Pinto%NULL%1,          Pilar%Hernández Machín%NULL%3,          Pilar%Hernández Machín%NULL%0,          Pilar%Hernández Machín%NULL%0,          Alba%Alastrué Violeta%NULL%1,          María Carmen%Fariñas Álvarez%NULL%3,          María Carmen%Fariñas Álvarez%NULL%0,          María Carmen%Fariñas Álvarez%NULL%0,          Claudia%González Rico%NULL%1,          Francisco%Arnaiz de las Revillas%NULL%1,          Jorge%Calvo%NULL%1,          Mónica%Gozalo%NULL%1,          Francisco%Mora Gómez%NULL%3,          Francisco%Mora Gómez%NULL%0,          Francisco%Mora Gómez%NULL%0,          Ana%Milagro Beamonte%NULL%3,          Ana%Milagro Beamonte%NULL%0,          Ana%Milagro Beamonte%NULL%0,          Miriam%Latorre-Millán%NULL%1,          Antonio%Rezusta López%NULL%1,          Ana%Martínez Sapiña%NULL%1,          Yolanda%Meije%NULL%3,          Yolanda%Meije%NULL%0,          Yolanda%Meije%NULL%0,          Alejandra%Duarte Borges%NULL%1,          Julia%Pareja Coca%NULL%1,          Mercedes%Clemente Presas%NULL%1,          Juan Emilio%Losa García%NULL%3,          Juan Emilio%Losa García%NULL%0,          Juan Emilio%Losa García%NULL%0,          Ana%Vegas Serrano%NULL%1,          M. Teresa%Pérez-Rodríguez%NULL%3,          M. Teresa%Pérez-Rodríguez%NULL%0,          M. Teresa%Pérez-Rodríguez%NULL%0,          Alexandre%Pérez González%NULL%1,          Moncef%Belhassen-García%NULL%3,          Moncef%Belhassen-García%NULL%0,          Moncef%Belhassen-García%NULL%0,          Beatriz%Rodríguez-Alonso%NULL%1,          Amparo%López-Bernus%NULL%1,          Cristina%Carbonell%NULL%1,          Rafael%Torres Perea%NULL%3,          Rafael%Torres Perea%NULL%0,          Rafael%Torres Perea%NULL%0,          Juan%Cantón de Seoane%NULL%1,          Blanca%Alonso%NULL%1,          Sara Lidia%Kamal%NULL%1,          Lucia%Cajuela%NULL%1,          David%Roa%NULL%1,          Miguel%Cervero%NULL%1,          Alberto%Oreja%NULL%1,          Juan Pablo%Avilés%NULL%1,          Lidia%Martín%NULL%1,          Iván%Pelegrín Senent%NULL%3,          Iván%Pelegrín Senent%NULL%0,          Iván%Pelegrín Senent%NULL%0,          Rosana%Rouco Esteves Marques%NULL%1,          Jorge%Parra Ruiz%NULL%3,          Jorge%Parra Ruiz%NULL%0,          Jorge%Parra Ruiz%NULL%0,          Violeta%Ramos Sesma%NULL%1,          Jessica%Abadia Otero%NULL%3,          Jessica%Abadia Otero%NULL%0,          Jessica%Abadia Otero%NULL%0,          Juan%Salillas Hernando%NULL%3,          Juan%Salillas Hernando%NULL%0,          Juan%Salillas Hernando%NULL%0,          Robert%Torres Sánchez del Arco%NULL%1,          Miguel%Torralba González de Suso%NULL%1,          Alberto%Serrano Martínez%NULL%1,          Sergio%Gilaberte Reyzábal%NULL%1,          Marina%Pacheco Martínez-Atienza%NULL%1,          Mónica%Liébana Gómez%NULL%1,          Sara%Fernández Rodríguez%NULL%1,          Álvaro%Varela Plaza%NULL%1,          Henar%Calvo Sánchez%NULL%1,          Patricia%Martínez Martín%NULL%3,          Patricia%Martínez Martín%NULL%0,          Patricia%Martínez Martín%NULL%0,          Patricia%González- Ruano%NULL%1,          Eduardo%Malmierca Corral%NULL%1,          Isabel%Rábago Lorite%NULL%1,          Beatriz%Pérez-Monte Mínguez%NULL%1,          Ángeles%García Flores%NULL%3,          Ángeles%García Flores%NULL%0,          Ángeles%García Flores%NULL%0,          Pere%Comas Casanova%NULL%1,          Merce%Sirisi%NULL%3,          Merce%Sirisi%NULL%0,          Merce%Sirisi%NULL%0,          Richard%Rojas%NULL%1,          José Luis%Díaz de Tuesta del Arco%NULL%3,          José Luis%Díaz de Tuesta del Arco%NULL%0,          José Luis%Díaz de Tuesta del Arco%NULL%0,          Ruth%Figueroa Cerón%NULL%1,          Ander%González Sarria%NULL%1,          Remedios%Alemán Valls%NULL%3,          Remedios%Alemán Valls%NULL%0,          Remedios%Alemán Valls%NULL%0,          María del Mar%Alonso Socas%NULL%1,          Oscar%Sanz Peláez%NULL%3,          Oscar%Sanz Peláez%NULL%0,          Oscar%Sanz Peláez%NULL%0,          Karim%Mohamed Ramírez%NULL%1,          Melchor%Riera Jaume%NULL%3,          Melchor%Riera Jaume%NULL%0,          Melchor%Riera Jaume%NULL%0,          Helem Haydee%Vilchez%NULL%1,          Francesc%Albertí%NULL%1,          Ana Isabel%Cañabate%NULL%1,          Víctor J.%Moreno Cuerda%NULL%3,          Víctor J.%Moreno Cuerda%NULL%0,          Víctor J.%Moreno Cuerda%NULL%0,          Silvia%Álvarez Kaelis%NULL%1,          Beatriz%Álvarez Zapatero%NULL%1,          Alejandro%García García%NULL%1,          Elena%Isaba Ares%NULL%1,          Covadonga%Morcate Fernández%NULL%1,          Andrea%Pérez Rodríguez%NULL%1,          Lucía%Ramos Merino%NULL%3,          Lucía%Ramos Merino%NULL%0,          Lucía%Ramos Merino%NULL%0,          Laura%Castelo Corral%NULL%1,          María%Rodríguez Mahía%NULL%1,          Mónica%González Bardanca%NULL%1,          Efrén%Sánchez Vidal%NULL%1,          Enrique%Míguez Rey%NULL%1,          Javier%De la Torre Lima%NULL%3,          Javier%De la Torre Lima%NULL%0,          Javier%De la Torre Lima%NULL%0,          José Mª%García de Lomas Guerrero%NULL%1,          Elena%Morte%NULL%3,          Elena%Morte%NULL%0,          Elena%Morte%NULL%0,          Silvia%Loscos%NULL%1,          Ana%Camón%NULL%1,          Lucía%Gómez García%NULL%3,          Lucía%Gómez García%NULL%0,          Lucía%Gómez García%NULL%0,          Lucia%Boix Palop%NULL%1,          Beatriz%Dietl Gómez-Luengo%NULL%1,          Iris%Pedrola Gorrea%NULL%3,          Iris%Pedrola Gorrea%NULL%0,          Iris%Pedrola Gorrea%NULL%0,          Amparo%Blasco Claramunt%NULL%1,          Cristina%López Mestanza%NULL%3,          Cristina%López Mestanza%NULL%0,          Cristina%López Mestanza%NULL%0,          Esther%Fraile Villarejo%NULL%1,          Tomás%Tosco Núñez%NULL%3,          Tomás%Tosco Núñez%NULL%0,          Tomás%Tosco Núñez%NULL%0,          María%Aroca Ferri%NULL%1,          José Tomas%Algado Rabasa%NULL%3,          José Tomas%Algado Rabasa%NULL%0,          José Tomas%Algado Rabasa%NULL%0,          Ana María%Garijo Saiz%NULL%1,          Concepción%Amador Prous%NULL%1,          Jesús Rodriguez%Baño%NULL%3,          Jesús Rodriguez%Baño%NULL%0,          Jesús Rodriguez%Baño%NULL%0,          Pilar%Retamar%NULL%1,          Adoración%Valiente%NULL%1,          Luis E.%López-Cortés%NULL%1,          Jesús%Sojo%NULL%1,          Belén%Gutiérrez-Gutiérrez%NULL%1,          José%Bravo-Ferrer%NULL%1,          Elena%Salamanca%NULL%1,          Zaira R.%Palacios%NULL%1,          Patricia%Pérez-Palacios%NULL%1,          Enrique%Peral%NULL%1,          José Antonio%Pérez de León%NULL%1,          Jesús%Sánchez-Gómez%NULL%1,          Lucía%Marín-Barrera%NULL%1,          Domingo%García-Jiménez%NULL%1,          Jordi%Carratalà%NULL%0,          Jordi%Carratalà%NULL%0,          Jordi%Carratalà%NULL%0,          Gabriela%Abelenda-Alonso%NULL%1,          Carmen%Ardanuy%NULL%1,          Alba%Bergas%NULL%1,          Guillermo%Cuervo%NULL%1,          María Ángeles%Domínguez%NULL%1,          Miguel%Fernández-Huerta%NULL%1,          Carlota%Gudiol%NULL%1,          Laia%Lorenzo-Esteller%NULL%1,          Jordi%Niubó%NULL%1,          Sandra%Pérez-Recio%NULL%1,          Daniel%Podzamczer%NULL%1,          Miquel%Pujol%NULL%1,          Alexander%Rombauts%NULL%1,          Núria%Trullen%NULL%1,          Miguel%Salavert Lletí%NULL%3,          Miguel%Salavert Lletí%NULL%0,          Miguel%Salavert Lletí%NULL%0,          Iván%Castro Hernández%NULL%1,          Adriana%Hernández Belmonte%NULL%3,          Adriana%Hernández Belmonte%NULL%0,          Adriana%Hernández Belmonte%NULL%0,          Raquel%Martínez Goñi%NULL%1,          Marta%Navarro Vilasaró%NULL%3,          Marta%Navarro Vilasaró%NULL%0,          Marta%Navarro Vilasaró%NULL%0,          Sonia%Calzado Isbert%NULL%1,          Manuel%Cervantes García%NULL%1,          Aina%Gomila Grange%NULL%1,          Oriol%Gasch Blasi%NULL%1,          María Luisa%Machado Sicilia%NULL%1,          Eva%Van den Eynde Otero%NULL%1,          Luis%Falgueras López%NULL%1,          María del Carmen%Navarro Sáez%NULL%1,          Esteban%Martínez%NULL%3,          Esteban%Martínez%NULL%0,          Esteban%Martínez%NULL%0,          Mª Ángeles%Marcos%NULL%1,          Mar%Mosquera%NULL%1,          José Luis%Blanco%NULL%1,          Montserrat%Laguno%NULL%1,          Jhon%Rojas%NULL%1,          Ana%González-Cordón%NULL%1,          Alexy%Inciarte%NULL%1,          Berta%Torres%NULL%1,          Lorena%De la Mora%NULL%1,          Alex%Soriano%NULL%1,          Olalla%Martínez Macias%NULL%3,          Olalla%Martínez Macias%NULL%0,          Olalla%Martínez Macias%NULL%0,          Virginia%Pérez Doñate%NULL%1,          Alfonso%Cabello Úbeda%NULL%3,          Alfonso%Cabello Úbeda%NULL%0,          Alfonso%Cabello Úbeda%NULL%0,          Nerea%Carrasco Antón%NULL%1,          Beatriz%Álvarez Álvarez%NULL%1,          Elizabet%Petkova Saiz%NULL%1,          Miguel%Górgolas Hernández-Mora%NULL%1,          Laura%Prieto Pérez%NULL%1,          Irene%Carrillo Acosta%NULL%1,          Sara%Heili Frades%NULL%1,          Felipe%Villar Álvarez%NULL%1,          Ricardo%Fernández Roblas%NULL%1,          José María%Milicua Muñoz%NULL%1,          Virginia%Fernández Espinilla%NULL%3,          Virginia%Fernández Espinilla%NULL%0,          Virginia%Fernández Espinilla%NULL%0,          Carlos Jesús%Dueñas Gutiérrez%NULL%1,          Cristina%Hernán García%NULL%1,          Fernando%González-Romo%NULL%3,          Fernando%González-Romo%NULL%0,          Fernando%González-Romo%NULL%0,          Paloma%Merino Amador%NULL%1,          Alba%Rueda López%NULL%1,          Jorge%Martínez Jordán%NULL%1,          Sara%Medrano Pardo%NULL%1,          Irene%Díaz de la Torre%NULL%1,          Yolanda%Posada Franco%NULL%1,          Alberto%Delgado-Iribarren%NULL%1,          Joaquín%López-Contreras González%NULL%3,          Joaquín%López-Contreras González%NULL%0,          Joaquín%López-Contreras González%NULL%0,          Pablo%Pascual Alonso%NULL%1,          Virginia%Pomar Solchaga%NULL%1,          Nuria%Rabella García%NULL%1,          Natividad%Benito Hernández%NULL%1,          Pere%Domingo Pedrol%NULL%1,          Xavier%Bonfill Cosp%NULL%1,          Rafael%Padrós Selma%NULL%1,          Mireia%Puig Campmany%NULL%1,          Jordi%Mancebo Cortés%NULL%1,          Mercè%Gurguí Ferrer%NULL%1,          Melania%Íñigo Pestaña%NULL%3,          Melania%Íñigo Pestaña%NULL%0,          Melania%Íñigo Pestaña%NULL%0,          Alejandra%Pérez García%NULL%1,          Patricia%Sorní Moreno%NULL%3,          Patricia%Sorní Moreno%NULL%0,          Patricia%Sorní Moreno%NULL%0,          Nora%Izko Gartzia%NULL%1,          Francisco Javier%Membrillo de Novales%NULL%3,          Francisco Javier%Membrillo de Novales%NULL%0,          Francisco Javier%Membrillo de Novales%NULL%0,          María%Simón Sacristán%NULL%1,          Maribel%Zamora Cintas%NULL%1,          Yolanda%Martínez Martínez%NULL%1,          Pablo%Fernández-González%NULL%1,          Francisco%Alcántara Nicolás%NULL%1,          Alejandro%Aguirre Vila-Cora%NULL%1,          Elena%López Tizón%NULL%1,          Germán%Ramírez-Olivencia%NULL%1,          Miriam%Estébanez Muñoz%NULL%1,          Ester%Sáez de Adana Arróniz%NULL%3,          Ester%Sáez de Adana Arróniz%NULL%0,          Ester%Sáez de Adana Arróniz%NULL%0,          Joseba%Portu Zapirain%NULL%1,          Juan Carlos%Gainzarain Arana%NULL%1,          Zuriñe%Ortiz de Zárate Ibarra%NULL%1,          Miguel Ángel%Moran Rodríguez%NULL%1,          Andrés%Canut Blasco%NULL%1,          Silvia%Hernáez Crespo%NULL%1,          Leire%Balerdi Sarasola%NULL%1,          Cristina%Morales García%NULL%1,          Miguel%Corral Saracho%NULL%1,          Zeltia%Valcarce González%NULL%1,          Noelia%Arenal Andrés%NULL%3,          Noelia%Arenal Andrés%NULL%0,          Noelia%Arenal Andrés%NULL%0,          Raquel Elisa%Rodríguez Tarazona%NULL%1,          Laura%Iglesias Llorente%NULL%3,          Laura%Iglesias Llorente%NULL%0,          Laura%Iglesias Llorente%NULL%0,          Beatriz%Loureiro Rodríguez%NULL%1,          Adrián%Sánchez Montalvá%NULL%3,          Adrián%Sánchez Montalvá%NULL%0,          Adrián%Sánchez Montalvá%NULL%0,          Juan%Espinosa Pereiro%NULL%1,          Benito%Almirante%NULL%1,          Marta%Miarons%NULL%1,          Júlia%Sellarés%NULL%1,          María%Larrosa%NULL%1,          Sonia%García%NULL%1,          Blanca%Marzo%NULL%1,          Miguel%Villamarín%NULL%1,          Nuria%Fernández%NULL%1,          Conchita%Pérez-Jorge Peremarch%NULL%3,          Conchita%Pérez-Jorge Peremarch%NULL%0,          Conchita%Pérez-Jorge Peremarch%NULL%0,          Elena%Resino Foz%NULL%1,          Andrea%Espigares Correa%NULL%1,          Teresa%Álvarez de Espejo Montiel%NULL%1,          Iván%Navas Clemente%NULL%1,          María Isabel%Quijano Contreras%NULL%1,          Luis Alberto%Nieto Fernández del Campo%NULL%1,          Guillermo%Jiménez Álvarez%NULL%1,          Mercedes%Guillamón Sánchez%NULL%3,          Mercedes%Guillamón Sánchez%NULL%0,          Mercedes%Guillamón Sánchez%NULL%0,          Josefina%García García%NULL%1,          Constanza%Muñoz Hornero%NULL%3,          Constanza%Muñoz Hornero%NULL%0,          Constanza%Muñoz Hornero%NULL%0,          Ana%Mariño Callejo%NULL%3,          Ana%Mariño Callejo%NULL%0,          Ana%Mariño Callejo%NULL%0,          Nieves%Valcarce Pardeiro%NULL%1,          Alex%Smithson Amat%NULL%3,          Alex%Smithson Amat%NULL%0,          Alex%Smithson Amat%NULL%0,          Cristina%Chico Chumillas%NULL%1,          Adriana%Sánchez Serrano%NULL%3,          Adriana%Sánchez Serrano%NULL%0,          Adriana%Sánchez Serrano%NULL%0,          Eva Pilar%García Villalba%NULL%1,          Isabel%Jiménez Martínez%NULL%3,          Isabel%Jiménez Martínez%NULL%0,          Isabel%Jiménez Martínez%NULL%0,          Guillermo%Estrada Fernández%NULL%1,          María%Lorén Vargas%NULL%1,          Nuria%Parra Arribas%NULL%1,          Carmen%Martínez Cilleros%NULL%1,          Aránzazu%Villasante de la Puente%NULL%1,          Teresa%García Delange%NULL%1,          María José%Ruiz Rodríguez%NULL%1,          Marta%Robledo del Prado%NULL%1,          Juan Carlos%Abad Almendro%NULL%1,          José Román%Muñoz del Rey%NULL%3,          José Román%Muñoz del Rey%NULL%0,          José Román%Muñoz del Rey%NULL%0,          Montaña%Jiménez Álvaro%NULL%1,          Javier%Coy Coy%NULL%3,          Javier%Coy Coy%NULL%0,          Javier%Coy Coy%NULL%0,          Inmaculada%Poquet Catala%NULL%1,          Marta%Santos Peña%NULL%3,          Marta%Santos Peña%NULL%0,          Marta%Santos Peña%NULL%0,          Virginia%Naranjo Velasco%NULL%1,          Tamara%Manso Gómez%NULL%3,          Tamara%Manso Gómez%NULL%0,          Tamara%Manso Gómez%NULL%0,          Delia%Quilez Ágreda%NULL%1,          Gema%Barbeito Castiñeiras%NULL%3,          Gema%Barbeito Castiñeiras%NULL%0,          Gema%Barbeito Castiñeiras%NULL%0,          María Jesús%Domínguez Santalla%NULL%1,          Laura%Mao Martín%NULL%3,          Laura%Mao Martín%NULL%0,          Laura%Mao Martín%NULL%0,          Rodrigo%Alonso Navarro%NULL%1,          Jose David%Ampuero Martinich%NULL%1,          Raquel%Barrós González%NULL%1,          María Aránzazu%Galindo Martín%NULL%1,          Lourdes%Herrera Pacheco%NULL%1,          Rocío%Martínez Avilés%NULL%1,          Sara%Rodrigo González%NULL%1,          Cristóbal Manuel%Rodríguez Leal%NULL%1,          Eva María%Romay Lema%NULL%3,          Eva María%Romay Lema%NULL%0,          Eva María%Romay Lema%NULL%0,          Roi%Suárez Gil%NULL%1,          Maialen%Ibarguren Pinilla%NULL%3,          Maialen%Ibarguren Pinilla%NULL%0,          Maialen%Ibarguren Pinilla%NULL%0,          José María%Marimón Ortiz de Zárate%NULL%1,          Loreto%Vidaur Tello%NULL%1,          Xabier%Kortajarena Urkola%NULL%1,          Miriam%García Gómez%NULL%3,          Miriam%García Gómez%NULL%0,          Miriam%García Gómez%NULL%0,          Asier%Aranguren Arostegui%NULL%1,          Maria%Álvarez de Castro%NULL%3,          Maria%Álvarez de Castro%NULL%0,          Maria%Álvarez de Castro%NULL%0,          Cintia María%Martínez Mateu%NULL%1,          Francisco%Rodríguez Gómez%NULL%3,          Francisco%Rodríguez Gómez%NULL%0,          Francisco%Rodríguez Gómez%NULL%0,          Francisco%Muñoz Beamud%NULL%1,          Elena%Chamarro Martí%NULL%3,          Elena%Chamarro Martí%NULL%0,          Elena%Chamarro Martí%NULL%0,          Merce%Cardona Rivera%NULL%1,          Ismail%Zakariya-Yousef Breval%NULL%3,          Ismail%Zakariya-Yousef Breval%NULL%0,          Ismail%Zakariya-Yousef Breval%NULL%0,          Marta%Rico Rodríguez%NULL%1,          Jara%Llenas García%NULL%3,          Jara%Llenas García%NULL%0,          Jara%Llenas García%NULL%0,          Mª Carmen%Sánchez Arenas%NULL%1,          Ana%Fernández Cruz%NULL%3,          Ana%Fernández Cruz%NULL%0,          Ana%Fernández Cruz%NULL%0,          Jorge%Calderón Parra%NULL%1,          Marcos%López Dosil%NULL%1,          Antonio%Ramos Martínez%NULL%1,          Elena%Múñez Rubio%NULL%1,          Alejandro%Callejas Díaz%NULL%1,          José Manuel%Vázquez Comendador%NULL%1,          Itziar%Diego Yagüe%NULL%1,          Esther%Expósito Palomo%NULL%1,          Jorge%Anel Pedroche%NULL%1,          Raquel%Álvarez Franco%NULL%3,          Raquel%Álvarez Franco%NULL%0,          Raquel%Álvarez Franco%NULL%0,          Lucía%Fernández de Orueta%NULL%1,          Roberto%Vates Gómez%NULL%1,          Andrés Felipe%Cardona Arias%NULL%1,          Pablo%Marguenda Contreras%NULL%1,          Gabriel%Gaspar Alonso-Vega%NULL%1,          Elena María%Aranda Rife%NULL%1,          Blanca%Martínez Cifre%NULL%1,          Daniel%Roger Zapata%NULL%1,          Irene%Martín Rubio%NULL%1,          André%Barbosa Ventura%NULL%3,          André%Barbosa Ventura%NULL%0,          André%Barbosa Ventura%NULL%0,          Iván%Piñero%NULL%1,          Alberto%Bahamonde Carrasco%NULL%3,          Alberto%Bahamonde Carrasco%NULL%0,          Alberto%Bahamonde Carrasco%NULL%0,          Paula%Runza Buznego%NULL%1,          Eva%Talavera García%NULL%3,          Eva%Talavera García%NULL%0,          Eva%Talavera García%NULL%0,          Marta%Lamata Subero%NULL%1,          Ainhoa%Urrutia Losada%NULL%3,          Ainhoa%Urrutia Losada%NULL%0,          Ainhoa%Urrutia Losada%NULL%0,          Lorea%Arteche Eguizabal%NULL%1,          Elisabet%Delgado Sánchez%NULL%3,          Elisabet%Delgado Sánchez%NULL%0,          Elisabet%Delgado Sánchez%NULL%0,          Virginia%Molina Peinado%NULL%1,          Sarah%Caro Bragado%NULL%3,          Sarah%Caro Bragado%NULL%0,          Sarah%Caro Bragado%NULL%0,          Gema%Domínguez de Pablos%NULL%1,          Carolina%Roldán Fontana%NULL%3,          Carolina%Roldán Fontana%NULL%0,          Carolina%Roldán Fontana%NULL%0,          Carmen%Herrero Rodríguez%NULL%1,          Luis%Force Sanmartín%NULL%3,          Luis%Force Sanmartín%NULL%0,          Luis%Force Sanmartín%NULL%0,          Raquel%Aranega%NULL%1,          Arantzazu%Mera Fidalgo%NULL%3,          Arantzazu%Mera Fidalgo%NULL%0,          Arantzazu%Mera Fidalgo%NULL%0,          María Roca%Toda Savall%NULL%1,          Nicolas%Merchante Gutiérrez%NULL%3,          Nicolas%Merchante Gutiérrez%NULL%0,          Nicolas%Merchante Gutiérrez%NULL%0,          Eva María%León Jiménez%NULL%1,          José Luís%Del Pozo%NULL%3,          José Luís%Del Pozo%NULL%0,          José Luís%Del Pozo%NULL%0,          Josefa%Serralta Buades%NULL%3,          Josefa%Serralta Buades%NULL%0,          Josefa%Serralta Buades%NULL%0,          Ginger Giorgiana%Cabrera Tejada%NULL%1,          Mario%Fernández-Ruiz%NULL%3,          Mario%Fernández-Ruiz%NULL%0,          Mario%Fernández-Ruiz%NULL%0,          José María%Aguado%NULL%1,          Guillermo%Maestro de la Calle%NULL%1,          José Miguel%Cisneros%NULL%3,          José Miguel%Cisneros%NULL%0,          José Miguel%Cisneros%NULL%0,          Jerónimo%Pachón%NULL%0,          Manuela%Aguilar-Guisado%NULL%1,          Teresa%Aldabó%NULL%1,          María Dolores%Avilés%NULL%1,          Claudio%Bueno%NULL%1,          Elisa%Cordero-Matía%NULL%1,          Ana%Escoresca%NULL%1,          Lydia%Gálvez-Benítez%NULL%1,          Carmen%Infante%NULL%1,          Guillermo%Martín%NULL%1,          Julia%Praena%NULL%1,          Cristina%Roca%NULL%1,          Celia%Salamanca%NULL%1,          Alejandro%Suárez-Benjumea%NULL%1,          Pilar%Vizcarra%NULL%3,          Pilar%Vizcarra%NULL%0,          Pilar%Vizcarra%NULL%0,          Carmen%Quereda%NULL%1,          Mario José%Rodriguez Dominguez%NULL%1,          Francesca%Gioia%NULL%1,          Francesca%Norman%NULL%1,          Santos%Del Campo%NULL%1,          Rafael%Cantón Moreno%NULL%1,          Antonio%Oteo Revuelta José%NULL%3,          Antonio%Oteo Revuelta José%NULL%0,          Antonio%Oteo Revuelta José%NULL%0,          Paula%Santibáñez Sáenz%NULL%1,          Cristina%Cervera Acedo%NULL%1,          Carlos%Ruiz Martínez%NULL%1,          José R.%Blanco Ramos%NULL%1,          José M.%Azcona Gutiérrez%NULL%1,          Concepción%García García%NULL%1,          Jorge%Alba Fernández%NULL%1,          Valvanera%Ibarra Cucalón%NULL%1,          Mercedes%San Franco%NULL%1,          Luis%Metola Sacristán%NULL%1,          Héctor%Meijide Míguez%NULL%3,          Héctor%Meijide Míguez%NULL%0,          Héctor%Meijide Míguez%NULL%0,          Silvia%Paulos Viñas%NULL%1,          Justo%Menéndez%NULL%3,          Justo%Menéndez%NULL%0,          Justo%Menéndez%NULL%0,          Paula%Villares Fernández%NULL%1,          Lara%Montes Andújar%NULL%1,          Álvaro%Navarro Batet%NULL%3,          Álvaro%Navarro Batet%NULL%0,          Álvaro%Navarro Batet%NULL%0,          Anna%Ferrer Santolaria%NULL%1,          María de la Luz%Padilla Salazar%NULL%3,          María de la Luz%Padilla Salazar%NULL%0,          María de la Luz%Padilla Salazar%NULL%0,          Lucy%Abella Vázquez%NULL%1,          Marcelino%Hayek Peraza%NULL%1,          Antonio%García Pardo%NULL%1,          Carolina%Hernández Carballo%NULL%1,          Andrés Javier%Ruiz Fernández%NULL%3,          Andrés Javier%Ruiz Fernández%NULL%0,          Andrés Javier%Ruiz Fernández%NULL%0,          Isabel%Barrio López%NULL%1,          Alí%Martakoush%NULL%3,          Alí%Martakoush%NULL%0,          Alí%Martakoush%NULL%0,          Agustín%Rojas-Vieyra%NULL%3,          Agustín%Rojas-Vieyra%NULL%0,          Agustín%Rojas-Vieyra%NULL%0,          Sonia%García Calvo%NULL%3,          Sonia%García Calvo%NULL%0,          Sonia%García Calvo%NULL%0,          Mercedes%Villarreal García-Lomas%NULL%1,          Marta%Vizcaíno Callejón%NULL%3,          Marta%Vizcaíno Callejón%NULL%0,          Marta%Vizcaíno Callejón%NULL%0,          María Pilar%García García%NULL%1,          Ana%Lérida Urteaga%NULL%3,          Ana%Lérida Urteaga%NULL%0,          Ana%Lérida Urteaga%NULL%0,          Natalia%Carrasco Fons%NULL%1,          Beatriz%María Sanjuan%NULL%1,          Lydia%Martín González%NULL%1,          Camilo%Sanz Zamudio%NULL%1,          Inmaculada%Jarrín%NULL%0,          Inmaculada%Jarrín%NULL%0,          Inmaculada%Jarrín%NULL%0,          Belén%Alejos%NULL%1,          Cristina%Moreno%NULL%1,          Marta%Rava%NULL%1,          Carlos%Iniesta%NULL%1,          Rebeca%Izquierdo%NULL%1,          Inés%Suárez-García%NULL%1,          Asunción%Díaz%NULL%1,          Marta%Ruiz-Alguero%NULL%1,          Victoria%Hernando%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,          Denise J%McCulloch%NULL%4,          Denise J%McCulloch%NULL%0,          Vidya%Atluri%NULL%2,          Michela%Blain%NULL%2,          Sarah A%McGuffin%NULL%2,          Arun K%Nalla%NULL%2,          Meei-Li%Huang%NULL%2,          Alex L%Greninger%NULL%2,          Keith R%Jerome%NULL%2,          Seth A%Cohen%NULL%2,          Santiago%Neme%NULL%2,          Margaret L%Green%NULL%2,          Helen Y%Chu%NULL%2,          H Nina%Kim%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Qingxian%Cai%xref no email%1,  Fengjuan%Chen%xref no email%1,  Tao%Wang%xref no email%4,  Fang%Luo%xref no email%1,  Xiaohui%Liu%xref no email%1,  Qikai%Wu%xref no email%1,  Qing%He%xref no email%1,  Zhaoqin%Wang%xref no email%1,  Yingxia%Liu%xref no email%0,  Lei%Liu%xref no email%1,  Jun%Chen%xref no email%1,  Lin%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,          Wenlin%Cheng%NULL%0,          Lei%Yu%NULL%0,          Ya-Kun%Liu%NULL%0,          Xiaoyong%Hu%NULL%0,          Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,          Alberto%Zucchelli%NULL%1,          Marinella%Turla%NULL%1,          Maria Sofia%Cotelli%NULL%1,          Sara%Fascendini%NULL%1,          Mara%Zanni%NULL%1,          Angelo%Bianchetti%NULL%1,          Matteo Peli%Psy%NULL%1,          Renzo%Rozzini%NULL%1,          Stefano%Boffelli%NULL%1,          Melania%Cappuccio%NULL%1,          Federica Gottardi%Psy%NULL%1,          Chiara Vecchi%Psy%NULL%1,          Daniele%Bellandi%NULL%1,          Claudia%Caminati%NULL%1,          Simona%Gentile%NULL%1,          Elena Lucchi%Psy%NULL%1,          Ignazio%Di Fazio%NULL%1,          Marina Zanetti%Psy%NULL%1,          Giuliana%Vezzadini%NULL%1,          Chiara Forlani%Psy%NULL%1,          Maura Cosseddu%Psy%NULL%1,          Rosanna Turrone%Psy%NULL%1,          Silvia Pelizzari%Psy%NULL%1,          Andrea%Scalvini%NULL%1,          Marco%Di Cesare%NULL%1,          Marta Grigolo%Psy%NULL%1,          Lina%Falanga%NULL%1,          Nives%Medici%NULL%1,          Nives%Palamini%NULL%1,          Elisa Zanacchi%Psy%NULL%1,          Eleonora Grossi%Psy%NULL%1,          Giuseppe%Bellelli%NULL%1,          Alessandra%Marengoni%NULL%1,          Marco%Trabucchi%NULL%1,          Alessandro%Padovani%alessandro.padovani@unibs.it%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0,          Nancy%Chow%NULL%3,          Katherine%Fleming-Dutra%NULL%2,          Ryan%Gierke%NULL%3,          Aron%Hall%NULL%3,          Michelle%Hughes%NULL%2,          Tamara%Pilishvili%NULL%3,          Matthew%Ritchey%NULL%3,          Katherine%Roguski%NULL%2,          Tami%Skoff%NULL%2,          Emily%Ussery%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,          Zhencang%Zheng%NULL%2,          Chao%Zhang%NULL%2,          Xijiang%Zhang%NULL%2,          Huijuan%Wu%NULL%2,          Jingdong%Wang%NULL%2,          Shuwei%Wang%NULL%2,          Cheng%Zheng%dr.zhengcheng@foxmail.com%2]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,          Wei%Liu%NULL%0,          Kui%Liu%NULL%0,          Yuan-Yuan%Fang%NULL%0,          Jin%Shang%NULL%0,          Ling%Zhou%NULL%0,          Ke%Wang%NULL%0,          Fan%Leng%NULL%0,          Shuang%Wei%NULL%0,          Lei%Chen%NULL%0,          Hui-Guo%Liu%NULL%0,          Pei-Fang%Wei%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,          Francesco%Innocenti%NULL%1,          Julien%Beauté%NULL%0,          Veronika%Učakar%NULL%1,          Marta%Grgič Vitek%NULL%1,          Eero%Poukka%NULL%1,          Tuula%Hannila-Handelberg%NULL%1,          Charmaine%Gauci%NULL%1,          Tanya%Melillo%NULL%1,          Theano%Georgakopoulou%NULL%1,          Jiri%Jarkovsky%NULL%1,          Pavel%Slezak%NULL%1,          Concepción%Delgado-Sanz%NULL%1,          Carmen%Olmedo-Lucerón%NULL%1,          Heleene%Suija%NULL%1,          Rasa%Liausediene%NULL%1,          Piaras%O’Lorcain%NULL%1,          Niamh%Murphy%NULL%1,          André%Peralta-Santos%NULL%1,          Pedro%Casaca%NULL%1,          Ioanna%Gregoriou%NULL%1,          Nick%Bundle%NULL%0,          Gianfranco%Spiteri%NULL%1,          Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,          Peiyun%Li%NULL%2,          Liang%Ma%NULL%2,          Hang%Liang%NULL%2,          Jie%Lei%NULL%3,          Wenqiang%Li%NULL%2,          Kun%Wang%NULL%3,          Yu%Song%NULL%2,          Shuai%Li%NULL%2,          Wei%Yang%NULL%2,          Cao%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,          Yun%Ling%NULL%0,          Yun%Ling%NULL%0,          Tao%Bai%NULL%6,          Tao%Bai%NULL%0,          Yusang%Xie%NULL%2,          Jie%Huang%NULL%4,          Jie%Huang%NULL%0,          Jian%Li%NULL%2,          Weining%Xiong%NULL%2,          Dexiang%Yang%NULL%2,          Rong%Chen%NULL%2,          Fangying%Lu%NULL%2,          Yunfei%Lu%NULL%3,          Xuhui%Liu%NULL%2,          Yuqing%Chen%NULL%4,          Yuqing%Chen%NULL%0,          Xin%Li%NULL%3,          Yong%Li%NULL%2,          Hanssa Dwarka%Summah%NULL%2,          Huihuang%Lin%NULL%2,          Jiayang%Yan%NULL%2,          Min%Zhou%NULL%0,          Hongzhou%Lu%NULL%0,          Hongzhou%Lu%NULL%0,          Jieming%Qu%NULL%0,          Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,          Massimiliano%Marino%NULL%1,          Debora%Formisano%NULL%1,          Francesco%Venturelli%NULL%1,          Massimo%Vicentini%NULL%2,          Massimo%Vicentini%NULL%0,          Roberto%Grilli%NULL%1,          NULL%NULL%NULL%0,          Gianluigi%Forloni%NULL%8,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0,          Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,          Justin J.%Choi%NULL%1,          Laura C.%Pinheiro%NULL%1,          Edward J.%Schenck%NULL%1,          Ruijun%Chen%NULL%0,          Assem%Jabri%NULL%1,          Michael J.%Satlin%NULL%1,          Thomas R.%Campion%NULL%1,          Musarrat%Nahid%NULL%1,          Joanna B.%Ringel%NULL%1,          Katherine L.%Hoffman%NULL%1,          Mark N.%Alshak%NULL%1,          Han A.%Li%NULL%1,          Graham T.%Wehmeyer%NULL%2,          Graham T.%Wehmeyer%NULL%0,          Mangala%Rajan%NULL%1,          Evgeniya%Reshetnyak%NULL%1,          Nathaniel%Hupert%NULL%1,          Evelyn M.%Horn%NULL%1,          Fernando J.%Martinez%NULL%1,          Roy M.%Gulick%NULL%1,          Monika M.%Safford%NULL%2,          Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,          Norio%Ohmagari%NULL%1,          Daniel%Shin%NULL%1,          George%Diaz%NULL%1,          Erika%Asperges%NULL%1,          Antonella%Castagna%NULL%0,          Torsten%Feldt%NULL%1,          Gary%Green%NULL%1,          Margaret L.%Green%NULL%1,          François-Xavier%Lescure%NULL%1,          Emanuele%Nicastri%NULL%0,          Rentaro%Oda%NULL%2,          Rentaro%Oda%NULL%0,          Kikuo%Yo%NULL%2,          Kikuo%Yo%NULL%0,          Eugenia%Quiros-Roldan%NULL%1,          Alex%Studemeister%NULL%1,          John%Redinski%NULL%1,          Seema%Ahmed%NULL%1,          Jorge%Bernett%NULL%1,          Daniel%Chelliah%NULL%1,          Danny%Chen%NULL%1,          Shingo%Chihara%NULL%1,          Stuart H.%Cohen%NULL%1,          Jennifer%Cunningham%NULL%1,          Antonella%D’Arminio Monforte%NULL%1,          Saad%Ismail%NULL%1,          Hideaki%Kato%NULL%1,          Giuseppe%Lapadula%NULL%1,          Erwan%L’Her%NULL%1,          Toshitaka%Maeno%NULL%1,          Sumit%Majumder%NULL%1,          Marco%Massari%NULL%1,          Marta%Mora-Rillo%NULL%1,          Yoshikazu%Mutoh%NULL%1,          Duc%Nguyen%NULL%1,          Ewa%Verweij%NULL%1,          Alexander%Zoufaly%NULL%1,          Anu O.%Osinusi%NULL%1,          Adam%DeZure%NULL%1,          Yang%Zhao%NULL%1,          Lijie%Zhong%NULL%1,          Anand%Chokkalingam%NULL%1,          Emon%Elboudwarej%NULL%1,          Laura%Telep%NULL%1,          Leighann%Timbs%NULL%1,          Ilana%Henne%NULL%1,          Scott%Sellers%NULL%1,          Huyen%Cao%NULL%1,          Susanna K.%Tan%NULL%1,          Lucinda%Winterbourne%NULL%1,          Polly%Desai%NULL%1,          Robertino%Mera%NULL%1,          Anuj%Gaggar%NULL%1,          Robert P.%Myers%NULL%1,          Diana M.%Brainard%NULL%1,          Richard%Childs%NULL%1,          Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,          Zheng-yi%Ni%NULL%0,          Zheng-yi%Ni%NULL%0,          Yu%Hu%NULL%0,          Wen-hua%Liang%NULL%0,          Chun-quan%Ou%NULL%0,          Jian-xing%He%NULL%0,          Lei%Liu%NULL%0,          Hong%Shan%NULL%0,          Chun-liang%Lei%NULL%0,          David S.C.%Hui%NULL%0,          Bin%Du%NULL%0,          Lan-juan%Li%NULL%0,          Guang%Zeng%NULL%0,          Kwok-Yung%Yuen%NULL%0,          Ru-chong%Chen%NULL%0,          Chun-li%Tang%NULL%0,          Tao%Wang%NULL%0,          Ping-yan%Chen%NULL%0,          Jie%Xiang%NULL%0,          Shi-yue%Li%NULL%0,          Jin-lin%Wang%NULL%0,          Zi-jing%Liang%NULL%0,          Yi-xiang%Peng%NULL%0,          Li%Wei%NULL%0,          Yong%Liu%NULL%0,          Ya-hua%Hu%NULL%0,          Peng%Peng%NULL%0,          Jian-ming%Wang%NULL%0,          Ji-yang%Liu%NULL%0,          Zhong%Chen%NULL%0,          Gang%Li%NULL%0,          Zhi-jian%Zheng%NULL%0,          Shao-qin%Qiu%NULL%0,          Jie%Luo%NULL%0,          Chang-jiang%Ye%NULL%0,          Shao-yong%Zhu%NULL%0,          Nan-shan%Zhong%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,         Arunthamakun%Justin%coreGivesNoEmail%1,         Athavale%Ambarish M.%coreGivesNoEmail%1,         Bansal%Anip%coreGivesNoEmail%1,         Brenner%Samantha K.%coreGivesNoEmail%1,         Chan%Lili%coreGivesNoEmail%1,         Donnelly%John P.%coreGivesNoEmail%1,         Friedman%Allon N.%coreGivesNoEmail%1,         Gershengorn%Hayley B.%coreGivesNoEmail%1,         Goyal%Nitender%coreGivesNoEmail%1,         Green%Adam%coreGivesNoEmail%1,         Gupta%Shruti%coreGivesNoEmail%1,         Hayek%Salim S.%coreGivesNoEmail%1,         Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,         Kibbelaar%Zoe A.%coreGivesNoEmail%1,         Leaf%David E.%coreGivesNoEmail%1,         Leonberg-Yoo%Amanda%coreGivesNoEmail%1,         Mathews%Kusum S.%coreGivesNoEmail%1,         Melamed%Michal L.%coreGivesNoEmail%1,         Omar%Samah Abu%coreGivesNoEmail%1,         Parikh%Chirag R.%coreGivesNoEmail%1,         Radbel%Jared%coreGivesNoEmail%1,         Reiser%Jochen%coreGivesNoEmail%1,         Schenck%Edward J.%coreGivesNoEmail%1,         Semler%Matthew W.%coreGivesNoEmail%1,         Shaefi%Shahzad%coreGivesNoEmail%1,         Shehata%Alexandre M.%coreGivesNoEmail%1,         Short%Samuel A. P.%coreGivesNoEmail%1,         Srivastava%Anand%coreGivesNoEmail%1,         Sutherland%Anne%coreGivesNoEmail%1,         Velez%Juan Carlos Q.%coreGivesNoEmail%1,         Vijayan%Anitha%coreGivesNoEmail%1,         Wang%Wei%coreGivesNoEmail%2,         Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,          İmran%HASANOĞLU%NULL%2,          İmran%HASANOĞLU%NULL%0,          Bircan%KAYAASLAN%NULL%2,          Bircan%KAYAASLAN%NULL%0,          Adalet%AYPAK%NULL%2,          Adalet%AYPAK%NULL%0,          Ayşe%KAYA KALEM%NULL%2,          Ayşe%KAYA KALEM%NULL%0,          Fatma%ESER%NULL%2,          Fatma%ESER%NULL%0,          Burcu%ÖZDEMİR%NULL%2,          Burcu%ÖZDEMİR%NULL%0,          Elif Mükime%SARICAOĞLU%NULL%2,          Elif Mükime%SARICAOĞLU%NULL%0,          Müge%AYHAN%NULL%2,          Müge%AYHAN%NULL%0,          Yeşim%AYBAR BİLİR%NULL%2,          Yeşim%AYBAR BİLİR%NULL%0,          Işıl%ÖZKOÇAK TURAN%NULL%2,          Işıl%ÖZKOÇAK TURAN%NULL%0,          Deniz%ERDEM%NULL%2,          Deniz%ERDEM%NULL%0,          Nevzat Mehmet%MUTLU%NULL%1,          Turan%BUZGAN%NULL%2,          Turan%BUZGAN%NULL%0,          Bedia%DİNÇ%NULL%2,          Bedia%DİNÇ%NULL%0,          Esragül%AKINCI%NULL%2,          Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,          Elnara%Fazio-Eynullayeva%NULL%2,          Elnara%Fazio-Eynullayeva%NULL%0,          Deirdre A.%Lane%NULL%2,          Deirdre A.%Lane%NULL%0,          Paula%Underhill%NULL%2,          Paula%Underhill%NULL%0,          Gregory Y. H.%Lip%NULL%1,          Mirjam E. E.%Kretzschmar%NULL%3,          Mirjam E. E.%Kretzschmar%NULL%0,          Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,          Min%Xie%NULL%2,          Jianping%Zhao%NULL%0,          Xiansheng%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,          Shaoqiu%Chen%NULL%1,          Yuanyuan%Fu%NULL%1,          Zitong%Gao%NULL%1,          Hui%Long%NULL%1,          Jian-ming%Wang%NULL%0,          Hong-wei%Ren%NULL%1,          Yi%Zuo%NULL%1,          Huan%Li%NULL%0,          Jie%Wang%NULL%1,          Qing-bang%Xu%NULL%1,          Wen-xiong%Yu%NULL%1,          Jia%Liu%NULL%1,          Chen%Shao%NULL%1,          Jun-jie%Hao%NULL%1,          Chuan-zhen%Wang%NULL%1,          Yao%Ma%NULL%1,          Zhanwei%Wang%NULL%1,          Richard%Yanagihara%NULL%1,          Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,          Yeming%Wang%NULL%0,          Xingwang%Li%NULL%0,          Lili%Ren%NULL%0,          Jianping%Zhao%NULL%0,          Yi%Hu%NULL%0,          Li%Zhang%NULL%0,          Guohui%Fan%NULL%0,          Jiuyang%Xu%NULL%0,          Xiaoying%Gu%NULL%0,          Zhenshun%Cheng%NULL%0,          Ting%Yu%NULL%0,          Jiaan%Xia%NULL%0,          Yuan%Wei%NULL%0,          Wenjuan%Wu%NULL%0,          Xuelei%Xie%NULL%0,          Wen%Yin%NULL%0,          Hui%Li%NULL%0,          Min%Liu%NULL%0,          Yan%Xiao%NULL%0,          Hong%Gao%NULL%0,          Li%Guo%NULL%0,          Jungang%Xie%NULL%0,          Guangfa%Wang%NULL%0,          Rongmeng%Jiang%NULL%0,          Zhancheng%Gao%NULL%0,          Qi%Jin%NULL%0,          Jianwei%Wang%wangjw28@163.com%0,          Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,         Bayani%Masomeh%coreGivesNoEmail%1,         Bijani%Ali%coreGivesNoEmail%1,         Ebrahimpour%Soheil%coreGivesNoEmail%1,         Gholinejad%Hossein Emam%coreGivesNoEmail%1,         Ghorbani%Hossein%coreGivesNoEmail%1,         Hasanpour%Amir Hossein%coreGivesNoEmail%1,         Javanian%Mostafa%coreGivesNoEmail%1,         Masrour-Roudsari%Jila%coreGivesNoEmail%1,         Mehraeen%Rahele%coreGivesNoEmail%1,         Mohseni%Sima%coreGivesNoEmail%1,         Rostami%Ali%coreGivesNoEmail%1,         Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,         Sepidarkish%Mahdi%coreGivesNoEmail%1,         Shabani%Asieh%coreGivesNoEmail%1,         Shahbazi%Mehdi%coreGivesNoEmail%1,         Shokri%Mehran%coreGivesNoEmail%1,         Tabari%Afrooz Monadi%coreGivesNoEmail%1,         Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,          Matteo%Piccica%NULL%1,          Lucia%Graziani%NULL%1,          Iacopo%Vellere%NULL%1,          Annarita%Botta%NULL%1,          Marta%Tilli%NULL%1,          Letizia%Ottino%NULL%1,          Beatrice%Borchi%NULL%1,          Marco%Pozzi%NULL%1,          Filippo%Bartalesi%NULL%1,          Jessica%Mencarini%NULL%1,          Michele%Spinicci%NULL%1,          Lorenzo%Zammarchi%NULL%1,          Filippo%Pieralli%NULL%1,          Giovanni%Zagli%NULL%1,          Carlo%Nozzoli%NULL%1,          Stefano%Romagnoli%NULL%1,          Alessandro%Bartoloni%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,          Zhao-Wu%Tao%NULL%0,          Lei%Wang%NULL%0,          Ming-Li%Yuan%NULL%0,          Kui%Liu%NULL%0,          Ling%Zhou%NULL%0,          Shuang%Wei%NULL%0,          Yan%Deng%NULL%0,          Jing%Liu%NULL%0,          Hui-Guo%Liu%NULL%0,          Ming%Yang%NULL%0,          Yi%Hu%NULL%0,          Pei-Fang%Wei%NULL%0,          Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,          Shuyun%Xu%NULL%1,          Muqing%Yu%NULL%1,          Ke%Wang%NULL%0,          Yu%Tao%NULL%0,          Ying%Zhou%NULL%0,          Jing%Shi%NULL%2,          Min%Zhou%NULL%0,          Bo%Wu%NULL%1,          Zhenyu%Yang%NULL%1,          Cong%Zhang%NULL%0,          Junqing%Yue%NULL%1,          Zhiguo%Zhang%NULL%1,          Harald%Renz%NULL%1,          Xiansheng%Liu%NULL%0,          Jungang%Xie%NULL%0,          Min%Xie%NULL%0,          Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,          Shu%Peng%NULL%1,          Le-qun%Li%NULL%1,          Qi%Wang%NULL%0,          Wei%Ping%NULL%1,          Ni%Zhang%NULL%1,          Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,          Yuanyuan%Xing%NULL%0,          Yu%Xiao%NULL%0,          Liping%Deng%NULL%0,          Qiu%Zhao%NULL%0,          Hongling%Wang%NULL%0,          Yong%Xiong%NULL%0,          Zhenshun%Cheng%NULL%0,          Shicheng%Gao%NULL%0,          Ke%Liang%NULL%0,          Mingqi%Luo%NULL%0,          Tielong%Chen%NULL%0,          Shihui%Song%NULL%0,          Zhiyong%Ma%NULL%0,          Xiaoping%Chen%NULL%0,          Ruiying%Zheng%NULL%0,          Qian%Cao%NULL%0,          Fan%Wang%fanndywang@foxmail.com%0,          Yongxi%Zhang%znact1936@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,          Nicolas%Lopez-Villalobos%NULL%1,          Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,          Adam J%Russak%NULL%4,          Adam J%Russak%NULL%0,          Jessica K%De Freitas%NULL%2,          Anuradha%Lala%NULL%2,          Riccardo%Miotto%NULL%2,          Akhil%Vaid%NULL%2,          Kipp W%Johnson%NULL%2,          Matteo%Danieletto%NULL%2,          Eddye%Golden%NULL%2,          Dara%Meyer%NULL%2,          Manbir%Singh%NULL%2,          Sulaiman%Somani%NULL%2,          Arjun%Kapoor%NULL%2,          Ross%O'Hagan%NULL%2,          Sayan%Manna%NULL%2,          Udit%Nangia%NULL%2,          Suraj K%Jaladanki%NULL%2,          Paul%O’Reilly%NULL%4,          Paul%O’Reilly%NULL%0,          Laura M%Huckins%NULL%2,          Patricia%Glowe%NULL%2,          Arash%Kia%NULL%2,          Prem%Timsina%NULL%2,          Robert M%Freeman%NULL%2,          Matthew A%Levin%NULL%2,          Jeffrey%Jhang%NULL%2,          Adolfo%Firpo%NULL%2,          Patricia%Kovatch%NULL%2,          Joseph%Finkelstein%NULL%2,          Judith A%Aberg%NULL%2,          Emilia%Bagiella%NULL%2,          Carol R%Horowitz%NULL%2,          Barbara%Murphy%NULL%2,          Zahi A%Fayad%NULL%2,          Jagat%Narula%NULL%2,          Eric J%Nestler%NULL%2,          V%Fuster%NULL%2,          Carlos%Cordon-Cardo%NULL%2,          Dennis%Charney%NULL%2,          David L%Reich%NULL%2,          Allan%Just%NULL%2,          Erwin P%Bottinger%NULL%2,          Alexander W%Charney%NULL%2,          Benjamin S%Glicksberg%NULL%2,          Girish N%Nadkarni%NULL%2,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,           X.% Yan%null%1,           X.% Tang%null%1,           J.% Peng%null%1,           Q.% Yu%null%1,           L.% Feng%null%1,           G.% Yuan%null%1,           A.% Zhang%null%1,           Y.% Chen%null%1,           J.% Yuan%null%1,           X.% Huang%null%1,           X.% Zhang%null%1,           P.% Hu%null%1,           Y.% Song%null%1,           C.% Qian%null%1,           Q.% Sun%null%1,           D.% Wang%null%1,           J.% Tong%null%1,           J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,          Kevin Bryan%Lo%NULL%0,          Kevin Bryan%Lo%NULL%0,          Fahad%Gul%NULL%0,          Eric%Peterson%NULL%0,          Robert%De Joy%NULL%0,          Ruchika%Bhargav%NULL%0,          Jerald%Pelayo%NULL%0,          Jeri%Albano%NULL%0,          Zurab%Azmaiparashvili%NULL%0,          Sadia%Benzaquen%NULL%0,          Gabriel%Patarroyo‐Aponte%NULL%0,          Janani%Rangaswami%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,          Mu%Qin%qinmuae@163.com%0,          Yuli%Cai%NULL%0,          Tao%Liu%NULL%0,          Bo%Shen%NULL%0,          Fan%Yang%NULL%0,          Sheng%Cao%NULL%0,          Xu%Liu%NULL%0,          Xu%Liu%NULL%0,          Yaozu%Xiang%NULL%0,          Qinyan%Zhao%NULL%0,          He%Huang%huanghe1977@whu.edu.cn%0,          Bo%Yang%yybb112@whu.edu.cn%0,          Congxin%Huang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,          Fergus%Hamilton%NULL%1,          Samuel%Gunning%NULL%1,          Caitlin%Sheehy%NULL%1,          Ed%Moran%NULL%1,          Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,          Yi%Xiang%NULL%0,          Wei%Fang%NULL%0,          Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,          Boqun%Li%279685211@qq.com%0,          Boqun%Li%279685211@qq.com%0,          Yanjun%Hu%huyanjun@163.com%0,          Chunhui%Lang%NULL%0,          Daoqiu%Huang%NULL%0,          Qiuyan%Sun%NULL%0,          Yan%Xiong%NULL%0,          Xia%Huang%NULL%0,          Jinglong%Lv%NULL%0,          Yaling%Luo%NULL%0,          Li%Shen%NULL%0,          Haoran%Yang%NULL%0,          Gu%Huang%NULL%0,          Ruishan%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,         Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,         Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,         Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,          Wenbo%He%NULL%4,          Xiaomei%Yu%NULL%4,          Dalong%Hu%NULL%4,          Mingwei%Bao%NULL%4,          Huafen%Liu%NULL%4,          Jiali%Zhou%NULL%4,          Hong%Jiang%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,          Bohan%Yang%NULL%0,          Qianwen%Li%NULL%0,          Lu%Wen%NULL%0,          Ruiguang%Zhang%zrg27@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,         Xu%Y%coreGivesNoEmail%1,         Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,          Fen%Li%NULL%0,          Xiao%Wang%NULL%0,          Jie%Yan%NULL%0,          Fen%Zhu%NULL%0,          Shifan%Tang%NULL%0,          Yingzhong%Deng%NULL%0,          Hua%Wang%NULL%0,          Rui%Chen%NULL%0,          Zhili%Yu%NULL%0,          Yaping%Li%NULL%0,          Jingzhou%Shang%NULL%0,          Lingjun%Zeng%NULL%0,          Jie%Zhao%NULL%0,          Chaokun%Guan%NULL%0,          Qiaomei%Liu%NULL%0,          Haifeng%Chen%NULL%0,          Wei%Gong%NULL%0,          Xin%Huang%NULL%0,          Yu‐Jiao%Zhang%NULL%0,          Jianguang%Liu%NULL%0,          Xiaoyan%Dong%NULL%0,          Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,          Shaoping%Nie%spnie@126.com%0,          Dongsheng%Li%dongshengli196809@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,          Pengfei%Wang%NULL%2,          Pengfei%Wang%NULL%0,          Yuyan%Song%NULL%1,          An%Zhang%zhangan@hospital.cqmu.edu.cn%1,          Guodan%Yuan%71502294@qq.com%1,          Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,          Yuan%Yu%NULL%0,          Jiqian%Xu%NULL%0,          Huaqing%Shu%NULL%0,          Jia'an%Xia%NULL%0,          Hong%Liu%NULL%0,          Yongran%Wu%NULL%0,          Lu%Zhang%NULL%0,          Zhui%Yu%NULL%0,          Minghao%Fang%NULL%0,          Ting%Yu%NULL%0,          Yaxin%Wang%NULL%0,          Shangwen%Pan%NULL%0,          Xiaojing%Zou%NULL%0,          Shiying%Yuan%NULL%0,          You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,         Cao%Yi-yuan%coreGivesNoEmail%0,         Dong%Xiang%coreGivesNoEmail%0,         Gao%Ya-dong%coreGivesNoEmail%0,         Yan%You-qin%coreGivesNoEmail%0,         Yang%Yi-bin%coreGivesNoEmail%0,         Yuan%Ya-dong%coreGivesNoEmail%0,         Zhang%Jin-jin%coreGivesNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,          Chang%Hu%NULL%4,          Linjie%Luo%NULL%3,          Fang%Fang%NULL%5,          Yongfeng%Chen%NULL%3,          Jianguo%Li%NULL%3,          Zhiyong%Peng%NULL%0,          Huaqin%Pan%phq2012@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,          Miao%Yu%NULL%1,          Song%Tong%NULL%1,          Lu-Yu%Liu%NULL%1,          Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,          Huangqing%Ouyang%NULL%2,          Lingli%Fu%NULL%2,          Shijie%Wang%NULL%2,          Jianglong%Han%NULL%2,          Kejie%Huang%NULL%2,          Mingfang%Jia%NULL%2,          Qibin%Song%NULL%2,          Zhenming%Fu%davidfuzming@whu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,          Anne%Chen%NULL%1,          Wei%Hou%NULL%3,          James M.%Graham%NULL%1,          Haifang%Li%NULL%1,          Paul S.%Richman%NULL%1,          Henry C.%Thode%NULL%1,          Adam J.%Singer%NULL%1,          Tim Q.%Duong%NULL%1,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0,          Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2560,7 +2881,7 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>435</v>
+        <v>538</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -2589,7 +2910,7 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>539</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -2618,7 +2939,7 @@
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>437</v>
+        <v>540</v>
       </c>
       <c r="F4" t="s">
         <v>76</v>
@@ -2647,7 +2968,7 @@
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>438</v>
+        <v>541</v>
       </c>
       <c r="F5" t="s">
         <v>80</v>
@@ -2676,7 +2997,7 @@
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>439</v>
+        <v>542</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
@@ -2699,22 +3020,22 @@
         <v>44013</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>489</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>490</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>543</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>492</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>493</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
@@ -2734,7 +3055,7 @@
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>440</v>
+        <v>544</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -2763,7 +3084,7 @@
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>441</v>
+        <v>545</v>
       </c>
       <c r="F9" t="s">
         <v>91</v>
@@ -2792,7 +3113,7 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>546</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -2821,7 +3142,7 @@
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>547</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -2850,7 +3171,7 @@
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>444</v>
+        <v>548</v>
       </c>
       <c r="F12" t="s">
         <v>102</v>
@@ -2879,7 +3200,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>445</v>
+        <v>549</v>
       </c>
       <c r="F13" t="s">
         <v>105</v>
@@ -2908,7 +3229,7 @@
         <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>550</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -2937,7 +3258,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>447</v>
+        <v>551</v>
       </c>
       <c r="F15" t="s">
         <v>113</v>
@@ -2966,7 +3287,7 @@
         <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>552</v>
       </c>
       <c r="F16" t="s">
         <v>117</v>
@@ -2995,7 +3316,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>449</v>
+        <v>553</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -3024,7 +3345,7 @@
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
@@ -3053,7 +3374,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>451</v>
+        <v>555</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
@@ -3082,7 +3403,7 @@
         <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>452</v>
+        <v>556</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -3111,7 +3432,7 @@
         <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>453</v>
+        <v>557</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -3140,7 +3461,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>454</v>
+        <v>558</v>
       </c>
       <c r="F22" t="s">
         <v>133</v>
@@ -3169,7 +3490,7 @@
         <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>455</v>
+        <v>559</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3198,7 +3519,7 @@
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>456</v>
+        <v>560</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3227,7 +3548,7 @@
         <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>457</v>
+        <v>561</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -3256,7 +3577,7 @@
         <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>458</v>
+        <v>562</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -3285,7 +3606,7 @@
         <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>459</v>
+        <v>563</v>
       </c>
       <c r="F27" t="s">
         <v>147</v>
@@ -3314,7 +3635,7 @@
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>460</v>
+        <v>564</v>
       </c>
       <c r="F28" t="s">
         <v>151</v>
@@ -3343,7 +3664,7 @@
         <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>461</v>
+        <v>565</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3372,7 +3693,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>462</v>
+        <v>566</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -3401,7 +3722,7 @@
         <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>463</v>
+        <v>567</v>
       </c>
       <c r="F31" t="s">
         <v>161</v>
@@ -3430,7 +3751,7 @@
         <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>464</v>
+        <v>568</v>
       </c>
       <c r="F32" t="s">
         <v>164</v>
@@ -3459,7 +3780,7 @@
         <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>465</v>
+        <v>569</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3488,7 +3809,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>466</v>
+        <v>570</v>
       </c>
       <c r="F34" t="s">
         <v>62</v>
@@ -3517,7 +3838,7 @@
         <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>467</v>
+        <v>571</v>
       </c>
       <c r="F35" t="s">
         <v>174</v>
@@ -3546,7 +3867,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>468</v>
+        <v>572</v>
       </c>
       <c r="F36" t="s">
         <v>178</v>
@@ -3575,7 +3896,7 @@
         <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>469</v>
+        <v>573</v>
       </c>
       <c r="F37" t="s">
         <v>181</v>
@@ -3604,7 +3925,7 @@
         <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>470</v>
+        <v>574</v>
       </c>
       <c r="F38" t="s">
         <v>185</v>
@@ -3633,7 +3954,7 @@
         <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>471</v>
+        <v>575</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -3662,7 +3983,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>472</v>
+        <v>576</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -3691,7 +4012,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>473</v>
+        <v>577</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -3720,7 +4041,7 @@
         <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>474</v>
+        <v>578</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
@@ -3749,7 +4070,7 @@
         <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>475</v>
+        <v>579</v>
       </c>
       <c r="F43" t="s">
         <v>196</v>
@@ -3778,7 +4099,7 @@
         <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>476</v>
+        <v>580</v>
       </c>
       <c r="F44" t="s">
         <v>200</v>
@@ -3807,7 +4128,7 @@
         <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>477</v>
+        <v>581</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
@@ -3836,7 +4157,7 @@
         <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>478</v>
+        <v>582</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
@@ -3865,7 +4186,7 @@
         <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>479</v>
+        <v>583</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -3894,7 +4215,7 @@
         <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>480</v>
+        <v>584</v>
       </c>
       <c r="F48" t="s">
         <v>211</v>
@@ -3923,7 +4244,7 @@
         <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>481</v>
+        <v>585</v>
       </c>
       <c r="F49" t="s">
         <v>215</v>
@@ -3952,7 +4273,7 @@
         <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>482</v>
+        <v>586</v>
       </c>
       <c r="F50" t="s">
         <v>219</v>
@@ -4010,7 +4331,7 @@
         <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>483</v>
+        <v>587</v>
       </c>
       <c r="F52" t="s">
         <v>223</v>

--- a/Covid_19_Dataset_and_References/References/42.xlsx
+++ b/Covid_19_Dataset_and_References/References/42.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2166F4-0775-40E7-8A8D-3E9FF59DD4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79410D7-33A3-439C-B67A-CFFD67F91563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="294">
   <si>
     <t>Doi</t>
   </si>
@@ -1450,757 +1450,7 @@
     <t>_MedBiorxiv</t>
   </si>
   <si>
-    <t>[Sulaiman%Almazeedi%NULL%2,    Sarah%Al-Youha%sarahalyouha@gmail.com%2,    Mohammad H.%Jamal%NULL%2,    Mohannad%Al-Haddad%NULL%2,    Ali%Al-Muhaini%NULL%2,    Fahad%Al-Ghimlas%NULL%2,    Salman%Al-Sabah%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,    Samuel L%Bruce%NULL%2,    Cody L%Slater%NULL%2,    Jonathan R%Tiao%NULL%2,    Matthew R%Baldwin%NULL%2,    R Graham%Barr%NULL%2,    Bernard P%Chang%NULL%2,    Katherine H%Chau%NULL%2,    Justin J%Choi%NULL%2,    Nicholas%Gavin%NULL%2,    Parag%Goyal%NULL%2,    Angela M%Mills%NULL%2,    Ashmi A%Patel%NULL%2,    Marie-Laure S%Romney%NULL%2,    Monika M%Safford%NULL%2,    Neil W%Schluger%NULL%2,    Soumitra%Sengupta%NULL%2,    Magdalena E%Sobieszczyk%NULL%2,    Jason E%Zucker%NULL%2,    Paul A%Asadourian%NULL%2,    Fletcher M%Bell%NULL%2,    Rebekah%Boyd%NULL%2,    Matthew F%Cohen%NULL%2,    MacAlistair I%Colquhoun%NULL%2,    Lucy A%Colville%NULL%2,    Joseph H%de Jonge%NULL%2,    Lyle B%Dershowitz%NULL%2,    Shirin A%Dey%NULL%2,    Katherine A%Eiseman%NULL%2,    Zachary P%Girvin%NULL%2,    Daniella T%Goni%NULL%2,    Amro A%Harb%NULL%2,    Nicholas%Herzik%NULL%2,    Sarah%Householder%NULL%2,    Lara E%Karaaslan%NULL%2,    Heather%Lee%NULL%2,    Evan%Lieberman%NULL%2,    Andrew%Ling%NULL%2,    Ree%Lu%NULL%2,    Arthur Y%Shou%NULL%2,    Alexander C%Sisti%NULL%2,    Zachary E%Snow%NULL%2,    Colin P%Sperring%NULL%2,    Yuqing%Xiong%NULL%2,    Henry W%Zhou%NULL%2,    Karthik%Natarajan%NULL%2,    George%Hripcsak%NULL%2,    Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,    Mark%Caridi-Scheible%NULL%4,    James M.%Blum%NULL%3,    Chad%Robichaux%NULL%3,    Colleen%Kraft%NULL%3,    Jesse T.%Jacob%NULL%3,    Craig S.%Jabaley%NULL%3,    David%Carpenter%NULL%3,    Roberta%Kaplow%NULL%3,    Alfonso C.%Hernandez-Romieu%NULL%3,    Max W.%Adelman%NULL%3,    Greg S.%Martin%NULL%3,    Craig M.%Coopersmith%NULL%3,    David J.%Murphy%NULL%3,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Juan%Berenguer%NULL%1,    Pablo%Ryan%NULL%0,    Jesús%Rodríguez-Baño%NULL%1,    Inmaculada%Jarrín%NULL%4,    Jordi%Carratalà%NULL%4,    Jerónimo%Pachón%NULL%0,    María%Yllescas%NULL%1,    José Ramón%Arriba%NULL%1,    NULL%NULL%NULL%0,    Esther%Aznar Muñoz%NULL%1,    Pedro%Gil Divasson%NULL%1,    Patricia%González Muñiz%NULL%1,    Clara%Muñoz Aguirre%NULL%1,    Juan Carlos%López%NULL%3,    Juan Carlos%López%NULL%0,    Juan Carlos%López%NULL%0,    Margarita%Ramírez-Schacke%NULL%1,    Isabel%Gutiérrez%NULL%1,    Francisco%Tejerina%NULL%1,    Teresa%Aldámiz-Echevarría%NULL%1,    Cristina%Díez%NULL%1,    Chiara%Fanciulli%NULL%1,    Leire%Pérez-Latorre%NULL%1,    Francisco%Parras%NULL%1,    Pilar%Catalán%NULL%1,    María E.%García-Leoni%NULL%1,    Isabel%Pérez-Tamayo%NULL%1,    Luis%Puente%NULL%1,    Jamil%Cedeño%NULL%1,    Juan%Berenguer%NULL%1,    Marta%Díaz Menéndez%NULL%3,    Marta%Díaz Menéndez%NULL%0,    Marta%Díaz Menéndez%NULL%0,    Fernando%de la Calle Prieto%NULL%1,    Marta%Arsuaga Vicente%NULL%1,    Elena%Trigo Esteban%NULL%1,    Mª del Mar%Lago Núñez%NULL%1,    Rosa%de Miguel Buckley%NULL%1,    Julen%Cadiñaños Loidi%NULL%1,    Carmen%Busca Arenzana%NULL%1,    Alfredo%Mican%NULL%1,    Marta%Mora Rillo%NULL%1,    Juan Carlos%Ramos Ramos%NULL%1,    Belén%Loeches Yagüe%NULL%1,    José Ignacio%Bernardino de la Serna%NULL%1,    Julio%García Rodríguez%NULL%1,    José Ramón%Arribas López%NULL%1,    Ana%Such Diaz%NULL%3,    Ana%Such Diaz%NULL%0,    Ana%Such Diaz%NULL%0,    Elena%Álvaro Alonso%NULL%1,    Elsa%Izquierdo García%NULL%1,    Juan%Torres Macho%NULL%1,    Guillermo%Cuevas Tascon%NULL%1,    Jesús%Troya García%NULL%1,    Beatriz%Mestre Gómez%NULL%1,    Eva%Jiménez González de Buitrago%NULL%1,    Inés%Fernández Jiménez%NULL%1,    Ana Josefa%Tebar Martínez%NULL%1,    Fátima%Brañas Baztán%NULL%1,    Jorge%Valencia de la Rosa%NULL%1,    Mario%Pérez Butragueño%NULL%1,    Marta%Alvarado Blasco%NULL%1,    Pablo%Ryan%NULL%0,    Mª Antonia%Sepúlveda Berrocal%NULL%3,    Mª Antonia%Sepúlveda Berrocal%NULL%0,    Mª Antonia%Sepúlveda Berrocal%NULL%0,    Carmen%Yera Bergua%NULL%1,    Pilar%Toledano Sierra%NULL%1,    Verónica%Cano Llorente%NULL%1,    Sadaf%Zafar Iqubal-Mirza%NULL%1,    Gema%Muñiz%NULL%1,    Inmaculada%Martín Pérez%NULL%1,    Helena%Mozas Moriñigo%NULL%1,    Ana%Alguacil%NULL%1,    María Paz%García Butenegro%NULL%1,    Ana Isabel%Peláez Ballesta%NULL%3,    Ana Isabel%Peláez Ballesta%NULL%0,    Ana Isabel%Peláez Ballesta%NULL%0,    Elena%Morcillo Rodríguez%NULL%1,    Josune%Goikoetxea Agirre%NULL%3,    Josune%Goikoetxea Agirre%NULL%0,    Josune%Goikoetxea Agirre%NULL%0,    María José%Blanco Vidal%NULL%1,    Javier%Nieto Arana%NULL%1,    Mikel%del Álamo Martínez de Lagos%NULL%1,    Isabel A.%Pérez Hernández%NULL%3,    Isabel A.%Pérez Hernández%NULL%0,    Isabel A.%Pérez Hernández%NULL%0,    Inés%Pérez Zapata%NULL%1,    Rafael%Silvariño Fernández%NULL%3,    Rafael%Silvariño Fernández%NULL%0,    Rafael%Silvariño Fernández%NULL%0,    Jon%Ugalde Espiñeira%NULL%1,    Víctor%Asensi Álvarez%NULL%3,    Víctor%Asensi Álvarez%NULL%0,    Víctor%Asensi Álvarez%NULL%0,    Lucia%Suárez Pérez%NULL%1,    Silvia%Suárez Diaz%NULL%1,    Carmen%Yllera Gutiérrez%NULL%1,    Vicente%Boix%NULL%3,    Vicente%Boix%NULL%0,    Vicente%Boix%NULL%0,    Marcos%Díez Martínez%NULL%1,    Melissa%Carreres Candela%NULL%1,    Cristina%Gómez-Ayerbe%NULL%3,    Cristina%Gómez-Ayerbe%NULL%0,    Cristina%Gómez-Ayerbe%NULL%0,    Javier%Sánchez-Lora%NULL%1,    José Luis%Velasco Garrido%NULL%1,    María%López-Jódar%NULL%1,    Jesús%Santos González%NULL%1,    Jesús%Ruiz Aragón%NULL%3,    Jesús%Ruiz Aragón%NULL%0,    Jesús%Ruiz Aragón%NULL%0,    Ianire%Virto Peña%NULL%1,    Vanessa%Alende Castro%NULL%3,    Vanessa%Alende Castro%NULL%0,    Vanessa%Alende Castro%NULL%0,    Ruth%Brea Aparicio%NULL%1,    Sonia%Vega Molpeceres%NULL%3,    Sonia%Vega Molpeceres%NULL%0,    Sonia%Vega Molpeceres%NULL%0,    Estel%Pons Viñas%NULL%1,    Oscar%del Río Pérez%NULL%3,    Oscar%del Río Pérez%NULL%0,    Oscar%del Río Pérez%NULL%0,    Silvia%Valero Rovira%NULL%1,    Judit%Villar-García%NULL%3,    Judit%Villar-García%NULL%0,    Judit%Villar-García%NULL%0,    Joan%Gómez-Junyent%NULL%1,    Hernando%Knobel%NULL%1,    María Cecilia%Cánepa%NULL%1,    Silvia%Castañeda Espinosa%NULL%1,    Luisa%Sorli Redò%NULL%1,    Roberto%Güerri-Fernández%NULL%1,    María%Milagro Montero%NULL%1,    Juan Pablo%Horcajada%NULL%1,    Elisa%García Vázquez%NULL%3,    Elisa%García Vázquez%NULL%0,    Elisa%García Vázquez%NULL%0,    Encarnación%Moral Escudero%NULL%1,    Alicia%Hernández Torres%NULL%1,    Esther%García Almodóvar%NULL%3,    Esther%García Almodóvar%NULL%0,    Esther%García Almodóvar%NULL%0,    Carmen%Sáez Barberá%NULL%3,    Carmen%Sáez Barberá%NULL%0,    Carmen%Sáez Barberá%NULL%0,    Zineb%Karroud%NULL%1,    José%Hernández Quero%NULL%3,    José%Hernández Quero%NULL%0,    José%Hernández Quero%NULL%0,    David%Vinuesa García%NULL%1,    José Luis%García Fogeda%NULL%1,    José Antonio%Peregrina%NULL%1,    María%Novella Mena%NULL%3,    María%Novella Mena%NULL%0,    María%Novella Mena%NULL%0,    Cristina%Hernández Gutiérrez%NULL%1,    José%Sanz Moreno%NULL%1,    Ramón%Pérez Tanoira%NULL%1,    Rodrigo%Sierra Rodríguez%NULL%1,    David%Alonso Menchén%NULL%1,    Aida%Gutiérrez García%NULL%1,    Alberto%Arranz Caso%NULL%1,    Juan%Cuadros González%NULL%1,    Melchor%Álvarez de Mon Soto%NULL%1,    Vicente Ferrer%Díaz de Brito Fernández%NULL%3,    Vicente Ferrer%Díaz de Brito Fernández%NULL%0,    Vicente Ferrer%Díaz de Brito Fernández%NULL%0,    Montserrat%Sanmarti Vilamala%NULL%1,    Aina%Gabarrell Pascuet%NULL%1,    Daniel%Molina Morant%NULL%1,    Sergio%España Cueto%NULL%1,    Jonathan%Cámara Fernández%NULL%1,    Albert%Sabater Gil%NULL%1,    Laura%Muñoz López%NULL%1,    Paula%Sáez Escolano%NULL%3,    Paula%Sáez Escolano%NULL%0,    Paula%Sáez Escolano%NULL%0,    Esperanza%Bejarano Tello%NULL%1,    Marco Antonio%Sempere Alcocer%NULL%3,    Marco Antonio%Sempere Alcocer%NULL%0,    Marco Antonio%Sempere Alcocer%NULL%0,    Salvador%Álvarez Martin%NULL%1,    Ignacio%De los Santos Gil%NULL%3,    Ignacio%De los Santos Gil%NULL%0,    Ignacio%De los Santos Gil%NULL%0,    Lucio%García-Fraile%NULL%1,    Miguel%Sampedro Núñez%NULL%1,    Ana%Barrios Blandino%NULL%1,    Carlos%Rodríguez Franco%NULL%1,    Daniel%Useros Brañas%NULL%1,    Almudena%Villa Martí%NULL%1,    Javier%Oliver Ortega%NULL%1,    Alexia%Costanza Espiño Álvarez%NULL%1,    Jesús%Sanz Sanz%NULL%1,    María%Rexach Fumaña%NULL%3,    María%Rexach Fumaña%NULL%0,    María%Rexach Fumaña%NULL%0,    Ivette%Abascal Cambras%NULL%1,    Ana del Cielo%Pérez Jaén%NULL%1,    Clara%Sala Jofre%NULL%3,    Clara%Sala Jofre%NULL%0,    Clara%Sala Jofre%NULL%0,    Susana%Casas Rodríguez%NULL%1,    Cecilia%Tortajada Alamilla%NULL%3,    Cecilia%Tortajada Alamilla%NULL%0,    Cecilia%Tortajada Alamilla%NULL%0,    Carmina%Oltra%NULL%1,    Mar%Masiá Canuto%NULL%3,    Mar%Masiá Canuto%NULL%0,    Mar%Masiá Canuto%NULL%0,    Félix%Gutiérrez Rodero%NULL%1,    Ana%Ferrer Ribera%NULL%3,    Ana%Ferrer Ribera%NULL%0,    Ana%Ferrer Ribera%NULL%0,    Carlos%Bea Serrano%NULL%1,    Miguel%Pedromingo Kus%NULL%3,    Miguel%Pedromingo Kus%NULL%0,    Miguel%Pedromingo Kus%NULL%0,    María Ángeles%Garcinuño%NULL%1,    Silvana%Fiorante%NULL%1,    Sergio%Pérez Pinto%NULL%1,    Pilar%Hernández Machín%NULL%3,    Pilar%Hernández Machín%NULL%0,    Pilar%Hernández Machín%NULL%0,    Alba%Alastrué Violeta%NULL%1,    María Carmen%Fariñas Álvarez%NULL%3,    María Carmen%Fariñas Álvarez%NULL%0,    María Carmen%Fariñas Álvarez%NULL%0,    Claudia%González Rico%NULL%1,    Francisco%Arnaiz de las Revillas%NULL%1,    Jorge%Calvo%NULL%1,    Mónica%Gozalo%NULL%1,    Francisco%Mora Gómez%NULL%3,    Francisco%Mora Gómez%NULL%0,    Francisco%Mora Gómez%NULL%0,    Ana%Milagro Beamonte%NULL%3,    Ana%Milagro Beamonte%NULL%0,    Ana%Milagro Beamonte%NULL%0,    Miriam%Latorre-Millán%NULL%1,    Antonio%Rezusta López%NULL%1,    Ana%Martínez Sapiña%NULL%1,    Yolanda%Meije%NULL%3,    Yolanda%Meije%NULL%0,    Yolanda%Meije%NULL%0,    Alejandra%Duarte Borges%NULL%1,    Julia%Pareja Coca%NULL%1,    Mercedes%Clemente Presas%NULL%1,    Juan Emilio%Losa García%NULL%3,    Juan Emilio%Losa García%NULL%0,    Juan Emilio%Losa García%NULL%0,    Ana%Vegas Serrano%NULL%1,    M. Teresa%Pérez-Rodríguez%NULL%3,    M. Teresa%Pérez-Rodríguez%NULL%0,    M. Teresa%Pérez-Rodríguez%NULL%0,    Alexandre%Pérez González%NULL%1,    Moncef%Belhassen-García%NULL%3,    Moncef%Belhassen-García%NULL%0,    Moncef%Belhassen-García%NULL%0,    Beatriz%Rodríguez-Alonso%NULL%1,    Amparo%López-Bernus%NULL%1,    Cristina%Carbonell%NULL%1,    Rafael%Torres Perea%NULL%3,    Rafael%Torres Perea%NULL%0,    Rafael%Torres Perea%NULL%0,    Juan%Cantón de Seoane%NULL%1,    Blanca%Alonso%NULL%1,    Sara Lidia%Kamal%NULL%1,    Lucia%Cajuela%NULL%1,    David%Roa%NULL%1,    Miguel%Cervero%NULL%1,    Alberto%Oreja%NULL%1,    Juan Pablo%Avilés%NULL%1,    Lidia%Martín%NULL%1,    Iván%Pelegrín Senent%NULL%3,    Iván%Pelegrín Senent%NULL%0,    Iván%Pelegrín Senent%NULL%0,    Rosana%Rouco Esteves Marques%NULL%1,    Jorge%Parra Ruiz%NULL%3,    Jorge%Parra Ruiz%NULL%0,    Jorge%Parra Ruiz%NULL%0,    Violeta%Ramos Sesma%NULL%1,    Jessica%Abadia Otero%NULL%3,    Jessica%Abadia Otero%NULL%0,    Jessica%Abadia Otero%NULL%0,    Juan%Salillas Hernando%NULL%3,    Juan%Salillas Hernando%NULL%0,    Juan%Salillas Hernando%NULL%0,    Robert%Torres Sánchez del Arco%NULL%1,    Miguel%Torralba González de Suso%NULL%1,    Alberto%Serrano Martínez%NULL%1,    Sergio%Gilaberte Reyzábal%NULL%1,    Marina%Pacheco Martínez-Atienza%NULL%1,    Mónica%Liébana Gómez%NULL%1,    Sara%Fernández Rodríguez%NULL%1,    Álvaro%Varela Plaza%NULL%1,    Henar%Calvo Sánchez%NULL%1,    Patricia%Martínez Martín%NULL%3,    Patricia%Martínez Martín%NULL%0,    Patricia%Martínez Martín%NULL%0,    Patricia%González- Ruano%NULL%1,    Eduardo%Malmierca Corral%NULL%1,    Isabel%Rábago Lorite%NULL%1,    Beatriz%Pérez-Monte Mínguez%NULL%1,    Ángeles%García Flores%NULL%3,    Ángeles%García Flores%NULL%0,    Ángeles%García Flores%NULL%0,    Pere%Comas Casanova%NULL%1,    Merce%Sirisi%NULL%3,    Merce%Sirisi%NULL%0,    Merce%Sirisi%NULL%0,    Richard%Rojas%NULL%1,    José Luis%Díaz de Tuesta del Arco%NULL%3,    José Luis%Díaz de Tuesta del Arco%NULL%0,    José Luis%Díaz de Tuesta del Arco%NULL%0,    Ruth%Figueroa Cerón%NULL%1,    Ander%González Sarria%NULL%1,    Remedios%Alemán Valls%NULL%3,    Remedios%Alemán Valls%NULL%0,    Remedios%Alemán Valls%NULL%0,    María del Mar%Alonso Socas%NULL%1,    Oscar%Sanz Peláez%NULL%3,    Oscar%Sanz Peláez%NULL%0,    Oscar%Sanz Peláez%NULL%0,    Karim%Mohamed Ramírez%NULL%1,    Melchor%Riera Jaume%NULL%3,    Melchor%Riera Jaume%NULL%0,    Melchor%Riera Jaume%NULL%0,    Helem Haydee%Vilchez%NULL%1,    Francesc%Albertí%NULL%1,    Ana Isabel%Cañabate%NULL%1,    Víctor J.%Moreno Cuerda%NULL%3,    Víctor J.%Moreno Cuerda%NULL%0,    Víctor J.%Moreno Cuerda%NULL%0,    Silvia%Álvarez Kaelis%NULL%1,    Beatriz%Álvarez Zapatero%NULL%1,    Alejandro%García García%NULL%1,    Elena%Isaba Ares%NULL%1,    Covadonga%Morcate Fernández%NULL%1,    Andrea%Pérez Rodríguez%NULL%1,    Lucía%Ramos Merino%NULL%3,    Lucía%Ramos Merino%NULL%0,    Lucía%Ramos Merino%NULL%0,    Laura%Castelo Corral%NULL%1,    María%Rodríguez Mahía%NULL%1,    Mónica%González Bardanca%NULL%1,    Efrén%Sánchez Vidal%NULL%1,    Enrique%Míguez Rey%NULL%1,    Javier%De la Torre Lima%NULL%3,    Javier%De la Torre Lima%NULL%0,    Javier%De la Torre Lima%NULL%0,    José Mª%García de Lomas Guerrero%NULL%1,    Elena%Morte%NULL%3,    Elena%Morte%NULL%0,    Elena%Morte%NULL%0,    Silvia%Loscos%NULL%1,    Ana%Camón%NULL%1,    Lucía%Gómez García%NULL%3,    Lucía%Gómez García%NULL%0,    Lucía%Gómez García%NULL%0,    Lucia%Boix Palop%NULL%1,    Beatriz%Dietl Gómez-Luengo%NULL%1,    Iris%Pedrola Gorrea%NULL%3,    Iris%Pedrola Gorrea%NULL%0,    Iris%Pedrola Gorrea%NULL%0,    Amparo%Blasco Claramunt%NULL%1,    Cristina%López Mestanza%NULL%3,    Cristina%López Mestanza%NULL%0,    Cristina%López Mestanza%NULL%0,    Esther%Fraile Villarejo%NULL%1,    Tomás%Tosco Núñez%NULL%3,    Tomás%Tosco Núñez%NULL%0,    Tomás%Tosco Núñez%NULL%0,    María%Aroca Ferri%NULL%1,    José Tomas%Algado Rabasa%NULL%3,    José Tomas%Algado Rabasa%NULL%0,    José Tomas%Algado Rabasa%NULL%0,    Ana María%Garijo Saiz%NULL%1,    Concepción%Amador Prous%NULL%1,    Jesús Rodriguez%Baño%NULL%3,    Jesús Rodriguez%Baño%NULL%0,    Jesús Rodriguez%Baño%NULL%0,    Pilar%Retamar%NULL%1,    Adoración%Valiente%NULL%1,    Luis E.%López-Cortés%NULL%1,    Jesús%Sojo%NULL%1,    Belén%Gutiérrez-Gutiérrez%NULL%1,    José%Bravo-Ferrer%NULL%1,    Elena%Salamanca%NULL%1,    Zaira R.%Palacios%NULL%1,    Patricia%Pérez-Palacios%NULL%1,    Enrique%Peral%NULL%1,    José Antonio%Pérez de León%NULL%1,    Jesús%Sánchez-Gómez%NULL%1,    Lucía%Marín-Barrera%NULL%1,    Domingo%García-Jiménez%NULL%1,    Jordi%Carratalà%NULL%0,    Jordi%Carratalà%NULL%0,    Jordi%Carratalà%NULL%0,    Gabriela%Abelenda-Alonso%NULL%1,    Carmen%Ardanuy%NULL%1,    Alba%Bergas%NULL%1,    Guillermo%Cuervo%NULL%1,    María Ángeles%Domínguez%NULL%1,    Miguel%Fernández-Huerta%NULL%1,    Carlota%Gudiol%NULL%1,    Laia%Lorenzo-Esteller%NULL%1,    Jordi%Niubó%NULL%1,    Sandra%Pérez-Recio%NULL%1,    Daniel%Podzamczer%NULL%1,    Miquel%Pujol%NULL%1,    Alexander%Rombauts%NULL%1,    Núria%Trullen%NULL%1,    Miguel%Salavert Lletí%NULL%3,    Miguel%Salavert Lletí%NULL%0,    Miguel%Salavert Lletí%NULL%0,    Iván%Castro Hernández%NULL%1,    Adriana%Hernández Belmonte%NULL%3,    Adriana%Hernández Belmonte%NULL%0,    Adriana%Hernández Belmonte%NULL%0,    Raquel%Martínez Goñi%NULL%1,    Marta%Navarro Vilasaró%NULL%3,    Marta%Navarro Vilasaró%NULL%0,    Marta%Navarro Vilasaró%NULL%0,    Sonia%Calzado Isbert%NULL%1,    Manuel%Cervantes García%NULL%1,    Aina%Gomila Grange%NULL%1,    Oriol%Gasch Blasi%NULL%1,    María Luisa%Machado Sicilia%NULL%1,    Eva%Van den Eynde Otero%NULL%1,    Luis%Falgueras López%NULL%1,    María del Carmen%Navarro Sáez%NULL%1,    Esteban%Martínez%NULL%3,    Esteban%Martínez%NULL%0,    Esteban%Martínez%NULL%0,    Mª Ángeles%Marcos%NULL%1,    Mar%Mosquera%NULL%1,    José Luis%Blanco%NULL%1,    Montserrat%Laguno%NULL%1,    Jhon%Rojas%NULL%1,    Ana%González-Cordón%NULL%1,    Alexy%Inciarte%NULL%1,    Berta%Torres%NULL%1,    Lorena%De la Mora%NULL%1,    Alex%Soriano%NULL%1,    Olalla%Martínez Macias%NULL%3,    Olalla%Martínez Macias%NULL%0,    Olalla%Martínez Macias%NULL%0,    Virginia%Pérez Doñate%NULL%1,    Alfonso%Cabello Úbeda%NULL%3,    Alfonso%Cabello Úbeda%NULL%0,    Alfonso%Cabello Úbeda%NULL%0,    Nerea%Carrasco Antón%NULL%1,    Beatriz%Álvarez Álvarez%NULL%1,    Elizabet%Petkova Saiz%NULL%1,    Miguel%Górgolas Hernández-Mora%NULL%1,    Laura%Prieto Pérez%NULL%1,    Irene%Carrillo Acosta%NULL%1,    Sara%Heili Frades%NULL%1,    Felipe%Villar Álvarez%NULL%1,    Ricardo%Fernández Roblas%NULL%1,    José María%Milicua Muñoz%NULL%1,    Virginia%Fernández Espinilla%NULL%3,    Virginia%Fernández Espinilla%NULL%0,    Virginia%Fernández Espinilla%NULL%0,    Carlos Jesús%Dueñas Gutiérrez%NULL%1,    Cristina%Hernán García%NULL%1,    Fernando%González-Romo%NULL%3,    Fernando%González-Romo%NULL%0,    Fernando%González-Romo%NULL%0,    Paloma%Merino Amador%NULL%1,    Alba%Rueda López%NULL%1,    Jorge%Martínez Jordán%NULL%1,    Sara%Medrano Pardo%NULL%1,    Irene%Díaz de la Torre%NULL%1,    Yolanda%Posada Franco%NULL%1,    Alberto%Delgado-Iribarren%NULL%1,    Joaquín%López-Contreras González%NULL%3,    Joaquín%López-Contreras González%NULL%0,    Joaquín%López-Contreras González%NULL%0,    Pablo%Pascual Alonso%NULL%1,    Virginia%Pomar Solchaga%NULL%1,    Nuria%Rabella García%NULL%1,    Natividad%Benito Hernández%NULL%1,    Pere%Domingo Pedrol%NULL%1,    Xavier%Bonfill Cosp%NULL%1,    Rafael%Padrós Selma%NULL%1,    Mireia%Puig Campmany%NULL%1,    Jordi%Mancebo Cortés%NULL%1,    Mercè%Gurguí Ferrer%NULL%1,    Melania%Íñigo Pestaña%NULL%3,    Melania%Íñigo Pestaña%NULL%0,    Melania%Íñigo Pestaña%NULL%0,    Alejandra%Pérez García%NULL%1,    Patricia%Sorní Moreno%NULL%3,    Patricia%Sorní Moreno%NULL%0,    Patricia%Sorní Moreno%NULL%0,    Nora%Izko Gartzia%NULL%1,    Francisco Javier%Membrillo de Novales%NULL%3,    Francisco Javier%Membrillo de Novales%NULL%0,    Francisco Javier%Membrillo de Novales%NULL%0,    María%Simón Sacristán%NULL%1,    Maribel%Zamora Cintas%NULL%1,    Yolanda%Martínez Martínez%NULL%1,    Pablo%Fernández-González%NULL%1,    Francisco%Alcántara Nicolás%NULL%1,    Alejandro%Aguirre Vila-Cora%NULL%1,    Elena%López Tizón%NULL%1,    Germán%Ramírez-Olivencia%NULL%1,    Miriam%Estébanez Muñoz%NULL%1,    Ester%Sáez de Adana Arróniz%NULL%3,    Ester%Sáez de Adana Arróniz%NULL%0,    Ester%Sáez de Adana Arróniz%NULL%0,    Joseba%Portu Zapirain%NULL%1,    Juan Carlos%Gainzarain Arana%NULL%1,    Zuriñe%Ortiz de Zárate Ibarra%NULL%1,    Miguel Ángel%Moran Rodríguez%NULL%1,    Andrés%Canut Blasco%NULL%1,    Silvia%Hernáez Crespo%NULL%1,    Leire%Balerdi Sarasola%NULL%1,    Cristina%Morales García%NULL%1,    Miguel%Corral Saracho%NULL%1,    Zeltia%Valcarce González%NULL%1,    Noelia%Arenal Andrés%NULL%3,    Noelia%Arenal Andrés%NULL%0,    Noelia%Arenal Andrés%NULL%0,    Raquel Elisa%Rodríguez Tarazona%NULL%1,    Laura%Iglesias Llorente%NULL%3,    Laura%Iglesias Llorente%NULL%0,    Laura%Iglesias Llorente%NULL%0,    Beatriz%Loureiro Rodríguez%NULL%1,    Adrián%Sánchez Montalvá%NULL%3,    Adrián%Sánchez Montalvá%NULL%0,    Adrián%Sánchez Montalvá%NULL%0,    Juan%Espinosa Pereiro%NULL%1,    Benito%Almirante%NULL%1,    Marta%Miarons%NULL%1,    Júlia%Sellarés%NULL%1,    María%Larrosa%NULL%1,    Sonia%García%NULL%1,    Blanca%Marzo%NULL%1,    Miguel%Villamarín%NULL%1,    Nuria%Fernández%NULL%1,    Conchita%Pérez-Jorge Peremarch%NULL%3,    Conchita%Pérez-Jorge Peremarch%NULL%0,    Conchita%Pérez-Jorge Peremarch%NULL%0,    Elena%Resino Foz%NULL%1,    Andrea%Espigares Correa%NULL%1,    Teresa%Álvarez de Espejo Montiel%NULL%1,    Iván%Navas Clemente%NULL%1,    María Isabel%Quijano Contreras%NULL%1,    Luis Alberto%Nieto Fernández del Campo%NULL%1,    Guillermo%Jiménez Álvarez%NULL%1,    Mercedes%Guillamón Sánchez%NULL%3,    Mercedes%Guillamón Sánchez%NULL%0,    Mercedes%Guillamón Sánchez%NULL%0,    Josefina%García García%NULL%1,    Constanza%Muñoz Hornero%NULL%3,    Constanza%Muñoz Hornero%NULL%0,    Constanza%Muñoz Hornero%NULL%0,    Ana%Mariño Callejo%NULL%3,    Ana%Mariño Callejo%NULL%0,    Ana%Mariño Callejo%NULL%0,    Nieves%Valcarce Pardeiro%NULL%1,    Alex%Smithson Amat%NULL%3,    Alex%Smithson Amat%NULL%0,    Alex%Smithson Amat%NULL%0,    Cristina%Chico Chumillas%NULL%1,    Adriana%Sánchez Serrano%NULL%3,    Adriana%Sánchez Serrano%NULL%0,    Adriana%Sánchez Serrano%NULL%0,    Eva Pilar%García Villalba%NULL%1,    Isabel%Jiménez Martínez%NULL%3,    Isabel%Jiménez Martínez%NULL%0,    Isabel%Jiménez Martínez%NULL%0,    Guillermo%Estrada Fernández%NULL%1,    María%Lorén Vargas%NULL%1,    Nuria%Parra Arribas%NULL%1,    Carmen%Martínez Cilleros%NULL%1,    Aránzazu%Villasante de la Puente%NULL%1,    Teresa%García Delange%NULL%1,    María José%Ruiz Rodríguez%NULL%1,    Marta%Robledo del Prado%NULL%1,    Juan Carlos%Abad Almendro%NULL%1,    José Román%Muñoz del Rey%NULL%3,    José Román%Muñoz del Rey%NULL%0,    José Román%Muñoz del Rey%NULL%0,    Montaña%Jiménez Álvaro%NULL%1,    Javier%Coy Coy%NULL%3,    Javier%Coy Coy%NULL%0,    Javier%Coy Coy%NULL%0,    Inmaculada%Poquet Catala%NULL%1,    Marta%Santos Peña%NULL%3,    Marta%Santos Peña%NULL%0,    Marta%Santos Peña%NULL%0,    Virginia%Naranjo Velasco%NULL%1,    Tamara%Manso Gómez%NULL%3,    Tamara%Manso Gómez%NULL%0,    Tamara%Manso Gómez%NULL%0,    Delia%Quilez Ágreda%NULL%1,    Gema%Barbeito Castiñeiras%NULL%3,    Gema%Barbeito Castiñeiras%NULL%0,    Gema%Barbeito Castiñeiras%NULL%0,    María Jesús%Domínguez Santalla%NULL%1,    Laura%Mao Martín%NULL%3,    Laura%Mao Martín%NULL%0,    Laura%Mao Martín%NULL%0,    Rodrigo%Alonso Navarro%NULL%1,    Jose David%Ampuero Martinich%NULL%1,    Raquel%Barrós González%NULL%1,    María Aránzazu%Galindo Martín%NULL%1,    Lourdes%Herrera Pacheco%NULL%1,    Rocío%Martínez Avilés%NULL%1,    Sara%Rodrigo González%NULL%1,    Cristóbal Manuel%Rodríguez Leal%NULL%1,    Eva María%Romay Lema%NULL%3,    Eva María%Romay Lema%NULL%0,    Eva María%Romay Lema%NULL%0,    Roi%Suárez Gil%NULL%1,    Maialen%Ibarguren Pinilla%NULL%3,    Maialen%Ibarguren Pinilla%NULL%0,    Maialen%Ibarguren Pinilla%NULL%0,    José María%Marimón Ortiz de Zárate%NULL%1,    Loreto%Vidaur Tello%NULL%1,    Xabier%Kortajarena Urkola%NULL%1,    Miriam%García Gómez%NULL%3,    Miriam%García Gómez%NULL%0,    Miriam%García Gómez%NULL%0,    Asier%Aranguren Arostegui%NULL%1,    Maria%Álvarez de Castro%NULL%3,    Maria%Álvarez de Castro%NULL%0,    Maria%Álvarez de Castro%NULL%0,    Cintia María%Martínez Mateu%NULL%1,    Francisco%Rodríguez Gómez%NULL%3,    Francisco%Rodríguez Gómez%NULL%0,    Francisco%Rodríguez Gómez%NULL%0,    Francisco%Muñoz Beamud%NULL%1,    Elena%Chamarro Martí%NULL%3,    Elena%Chamarro Martí%NULL%0,    Elena%Chamarro Martí%NULL%0,    Merce%Cardona Rivera%NULL%1,    Ismail%Zakariya-Yousef Breval%NULL%3,    Ismail%Zakariya-Yousef Breval%NULL%0,    Ismail%Zakariya-Yousef Breval%NULL%0,    Marta%Rico Rodríguez%NULL%1,    Jara%Llenas García%NULL%3,    Jara%Llenas García%NULL%0,    Jara%Llenas García%NULL%0,    Mª Carmen%Sánchez Arenas%NULL%1,    Ana%Fernández Cruz%NULL%3,    Ana%Fernández Cruz%NULL%0,    Ana%Fernández Cruz%NULL%0,    Jorge%Calderón Parra%NULL%1,    Marcos%López Dosil%NULL%1,    Antonio%Ramos Martínez%NULL%1,    Elena%Múñez Rubio%NULL%1,    Alejandro%Callejas Díaz%NULL%1,    José Manuel%Vázquez Comendador%NULL%1,    Itziar%Diego Yagüe%NULL%1,    Esther%Expósito Palomo%NULL%1,    Jorge%Anel Pedroche%NULL%1,    Raquel%Álvarez Franco%NULL%3,    Raquel%Álvarez Franco%NULL%0,    Raquel%Álvarez Franco%NULL%0,    Lucía%Fernández de Orueta%NULL%1,    Roberto%Vates Gómez%NULL%1,    Andrés Felipe%Cardona Arias%NULL%1,    Pablo%Marguenda Contreras%NULL%1,    Gabriel%Gaspar Alonso-Vega%NULL%1,    Elena María%Aranda Rife%NULL%1,    Blanca%Martínez Cifre%NULL%1,    Daniel%Roger Zapata%NULL%1,    Irene%Martín Rubio%NULL%1,    André%Barbosa Ventura%NULL%3,    André%Barbosa Ventura%NULL%0,    André%Barbosa Ventura%NULL%0,    Iván%Piñero%NULL%1,    Alberto%Bahamonde Carrasco%NULL%3,    Alberto%Bahamonde Carrasco%NULL%0,    Alberto%Bahamonde Carrasco%NULL%0,    Paula%Runza Buznego%NULL%1,    Eva%Talavera García%NULL%3,    Eva%Talavera García%NULL%0,    Eva%Talavera García%NULL%0,    Marta%Lamata Subero%NULL%1,    Ainhoa%Urrutia Losada%NULL%3,    Ainhoa%Urrutia Losada%NULL%0,    Ainhoa%Urrutia Losada%NULL%0,    Lorea%Arteche Eguizabal%NULL%1,    Elisabet%Delgado Sánchez%NULL%3,    Elisabet%Delgado Sánchez%NULL%0,    Elisabet%Delgado Sánchez%NULL%0,    Virginia%Molina Peinado%NULL%1,    Sarah%Caro Bragado%NULL%3,    Sarah%Caro Bragado%NULL%0,    Sarah%Caro Bragado%NULL%0,    Gema%Domínguez de Pablos%NULL%1,    Carolina%Roldán Fontana%NULL%3,    Carolina%Roldán Fontana%NULL%0,    Carolina%Roldán Fontana%NULL%0,    Carmen%Herrero Rodríguez%NULL%1,    Luis%Force Sanmartín%NULL%3,    Luis%Force Sanmartín%NULL%0,    Luis%Force Sanmartín%NULL%0,    Raquel%Aranega%NULL%1,    Arantzazu%Mera Fidalgo%NULL%3,    Arantzazu%Mera Fidalgo%NULL%0,    Arantzazu%Mera Fidalgo%NULL%0,    María Roca%Toda Savall%NULL%1,    Nicolas%Merchante Gutiérrez%NULL%3,    Nicolas%Merchante Gutiérrez%NULL%0,    Nicolas%Merchante Gutiérrez%NULL%0,    Eva María%León Jiménez%NULL%1,    José Luís%Del Pozo%NULL%3,    José Luís%Del Pozo%NULL%0,    José Luís%Del Pozo%NULL%0,    Josefa%Serralta Buades%NULL%3,    Josefa%Serralta Buades%NULL%0,    Josefa%Serralta Buades%NULL%0,    Ginger Giorgiana%Cabrera Tejada%NULL%1,    Mario%Fernández-Ruiz%NULL%3,    Mario%Fernández-Ruiz%NULL%0,    Mario%Fernández-Ruiz%NULL%0,    José María%Aguado%NULL%1,    Guillermo%Maestro de la Calle%NULL%1,    José Miguel%Cisneros%NULL%0,    José Miguel%Cisneros%NULL%0,    José Miguel%Cisneros%NULL%0,    Jerónimo%Pachón%NULL%0,    Manuela%Aguilar-Guisado%NULL%1,    Teresa%Aldabó%NULL%1,    María Dolores%Avilés%NULL%0,    Claudio%Bueno%NULL%1,    Elisa%Cordero-Matía%NULL%1,    Ana%Escoresca%NULL%1,    Lydia%Gálvez-Benítez%NULL%1,    Carmen%Infante%NULL%1,    Guillermo%Martín%NULL%1,    Julia%Praena%NULL%1,    Cristina%Roca%NULL%1,    Celia%Salamanca%NULL%1,    Alejandro%Suárez-Benjumea%NULL%1,    Pilar%Vizcarra%NULL%3,    Pilar%Vizcarra%NULL%0,    Pilar%Vizcarra%NULL%0,    Carmen%Quereda%NULL%1,    Mario José%Rodriguez Dominguez%NULL%1,    Francesca%Gioia%NULL%1,    Francesca%Norman%NULL%1,    Santos%Del Campo%NULL%1,    Rafael%Cantón Moreno%NULL%1,    Antonio%Oteo Revuelta José%NULL%3,    Antonio%Oteo Revuelta José%NULL%0,    Antonio%Oteo Revuelta José%NULL%0,    Paula%Santibáñez Sáenz%NULL%1,    Cristina%Cervera Acedo%NULL%1,    Carlos%Ruiz Martínez%NULL%1,    José R.%Blanco Ramos%NULL%1,    José M.%Azcona Gutiérrez%NULL%1,    Concepción%García García%NULL%1,    Jorge%Alba Fernández%NULL%1,    Valvanera%Ibarra Cucalón%NULL%1,    Mercedes%San Franco%NULL%1,    Luis%Metola Sacristán%NULL%1,    Héctor%Meijide Míguez%NULL%3,    Héctor%Meijide Míguez%NULL%0,    Héctor%Meijide Míguez%NULL%0,    Silvia%Paulos Viñas%NULL%1,    Justo%Menéndez%NULL%3,    Justo%Menéndez%NULL%0,    Justo%Menéndez%NULL%0,    Paula%Villares Fernández%NULL%1,    Lara%Montes Andújar%NULL%1,    Álvaro%Navarro Batet%NULL%3,    Álvaro%Navarro Batet%NULL%0,    Álvaro%Navarro Batet%NULL%0,    Anna%Ferrer Santolaria%NULL%1,    María de la Luz%Padilla Salazar%NULL%3,    María de la Luz%Padilla Salazar%NULL%0,    María de la Luz%Padilla Salazar%NULL%0,    Lucy%Abella Vázquez%NULL%1,    Marcelino%Hayek Peraza%NULL%1,    Antonio%García Pardo%NULL%1,    Carolina%Hernández Carballo%NULL%1,    Andrés Javier%Ruiz Fernández%NULL%3,    Andrés Javier%Ruiz Fernández%NULL%0,    Andrés Javier%Ruiz Fernández%NULL%0,    Isabel%Barrio López%NULL%1,    Alí%Martakoush%NULL%3,    Alí%Martakoush%NULL%0,    Alí%Martakoush%NULL%0,    Agustín%Rojas-Vieyra%NULL%3,    Agustín%Rojas-Vieyra%NULL%0,    Agustín%Rojas-Vieyra%NULL%0,    Sonia%García Calvo%NULL%3,    Sonia%García Calvo%NULL%0,    Sonia%García Calvo%NULL%0,    Mercedes%Villarreal García-Lomas%NULL%1,    Marta%Vizcaíno Callejón%NULL%3,    Marta%Vizcaíno Callejón%NULL%0,    Marta%Vizcaíno Callejón%NULL%0,    María Pilar%García García%NULL%1,    Ana%Lérida Urteaga%NULL%3,    Ana%Lérida Urteaga%NULL%0,    Ana%Lérida Urteaga%NULL%0,    Natalia%Carrasco Fons%NULL%1,    Beatriz%María Sanjuan%NULL%1,    Lydia%Martín González%NULL%1,    Camilo%Sanz Zamudio%NULL%1,    Inmaculada%Jarrín%NULL%0,    Inmaculada%Jarrín%NULL%0,    Inmaculada%Jarrín%NULL%0,    Belén%Alejos%NULL%1,    Cristina%Moreno%NULL%1,    Marta%Rava%NULL%1,    Carlos%Iniesta%NULL%1,    Rebeca%Izquierdo%NULL%1,    Inés%Suárez-García%NULL%1,    Asunción%Díaz%NULL%1,    Marta%Ruiz-Alguero%NULL%1,    Victoria%Hernando%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,    Denise J%McCulloch%NULL%0,    Denise J%McCulloch%NULL%0,    Vidya%Atluri%NULL%0,    Michela%Blain%NULL%0,    Sarah A%McGuffin%NULL%0,    Arun K%Nalla%NULL%0,    Meei-Li%Huang%NULL%0,    Alex L%Greninger%NULL%0,    Keith R%Jerome%NULL%0,    Seth A%Cohen%NULL%0,    Santiago%Neme%NULL%0,    Margaret L%Green%NULL%0,    Helen Y%Chu%NULL%0,    H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,    Wenlin%Cheng%NULL%0,    Lei%Yu%NULL%0,    Ya-Kun%Liu%NULL%0,    Xiaoyong%Hu%NULL%0,    Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,    Alberto%Zucchelli%NULL%1,    Marinella%Turla%NULL%1,    Maria Sofia%Cotelli%NULL%1,    Sara%Fascendini%NULL%1,    Mara%Zanni%NULL%1,    Angelo%Bianchetti%NULL%1,    Matteo Peli%Psy%NULL%1,    Renzo%Rozzini%NULL%1,    Stefano%Boffelli%NULL%1,    Melania%Cappuccio%NULL%1,    Federica Gottardi%Psy%NULL%1,    Chiara Vecchi%Psy%NULL%1,    Daniele%Bellandi%NULL%1,    Claudia%Caminati%NULL%1,    Simona%Gentile%NULL%1,    Elena Lucchi%Psy%NULL%1,    Ignazio%Di Fazio%NULL%1,    Marina Zanetti%Psy%NULL%1,    Giuliana%Vezzadini%NULL%1,    Chiara Forlani%Psy%NULL%1,    Maura Cosseddu%Psy%NULL%1,    Rosanna Turrone%Psy%NULL%1,    Silvia Pelizzari%Psy%NULL%1,    Andrea%Scalvini%NULL%1,    Marco%Di Cesare%NULL%1,    Marta Grigolo%Psy%NULL%1,    Lina%Falanga%NULL%1,    Nives%Medici%NULL%1,    Nives%Palamini%NULL%1,    Elisa Zanacchi%Psy%NULL%1,    Eleonora Grossi%Psy%NULL%1,    Giuseppe%Bellelli%NULL%1,    Alessandra%Marengoni%NULL%1,    Marco%Trabucchi%NULL%1,    Alessandro%Padovani%alessandro.padovani@unibs.it%1,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0,    Nancy%Chow%NULL%3,    Katherine%Fleming-Dutra%NULL%2,    Ryan%Gierke%NULL%3,    Aron%Hall%NULL%3,    Michelle%Hughes%NULL%2,    Tamara%Pilishvili%NULL%3,    Matthew%Ritchey%NULL%3,    Katherine%Roguski%NULL%2,    Tami%Skoff%NULL%2,    Emily%Ussery%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,    Zhencang%Zheng%NULL%1,    Chao%Zhang%NULL%1,    Xijiang%Zhang%NULL%1,    Huijuan%Wu%NULL%1,    Jingdong%Wang%NULL%1,    Shuwei%Wang%NULL%1,    Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,    Wei%Liu%NULL%0,    Kui%Liu%NULL%0,    Yuan-Yuan%Fang%NULL%0,    Jin%Shang%NULL%0,    Ling%Zhou%NULL%0,    Ke%Wang%NULL%0,    Fan%Leng%NULL%0,    Shuang%Wei%NULL%0,    Lei%Chen%NULL%0,    Hui-Guo%Liu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nathalie%Nicolay%NULL%1,    Francesco%Innocenti%NULL%1,    Julien%Beauté%NULL%1,    Veronika%Učakar%NULL%1,    Marta%Grgič Vitek%NULL%1,    Eero%Poukka%NULL%1,    Tuula%Hannila-Handelberg%NULL%1,    Charmaine%Gauci%NULL%1,    Tanya%Melillo%NULL%1,    Theano%Georgakopoulou%NULL%1,    Jiri%Jarkovsky%NULL%1,    Pavel%Slezak%NULL%1,    Concepción%Delgado-Sanz%NULL%1,    Carmen%Olmedo-Lucerón%NULL%1,    Heleene%Suija%NULL%1,    Rasa%Liausediene%NULL%1,    Piaras%O’Lorcain%NULL%1,    Niamh%Murphy%NULL%1,    André%Peralta-Santos%NULL%1,    Pedro%Casaca%NULL%1,    Ioanna%Gregoriou%NULL%1,    Nick%Bundle%NULL%1,    Gianfranco%Spiteri%NULL%1,    Giovanni%Ravasi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Feng%NULL%2,    Peiyun%Li%NULL%1,    Liang%Ma%NULL%1,    Hang%Liang%NULL%1,    Jie%Lei%NULL%1,    Wenqiang%Li%NULL%1,    Kun%Wang%NULL%2,    Yu%Song%NULL%1,    Shuai%Li%NULL%1,    Wei%Yang%NULL%0,    Cao%Yang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yun%Feng%NULL%0,    Yun%Ling%NULL%0,    Yun%Ling%NULL%0,    Tao%Bai%NULL%4,    Tao%Bai%NULL%0,    Yusang%Xie%NULL%2,    Jie%Huang%NULL%4,    Jie%Huang%NULL%0,    Jian%Li%NULL%2,    Weining%Xiong%NULL%2,    Dexiang%Yang%NULL%2,    Rong%Chen%NULL%2,    Fangying%Lu%NULL%2,    Yunfei%Lu%NULL%2,    Xuhui%Liu%NULL%2,    Yuqing%Chen%NULL%4,    Yuqing%Chen%NULL%0,    Xin%Li%NULL%4,    Yong%Li%NULL%0,    Hanssa Dwarka%Summah%NULL%2,    Huihuang%Lin%NULL%2,    Jiayang%Yan%NULL%2,    Min%Zhou%NULL%0,    Hongzhou%Lu%NULL%0,    Hongzhou%Lu%NULL%0,    Jieming%Qu%NULL%0,    Jieming%Qu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Paolo%Giorgi Rossi%NULL%0,    Massimiliano%Marino%NULL%0,    Debora%Formisano%NULL%0,    Francesco%Venturelli%NULL%0,    Massimo%Vicentini%NULL%0,    Massimo%Vicentini%NULL%0,    Roberto%Grilli%NULL%0,    NULL%NULL%NULL%0,    Gianluigi%Forloni%NULL%8,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0,    Gianluigi%Forloni%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,    Justin J.%Choi%NULL%0,    Laura C.%Pinheiro%NULL%0,    Edward J.%Schenck%NULL%0,    Ruijun%Chen%NULL%0,    Assem%Jabri%NULL%0,    Michael J.%Satlin%NULL%0,    Thomas R.%Campion%NULL%0,    Musarrat%Nahid%NULL%0,    Joanna B.%Ringel%NULL%0,    Katherine L.%Hoffman%NULL%0,    Mark N.%Alshak%NULL%0,    Han A.%Li%NULL%0,    Graham T.%Wehmeyer%NULL%0,    Graham T.%Wehmeyer%NULL%0,    Mangala%Rajan%NULL%0,    Evgeniya%Reshetnyak%NULL%0,    Nathaniel%Hupert%NULL%0,    Evelyn M.%Horn%NULL%0,    Fernando J.%Martinez%NULL%0,    Roy M.%Gulick%NULL%0,    Monika M.%Safford%NULL%0,    Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jonathan%Grein%NULL%1,    Norio%Ohmagari%NULL%1,    Daniel%Shin%NULL%1,    George%Diaz%NULL%1,    Erika%Asperges%NULL%1,    Antonella%Castagna%NULL%0,    Torsten%Feldt%NULL%1,    Gary%Green%NULL%1,    Margaret L.%Green%NULL%1,    François-Xavier%Lescure%NULL%3,    Emanuele%Nicastri%NULL%1,    Rentaro%Oda%NULL%2,    Rentaro%Oda%NULL%0,    Kikuo%Yo%NULL%2,    Kikuo%Yo%NULL%0,    Eugenia%Quiros-Roldan%NULL%1,    Alex%Studemeister%NULL%1,    John%Redinski%NULL%1,    Seema%Ahmed%NULL%1,    Jorge%Bernett%NULL%1,    Daniel%Chelliah%NULL%1,    Danny%Chen%NULL%1,    Shingo%Chihara%NULL%1,    Stuart H.%Cohen%NULL%1,    Jennifer%Cunningham%NULL%1,    Antonella%D’Arminio Monforte%NULL%1,    Saad%Ismail%NULL%1,    Hideaki%Kato%NULL%1,    Giuseppe%Lapadula%NULL%1,    Erwan%L’Her%NULL%1,    Toshitaka%Maeno%NULL%1,    Sumit%Majumder%NULL%1,    Marco%Massari%NULL%0,    Marta%Mora-Rillo%NULL%1,    Yoshikazu%Mutoh%NULL%1,    Duc%Nguyen%NULL%1,    Ewa%Verweij%NULL%1,    Alexander%Zoufaly%NULL%1,    Anu O.%Osinusi%NULL%1,    Adam%DeZure%NULL%1,    Yang%Zhao%NULL%1,    Lijie%Zhong%NULL%1,    Anand%Chokkalingam%NULL%1,    Emon%Elboudwarej%NULL%1,    Laura%Telep%NULL%1,    Leighann%Timbs%NULL%1,    Ilana%Henne%NULL%1,    Scott%Sellers%NULL%1,    Huyen%Cao%NULL%1,    Susanna K.%Tan%NULL%1,    Lucinda%Winterbourne%NULL%1,    Polly%Desai%NULL%1,    Robertino%Mera%NULL%1,    Anuj%Gaggar%NULL%1,    Robert P.%Myers%NULL%1,    Diana M.%Brainard%NULL%1,    Richard%Childs%NULL%1,    Timothy%Flanigan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,    Zheng-yi%Ni%NULL%0,    Zheng-yi%Ni%NULL%0,    Yu%Hu%NULL%0,    Wen-hua%Liang%NULL%0,    Chun-quan%Ou%NULL%0,    Jian-xing%He%NULL%0,    Lei%Liu%NULL%0,    Hong%Shan%NULL%0,    Chun-liang%Lei%NULL%0,    David S.C.%Hui%NULL%0,    Bin%Du%NULL%0,    Lan-juan%Li%NULL%0,    Guang%Zeng%NULL%0,    Kwok-Yung%Yuen%NULL%0,    Ru-chong%Chen%NULL%0,    Chun-li%Tang%NULL%0,    Tao%Wang%NULL%0,    Ping-yan%Chen%NULL%0,    Jie%Xiang%NULL%0,    Shi-yue%Li%NULL%0,    Jin-lin%Wang%NULL%0,    Zi-jing%Liang%NULL%0,    Yi-xiang%Peng%NULL%0,    Li%Wei%NULL%0,    Yong%Liu%NULL%0,    Ya-hua%Hu%NULL%0,    Peng%Peng%NULL%0,    Jian-ming%Wang%NULL%0,    Ji-yang%Liu%NULL%0,    Zhong%Chen%NULL%0,    Gang%Li%NULL%0,    Zhi-jian%Zheng%NULL%0,    Shao-qin%Qiu%NULL%0,    Jie%Luo%NULL%0,    Chang-jiang%Ye%NULL%0,    Shao-yong%Zhu%NULL%0,    Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Admon%Andrew J.%coreGivesNoEmail%1,   Arunthamakun%Justin%coreGivesNoEmail%1,   Athavale%Ambarish M.%coreGivesNoEmail%1,   Bansal%Anip%coreGivesNoEmail%1,   Brenner%Samantha K.%coreGivesNoEmail%1,   Chan%Lili%coreGivesNoEmail%1,   Donnelly%John P.%coreGivesNoEmail%1,   Friedman%Allon N.%coreGivesNoEmail%1,   Gershengorn%Hayley B.%coreGivesNoEmail%1,   Goyal%Nitender%coreGivesNoEmail%1,   Green%Adam%coreGivesNoEmail%1,   Gupta%Shruti%coreGivesNoEmail%1,   Hayek%Salim S.%coreGivesNoEmail%1,   Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,   Kibbelaar%Zoe A.%coreGivesNoEmail%1,   Leaf%David E.%coreGivesNoEmail%1,   Leonberg-Yoo%Amanda%coreGivesNoEmail%1,   Mathews%Kusum S.%coreGivesNoEmail%1,   Melamed%Michal L.%coreGivesNoEmail%1,   Omar%Samah Abu%coreGivesNoEmail%1,   Parikh%Chirag R.%coreGivesNoEmail%1,   Radbel%Jared%coreGivesNoEmail%1,   Reiser%Jochen%coreGivesNoEmail%1,   Schenck%Edward J.%coreGivesNoEmail%1,   Semler%Matthew W.%coreGivesNoEmail%1,   Shaefi%Shahzad%coreGivesNoEmail%1,   Shehata%Alexandre M.%coreGivesNoEmail%1,   Short%Samuel A. P.%coreGivesNoEmail%1,   Srivastava%Anand%coreGivesNoEmail%1,   Sutherland%Anne%coreGivesNoEmail%1,   Velez%Juan Carlos Q.%coreGivesNoEmail%1,   Vijayan%Anitha%coreGivesNoEmail%1,   Wang%Wei%coreGivesNoEmail%1,   Zhou%Yan%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Rahmet%GÜNER%NULL%1,    İmran%HASANOĞLU%NULL%2,    İmran%HASANOĞLU%NULL%0,    Bircan%KAYAASLAN%NULL%2,    Bircan%KAYAASLAN%NULL%0,    Adalet%AYPAK%NULL%2,    Adalet%AYPAK%NULL%0,    Ayşe%KAYA KALEM%NULL%2,    Ayşe%KAYA KALEM%NULL%0,    Fatma%ESER%NULL%2,    Fatma%ESER%NULL%0,    Burcu%ÖZDEMİR%NULL%2,    Burcu%ÖZDEMİR%NULL%0,    Elif Mükime%SARICAOĞLU%NULL%2,    Elif Mükime%SARICAOĞLU%NULL%0,    Müge%AYHAN%NULL%2,    Müge%AYHAN%NULL%0,    Yeşim%AYBAR BİLİR%NULL%2,    Yeşim%AYBAR BİLİR%NULL%0,    Işıl%ÖZKOÇAK TURAN%NULL%2,    Işıl%ÖZKOÇAK TURAN%NULL%0,    Deniz%ERDEM%NULL%2,    Deniz%ERDEM%NULL%0,    Nevzat Mehmet%MUTLU%NULL%1,    Turan%BUZGAN%NULL%2,    Turan%BUZGAN%NULL%0,    Bedia%DİNÇ%NULL%2,    Bedia%DİNÇ%NULL%0,    Esragül%AKINCI%NULL%2,    Esragül%AKINCI%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Stephanie L.%Harrison%NULL%1,    Elnara%Fazio-Eynullayeva%NULL%2,    Elnara%Fazio-Eynullayeva%NULL%0,    Deirdre A.%Lane%NULL%2,    Deirdre A.%Lane%NULL%0,    Paula%Underhill%NULL%2,    Paula%Underhill%NULL%0,    Gregory Y. H.%Lip%NULL%1,    Mirjam E. E.%Kretzschmar%NULL%3,    Mirjam E. E.%Kretzschmar%NULL%0,    Mirjam E. E.%Kretzschmar%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yuanzhou%He%NULL%1,    Min%Xie%NULL%3,    Jianping%Zhao%NULL%0,    Xiansheng%Liu%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Ling%Hu%NULL%0,    Shaoqiu%Chen%NULL%0,    Yuanyuan%Fu%NULL%0,    Zitong%Gao%NULL%0,    Hui%Long%NULL%0,    Jian-ming%Wang%NULL%0,    Hong-wei%Ren%NULL%0,    Yi%Zuo%NULL%0,    Huan%Li%NULL%0,    Jie%Wang%NULL%0,    Qing-bang%Xu%NULL%0,    Wen-xiong%Yu%NULL%0,    Jia%Liu%NULL%0,    Chen%Shao%NULL%0,    Jun-jie%Hao%NULL%0,    Chuan-zhen%Wang%NULL%0,    Yao%Ma%NULL%0,    Zhanwei%Wang%NULL%0,    Richard%Yanagihara%NULL%0,    Youping%Deng%dengy@hawaii.edu%0]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,    Yeming%Wang%NULL%0,    Xingwang%Li%NULL%0,    Lili%Ren%NULL%0,    Jianping%Zhao%NULL%0,    Yi%Hu%NULL%0,    Li%Zhang%NULL%0,    Guohui%Fan%NULL%0,    Jiuyang%Xu%NULL%0,    Xiaoying%Gu%NULL%0,    Zhenshun%Cheng%NULL%0,    Ting%Yu%NULL%0,    Jiaan%Xia%NULL%0,    Yuan%Wei%NULL%0,    Wenjuan%Wu%NULL%0,    Xuelei%Xie%NULL%0,    Wen%Yin%NULL%0,    Hui%Li%NULL%0,    Min%Liu%NULL%0,    Yan%Xiao%NULL%0,    Hong%Gao%NULL%0,    Li%Guo%NULL%0,    Jungang%Xie%NULL%0,    Guangfa%Wang%NULL%0,    Rongmeng%Jiang%NULL%0,    Zhancheng%Gao%NULL%0,    Qi%Jin%NULL%0,    Jianwei%Wang%wangjw28@163.com%0,    Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,   Bayani%Masomeh%coreGivesNoEmail%1,   Bijani%Ali%coreGivesNoEmail%1,   Ebrahimpour%Soheil%coreGivesNoEmail%1,   Gholinejad%Hossein Emam%coreGivesNoEmail%1,   Ghorbani%Hossein%coreGivesNoEmail%1,   Hasanpour%Amir Hossein%coreGivesNoEmail%1,   Javanian%Mostafa%coreGivesNoEmail%1,   Masrour-Roudsari%Jila%coreGivesNoEmail%1,   Mehraeen%Rahele%coreGivesNoEmail%1,   Mohseni%Sima%coreGivesNoEmail%1,   Rostami%Ali%coreGivesNoEmail%1,   Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,   Sepidarkish%Mahdi%coreGivesNoEmail%1,   Shabani%Asieh%coreGivesNoEmail%1,   Shahbazi%Mehdi%coreGivesNoEmail%1,   Shokri%Mehran%coreGivesNoEmail%1,   Tabari%Afrooz Monadi%coreGivesNoEmail%1,   Yeganeh%Babak%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Filippo%Lagi%NULL%1,    Matteo%Piccica%NULL%1,    Lucia%Graziani%NULL%1,    Iacopo%Vellere%NULL%1,    Annarita%Botta%NULL%3,    Marta%Tilli%NULL%3,    Letizia%Ottino%NULL%1,    Beatrice%Borchi%NULL%2,    Marco%Pozzi%NULL%1,    Filippo%Bartalesi%NULL%1,    Jessica%Mencarini%NULL%1,    Michele%Spinicci%NULL%1,    Lorenzo%Zammarchi%NULL%1,    Filippo%Pieralli%NULL%1,    Giovanni%Zagli%NULL%1,    Carlo%Nozzoli%NULL%1,    Stefano%Romagnoli%NULL%1,    Alessandro%Bartoloni%NULL%2,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,    Zhao-Wu%Tao%NULL%0,    Lei%Wang%NULL%0,    Ming-Li%Yuan%NULL%0,    Kui%Liu%NULL%0,    Ling%Zhou%NULL%0,    Shuang%Wei%NULL%0,    Yan%Deng%NULL%0,    Jing%Liu%NULL%0,    Hui-Guo%Liu%NULL%0,    Ming%Yang%NULL%0,    Yi%Hu%NULL%0,    Pei-Fang%Wei%NULL%0,    Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaochen%Li%NULL%0,    Shuyun%Xu%NULL%2,    Muqing%Yu%NULL%2,    Ke%Wang%NULL%0,    Yu%Tao%NULL%0,    Ying%Zhou%NULL%0,    Jing%Shi%NULL%2,    Min%Zhou%NULL%0,    Bo%Wu%NULL%2,    Zhenyu%Yang%NULL%2,    Cong%Zhang%NULL%0,    Junqing%Yue%NULL%2,    Zhiguo%Zhang%NULL%2,    Harald%Renz%NULL%2,    Xiansheng%Liu%NULL%0,    Jungang%Xie%NULL%0,    Min%Xie%NULL%0,    Jianping%Zhao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yang-kai%Li%doclyk@163.com%1,    Shu%Peng%NULL%1,    Le-qun%Li%NULL%1,    Qi%Wang%NULL%2,    Wei%Ping%NULL%1,    Ni%Zhang%NULL%1,    Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,    Yuanyuan%Xing%NULL%0,    Yu%Xiao%NULL%0,    Liping%Deng%NULL%0,    Qiu%Zhao%NULL%0,    Hongling%Wang%NULL%0,    Yong%Xiong%NULL%0,    Zhenshun%Cheng%NULL%0,    Shicheng%Gao%NULL%0,    Ke%Liang%NULL%0,    Mingqi%Luo%NULL%0,    Tielong%Chen%NULL%0,    Shihui%Song%NULL%0,    Zhiyong%Ma%NULL%0,    Xiaoping%Chen%NULL%0,    Ruiying%Zheng%NULL%0,    Qian%Cao%NULL%0,    Fan%Wang%fanndywang@foxmail.com%0,    Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,    Nicolas%Lopez-Villalobos%NULL%1,    Francisco E.%Parra-Bracamonte%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ishan%Paranjpe%NULL%2,    Adam J%Russak%NULL%0,    Adam J%Russak%NULL%0,    Jessica K%De Freitas%NULL%0,    Anuradha%Lala%NULL%0,    Riccardo%Miotto%NULL%0,    Akhil%Vaid%NULL%0,    Kipp W%Johnson%NULL%0,    Matteo%Danieletto%NULL%0,    Eddye%Golden%NULL%0,    Dara%Meyer%NULL%0,    Manbir%Singh%NULL%0,    Sulaiman%Somani%NULL%0,    Arjun%Kapoor%NULL%1,    Ross%O'Hagan%NULL%1,    Sayan%Manna%NULL%1,    Udit%Nangia%NULL%1,    Suraj K%Jaladanki%NULL%1,    Paul%O’Reilly%NULL%2,    Paul%O’Reilly%NULL%0,    Laura M%Huckins%NULL%1,    Patricia%Glowe%NULL%1,    Arash%Kia%NULL%0,    Prem%Timsina%NULL%0,    Robert M%Freeman%NULL%1,    Matthew A%Levin%NULL%0,    Jeffrey%Jhang%NULL%0,    Adolfo%Firpo%NULL%1,    Patricia%Kovatch%NULL%0,    Joseph%Finkelstein%NULL%0,    Judith A%Aberg%NULL%0,    Emilia%Bagiella%NULL%0,    Carol R%Horowitz%NULL%0,    Barbara%Murphy%NULL%0,    Zahi A%Fayad%NULL%0,    Jagat%Narula%NULL%0,    Eric J%Nestler%NULL%0,    V%Fuster%NULL%1,    Carlos%Cordon-Cardo%NULL%0,    Dennis%Charney%NULL%1,    David L%Reich%NULL%0,    Allan%Just%NULL%1,    Erwin P%Bottinger%NULL%0,    Alexander W%Charney%NULL%0,    Benjamin S%Glicksberg%NULL%0,    Girish N%Nadkarni%NULL%0,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ D.%Qi%null%1,     X.% Yan%null%2,     X.% Tang%null%1,     J.% Peng%null%1,     Q.% Yu%null%1,     L.% Feng%null%1,     G.% Yuan%null%1,     A.% Zhang%null%1,     Y.% Chen%null%1,     J.% Yuan%null%1,     X.% Huang%null%1,     X.% Zhang%null%1,     P.% Hu%null%1,     Y.% Song%null%1,     C.% Qian%null%1,     Q.% Sun%null%1,     D.% Wang%null%1,     J.% Tong%null%1,     J. % Xiang%null%1]</t>
-  </si>
-  <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,    Kevin Bryan%Lo%NULL%0,    Kevin Bryan%Lo%NULL%0,    Fahad%Gul%NULL%0,    Eric%Peterson%NULL%0,    Robert%De Joy%NULL%0,    Ruchika%Bhargav%NULL%0,    Jerald%Pelayo%NULL%0,    Jeri%Albano%NULL%0,    Zurab%Azmaiparashvili%NULL%0,    Sadia%Benzaquen%NULL%0,    Gabriel%Patarroyo‐Aponte%NULL%0,    Janani%Rangaswami%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,    Mu%Qin%qinmuae@163.com%0,    Yuli%Cai%NULL%0,    Tao%Liu%NULL%0,    Bo%Shen%NULL%0,    Fan%Yang%NULL%0,    Sheng%Cao%NULL%0,    Xu%Liu%NULL%0,    Xu%Liu%NULL%0,    Yaozu%Xiang%NULL%0,    Qinyan%Zhao%NULL%0,    He%Huang%huanghe1977@whu.edu.cn%0,    Bo%Yang%yybb112@whu.edu.cn%0,    Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jennifer%Tomlins%NULL%1,    Fergus%Hamilton%NULL%1,    Samuel%Gunning%NULL%1,    Caitlin%Sheehy%NULL%1,    Ed%Moran%NULL%1,    Alastair%MacGowan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,    Yi%Xiang%NULL%0,    Wei%Fang%NULL%0,    Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,    Boqun%Li%279685211@qq.com%0,    Boqun%Li%279685211@qq.com%0,    Yanjun%Hu%huyanjun@163.com%0,    Chunhui%Lang%NULL%0,    Daoqiu%Huang%NULL%0,    Qiuyan%Sun%NULL%0,    Yan%Xiong%NULL%0,    Xia%Huang%NULL%0,    Jinglong%Lv%NULL%0,    Yaling%Luo%NULL%0,    Li%Shen%NULL%0,    Haoran%Yang%NULL%0,    Gu%Huang%NULL%0,    Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,   Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,   Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,   Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%5,    Wenbo%He%NULL%2,    Xiaomei%Yu%NULL%2,    Dalong%Hu%NULL%2,    Mingwei%Bao%NULL%2,    Huafen%Liu%NULL%2,    Jiali%Zhou%NULL%2,    Hong%Jiang%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,    Bohan%Yang%NULL%0,    Qianwen%Li%NULL%0,    Lu%Wen%NULL%0,    Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Wu%J%coreGivesNoEmail%1,   Xu%Y%coreGivesNoEmail%1,   Zhanwei%Du%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,    Fen%Li%NULL%0,    Xiao%Wang%NULL%0,    Jie%Yan%NULL%0,    Fen%Zhu%NULL%0,    Shifan%Tang%NULL%0,    Yingzhong%Deng%NULL%0,    Hua%Wang%NULL%0,    Rui%Chen%NULL%0,    Zhili%Yu%NULL%0,    Yaping%Li%NULL%0,    Jingzhou%Shang%NULL%0,    Lingjun%Zeng%NULL%0,    Jie%Zhao%NULL%0,    Chaokun%Guan%NULL%0,    Qiaomei%Liu%NULL%0,    Haifeng%Chen%NULL%0,    Wei%Gong%NULL%0,    Xin%Huang%NULL%0,    Yu‐Jiao%Zhang%NULL%0,    Jianguang%Liu%NULL%0,    Xiaoyan%Dong%NULL%0,    Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,    Shaoping%Nie%spnie@126.com%0,    Dongsheng%Li%dongshengli196809@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Ping%Yang%NULL%1,    Pengfei%Wang%NULL%2,    Pengfei%Wang%NULL%0,    Yuyan%Song%NULL%1,    An%Zhang%zhangan@hospital.cqmu.edu.cn%1,    Guodan%Yuan%71502294@qq.com%1,    Yong%Cui%754605155@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,    Yuan%Yu%NULL%0,    Jiqian%Xu%NULL%0,    Huaqing%Shu%NULL%0,    Jia'an%Xia%NULL%0,    Hong%Liu%NULL%0,    Yongran%Wu%NULL%0,    Lu%Zhang%NULL%0,    Zhui%Yu%NULL%0,    Minghao%Fang%NULL%0,    Ting%Yu%NULL%0,    Yaxin%Wang%NULL%0,    Shangwen%Pan%NULL%0,    Xiaojing%Zou%NULL%0,    Shiying%Yuan%NULL%0,    You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,   Cao%Yi-yuan%coreGivesNoEmail%0,   Dong%Xiang%coreGivesNoEmail%0,   Gao%Ya-dong%coreGivesNoEmail%0,   Yan%You-qin%coreGivesNoEmail%0,   Yang%Yi-bin%coreGivesNoEmail%0,   Yuan%Ya-dong%coreGivesNoEmail%0,   Zhang%Jin-jin%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%3,    Chang%Hu%NULL%3,    Linjie%Luo%NULL%2,    Fang%Fang%NULL%4,    Yongfeng%Chen%NULL%2,    Jianguo%Li%NULL%2,    Zhiyong%Peng%NULL%0,    Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Jun%Zhang%NULL%1,    Miao%Yu%NULL%0,    Song%Tong%NULL%1,    Lu-Yu%Liu%NULL%1,    Liang-V.%Tang%lancet.tang@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,    Huangqing%Ouyang%NULL%1,    Lingli%Fu%NULL%1,    Shijie%Wang%NULL%1,    Jianglong%Han%NULL%1,    Kejie%Huang%NULL%1,    Mingfang%Jia%NULL%1,    Qibin%Song%NULL%1,    Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Zirun%Zhao%NULL%0,    Anne%Chen%NULL%0,    Wei%Hou%NULL%0,    James M.%Graham%NULL%0,    Haifang%Li%NULL%0,    Paul S.%Richman%NULL%0,    Henry C.%Thode%NULL%0,    Adam J.%Singer%NULL%0,    Tim Q.%Duong%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0,    Muhammad%Adrish%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%2,     Sarah%Al-Youha%sarahalyouha@gmail.com%2,     Mohammad H.%Jamal%NULL%2,     Mohannad%Al-Haddad%NULL%2,     Ali%Al-Muhaini%NULL%2,     Fahad%Al-Ghimlas%NULL%2,     Salman%Al-Sabah%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,     Samuel L%Bruce%NULL%3,     Cody L%Slater%NULL%3,     Jonathan R%Tiao%NULL%3,     Matthew R%Baldwin%NULL%4,     R Graham%Barr%NULL%3,     Bernard P%Chang%NULL%3,     Katherine H%Chau%NULL%3,     Justin J%Choi%NULL%3,     Nicholas%Gavin%NULL%3,     Parag%Goyal%NULL%3,     Angela M%Mills%NULL%3,     Ashmi A%Patel%NULL%3,     Marie-Laure S%Romney%NULL%3,     Monika M%Safford%NULL%3,     Neil W%Schluger%NULL%3,     Soumitra%Sengupta%NULL%3,     Magdalena E%Sobieszczyk%NULL%3,     Jason E%Zucker%NULL%3,     Paul A%Asadourian%NULL%3,     Fletcher M%Bell%NULL%3,     Rebekah%Boyd%NULL%3,     Matthew F%Cohen%NULL%3,     MacAlistair I%Colquhoun%NULL%3,     Lucy A%Colville%NULL%3,     Joseph H%de Jonge%NULL%3,     Lyle B%Dershowitz%NULL%3,     Shirin A%Dey%NULL%3,     Katherine A%Eiseman%NULL%3,     Zachary P%Girvin%NULL%3,     Daniella T%Goni%NULL%3,     Amro A%Harb%NULL%3,     Nicholas%Herzik%NULL%3,     Sarah%Householder%NULL%3,     Lara E%Karaaslan%NULL%3,     Heather%Lee%NULL%3,     Evan%Lieberman%NULL%3,     Andrew%Ling%NULL%3,     Ree%Lu%NULL%3,     Arthur Y%Shou%NULL%3,     Alexander C%Sisti%NULL%3,     Zachary E%Snow%NULL%3,     Colin P%Sperring%NULL%3,     Yuqing%Xiong%NULL%3,     Henry W%Zhou%NULL%3,     Karthik%Natarajan%NULL%3,     George%Hripcsak%NULL%3,     Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,     Mark%Caridi-Scheible%NULL%6,     James M.%Blum%NULL%4,     Chad%Robichaux%NULL%4,     Colleen%Kraft%NULL%4,     Jesse T.%Jacob%NULL%4,     Craig S.%Jabaley%NULL%4,     David%Carpenter%NULL%4,     Roberta%Kaplow%NULL%4,     Alfonso C.%Hernandez-Romieu%NULL%4,     Max W.%Adelman%NULL%4,     Greg S.%Martin%NULL%4,     Craig M.%Coopersmith%NULL%4,     David J.%Murphy%NULL%4,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Juan%Berenguer%NULL%1,     Pablo%Ryan%NULL%0,     Jesús%Rodríguez-Baño%NULL%1,     Inmaculada%Jarrín%NULL%4,     Jordi%Carratalà%NULL%4,     Jerónimo%Pachón%NULL%0,     María%Yllescas%NULL%1,     José Ramón%Arriba%NULL%1,     NULL%NULL%NULL%0,     Esther%Aznar Muñoz%NULL%1,     Pedro%Gil Divasson%NULL%1,     Patricia%González Muñiz%NULL%1,     Clara%Muñoz Aguirre%NULL%1,     Juan Carlos%López%NULL%3,     Juan Carlos%López%NULL%0,     Juan Carlos%López%NULL%0,     Margarita%Ramírez-Schacke%NULL%1,     Isabel%Gutiérrez%NULL%1,     Francisco%Tejerina%NULL%1,     Teresa%Aldámiz-Echevarría%NULL%1,     Cristina%Díez%NULL%1,     Chiara%Fanciulli%NULL%1,     Leire%Pérez-Latorre%NULL%1,     Francisco%Parras%NULL%1,     Pilar%Catalán%NULL%1,     María E.%García-Leoni%NULL%1,     Isabel%Pérez-Tamayo%NULL%1,     Luis%Puente%NULL%1,     Jamil%Cedeño%NULL%1,     Juan%Berenguer%NULL%1,     Marta%Díaz Menéndez%NULL%3,     Marta%Díaz Menéndez%NULL%0,     Marta%Díaz Menéndez%NULL%0,     Fernando%de la Calle Prieto%NULL%1,     Marta%Arsuaga Vicente%NULL%1,     Elena%Trigo Esteban%NULL%1,     Mª del Mar%Lago Núñez%NULL%1,     Rosa%de Miguel Buckley%NULL%1,     Julen%Cadiñaños Loidi%NULL%1,     Carmen%Busca Arenzana%NULL%1,     Alfredo%Mican%NULL%1,     Marta%Mora Rillo%NULL%1,     Juan Carlos%Ramos Ramos%NULL%1,     Belén%Loeches Yagüe%NULL%1,     José Ignacio%Bernardino de la Serna%NULL%1,     Julio%García Rodríguez%NULL%1,     José Ramón%Arribas López%NULL%1,     Ana%Such Diaz%NULL%3,     Ana%Such Diaz%NULL%0,     Ana%Such Diaz%NULL%0,     Elena%Álvaro Alonso%NULL%1,     Elsa%Izquierdo García%NULL%1,     Juan%Torres Macho%NULL%1,     Guillermo%Cuevas Tascon%NULL%1,     Jesús%Troya García%NULL%1,     Beatriz%Mestre Gómez%NULL%1,     Eva%Jiménez González de Buitrago%NULL%1,     Inés%Fernández Jiménez%NULL%1,     Ana Josefa%Tebar Martínez%NULL%1,     Fátima%Brañas Baztán%NULL%1,     Jorge%Valencia de la Rosa%NULL%1,     Mario%Pérez Butragueño%NULL%1,     Marta%Alvarado Blasco%NULL%1,     Pablo%Ryan%NULL%0,     Mª Antonia%Sepúlveda Berrocal%NULL%3,     Mª Antonia%Sepúlveda Berrocal%NULL%0,     Mª Antonia%Sepúlveda Berrocal%NULL%0,     Carmen%Yera Bergua%NULL%1,     Pilar%Toledano Sierra%NULL%1,     Verónica%Cano Llorente%NULL%1,     Sadaf%Zafar Iqubal-Mirza%NULL%1,     Gema%Muñiz%NULL%1,     Inmaculada%Martín Pérez%NULL%1,     Helena%Mozas Moriñigo%NULL%1,     Ana%Alguacil%NULL%1,     María Paz%García Butenegro%NULL%1,     Ana Isabel%Peláez Ballesta%NULL%3,     Ana Isabel%Peláez Ballesta%NULL%0,     Ana Isabel%Peláez Ballesta%NULL%0,     Elena%Morcillo Rodríguez%NULL%1,     Josune%Goikoetxea Agirre%NULL%3,     Josune%Goikoetxea Agirre%NULL%0,     Josune%Goikoetxea Agirre%NULL%0,     María José%Blanco Vidal%NULL%1,     Javier%Nieto Arana%NULL%1,     Mikel%del Álamo Martínez de Lagos%NULL%1,     Isabel A.%Pérez Hernández%NULL%3,     Isabel A.%Pérez Hernández%NULL%0,     Isabel A.%Pérez Hernández%NULL%0,     Inés%Pérez Zapata%NULL%1,     Rafael%Silvariño Fernández%NULL%3,     Rafael%Silvariño Fernández%NULL%0,     Rafael%Silvariño Fernández%NULL%0,     Jon%Ugalde Espiñeira%NULL%1,     Víctor%Asensi Álvarez%NULL%3,     Víctor%Asensi Álvarez%NULL%0,     Víctor%Asensi Álvarez%NULL%0,     Lucia%Suárez Pérez%NULL%1,     Silvia%Suárez Diaz%NULL%1,     Carmen%Yllera Gutiérrez%NULL%1,     Vicente%Boix%NULL%3,     Vicente%Boix%NULL%0,     Vicente%Boix%NULL%0,     Marcos%Díez Martínez%NULL%1,     Melissa%Carreres Candela%NULL%1,     Cristina%Gómez-Ayerbe%NULL%3,     Cristina%Gómez-Ayerbe%NULL%0,     Cristina%Gómez-Ayerbe%NULL%0,     Javier%Sánchez-Lora%NULL%1,     José Luis%Velasco Garrido%NULL%1,     María%López-Jódar%NULL%1,     Jesús%Santos González%NULL%1,     Jesús%Ruiz Aragón%NULL%3,     Jesús%Ruiz Aragón%NULL%0,     Jesús%Ruiz Aragón%NULL%0,     Ianire%Virto Peña%NULL%1,     Vanessa%Alende Castro%NULL%3,     Vanessa%Alende Castro%NULL%0,     Vanessa%Alende Castro%NULL%0,     Ruth%Brea Aparicio%NULL%1,     Sonia%Vega Molpeceres%NULL%3,     Sonia%Vega Molpeceres%NULL%0,     Sonia%Vega Molpeceres%NULL%0,     Estel%Pons Viñas%NULL%1,     Oscar%del Río Pérez%NULL%3,     Oscar%del Río Pérez%NULL%0,     Oscar%del Río Pérez%NULL%0,     Silvia%Valero Rovira%NULL%1,     Judit%Villar-García%NULL%3,     Judit%Villar-García%NULL%0,     Judit%Villar-García%NULL%0,     Joan%Gómez-Junyent%NULL%1,     Hernando%Knobel%NULL%1,     María Cecilia%Cánepa%NULL%1,     Silvia%Castañeda Espinosa%NULL%1,     Luisa%Sorli Redò%NULL%1,     Roberto%Güerri-Fernández%NULL%1,     María%Milagro Montero%NULL%1,     Juan Pablo%Horcajada%NULL%1,     Elisa%García Vázquez%NULL%3,     Elisa%García Vázquez%NULL%0,     Elisa%García Vázquez%NULL%0,     Encarnación%Moral Escudero%NULL%1,     Alicia%Hernández Torres%NULL%1,     Esther%García Almodóvar%NULL%3,     Esther%García Almodóvar%NULL%0,     Esther%García Almodóvar%NULL%0,     Carmen%Sáez Barberá%NULL%3,     Carmen%Sáez Barberá%NULL%0,     Carmen%Sáez Barberá%NULL%0,     Zineb%Karroud%NULL%1,     José%Hernández Quero%NULL%3,     José%Hernández Quero%NULL%0,     José%Hernández Quero%NULL%0,     David%Vinuesa García%NULL%1,     José Luis%García Fogeda%NULL%1,     José Antonio%Peregrina%NULL%1,     María%Novella Mena%NULL%3,     María%Novella Mena%NULL%0,     María%Novella Mena%NULL%0,     Cristina%Hernández Gutiérrez%NULL%1,     José%Sanz Moreno%NULL%1,     Ramón%Pérez Tanoira%NULL%1,     Rodrigo%Sierra Rodríguez%NULL%1,     David%Alonso Menchén%NULL%1,     Aida%Gutiérrez García%NULL%1,     Alberto%Arranz Caso%NULL%1,     Juan%Cuadros González%NULL%1,     Melchor%Álvarez de Mon Soto%NULL%1,     Vicente Ferrer%Díaz de Brito Fernández%NULL%3,     Vicente Ferrer%Díaz de Brito Fernández%NULL%0,     Vicente Ferrer%Díaz de Brito Fernández%NULL%0,     Montserrat%Sanmarti Vilamala%NULL%1,     Aina%Gabarrell Pascuet%NULL%1,     Daniel%Molina Morant%NULL%1,     Sergio%España Cueto%NULL%1,     Jonathan%Cámara Fernández%NULL%1,     Albert%Sabater Gil%NULL%1,     Laura%Muñoz López%NULL%1,     Paula%Sáez Escolano%NULL%3,     Paula%Sáez Escolano%NULL%0,     Paula%Sáez Escolano%NULL%0,     Esperanza%Bejarano Tello%NULL%1,     Marco Antonio%Sempere Alcocer%NULL%3,     Marco Antonio%Sempere Alcocer%NULL%0,     Marco Antonio%Sempere Alcocer%NULL%0,     Salvador%Álvarez Martin%NULL%1,     Ignacio%De los Santos Gil%NULL%3,     Ignacio%De los Santos Gil%NULL%0,     Ignacio%De los Santos Gil%NULL%0,     Lucio%García-Fraile%NULL%1,     Miguel%Sampedro Núñez%NULL%1,     Ana%Barrios Blandino%NULL%1,     Carlos%Rodríguez Franco%NULL%1,     Daniel%Useros Brañas%NULL%1,     Almudena%Villa Martí%NULL%1,     Javier%Oliver Ortega%NULL%1,     Alexia%Costanza Espiño Álvarez%NULL%1,     Jesús%Sanz Sanz%NULL%1,     María%Rexach Fumaña%NULL%3,     María%Rexach Fumaña%NULL%0,     María%Rexach Fumaña%NULL%0,     Ivette%Abascal Cambras%NULL%1,     Ana del Cielo%Pérez Jaén%NULL%1,     Clara%Sala Jofre%NULL%3,     Clara%Sala Jofre%NULL%0,     Clara%Sala Jofre%NULL%0,     Susana%Casas Rodríguez%NULL%1,     Cecilia%Tortajada Alamilla%NULL%3,     Cecilia%Tortajada Alamilla%NULL%0,     Cecilia%Tortajada Alamilla%NULL%0,     Carmina%Oltra%NULL%1,     Mar%Masiá Canuto%NULL%3,     Mar%Masiá Canuto%NULL%0,     Mar%Masiá Canuto%NULL%0,     Félix%Gutiérrez Rodero%NULL%1,     Ana%Ferrer Ribera%NULL%3,     Ana%Ferrer Ribera%NULL%0,     Ana%Ferrer Ribera%NULL%0,     Carlos%Bea Serrano%NULL%1,     Miguel%Pedromingo Kus%NULL%3,     Miguel%Pedromingo Kus%NULL%0,     Miguel%Pedromingo Kus%NULL%0,     María Ángeles%Garcinuño%NULL%1,     Silvana%Fiorante%NULL%1,     Sergio%Pérez Pinto%NULL%1,     Pilar%Hernández Machín%NULL%3,     Pilar%Hernández Machín%NULL%0,     Pilar%Hernández Machín%NULL%0,     Alba%Alastrué Violeta%NULL%1,     María Carmen%Fariñas Álvarez%NULL%3,     María Carmen%Fariñas Álvarez%NULL%0,     María Carmen%Fariñas Álvarez%NULL%0,     Claudia%González Rico%NULL%1,     Francisco%Arnaiz de las Revillas%NULL%1,     Jorge%Calvo%NULL%1,     Mónica%Gozalo%NULL%1,     Francisco%Mora Gómez%NULL%3,     Francisco%Mora Gómez%NULL%0,     Francisco%Mora Gómez%NULL%0,     Ana%Milagro Beamonte%NULL%3,     Ana%Milagro Beamonte%NULL%0,     Ana%Milagro Beamonte%NULL%0,     Miriam%Latorre-Millán%NULL%1,     Antonio%Rezusta López%NULL%1,     Ana%Martínez Sapiña%NULL%1,     Yolanda%Meije%NULL%3,     Yolanda%Meije%NULL%0,     Yolanda%Meije%NULL%0,     Alejandra%Duarte Borges%NULL%1,     Julia%Pareja Coca%NULL%1,     Mercedes%Clemente Presas%NULL%1,     Juan Emilio%Losa García%NULL%3,     Juan Emilio%Losa García%NULL%0,     Juan Emilio%Losa García%NULL%0,     Ana%Vegas Serrano%NULL%1,     M. Teresa%Pérez-Rodríguez%NULL%3,     M. Teresa%Pérez-Rodríguez%NULL%0,     M. Teresa%Pérez-Rodríguez%NULL%0,     Alexandre%Pérez González%NULL%1,     Moncef%Belhassen-García%NULL%3,     Moncef%Belhassen-García%NULL%0,     Moncef%Belhassen-García%NULL%0,     Beatriz%Rodríguez-Alonso%NULL%1,     Amparo%López-Bernus%NULL%1,     Cristina%Carbonell%NULL%1,     Rafael%Torres Perea%NULL%3,     Rafael%Torres Perea%NULL%0,     Rafael%Torres Perea%NULL%0,     Juan%Cantón de Seoane%NULL%1,     Blanca%Alonso%NULL%1,     Sara Lidia%Kamal%NULL%1,     Lucia%Cajuela%NULL%1,     David%Roa%NULL%1,     Miguel%Cervero%NULL%1,     Alberto%Oreja%NULL%1,     Juan Pablo%Avilés%NULL%1,     Lidia%Martín%NULL%1,     Iván%Pelegrín Senent%NULL%3,     Iván%Pelegrín Senent%NULL%0,     Iván%Pelegrín Senent%NULL%0,     Rosana%Rouco Esteves Marques%NULL%1,     Jorge%Parra Ruiz%NULL%3,     Jorge%Parra Ruiz%NULL%0,     Jorge%Parra Ruiz%NULL%0,     Violeta%Ramos Sesma%NULL%1,     Jessica%Abadia Otero%NULL%3,     Jessica%Abadia Otero%NULL%0,     Jessica%Abadia Otero%NULL%0,     Juan%Salillas Hernando%NULL%3,     Juan%Salillas Hernando%NULL%0,     Juan%Salillas Hernando%NULL%0,     Robert%Torres Sánchez del Arco%NULL%1,     Miguel%Torralba González de Suso%NULL%1,     Alberto%Serrano Martínez%NULL%1,     Sergio%Gilaberte Reyzábal%NULL%1,     Marina%Pacheco Martínez-Atienza%NULL%1,     Mónica%Liébana Gómez%NULL%1,     Sara%Fernández Rodríguez%NULL%1,     Álvaro%Varela Plaza%NULL%1,     Henar%Calvo Sánchez%NULL%1,     Patricia%Martínez Martín%NULL%3,     Patricia%Martínez Martín%NULL%0,     Patricia%Martínez Martín%NULL%0,     Patricia%González- Ruano%NULL%1,     Eduardo%Malmierca Corral%NULL%1,     Isabel%Rábago Lorite%NULL%1,     Beatriz%Pérez-Monte Mínguez%NULL%1,     Ángeles%García Flores%NULL%3,     Ángeles%García Flores%NULL%0,     Ángeles%García Flores%NULL%0,     Pere%Comas Casanova%NULL%1,     Merce%Sirisi%NULL%3,     Merce%Sirisi%NULL%0,     Merce%Sirisi%NULL%0,     Richard%Rojas%NULL%1,     José Luis%Díaz de Tuesta del Arco%NULL%3,     José Luis%Díaz de Tuesta del Arco%NULL%0,     José Luis%Díaz de Tuesta del Arco%NULL%0,     Ruth%Figueroa Cerón%NULL%1,     Ander%González Sarria%NULL%1,     Remedios%Alemán Valls%NULL%3,     Remedios%Alemán Valls%NULL%0,     Remedios%Alemán Valls%NULL%0,     María del Mar%Alonso Socas%NULL%1,     Oscar%Sanz Peláez%NULL%3,     Oscar%Sanz Peláez%NULL%0,     Oscar%Sanz Peláez%NULL%0,     Karim%Mohamed Ramírez%NULL%1,     Melchor%Riera Jaume%NULL%3,     Melchor%Riera Jaume%NULL%0,     Melchor%Riera Jaume%NULL%0,     Helem Haydee%Vilchez%NULL%1,     Francesc%Albertí%NULL%1,     Ana Isabel%Cañabate%NULL%1,     Víctor J.%Moreno Cuerda%NULL%3,     Víctor J.%Moreno Cuerda%NULL%0,     Víctor J.%Moreno Cuerda%NULL%0,     Silvia%Álvarez Kaelis%NULL%1,     Beatriz%Álvarez Zapatero%NULL%1,     Alejandro%García García%NULL%1,     Elena%Isaba Ares%NULL%1,     Covadonga%Morcate Fernández%NULL%1,     Andrea%Pérez Rodríguez%NULL%1,     Lucía%Ramos Merino%NULL%3,     Lucía%Ramos Merino%NULL%0,     Lucía%Ramos Merino%NULL%0,     Laura%Castelo Corral%NULL%1,     María%Rodríguez Mahía%NULL%1,     Mónica%González Bardanca%NULL%1,     Efrén%Sánchez Vidal%NULL%1,     Enrique%Míguez Rey%NULL%1,     Javier%De la Torre Lima%NULL%3,     Javier%De la Torre Lima%NULL%0,     Javier%De la Torre Lima%NULL%0,     José Mª%García de Lomas Guerrero%NULL%1,     Elena%Morte%NULL%3,     Elena%Morte%NULL%0,     Elena%Morte%NULL%0,     Silvia%Loscos%NULL%1,     Ana%Camón%NULL%1,     Lucía%Gómez García%NULL%3,     Lucía%Gómez García%NULL%0,     Lucía%Gómez García%NULL%0,     Lucia%Boix Palop%NULL%1,     Beatriz%Dietl Gómez-Luengo%NULL%1,     Iris%Pedrola Gorrea%NULL%3,     Iris%Pedrola Gorrea%NULL%0,     Iris%Pedrola Gorrea%NULL%0,     Amparo%Blasco Claramunt%NULL%1,     Cristina%López Mestanza%NULL%3,     Cristina%López Mestanza%NULL%0,     Cristina%López Mestanza%NULL%0,     Esther%Fraile Villarejo%NULL%1,     Tomás%Tosco Núñez%NULL%3,     Tomás%Tosco Núñez%NULL%0,     Tomás%Tosco Núñez%NULL%0,     María%Aroca Ferri%NULL%1,     José Tomas%Algado Rabasa%NULL%3,     José Tomas%Algado Rabasa%NULL%0,     José Tomas%Algado Rabasa%NULL%0,     Ana María%Garijo Saiz%NULL%1,     Concepción%Amador Prous%NULL%1,     Jesús Rodriguez%Baño%NULL%3,     Jesús Rodriguez%Baño%NULL%0,     Jesús Rodriguez%Baño%NULL%0,     Pilar%Retamar%NULL%1,     Adoración%Valiente%NULL%1,     Luis E.%López-Cortés%NULL%1,     Jesús%Sojo%NULL%1,     Belén%Gutiérrez-Gutiérrez%NULL%1,     José%Bravo-Ferrer%NULL%1,     Elena%Salamanca%NULL%1,     Zaira R.%Palacios%NULL%1,     Patricia%Pérez-Palacios%NULL%1,     Enrique%Peral%NULL%1,     José Antonio%Pérez de León%NULL%1,     Jesús%Sánchez-Gómez%NULL%1,     Lucía%Marín-Barrera%NULL%1,     Domingo%García-Jiménez%NULL%1,     Jordi%Carratalà%NULL%0,     Jordi%Carratalà%NULL%0,     Jordi%Carratalà%NULL%0,     Gabriela%Abelenda-Alonso%NULL%1,     Carmen%Ardanuy%NULL%1,     Alba%Bergas%NULL%1,     Guillermo%Cuervo%NULL%1,     María Ángeles%Domínguez%NULL%1,     Miguel%Fernández-Huerta%NULL%1,     Carlota%Gudiol%NULL%1,     Laia%Lorenzo-Esteller%NULL%1,     Jordi%Niubó%NULL%1,     Sandra%Pérez-Recio%NULL%1,     Daniel%Podzamczer%NULL%1,     Miquel%Pujol%NULL%1,     Alexander%Rombauts%NULL%1,     Núria%Trullen%NULL%1,     Miguel%Salavert Lletí%NULL%3,     Miguel%Salavert Lletí%NULL%0,     Miguel%Salavert Lletí%NULL%0,     Iván%Castro Hernández%NULL%1,     Adriana%Hernández Belmonte%NULL%3,     Adriana%Hernández Belmonte%NULL%0,     Adriana%Hernández Belmonte%NULL%0,     Raquel%Martínez Goñi%NULL%1,     Marta%Navarro Vilasaró%NULL%3,     Marta%Navarro Vilasaró%NULL%0,     Marta%Navarro Vilasaró%NULL%0,     Sonia%Calzado Isbert%NULL%1,     Manuel%Cervantes García%NULL%1,     Aina%Gomila Grange%NULL%1,     Oriol%Gasch Blasi%NULL%1,     María Luisa%Machado Sicilia%NULL%1,     Eva%Van den Eynde Otero%NULL%1,     Luis%Falgueras López%NULL%1,     María del Carmen%Navarro Sáez%NULL%1,     Esteban%Martínez%NULL%3,     Esteban%Martínez%NULL%0,     Esteban%Martínez%NULL%0,     Mª Ángeles%Marcos%NULL%1,     Mar%Mosquera%NULL%1,     José Luis%Blanco%NULL%1,     Montserrat%Laguno%NULL%1,     Jhon%Rojas%NULL%1,     Ana%González-Cordón%NULL%1,     Alexy%Inciarte%NULL%1,     Berta%Torres%NULL%1,     Lorena%De la Mora%NULL%1,     Alex%Soriano%NULL%1,     Olalla%Martínez Macias%NULL%3,     Olalla%Martínez Macias%NULL%0,     Olalla%Martínez Macias%NULL%0,     Virginia%Pérez Doñate%NULL%1,     Alfonso%Cabello Úbeda%NULL%3,     Alfonso%Cabello Úbeda%NULL%0,     Alfonso%Cabello Úbeda%NULL%0,     Nerea%Carrasco Antón%NULL%1,     Beatriz%Álvarez Álvarez%NULL%1,     Elizabet%Petkova Saiz%NULL%1,     Miguel%Górgolas Hernández-Mora%NULL%1,     Laura%Prieto Pérez%NULL%1,     Irene%Carrillo Acosta%NULL%1,     Sara%Heili Frades%NULL%1,     Felipe%Villar Álvarez%NULL%1,     Ricardo%Fernández Roblas%NULL%1,     José María%Milicua Muñoz%NULL%1,     Virginia%Fernández Espinilla%NULL%3,     Virginia%Fernández Espinilla%NULL%0,     Virginia%Fernández Espinilla%NULL%0,     Carlos Jesús%Dueñas Gutiérrez%NULL%1,     Cristina%Hernán García%NULL%1,     Fernando%González-Romo%NULL%3,     Fernando%González-Romo%NULL%0,     Fernando%González-Romo%NULL%0,     Paloma%Merino Amador%NULL%1,     Alba%Rueda López%NULL%1,     Jorge%Martínez Jordán%NULL%1,     Sara%Medrano Pardo%NULL%1,     Irene%Díaz de la Torre%NULL%1,     Yolanda%Posada Franco%NULL%1,     Alberto%Delgado-Iribarren%NULL%1,     Joaquín%López-Contreras González%NULL%3,     Joaquín%López-Contreras González%NULL%0,     Joaquín%López-Contreras González%NULL%0,     Pablo%Pascual Alonso%NULL%1,     Virginia%Pomar Solchaga%NULL%1,     Nuria%Rabella García%NULL%1,     Natividad%Benito Hernández%NULL%1,     Pere%Domingo Pedrol%NULL%1,     Xavier%Bonfill Cosp%NULL%1,     Rafael%Padrós Selma%NULL%1,     Mireia%Puig Campmany%NULL%1,     Jordi%Mancebo Cortés%NULL%1,     Mercè%Gurguí Ferrer%NULL%1,     Melania%Íñigo Pestaña%NULL%3,     Melania%Íñigo Pestaña%NULL%0,     Melania%Íñigo Pestaña%NULL%0,     Alejandra%Pérez García%NULL%1,     Patricia%Sorní Moreno%NULL%3,     Patricia%Sorní Moreno%NULL%0,     Patricia%Sorní Moreno%NULL%0,     Nora%Izko Gartzia%NULL%1,     Francisco Javier%Membrillo de Novales%NULL%3,     Francisco Javier%Membrillo de Novales%NULL%0,     Francisco Javier%Membrillo de Novales%NULL%0,     María%Simón Sacristán%NULL%1,     Maribel%Zamora Cintas%NULL%1,     Yolanda%Martínez Martínez%NULL%1,     Pablo%Fernández-González%NULL%1,     Francisco%Alcántara Nicolás%NULL%1,     Alejandro%Aguirre Vila-Cora%NULL%1,     Elena%López Tizón%NULL%1,     Germán%Ramírez-Olivencia%NULL%1,     Miriam%Estébanez Muñoz%NULL%1,     Ester%Sáez de Adana Arróniz%NULL%3,     Ester%Sáez de Adana Arróniz%NULL%0,     Ester%Sáez de Adana Arróniz%NULL%0,     Joseba%Portu Zapirain%NULL%1,     Juan Carlos%Gainzarain Arana%NULL%1,     Zuriñe%Ortiz de Zárate Ibarra%NULL%1,     Miguel Ángel%Moran Rodríguez%NULL%1,     Andrés%Canut Blasco%NULL%1,     Silvia%Hernáez Crespo%NULL%1,     Leire%Balerdi Sarasola%NULL%1,     Cristina%Morales García%NULL%1,     Miguel%Corral Saracho%NULL%1,     Zeltia%Valcarce González%NULL%1,     Noelia%Arenal Andrés%NULL%3,     Noelia%Arenal Andrés%NULL%0,     Noelia%Arenal Andrés%NULL%0,     Raquel Elisa%Rodríguez Tarazona%NULL%1,     Laura%Iglesias Llorente%NULL%3,     Laura%Iglesias Llorente%NULL%0,     Laura%Iglesias Llorente%NULL%0,     Beatriz%Loureiro Rodríguez%NULL%1,     Adrián%Sánchez Montalvá%NULL%3,     Adrián%Sánchez Montalvá%NULL%0,     Adrián%Sánchez Montalvá%NULL%0,     Juan%Espinosa Pereiro%NULL%1,     Benito%Almirante%NULL%1,     Marta%Miarons%NULL%1,     Júlia%Sellarés%NULL%1,     María%Larrosa%NULL%1,     Sonia%García%NULL%1,     Blanca%Marzo%NULL%1,     Miguel%Villamarín%NULL%1,     Nuria%Fernández%NULL%1,     Conchita%Pérez-Jorge Peremarch%NULL%3,     Conchita%Pérez-Jorge Peremarch%NULL%0,     Conchita%Pérez-Jorge Peremarch%NULL%0,     Elena%Resino Foz%NULL%1,     Andrea%Espigares Correa%NULL%1,     Teresa%Álvarez de Espejo Montiel%NULL%1,     Iván%Navas Clemente%NULL%1,     María Isabel%Quijano Contreras%NULL%1,     Luis Alberto%Nieto Fernández del Campo%NULL%1,     Guillermo%Jiménez Álvarez%NULL%1,     Mercedes%Guillamón Sánchez%NULL%3,     Mercedes%Guillamón Sánchez%NULL%0,     Mercedes%Guillamón Sánchez%NULL%0,     Josefina%García García%NULL%1,     Constanza%Muñoz Hornero%NULL%3,     Constanza%Muñoz Hornero%NULL%0,     Constanza%Muñoz Hornero%NULL%0,     Ana%Mariño Callejo%NULL%3,     Ana%Mariño Callejo%NULL%0,     Ana%Mariño Callejo%NULL%0,     Nieves%Valcarce Pardeiro%NULL%1,     Alex%Smithson Amat%NULL%3,     Alex%Smithson Amat%NULL%0,     Alex%Smithson Amat%NULL%0,     Cristina%Chico Chumillas%NULL%1,     Adriana%Sánchez Serrano%NULL%3,     Adriana%Sánchez Serrano%NULL%0,     Adriana%Sánchez Serrano%NULL%0,     Eva Pilar%García Villalba%NULL%1,     Isabel%Jiménez Martínez%NULL%3,     Isabel%Jiménez Martínez%NULL%0,     Isabel%Jiménez Martínez%NULL%0,     Guillermo%Estrada Fernández%NULL%1,     María%Lorén Vargas%NULL%1,     Nuria%Parra Arribas%NULL%1,     Carmen%Martínez Cilleros%NULL%1,     Aránzazu%Villasante de la Puente%NULL%1,     Teresa%García Delange%NULL%1,     María José%Ruiz Rodríguez%NULL%1,     Marta%Robledo del Prado%NULL%1,     Juan Carlos%Abad Almendro%NULL%1,     José Román%Muñoz del Rey%NULL%3,     José Román%Muñoz del Rey%NULL%0,     José Román%Muñoz del Rey%NULL%0,     Montaña%Jiménez Álvaro%NULL%1,     Javier%Coy Coy%NULL%3,     Javier%Coy Coy%NULL%0,     Javier%Coy Coy%NULL%0,     Inmaculada%Poquet Catala%NULL%1,     Marta%Santos Peña%NULL%3,     Marta%Santos Peña%NULL%0,     Marta%Santos Peña%NULL%0,     Virginia%Naranjo Velasco%NULL%1,     Tamara%Manso Gómez%NULL%3,     Tamara%Manso Gómez%NULL%0,     Tamara%Manso Gómez%NULL%0,     Delia%Quilez Ágreda%NULL%1,     Gema%Barbeito Castiñeiras%NULL%3,     Gema%Barbeito Castiñeiras%NULL%0,     Gema%Barbeito Castiñeiras%NULL%0,     María Jesús%Domínguez Santalla%NULL%1,     Laura%Mao Martín%NULL%3,     Laura%Mao Martín%NULL%0,     Laura%Mao Martín%NULL%0,     Rodrigo%Alonso Navarro%NULL%1,     Jose David%Ampuero Martinich%NULL%1,     Raquel%Barrós González%NULL%1,     María Aránzazu%Galindo Martín%NULL%1,     Lourdes%Herrera Pacheco%NULL%1,     Rocío%Martínez Avilés%NULL%1,     Sara%Rodrigo González%NULL%1,     Cristóbal Manuel%Rodríguez Leal%NULL%1,     Eva María%Romay Lema%NULL%3,     Eva María%Romay Lema%NULL%0,     Eva María%Romay Lema%NULL%0,     Roi%Suárez Gil%NULL%1,     Maialen%Ibarguren Pinilla%NULL%3,     Maialen%Ibarguren Pinilla%NULL%0,     Maialen%Ibarguren Pinilla%NULL%0,     José María%Marimón Ortiz de Zárate%NULL%1,     Loreto%Vidaur Tello%NULL%1,     Xabier%Kortajarena Urkola%NULL%1,     Miriam%García Gómez%NULL%3,     Miriam%García Gómez%NULL%0,     Miriam%García Gómez%NULL%0,     Asier%Aranguren Arostegui%NULL%1,     Maria%Álvarez de Castro%NULL%3,     Maria%Álvarez de Castro%NULL%0,     Maria%Álvarez de Castro%NULL%0,     Cintia María%Martínez Mateu%NULL%1,     Francisco%Rodríguez Gómez%NULL%3,     Francisco%Rodríguez Gómez%NULL%0,     Francisco%Rodríguez Gómez%NULL%0,     Francisco%Muñoz Beamud%NULL%1,     Elena%Chamarro Martí%NULL%3,     Elena%Chamarro Martí%NULL%0,     Elena%Chamarro Martí%NULL%0,     Merce%Cardona Rivera%NULL%1,     Ismail%Zakariya-Yousef Breval%NULL%3,     Ismail%Zakariya-Yousef Breval%NULL%0,     Ismail%Zakariya-Yousef Breval%NULL%0,     Marta%Rico Rodríguez%NULL%1,     Jara%Llenas García%NULL%3,     Jara%Llenas García%NULL%0,     Jara%Llenas García%NULL%0,     Mª Carmen%Sánchez Arenas%NULL%1,     Ana%Fernández Cruz%NULL%3,     Ana%Fernández Cruz%NULL%0,     Ana%Fernández Cruz%NULL%0,     Jorge%Calderón Parra%NULL%1,     Marcos%López Dosil%NULL%1,     Antonio%Ramos Martínez%NULL%1,     Elena%Múñez Rubio%NULL%1,     Alejandro%Callejas Díaz%NULL%1,     José Manuel%Vázquez Comendador%NULL%1,     Itziar%Diego Yagüe%NULL%1,     Esther%Expósito Palomo%NULL%1,     Jorge%Anel Pedroche%NULL%1,     Raquel%Álvarez Franco%NULL%3,     Raquel%Álvarez Franco%NULL%0,     Raquel%Álvarez Franco%NULL%0,     Lucía%Fernández de Orueta%NULL%1,     Roberto%Vates Gómez%NULL%1,     Andrés Felipe%Cardona Arias%NULL%1,     Pablo%Marguenda Contreras%NULL%1,     Gabriel%Gaspar Alonso-Vega%NULL%1,     Elena María%Aranda Rife%NULL%1,     Blanca%Martínez Cifre%NULL%1,     Daniel%Roger Zapata%NULL%1,     Irene%Martín Rubio%NULL%1,     André%Barbosa Ventura%NULL%3,     André%Barbosa Ventura%NULL%0,     André%Barbosa Ventura%NULL%0,     Iván%Piñero%NULL%1,     Alberto%Bahamonde Carrasco%NULL%3,     Alberto%Bahamonde Carrasco%NULL%0,     Alberto%Bahamonde Carrasco%NULL%0,     Paula%Runza Buznego%NULL%1,     Eva%Talavera García%NULL%3,     Eva%Talavera García%NULL%0,     Eva%Talavera García%NULL%0,     Marta%Lamata Subero%NULL%1,     Ainhoa%Urrutia Losada%NULL%3,     Ainhoa%Urrutia Losada%NULL%0,     Ainhoa%Urrutia Losada%NULL%0,     Lorea%Arteche Eguizabal%NULL%1,     Elisabet%Delgado Sánchez%NULL%3,     Elisabet%Delgado Sánchez%NULL%0,     Elisabet%Delgado Sánchez%NULL%0,     Virginia%Molina Peinado%NULL%1,     Sarah%Caro Bragado%NULL%3,     Sarah%Caro Bragado%NULL%0,     Sarah%Caro Bragado%NULL%0,     Gema%Domínguez de Pablos%NULL%1,     Carolina%Roldán Fontana%NULL%3,     Carolina%Roldán Fontana%NULL%0,     Carolina%Roldán Fontana%NULL%0,     Carmen%Herrero Rodríguez%NULL%1,     Luis%Force Sanmartín%NULL%3,     Luis%Force Sanmartín%NULL%0,     Luis%Force Sanmartín%NULL%0,     Raquel%Aranega%NULL%1,     Arantzazu%Mera Fidalgo%NULL%3,     Arantzazu%Mera Fidalgo%NULL%0,     Arantzazu%Mera Fidalgo%NULL%0,     María Roca%Toda Savall%NULL%1,     Nicolas%Merchante Gutiérrez%NULL%3,     Nicolas%Merchante Gutiérrez%NULL%0,     Nicolas%Merchante Gutiérrez%NULL%0,     Eva María%León Jiménez%NULL%1,     José Luís%Del Pozo%NULL%3,     José Luís%Del Pozo%NULL%0,     José Luís%Del Pozo%NULL%0,     Josefa%Serralta Buades%NULL%3,     Josefa%Serralta Buades%NULL%0,     Josefa%Serralta Buades%NULL%0,     Ginger Giorgiana%Cabrera Tejada%NULL%1,     Mario%Fernández-Ruiz%NULL%4,     Mario%Fernández-Ruiz%NULL%0,     Mario%Fernández-Ruiz%NULL%0,     José María%Aguado%NULL%1,     Guillermo%Maestro de la Calle%NULL%1,     José Miguel%Cisneros%NULL%0,     José Miguel%Cisneros%NULL%0,     José Miguel%Cisneros%NULL%0,     Jerónimo%Pachón%NULL%0,     Manuela%Aguilar-Guisado%NULL%1,     Teresa%Aldabó%NULL%1,     María Dolores%Avilés%NULL%0,     Claudio%Bueno%NULL%1,     Elisa%Cordero-Matía%NULL%1,     Ana%Escoresca%NULL%1,     Lydia%Gálvez-Benítez%NULL%1,     Carmen%Infante%NULL%1,     Guillermo%Martín%NULL%1,     Julia%Praena%NULL%1,     Cristina%Roca%NULL%1,     Celia%Salamanca%NULL%1,     Alejandro%Suárez-Benjumea%NULL%1,     Pilar%Vizcarra%NULL%3,     Pilar%Vizcarra%NULL%0,     Pilar%Vizcarra%NULL%0,     Carmen%Quereda%NULL%1,     Mario José%Rodriguez Dominguez%NULL%1,     Francesca%Gioia%NULL%1,     Francesca%Norman%NULL%1,     Santos%Del Campo%NULL%1,     Rafael%Cantón Moreno%NULL%1,     Antonio%Oteo Revuelta José%NULL%3,     Antonio%Oteo Revuelta José%NULL%0,     Antonio%Oteo Revuelta José%NULL%0,     Paula%Santibáñez Sáenz%NULL%1,     Cristina%Cervera Acedo%NULL%1,     Carlos%Ruiz Martínez%NULL%1,     José R.%Blanco Ramos%NULL%1,     José M.%Azcona Gutiérrez%NULL%1,     Concepción%García García%NULL%1,     Jorge%Alba Fernández%NULL%1,     Valvanera%Ibarra Cucalón%NULL%1,     Mercedes%San Franco%NULL%1,     Luis%Metola Sacristán%NULL%1,     Héctor%Meijide Míguez%NULL%3,     Héctor%Meijide Míguez%NULL%0,     Héctor%Meijide Míguez%NULL%0,     Silvia%Paulos Viñas%NULL%1,     Justo%Menéndez%NULL%3,     Justo%Menéndez%NULL%0,     Justo%Menéndez%NULL%0,     Paula%Villares Fernández%NULL%1,     Lara%Montes Andújar%NULL%1,     Álvaro%Navarro Batet%NULL%3,     Álvaro%Navarro Batet%NULL%0,     Álvaro%Navarro Batet%NULL%0,     Anna%Ferrer Santolaria%NULL%1,     María de la Luz%Padilla Salazar%NULL%3,     María de la Luz%Padilla Salazar%NULL%0,     María de la Luz%Padilla Salazar%NULL%0,     Lucy%Abella Vázquez%NULL%1,     Marcelino%Hayek Peraza%NULL%1,     Antonio%García Pardo%NULL%1,     Carolina%Hernández Carballo%NULL%1,     Andrés Javier%Ruiz Fernández%NULL%3,     Andrés Javier%Ruiz Fernández%NULL%0,     Andrés Javier%Ruiz Fernández%NULL%0,     Isabel%Barrio López%NULL%1,     Alí%Martakoush%NULL%3,     Alí%Martakoush%NULL%0,     Alí%Martakoush%NULL%0,     Agustín%Rojas-Vieyra%NULL%3,     Agustín%Rojas-Vieyra%NULL%0,     Agustín%Rojas-Vieyra%NULL%0,     Sonia%García Calvo%NULL%3,     Sonia%García Calvo%NULL%0,     Sonia%García Calvo%NULL%0,     Mercedes%Villarreal García-Lomas%NULL%1,     Marta%Vizcaíno Callejón%NULL%3,     Marta%Vizcaíno Callejón%NULL%0,     Marta%Vizcaíno Callejón%NULL%0,     María Pilar%García García%NULL%1,     Ana%Lérida Urteaga%NULL%3,     Ana%Lérida Urteaga%NULL%0,     Ana%Lérida Urteaga%NULL%0,     Natalia%Carrasco Fons%NULL%1,     Beatriz%María Sanjuan%NULL%1,     Lydia%Martín González%NULL%1,     Camilo%Sanz Zamudio%NULL%1,     Inmaculada%Jarrín%NULL%0,     Inmaculada%Jarrín%NULL%0,     Inmaculada%Jarrín%NULL%0,     Belén%Alejos%NULL%1,     Cristina%Moreno%NULL%1,     Marta%Rava%NULL%1,     Carlos%Iniesta%NULL%1,     Rebeca%Izquierdo%NULL%1,     Inés%Suárez-García%NULL%1,     Asunción%Díaz%NULL%1,     Marta%Ruiz-Alguero%NULL%1,     Victoria%Hernando%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,     Denise J%McCulloch%NULL%0,     Denise J%McCulloch%NULL%0,     Vidya%Atluri%NULL%0,     Michela%Blain%NULL%0,     Sarah A%McGuffin%NULL%0,     Arun K%Nalla%NULL%0,     Meei-Li%Huang%NULL%0,     Alex L%Greninger%NULL%0,     Keith R%Jerome%NULL%0,     Seth A%Cohen%NULL%0,     Santiago%Neme%NULL%0,     Margaret L%Green%NULL%0,     Helen Y%Chu%NULL%0,     H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,     Wenlin%Cheng%NULL%0,     Lei%Yu%NULL%0,     Ya-Kun%Liu%NULL%0,     Xiaoyong%Hu%NULL%0,     Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,     Alberto%Zucchelli%NULL%1,     Marinella%Turla%NULL%1,     Maria Sofia%Cotelli%NULL%1,     Sara%Fascendini%NULL%1,     Mara%Zanni%NULL%1,     Angelo%Bianchetti%NULL%1,     Matteo Peli%Psy%NULL%1,     Renzo%Rozzini%NULL%1,     Stefano%Boffelli%NULL%1,     Melania%Cappuccio%NULL%1,     Federica Gottardi%Psy%NULL%1,     Chiara Vecchi%Psy%NULL%1,     Daniele%Bellandi%NULL%1,     Claudia%Caminati%NULL%1,     Simona%Gentile%NULL%1,     Elena Lucchi%Psy%NULL%1,     Ignazio%Di Fazio%NULL%1,     Marina Zanetti%Psy%NULL%1,     Giuliana%Vezzadini%NULL%1,     Chiara Forlani%Psy%NULL%1,     Maura Cosseddu%Psy%NULL%1,     Rosanna Turrone%Psy%NULL%1,     Silvia Pelizzari%Psy%NULL%1,     Andrea%Scalvini%NULL%1,     Marco%Di Cesare%NULL%1,     Marta Grigolo%Psy%NULL%1,     Lina%Falanga%NULL%1,     Nives%Medici%NULL%1,     Nives%Palamini%NULL%1,     Elisa Zanacchi%Psy%NULL%1,     Eleonora Grossi%Psy%NULL%1,     Giuseppe%Bellelli%NULL%1,     Alessandra%Marengoni%NULL%1,     Marco%Trabucchi%NULL%1,     Alessandro%Padovani%alessandro.padovani@unibs.it%1,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0,     Nancy%Chow%NULL%2,     Katherine%Fleming-Dutra%NULL%1,     Ryan%Gierke%NULL%2,     Aron%Hall%NULL%2,     Michelle%Hughes%NULL%1,     Tamara%Pilishvili%NULL%2,     Matthew%Ritchey%NULL%2,     Katherine%Roguski%NULL%1,     Tami%Skoff%NULL%1,     Emily%Ussery%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,     Zhencang%Zheng%NULL%1,     Chao%Zhang%NULL%1,     Xijiang%Zhang%NULL%1,     Huijuan%Wu%NULL%1,     Jingdong%Wang%NULL%1,     Shuwei%Wang%NULL%1,     Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,     Wei%Liu%NULL%0,     Kui%Liu%NULL%0,     Yuan-Yuan%Fang%NULL%0,     Jin%Shang%NULL%0,     Ling%Zhou%NULL%0,     Ke%Wang%NULL%0,     Fan%Leng%NULL%0,     Shuang%Wei%NULL%0,     Lei%Chen%NULL%0,     Hui-Guo%Liu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nathalie%Nicolay%NULL%1,     Francesco%Innocenti%NULL%1,     Julien%Beauté%NULL%1,     Veronika%Učakar%NULL%1,     Marta%Grgič Vitek%NULL%1,     Eero%Poukka%NULL%1,     Tuula%Hannila-Handelberg%NULL%1,     Charmaine%Gauci%NULL%1,     Tanya%Melillo%NULL%1,     Theano%Georgakopoulou%NULL%1,     Jiri%Jarkovsky%NULL%1,     Pavel%Slezak%NULL%1,     Concepción%Delgado-Sanz%NULL%1,     Carmen%Olmedo-Lucerón%NULL%1,     Heleene%Suija%NULL%1,     Rasa%Liausediene%NULL%1,     Piaras%O’Lorcain%NULL%1,     Niamh%Murphy%NULL%1,     André%Peralta-Santos%NULL%1,     Pedro%Casaca%NULL%1,     Ioanna%Gregoriou%NULL%1,     Nick%Bundle%NULL%1,     Gianfranco%Spiteri%NULL%1,     Giovanni%Ravasi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Feng%NULL%2,     Peiyun%Li%NULL%1,     Liang%Ma%NULL%1,     Hang%Liang%NULL%1,     Jie%Lei%NULL%1,     Wenqiang%Li%NULL%1,     Kun%Wang%NULL%1,     Yu%Song%NULL%1,     Shuai%Li%NULL%1,     Wei%Yang%NULL%0,     Cao%Yang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yun%Feng%NULL%0,     Yun%Ling%NULL%0,     Yun%Ling%NULL%0,     Tao%Bai%NULL%2,     Tao%Bai%NULL%0,     Yusang%Xie%NULL%1,     Jie%Huang%NULL%2,     Jie%Huang%NULL%0,     Jian%Li%NULL%1,     Weining%Xiong%NULL%1,     Dexiang%Yang%NULL%1,     Rong%Chen%NULL%1,     Fangying%Lu%NULL%1,     Yunfei%Lu%NULL%1,     Xuhui%Liu%NULL%1,     Yuqing%Chen%NULL%2,     Yuqing%Chen%NULL%0,     Xin%Li%NULL%1,     Yong%Li%NULL%0,     Hanssa Dwarka%Summah%NULL%1,     Huihuang%Lin%NULL%1,     Jiayang%Yan%NULL%1,     Min%Zhou%NULL%0,     Hongzhou%Lu%NULL%0,     Hongzhou%Lu%NULL%0,     Jieming%Qu%NULL%0,     Jieming%Qu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Paolo%Giorgi Rossi%NULL%0,     Massimiliano%Marino%NULL%0,     Debora%Formisano%NULL%0,     Francesco%Venturelli%NULL%0,     Massimo%Vicentini%NULL%0,     Massimo%Vicentini%NULL%0,     Roberto%Grilli%NULL%0,     NULL%NULL%NULL%0,     Gianluigi%Forloni%NULL%8,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0,     Gianluigi%Forloni%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,     Justin J.%Choi%NULL%0,     Laura C.%Pinheiro%NULL%0,     Edward J.%Schenck%NULL%0,     Ruijun%Chen%NULL%0,     Assem%Jabri%NULL%0,     Michael J.%Satlin%NULL%0,     Thomas R.%Campion%NULL%0,     Musarrat%Nahid%NULL%0,     Joanna B.%Ringel%NULL%0,     Katherine L.%Hoffman%NULL%0,     Mark N.%Alshak%NULL%0,     Han A.%Li%NULL%0,     Graham T.%Wehmeyer%NULL%0,     Graham T.%Wehmeyer%NULL%0,     Mangala%Rajan%NULL%0,     Evgeniya%Reshetnyak%NULL%0,     Nathaniel%Hupert%NULL%0,     Evelyn M.%Horn%NULL%0,     Fernando J.%Martinez%NULL%0,     Roy M.%Gulick%NULL%0,     Monika M.%Safford%NULL%0,     Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jonathan%Grein%NULL%1,     Norio%Ohmagari%NULL%1,     Daniel%Shin%NULL%1,     George%Diaz%NULL%1,     Erika%Asperges%NULL%1,     Antonella%Castagna%NULL%0,     Torsten%Feldt%NULL%1,     Gary%Green%NULL%1,     Margaret L.%Green%NULL%1,     François-Xavier%Lescure%NULL%2,     Emanuele%Nicastri%NULL%1,     Rentaro%Oda%NULL%2,     Rentaro%Oda%NULL%0,     Kikuo%Yo%NULL%2,     Kikuo%Yo%NULL%0,     Eugenia%Quiros-Roldan%NULL%1,     Alex%Studemeister%NULL%1,     John%Redinski%NULL%1,     Seema%Ahmed%NULL%1,     Jorge%Bernett%NULL%1,     Daniel%Chelliah%NULL%1,     Danny%Chen%NULL%1,     Shingo%Chihara%NULL%1,     Stuart H.%Cohen%NULL%1,     Jennifer%Cunningham%NULL%1,     Antonella%D’Arminio Monforte%NULL%1,     Saad%Ismail%NULL%1,     Hideaki%Kato%NULL%1,     Giuseppe%Lapadula%NULL%1,     Erwan%L’Her%NULL%1,     Toshitaka%Maeno%NULL%1,     Sumit%Majumder%NULL%1,     Marco%Massari%NULL%0,     Marta%Mora-Rillo%NULL%1,     Yoshikazu%Mutoh%NULL%1,     Duc%Nguyen%NULL%1,     Ewa%Verweij%NULL%1,     Alexander%Zoufaly%NULL%1,     Anu O.%Osinusi%NULL%1,     Adam%DeZure%NULL%1,     Yang%Zhao%NULL%1,     Lijie%Zhong%NULL%1,     Anand%Chokkalingam%NULL%1,     Emon%Elboudwarej%NULL%1,     Laura%Telep%NULL%1,     Leighann%Timbs%NULL%1,     Ilana%Henne%NULL%1,     Scott%Sellers%NULL%1,     Huyen%Cao%NULL%1,     Susanna K.%Tan%NULL%1,     Lucinda%Winterbourne%NULL%1,     Polly%Desai%NULL%1,     Robertino%Mera%NULL%1,     Anuj%Gaggar%NULL%1,     Robert P.%Myers%NULL%1,     Diana M.%Brainard%NULL%1,     Richard%Childs%NULL%1,     Timothy%Flanigan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,     Zheng-yi%Ni%NULL%0,     Zheng-yi%Ni%NULL%0,     Yu%Hu%NULL%0,     Wen-hua%Liang%NULL%0,     Chun-quan%Ou%NULL%0,     Jian-xing%He%NULL%0,     Lei%Liu%NULL%0,     Hong%Shan%NULL%0,     Chun-liang%Lei%NULL%0,     David S.C.%Hui%NULL%0,     Bin%Du%NULL%0,     Lan-juan%Li%NULL%0,     Guang%Zeng%NULL%0,     Kwok-Yung%Yuen%NULL%0,     Ru-chong%Chen%NULL%0,     Chun-li%Tang%NULL%0,     Tao%Wang%NULL%0,     Ping-yan%Chen%NULL%0,     Jie%Xiang%NULL%0,     Shi-yue%Li%NULL%0,     Jin-lin%Wang%NULL%0,     Zi-jing%Liang%NULL%0,     Yi-xiang%Peng%NULL%0,     Li%Wei%NULL%0,     Yong%Liu%NULL%0,     Ya-hua%Hu%NULL%0,     Peng%Peng%NULL%0,     Jian-ming%Wang%NULL%0,     Ji-yang%Liu%NULL%0,     Zhong%Chen%NULL%0,     Gang%Li%NULL%0,     Zhi-jian%Zheng%NULL%0,     Shao-qin%Qiu%NULL%0,     Jie%Luo%NULL%0,     Chang-jiang%Ye%NULL%0,     Shao-yong%Zhu%NULL%0,     Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Admon%Andrew J.%coreGivesNoEmail%1,    Arunthamakun%Justin%coreGivesNoEmail%1,    Athavale%Ambarish M.%coreGivesNoEmail%1,    Bansal%Anip%coreGivesNoEmail%1,    Brenner%Samantha K.%coreGivesNoEmail%1,    Chan%Lili%coreGivesNoEmail%1,    Donnelly%John P.%coreGivesNoEmail%1,    Friedman%Allon N.%coreGivesNoEmail%1,    Gershengorn%Hayley B.%coreGivesNoEmail%1,    Goyal%Nitender%coreGivesNoEmail%1,    Green%Adam%coreGivesNoEmail%1,    Gupta%Shruti%coreGivesNoEmail%1,    Hayek%Salim S.%coreGivesNoEmail%1,    Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,    Kibbelaar%Zoe A.%coreGivesNoEmail%1,    Leaf%David E.%coreGivesNoEmail%1,    Leonberg-Yoo%Amanda%coreGivesNoEmail%1,    Mathews%Kusum S.%coreGivesNoEmail%1,    Melamed%Michal L.%coreGivesNoEmail%1,    Omar%Samah Abu%coreGivesNoEmail%1,    Parikh%Chirag R.%coreGivesNoEmail%1,    Radbel%Jared%coreGivesNoEmail%1,    Reiser%Jochen%coreGivesNoEmail%1,    Schenck%Edward J.%coreGivesNoEmail%1,    Semler%Matthew W.%coreGivesNoEmail%1,    Shaefi%Shahzad%coreGivesNoEmail%1,    Shehata%Alexandre M.%coreGivesNoEmail%1,    Short%Samuel A. P.%coreGivesNoEmail%1,    Srivastava%Anand%coreGivesNoEmail%1,    Sutherland%Anne%coreGivesNoEmail%1,    Velez%Juan Carlos Q.%coreGivesNoEmail%1,    Vijayan%Anitha%coreGivesNoEmail%1,    Wang%Wei%coreGivesNoEmail%1,    Zhou%Yan%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
     <t>CORE</t>
-  </si>
-  <si>
-    <t>[Rahmet%GÜNER%NULL%1,     İmran%HASANOĞLU%NULL%2,     İmran%HASANOĞLU%NULL%0,     Bircan%KAYAASLAN%NULL%2,     Bircan%KAYAASLAN%NULL%0,     Adalet%AYPAK%NULL%2,     Adalet%AYPAK%NULL%0,     Ayşe%KAYA KALEM%NULL%2,     Ayşe%KAYA KALEM%NULL%0,     Fatma%ESER%NULL%2,     Fatma%ESER%NULL%0,     Burcu%ÖZDEMİR%NULL%2,     Burcu%ÖZDEMİR%NULL%0,     Elif Mükime%SARICAOĞLU%NULL%2,     Elif Mükime%SARICAOĞLU%NULL%0,     Müge%AYHAN%NULL%2,     Müge%AYHAN%NULL%0,     Yeşim%AYBAR BİLİR%NULL%2,     Yeşim%AYBAR BİLİR%NULL%0,     Işıl%ÖZKOÇAK TURAN%NULL%2,     Işıl%ÖZKOÇAK TURAN%NULL%0,     Deniz%ERDEM%NULL%2,     Deniz%ERDEM%NULL%0,     Nevzat Mehmet%MUTLU%NULL%1,     Turan%BUZGAN%NULL%2,     Turan%BUZGAN%NULL%0,     Bedia%DİNÇ%NULL%2,     Bedia%DİNÇ%NULL%0,     Esragül%AKINCI%NULL%2,     Esragül%AKINCI%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Stephanie L.%Harrison%NULL%1,     Elnara%Fazio-Eynullayeva%NULL%2,     Elnara%Fazio-Eynullayeva%NULL%0,     Deirdre A.%Lane%NULL%2,     Deirdre A.%Lane%NULL%0,     Paula%Underhill%NULL%2,     Paula%Underhill%NULL%0,     Gregory Y. H.%Lip%NULL%1,     Mirjam E. E.%Kretzschmar%NULL%3,     Mirjam E. E.%Kretzschmar%NULL%0,     Mirjam E. E.%Kretzschmar%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yuanzhou%He%NULL%1,     Min%Xie%NULL%3,     Jianping%Zhao%NULL%0,     Xiansheng%Liu%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Ling%Hu%NULL%0,     Shaoqiu%Chen%NULL%0,     Yuanyuan%Fu%NULL%0,     Zitong%Gao%NULL%0,     Hui%Long%NULL%0,     Jian-ming%Wang%NULL%0,     Hong-wei%Ren%NULL%0,     Yi%Zuo%NULL%0,     Huan%Li%NULL%0,     Jie%Wang%NULL%0,     Qing-bang%Xu%NULL%0,     Wen-xiong%Yu%NULL%0,     Jia%Liu%NULL%0,     Chen%Shao%NULL%0,     Jun-jie%Hao%NULL%0,     Chuan-zhen%Wang%NULL%0,     Yao%Ma%NULL%0,     Zhanwei%Wang%NULL%0,     Richard%Yanagihara%NULL%0,     Youping%Deng%dengy@hawaii.edu%0]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,     Yeming%Wang%NULL%0,     Xingwang%Li%NULL%0,     Lili%Ren%NULL%0,     Jianping%Zhao%NULL%0,     Yi%Hu%NULL%0,     Li%Zhang%NULL%0,     Guohui%Fan%NULL%0,     Jiuyang%Xu%NULL%0,     Xiaoying%Gu%NULL%0,     Zhenshun%Cheng%NULL%0,     Ting%Yu%NULL%0,     Jiaan%Xia%NULL%0,     Yuan%Wei%NULL%0,     Wenjuan%Wu%NULL%0,     Xuelei%Xie%NULL%0,     Wen%Yin%NULL%0,     Hui%Li%NULL%0,     Min%Liu%NULL%0,     Yan%Xiao%NULL%0,     Hong%Gao%NULL%0,     Li%Guo%NULL%0,     Jungang%Xie%NULL%0,     Guangfa%Wang%NULL%0,     Rongmeng%Jiang%NULL%0,     Zhancheng%Gao%NULL%0,     Qi%Jin%NULL%0,     Jianwei%Wang%wangjw28@163.com%0,     Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,    Bayani%Masomeh%coreGivesNoEmail%1,    Bijani%Ali%coreGivesNoEmail%1,    Ebrahimpour%Soheil%coreGivesNoEmail%1,    Gholinejad%Hossein Emam%coreGivesNoEmail%1,    Ghorbani%Hossein%coreGivesNoEmail%1,    Hasanpour%Amir Hossein%coreGivesNoEmail%1,    Javanian%Mostafa%coreGivesNoEmail%1,    Masrour-Roudsari%Jila%coreGivesNoEmail%1,    Mehraeen%Rahele%coreGivesNoEmail%1,    Mohseni%Sima%coreGivesNoEmail%1,    Rostami%Ali%coreGivesNoEmail%1,    Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,    Sepidarkish%Mahdi%coreGivesNoEmail%1,    Shabani%Asieh%coreGivesNoEmail%1,    Shahbazi%Mehdi%coreGivesNoEmail%1,    Shokri%Mehran%coreGivesNoEmail%1,    Tabari%Afrooz Monadi%coreGivesNoEmail%1,    Yeganeh%Babak%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Filippo%Lagi%NULL%1,     Matteo%Piccica%NULL%1,     Lucia%Graziani%NULL%1,     Iacopo%Vellere%NULL%1,     Annarita%Botta%NULL%1,     Marta%Tilli%NULL%1,     Letizia%Ottino%NULL%1,     Beatrice%Borchi%NULL%1,     Marco%Pozzi%NULL%1,     Filippo%Bartalesi%NULL%1,     Jessica%Mencarini%NULL%1,     Michele%Spinicci%NULL%1,     Lorenzo%Zammarchi%NULL%1,     Filippo%Pieralli%NULL%1,     Giovanni%Zagli%NULL%1,     Carlo%Nozzoli%NULL%1,     Stefano%Romagnoli%NULL%1,     Alessandro%Bartoloni%NULL%1,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,     Zhao-Wu%Tao%NULL%0,     Lei%Wang%NULL%0,     Ming-Li%Yuan%NULL%0,     Kui%Liu%NULL%0,     Ling%Zhou%NULL%0,     Shuang%Wei%NULL%0,     Yan%Deng%NULL%0,     Jing%Liu%NULL%0,     Hui-Guo%Liu%NULL%0,     Ming%Yang%NULL%0,     Yi%Hu%NULL%0,     Pei-Fang%Wei%NULL%0,     Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaochen%Li%NULL%0,     Shuyun%Xu%NULL%2,     Muqing%Yu%NULL%2,     Ke%Wang%NULL%0,     Yu%Tao%NULL%0,     Ying%Zhou%NULL%0,     Jing%Shi%NULL%2,     Min%Zhou%NULL%0,     Bo%Wu%NULL%2,     Zhenyu%Yang%NULL%2,     Cong%Zhang%NULL%0,     Junqing%Yue%NULL%2,     Zhiguo%Zhang%NULL%2,     Harald%Renz%NULL%2,     Xiansheng%Liu%NULL%0,     Jungang%Xie%NULL%0,     Min%Xie%NULL%0,     Jianping%Zhao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yang-kai%Li%doclyk@163.com%1,     Shu%Peng%NULL%1,     Le-qun%Li%NULL%1,     Qi%Wang%NULL%1,     Wei%Ping%NULL%1,     Ni%Zhang%NULL%1,     Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,     Yuanyuan%Xing%NULL%0,     Yu%Xiao%NULL%0,     Liping%Deng%NULL%0,     Qiu%Zhao%NULL%0,     Hongling%Wang%NULL%0,     Yong%Xiong%NULL%0,     Zhenshun%Cheng%NULL%0,     Shicheng%Gao%NULL%0,     Ke%Liang%NULL%0,     Mingqi%Luo%NULL%0,     Tielong%Chen%NULL%0,     Shihui%Song%NULL%0,     Zhiyong%Ma%NULL%0,     Xiaoping%Chen%NULL%0,     Ruiying%Zheng%NULL%0,     Qian%Cao%NULL%0,     Fan%Wang%fanndywang@foxmail.com%0,     Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,     Nicolas%Lopez-Villalobos%NULL%1,     Francisco E.%Parra-Bracamonte%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ishan%Paranjpe%NULL%2,     Adam J%Russak%NULL%0,     Adam J%Russak%NULL%0,     Jessica K%De Freitas%NULL%0,     Anuradha%Lala%NULL%0,     Riccardo%Miotto%NULL%0,     Akhil%Vaid%NULL%0,     Kipp W%Johnson%NULL%0,     Matteo%Danieletto%NULL%0,     Eddye%Golden%NULL%0,     Dara%Meyer%NULL%0,     Manbir%Singh%NULL%0,     Sulaiman%Somani%NULL%0,     Arjun%Kapoor%NULL%1,     Ross%O'Hagan%NULL%1,     Sayan%Manna%NULL%1,     Udit%Nangia%NULL%1,     Suraj K%Jaladanki%NULL%1,     Paul%O’Reilly%NULL%2,     Paul%O’Reilly%NULL%0,     Laura M%Huckins%NULL%1,     Patricia%Glowe%NULL%1,     Arash%Kia%NULL%0,     Prem%Timsina%NULL%0,     Robert M%Freeman%NULL%1,     Matthew A%Levin%NULL%0,     Jeffrey%Jhang%NULL%0,     Adolfo%Firpo%NULL%1,     Patricia%Kovatch%NULL%0,     Joseph%Finkelstein%NULL%0,     Judith A%Aberg%NULL%0,     Emilia%Bagiella%NULL%0,     Carol R%Horowitz%NULL%0,     Barbara%Murphy%NULL%0,     Zahi A%Fayad%NULL%0,     Jagat%Narula%NULL%0,     Eric J%Nestler%NULL%0,     V%Fuster%NULL%1,     Carlos%Cordon-Cardo%NULL%0,     Dennis%Charney%NULL%1,     David L%Reich%NULL%0,     Allan%Just%NULL%1,     Erwin P%Bottinger%NULL%0,     Alexander W%Charney%NULL%0,     Benjamin S%Glicksberg%NULL%0,     Girish N%Nadkarni%NULL%0,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ D.%Qi%null%1,      X.% Yan%null%1,      X.% Tang%null%1,      J.% Peng%null%1,      Q.% Yu%null%1,      L.% Feng%null%1,      G.% Yuan%null%1,      A.% Zhang%null%1,      Y.% Chen%null%2,      J.% Yuan%null%1,      X.% Huang%null%1,      X.% Zhang%null%1,      P.% Hu%null%1,      Y.% Song%null%1,      C.% Qian%null%1,      Q.% Sun%null%1,      D.% Wang%null%1,      J.% Tong%null%1,      J. % Xiang%null%1]</t>
-  </si>
-  <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,     Kevin Bryan%Lo%NULL%0,     Kevin Bryan%Lo%NULL%0,     Fahad%Gul%NULL%0,     Eric%Peterson%NULL%0,     Robert%De Joy%NULL%0,     Ruchika%Bhargav%NULL%0,     Jerald%Pelayo%NULL%0,     Jeri%Albano%NULL%0,     Zurab%Azmaiparashvili%NULL%0,     Sadia%Benzaquen%NULL%0,     Gabriel%Patarroyo‐Aponte%NULL%0,     Janani%Rangaswami%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,     Mu%Qin%qinmuae@163.com%0,     Yuli%Cai%NULL%0,     Tao%Liu%NULL%0,     Bo%Shen%NULL%0,     Fan%Yang%NULL%0,     Sheng%Cao%NULL%0,     Xu%Liu%NULL%0,     Xu%Liu%NULL%0,     Yaozu%Xiang%NULL%0,     Qinyan%Zhao%NULL%0,     He%Huang%huanghe1977@whu.edu.cn%0,     Bo%Yang%yybb112@whu.edu.cn%0,     Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jennifer%Tomlins%NULL%1,     Fergus%Hamilton%NULL%1,     Samuel%Gunning%NULL%1,     Caitlin%Sheehy%NULL%1,     Ed%Moran%NULL%1,     Alastair%MacGowan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,     Yi%Xiang%NULL%0,     Wei%Fang%NULL%0,     Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,     Boqun%Li%279685211@qq.com%0,     Boqun%Li%279685211@qq.com%0,     Yanjun%Hu%huyanjun@163.com%0,     Chunhui%Lang%NULL%0,     Daoqiu%Huang%NULL%0,     Qiuyan%Sun%NULL%0,     Yan%Xiong%NULL%0,     Xia%Huang%NULL%0,     Jinglong%Lv%NULL%0,     Yaling%Luo%NULL%0,     Li%Shen%NULL%0,     Haoran%Yang%NULL%0,     Gu%Huang%NULL%0,     Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,    Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,    Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,    Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%5,     Wenbo%He%NULL%3,     Xiaomei%Yu%NULL%3,     Dalong%Hu%NULL%3,     Mingwei%Bao%NULL%3,     Huafen%Liu%NULL%3,     Jiali%Zhou%NULL%3,     Hong%Jiang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,     Bohan%Yang%NULL%0,     Qianwen%Li%NULL%0,     Lu%Wen%NULL%0,     Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Wu%J%coreGivesNoEmail%1,    Xu%Y%coreGivesNoEmail%1,    Zhanwei%Du%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,     Fen%Li%NULL%0,     Xiao%Wang%NULL%0,     Jie%Yan%NULL%0,     Fen%Zhu%NULL%0,     Shifan%Tang%NULL%0,     Yingzhong%Deng%NULL%0,     Hua%Wang%NULL%0,     Rui%Chen%NULL%0,     Zhili%Yu%NULL%0,     Yaping%Li%NULL%0,     Jingzhou%Shang%NULL%0,     Lingjun%Zeng%NULL%0,     Jie%Zhao%NULL%0,     Chaokun%Guan%NULL%0,     Qiaomei%Liu%NULL%0,     Haifeng%Chen%NULL%0,     Wei%Gong%NULL%0,     Xin%Huang%NULL%0,     Yu‐Jiao%Zhang%NULL%0,     Jianguang%Liu%NULL%0,     Xiaoyan%Dong%NULL%0,     Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,     Shaoping%Nie%spnie@126.com%0,     Dongsheng%Li%dongshengli196809@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Ping%Yang%NULL%1,     Pengfei%Wang%NULL%2,     Pengfei%Wang%NULL%0,     Yuyan%Song%NULL%1,     An%Zhang%zhangan@hospital.cqmu.edu.cn%1,     Guodan%Yuan%71502294@qq.com%1,     Yong%Cui%754605155@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,     Yuan%Yu%NULL%0,     Jiqian%Xu%NULL%0,     Huaqing%Shu%NULL%0,     Jia'an%Xia%NULL%0,     Hong%Liu%NULL%0,     Yongran%Wu%NULL%0,     Lu%Zhang%NULL%0,     Zhui%Yu%NULL%0,     Minghao%Fang%NULL%0,     Ting%Yu%NULL%0,     Yaxin%Wang%NULL%0,     Shangwen%Pan%NULL%0,     Xiaojing%Zou%NULL%0,     Shiying%Yuan%NULL%0,     You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,    Cao%Yi-yuan%coreGivesNoEmail%0,    Dong%Xiang%coreGivesNoEmail%0,    Gao%Ya-dong%coreGivesNoEmail%0,    Yan%You-qin%coreGivesNoEmail%0,    Yang%Yi-bin%coreGivesNoEmail%0,    Yuan%Ya-dong%coreGivesNoEmail%0,    Zhang%Jin-jin%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%3,     Chang%Hu%NULL%3,     Linjie%Luo%NULL%2,     Fang%Fang%NULL%4,     Yongfeng%Chen%NULL%2,     Jianguo%Li%NULL%2,     Zhiyong%Peng%NULL%0,     Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Jun%Zhang%NULL%1,     Miao%Yu%NULL%0,     Song%Tong%NULL%1,     Lu-Yu%Liu%NULL%1,     Liang-V.%Tang%lancet.tang@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,     Huangqing%Ouyang%NULL%1,     Lingli%Fu%NULL%1,     Shijie%Wang%NULL%1,     Jianglong%Han%NULL%1,     Kejie%Huang%NULL%1,     Mingfang%Jia%NULL%1,     Qibin%Song%NULL%1,     Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Zirun%Zhao%NULL%0,     Anne%Chen%NULL%0,     Wei%Hou%NULL%0,     James M.%Graham%NULL%0,     Haifang%Li%NULL%0,     Paul S.%Richman%NULL%0,     Henry C.%Thode%NULL%0,     Adam J.%Singer%NULL%0,     Tim Q.%Duong%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0,     Muhammad%Adrish%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%2,      Sarah%Al-Youha%sarahalyouha@gmail.com%1,      Mohammad H.%Jamal%NULL%1,      Mohannad%Al-Haddad%NULL%1,      Ali%Al-Muhaini%NULL%1,      Fahad%Al-Ghimlas%NULL%1,      Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,      Samuel L%Bruce%NULL%2,      Cody L%Slater%NULL%2,      Jonathan R%Tiao%NULL%2,      Matthew R%Baldwin%NULL%3,      R Graham%Barr%NULL%2,      Bernard P%Chang%NULL%2,      Katherine H%Chau%NULL%2,      Justin J%Choi%NULL%2,      Nicholas%Gavin%NULL%2,      Parag%Goyal%NULL%2,      Angela M%Mills%NULL%2,      Ashmi A%Patel%NULL%2,      Marie-Laure S%Romney%NULL%2,      Monika M%Safford%NULL%2,      Neil W%Schluger%NULL%2,      Soumitra%Sengupta%NULL%2,      Magdalena E%Sobieszczyk%NULL%2,      Jason E%Zucker%NULL%2,      Paul A%Asadourian%NULL%2,      Fletcher M%Bell%NULL%2,      Rebekah%Boyd%NULL%2,      Matthew F%Cohen%NULL%2,      MacAlistair I%Colquhoun%NULL%2,      Lucy A%Colville%NULL%2,      Joseph H%de Jonge%NULL%2,      Lyle B%Dershowitz%NULL%2,      Shirin A%Dey%NULL%2,      Katherine A%Eiseman%NULL%2,      Zachary P%Girvin%NULL%2,      Daniella T%Goni%NULL%2,      Amro A%Harb%NULL%2,      Nicholas%Herzik%NULL%2,      Sarah%Householder%NULL%2,      Lara E%Karaaslan%NULL%2,      Heather%Lee%NULL%2,      Evan%Lieberman%NULL%2,      Andrew%Ling%NULL%2,      Ree%Lu%NULL%2,      Arthur Y%Shou%NULL%2,      Alexander C%Sisti%NULL%2,      Zachary E%Snow%NULL%2,      Colin P%Sperring%NULL%2,      Yuqing%Xiong%NULL%2,      Henry W%Zhou%NULL%2,      Karthik%Natarajan%NULL%2,      George%Hripcsak%NULL%2,      Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,      Mark%Caridi-Scheible%NULL%5,      James M.%Blum%NULL%3,      Chad%Robichaux%NULL%3,      Colleen%Kraft%NULL%3,      Jesse T.%Jacob%NULL%3,      Craig S.%Jabaley%NULL%3,      David%Carpenter%NULL%3,      Roberta%Kaplow%NULL%3,      Alfonso C.%Hernandez-Romieu%NULL%3,      Max W.%Adelman%NULL%3,      Greg S.%Martin%NULL%3,      Craig M.%Coopersmith%NULL%3,      David J.%Murphy%NULL%3,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Juan%Berenguer%NULL%1,      Pablo%Ryan%NULL%0,      Jesús%Rodríguez-Baño%NULL%1,      Inmaculada%Jarrín%NULL%4,      Jordi%Carratalà%NULL%4,      Jerónimo%Pachón%NULL%0,      María%Yllescas%NULL%1,      José Ramón%Arriba%NULL%1,      NULL%NULL%NULL%0,      Esther%Aznar Muñoz%NULL%1,      Pedro%Gil Divasson%NULL%1,      Patricia%González Muñiz%NULL%1,      Clara%Muñoz Aguirre%NULL%1,      Juan Carlos%López%NULL%3,      Juan Carlos%López%NULL%0,      Juan Carlos%López%NULL%0,      Margarita%Ramírez-Schacke%NULL%1,      Isabel%Gutiérrez%NULL%1,      Francisco%Tejerina%NULL%1,      Teresa%Aldámiz-Echevarría%NULL%1,      Cristina%Díez%NULL%1,      Chiara%Fanciulli%NULL%1,      Leire%Pérez-Latorre%NULL%1,      Francisco%Parras%NULL%1,      Pilar%Catalán%NULL%1,      María E.%García-Leoni%NULL%1,      Isabel%Pérez-Tamayo%NULL%1,      Luis%Puente%NULL%1,      Jamil%Cedeño%NULL%1,      Juan%Berenguer%NULL%1,      Marta%Díaz Menéndez%NULL%3,      Marta%Díaz Menéndez%NULL%0,      Marta%Díaz Menéndez%NULL%0,      Fernando%de la Calle Prieto%NULL%1,      Marta%Arsuaga Vicente%NULL%1,      Elena%Trigo Esteban%NULL%1,      Mª del Mar%Lago Núñez%NULL%1,      Rosa%de Miguel Buckley%NULL%1,      Julen%Cadiñaños Loidi%NULL%1,      Carmen%Busca Arenzana%NULL%1,      Alfredo%Mican%NULL%1,      Marta%Mora Rillo%NULL%1,      Juan Carlos%Ramos Ramos%NULL%1,      Belén%Loeches Yagüe%NULL%1,      José Ignacio%Bernardino de la Serna%NULL%1,      Julio%García Rodríguez%NULL%1,      José Ramón%Arribas López%NULL%1,      Ana%Such Diaz%NULL%3,      Ana%Such Diaz%NULL%0,      Ana%Such Diaz%NULL%0,      Elena%Álvaro Alonso%NULL%1,      Elsa%Izquierdo García%NULL%1,      Juan%Torres Macho%NULL%1,      Guillermo%Cuevas Tascon%NULL%1,      Jesús%Troya García%NULL%1,      Beatriz%Mestre Gómez%NULL%1,      Eva%Jiménez González de Buitrago%NULL%1,      Inés%Fernández Jiménez%NULL%1,      Ana Josefa%Tebar Martínez%NULL%1,      Fátima%Brañas Baztán%NULL%1,      Jorge%Valencia de la Rosa%NULL%1,      Mario%Pérez Butragueño%NULL%1,      Marta%Alvarado Blasco%NULL%1,      Pablo%Ryan%NULL%0,      Mª Antonia%Sepúlveda Berrocal%NULL%3,      Mª Antonia%Sepúlveda Berrocal%NULL%0,      Mª Antonia%Sepúlveda Berrocal%NULL%0,      Carmen%Yera Bergua%NULL%1,      Pilar%Toledano Sierra%NULL%1,      Verónica%Cano Llorente%NULL%1,      Sadaf%Zafar Iqubal-Mirza%NULL%1,      Gema%Muñiz%NULL%1,      Inmaculada%Martín Pérez%NULL%1,      Helena%Mozas Moriñigo%NULL%1,      Ana%Alguacil%NULL%1,      María Paz%García Butenegro%NULL%1,      Ana Isabel%Peláez Ballesta%NULL%3,      Ana Isabel%Peláez Ballesta%NULL%0,      Ana Isabel%Peláez Ballesta%NULL%0,      Elena%Morcillo Rodríguez%NULL%1,      Josune%Goikoetxea Agirre%NULL%3,      Josune%Goikoetxea Agirre%NULL%0,      Josune%Goikoetxea Agirre%NULL%0,      María José%Blanco Vidal%NULL%1,      Javier%Nieto Arana%NULL%1,      Mikel%del Álamo Martínez de Lagos%NULL%1,      Isabel A.%Pérez Hernández%NULL%3,      Isabel A.%Pérez Hernández%NULL%0,      Isabel A.%Pérez Hernández%NULL%0,      Inés%Pérez Zapata%NULL%1,      Rafael%Silvariño Fernández%NULL%3,      Rafael%Silvariño Fernández%NULL%0,      Rafael%Silvariño Fernández%NULL%0,      Jon%Ugalde Espiñeira%NULL%1,      Víctor%Asensi Álvarez%NULL%3,      Víctor%Asensi Álvarez%NULL%0,      Víctor%Asensi Álvarez%NULL%0,      Lucia%Suárez Pérez%NULL%1,      Silvia%Suárez Diaz%NULL%1,      Carmen%Yllera Gutiérrez%NULL%1,      Vicente%Boix%NULL%3,      Vicente%Boix%NULL%0,      Vicente%Boix%NULL%0,      Marcos%Díez Martínez%NULL%1,      Melissa%Carreres Candela%NULL%1,      Cristina%Gómez-Ayerbe%NULL%3,      Cristina%Gómez-Ayerbe%NULL%0,      Cristina%Gómez-Ayerbe%NULL%0,      Javier%Sánchez-Lora%NULL%1,      José Luis%Velasco Garrido%NULL%1,      María%López-Jódar%NULL%1,      Jesús%Santos González%NULL%1,      Jesús%Ruiz Aragón%NULL%3,      Jesús%Ruiz Aragón%NULL%0,      Jesús%Ruiz Aragón%NULL%0,      Ianire%Virto Peña%NULL%1,      Vanessa%Alende Castro%NULL%3,      Vanessa%Alende Castro%NULL%0,      Vanessa%Alende Castro%NULL%0,      Ruth%Brea Aparicio%NULL%1,      Sonia%Vega Molpeceres%NULL%3,      Sonia%Vega Molpeceres%NULL%0,      Sonia%Vega Molpeceres%NULL%0,      Estel%Pons Viñas%NULL%1,      Oscar%del Río Pérez%NULL%3,      Oscar%del Río Pérez%NULL%0,      Oscar%del Río Pérez%NULL%0,      Silvia%Valero Rovira%NULL%1,      Judit%Villar-García%NULL%3,      Judit%Villar-García%NULL%0,      Judit%Villar-García%NULL%0,      Joan%Gómez-Junyent%NULL%1,      Hernando%Knobel%NULL%1,      María Cecilia%Cánepa%NULL%1,      Silvia%Castañeda Espinosa%NULL%1,      Luisa%Sorli Redò%NULL%1,      Roberto%Güerri-Fernández%NULL%1,      María%Milagro Montero%NULL%1,      Juan Pablo%Horcajada%NULL%1,      Elisa%García Vázquez%NULL%3,      Elisa%García Vázquez%NULL%0,      Elisa%García Vázquez%NULL%0,      Encarnación%Moral Escudero%NULL%1,      Alicia%Hernández Torres%NULL%1,      Esther%García Almodóvar%NULL%3,      Esther%García Almodóvar%NULL%0,      Esther%García Almodóvar%NULL%0,      Carmen%Sáez Barberá%NULL%3,      Carmen%Sáez Barberá%NULL%0,      Carmen%Sáez Barberá%NULL%0,      Zineb%Karroud%NULL%1,      José%Hernández Quero%NULL%3,      José%Hernández Quero%NULL%0,      José%Hernández Quero%NULL%0,      David%Vinuesa García%NULL%1,      José Luis%García Fogeda%NULL%1,      José Antonio%Peregrina%NULL%1,      María%Novella Mena%NULL%3,      María%Novella Mena%NULL%0,      María%Novella Mena%NULL%0,      Cristina%Hernández Gutiérrez%NULL%1,      José%Sanz Moreno%NULL%1,      Ramón%Pérez Tanoira%NULL%1,      Rodrigo%Sierra Rodríguez%NULL%1,      David%Alonso Menchén%NULL%1,      Aida%Gutiérrez García%NULL%1,      Alberto%Arranz Caso%NULL%1,      Juan%Cuadros González%NULL%1,      Melchor%Álvarez de Mon Soto%NULL%1,      Vicente Ferrer%Díaz de Brito Fernández%NULL%3,      Vicente Ferrer%Díaz de Brito Fernández%NULL%0,      Vicente Ferrer%Díaz de Brito Fernández%NULL%0,      Montserrat%Sanmarti Vilamala%NULL%1,      Aina%Gabarrell Pascuet%NULL%1,      Daniel%Molina Morant%NULL%1,      Sergio%España Cueto%NULL%1,      Jonathan%Cámara Fernández%NULL%1,      Albert%Sabater Gil%NULL%1,      Laura%Muñoz López%NULL%1,      Paula%Sáez Escolano%NULL%3,      Paula%Sáez Escolano%NULL%0,      Paula%Sáez Escolano%NULL%0,      Esperanza%Bejarano Tello%NULL%1,      Marco Antonio%Sempere Alcocer%NULL%3,      Marco Antonio%Sempere Alcocer%NULL%0,      Marco Antonio%Sempere Alcocer%NULL%0,      Salvador%Álvarez Martin%NULL%1,      Ignacio%De los Santos Gil%NULL%3,      Ignacio%De los Santos Gil%NULL%0,      Ignacio%De los Santos Gil%NULL%0,      Lucio%García-Fraile%NULL%1,      Miguel%Sampedro Núñez%NULL%1,      Ana%Barrios Blandino%NULL%1,      Carlos%Rodríguez Franco%NULL%1,      Daniel%Useros Brañas%NULL%1,      Almudena%Villa Martí%NULL%1,      Javier%Oliver Ortega%NULL%1,      Alexia%Costanza Espiño Álvarez%NULL%1,      Jesús%Sanz Sanz%NULL%1,      María%Rexach Fumaña%NULL%3,      María%Rexach Fumaña%NULL%0,      María%Rexach Fumaña%NULL%0,      Ivette%Abascal Cambras%NULL%1,      Ana del Cielo%Pérez Jaén%NULL%1,      Clara%Sala Jofre%NULL%3,      Clara%Sala Jofre%NULL%0,      Clara%Sala Jofre%NULL%0,      Susana%Casas Rodríguez%NULL%1,      Cecilia%Tortajada Alamilla%NULL%3,      Cecilia%Tortajada Alamilla%NULL%0,      Cecilia%Tortajada Alamilla%NULL%0,      Carmina%Oltra%NULL%1,      Mar%Masiá Canuto%NULL%3,      Mar%Masiá Canuto%NULL%0,      Mar%Masiá Canuto%NULL%0,      Félix%Gutiérrez Rodero%NULL%1,      Ana%Ferrer Ribera%NULL%3,      Ana%Ferrer Ribera%NULL%0,      Ana%Ferrer Ribera%NULL%0,      Carlos%Bea Serrano%NULL%1,      Miguel%Pedromingo Kus%NULL%3,      Miguel%Pedromingo Kus%NULL%0,      Miguel%Pedromingo Kus%NULL%0,      María Ángeles%Garcinuño%NULL%1,      Silvana%Fiorante%NULL%1,      Sergio%Pérez Pinto%NULL%1,      Pilar%Hernández Machín%NULL%3,      Pilar%Hernández Machín%NULL%0,      Pilar%Hernández Machín%NULL%0,      Alba%Alastrué Violeta%NULL%1,      María Carmen%Fariñas Álvarez%NULL%3,      María Carmen%Fariñas Álvarez%NULL%0,      María Carmen%Fariñas Álvarez%NULL%0,      Claudia%González Rico%NULL%1,      Francisco%Arnaiz de las Revillas%NULL%1,      Jorge%Calvo%NULL%1,      Mónica%Gozalo%NULL%1,      Francisco%Mora Gómez%NULL%3,      Francisco%Mora Gómez%NULL%0,      Francisco%Mora Gómez%NULL%0,      Ana%Milagro Beamonte%NULL%3,      Ana%Milagro Beamonte%NULL%0,      Ana%Milagro Beamonte%NULL%0,      Miriam%Latorre-Millán%NULL%1,      Antonio%Rezusta López%NULL%1,      Ana%Martínez Sapiña%NULL%1,      Yolanda%Meije%NULL%3,      Yolanda%Meije%NULL%0,      Yolanda%Meije%NULL%0,      Alejandra%Duarte Borges%NULL%1,      Julia%Pareja Coca%NULL%1,      Mercedes%Clemente Presas%NULL%1,      Juan Emilio%Losa García%NULL%3,      Juan Emilio%Losa García%NULL%0,      Juan Emilio%Losa García%NULL%0,      Ana%Vegas Serrano%NULL%1,      M. Teresa%Pérez-Rodríguez%NULL%3,      M. Teresa%Pérez-Rodríguez%NULL%0,      M. Teresa%Pérez-Rodríguez%NULL%0,      Alexandre%Pérez González%NULL%1,      Moncef%Belhassen-García%NULL%3,      Moncef%Belhassen-García%NULL%0,      Moncef%Belhassen-García%NULL%0,      Beatriz%Rodríguez-Alonso%NULL%1,      Amparo%López-Bernus%NULL%1,      Cristina%Carbonell%NULL%1,      Rafael%Torres Perea%NULL%3,      Rafael%Torres Perea%NULL%0,      Rafael%Torres Perea%NULL%0,      Juan%Cantón de Seoane%NULL%1,      Blanca%Alonso%NULL%1,      Sara Lidia%Kamal%NULL%1,      Lucia%Cajuela%NULL%1,      David%Roa%NULL%1,      Miguel%Cervero%NULL%1,      Alberto%Oreja%NULL%1,      Juan Pablo%Avilés%NULL%1,      Lidia%Martín%NULL%1,      Iván%Pelegrín Senent%NULL%3,      Iván%Pelegrín Senent%NULL%0,      Iván%Pelegrín Senent%NULL%0,      Rosana%Rouco Esteves Marques%NULL%1,      Jorge%Parra Ruiz%NULL%3,      Jorge%Parra Ruiz%NULL%0,      Jorge%Parra Ruiz%NULL%0,      Violeta%Ramos Sesma%NULL%1,      Jessica%Abadia Otero%NULL%3,      Jessica%Abadia Otero%NULL%0,      Jessica%Abadia Otero%NULL%0,      Juan%Salillas Hernando%NULL%3,      Juan%Salillas Hernando%NULL%0,      Juan%Salillas Hernando%NULL%0,      Robert%Torres Sánchez del Arco%NULL%1,      Miguel%Torralba González de Suso%NULL%1,      Alberto%Serrano Martínez%NULL%1,      Sergio%Gilaberte Reyzábal%NULL%1,      Marina%Pacheco Martínez-Atienza%NULL%1,      Mónica%Liébana Gómez%NULL%1,      Sara%Fernández Rodríguez%NULL%1,      Álvaro%Varela Plaza%NULL%1,      Henar%Calvo Sánchez%NULL%1,      Patricia%Martínez Martín%NULL%3,      Patricia%Martínez Martín%NULL%0,      Patricia%Martínez Martín%NULL%0,      Patricia%González- Ruano%NULL%1,      Eduardo%Malmierca Corral%NULL%1,      Isabel%Rábago Lorite%NULL%1,      Beatriz%Pérez-Monte Mínguez%NULL%1,      Ángeles%García Flores%NULL%3,      Ángeles%García Flores%NULL%0,      Ángeles%García Flores%NULL%0,      Pere%Comas Casanova%NULL%1,      Merce%Sirisi%NULL%3,      Merce%Sirisi%NULL%0,      Merce%Sirisi%NULL%0,      Richard%Rojas%NULL%1,      José Luis%Díaz de Tuesta del Arco%NULL%3,      José Luis%Díaz de Tuesta del Arco%NULL%0,      José Luis%Díaz de Tuesta del Arco%NULL%0,      Ruth%Figueroa Cerón%NULL%1,      Ander%González Sarria%NULL%1,      Remedios%Alemán Valls%NULL%3,      Remedios%Alemán Valls%NULL%0,      Remedios%Alemán Valls%NULL%0,      María del Mar%Alonso Socas%NULL%1,      Oscar%Sanz Peláez%NULL%3,      Oscar%Sanz Peláez%NULL%0,      Oscar%Sanz Peláez%NULL%0,      Karim%Mohamed Ramírez%NULL%1,      Melchor%Riera Jaume%NULL%3,      Melchor%Riera Jaume%NULL%0,      Melchor%Riera Jaume%NULL%0,      Helem Haydee%Vilchez%NULL%1,      Francesc%Albertí%NULL%1,      Ana Isabel%Cañabate%NULL%1,      Víctor J.%Moreno Cuerda%NULL%3,      Víctor J.%Moreno Cuerda%NULL%0,      Víctor J.%Moreno Cuerda%NULL%0,      Silvia%Álvarez Kaelis%NULL%1,      Beatriz%Álvarez Zapatero%NULL%1,      Alejandro%García García%NULL%1,      Elena%Isaba Ares%NULL%1,      Covadonga%Morcate Fernández%NULL%1,      Andrea%Pérez Rodríguez%NULL%1,      Lucía%Ramos Merino%NULL%3,      Lucía%Ramos Merino%NULL%0,      Lucía%Ramos Merino%NULL%0,      Laura%Castelo Corral%NULL%1,      María%Rodríguez Mahía%NULL%1,      Mónica%González Bardanca%NULL%1,      Efrén%Sánchez Vidal%NULL%1,      Enrique%Míguez Rey%NULL%1,      Javier%De la Torre Lima%NULL%3,      Javier%De la Torre Lima%NULL%0,      Javier%De la Torre Lima%NULL%0,      José Mª%García de Lomas Guerrero%NULL%1,      Elena%Morte%NULL%3,      Elena%Morte%NULL%0,      Elena%Morte%NULL%0,      Silvia%Loscos%NULL%1,      Ana%Camón%NULL%1,      Lucía%Gómez García%NULL%3,      Lucía%Gómez García%NULL%0,      Lucía%Gómez García%NULL%0,      Lucia%Boix Palop%NULL%1,      Beatriz%Dietl Gómez-Luengo%NULL%1,      Iris%Pedrola Gorrea%NULL%3,      Iris%Pedrola Gorrea%NULL%0,      Iris%Pedrola Gorrea%NULL%0,      Amparo%Blasco Claramunt%NULL%1,      Cristina%López Mestanza%NULL%3,      Cristina%López Mestanza%NULL%0,      Cristina%López Mestanza%NULL%0,      Esther%Fraile Villarejo%NULL%1,      Tomás%Tosco Núñez%NULL%3,      Tomás%Tosco Núñez%NULL%0,      Tomás%Tosco Núñez%NULL%0,      María%Aroca Ferri%NULL%1,      José Tomas%Algado Rabasa%NULL%3,      José Tomas%Algado Rabasa%NULL%0,      José Tomas%Algado Rabasa%NULL%0,      Ana María%Garijo Saiz%NULL%1,      Concepción%Amador Prous%NULL%1,      Jesús Rodriguez%Baño%NULL%3,      Jesús Rodriguez%Baño%NULL%0,      Jesús Rodriguez%Baño%NULL%0,      Pilar%Retamar%NULL%1,      Adoración%Valiente%NULL%1,      Luis E.%López-Cortés%NULL%1,      Jesús%Sojo%NULL%1,      Belén%Gutiérrez-Gutiérrez%NULL%1,      José%Bravo-Ferrer%NULL%1,      Elena%Salamanca%NULL%1,      Zaira R.%Palacios%NULL%1,      Patricia%Pérez-Palacios%NULL%1,      Enrique%Peral%NULL%1,      José Antonio%Pérez de León%NULL%1,      Jesús%Sánchez-Gómez%NULL%1,      Lucía%Marín-Barrera%NULL%1,      Domingo%García-Jiménez%NULL%1,      Jordi%Carratalà%NULL%0,      Jordi%Carratalà%NULL%0,      Jordi%Carratalà%NULL%0,      Gabriela%Abelenda-Alonso%NULL%1,      Carmen%Ardanuy%NULL%1,      Alba%Bergas%NULL%1,      Guillermo%Cuervo%NULL%1,      María Ángeles%Domínguez%NULL%1,      Miguel%Fernández-Huerta%NULL%1,      Carlota%Gudiol%NULL%1,      Laia%Lorenzo-Esteller%NULL%1,      Jordi%Niubó%NULL%1,      Sandra%Pérez-Recio%NULL%1,      Daniel%Podzamczer%NULL%1,      Miquel%Pujol%NULL%1,      Alexander%Rombauts%NULL%1,      Núria%Trullen%NULL%1,      Miguel%Salavert Lletí%NULL%3,      Miguel%Salavert Lletí%NULL%0,      Miguel%Salavert Lletí%NULL%0,      Iván%Castro Hernández%NULL%1,      Adriana%Hernández Belmonte%NULL%3,      Adriana%Hernández Belmonte%NULL%0,      Adriana%Hernández Belmonte%NULL%0,      Raquel%Martínez Goñi%NULL%1,      Marta%Navarro Vilasaró%NULL%3,      Marta%Navarro Vilasaró%NULL%0,      Marta%Navarro Vilasaró%NULL%0,      Sonia%Calzado Isbert%NULL%1,      Manuel%Cervantes García%NULL%1,      Aina%Gomila Grange%NULL%1,      Oriol%Gasch Blasi%NULL%1,      María Luisa%Machado Sicilia%NULL%1,      Eva%Van den Eynde Otero%NULL%1,      Luis%Falgueras López%NULL%1,      María del Carmen%Navarro Sáez%NULL%1,      Esteban%Martínez%NULL%3,      Esteban%Martínez%NULL%0,      Esteban%Martínez%NULL%0,      Mª Ángeles%Marcos%NULL%1,      Mar%Mosquera%NULL%1,      José Luis%Blanco%NULL%1,      Montserrat%Laguno%NULL%1,      Jhon%Rojas%NULL%1,      Ana%González-Cordón%NULL%1,      Alexy%Inciarte%NULL%1,      Berta%Torres%NULL%1,      Lorena%De la Mora%NULL%1,      Alex%Soriano%NULL%1,      Olalla%Martínez Macias%NULL%3,      Olalla%Martínez Macias%NULL%0,      Olalla%Martínez Macias%NULL%0,      Virginia%Pérez Doñate%NULL%1,      Alfonso%Cabello Úbeda%NULL%3,      Alfonso%Cabello Úbeda%NULL%0,      Alfonso%Cabello Úbeda%NULL%0,      Nerea%Carrasco Antón%NULL%1,      Beatriz%Álvarez Álvarez%NULL%1,      Elizabet%Petkova Saiz%NULL%1,      Miguel%Górgolas Hernández-Mora%NULL%1,      Laura%Prieto Pérez%NULL%1,      Irene%Carrillo Acosta%NULL%1,      Sara%Heili Frades%NULL%1,      Felipe%Villar Álvarez%NULL%1,      Ricardo%Fernández Roblas%NULL%1,      José María%Milicua Muñoz%NULL%1,      Virginia%Fernández Espinilla%NULL%3,      Virginia%Fernández Espinilla%NULL%0,      Virginia%Fernández Espinilla%NULL%0,      Carlos Jesús%Dueñas Gutiérrez%NULL%1,      Cristina%Hernán García%NULL%1,      Fernando%González-Romo%NULL%3,      Fernando%González-Romo%NULL%0,      Fernando%González-Romo%NULL%0,      Paloma%Merino Amador%NULL%1,      Alba%Rueda López%NULL%1,      Jorge%Martínez Jordán%NULL%1,      Sara%Medrano Pardo%NULL%1,      Irene%Díaz de la Torre%NULL%1,      Yolanda%Posada Franco%NULL%1,      Alberto%Delgado-Iribarren%NULL%1,      Joaquín%López-Contreras González%NULL%3,      Joaquín%López-Contreras González%NULL%0,      Joaquín%López-Contreras González%NULL%0,      Pablo%Pascual Alonso%NULL%1,      Virginia%Pomar Solchaga%NULL%1,      Nuria%Rabella García%NULL%1,      Natividad%Benito Hernández%NULL%1,      Pere%Domingo Pedrol%NULL%1,      Xavier%Bonfill Cosp%NULL%1,      Rafael%Padrós Selma%NULL%1,      Mireia%Puig Campmany%NULL%1,      Jordi%Mancebo Cortés%NULL%1,      Mercè%Gurguí Ferrer%NULL%1,      Melania%Íñigo Pestaña%NULL%3,      Melania%Íñigo Pestaña%NULL%0,      Melania%Íñigo Pestaña%NULL%0,      Alejandra%Pérez García%NULL%1,      Patricia%Sorní Moreno%NULL%3,      Patricia%Sorní Moreno%NULL%0,      Patricia%Sorní Moreno%NULL%0,      Nora%Izko Gartzia%NULL%1,      Francisco Javier%Membrillo de Novales%NULL%3,      Francisco Javier%Membrillo de Novales%NULL%0,      Francisco Javier%Membrillo de Novales%NULL%0,      María%Simón Sacristán%NULL%1,      Maribel%Zamora Cintas%NULL%1,      Yolanda%Martínez Martínez%NULL%1,      Pablo%Fernández-González%NULL%1,      Francisco%Alcántara Nicolás%NULL%1,      Alejandro%Aguirre Vila-Cora%NULL%1,      Elena%López Tizón%NULL%1,      Germán%Ramírez-Olivencia%NULL%1,      Miriam%Estébanez Muñoz%NULL%1,      Ester%Sáez de Adana Arróniz%NULL%3,      Ester%Sáez de Adana Arróniz%NULL%0,      Ester%Sáez de Adana Arróniz%NULL%0,      Joseba%Portu Zapirain%NULL%1,      Juan Carlos%Gainzarain Arana%NULL%1,      Zuriñe%Ortiz de Zárate Ibarra%NULL%1,      Miguel Ángel%Moran Rodríguez%NULL%1,      Andrés%Canut Blasco%NULL%1,      Silvia%Hernáez Crespo%NULL%1,      Leire%Balerdi Sarasola%NULL%1,      Cristina%Morales García%NULL%1,      Miguel%Corral Saracho%NULL%1,      Zeltia%Valcarce González%NULL%1,      Noelia%Arenal Andrés%NULL%3,      Noelia%Arenal Andrés%NULL%0,      Noelia%Arenal Andrés%NULL%0,      Raquel Elisa%Rodríguez Tarazona%NULL%1,      Laura%Iglesias Llorente%NULL%3,      Laura%Iglesias Llorente%NULL%0,      Laura%Iglesias Llorente%NULL%0,      Beatriz%Loureiro Rodríguez%NULL%1,      Adrián%Sánchez Montalvá%NULL%3,      Adrián%Sánchez Montalvá%NULL%0,      Adrián%Sánchez Montalvá%NULL%0,      Juan%Espinosa Pereiro%NULL%1,      Benito%Almirante%NULL%1,      Marta%Miarons%NULL%1,      Júlia%Sellarés%NULL%1,      María%Larrosa%NULL%1,      Sonia%García%NULL%1,      Blanca%Marzo%NULL%1,      Miguel%Villamarín%NULL%1,      Nuria%Fernández%NULL%1,      Conchita%Pérez-Jorge Peremarch%NULL%3,      Conchita%Pérez-Jorge Peremarch%NULL%0,      Conchita%Pérez-Jorge Peremarch%NULL%0,      Elena%Resino Foz%NULL%1,      Andrea%Espigares Correa%NULL%1,      Teresa%Álvarez de Espejo Montiel%NULL%1,      Iván%Navas Clemente%NULL%1,      María Isabel%Quijano Contreras%NULL%1,      Luis Alberto%Nieto Fernández del Campo%NULL%1,      Guillermo%Jiménez Álvarez%NULL%1,      Mercedes%Guillamón Sánchez%NULL%3,      Mercedes%Guillamón Sánchez%NULL%0,      Mercedes%Guillamón Sánchez%NULL%0,      Josefina%García García%NULL%1,      Constanza%Muñoz Hornero%NULL%3,      Constanza%Muñoz Hornero%NULL%0,      Constanza%Muñoz Hornero%NULL%0,      Ana%Mariño Callejo%NULL%3,      Ana%Mariño Callejo%NULL%0,      Ana%Mariño Callejo%NULL%0,      Nieves%Valcarce Pardeiro%NULL%1,      Alex%Smithson Amat%NULL%3,      Alex%Smithson Amat%NULL%0,      Alex%Smithson Amat%NULL%0,      Cristina%Chico Chumillas%NULL%1,      Adriana%Sánchez Serrano%NULL%3,      Adriana%Sánchez Serrano%NULL%0,      Adriana%Sánchez Serrano%NULL%0,      Eva Pilar%García Villalba%NULL%1,      Isabel%Jiménez Martínez%NULL%3,      Isabel%Jiménez Martínez%NULL%0,      Isabel%Jiménez Martínez%NULL%0,      Guillermo%Estrada Fernández%NULL%1,      María%Lorén Vargas%NULL%1,      Nuria%Parra Arribas%NULL%1,      Carmen%Martínez Cilleros%NULL%1,      Aránzazu%Villasante de la Puente%NULL%1,      Teresa%García Delange%NULL%1,      María José%Ruiz Rodríguez%NULL%1,      Marta%Robledo del Prado%NULL%1,      Juan Carlos%Abad Almendro%NULL%1,      José Román%Muñoz del Rey%NULL%3,      José Román%Muñoz del Rey%NULL%0,      José Román%Muñoz del Rey%NULL%0,      Montaña%Jiménez Álvaro%NULL%1,      Javier%Coy Coy%NULL%3,      Javier%Coy Coy%NULL%0,      Javier%Coy Coy%NULL%0,      Inmaculada%Poquet Catala%NULL%1,      Marta%Santos Peña%NULL%3,      Marta%Santos Peña%NULL%0,      Marta%Santos Peña%NULL%0,      Virginia%Naranjo Velasco%NULL%1,      Tamara%Manso Gómez%NULL%3,      Tamara%Manso Gómez%NULL%0,      Tamara%Manso Gómez%NULL%0,      Delia%Quilez Ágreda%NULL%1,      Gema%Barbeito Castiñeiras%NULL%3,      Gema%Barbeito Castiñeiras%NULL%0,      Gema%Barbeito Castiñeiras%NULL%0,      María Jesús%Domínguez Santalla%NULL%1,      Laura%Mao Martín%NULL%3,      Laura%Mao Martín%NULL%0,      Laura%Mao Martín%NULL%0,      Rodrigo%Alonso Navarro%NULL%1,      Jose David%Ampuero Martinich%NULL%1,      Raquel%Barrós González%NULL%1,      María Aránzazu%Galindo Martín%NULL%1,      Lourdes%Herrera Pacheco%NULL%1,      Rocío%Martínez Avilés%NULL%1,      Sara%Rodrigo González%NULL%1,      Cristóbal Manuel%Rodríguez Leal%NULL%1,      Eva María%Romay Lema%NULL%3,      Eva María%Romay Lema%NULL%0,      Eva María%Romay Lema%NULL%0,      Roi%Suárez Gil%NULL%1,      Maialen%Ibarguren Pinilla%NULL%3,      Maialen%Ibarguren Pinilla%NULL%0,      Maialen%Ibarguren Pinilla%NULL%0,      José María%Marimón Ortiz de Zárate%NULL%1,      Loreto%Vidaur Tello%NULL%1,      Xabier%Kortajarena Urkola%NULL%1,      Miriam%García Gómez%NULL%3,      Miriam%García Gómez%NULL%0,      Miriam%García Gómez%NULL%0,      Asier%Aranguren Arostegui%NULL%1,      Maria%Álvarez de Castro%NULL%3,      Maria%Álvarez de Castro%NULL%0,      Maria%Álvarez de Castro%NULL%0,      Cintia María%Martínez Mateu%NULL%1,      Francisco%Rodríguez Gómez%NULL%3,      Francisco%Rodríguez Gómez%NULL%0,      Francisco%Rodríguez Gómez%NULL%0,      Francisco%Muñoz Beamud%NULL%1,      Elena%Chamarro Martí%NULL%3,      Elena%Chamarro Martí%NULL%0,      Elena%Chamarro Martí%NULL%0,      Merce%Cardona Rivera%NULL%1,      Ismail%Zakariya-Yousef Breval%NULL%3,      Ismail%Zakariya-Yousef Breval%NULL%0,      Ismail%Zakariya-Yousef Breval%NULL%0,      Marta%Rico Rodríguez%NULL%1,      Jara%Llenas García%NULL%3,      Jara%Llenas García%NULL%0,      Jara%Llenas García%NULL%0,      Mª Carmen%Sánchez Arenas%NULL%1,      Ana%Fernández Cruz%NULL%3,      Ana%Fernández Cruz%NULL%0,      Ana%Fernández Cruz%NULL%0,      Jorge%Calderón Parra%NULL%1,      Marcos%López Dosil%NULL%1,      Antonio%Ramos Martínez%NULL%1,      Elena%Múñez Rubio%NULL%1,      Alejandro%Callejas Díaz%NULL%1,      José Manuel%Vázquez Comendador%NULL%1,      Itziar%Diego Yagüe%NULL%1,      Esther%Expósito Palomo%NULL%1,      Jorge%Anel Pedroche%NULL%1,      Raquel%Álvarez Franco%NULL%3,      Raquel%Álvarez Franco%NULL%0,      Raquel%Álvarez Franco%NULL%0,      Lucía%Fernández de Orueta%NULL%1,      Roberto%Vates Gómez%NULL%1,      Andrés Felipe%Cardona Arias%NULL%1,      Pablo%Marguenda Contreras%NULL%1,      Gabriel%Gaspar Alonso-Vega%NULL%1,      Elena María%Aranda Rife%NULL%1,      Blanca%Martínez Cifre%NULL%1,      Daniel%Roger Zapata%NULL%1,      Irene%Martín Rubio%NULL%1,      André%Barbosa Ventura%NULL%3,      André%Barbosa Ventura%NULL%0,      André%Barbosa Ventura%NULL%0,      Iván%Piñero%NULL%1,      Alberto%Bahamonde Carrasco%NULL%3,      Alberto%Bahamonde Carrasco%NULL%0,      Alberto%Bahamonde Carrasco%NULL%0,      Paula%Runza Buznego%NULL%1,      Eva%Talavera García%NULL%3,      Eva%Talavera García%NULL%0,      Eva%Talavera García%NULL%0,      Marta%Lamata Subero%NULL%1,      Ainhoa%Urrutia Losada%NULL%3,      Ainhoa%Urrutia Losada%NULL%0,      Ainhoa%Urrutia Losada%NULL%0,      Lorea%Arteche Eguizabal%NULL%1,      Elisabet%Delgado Sánchez%NULL%3,      Elisabet%Delgado Sánchez%NULL%0,      Elisabet%Delgado Sánchez%NULL%0,      Virginia%Molina Peinado%NULL%1,      Sarah%Caro Bragado%NULL%3,      Sarah%Caro Bragado%NULL%0,      Sarah%Caro Bragado%NULL%0,      Gema%Domínguez de Pablos%NULL%1,      Carolina%Roldán Fontana%NULL%3,      Carolina%Roldán Fontana%NULL%0,      Carolina%Roldán Fontana%NULL%0,      Carmen%Herrero Rodríguez%NULL%1,      Luis%Force Sanmartín%NULL%3,      Luis%Force Sanmartín%NULL%0,      Luis%Force Sanmartín%NULL%0,      Raquel%Aranega%NULL%1,      Arantzazu%Mera Fidalgo%NULL%3,      Arantzazu%Mera Fidalgo%NULL%0,      Arantzazu%Mera Fidalgo%NULL%0,      María Roca%Toda Savall%NULL%1,      Nicolas%Merchante Gutiérrez%NULL%3,      Nicolas%Merchante Gutiérrez%NULL%0,      Nicolas%Merchante Gutiérrez%NULL%0,      Eva María%León Jiménez%NULL%1,      José Luís%Del Pozo%NULL%3,      José Luís%Del Pozo%NULL%0,      José Luís%Del Pozo%NULL%0,      Josefa%Serralta Buades%NULL%3,      Josefa%Serralta Buades%NULL%0,      Josefa%Serralta Buades%NULL%0,      Ginger Giorgiana%Cabrera Tejada%NULL%1,      Mario%Fernández-Ruiz%NULL%4,      Mario%Fernández-Ruiz%NULL%0,      Mario%Fernández-Ruiz%NULL%0,      José María%Aguado%NULL%1,      Guillermo%Maestro de la Calle%NULL%1,      José Miguel%Cisneros%NULL%0,      José Miguel%Cisneros%NULL%0,      José Miguel%Cisneros%NULL%0,      Jerónimo%Pachón%NULL%0,      Manuela%Aguilar-Guisado%NULL%1,      Teresa%Aldabó%NULL%1,      María Dolores%Avilés%NULL%0,      Claudio%Bueno%NULL%1,      Elisa%Cordero-Matía%NULL%1,      Ana%Escoresca%NULL%1,      Lydia%Gálvez-Benítez%NULL%1,      Carmen%Infante%NULL%1,      Guillermo%Martín%NULL%1,      Julia%Praena%NULL%1,      Cristina%Roca%NULL%1,      Celia%Salamanca%NULL%1,      Alejandro%Suárez-Benjumea%NULL%1,      Pilar%Vizcarra%NULL%3,      Pilar%Vizcarra%NULL%0,      Pilar%Vizcarra%NULL%0,      Carmen%Quereda%NULL%1,      Mario José%Rodriguez Dominguez%NULL%1,      Francesca%Gioia%NULL%1,      Francesca%Norman%NULL%1,      Santos%Del Campo%NULL%1,      Rafael%Cantón Moreno%NULL%1,      Antonio%Oteo Revuelta José%NULL%3,      Antonio%Oteo Revuelta José%NULL%0,      Antonio%Oteo Revuelta José%NULL%0,      Paula%Santibáñez Sáenz%NULL%1,      Cristina%Cervera Acedo%NULL%1,      Carlos%Ruiz Martínez%NULL%1,      José R.%Blanco Ramos%NULL%1,      José M.%Azcona Gutiérrez%NULL%1,      Concepción%García García%NULL%1,      Jorge%Alba Fernández%NULL%1,      Valvanera%Ibarra Cucalón%NULL%1,      Mercedes%San Franco%NULL%1,      Luis%Metola Sacristán%NULL%1,      Héctor%Meijide Míguez%NULL%3,      Héctor%Meijide Míguez%NULL%0,      Héctor%Meijide Míguez%NULL%0,      Silvia%Paulos Viñas%NULL%1,      Justo%Menéndez%NULL%3,      Justo%Menéndez%NULL%0,      Justo%Menéndez%NULL%0,      Paula%Villares Fernández%NULL%1,      Lara%Montes Andújar%NULL%1,      Álvaro%Navarro Batet%NULL%3,      Álvaro%Navarro Batet%NULL%0,      Álvaro%Navarro Batet%NULL%0,      Anna%Ferrer Santolaria%NULL%1,      María de la Luz%Padilla Salazar%NULL%3,      María de la Luz%Padilla Salazar%NULL%0,      María de la Luz%Padilla Salazar%NULL%0,      Lucy%Abella Vázquez%NULL%1,      Marcelino%Hayek Peraza%NULL%1,      Antonio%García Pardo%NULL%1,      Carolina%Hernández Carballo%NULL%1,      Andrés Javier%Ruiz Fernández%NULL%3,      Andrés Javier%Ruiz Fernández%NULL%0,      Andrés Javier%Ruiz Fernández%NULL%0,      Isabel%Barrio López%NULL%1,      Alí%Martakoush%NULL%3,      Alí%Martakoush%NULL%0,      Alí%Martakoush%NULL%0,      Agustín%Rojas-Vieyra%NULL%3,      Agustín%Rojas-Vieyra%NULL%0,      Agustín%Rojas-Vieyra%NULL%0,      Sonia%García Calvo%NULL%3,      Sonia%García Calvo%NULL%0,      Sonia%García Calvo%NULL%0,      Mercedes%Villarreal García-Lomas%NULL%1,      Marta%Vizcaíno Callejón%NULL%3,      Marta%Vizcaíno Callejón%NULL%0,      Marta%Vizcaíno Callejón%NULL%0,      María Pilar%García García%NULL%1,      Ana%Lérida Urteaga%NULL%3,      Ana%Lérida Urteaga%NULL%0,      Ana%Lérida Urteaga%NULL%0,      Natalia%Carrasco Fons%NULL%1,      Beatriz%María Sanjuan%NULL%1,      Lydia%Martín González%NULL%1,      Camilo%Sanz Zamudio%NULL%1,      Inmaculada%Jarrín%NULL%0,      Inmaculada%Jarrín%NULL%0,      Inmaculada%Jarrín%NULL%0,      Belén%Alejos%NULL%1,      Cristina%Moreno%NULL%1,      Marta%Rava%NULL%1,      Carlos%Iniesta%NULL%1,      Rebeca%Izquierdo%NULL%1,      Inés%Suárez-García%NULL%1,      Asunción%Díaz%NULL%1,      Marta%Ruiz-Alguero%NULL%1,      Victoria%Hernando%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,      Denise J%McCulloch%NULL%0,      Denise J%McCulloch%NULL%0,      Vidya%Atluri%NULL%0,      Michela%Blain%NULL%0,      Sarah A%McGuffin%NULL%0,      Arun K%Nalla%NULL%0,      Meei-Li%Huang%NULL%0,      Alex L%Greninger%NULL%0,      Keith R%Jerome%NULL%0,      Seth A%Cohen%NULL%0,      Santiago%Neme%NULL%0,      Margaret L%Green%NULL%0,      Helen Y%Chu%NULL%0,      H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,      Wenlin%Cheng%NULL%0,      Lei%Yu%NULL%0,      Ya-Kun%Liu%NULL%0,      Xiaoyong%Hu%NULL%0,      Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,      Alberto%Zucchelli%NULL%1,      Marinella%Turla%NULL%1,      Maria Sofia%Cotelli%NULL%1,      Sara%Fascendini%NULL%1,      Mara%Zanni%NULL%1,      Angelo%Bianchetti%NULL%1,      Matteo Peli%Psy%NULL%1,      Renzo%Rozzini%NULL%1,      Stefano%Boffelli%NULL%1,      Melania%Cappuccio%NULL%1,      Federica Gottardi%Psy%NULL%1,      Chiara Vecchi%Psy%NULL%1,      Daniele%Bellandi%NULL%1,      Claudia%Caminati%NULL%1,      Simona%Gentile%NULL%1,      Elena Lucchi%Psy%NULL%1,      Ignazio%Di Fazio%NULL%1,      Marina Zanetti%Psy%NULL%1,      Giuliana%Vezzadini%NULL%1,      Chiara Forlani%Psy%NULL%1,      Maura Cosseddu%Psy%NULL%1,      Rosanna Turrone%Psy%NULL%1,      Silvia Pelizzari%Psy%NULL%1,      Andrea%Scalvini%NULL%1,      Marco%Di Cesare%NULL%1,      Marta Grigolo%Psy%NULL%1,      Lina%Falanga%NULL%1,      Nives%Medici%NULL%1,      Nives%Palamini%NULL%1,      Elisa Zanacchi%Psy%NULL%1,      Eleonora Grossi%Psy%NULL%1,      Giuseppe%Bellelli%NULL%1,      Alessandra%Marengoni%NULL%1,      Marco%Trabucchi%NULL%1,      Alessandro%Padovani%alessandro.padovani@unibs.it%1,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0,      Nancy%Chow%NULL%2,      Katherine%Fleming-Dutra%NULL%1,      Ryan%Gierke%NULL%2,      Aron%Hall%NULL%2,      Michelle%Hughes%NULL%1,      Tamara%Pilishvili%NULL%2,      Matthew%Ritchey%NULL%2,      Katherine%Roguski%NULL%1,      Tami%Skoff%NULL%1,      Emily%Ussery%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,      Zhencang%Zheng%NULL%1,      Chao%Zhang%NULL%1,      Xijiang%Zhang%NULL%1,      Huijuan%Wu%NULL%1,      Jingdong%Wang%NULL%1,      Shuwei%Wang%NULL%1,      Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,      Wei%Liu%NULL%0,      Kui%Liu%NULL%0,      Yuan-Yuan%Fang%NULL%0,      Jin%Shang%NULL%0,      Ling%Zhou%NULL%0,      Ke%Wang%NULL%0,      Fan%Leng%NULL%0,      Shuang%Wei%NULL%0,      Lei%Chen%NULL%0,      Hui-Guo%Liu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nathalie%Nicolay%NULL%1,      Francesco%Innocenti%NULL%1,      Julien%Beauté%NULL%1,      Veronika%Učakar%NULL%1,      Marta%Grgič Vitek%NULL%1,      Eero%Poukka%NULL%1,      Tuula%Hannila-Handelberg%NULL%1,      Charmaine%Gauci%NULL%1,      Tanya%Melillo%NULL%1,      Theano%Georgakopoulou%NULL%1,      Jiri%Jarkovsky%NULL%1,      Pavel%Slezak%NULL%1,      Concepción%Delgado-Sanz%NULL%1,      Carmen%Olmedo-Lucerón%NULL%1,      Heleene%Suija%NULL%1,      Rasa%Liausediene%NULL%1,      Piaras%O’Lorcain%NULL%1,      Niamh%Murphy%NULL%1,      André%Peralta-Santos%NULL%1,      Pedro%Casaca%NULL%1,      Ioanna%Gregoriou%NULL%1,      Nick%Bundle%NULL%1,      Gianfranco%Spiteri%NULL%1,      Giovanni%Ravasi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Feng%NULL%2,      Peiyun%Li%NULL%1,      Liang%Ma%NULL%1,      Hang%Liang%NULL%1,      Jie%Lei%NULL%1,      Wenqiang%Li%NULL%1,      Kun%Wang%NULL%1,      Yu%Song%NULL%1,      Shuai%Li%NULL%1,      Wei%Yang%NULL%0,      Cao%Yang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yun%Feng%NULL%0,      Yun%Ling%NULL%0,      Yun%Ling%NULL%0,      Tao%Bai%NULL%2,      Tao%Bai%NULL%0,      Yusang%Xie%NULL%1,      Jie%Huang%NULL%2,      Jie%Huang%NULL%0,      Jian%Li%NULL%1,      Weining%Xiong%NULL%1,      Dexiang%Yang%NULL%1,      Rong%Chen%NULL%1,      Fangying%Lu%NULL%1,      Yunfei%Lu%NULL%1,      Xuhui%Liu%NULL%1,      Yuqing%Chen%NULL%2,      Yuqing%Chen%NULL%0,      Xin%Li%NULL%1,      Yong%Li%NULL%0,      Hanssa Dwarka%Summah%NULL%1,      Huihuang%Lin%NULL%1,      Jiayang%Yan%NULL%1,      Min%Zhou%NULL%0,      Hongzhou%Lu%NULL%0,      Hongzhou%Lu%NULL%0,      Jieming%Qu%NULL%0,      Jieming%Qu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Paolo%Giorgi Rossi%NULL%0,      Massimiliano%Marino%NULL%0,      Debora%Formisano%NULL%0,      Francesco%Venturelli%NULL%0,      Massimo%Vicentini%NULL%0,      Massimo%Vicentini%NULL%0,      Roberto%Grilli%NULL%0,      NULL%NULL%NULL%0,      Gianluigi%Forloni%NULL%8,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0,      Gianluigi%Forloni%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,      Justin J.%Choi%NULL%0,      Laura C.%Pinheiro%NULL%0,      Edward J.%Schenck%NULL%0,      Ruijun%Chen%NULL%0,      Assem%Jabri%NULL%0,      Michael J.%Satlin%NULL%0,      Thomas R.%Campion%NULL%0,      Musarrat%Nahid%NULL%0,      Joanna B.%Ringel%NULL%0,      Katherine L.%Hoffman%NULL%0,      Mark N.%Alshak%NULL%0,      Han A.%Li%NULL%0,      Graham T.%Wehmeyer%NULL%0,      Graham T.%Wehmeyer%NULL%0,      Mangala%Rajan%NULL%0,      Evgeniya%Reshetnyak%NULL%0,      Nathaniel%Hupert%NULL%0,      Evelyn M.%Horn%NULL%0,      Fernando J.%Martinez%NULL%0,      Roy M.%Gulick%NULL%0,      Monika M.%Safford%NULL%0,      Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jonathan%Grein%NULL%1,      Norio%Ohmagari%NULL%1,      Daniel%Shin%NULL%1,      George%Diaz%NULL%1,      Erika%Asperges%NULL%1,      Antonella%Castagna%NULL%0,      Torsten%Feldt%NULL%1,      Gary%Green%NULL%1,      Margaret L.%Green%NULL%1,      François-Xavier%Lescure%NULL%1,      Emanuele%Nicastri%NULL%1,      Rentaro%Oda%NULL%2,      Rentaro%Oda%NULL%0,      Kikuo%Yo%NULL%2,      Kikuo%Yo%NULL%0,      Eugenia%Quiros-Roldan%NULL%1,      Alex%Studemeister%NULL%1,      John%Redinski%NULL%1,      Seema%Ahmed%NULL%1,      Jorge%Bernett%NULL%1,      Daniel%Chelliah%NULL%1,      Danny%Chen%NULL%1,      Shingo%Chihara%NULL%1,      Stuart H.%Cohen%NULL%1,      Jennifer%Cunningham%NULL%1,      Antonella%D’Arminio Monforte%NULL%1,      Saad%Ismail%NULL%1,      Hideaki%Kato%NULL%1,      Giuseppe%Lapadula%NULL%1,      Erwan%L’Her%NULL%1,      Toshitaka%Maeno%NULL%1,      Sumit%Majumder%NULL%1,      Marco%Massari%NULL%0,      Marta%Mora-Rillo%NULL%1,      Yoshikazu%Mutoh%NULL%1,      Duc%Nguyen%NULL%1,      Ewa%Verweij%NULL%1,      Alexander%Zoufaly%NULL%1,      Anu O.%Osinusi%NULL%1,      Adam%DeZure%NULL%1,      Yang%Zhao%NULL%1,      Lijie%Zhong%NULL%1,      Anand%Chokkalingam%NULL%1,      Emon%Elboudwarej%NULL%1,      Laura%Telep%NULL%1,      Leighann%Timbs%NULL%1,      Ilana%Henne%NULL%1,      Scott%Sellers%NULL%1,      Huyen%Cao%NULL%1,      Susanna K.%Tan%NULL%1,      Lucinda%Winterbourne%NULL%1,      Polly%Desai%NULL%1,      Robertino%Mera%NULL%1,      Anuj%Gaggar%NULL%1,      Robert P.%Myers%NULL%1,      Diana M.%Brainard%NULL%1,      Richard%Childs%NULL%1,      Timothy%Flanigan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,      Zheng-yi%Ni%NULL%0,      Zheng-yi%Ni%NULL%0,      Yu%Hu%NULL%0,      Wen-hua%Liang%NULL%0,      Chun-quan%Ou%NULL%0,      Jian-xing%He%NULL%0,      Lei%Liu%NULL%0,      Hong%Shan%NULL%0,      Chun-liang%Lei%NULL%0,      David S.C.%Hui%NULL%0,      Bin%Du%NULL%0,      Lan-juan%Li%NULL%0,      Guang%Zeng%NULL%0,      Kwok-Yung%Yuen%NULL%0,      Ru-chong%Chen%NULL%0,      Chun-li%Tang%NULL%0,      Tao%Wang%NULL%0,      Ping-yan%Chen%NULL%0,      Jie%Xiang%NULL%0,      Shi-yue%Li%NULL%0,      Jin-lin%Wang%NULL%0,      Zi-jing%Liang%NULL%0,      Yi-xiang%Peng%NULL%0,      Li%Wei%NULL%0,      Yong%Liu%NULL%0,      Ya-hua%Hu%NULL%0,      Peng%Peng%NULL%0,      Jian-ming%Wang%NULL%0,      Ji-yang%Liu%NULL%0,      Zhong%Chen%NULL%0,      Gang%Li%NULL%0,      Zhi-jian%Zheng%NULL%0,      Shao-qin%Qiu%NULL%0,      Jie%Luo%NULL%0,      Chang-jiang%Ye%NULL%0,      Shao-yong%Zhu%NULL%0,      Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Admon%Andrew J.%coreGivesNoEmail%1,     Arunthamakun%Justin%coreGivesNoEmail%1,     Athavale%Ambarish M.%coreGivesNoEmail%1,     Bansal%Anip%coreGivesNoEmail%1,     Brenner%Samantha K.%coreGivesNoEmail%1,     Chan%Lili%coreGivesNoEmail%1,     Donnelly%John P.%coreGivesNoEmail%1,     Friedman%Allon N.%coreGivesNoEmail%1,     Gershengorn%Hayley B.%coreGivesNoEmail%1,     Goyal%Nitender%coreGivesNoEmail%1,     Green%Adam%coreGivesNoEmail%1,     Gupta%Shruti%coreGivesNoEmail%1,     Hayek%Salim S.%coreGivesNoEmail%1,     Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,     Kibbelaar%Zoe A.%coreGivesNoEmail%1,     Leaf%David E.%coreGivesNoEmail%1,     Leonberg-Yoo%Amanda%coreGivesNoEmail%1,     Mathews%Kusum S.%coreGivesNoEmail%1,     Melamed%Michal L.%coreGivesNoEmail%1,     Omar%Samah Abu%coreGivesNoEmail%1,     Parikh%Chirag R.%coreGivesNoEmail%1,     Radbel%Jared%coreGivesNoEmail%1,     Reiser%Jochen%coreGivesNoEmail%1,     Schenck%Edward J.%coreGivesNoEmail%1,     Semler%Matthew W.%coreGivesNoEmail%1,     Shaefi%Shahzad%coreGivesNoEmail%1,     Shehata%Alexandre M.%coreGivesNoEmail%1,     Short%Samuel A. P.%coreGivesNoEmail%1,     Srivastava%Anand%coreGivesNoEmail%1,     Sutherland%Anne%coreGivesNoEmail%1,     Velez%Juan Carlos Q.%coreGivesNoEmail%1,     Vijayan%Anitha%coreGivesNoEmail%1,     Wang%Wei%coreGivesNoEmail%1,     Zhou%Yan%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Rahmet%GÜNER%NULL%1,      İmran%HASANOĞLU%NULL%2,      İmran%HASANOĞLU%NULL%0,      Bircan%KAYAASLAN%NULL%2,      Bircan%KAYAASLAN%NULL%0,      Adalet%AYPAK%NULL%2,      Adalet%AYPAK%NULL%0,      Ayşe%KAYA KALEM%NULL%2,      Ayşe%KAYA KALEM%NULL%0,      Fatma%ESER%NULL%2,      Fatma%ESER%NULL%0,      Burcu%ÖZDEMİR%NULL%2,      Burcu%ÖZDEMİR%NULL%0,      Elif Mükime%SARICAOĞLU%NULL%2,      Elif Mükime%SARICAOĞLU%NULL%0,      Müge%AYHAN%NULL%2,      Müge%AYHAN%NULL%0,      Yeşim%AYBAR BİLİR%NULL%2,      Yeşim%AYBAR BİLİR%NULL%0,      Işıl%ÖZKOÇAK TURAN%NULL%2,      Işıl%ÖZKOÇAK TURAN%NULL%0,      Deniz%ERDEM%NULL%2,      Deniz%ERDEM%NULL%0,      Nevzat Mehmet%MUTLU%NULL%1,      Turan%BUZGAN%NULL%2,      Turan%BUZGAN%NULL%0,      Bedia%DİNÇ%NULL%2,      Bedia%DİNÇ%NULL%0,      Esragül%AKINCI%NULL%2,      Esragül%AKINCI%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Stephanie L.%Harrison%NULL%1,      Elnara%Fazio-Eynullayeva%NULL%2,      Elnara%Fazio-Eynullayeva%NULL%0,      Deirdre A.%Lane%NULL%2,      Deirdre A.%Lane%NULL%0,      Paula%Underhill%NULL%2,      Paula%Underhill%NULL%0,      Gregory Y. H.%Lip%NULL%1,      Mirjam E. E.%Kretzschmar%NULL%3,      Mirjam E. E.%Kretzschmar%NULL%0,      Mirjam E. E.%Kretzschmar%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yuanzhou%He%NULL%1,      Min%Xie%NULL%3,      Jianping%Zhao%NULL%0,      Xiansheng%Liu%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Ling%Hu%NULL%0,      Shaoqiu%Chen%NULL%0,      Yuanyuan%Fu%NULL%0,      Zitong%Gao%NULL%0,      Hui%Long%NULL%0,      Jian-ming%Wang%NULL%0,      Hong-wei%Ren%NULL%0,      Yi%Zuo%NULL%0,      Huan%Li%NULL%0,      Jie%Wang%NULL%0,      Qing-bang%Xu%NULL%0,      Wen-xiong%Yu%NULL%0,      Jia%Liu%NULL%0,      Chen%Shao%NULL%0,      Jun-jie%Hao%NULL%0,      Chuan-zhen%Wang%NULL%0,      Yao%Ma%NULL%0,      Zhanwei%Wang%NULL%0,      Richard%Yanagihara%NULL%0,      Youping%Deng%dengy@hawaii.edu%0]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,      Yeming%Wang%NULL%0,      Xingwang%Li%NULL%0,      Lili%Ren%NULL%0,      Jianping%Zhao%NULL%0,      Yi%Hu%NULL%0,      Li%Zhang%NULL%0,      Guohui%Fan%NULL%0,      Jiuyang%Xu%NULL%0,      Xiaoying%Gu%NULL%0,      Zhenshun%Cheng%NULL%0,      Ting%Yu%NULL%0,      Jiaan%Xia%NULL%0,      Yuan%Wei%NULL%0,      Wenjuan%Wu%NULL%0,      Xuelei%Xie%NULL%0,      Wen%Yin%NULL%0,      Hui%Li%NULL%0,      Min%Liu%NULL%0,      Yan%Xiao%NULL%0,      Hong%Gao%NULL%0,      Li%Guo%NULL%0,      Jungang%Xie%NULL%0,      Guangfa%Wang%NULL%0,      Rongmeng%Jiang%NULL%0,      Zhancheng%Gao%NULL%0,      Qi%Jin%NULL%0,      Jianwei%Wang%wangjw28@163.com%0,      Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,     Bayani%Masomeh%coreGivesNoEmail%1,     Bijani%Ali%coreGivesNoEmail%1,     Ebrahimpour%Soheil%coreGivesNoEmail%1,     Gholinejad%Hossein Emam%coreGivesNoEmail%1,     Ghorbani%Hossein%coreGivesNoEmail%1,     Hasanpour%Amir Hossein%coreGivesNoEmail%1,     Javanian%Mostafa%coreGivesNoEmail%1,     Masrour-Roudsari%Jila%coreGivesNoEmail%1,     Mehraeen%Rahele%coreGivesNoEmail%1,     Mohseni%Sima%coreGivesNoEmail%1,     Rostami%Ali%coreGivesNoEmail%1,     Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,     Sepidarkish%Mahdi%coreGivesNoEmail%1,     Shabani%Asieh%coreGivesNoEmail%1,     Shahbazi%Mehdi%coreGivesNoEmail%1,     Shokri%Mehran%coreGivesNoEmail%1,     Tabari%Afrooz Monadi%coreGivesNoEmail%1,     Yeganeh%Babak%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Filippo%Lagi%NULL%1,      Matteo%Piccica%NULL%1,      Lucia%Graziani%NULL%1,      Iacopo%Vellere%NULL%1,      Annarita%Botta%NULL%1,      Marta%Tilli%NULL%1,      Letizia%Ottino%NULL%1,      Beatrice%Borchi%NULL%1,      Marco%Pozzi%NULL%1,      Filippo%Bartalesi%NULL%1,      Jessica%Mencarini%NULL%1,      Michele%Spinicci%NULL%1,      Lorenzo%Zammarchi%NULL%1,      Filippo%Pieralli%NULL%1,      Giovanni%Zagli%NULL%1,      Carlo%Nozzoli%NULL%1,      Stefano%Romagnoli%NULL%1,      Alessandro%Bartoloni%NULL%1,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,      Zhao-Wu%Tao%NULL%0,      Lei%Wang%NULL%0,      Ming-Li%Yuan%NULL%0,      Kui%Liu%NULL%0,      Ling%Zhou%NULL%0,      Shuang%Wei%NULL%0,      Yan%Deng%NULL%0,      Jing%Liu%NULL%0,      Hui-Guo%Liu%NULL%0,      Ming%Yang%NULL%0,      Yi%Hu%NULL%0,      Pei-Fang%Wei%NULL%0,      Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaochen%Li%NULL%0,      Shuyun%Xu%NULL%2,      Muqing%Yu%NULL%2,      Ke%Wang%NULL%0,      Yu%Tao%NULL%0,      Ying%Zhou%NULL%0,      Jing%Shi%NULL%2,      Min%Zhou%NULL%0,      Bo%Wu%NULL%2,      Zhenyu%Yang%NULL%2,      Cong%Zhang%NULL%0,      Junqing%Yue%NULL%2,      Zhiguo%Zhang%NULL%2,      Harald%Renz%NULL%2,      Xiansheng%Liu%NULL%0,      Jungang%Xie%NULL%0,      Min%Xie%NULL%0,      Jianping%Zhao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yang-kai%Li%doclyk@163.com%1,      Shu%Peng%NULL%1,      Le-qun%Li%NULL%1,      Qi%Wang%NULL%1,      Wei%Ping%NULL%1,      Ni%Zhang%NULL%1,      Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,      Yuanyuan%Xing%NULL%0,      Yu%Xiao%NULL%0,      Liping%Deng%NULL%0,      Qiu%Zhao%NULL%0,      Hongling%Wang%NULL%0,      Yong%Xiong%NULL%0,      Zhenshun%Cheng%NULL%0,      Shicheng%Gao%NULL%0,      Ke%Liang%NULL%0,      Mingqi%Luo%NULL%0,      Tielong%Chen%NULL%0,      Shihui%Song%NULL%0,      Zhiyong%Ma%NULL%0,      Xiaoping%Chen%NULL%0,      Ruiying%Zheng%NULL%0,      Qian%Cao%NULL%0,      Fan%Wang%fanndywang@foxmail.com%0,      Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,      Nicolas%Lopez-Villalobos%NULL%1,      Francisco E.%Parra-Bracamonte%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ishan%Paranjpe%NULL%2,      Adam J%Russak%NULL%0,      Adam J%Russak%NULL%0,      Jessica K%De Freitas%NULL%0,      Anuradha%Lala%NULL%0,      Riccardo%Miotto%NULL%0,      Akhil%Vaid%NULL%0,      Kipp W%Johnson%NULL%0,      Matteo%Danieletto%NULL%0,      Eddye%Golden%NULL%0,      Dara%Meyer%NULL%0,      Manbir%Singh%NULL%0,      Sulaiman%Somani%NULL%0,      Arjun%Kapoor%NULL%1,      Ross%O'Hagan%NULL%1,      Sayan%Manna%NULL%1,      Udit%Nangia%NULL%1,      Suraj K%Jaladanki%NULL%1,      Paul%O’Reilly%NULL%2,      Paul%O’Reilly%NULL%0,      Laura M%Huckins%NULL%1,      Patricia%Glowe%NULL%1,      Arash%Kia%NULL%0,      Prem%Timsina%NULL%0,      Robert M%Freeman%NULL%1,      Matthew A%Levin%NULL%0,      Jeffrey%Jhang%NULL%0,      Adolfo%Firpo%NULL%1,      Patricia%Kovatch%NULL%0,      Joseph%Finkelstein%NULL%0,      Judith A%Aberg%NULL%0,      Emilia%Bagiella%NULL%0,      Carol R%Horowitz%NULL%0,      Barbara%Murphy%NULL%0,      Zahi A%Fayad%NULL%0,      Jagat%Narula%NULL%0,      Eric J%Nestler%NULL%0,      V%Fuster%NULL%1,      Carlos%Cordon-Cardo%NULL%0,      Dennis%Charney%NULL%1,      David L%Reich%NULL%0,      Allan%Just%NULL%1,      Erwin P%Bottinger%NULL%0,      Alexander W%Charney%NULL%0,      Benjamin S%Glicksberg%NULL%0,      Girish N%Nadkarni%NULL%0,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ D.%Qi%null%1,       X.% Yan%null%1,       X.% Tang%null%1,       J.% Peng%null%1,       Q.% Yu%null%1,       L.% Feng%null%1,       G.% Yuan%null%1,       A.% Zhang%null%1,       Y.% Chen%null%2,       J.% Yuan%null%1,       X.% Huang%null%1,       X.% Zhang%null%1,       P.% Hu%null%1,       Y.% Song%null%1,       C.% Qian%null%1,       Q.% Sun%null%1,       D.% Wang%null%1,       J.% Tong%null%1,       J. % Xiang%null%1]</t>
-  </si>
-  <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,      Kevin Bryan%Lo%NULL%0,      Kevin Bryan%Lo%NULL%0,      Fahad%Gul%NULL%0,      Eric%Peterson%NULL%0,      Robert%De Joy%NULL%0,      Ruchika%Bhargav%NULL%0,      Jerald%Pelayo%NULL%0,      Jeri%Albano%NULL%0,      Zurab%Azmaiparashvili%NULL%0,      Sadia%Benzaquen%NULL%0,      Gabriel%Patarroyo‐Aponte%NULL%0,      Janani%Rangaswami%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,      Mu%Qin%qinmuae@163.com%0,      Yuli%Cai%NULL%0,      Tao%Liu%NULL%0,      Bo%Shen%NULL%0,      Fan%Yang%NULL%0,      Sheng%Cao%NULL%0,      Xu%Liu%NULL%0,      Xu%Liu%NULL%0,      Yaozu%Xiang%NULL%0,      Qinyan%Zhao%NULL%0,      He%Huang%huanghe1977@whu.edu.cn%0,      Bo%Yang%yybb112@whu.edu.cn%0,      Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jennifer%Tomlins%NULL%1,      Fergus%Hamilton%NULL%1,      Samuel%Gunning%NULL%1,      Caitlin%Sheehy%NULL%1,      Ed%Moran%NULL%1,      Alastair%MacGowan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,      Yi%Xiang%NULL%0,      Wei%Fang%NULL%0,      Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,      Boqun%Li%279685211@qq.com%0,      Boqun%Li%279685211@qq.com%0,      Yanjun%Hu%huyanjun@163.com%0,      Chunhui%Lang%NULL%0,      Daoqiu%Huang%NULL%0,      Qiuyan%Sun%NULL%0,      Yan%Xiong%NULL%0,      Xia%Huang%NULL%0,      Jinglong%Lv%NULL%0,      Yaling%Luo%NULL%0,      Li%Shen%NULL%0,      Haoran%Yang%NULL%0,      Gu%Huang%NULL%0,      Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,     Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,     Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,     Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%5,      Wenbo%He%NULL%3,      Xiaomei%Yu%NULL%3,      Dalong%Hu%NULL%3,      Mingwei%Bao%NULL%3,      Huafen%Liu%NULL%3,      Jiali%Zhou%NULL%3,      Hong%Jiang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,      Bohan%Yang%NULL%0,      Qianwen%Li%NULL%0,      Lu%Wen%NULL%0,      Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Wu%J%coreGivesNoEmail%1,     Xu%Y%coreGivesNoEmail%1,     Zhanwei%Du%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,      Fen%Li%NULL%0,      Xiao%Wang%NULL%0,      Jie%Yan%NULL%0,      Fen%Zhu%NULL%0,      Shifan%Tang%NULL%0,      Yingzhong%Deng%NULL%0,      Hua%Wang%NULL%0,      Rui%Chen%NULL%0,      Zhili%Yu%NULL%0,      Yaping%Li%NULL%0,      Jingzhou%Shang%NULL%0,      Lingjun%Zeng%NULL%0,      Jie%Zhao%NULL%0,      Chaokun%Guan%NULL%0,      Qiaomei%Liu%NULL%0,      Haifeng%Chen%NULL%0,      Wei%Gong%NULL%0,      Xin%Huang%NULL%0,      Yu‐Jiao%Zhang%NULL%0,      Jianguang%Liu%NULL%0,      Xiaoyan%Dong%NULL%0,      Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,      Shaoping%Nie%spnie@126.com%0,      Dongsheng%Li%dongshengli196809@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Ping%Yang%NULL%1,      Pengfei%Wang%NULL%2,      Pengfei%Wang%NULL%0,      Yuyan%Song%NULL%1,      An%Zhang%zhangan@hospital.cqmu.edu.cn%1,      Guodan%Yuan%71502294@qq.com%1,      Yong%Cui%754605155@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,      Yuan%Yu%NULL%0,      Jiqian%Xu%NULL%0,      Huaqing%Shu%NULL%0,      Jia'an%Xia%NULL%0,      Hong%Liu%NULL%0,      Yongran%Wu%NULL%0,      Lu%Zhang%NULL%0,      Zhui%Yu%NULL%0,      Minghao%Fang%NULL%0,      Ting%Yu%NULL%0,      Yaxin%Wang%NULL%0,      Shangwen%Pan%NULL%0,      Xiaojing%Zou%NULL%0,      Shiying%Yuan%NULL%0,      You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,     Cao%Yi-yuan%coreGivesNoEmail%0,     Dong%Xiang%coreGivesNoEmail%0,     Gao%Ya-dong%coreGivesNoEmail%0,     Yan%You-qin%coreGivesNoEmail%0,     Yang%Yi-bin%coreGivesNoEmail%0,     Yuan%Ya-dong%coreGivesNoEmail%0,     Zhang%Jin-jin%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%3,      Chang%Hu%NULL%3,      Linjie%Luo%NULL%2,      Fang%Fang%NULL%4,      Yongfeng%Chen%NULL%2,      Jianguo%Li%NULL%2,      Zhiyong%Peng%NULL%0,      Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Jun%Zhang%NULL%1,      Miao%Yu%NULL%0,      Song%Tong%NULL%1,      Lu-Yu%Liu%NULL%1,      Liang-V.%Tang%lancet.tang@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,      Huangqing%Ouyang%NULL%1,      Lingli%Fu%NULL%1,      Shijie%Wang%NULL%1,      Jianglong%Han%NULL%1,      Kejie%Huang%NULL%1,      Mingfang%Jia%NULL%1,      Qibin%Song%NULL%1,      Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Zirun%Zhao%NULL%0,      Anne%Chen%NULL%0,      Wei%Hou%NULL%0,      James M.%Graham%NULL%0,      Haifang%Li%NULL%0,      Paul S.%Richman%NULL%0,      Henry C.%Thode%NULL%0,      Adam J.%Singer%NULL%0,      Tim Q.%Duong%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0,      Muhammad%Adrish%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%2,       Sarah%Al-Youha%sarahalyouha@gmail.com%1,       Mohammad H.%Jamal%NULL%1,       Mohannad%Al-Haddad%NULL%1,       Ali%Al-Muhaini%NULL%1,       Fahad%Al-Ghimlas%NULL%1,       Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,       Samuel L%Bruce%NULL%2,       Cody L%Slater%NULL%2,       Jonathan R%Tiao%NULL%2,       Matthew R%Baldwin%NULL%3,       R Graham%Barr%NULL%2,       Bernard P%Chang%NULL%2,       Katherine H%Chau%NULL%2,       Justin J%Choi%NULL%2,       Nicholas%Gavin%NULL%2,       Parag%Goyal%NULL%2,       Angela M%Mills%NULL%2,       Ashmi A%Patel%NULL%2,       Marie-Laure S%Romney%NULL%2,       Monika M%Safford%NULL%2,       Neil W%Schluger%NULL%2,       Soumitra%Sengupta%NULL%2,       Magdalena E%Sobieszczyk%NULL%2,       Jason E%Zucker%NULL%2,       Paul A%Asadourian%NULL%2,       Fletcher M%Bell%NULL%2,       Rebekah%Boyd%NULL%2,       Matthew F%Cohen%NULL%2,       MacAlistair I%Colquhoun%NULL%2,       Lucy A%Colville%NULL%2,       Joseph H%de Jonge%NULL%2,       Lyle B%Dershowitz%NULL%2,       Shirin A%Dey%NULL%2,       Katherine A%Eiseman%NULL%2,       Zachary P%Girvin%NULL%2,       Daniella T%Goni%NULL%2,       Amro A%Harb%NULL%2,       Nicholas%Herzik%NULL%2,       Sarah%Householder%NULL%2,       Lara E%Karaaslan%NULL%2,       Heather%Lee%NULL%2,       Evan%Lieberman%NULL%2,       Andrew%Ling%NULL%2,       Ree%Lu%NULL%2,       Arthur Y%Shou%NULL%2,       Alexander C%Sisti%NULL%2,       Zachary E%Snow%NULL%2,       Colin P%Sperring%NULL%2,       Yuqing%Xiong%NULL%2,       Henry W%Zhou%NULL%2,       Karthik%Natarajan%NULL%2,       George%Hripcsak%NULL%2,       Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,       Mark%Caridi-Scheible%NULL%5,       James M.%Blum%NULL%3,       Chad%Robichaux%NULL%3,       Colleen%Kraft%NULL%3,       Jesse T.%Jacob%NULL%3,       Craig S.%Jabaley%NULL%3,       David%Carpenter%NULL%3,       Roberta%Kaplow%NULL%3,       Alfonso C.%Hernandez-Romieu%NULL%3,       Max W.%Adelman%NULL%3,       Greg S.%Martin%NULL%3,       Craig M.%Coopersmith%NULL%3,       David J.%Murphy%NULL%3,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Juan%Berenguer%NULL%1,       Pablo%Ryan%NULL%0,       Jesús%Rodríguez-Baño%NULL%1,       Inmaculada%Jarrín%NULL%4,       Jordi%Carratalà%NULL%4,       Jerónimo%Pachón%NULL%0,       María%Yllescas%NULL%1,       José Ramón%Arriba%NULL%1,       NULL%NULL%NULL%0,       Esther%Aznar Muñoz%NULL%1,       Pedro%Gil Divasson%NULL%1,       Patricia%González Muñiz%NULL%1,       Clara%Muñoz Aguirre%NULL%1,       Juan Carlos%López%NULL%3,       Juan Carlos%López%NULL%0,       Juan Carlos%López%NULL%0,       Margarita%Ramírez-Schacke%NULL%1,       Isabel%Gutiérrez%NULL%1,       Francisco%Tejerina%NULL%1,       Teresa%Aldámiz-Echevarría%NULL%1,       Cristina%Díez%NULL%1,       Chiara%Fanciulli%NULL%1,       Leire%Pérez-Latorre%NULL%1,       Francisco%Parras%NULL%1,       Pilar%Catalán%NULL%1,       María E.%García-Leoni%NULL%1,       Isabel%Pérez-Tamayo%NULL%1,       Luis%Puente%NULL%1,       Jamil%Cedeño%NULL%1,       Juan%Berenguer%NULL%1,       Marta%Díaz Menéndez%NULL%3,       Marta%Díaz Menéndez%NULL%0,       Marta%Díaz Menéndez%NULL%0,       Fernando%de la Calle Prieto%NULL%1,       Marta%Arsuaga Vicente%NULL%1,       Elena%Trigo Esteban%NULL%1,       Mª del Mar%Lago Núñez%NULL%1,       Rosa%de Miguel Buckley%NULL%1,       Julen%Cadiñaños Loidi%NULL%1,       Carmen%Busca Arenzana%NULL%1,       Alfredo%Mican%NULL%1,       Marta%Mora Rillo%NULL%1,       Juan Carlos%Ramos Ramos%NULL%1,       Belén%Loeches Yagüe%NULL%1,       José Ignacio%Bernardino de la Serna%NULL%1,       Julio%García Rodríguez%NULL%1,       José Ramón%Arribas López%NULL%1,       Ana%Such Diaz%NULL%3,       Ana%Such Diaz%NULL%0,       Ana%Such Diaz%NULL%0,       Elena%Álvaro Alonso%NULL%1,       Elsa%Izquierdo García%NULL%1,       Juan%Torres Macho%NULL%1,       Guillermo%Cuevas Tascon%NULL%1,       Jesús%Troya García%NULL%1,       Beatriz%Mestre Gómez%NULL%1,       Eva%Jiménez González de Buitrago%NULL%1,       Inés%Fernández Jiménez%NULL%1,       Ana Josefa%Tebar Martínez%NULL%1,       Fátima%Brañas Baztán%NULL%1,       Jorge%Valencia de la Rosa%NULL%1,       Mario%Pérez Butragueño%NULL%1,       Marta%Alvarado Blasco%NULL%1,       Pablo%Ryan%NULL%0,       Mª Antonia%Sepúlveda Berrocal%NULL%3,       Mª Antonia%Sepúlveda Berrocal%NULL%0,       Mª Antonia%Sepúlveda Berrocal%NULL%0,       Carmen%Yera Bergua%NULL%1,       Pilar%Toledano Sierra%NULL%1,       Verónica%Cano Llorente%NULL%1,       Sadaf%Zafar Iqubal-Mirza%NULL%1,       Gema%Muñiz%NULL%1,       Inmaculada%Martín Pérez%NULL%1,       Helena%Mozas Moriñigo%NULL%1,       Ana%Alguacil%NULL%1,       María Paz%García Butenegro%NULL%1,       Ana Isabel%Peláez Ballesta%NULL%3,       Ana Isabel%Peláez Ballesta%NULL%0,       Ana Isabel%Peláez Ballesta%NULL%0,       Elena%Morcillo Rodríguez%NULL%1,       Josune%Goikoetxea Agirre%NULL%3,       Josune%Goikoetxea Agirre%NULL%0,       Josune%Goikoetxea Agirre%NULL%0,       María José%Blanco Vidal%NULL%1,       Javier%Nieto Arana%NULL%1,       Mikel%del Álamo Martínez de Lagos%NULL%1,       Isabel A.%Pérez Hernández%NULL%3,       Isabel A.%Pérez Hernández%NULL%0,       Isabel A.%Pérez Hernández%NULL%0,       Inés%Pérez Zapata%NULL%1,       Rafael%Silvariño Fernández%NULL%3,       Rafael%Silvariño Fernández%NULL%0,       Rafael%Silvariño Fernández%NULL%0,       Jon%Ugalde Espiñeira%NULL%1,       Víctor%Asensi Álvarez%NULL%3,       Víctor%Asensi Álvarez%NULL%0,       Víctor%Asensi Álvarez%NULL%0,       Lucia%Suárez Pérez%NULL%1,       Silvia%Suárez Diaz%NULL%1,       Carmen%Yllera Gutiérrez%NULL%1,       Vicente%Boix%NULL%3,       Vicente%Boix%NULL%0,       Vicente%Boix%NULL%0,       Marcos%Díez Martínez%NULL%1,       Melissa%Carreres Candela%NULL%1,       Cristina%Gómez-Ayerbe%NULL%3,       Cristina%Gómez-Ayerbe%NULL%0,       Cristina%Gómez-Ayerbe%NULL%0,       Javier%Sánchez-Lora%NULL%1,       José Luis%Velasco Garrido%NULL%1,       María%López-Jódar%NULL%1,       Jesús%Santos González%NULL%1,       Jesús%Ruiz Aragón%NULL%3,       Jesús%Ruiz Aragón%NULL%0,       Jesús%Ruiz Aragón%NULL%0,       Ianire%Virto Peña%NULL%1,       Vanessa%Alende Castro%NULL%3,       Vanessa%Alende Castro%NULL%0,       Vanessa%Alende Castro%NULL%0,       Ruth%Brea Aparicio%NULL%1,       Sonia%Vega Molpeceres%NULL%3,       Sonia%Vega Molpeceres%NULL%0,       Sonia%Vega Molpeceres%NULL%0,       Estel%Pons Viñas%NULL%1,       Oscar%del Río Pérez%NULL%3,       Oscar%del Río Pérez%NULL%0,       Oscar%del Río Pérez%NULL%0,       Silvia%Valero Rovira%NULL%1,       Judit%Villar-García%NULL%3,       Judit%Villar-García%NULL%0,       Judit%Villar-García%NULL%0,       Joan%Gómez-Junyent%NULL%1,       Hernando%Knobel%NULL%1,       María Cecilia%Cánepa%NULL%1,       Silvia%Castañeda Espinosa%NULL%1,       Luisa%Sorli Redò%NULL%1,       Roberto%Güerri-Fernández%NULL%1,       María%Milagro Montero%NULL%1,       Juan Pablo%Horcajada%NULL%1,       Elisa%García Vázquez%NULL%3,       Elisa%García Vázquez%NULL%0,       Elisa%García Vázquez%NULL%0,       Encarnación%Moral Escudero%NULL%1,       Alicia%Hernández Torres%NULL%1,       Esther%García Almodóvar%NULL%3,       Esther%García Almodóvar%NULL%0,       Esther%García Almodóvar%NULL%0,       Carmen%Sáez Barberá%NULL%3,       Carmen%Sáez Barberá%NULL%0,       Carmen%Sáez Barberá%NULL%0,       Zineb%Karroud%NULL%1,       José%Hernández Quero%NULL%3,       José%Hernández Quero%NULL%0,       José%Hernández Quero%NULL%0,       David%Vinuesa García%NULL%1,       José Luis%García Fogeda%NULL%1,       José Antonio%Peregrina%NULL%1,       María%Novella Mena%NULL%3,       María%Novella Mena%NULL%0,       María%Novella Mena%NULL%0,       Cristina%Hernández Gutiérrez%NULL%1,       José%Sanz Moreno%NULL%1,       Ramón%Pérez Tanoira%NULL%1,       Rodrigo%Sierra Rodríguez%NULL%1,       David%Alonso Menchén%NULL%1,       Aida%Gutiérrez García%NULL%1,       Alberto%Arranz Caso%NULL%1,       Juan%Cuadros González%NULL%1,       Melchor%Álvarez de Mon Soto%NULL%1,       Vicente Ferrer%Díaz de Brito Fernández%NULL%3,       Vicente Ferrer%Díaz de Brito Fernández%NULL%0,       Vicente Ferrer%Díaz de Brito Fernández%NULL%0,       Montserrat%Sanmarti Vilamala%NULL%1,       Aina%Gabarrell Pascuet%NULL%1,       Daniel%Molina Morant%NULL%1,       Sergio%España Cueto%NULL%1,       Jonathan%Cámara Fernández%NULL%1,       Albert%Sabater Gil%NULL%1,       Laura%Muñoz López%NULL%1,       Paula%Sáez Escolano%NULL%3,       Paula%Sáez Escolano%NULL%0,       Paula%Sáez Escolano%NULL%0,       Esperanza%Bejarano Tello%NULL%1,       Marco Antonio%Sempere Alcocer%NULL%3,       Marco Antonio%Sempere Alcocer%NULL%0,       Marco Antonio%Sempere Alcocer%NULL%0,       Salvador%Álvarez Martin%NULL%1,       Ignacio%De los Santos Gil%NULL%3,       Ignacio%De los Santos Gil%NULL%0,       Ignacio%De los Santos Gil%NULL%0,       Lucio%García-Fraile%NULL%1,       Miguel%Sampedro Núñez%NULL%1,       Ana%Barrios Blandino%NULL%1,       Carlos%Rodríguez Franco%NULL%1,       Daniel%Useros Brañas%NULL%1,       Almudena%Villa Martí%NULL%1,       Javier%Oliver Ortega%NULL%1,       Alexia%Costanza Espiño Álvarez%NULL%1,       Jesús%Sanz Sanz%NULL%1,       María%Rexach Fumaña%NULL%3,       María%Rexach Fumaña%NULL%0,       María%Rexach Fumaña%NULL%0,       Ivette%Abascal Cambras%NULL%1,       Ana del Cielo%Pérez Jaén%NULL%1,       Clara%Sala Jofre%NULL%3,       Clara%Sala Jofre%NULL%0,       Clara%Sala Jofre%NULL%0,       Susana%Casas Rodríguez%NULL%1,       Cecilia%Tortajada Alamilla%NULL%3,       Cecilia%Tortajada Alamilla%NULL%0,       Cecilia%Tortajada Alamilla%NULL%0,       Carmina%Oltra%NULL%1,       Mar%Masiá Canuto%NULL%3,       Mar%Masiá Canuto%NULL%0,       Mar%Masiá Canuto%NULL%0,       Félix%Gutiérrez Rodero%NULL%1,       Ana%Ferrer Ribera%NULL%3,       Ana%Ferrer Ribera%NULL%0,       Ana%Ferrer Ribera%NULL%0,       Carlos%Bea Serrano%NULL%1,       Miguel%Pedromingo Kus%NULL%3,       Miguel%Pedromingo Kus%NULL%0,       Miguel%Pedromingo Kus%NULL%0,       María Ángeles%Garcinuño%NULL%1,       Silvana%Fiorante%NULL%1,       Sergio%Pérez Pinto%NULL%1,       Pilar%Hernández Machín%NULL%3,       Pilar%Hernández Machín%NULL%0,       Pilar%Hernández Machín%NULL%0,       Alba%Alastrué Violeta%NULL%1,       María Carmen%Fariñas Álvarez%NULL%3,       María Carmen%Fariñas Álvarez%NULL%0,       María Carmen%Fariñas Álvarez%NULL%0,       Claudia%González Rico%NULL%1,       Francisco%Arnaiz de las Revillas%NULL%1,       Jorge%Calvo%NULL%1,       Mónica%Gozalo%NULL%1,       Francisco%Mora Gómez%NULL%3,       Francisco%Mora Gómez%NULL%0,       Francisco%Mora Gómez%NULL%0,       Ana%Milagro Beamonte%NULL%3,       Ana%Milagro Beamonte%NULL%0,       Ana%Milagro Beamonte%NULL%0,       Miriam%Latorre-Millán%NULL%1,       Antonio%Rezusta López%NULL%1,       Ana%Martínez Sapiña%NULL%1,       Yolanda%Meije%NULL%3,       Yolanda%Meije%NULL%0,       Yolanda%Meije%NULL%0,       Alejandra%Duarte Borges%NULL%1,       Julia%Pareja Coca%NULL%1,       Mercedes%Clemente Presas%NULL%1,       Juan Emilio%Losa García%NULL%3,       Juan Emilio%Losa García%NULL%0,       Juan Emilio%Losa García%NULL%0,       Ana%Vegas Serrano%NULL%1,       M. Teresa%Pérez-Rodríguez%NULL%3,       M. Teresa%Pérez-Rodríguez%NULL%0,       M. Teresa%Pérez-Rodríguez%NULL%0,       Alexandre%Pérez González%NULL%1,       Moncef%Belhassen-García%NULL%3,       Moncef%Belhassen-García%NULL%0,       Moncef%Belhassen-García%NULL%0,       Beatriz%Rodríguez-Alonso%NULL%1,       Amparo%López-Bernus%NULL%1,       Cristina%Carbonell%NULL%1,       Rafael%Torres Perea%NULL%3,       Rafael%Torres Perea%NULL%0,       Rafael%Torres Perea%NULL%0,       Juan%Cantón de Seoane%NULL%1,       Blanca%Alonso%NULL%1,       Sara Lidia%Kamal%NULL%1,       Lucia%Cajuela%NULL%1,       David%Roa%NULL%1,       Miguel%Cervero%NULL%1,       Alberto%Oreja%NULL%1,       Juan Pablo%Avilés%NULL%1,       Lidia%Martín%NULL%1,       Iván%Pelegrín Senent%NULL%3,       Iván%Pelegrín Senent%NULL%0,       Iván%Pelegrín Senent%NULL%0,       Rosana%Rouco Esteves Marques%NULL%1,       Jorge%Parra Ruiz%NULL%3,       Jorge%Parra Ruiz%NULL%0,       Jorge%Parra Ruiz%NULL%0,       Violeta%Ramos Sesma%NULL%1,       Jessica%Abadia Otero%NULL%3,       Jessica%Abadia Otero%NULL%0,       Jessica%Abadia Otero%NULL%0,       Juan%Salillas Hernando%NULL%3,       Juan%Salillas Hernando%NULL%0,       Juan%Salillas Hernando%NULL%0,       Robert%Torres Sánchez del Arco%NULL%1,       Miguel%Torralba González de Suso%NULL%1,       Alberto%Serrano Martínez%NULL%1,       Sergio%Gilaberte Reyzábal%NULL%1,       Marina%Pacheco Martínez-Atienza%NULL%1,       Mónica%Liébana Gómez%NULL%1,       Sara%Fernández Rodríguez%NULL%1,       Álvaro%Varela Plaza%NULL%1,       Henar%Calvo Sánchez%NULL%1,       Patricia%Martínez Martín%NULL%3,       Patricia%Martínez Martín%NULL%0,       Patricia%Martínez Martín%NULL%0,       Patricia%González- Ruano%NULL%1,       Eduardo%Malmierca Corral%NULL%1,       Isabel%Rábago Lorite%NULL%1,       Beatriz%Pérez-Monte Mínguez%NULL%1,       Ángeles%García Flores%NULL%3,       Ángeles%García Flores%NULL%0,       Ángeles%García Flores%NULL%0,       Pere%Comas Casanova%NULL%1,       Merce%Sirisi%NULL%3,       Merce%Sirisi%NULL%0,       Merce%Sirisi%NULL%0,       Richard%Rojas%NULL%1,       José Luis%Díaz de Tuesta del Arco%NULL%3,       José Luis%Díaz de Tuesta del Arco%NULL%0,       José Luis%Díaz de Tuesta del Arco%NULL%0,       Ruth%Figueroa Cerón%NULL%1,       Ander%González Sarria%NULL%1,       Remedios%Alemán Valls%NULL%3,       Remedios%Alemán Valls%NULL%0,       Remedios%Alemán Valls%NULL%0,       María del Mar%Alonso Socas%NULL%1,       Oscar%Sanz Peláez%NULL%3,       Oscar%Sanz Peláez%NULL%0,       Oscar%Sanz Peláez%NULL%0,       Karim%Mohamed Ramírez%NULL%1,       Melchor%Riera Jaume%NULL%3,       Melchor%Riera Jaume%NULL%0,       Melchor%Riera Jaume%NULL%0,       Helem Haydee%Vilchez%NULL%1,       Francesc%Albertí%NULL%1,       Ana Isabel%Cañabate%NULL%1,       Víctor J.%Moreno Cuerda%NULL%3,       Víctor J.%Moreno Cuerda%NULL%0,       Víctor J.%Moreno Cuerda%NULL%0,       Silvia%Álvarez Kaelis%NULL%1,       Beatriz%Álvarez Zapatero%NULL%1,       Alejandro%García García%NULL%1,       Elena%Isaba Ares%NULL%1,       Covadonga%Morcate Fernández%NULL%1,       Andrea%Pérez Rodríguez%NULL%1,       Lucía%Ramos Merino%NULL%3,       Lucía%Ramos Merino%NULL%0,       Lucía%Ramos Merino%NULL%0,       Laura%Castelo Corral%NULL%1,       María%Rodríguez Mahía%NULL%1,       Mónica%González Bardanca%NULL%1,       Efrén%Sánchez Vidal%NULL%1,       Enrique%Míguez Rey%NULL%1,       Javier%De la Torre Lima%NULL%3,       Javier%De la Torre Lima%NULL%0,       Javier%De la Torre Lima%NULL%0,       José Mª%García de Lomas Guerrero%NULL%1,       Elena%Morte%NULL%3,       Elena%Morte%NULL%0,       Elena%Morte%NULL%0,       Silvia%Loscos%NULL%1,       Ana%Camón%NULL%1,       Lucía%Gómez García%NULL%3,       Lucía%Gómez García%NULL%0,       Lucía%Gómez García%NULL%0,       Lucia%Boix Palop%NULL%1,       Beatriz%Dietl Gómez-Luengo%NULL%1,       Iris%Pedrola Gorrea%NULL%3,       Iris%Pedrola Gorrea%NULL%0,       Iris%Pedrola Gorrea%NULL%0,       Amparo%Blasco Claramunt%NULL%1,       Cristina%López Mestanza%NULL%3,       Cristina%López Mestanza%NULL%0,       Cristina%López Mestanza%NULL%0,       Esther%Fraile Villarejo%NULL%1,       Tomás%Tosco Núñez%NULL%3,       Tomás%Tosco Núñez%NULL%0,       Tomás%Tosco Núñez%NULL%0,       María%Aroca Ferri%NULL%1,       José Tomas%Algado Rabasa%NULL%3,       José Tomas%Algado Rabasa%NULL%0,       José Tomas%Algado Rabasa%NULL%0,       Ana María%Garijo Saiz%NULL%1,       Concepción%Amador Prous%NULL%1,       Jesús Rodriguez%Baño%NULL%3,       Jesús Rodriguez%Baño%NULL%0,       Jesús Rodriguez%Baño%NULL%0,       Pilar%Retamar%NULL%1,       Adoración%Valiente%NULL%1,       Luis E.%López-Cortés%NULL%1,       Jesús%Sojo%NULL%1,       Belén%Gutiérrez-Gutiérrez%NULL%1,       José%Bravo-Ferrer%NULL%1,       Elena%Salamanca%NULL%1,       Zaira R.%Palacios%NULL%1,       Patricia%Pérez-Palacios%NULL%1,       Enrique%Peral%NULL%1,       José Antonio%Pérez de León%NULL%1,       Jesús%Sánchez-Gómez%NULL%1,       Lucía%Marín-Barrera%NULL%1,       Domingo%García-Jiménez%NULL%1,       Jordi%Carratalà%NULL%0,       Jordi%Carratalà%NULL%0,       Jordi%Carratalà%NULL%0,       Gabriela%Abelenda-Alonso%NULL%1,       Carmen%Ardanuy%NULL%1,       Alba%Bergas%NULL%1,       Guillermo%Cuervo%NULL%1,       María Ángeles%Domínguez%NULL%1,       Miguel%Fernández-Huerta%NULL%1,       Carlota%Gudiol%NULL%1,       Laia%Lorenzo-Esteller%NULL%1,       Jordi%Niubó%NULL%1,       Sandra%Pérez-Recio%NULL%1,       Daniel%Podzamczer%NULL%1,       Miquel%Pujol%NULL%1,       Alexander%Rombauts%NULL%1,       Núria%Trullen%NULL%1,       Miguel%Salavert Lletí%NULL%3,       Miguel%Salavert Lletí%NULL%0,       Miguel%Salavert Lletí%NULL%0,       Iván%Castro Hernández%NULL%1,       Adriana%Hernández Belmonte%NULL%3,       Adriana%Hernández Belmonte%NULL%0,       Adriana%Hernández Belmonte%NULL%0,       Raquel%Martínez Goñi%NULL%1,       Marta%Navarro Vilasaró%NULL%3,       Marta%Navarro Vilasaró%NULL%0,       Marta%Navarro Vilasaró%NULL%0,       Sonia%Calzado Isbert%NULL%1,       Manuel%Cervantes García%NULL%1,       Aina%Gomila Grange%NULL%1,       Oriol%Gasch Blasi%NULL%1,       María Luisa%Machado Sicilia%NULL%1,       Eva%Van den Eynde Otero%NULL%1,       Luis%Falgueras López%NULL%1,       María del Carmen%Navarro Sáez%NULL%1,       Esteban%Martínez%NULL%3,       Esteban%Martínez%NULL%0,       Esteban%Martínez%NULL%0,       Mª Ángeles%Marcos%NULL%1,       Mar%Mosquera%NULL%1,       José Luis%Blanco%NULL%1,       Montserrat%Laguno%NULL%1,       Jhon%Rojas%NULL%1,       Ana%González-Cordón%NULL%1,       Alexy%Inciarte%NULL%1,       Berta%Torres%NULL%1,       Lorena%De la Mora%NULL%1,       Alex%Soriano%NULL%1,       Olalla%Martínez Macias%NULL%3,       Olalla%Martínez Macias%NULL%0,       Olalla%Martínez Macias%NULL%0,       Virginia%Pérez Doñate%NULL%1,       Alfonso%Cabello Úbeda%NULL%3,       Alfonso%Cabello Úbeda%NULL%0,       Alfonso%Cabello Úbeda%NULL%0,       Nerea%Carrasco Antón%NULL%1,       Beatriz%Álvarez Álvarez%NULL%1,       Elizabet%Petkova Saiz%NULL%1,       Miguel%Górgolas Hernández-Mora%NULL%1,       Laura%Prieto Pérez%NULL%1,       Irene%Carrillo Acosta%NULL%1,       Sara%Heili Frades%NULL%1,       Felipe%Villar Álvarez%NULL%1,       Ricardo%Fernández Roblas%NULL%1,       José María%Milicua Muñoz%NULL%1,       Virginia%Fernández Espinilla%NULL%3,       Virginia%Fernández Espinilla%NULL%0,       Virginia%Fernández Espinilla%NULL%0,       Carlos Jesús%Dueñas Gutiérrez%NULL%1,       Cristina%Hernán García%NULL%1,       Fernando%González-Romo%NULL%3,       Fernando%González-Romo%NULL%0,       Fernando%González-Romo%NULL%0,       Paloma%Merino Amador%NULL%1,       Alba%Rueda López%NULL%1,       Jorge%Martínez Jordán%NULL%1,       Sara%Medrano Pardo%NULL%1,       Irene%Díaz de la Torre%NULL%1,       Yolanda%Posada Franco%NULL%1,       Alberto%Delgado-Iribarren%NULL%1,       Joaquín%López-Contreras González%NULL%3,       Joaquín%López-Contreras González%NULL%0,       Joaquín%López-Contreras González%NULL%0,       Pablo%Pascual Alonso%NULL%1,       Virginia%Pomar Solchaga%NULL%1,       Nuria%Rabella García%NULL%1,       Natividad%Benito Hernández%NULL%1,       Pere%Domingo Pedrol%NULL%1,       Xavier%Bonfill Cosp%NULL%1,       Rafael%Padrós Selma%NULL%1,       Mireia%Puig Campmany%NULL%1,       Jordi%Mancebo Cortés%NULL%1,       Mercè%Gurguí Ferrer%NULL%1,       Melania%Íñigo Pestaña%NULL%3,       Melania%Íñigo Pestaña%NULL%0,       Melania%Íñigo Pestaña%NULL%0,       Alejandra%Pérez García%NULL%1,       Patricia%Sorní Moreno%NULL%3,       Patricia%Sorní Moreno%NULL%0,       Patricia%Sorní Moreno%NULL%0,       Nora%Izko Gartzia%NULL%1,       Francisco Javier%Membrillo de Novales%NULL%3,       Francisco Javier%Membrillo de Novales%NULL%0,       Francisco Javier%Membrillo de Novales%NULL%0,       María%Simón Sacristán%NULL%1,       Maribel%Zamora Cintas%NULL%1,       Yolanda%Martínez Martínez%NULL%1,       Pablo%Fernández-González%NULL%1,       Francisco%Alcántara Nicolás%NULL%1,       Alejandro%Aguirre Vila-Cora%NULL%1,       Elena%López Tizón%NULL%1,       Germán%Ramírez-Olivencia%NULL%1,       Miriam%Estébanez Muñoz%NULL%1,       Ester%Sáez de Adana Arróniz%NULL%3,       Ester%Sáez de Adana Arróniz%NULL%0,       Ester%Sáez de Adana Arróniz%NULL%0,       Joseba%Portu Zapirain%NULL%1,       Juan Carlos%Gainzarain Arana%NULL%1,       Zuriñe%Ortiz de Zárate Ibarra%NULL%1,       Miguel Ángel%Moran Rodríguez%NULL%1,       Andrés%Canut Blasco%NULL%1,       Silvia%Hernáez Crespo%NULL%1,       Leire%Balerdi Sarasola%NULL%1,       Cristina%Morales García%NULL%1,       Miguel%Corral Saracho%NULL%1,       Zeltia%Valcarce González%NULL%1,       Noelia%Arenal Andrés%NULL%3,       Noelia%Arenal Andrés%NULL%0,       Noelia%Arenal Andrés%NULL%0,       Raquel Elisa%Rodríguez Tarazona%NULL%1,       Laura%Iglesias Llorente%NULL%3,       Laura%Iglesias Llorente%NULL%0,       Laura%Iglesias Llorente%NULL%0,       Beatriz%Loureiro Rodríguez%NULL%1,       Adrián%Sánchez Montalvá%NULL%3,       Adrián%Sánchez Montalvá%NULL%0,       Adrián%Sánchez Montalvá%NULL%0,       Juan%Espinosa Pereiro%NULL%1,       Benito%Almirante%NULL%1,       Marta%Miarons%NULL%1,       Júlia%Sellarés%NULL%1,       María%Larrosa%NULL%1,       Sonia%García%NULL%1,       Blanca%Marzo%NULL%1,       Miguel%Villamarín%NULL%1,       Nuria%Fernández%NULL%1,       Conchita%Pérez-Jorge Peremarch%NULL%3,       Conchita%Pérez-Jorge Peremarch%NULL%0,       Conchita%Pérez-Jorge Peremarch%NULL%0,       Elena%Resino Foz%NULL%1,       Andrea%Espigares Correa%NULL%1,       Teresa%Álvarez de Espejo Montiel%NULL%1,       Iván%Navas Clemente%NULL%1,       María Isabel%Quijano Contreras%NULL%1,       Luis Alberto%Nieto Fernández del Campo%NULL%1,       Guillermo%Jiménez Álvarez%NULL%1,       Mercedes%Guillamón Sánchez%NULL%3,       Mercedes%Guillamón Sánchez%NULL%0,       Mercedes%Guillamón Sánchez%NULL%0,       Josefina%García García%NULL%1,       Constanza%Muñoz Hornero%NULL%3,       Constanza%Muñoz Hornero%NULL%0,       Constanza%Muñoz Hornero%NULL%0,       Ana%Mariño Callejo%NULL%3,       Ana%Mariño Callejo%NULL%0,       Ana%Mariño Callejo%NULL%0,       Nieves%Valcarce Pardeiro%NULL%1,       Alex%Smithson Amat%NULL%3,       Alex%Smithson Amat%NULL%0,       Alex%Smithson Amat%NULL%0,       Cristina%Chico Chumillas%NULL%1,       Adriana%Sánchez Serrano%NULL%3,       Adriana%Sánchez Serrano%NULL%0,       Adriana%Sánchez Serrano%NULL%0,       Eva Pilar%García Villalba%NULL%1,       Isabel%Jiménez Martínez%NULL%3,       Isabel%Jiménez Martínez%NULL%0,       Isabel%Jiménez Martínez%NULL%0,       Guillermo%Estrada Fernández%NULL%1,       María%Lorén Vargas%NULL%1,       Nuria%Parra Arribas%NULL%1,       Carmen%Martínez Cilleros%NULL%1,       Aránzazu%Villasante de la Puente%NULL%1,       Teresa%García Delange%NULL%1,       María José%Ruiz Rodríguez%NULL%1,       Marta%Robledo del Prado%NULL%1,       Juan Carlos%Abad Almendro%NULL%1,       José Román%Muñoz del Rey%NULL%3,       José Román%Muñoz del Rey%NULL%0,       José Román%Muñoz del Rey%NULL%0,       Montaña%Jiménez Álvaro%NULL%1,       Javier%Coy Coy%NULL%3,       Javier%Coy Coy%NULL%0,       Javier%Coy Coy%NULL%0,       Inmaculada%Poquet Catala%NULL%1,       Marta%Santos Peña%NULL%3,       Marta%Santos Peña%NULL%0,       Marta%Santos Peña%NULL%0,       Virginia%Naranjo Velasco%NULL%1,       Tamara%Manso Gómez%NULL%3,       Tamara%Manso Gómez%NULL%0,       Tamara%Manso Gómez%NULL%0,       Delia%Quilez Ágreda%NULL%1,       Gema%Barbeito Castiñeiras%NULL%3,       Gema%Barbeito Castiñeiras%NULL%0,       Gema%Barbeito Castiñeiras%NULL%0,       María Jesús%Domínguez Santalla%NULL%1,       Laura%Mao Martín%NULL%3,       Laura%Mao Martín%NULL%0,       Laura%Mao Martín%NULL%0,       Rodrigo%Alonso Navarro%NULL%1,       Jose David%Ampuero Martinich%NULL%1,       Raquel%Barrós González%NULL%1,       María Aránzazu%Galindo Martín%NULL%1,       Lourdes%Herrera Pacheco%NULL%1,       Rocío%Martínez Avilés%NULL%1,       Sara%Rodrigo González%NULL%1,       Cristóbal Manuel%Rodríguez Leal%NULL%1,       Eva María%Romay Lema%NULL%3,       Eva María%Romay Lema%NULL%0,       Eva María%Romay Lema%NULL%0,       Roi%Suárez Gil%NULL%1,       Maialen%Ibarguren Pinilla%NULL%3,       Maialen%Ibarguren Pinilla%NULL%0,       Maialen%Ibarguren Pinilla%NULL%0,       José María%Marimón Ortiz de Zárate%NULL%1,       Loreto%Vidaur Tello%NULL%1,       Xabier%Kortajarena Urkola%NULL%1,       Miriam%García Gómez%NULL%3,       Miriam%García Gómez%NULL%0,       Miriam%García Gómez%NULL%0,       Asier%Aranguren Arostegui%NULL%1,       Maria%Álvarez de Castro%NULL%3,       Maria%Álvarez de Castro%NULL%0,       Maria%Álvarez de Castro%NULL%0,       Cintia María%Martínez Mateu%NULL%1,       Francisco%Rodríguez Gómez%NULL%3,       Francisco%Rodríguez Gómez%NULL%0,       Francisco%Rodríguez Gómez%NULL%0,       Francisco%Muñoz Beamud%NULL%1,       Elena%Chamarro Martí%NULL%3,       Elena%Chamarro Martí%NULL%0,       Elena%Chamarro Martí%NULL%0,       Merce%Cardona Rivera%NULL%1,       Ismail%Zakariya-Yousef Breval%NULL%3,       Ismail%Zakariya-Yousef Breval%NULL%0,       Ismail%Zakariya-Yousef Breval%NULL%0,       Marta%Rico Rodríguez%NULL%1,       Jara%Llenas García%NULL%3,       Jara%Llenas García%NULL%0,       Jara%Llenas García%NULL%0,       Mª Carmen%Sánchez Arenas%NULL%1,       Ana%Fernández Cruz%NULL%3,       Ana%Fernández Cruz%NULL%0,       Ana%Fernández Cruz%NULL%0,       Jorge%Calderón Parra%NULL%1,       Marcos%López Dosil%NULL%1,       Antonio%Ramos Martínez%NULL%1,       Elena%Múñez Rubio%NULL%1,       Alejandro%Callejas Díaz%NULL%1,       José Manuel%Vázquez Comendador%NULL%1,       Itziar%Diego Yagüe%NULL%1,       Esther%Expósito Palomo%NULL%1,       Jorge%Anel Pedroche%NULL%1,       Raquel%Álvarez Franco%NULL%3,       Raquel%Álvarez Franco%NULL%0,       Raquel%Álvarez Franco%NULL%0,       Lucía%Fernández de Orueta%NULL%1,       Roberto%Vates Gómez%NULL%1,       Andrés Felipe%Cardona Arias%NULL%1,       Pablo%Marguenda Contreras%NULL%1,       Gabriel%Gaspar Alonso-Vega%NULL%1,       Elena María%Aranda Rife%NULL%1,       Blanca%Martínez Cifre%NULL%1,       Daniel%Roger Zapata%NULL%1,       Irene%Martín Rubio%NULL%1,       André%Barbosa Ventura%NULL%3,       André%Barbosa Ventura%NULL%0,       André%Barbosa Ventura%NULL%0,       Iván%Piñero%NULL%1,       Alberto%Bahamonde Carrasco%NULL%3,       Alberto%Bahamonde Carrasco%NULL%0,       Alberto%Bahamonde Carrasco%NULL%0,       Paula%Runza Buznego%NULL%1,       Eva%Talavera García%NULL%3,       Eva%Talavera García%NULL%0,       Eva%Talavera García%NULL%0,       Marta%Lamata Subero%NULL%1,       Ainhoa%Urrutia Losada%NULL%3,       Ainhoa%Urrutia Losada%NULL%0,       Ainhoa%Urrutia Losada%NULL%0,       Lorea%Arteche Eguizabal%NULL%1,       Elisabet%Delgado Sánchez%NULL%3,       Elisabet%Delgado Sánchez%NULL%0,       Elisabet%Delgado Sánchez%NULL%0,       Virginia%Molina Peinado%NULL%1,       Sarah%Caro Bragado%NULL%3,       Sarah%Caro Bragado%NULL%0,       Sarah%Caro Bragado%NULL%0,       Gema%Domínguez de Pablos%NULL%1,       Carolina%Roldán Fontana%NULL%3,       Carolina%Roldán Fontana%NULL%0,       Carolina%Roldán Fontana%NULL%0,       Carmen%Herrero Rodríguez%NULL%1,       Luis%Force Sanmartín%NULL%3,       Luis%Force Sanmartín%NULL%0,       Luis%Force Sanmartín%NULL%0,       Raquel%Aranega%NULL%1,       Arantzazu%Mera Fidalgo%NULL%3,       Arantzazu%Mera Fidalgo%NULL%0,       Arantzazu%Mera Fidalgo%NULL%0,       María Roca%Toda Savall%NULL%1,       Nicolas%Merchante Gutiérrez%NULL%3,       Nicolas%Merchante Gutiérrez%NULL%0,       Nicolas%Merchante Gutiérrez%NULL%0,       Eva María%León Jiménez%NULL%1,       José Luís%Del Pozo%NULL%3,       José Luís%Del Pozo%NULL%0,       José Luís%Del Pozo%NULL%0,       Josefa%Serralta Buades%NULL%3,       Josefa%Serralta Buades%NULL%0,       Josefa%Serralta Buades%NULL%0,       Ginger Giorgiana%Cabrera Tejada%NULL%1,       Mario%Fernández-Ruiz%NULL%4,       Mario%Fernández-Ruiz%NULL%0,       Mario%Fernández-Ruiz%NULL%0,       José María%Aguado%NULL%1,       Guillermo%Maestro de la Calle%NULL%1,       José Miguel%Cisneros%NULL%0,       José Miguel%Cisneros%NULL%0,       José Miguel%Cisneros%NULL%0,       Jerónimo%Pachón%NULL%0,       Manuela%Aguilar-Guisado%NULL%1,       Teresa%Aldabó%NULL%1,       María Dolores%Avilés%NULL%0,       Claudio%Bueno%NULL%1,       Elisa%Cordero-Matía%NULL%1,       Ana%Escoresca%NULL%1,       Lydia%Gálvez-Benítez%NULL%1,       Carmen%Infante%NULL%1,       Guillermo%Martín%NULL%1,       Julia%Praena%NULL%1,       Cristina%Roca%NULL%1,       Celia%Salamanca%NULL%1,       Alejandro%Suárez-Benjumea%NULL%1,       Pilar%Vizcarra%NULL%3,       Pilar%Vizcarra%NULL%0,       Pilar%Vizcarra%NULL%0,       Carmen%Quereda%NULL%1,       Mario José%Rodriguez Dominguez%NULL%1,       Francesca%Gioia%NULL%1,       Francesca%Norman%NULL%1,       Santos%Del Campo%NULL%1,       Rafael%Cantón Moreno%NULL%1,       Antonio%Oteo Revuelta José%NULL%3,       Antonio%Oteo Revuelta José%NULL%0,       Antonio%Oteo Revuelta José%NULL%0,       Paula%Santibáñez Sáenz%NULL%1,       Cristina%Cervera Acedo%NULL%1,       Carlos%Ruiz Martínez%NULL%1,       José R.%Blanco Ramos%NULL%1,       José M.%Azcona Gutiérrez%NULL%1,       Concepción%García García%NULL%1,       Jorge%Alba Fernández%NULL%1,       Valvanera%Ibarra Cucalón%NULL%1,       Mercedes%San Franco%NULL%1,       Luis%Metola Sacristán%NULL%1,       Héctor%Meijide Míguez%NULL%3,       Héctor%Meijide Míguez%NULL%0,       Héctor%Meijide Míguez%NULL%0,       Silvia%Paulos Viñas%NULL%1,       Justo%Menéndez%NULL%3,       Justo%Menéndez%NULL%0,       Justo%Menéndez%NULL%0,       Paula%Villares Fernández%NULL%1,       Lara%Montes Andújar%NULL%1,       Álvaro%Navarro Batet%NULL%3,       Álvaro%Navarro Batet%NULL%0,       Álvaro%Navarro Batet%NULL%0,       Anna%Ferrer Santolaria%NULL%1,       María de la Luz%Padilla Salazar%NULL%3,       María de la Luz%Padilla Salazar%NULL%0,       María de la Luz%Padilla Salazar%NULL%0,       Lucy%Abella Vázquez%NULL%1,       Marcelino%Hayek Peraza%NULL%1,       Antonio%García Pardo%NULL%1,       Carolina%Hernández Carballo%NULL%1,       Andrés Javier%Ruiz Fernández%NULL%3,       Andrés Javier%Ruiz Fernández%NULL%0,       Andrés Javier%Ruiz Fernández%NULL%0,       Isabel%Barrio López%NULL%1,       Alí%Martakoush%NULL%3,       Alí%Martakoush%NULL%0,       Alí%Martakoush%NULL%0,       Agustín%Rojas-Vieyra%NULL%3,       Agustín%Rojas-Vieyra%NULL%0,       Agustín%Rojas-Vieyra%NULL%0,       Sonia%García Calvo%NULL%3,       Sonia%García Calvo%NULL%0,       Sonia%García Calvo%NULL%0,       Mercedes%Villarreal García-Lomas%NULL%1,       Marta%Vizcaíno Callejón%NULL%3,       Marta%Vizcaíno Callejón%NULL%0,       Marta%Vizcaíno Callejón%NULL%0,       María Pilar%García García%NULL%1,       Ana%Lérida Urteaga%NULL%3,       Ana%Lérida Urteaga%NULL%0,       Ana%Lérida Urteaga%NULL%0,       Natalia%Carrasco Fons%NULL%1,       Beatriz%María Sanjuan%NULL%1,       Lydia%Martín González%NULL%1,       Camilo%Sanz Zamudio%NULL%1,       Inmaculada%Jarrín%NULL%0,       Inmaculada%Jarrín%NULL%0,       Inmaculada%Jarrín%NULL%0,       Belén%Alejos%NULL%1,       Cristina%Moreno%NULL%1,       Marta%Rava%NULL%1,       Carlos%Iniesta%NULL%1,       Rebeca%Izquierdo%NULL%1,       Inés%Suárez-García%NULL%1,       Asunción%Díaz%NULL%1,       Marta%Ruiz-Alguero%NULL%1,       Victoria%Hernando%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,       Denise J%McCulloch%NULL%0,       Denise J%McCulloch%NULL%0,       Vidya%Atluri%NULL%0,       Michela%Blain%NULL%0,       Sarah A%McGuffin%NULL%0,       Arun K%Nalla%NULL%0,       Meei-Li%Huang%NULL%0,       Alex L%Greninger%NULL%0,       Keith R%Jerome%NULL%0,       Seth A%Cohen%NULL%0,       Santiago%Neme%NULL%0,       Margaret L%Green%NULL%0,       Helen Y%Chu%NULL%0,       H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,       Wenlin%Cheng%NULL%0,       Lei%Yu%NULL%0,       Ya-Kun%Liu%NULL%0,       Xiaoyong%Hu%NULL%0,       Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,       Alberto%Zucchelli%NULL%1,       Marinella%Turla%NULL%1,       Maria Sofia%Cotelli%NULL%1,       Sara%Fascendini%NULL%1,       Mara%Zanni%NULL%1,       Angelo%Bianchetti%NULL%1,       Matteo Peli%Psy%NULL%1,       Renzo%Rozzini%NULL%1,       Stefano%Boffelli%NULL%1,       Melania%Cappuccio%NULL%1,       Federica Gottardi%Psy%NULL%1,       Chiara Vecchi%Psy%NULL%1,       Daniele%Bellandi%NULL%1,       Claudia%Caminati%NULL%1,       Simona%Gentile%NULL%1,       Elena Lucchi%Psy%NULL%1,       Ignazio%Di Fazio%NULL%1,       Marina Zanetti%Psy%NULL%1,       Giuliana%Vezzadini%NULL%1,       Chiara Forlani%Psy%NULL%1,       Maura Cosseddu%Psy%NULL%1,       Rosanna Turrone%Psy%NULL%1,       Silvia Pelizzari%Psy%NULL%1,       Andrea%Scalvini%NULL%1,       Marco%Di Cesare%NULL%1,       Marta Grigolo%Psy%NULL%1,       Lina%Falanga%NULL%1,       Nives%Medici%NULL%1,       Nives%Palamini%NULL%1,       Elisa Zanacchi%Psy%NULL%1,       Eleonora Grossi%Psy%NULL%1,       Giuseppe%Bellelli%NULL%1,       Alessandra%Marengoni%NULL%1,       Marco%Trabucchi%NULL%1,       Alessandro%Padovani%alessandro.padovani@unibs.it%1,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0,       Nancy%Chow%NULL%2,       Katherine%Fleming-Dutra%NULL%1,       Ryan%Gierke%NULL%2,       Aron%Hall%NULL%2,       Michelle%Hughes%NULL%1,       Tamara%Pilishvili%NULL%2,       Matthew%Ritchey%NULL%2,       Katherine%Roguski%NULL%1,       Tami%Skoff%NULL%1,       Emily%Ussery%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,       Zhencang%Zheng%NULL%1,       Chao%Zhang%NULL%1,       Xijiang%Zhang%NULL%1,       Huijuan%Wu%NULL%1,       Jingdong%Wang%NULL%1,       Shuwei%Wang%NULL%1,       Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,       Wei%Liu%NULL%0,       Kui%Liu%NULL%0,       Yuan-Yuan%Fang%NULL%0,       Jin%Shang%NULL%0,       Ling%Zhou%NULL%0,       Ke%Wang%NULL%0,       Fan%Leng%NULL%0,       Shuang%Wei%NULL%0,       Lei%Chen%NULL%0,       Hui-Guo%Liu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nathalie%Nicolay%NULL%1,       Francesco%Innocenti%NULL%1,       Julien%Beauté%NULL%1,       Veronika%Učakar%NULL%1,       Marta%Grgič Vitek%NULL%1,       Eero%Poukka%NULL%1,       Tuula%Hannila-Handelberg%NULL%1,       Charmaine%Gauci%NULL%1,       Tanya%Melillo%NULL%1,       Theano%Georgakopoulou%NULL%1,       Jiri%Jarkovsky%NULL%1,       Pavel%Slezak%NULL%1,       Concepción%Delgado-Sanz%NULL%1,       Carmen%Olmedo-Lucerón%NULL%1,       Heleene%Suija%NULL%1,       Rasa%Liausediene%NULL%1,       Piaras%O’Lorcain%NULL%1,       Niamh%Murphy%NULL%1,       André%Peralta-Santos%NULL%1,       Pedro%Casaca%NULL%1,       Ioanna%Gregoriou%NULL%1,       Nick%Bundle%NULL%1,       Gianfranco%Spiteri%NULL%1,       Giovanni%Ravasi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Feng%NULL%2,       Peiyun%Li%NULL%1,       Liang%Ma%NULL%1,       Hang%Liang%NULL%1,       Jie%Lei%NULL%1,       Wenqiang%Li%NULL%1,       Kun%Wang%NULL%1,       Yu%Song%NULL%1,       Shuai%Li%NULL%1,       Wei%Yang%NULL%0,       Cao%Yang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yun%Feng%NULL%0,       Yun%Ling%NULL%0,       Yun%Ling%NULL%0,       Tao%Bai%NULL%2,       Tao%Bai%NULL%0,       Yusang%Xie%NULL%1,       Jie%Huang%NULL%2,       Jie%Huang%NULL%0,       Jian%Li%NULL%1,       Weining%Xiong%NULL%1,       Dexiang%Yang%NULL%1,       Rong%Chen%NULL%1,       Fangying%Lu%NULL%1,       Yunfei%Lu%NULL%1,       Xuhui%Liu%NULL%1,       Yuqing%Chen%NULL%2,       Yuqing%Chen%NULL%0,       Xin%Li%NULL%1,       Yong%Li%NULL%0,       Hanssa Dwarka%Summah%NULL%1,       Huihuang%Lin%NULL%1,       Jiayang%Yan%NULL%1,       Min%Zhou%NULL%0,       Hongzhou%Lu%NULL%0,       Hongzhou%Lu%NULL%0,       Jieming%Qu%NULL%0,       Jieming%Qu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Paolo%Giorgi Rossi%NULL%0,       Massimiliano%Marino%NULL%0,       Debora%Formisano%NULL%0,       Francesco%Venturelli%NULL%0,       Massimo%Vicentini%NULL%0,       Massimo%Vicentini%NULL%0,       Roberto%Grilli%NULL%0,       NULL%NULL%NULL%0,       Gianluigi%Forloni%NULL%8,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0,       Gianluigi%Forloni%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,       Justin J.%Choi%NULL%0,       Laura C.%Pinheiro%NULL%0,       Edward J.%Schenck%NULL%0,       Ruijun%Chen%NULL%0,       Assem%Jabri%NULL%0,       Michael J.%Satlin%NULL%0,       Thomas R.%Campion%NULL%0,       Musarrat%Nahid%NULL%0,       Joanna B.%Ringel%NULL%0,       Katherine L.%Hoffman%NULL%0,       Mark N.%Alshak%NULL%0,       Han A.%Li%NULL%0,       Graham T.%Wehmeyer%NULL%0,       Graham T.%Wehmeyer%NULL%0,       Mangala%Rajan%NULL%0,       Evgeniya%Reshetnyak%NULL%0,       Nathaniel%Hupert%NULL%0,       Evelyn M.%Horn%NULL%0,       Fernando J.%Martinez%NULL%0,       Roy M.%Gulick%NULL%0,       Monika M.%Safford%NULL%0,       Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jonathan%Grein%NULL%1,       Norio%Ohmagari%NULL%1,       Daniel%Shin%NULL%1,       George%Diaz%NULL%1,       Erika%Asperges%NULL%1,       Antonella%Castagna%NULL%0,       Torsten%Feldt%NULL%1,       Gary%Green%NULL%1,       Margaret L.%Green%NULL%1,       François-Xavier%Lescure%NULL%1,       Emanuele%Nicastri%NULL%1,       Rentaro%Oda%NULL%2,       Rentaro%Oda%NULL%0,       Kikuo%Yo%NULL%2,       Kikuo%Yo%NULL%0,       Eugenia%Quiros-Roldan%NULL%1,       Alex%Studemeister%NULL%1,       John%Redinski%NULL%1,       Seema%Ahmed%NULL%1,       Jorge%Bernett%NULL%1,       Daniel%Chelliah%NULL%1,       Danny%Chen%NULL%1,       Shingo%Chihara%NULL%1,       Stuart H.%Cohen%NULL%1,       Jennifer%Cunningham%NULL%1,       Antonella%D’Arminio Monforte%NULL%1,       Saad%Ismail%NULL%1,       Hideaki%Kato%NULL%1,       Giuseppe%Lapadula%NULL%1,       Erwan%L’Her%NULL%1,       Toshitaka%Maeno%NULL%1,       Sumit%Majumder%NULL%1,       Marco%Massari%NULL%0,       Marta%Mora-Rillo%NULL%1,       Yoshikazu%Mutoh%NULL%1,       Duc%Nguyen%NULL%1,       Ewa%Verweij%NULL%1,       Alexander%Zoufaly%NULL%1,       Anu O.%Osinusi%NULL%1,       Adam%DeZure%NULL%1,       Yang%Zhao%NULL%1,       Lijie%Zhong%NULL%1,       Anand%Chokkalingam%NULL%1,       Emon%Elboudwarej%NULL%1,       Laura%Telep%NULL%1,       Leighann%Timbs%NULL%1,       Ilana%Henne%NULL%1,       Scott%Sellers%NULL%1,       Huyen%Cao%NULL%1,       Susanna K.%Tan%NULL%1,       Lucinda%Winterbourne%NULL%1,       Polly%Desai%NULL%1,       Robertino%Mera%NULL%1,       Anuj%Gaggar%NULL%1,       Robert P.%Myers%NULL%1,       Diana M.%Brainard%NULL%1,       Richard%Childs%NULL%1,       Timothy%Flanigan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,       Zheng-yi%Ni%NULL%0,       Zheng-yi%Ni%NULL%0,       Yu%Hu%NULL%0,       Wen-hua%Liang%NULL%0,       Chun-quan%Ou%NULL%0,       Jian-xing%He%NULL%0,       Lei%Liu%NULL%0,       Hong%Shan%NULL%0,       Chun-liang%Lei%NULL%0,       David S.C.%Hui%NULL%0,       Bin%Du%NULL%0,       Lan-juan%Li%NULL%0,       Guang%Zeng%NULL%0,       Kwok-Yung%Yuen%NULL%0,       Ru-chong%Chen%NULL%0,       Chun-li%Tang%NULL%0,       Tao%Wang%NULL%0,       Ping-yan%Chen%NULL%0,       Jie%Xiang%NULL%0,       Shi-yue%Li%NULL%0,       Jin-lin%Wang%NULL%0,       Zi-jing%Liang%NULL%0,       Yi-xiang%Peng%NULL%0,       Li%Wei%NULL%0,       Yong%Liu%NULL%0,       Ya-hua%Hu%NULL%0,       Peng%Peng%NULL%0,       Jian-ming%Wang%NULL%0,       Ji-yang%Liu%NULL%0,       Zhong%Chen%NULL%0,       Gang%Li%NULL%0,       Zhi-jian%Zheng%NULL%0,       Shao-qin%Qiu%NULL%0,       Jie%Luo%NULL%0,       Chang-jiang%Ye%NULL%0,       Shao-yong%Zhu%NULL%0,       Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Admon%Andrew J.%coreGivesNoEmail%1,      Arunthamakun%Justin%coreGivesNoEmail%1,      Athavale%Ambarish M.%coreGivesNoEmail%1,      Bansal%Anip%coreGivesNoEmail%1,      Brenner%Samantha K.%coreGivesNoEmail%1,      Chan%Lili%coreGivesNoEmail%1,      Donnelly%John P.%coreGivesNoEmail%1,      Friedman%Allon N.%coreGivesNoEmail%1,      Gershengorn%Hayley B.%coreGivesNoEmail%1,      Goyal%Nitender%coreGivesNoEmail%1,      Green%Adam%coreGivesNoEmail%1,      Gupta%Shruti%coreGivesNoEmail%1,      Hayek%Salim S.%coreGivesNoEmail%1,      Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,      Kibbelaar%Zoe A.%coreGivesNoEmail%1,      Leaf%David E.%coreGivesNoEmail%1,      Leonberg-Yoo%Amanda%coreGivesNoEmail%1,      Mathews%Kusum S.%coreGivesNoEmail%1,      Melamed%Michal L.%coreGivesNoEmail%1,      Omar%Samah Abu%coreGivesNoEmail%1,      Parikh%Chirag R.%coreGivesNoEmail%1,      Radbel%Jared%coreGivesNoEmail%1,      Reiser%Jochen%coreGivesNoEmail%1,      Schenck%Edward J.%coreGivesNoEmail%1,      Semler%Matthew W.%coreGivesNoEmail%1,      Shaefi%Shahzad%coreGivesNoEmail%1,      Shehata%Alexandre M.%coreGivesNoEmail%1,      Short%Samuel A. P.%coreGivesNoEmail%1,      Srivastava%Anand%coreGivesNoEmail%1,      Sutherland%Anne%coreGivesNoEmail%1,      Velez%Juan Carlos Q.%coreGivesNoEmail%1,      Vijayan%Anitha%coreGivesNoEmail%1,      Wang%Wei%coreGivesNoEmail%1,      Zhou%Yan%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Rahmet%GÜNER%NULL%1,       İmran%HASANOĞLU%NULL%2,       İmran%HASANOĞLU%NULL%0,       Bircan%KAYAASLAN%NULL%2,       Bircan%KAYAASLAN%NULL%0,       Adalet%AYPAK%NULL%2,       Adalet%AYPAK%NULL%0,       Ayşe%KAYA KALEM%NULL%2,       Ayşe%KAYA KALEM%NULL%0,       Fatma%ESER%NULL%2,       Fatma%ESER%NULL%0,       Burcu%ÖZDEMİR%NULL%2,       Burcu%ÖZDEMİR%NULL%0,       Elif Mükime%SARICAOĞLU%NULL%2,       Elif Mükime%SARICAOĞLU%NULL%0,       Müge%AYHAN%NULL%2,       Müge%AYHAN%NULL%0,       Yeşim%AYBAR BİLİR%NULL%2,       Yeşim%AYBAR BİLİR%NULL%0,       Işıl%ÖZKOÇAK TURAN%NULL%2,       Işıl%ÖZKOÇAK TURAN%NULL%0,       Deniz%ERDEM%NULL%2,       Deniz%ERDEM%NULL%0,       Nevzat Mehmet%MUTLU%NULL%1,       Turan%BUZGAN%NULL%2,       Turan%BUZGAN%NULL%0,       Bedia%DİNÇ%NULL%2,       Bedia%DİNÇ%NULL%0,       Esragül%AKINCI%NULL%2,       Esragül%AKINCI%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Stephanie L.%Harrison%NULL%1,       Elnara%Fazio-Eynullayeva%NULL%2,       Elnara%Fazio-Eynullayeva%NULL%0,       Deirdre A.%Lane%NULL%2,       Deirdre A.%Lane%NULL%0,       Paula%Underhill%NULL%2,       Paula%Underhill%NULL%0,       Gregory Y. H.%Lip%NULL%1,       Mirjam E. E.%Kretzschmar%NULL%3,       Mirjam E. E.%Kretzschmar%NULL%0,       Mirjam E. E.%Kretzschmar%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yuanzhou%He%NULL%1,       Min%Xie%NULL%3,       Jianping%Zhao%NULL%0,       Xiansheng%Liu%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Ling%Hu%NULL%0,       Shaoqiu%Chen%NULL%0,       Yuanyuan%Fu%NULL%0,       Zitong%Gao%NULL%0,       Hui%Long%NULL%0,       Jian-ming%Wang%NULL%0,       Hong-wei%Ren%NULL%0,       Yi%Zuo%NULL%0,       Huan%Li%NULL%0,       Jie%Wang%NULL%0,       Qing-bang%Xu%NULL%0,       Wen-xiong%Yu%NULL%0,       Jia%Liu%NULL%0,       Chen%Shao%NULL%0,       Jun-jie%Hao%NULL%0,       Chuan-zhen%Wang%NULL%0,       Yao%Ma%NULL%0,       Zhanwei%Wang%NULL%0,       Richard%Yanagihara%NULL%0,       Youping%Deng%dengy@hawaii.edu%0]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,       Yeming%Wang%NULL%0,       Xingwang%Li%NULL%0,       Lili%Ren%NULL%0,       Jianping%Zhao%NULL%0,       Yi%Hu%NULL%0,       Li%Zhang%NULL%0,       Guohui%Fan%NULL%0,       Jiuyang%Xu%NULL%0,       Xiaoying%Gu%NULL%0,       Zhenshun%Cheng%NULL%0,       Ting%Yu%NULL%0,       Jiaan%Xia%NULL%0,       Yuan%Wei%NULL%0,       Wenjuan%Wu%NULL%0,       Xuelei%Xie%NULL%0,       Wen%Yin%NULL%0,       Hui%Li%NULL%0,       Min%Liu%NULL%0,       Yan%Xiao%NULL%0,       Hong%Gao%NULL%0,       Li%Guo%NULL%0,       Jungang%Xie%NULL%0,       Guangfa%Wang%NULL%0,       Rongmeng%Jiang%NULL%0,       Zhancheng%Gao%NULL%0,       Qi%Jin%NULL%0,       Jianwei%Wang%wangjw28@163.com%0,       Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,      Bayani%Masomeh%coreGivesNoEmail%1,      Bijani%Ali%coreGivesNoEmail%1,      Ebrahimpour%Soheil%coreGivesNoEmail%1,      Gholinejad%Hossein Emam%coreGivesNoEmail%1,      Ghorbani%Hossein%coreGivesNoEmail%1,      Hasanpour%Amir Hossein%coreGivesNoEmail%1,      Javanian%Mostafa%coreGivesNoEmail%1,      Masrour-Roudsari%Jila%coreGivesNoEmail%1,      Mehraeen%Rahele%coreGivesNoEmail%1,      Mohseni%Sima%coreGivesNoEmail%1,      Rostami%Ali%coreGivesNoEmail%1,      Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,      Sepidarkish%Mahdi%coreGivesNoEmail%1,      Shabani%Asieh%coreGivesNoEmail%1,      Shahbazi%Mehdi%coreGivesNoEmail%1,      Shokri%Mehran%coreGivesNoEmail%1,      Tabari%Afrooz Monadi%coreGivesNoEmail%1,      Yeganeh%Babak%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Filippo%Lagi%NULL%1,       Matteo%Piccica%NULL%1,       Lucia%Graziani%NULL%1,       Iacopo%Vellere%NULL%1,       Annarita%Botta%NULL%1,       Marta%Tilli%NULL%1,       Letizia%Ottino%NULL%1,       Beatrice%Borchi%NULL%1,       Marco%Pozzi%NULL%1,       Filippo%Bartalesi%NULL%1,       Jessica%Mencarini%NULL%1,       Michele%Spinicci%NULL%1,       Lorenzo%Zammarchi%NULL%1,       Filippo%Pieralli%NULL%1,       Giovanni%Zagli%NULL%1,       Carlo%Nozzoli%NULL%1,       Stefano%Romagnoli%NULL%1,       Alessandro%Bartoloni%NULL%1,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,       Zhao-Wu%Tao%NULL%0,       Lei%Wang%NULL%0,       Ming-Li%Yuan%NULL%0,       Kui%Liu%NULL%0,       Ling%Zhou%NULL%0,       Shuang%Wei%NULL%0,       Yan%Deng%NULL%0,       Jing%Liu%NULL%0,       Hui-Guo%Liu%NULL%0,       Ming%Yang%NULL%0,       Yi%Hu%NULL%0,       Pei-Fang%Wei%NULL%0,       Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaochen%Li%NULL%0,       Shuyun%Xu%NULL%2,       Muqing%Yu%NULL%2,       Ke%Wang%NULL%0,       Yu%Tao%NULL%0,       Ying%Zhou%NULL%0,       Jing%Shi%NULL%2,       Min%Zhou%NULL%0,       Bo%Wu%NULL%2,       Zhenyu%Yang%NULL%2,       Cong%Zhang%NULL%0,       Junqing%Yue%NULL%2,       Zhiguo%Zhang%NULL%2,       Harald%Renz%NULL%2,       Xiansheng%Liu%NULL%0,       Jungang%Xie%NULL%0,       Min%Xie%NULL%0,       Jianping%Zhao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yang-kai%Li%doclyk@163.com%1,       Shu%Peng%NULL%1,       Le-qun%Li%NULL%1,       Qi%Wang%NULL%1,       Wei%Ping%NULL%1,       Ni%Zhang%NULL%1,       Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,       Yuanyuan%Xing%NULL%0,       Yu%Xiao%NULL%0,       Liping%Deng%NULL%0,       Qiu%Zhao%NULL%0,       Hongling%Wang%NULL%0,       Yong%Xiong%NULL%0,       Zhenshun%Cheng%NULL%0,       Shicheng%Gao%NULL%0,       Ke%Liang%NULL%0,       Mingqi%Luo%NULL%0,       Tielong%Chen%NULL%0,       Shihui%Song%NULL%0,       Zhiyong%Ma%NULL%0,       Xiaoping%Chen%NULL%0,       Ruiying%Zheng%NULL%0,       Qian%Cao%NULL%0,       Fan%Wang%fanndywang@foxmail.com%0,       Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,       Nicolas%Lopez-Villalobos%NULL%1,       Francisco E.%Parra-Bracamonte%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ishan%Paranjpe%NULL%2,       Adam J%Russak%NULL%0,       Adam J%Russak%NULL%0,       Jessica K%De Freitas%NULL%0,       Anuradha%Lala%NULL%0,       Riccardo%Miotto%NULL%0,       Akhil%Vaid%NULL%0,       Kipp W%Johnson%NULL%0,       Matteo%Danieletto%NULL%0,       Eddye%Golden%NULL%0,       Dara%Meyer%NULL%0,       Manbir%Singh%NULL%0,       Sulaiman%Somani%NULL%0,       Arjun%Kapoor%NULL%1,       Ross%O'Hagan%NULL%1,       Sayan%Manna%NULL%1,       Udit%Nangia%NULL%1,       Suraj K%Jaladanki%NULL%1,       Paul%O’Reilly%NULL%2,       Paul%O’Reilly%NULL%0,       Laura M%Huckins%NULL%1,       Patricia%Glowe%NULL%1,       Arash%Kia%NULL%0,       Prem%Timsina%NULL%0,       Robert M%Freeman%NULL%1,       Matthew A%Levin%NULL%0,       Jeffrey%Jhang%NULL%0,       Adolfo%Firpo%NULL%1,       Patricia%Kovatch%NULL%0,       Joseph%Finkelstein%NULL%0,       Judith A%Aberg%NULL%0,       Emilia%Bagiella%NULL%0,       Carol R%Horowitz%NULL%0,       Barbara%Murphy%NULL%0,       Zahi A%Fayad%NULL%0,       Jagat%Narula%NULL%0,       Eric J%Nestler%NULL%0,       V%Fuster%NULL%1,       Carlos%Cordon-Cardo%NULL%0,       Dennis%Charney%NULL%1,       David L%Reich%NULL%0,       Allan%Just%NULL%1,       Erwin P%Bottinger%NULL%0,       Alexander W%Charney%NULL%0,       Benjamin S%Glicksberg%NULL%0,       Girish N%Nadkarni%NULL%0,       NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ D.%Qi%null%1,        X.% Yan%null%1,        X.% Tang%null%1,        J.% Peng%null%1,        Q.% Yu%null%1,        L.% Feng%null%1,        G.% Yuan%null%1,        A.% Zhang%null%1,        Y.% Chen%null%2,        J.% Yuan%null%1,        X.% Huang%null%1,        X.% Zhang%null%1,        P.% Hu%null%1,        Y.% Song%null%1,        C.% Qian%null%1,        Q.% Sun%null%1,        D.% Wang%null%1,        J.% Tong%null%1,        J. % Xiang%null%1]</t>
-  </si>
-  <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,       Kevin Bryan%Lo%NULL%0,       Kevin Bryan%Lo%NULL%0,       Fahad%Gul%NULL%0,       Eric%Peterson%NULL%0,       Robert%De Joy%NULL%0,       Ruchika%Bhargav%NULL%0,       Jerald%Pelayo%NULL%0,       Jeri%Albano%NULL%0,       Zurab%Azmaiparashvili%NULL%0,       Sadia%Benzaquen%NULL%0,       Gabriel%Patarroyo‐Aponte%NULL%0,       Janani%Rangaswami%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,       Mu%Qin%qinmuae@163.com%0,       Yuli%Cai%NULL%0,       Tao%Liu%NULL%0,       Bo%Shen%NULL%0,       Fan%Yang%NULL%0,       Sheng%Cao%NULL%0,       Xu%Liu%NULL%0,       Xu%Liu%NULL%0,       Yaozu%Xiang%NULL%0,       Qinyan%Zhao%NULL%0,       He%Huang%huanghe1977@whu.edu.cn%0,       Bo%Yang%yybb112@whu.edu.cn%0,       Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jennifer%Tomlins%NULL%1,       Fergus%Hamilton%NULL%1,       Samuel%Gunning%NULL%1,       Caitlin%Sheehy%NULL%1,       Ed%Moran%NULL%1,       Alastair%MacGowan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,       Yi%Xiang%NULL%0,       Wei%Fang%NULL%0,       Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,       Boqun%Li%279685211@qq.com%0,       Boqun%Li%279685211@qq.com%0,       Yanjun%Hu%huyanjun@163.com%0,       Chunhui%Lang%NULL%0,       Daoqiu%Huang%NULL%0,       Qiuyan%Sun%NULL%0,       Yan%Xiong%NULL%0,       Xia%Huang%NULL%0,       Jinglong%Lv%NULL%0,       Yaling%Luo%NULL%0,       Li%Shen%NULL%0,       Haoran%Yang%NULL%0,       Gu%Huang%NULL%0,       Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,      Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,      Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,      Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%5,       Wenbo%He%NULL%3,       Xiaomei%Yu%NULL%3,       Dalong%Hu%NULL%3,       Mingwei%Bao%NULL%3,       Huafen%Liu%NULL%3,       Jiali%Zhou%NULL%3,       Hong%Jiang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,       Bohan%Yang%NULL%0,       Qianwen%Li%NULL%0,       Lu%Wen%NULL%0,       Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Wu%J%coreGivesNoEmail%1,      Xu%Y%coreGivesNoEmail%1,      Zhanwei%Du%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,       Fen%Li%NULL%0,       Xiao%Wang%NULL%0,       Jie%Yan%NULL%0,       Fen%Zhu%NULL%0,       Shifan%Tang%NULL%0,       Yingzhong%Deng%NULL%0,       Hua%Wang%NULL%0,       Rui%Chen%NULL%0,       Zhili%Yu%NULL%0,       Yaping%Li%NULL%0,       Jingzhou%Shang%NULL%0,       Lingjun%Zeng%NULL%0,       Jie%Zhao%NULL%0,       Chaokun%Guan%NULL%0,       Qiaomei%Liu%NULL%0,       Haifeng%Chen%NULL%0,       Wei%Gong%NULL%0,       Xin%Huang%NULL%0,       Yu‐Jiao%Zhang%NULL%0,       Jianguang%Liu%NULL%0,       Xiaoyan%Dong%NULL%0,       Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,       Shaoping%Nie%spnie@126.com%0,       Dongsheng%Li%dongshengli196809@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Ping%Yang%NULL%1,       Pengfei%Wang%NULL%2,       Pengfei%Wang%NULL%0,       Yuyan%Song%NULL%1,       An%Zhang%zhangan@hospital.cqmu.edu.cn%1,       Guodan%Yuan%71502294@qq.com%1,       Yong%Cui%754605155@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,       Yuan%Yu%NULL%0,       Jiqian%Xu%NULL%0,       Huaqing%Shu%NULL%0,       Jia'an%Xia%NULL%0,       Hong%Liu%NULL%0,       Yongran%Wu%NULL%0,       Lu%Zhang%NULL%0,       Zhui%Yu%NULL%0,       Minghao%Fang%NULL%0,       Ting%Yu%NULL%0,       Yaxin%Wang%NULL%0,       Shangwen%Pan%NULL%0,       Xiaojing%Zou%NULL%0,       Shiying%Yuan%NULL%0,       You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,      Cao%Yi-yuan%coreGivesNoEmail%0,      Dong%Xiang%coreGivesNoEmail%0,      Gao%Ya-dong%coreGivesNoEmail%0,      Yan%You-qin%coreGivesNoEmail%0,      Yang%Yi-bin%coreGivesNoEmail%0,      Yuan%Ya-dong%coreGivesNoEmail%0,      Zhang%Jin-jin%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%3,       Chang%Hu%NULL%3,       Linjie%Luo%NULL%2,       Fang%Fang%NULL%4,       Yongfeng%Chen%NULL%2,       Jianguo%Li%NULL%2,       Zhiyong%Peng%NULL%0,       Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Jun%Zhang%NULL%1,       Miao%Yu%NULL%0,       Song%Tong%NULL%1,       Lu-Yu%Liu%NULL%1,       Liang-V.%Tang%lancet.tang@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,       Huangqing%Ouyang%NULL%1,       Lingli%Fu%NULL%1,       Shijie%Wang%NULL%1,       Jianglong%Han%NULL%1,       Kejie%Huang%NULL%1,       Mingfang%Jia%NULL%1,       Qibin%Song%NULL%1,       Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Zirun%Zhao%NULL%0,       Anne%Chen%NULL%0,       Wei%Hou%NULL%0,       James M.%Graham%NULL%0,       Haifang%Li%NULL%0,       Paul S.%Richman%NULL%0,       Henry C.%Thode%NULL%0,       Adam J.%Singer%NULL%0,       Tim Q.%Duong%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0,       Muhammad%Adrish%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%2,        Sarah%Al-Youha%sarahalyouha@gmail.com%1,        Mohammad H.%Jamal%NULL%1,        Mohannad%Al-Haddad%NULL%1,        Ali%Al-Muhaini%NULL%1,        Fahad%Al-Ghimlas%NULL%1,        Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,        Samuel L%Bruce%NULL%2,        Cody L%Slater%NULL%2,        Jonathan R%Tiao%NULL%2,        Matthew R%Baldwin%NULL%3,        R Graham%Barr%NULL%2,        Bernard P%Chang%NULL%2,        Katherine H%Chau%NULL%2,        Justin J%Choi%NULL%2,        Nicholas%Gavin%NULL%2,        Parag%Goyal%NULL%2,        Angela M%Mills%NULL%2,        Ashmi A%Patel%NULL%2,        Marie-Laure S%Romney%NULL%2,        Monika M%Safford%NULL%2,        Neil W%Schluger%NULL%2,        Soumitra%Sengupta%NULL%2,        Magdalena E%Sobieszczyk%NULL%2,        Jason E%Zucker%NULL%2,        Paul A%Asadourian%NULL%2,        Fletcher M%Bell%NULL%2,        Rebekah%Boyd%NULL%2,        Matthew F%Cohen%NULL%2,        MacAlistair I%Colquhoun%NULL%2,        Lucy A%Colville%NULL%2,        Joseph H%de Jonge%NULL%2,        Lyle B%Dershowitz%NULL%2,        Shirin A%Dey%NULL%2,        Katherine A%Eiseman%NULL%2,        Zachary P%Girvin%NULL%2,        Daniella T%Goni%NULL%2,        Amro A%Harb%NULL%2,        Nicholas%Herzik%NULL%2,        Sarah%Householder%NULL%2,        Lara E%Karaaslan%NULL%2,        Heather%Lee%NULL%2,        Evan%Lieberman%NULL%2,        Andrew%Ling%NULL%2,        Ree%Lu%NULL%2,        Arthur Y%Shou%NULL%2,        Alexander C%Sisti%NULL%2,        Zachary E%Snow%NULL%2,        Colin P%Sperring%NULL%2,        Yuqing%Xiong%NULL%2,        Henry W%Zhou%NULL%2,        Karthik%Natarajan%NULL%2,        George%Hripcsak%NULL%2,        Ruijun%Chen%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,        Mark%Caridi-Scheible%NULL%5,        James M.%Blum%NULL%3,        Chad%Robichaux%NULL%3,        Colleen%Kraft%NULL%3,        Jesse T.%Jacob%NULL%3,        Craig S.%Jabaley%NULL%3,        David%Carpenter%NULL%3,        Roberta%Kaplow%NULL%3,        Alfonso C.%Hernandez-Romieu%NULL%3,        Max W.%Adelman%NULL%3,        Greg S.%Martin%NULL%3,        Craig M.%Coopersmith%NULL%3,        David J.%Murphy%NULL%3,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Juan%Berenguer%NULL%1,        Pablo%Ryan%NULL%0,        Jesús%Rodríguez-Baño%NULL%1,        Inmaculada%Jarrín%NULL%4,        Jordi%Carratalà%NULL%4,        Jerónimo%Pachón%NULL%0,        María%Yllescas%NULL%1,        José Ramón%Arriba%NULL%1,        NULL%NULL%NULL%0,        Esther%Aznar Muñoz%NULL%1,        Pedro%Gil Divasson%NULL%1,        Patricia%González Muñiz%NULL%1,        Clara%Muñoz Aguirre%NULL%1,        Juan Carlos%López%NULL%3,        Juan Carlos%López%NULL%0,        Juan Carlos%López%NULL%0,        Margarita%Ramírez-Schacke%NULL%1,        Isabel%Gutiérrez%NULL%1,        Francisco%Tejerina%NULL%1,        Teresa%Aldámiz-Echevarría%NULL%1,        Cristina%Díez%NULL%1,        Chiara%Fanciulli%NULL%1,        Leire%Pérez-Latorre%NULL%1,        Francisco%Parras%NULL%1,        Pilar%Catalán%NULL%1,        María E.%García-Leoni%NULL%1,        Isabel%Pérez-Tamayo%NULL%1,        Luis%Puente%NULL%1,        Jamil%Cedeño%NULL%1,        Juan%Berenguer%NULL%1,        Marta%Díaz Menéndez%NULL%3,        Marta%Díaz Menéndez%NULL%0,        Marta%Díaz Menéndez%NULL%0,        Fernando%de la Calle Prieto%NULL%1,        Marta%Arsuaga Vicente%NULL%1,        Elena%Trigo Esteban%NULL%1,        Mª del Mar%Lago Núñez%NULL%1,        Rosa%de Miguel Buckley%NULL%1,        Julen%Cadiñaños Loidi%NULL%1,        Carmen%Busca Arenzana%NULL%1,        Alfredo%Mican%NULL%1,        Marta%Mora Rillo%NULL%1,        Juan Carlos%Ramos Ramos%NULL%1,        Belén%Loeches Yagüe%NULL%1,        José Ignacio%Bernardino de la Serna%NULL%1,        Julio%García Rodríguez%NULL%1,        José Ramón%Arribas López%NULL%1,        Ana%Such Diaz%NULL%3,        Ana%Such Diaz%NULL%0,        Ana%Such Diaz%NULL%0,        Elena%Álvaro Alonso%NULL%1,        Elsa%Izquierdo García%NULL%1,        Juan%Torres Macho%NULL%1,        Guillermo%Cuevas Tascon%NULL%1,        Jesús%Troya García%NULL%1,        Beatriz%Mestre Gómez%NULL%1,        Eva%Jiménez González de Buitrago%NULL%1,        Inés%Fernández Jiménez%NULL%1,        Ana Josefa%Tebar Martínez%NULL%1,        Fátima%Brañas Baztán%NULL%1,        Jorge%Valencia de la Rosa%NULL%1,        Mario%Pérez Butragueño%NULL%1,        Marta%Alvarado Blasco%NULL%1,        Pablo%Ryan%NULL%0,        Mª Antonia%Sepúlveda Berrocal%NULL%3,        Mª Antonia%Sepúlveda Berrocal%NULL%0,        Mª Antonia%Sepúlveda Berrocal%NULL%0,        Carmen%Yera Bergua%NULL%1,        Pilar%Toledano Sierra%NULL%1,        Verónica%Cano Llorente%NULL%1,        Sadaf%Zafar Iqubal-Mirza%NULL%1,        Gema%Muñiz%NULL%1,        Inmaculada%Martín Pérez%NULL%1,        Helena%Mozas Moriñigo%NULL%1,        Ana%Alguacil%NULL%1,        María Paz%García Butenegro%NULL%1,        Ana Isabel%Peláez Ballesta%NULL%3,        Ana Isabel%Peláez Ballesta%NULL%0,        Ana Isabel%Peláez Ballesta%NULL%0,        Elena%Morcillo Rodríguez%NULL%1,        Josune%Goikoetxea Agirre%NULL%3,        Josune%Goikoetxea Agirre%NULL%0,        Josune%Goikoetxea Agirre%NULL%0,        María José%Blanco Vidal%NULL%1,        Javier%Nieto Arana%NULL%1,        Mikel%del Álamo Martínez de Lagos%NULL%1,        Isabel A.%Pérez Hernández%NULL%3,        Isabel A.%Pérez Hernández%NULL%0,        Isabel A.%Pérez Hernández%NULL%0,        Inés%Pérez Zapata%NULL%1,        Rafael%Silvariño Fernández%NULL%3,        Rafael%Silvariño Fernández%NULL%0,        Rafael%Silvariño Fernández%NULL%0,        Jon%Ugalde Espiñeira%NULL%1,        Víctor%Asensi Álvarez%NULL%3,        Víctor%Asensi Álvarez%NULL%0,        Víctor%Asensi Álvarez%NULL%0,        Lucia%Suárez Pérez%NULL%1,        Silvia%Suárez Diaz%NULL%1,        Carmen%Yllera Gutiérrez%NULL%1,        Vicente%Boix%NULL%3,        Vicente%Boix%NULL%0,        Vicente%Boix%NULL%0,        Marcos%Díez Martínez%NULL%1,        Melissa%Carreres Candela%NULL%1,        Cristina%Gómez-Ayerbe%NULL%3,        Cristina%Gómez-Ayerbe%NULL%0,        Cristina%Gómez-Ayerbe%NULL%0,        Javier%Sánchez-Lora%NULL%1,        José Luis%Velasco Garrido%NULL%1,        María%López-Jódar%NULL%1,        Jesús%Santos González%NULL%1,        Jesús%Ruiz Aragón%NULL%3,        Jesús%Ruiz Aragón%NULL%0,        Jesús%Ruiz Aragón%NULL%0,        Ianire%Virto Peña%NULL%1,        Vanessa%Alende Castro%NULL%3,        Vanessa%Alende Castro%NULL%0,        Vanessa%Alende Castro%NULL%0,        Ruth%Brea Aparicio%NULL%1,        Sonia%Vega Molpeceres%NULL%3,        Sonia%Vega Molpeceres%NULL%0,        Sonia%Vega Molpeceres%NULL%0,        Estel%Pons Viñas%NULL%1,        Oscar%del Río Pérez%NULL%3,        Oscar%del Río Pérez%NULL%0,        Oscar%del Río Pérez%NULL%0,        Silvia%Valero Rovira%NULL%1,        Judit%Villar-García%NULL%3,        Judit%Villar-García%NULL%0,        Judit%Villar-García%NULL%0,        Joan%Gómez-Junyent%NULL%1,        Hernando%Knobel%NULL%1,        María Cecilia%Cánepa%NULL%1,        Silvia%Castañeda Espinosa%NULL%1,        Luisa%Sorli Redò%NULL%1,        Roberto%Güerri-Fernández%NULL%1,        María%Milagro Montero%NULL%1,        Juan Pablo%Horcajada%NULL%1,        Elisa%García Vázquez%NULL%3,        Elisa%García Vázquez%NULL%0,        Elisa%García Vázquez%NULL%0,        Encarnación%Moral Escudero%NULL%1,        Alicia%Hernández Torres%NULL%1,        Esther%García Almodóvar%NULL%3,        Esther%García Almodóvar%NULL%0,        Esther%García Almodóvar%NULL%0,        Carmen%Sáez Barberá%NULL%3,        Carmen%Sáez Barberá%NULL%0,        Carmen%Sáez Barberá%NULL%0,        Zineb%Karroud%NULL%1,        José%Hernández Quero%NULL%3,        José%Hernández Quero%NULL%0,        José%Hernández Quero%NULL%0,        David%Vinuesa García%NULL%1,        José Luis%García Fogeda%NULL%1,        José Antonio%Peregrina%NULL%1,        María%Novella Mena%NULL%3,        María%Novella Mena%NULL%0,        María%Novella Mena%NULL%0,        Cristina%Hernández Gutiérrez%NULL%1,        José%Sanz Moreno%NULL%1,        Ramón%Pérez Tanoira%NULL%1,        Rodrigo%Sierra Rodríguez%NULL%1,        David%Alonso Menchén%NULL%1,        Aida%Gutiérrez García%NULL%1,        Alberto%Arranz Caso%NULL%1,        Juan%Cuadros González%NULL%1,        Melchor%Álvarez de Mon Soto%NULL%1,        Vicente Ferrer%Díaz de Brito Fernández%NULL%3,        Vicente Ferrer%Díaz de Brito Fernández%NULL%0,        Vicente Ferrer%Díaz de Brito Fernández%NULL%0,        Montserrat%Sanmarti Vilamala%NULL%1,        Aina%Gabarrell Pascuet%NULL%1,        Daniel%Molina Morant%NULL%1,        Sergio%España Cueto%NULL%1,        Jonathan%Cámara Fernández%NULL%1,        Albert%Sabater Gil%NULL%1,        Laura%Muñoz López%NULL%1,        Paula%Sáez Escolano%NULL%3,        Paula%Sáez Escolano%NULL%0,        Paula%Sáez Escolano%NULL%0,        Esperanza%Bejarano Tello%NULL%1,        Marco Antonio%Sempere Alcocer%NULL%3,        Marco Antonio%Sempere Alcocer%NULL%0,        Marco Antonio%Sempere Alcocer%NULL%0,        Salvador%Álvarez Martin%NULL%1,        Ignacio%De los Santos Gil%NULL%3,        Ignacio%De los Santos Gil%NULL%0,        Ignacio%De los Santos Gil%NULL%0,        Lucio%García-Fraile%NULL%1,        Miguel%Sampedro Núñez%NULL%1,        Ana%Barrios Blandino%NULL%1,        Carlos%Rodríguez Franco%NULL%1,        Daniel%Useros Brañas%NULL%1,        Almudena%Villa Martí%NULL%1,        Javier%Oliver Ortega%NULL%1,        Alexia%Costanza Espiño Álvarez%NULL%1,        Jesús%Sanz Sanz%NULL%1,        María%Rexach Fumaña%NULL%3,        María%Rexach Fumaña%NULL%0,        María%Rexach Fumaña%NULL%0,        Ivette%Abascal Cambras%NULL%1,        Ana del Cielo%Pérez Jaén%NULL%1,        Clara%Sala Jofre%NULL%3,        Clara%Sala Jofre%NULL%0,        Clara%Sala Jofre%NULL%0,        Susana%Casas Rodríguez%NULL%1,        Cecilia%Tortajada Alamilla%NULL%3,        Cecilia%Tortajada Alamilla%NULL%0,        Cecilia%Tortajada Alamilla%NULL%0,        Carmina%Oltra%NULL%1,        Mar%Masiá Canuto%NULL%3,        Mar%Masiá Canuto%NULL%0,        Mar%Masiá Canuto%NULL%0,        Félix%Gutiérrez Rodero%NULL%1,        Ana%Ferrer Ribera%NULL%3,        Ana%Ferrer Ribera%NULL%0,        Ana%Ferrer Ribera%NULL%0,        Carlos%Bea Serrano%NULL%1,        Miguel%Pedromingo Kus%NULL%3,        Miguel%Pedromingo Kus%NULL%0,        Miguel%Pedromingo Kus%NULL%0,        María Ángeles%Garcinuño%NULL%1,        Silvana%Fiorante%NULL%1,        Sergio%Pérez Pinto%NULL%1,        Pilar%Hernández Machín%NULL%3,        Pilar%Hernández Machín%NULL%0,        Pilar%Hernández Machín%NULL%0,        Alba%Alastrué Violeta%NULL%1,        María Carmen%Fariñas Álvarez%NULL%3,        María Carmen%Fariñas Álvarez%NULL%0,        María Carmen%Fariñas Álvarez%NULL%0,        Claudia%González Rico%NULL%1,        Francisco%Arnaiz de las Revillas%NULL%1,        Jorge%Calvo%NULL%1,        Mónica%Gozalo%NULL%1,        Francisco%Mora Gómez%NULL%3,        Francisco%Mora Gómez%NULL%0,        Francisco%Mora Gómez%NULL%0,        Ana%Milagro Beamonte%NULL%3,        Ana%Milagro Beamonte%NULL%0,        Ana%Milagro Beamonte%NULL%0,        Miriam%Latorre-Millán%NULL%1,        Antonio%Rezusta López%NULL%1,        Ana%Martínez Sapiña%NULL%1,        Yolanda%Meije%NULL%3,        Yolanda%Meije%NULL%0,        Yolanda%Meije%NULL%0,        Alejandra%Duarte Borges%NULL%1,        Julia%Pareja Coca%NULL%1,        Mercedes%Clemente Presas%NULL%1,        Juan Emilio%Losa García%NULL%3,        Juan Emilio%Losa García%NULL%0,        Juan Emilio%Losa García%NULL%0,        Ana%Vegas Serrano%NULL%1,        M. Teresa%Pérez-Rodríguez%NULL%3,        M. Teresa%Pérez-Rodríguez%NULL%0,        M. Teresa%Pérez-Rodríguez%NULL%0,        Alexandre%Pérez González%NULL%1,        Moncef%Belhassen-García%NULL%3,        Moncef%Belhassen-García%NULL%0,        Moncef%Belhassen-García%NULL%0,        Beatriz%Rodríguez-Alonso%NULL%1,        Amparo%López-Bernus%NULL%1,        Cristina%Carbonell%NULL%1,        Rafael%Torres Perea%NULL%3,        Rafael%Torres Perea%NULL%0,        Rafael%Torres Perea%NULL%0,        Juan%Cantón de Seoane%NULL%1,        Blanca%Alonso%NULL%1,        Sara Lidia%Kamal%NULL%1,        Lucia%Cajuela%NULL%1,        David%Roa%NULL%1,        Miguel%Cervero%NULL%1,        Alberto%Oreja%NULL%1,        Juan Pablo%Avilés%NULL%1,        Lidia%Martín%NULL%1,        Iván%Pelegrín Senent%NULL%3,        Iván%Pelegrín Senent%NULL%0,        Iván%Pelegrín Senent%NULL%0,        Rosana%Rouco Esteves Marques%NULL%1,        Jorge%Parra Ruiz%NULL%3,        Jorge%Parra Ruiz%NULL%0,        Jorge%Parra Ruiz%NULL%0,        Violeta%Ramos Sesma%NULL%1,        Jessica%Abadia Otero%NULL%3,        Jessica%Abadia Otero%NULL%0,        Jessica%Abadia Otero%NULL%0,        Juan%Salillas Hernando%NULL%3,        Juan%Salillas Hernando%NULL%0,        Juan%Salillas Hernando%NULL%0,        Robert%Torres Sánchez del Arco%NULL%1,        Miguel%Torralba González de Suso%NULL%1,        Alberto%Serrano Martínez%NULL%1,        Sergio%Gilaberte Reyzábal%NULL%1,        Marina%Pacheco Martínez-Atienza%NULL%1,        Mónica%Liébana Gómez%NULL%1,        Sara%Fernández Rodríguez%NULL%1,        Álvaro%Varela Plaza%NULL%1,        Henar%Calvo Sánchez%NULL%1,        Patricia%Martínez Martín%NULL%3,        Patricia%Martínez Martín%NULL%0,        Patricia%Martínez Martín%NULL%0,        Patricia%González- Ruano%NULL%1,        Eduardo%Malmierca Corral%NULL%1,        Isabel%Rábago Lorite%NULL%1,        Beatriz%Pérez-Monte Mínguez%NULL%1,        Ángeles%García Flores%NULL%3,        Ángeles%García Flores%NULL%0,        Ángeles%García Flores%NULL%0,        Pere%Comas Casanova%NULL%1,        Merce%Sirisi%NULL%3,        Merce%Sirisi%NULL%0,        Merce%Sirisi%NULL%0,        Richard%Rojas%NULL%1,        José Luis%Díaz de Tuesta del Arco%NULL%3,        José Luis%Díaz de Tuesta del Arco%NULL%0,        José Luis%Díaz de Tuesta del Arco%NULL%0,        Ruth%Figueroa Cerón%NULL%1,        Ander%González Sarria%NULL%1,        Remedios%Alemán Valls%NULL%3,        Remedios%Alemán Valls%NULL%0,        Remedios%Alemán Valls%NULL%0,        María del Mar%Alonso Socas%NULL%1,        Oscar%Sanz Peláez%NULL%3,        Oscar%Sanz Peláez%NULL%0,        Oscar%Sanz Peláez%NULL%0,        Karim%Mohamed Ramírez%NULL%1,        Melchor%Riera Jaume%NULL%3,        Melchor%Riera Jaume%NULL%0,        Melchor%Riera Jaume%NULL%0,        Helem Haydee%Vilchez%NULL%1,        Francesc%Albertí%NULL%1,        Ana Isabel%Cañabate%NULL%1,        Víctor J.%Moreno Cuerda%NULL%3,        Víctor J.%Moreno Cuerda%NULL%0,        Víctor J.%Moreno Cuerda%NULL%0,        Silvia%Álvarez Kaelis%NULL%1,        Beatriz%Álvarez Zapatero%NULL%1,        Alejandro%García García%NULL%1,        Elena%Isaba Ares%NULL%1,        Covadonga%Morcate Fernández%NULL%1,        Andrea%Pérez Rodríguez%NULL%1,        Lucía%Ramos Merino%NULL%3,        Lucía%Ramos Merino%NULL%0,        Lucía%Ramos Merino%NULL%0,        Laura%Castelo Corral%NULL%1,        María%Rodríguez Mahía%NULL%1,        Mónica%González Bardanca%NULL%1,        Efrén%Sánchez Vidal%NULL%1,        Enrique%Míguez Rey%NULL%1,        Javier%De la Torre Lima%NULL%3,        Javier%De la Torre Lima%NULL%0,        Javier%De la Torre Lima%NULL%0,        José Mª%García de Lomas Guerrero%NULL%1,        Elena%Morte%NULL%3,        Elena%Morte%NULL%0,        Elena%Morte%NULL%0,        Silvia%Loscos%NULL%1,        Ana%Camón%NULL%1,        Lucía%Gómez García%NULL%3,        Lucía%Gómez García%NULL%0,        Lucía%Gómez García%NULL%0,        Lucia%Boix Palop%NULL%1,        Beatriz%Dietl Gómez-Luengo%NULL%1,        Iris%Pedrola Gorrea%NULL%3,        Iris%Pedrola Gorrea%NULL%0,        Iris%Pedrola Gorrea%NULL%0,        Amparo%Blasco Claramunt%NULL%1,        Cristina%López Mestanza%NULL%3,        Cristina%López Mestanza%NULL%0,        Cristina%López Mestanza%NULL%0,        Esther%Fraile Villarejo%NULL%1,        Tomás%Tosco Núñez%NULL%3,        Tomás%Tosco Núñez%NULL%0,        Tomás%Tosco Núñez%NULL%0,        María%Aroca Ferri%NULL%1,        José Tomas%Algado Rabasa%NULL%3,        José Tomas%Algado Rabasa%NULL%0,        José Tomas%Algado Rabasa%NULL%0,        Ana María%Garijo Saiz%NULL%1,        Concepción%Amador Prous%NULL%1,        Jesús Rodriguez%Baño%NULL%3,        Jesús Rodriguez%Baño%NULL%0,        Jesús Rodriguez%Baño%NULL%0,        Pilar%Retamar%NULL%1,        Adoración%Valiente%NULL%1,        Luis E.%López-Cortés%NULL%1,        Jesús%Sojo%NULL%1,        Belén%Gutiérrez-Gutiérrez%NULL%1,        José%Bravo-Ferrer%NULL%1,        Elena%Salamanca%NULL%1,        Zaira R.%Palacios%NULL%1,        Patricia%Pérez-Palacios%NULL%1,        Enrique%Peral%NULL%1,        José Antonio%Pérez de León%NULL%1,        Jesús%Sánchez-Gómez%NULL%1,        Lucía%Marín-Barrera%NULL%1,        Domingo%García-Jiménez%NULL%1,        Jordi%Carratalà%NULL%0,        Jordi%Carratalà%NULL%0,        Jordi%Carratalà%NULL%0,        Gabriela%Abelenda-Alonso%NULL%1,        Carmen%Ardanuy%NULL%1,        Alba%Bergas%NULL%1,        Guillermo%Cuervo%NULL%1,        María Ángeles%Domínguez%NULL%1,        Miguel%Fernández-Huerta%NULL%1,        Carlota%Gudiol%NULL%1,        Laia%Lorenzo-Esteller%NULL%1,        Jordi%Niubó%NULL%1,        Sandra%Pérez-Recio%NULL%1,        Daniel%Podzamczer%NULL%1,        Miquel%Pujol%NULL%1,        Alexander%Rombauts%NULL%1,        Núria%Trullen%NULL%1,        Miguel%Salavert Lletí%NULL%3,        Miguel%Salavert Lletí%NULL%0,        Miguel%Salavert Lletí%NULL%0,        Iván%Castro Hernández%NULL%1,        Adriana%Hernández Belmonte%NULL%3,        Adriana%Hernández Belmonte%NULL%0,        Adriana%Hernández Belmonte%NULL%0,        Raquel%Martínez Goñi%NULL%1,        Marta%Navarro Vilasaró%NULL%3,        Marta%Navarro Vilasaró%NULL%0,        Marta%Navarro Vilasaró%NULL%0,        Sonia%Calzado Isbert%NULL%1,        Manuel%Cervantes García%NULL%1,        Aina%Gomila Grange%NULL%1,        Oriol%Gasch Blasi%NULL%1,        María Luisa%Machado Sicilia%NULL%1,        Eva%Van den Eynde Otero%NULL%1,        Luis%Falgueras López%NULL%1,        María del Carmen%Navarro Sáez%NULL%1,        Esteban%Martínez%NULL%3,        Esteban%Martínez%NULL%0,        Esteban%Martínez%NULL%0,        Mª Ángeles%Marcos%NULL%1,        Mar%Mosquera%NULL%1,        José Luis%Blanco%NULL%1,        Montserrat%Laguno%NULL%1,        Jhon%Rojas%NULL%1,        Ana%González-Cordón%NULL%1,        Alexy%Inciarte%NULL%1,        Berta%Torres%NULL%1,        Lorena%De la Mora%NULL%1,        Alex%Soriano%NULL%1,        Olalla%Martínez Macias%NULL%3,        Olalla%Martínez Macias%NULL%0,        Olalla%Martínez Macias%NULL%0,        Virginia%Pérez Doñate%NULL%1,        Alfonso%Cabello Úbeda%NULL%3,        Alfonso%Cabello Úbeda%NULL%0,        Alfonso%Cabello Úbeda%NULL%0,        Nerea%Carrasco Antón%NULL%1,        Beatriz%Álvarez Álvarez%NULL%1,        Elizabet%Petkova Saiz%NULL%1,        Miguel%Górgolas Hernández-Mora%NULL%1,        Laura%Prieto Pérez%NULL%1,        Irene%Carrillo Acosta%NULL%1,        Sara%Heili Frades%NULL%1,        Felipe%Villar Álvarez%NULL%1,        Ricardo%Fernández Roblas%NULL%1,        José María%Milicua Muñoz%NULL%1,        Virginia%Fernández Espinilla%NULL%3,        Virginia%Fernández Espinilla%NULL%0,        Virginia%Fernández Espinilla%NULL%0,        Carlos Jesús%Dueñas Gutiérrez%NULL%1,        Cristina%Hernán García%NULL%1,        Fernando%González-Romo%NULL%3,        Fernando%González-Romo%NULL%0,        Fernando%González-Romo%NULL%0,        Paloma%Merino Amador%NULL%1,        Alba%Rueda López%NULL%1,        Jorge%Martínez Jordán%NULL%1,        Sara%Medrano Pardo%NULL%1,        Irene%Díaz de la Torre%NULL%1,        Yolanda%Posada Franco%NULL%1,        Alberto%Delgado-Iribarren%NULL%1,        Joaquín%López-Contreras González%NULL%3,        Joaquín%López-Contreras González%NULL%0,        Joaquín%López-Contreras González%NULL%0,        Pablo%Pascual Alonso%NULL%1,        Virginia%Pomar Solchaga%NULL%1,        Nuria%Rabella García%NULL%1,        Natividad%Benito Hernández%NULL%1,        Pere%Domingo Pedrol%NULL%1,        Xavier%Bonfill Cosp%NULL%1,        Rafael%Padrós Selma%NULL%1,        Mireia%Puig Campmany%NULL%1,        Jordi%Mancebo Cortés%NULL%1,        Mercè%Gurguí Ferrer%NULL%1,        Melania%Íñigo Pestaña%NULL%3,        Melania%Íñigo Pestaña%NULL%0,        Melania%Íñigo Pestaña%NULL%0,        Alejandra%Pérez García%NULL%1,        Patricia%Sorní Moreno%NULL%3,        Patricia%Sorní Moreno%NULL%0,        Patricia%Sorní Moreno%NULL%0,        Nora%Izko Gartzia%NULL%1,        Francisco Javier%Membrillo de Novales%NULL%3,        Francisco Javier%Membrillo de Novales%NULL%0,        Francisco Javier%Membrillo de Novales%NULL%0,        María%Simón Sacristán%NULL%1,        Maribel%Zamora Cintas%NULL%1,        Yolanda%Martínez Martínez%NULL%1,        Pablo%Fernández-González%NULL%1,        Francisco%Alcántara Nicolás%NULL%1,        Alejandro%Aguirre Vila-Cora%NULL%1,        Elena%López Tizón%NULL%1,        Germán%Ramírez-Olivencia%NULL%1,        Miriam%Estébanez Muñoz%NULL%1,        Ester%Sáez de Adana Arróniz%NULL%3,        Ester%Sáez de Adana Arróniz%NULL%0,        Ester%Sáez de Adana Arróniz%NULL%0,        Joseba%Portu Zapirain%NULL%1,        Juan Carlos%Gainzarain Arana%NULL%1,        Zuriñe%Ortiz de Zárate Ibarra%NULL%1,        Miguel Ángel%Moran Rodríguez%NULL%1,        Andrés%Canut Blasco%NULL%1,        Silvia%Hernáez Crespo%NULL%1,        Leire%Balerdi Sarasola%NULL%1,        Cristina%Morales García%NULL%1,        Miguel%Corral Saracho%NULL%1,        Zeltia%Valcarce González%NULL%1,        Noelia%Arenal Andrés%NULL%3,        Noelia%Arenal Andrés%NULL%0,        Noelia%Arenal Andrés%NULL%0,        Raquel Elisa%Rodríguez Tarazona%NULL%1,        Laura%Iglesias Llorente%NULL%3,        Laura%Iglesias Llorente%NULL%0,        Laura%Iglesias Llorente%NULL%0,        Beatriz%Loureiro Rodríguez%NULL%1,        Adrián%Sánchez Montalvá%NULL%3,        Adrián%Sánchez Montalvá%NULL%0,        Adrián%Sánchez Montalvá%NULL%0,        Juan%Espinosa Pereiro%NULL%1,        Benito%Almirante%NULL%1,        Marta%Miarons%NULL%1,        Júlia%Sellarés%NULL%1,        María%Larrosa%NULL%1,        Sonia%García%NULL%1,        Blanca%Marzo%NULL%1,        Miguel%Villamarín%NULL%1,        Nuria%Fernández%NULL%1,        Conchita%Pérez-Jorge Peremarch%NULL%3,        Conchita%Pérez-Jorge Peremarch%NULL%0,        Conchita%Pérez-Jorge Peremarch%NULL%0,        Elena%Resino Foz%NULL%1,        Andrea%Espigares Correa%NULL%1,        Teresa%Álvarez de Espejo Montiel%NULL%1,        Iván%Navas Clemente%NULL%1,        María Isabel%Quijano Contreras%NULL%1,        Luis Alberto%Nieto Fernández del Campo%NULL%1,        Guillermo%Jiménez Álvarez%NULL%1,        Mercedes%Guillamón Sánchez%NULL%3,        Mercedes%Guillamón Sánchez%NULL%0,        Mercedes%Guillamón Sánchez%NULL%0,        Josefina%García García%NULL%1,        Constanza%Muñoz Hornero%NULL%3,        Constanza%Muñoz Hornero%NULL%0,        Constanza%Muñoz Hornero%NULL%0,        Ana%Mariño Callejo%NULL%3,        Ana%Mariño Callejo%NULL%0,        Ana%Mariño Callejo%NULL%0,        Nieves%Valcarce Pardeiro%NULL%1,        Alex%Smithson Amat%NULL%3,        Alex%Smithson Amat%NULL%0,        Alex%Smithson Amat%NULL%0,        Cristina%Chico Chumillas%NULL%1,        Adriana%Sánchez Serrano%NULL%3,        Adriana%Sánchez Serrano%NULL%0,        Adriana%Sánchez Serrano%NULL%0,        Eva Pilar%García Villalba%NULL%1,        Isabel%Jiménez Martínez%NULL%3,        Isabel%Jiménez Martínez%NULL%0,        Isabel%Jiménez Martínez%NULL%0,        Guillermo%Estrada Fernández%NULL%1,        María%Lorén Vargas%NULL%1,        Nuria%Parra Arribas%NULL%1,        Carmen%Martínez Cilleros%NULL%1,        Aránzazu%Villasante de la Puente%NULL%1,        Teresa%García Delange%NULL%1,        María José%Ruiz Rodríguez%NULL%1,        Marta%Robledo del Prado%NULL%1,        Juan Carlos%Abad Almendro%NULL%1,        José Román%Muñoz del Rey%NULL%3,        José Román%Muñoz del Rey%NULL%0,        José Román%Muñoz del Rey%NULL%0,        Montaña%Jiménez Álvaro%NULL%1,        Javier%Coy Coy%NULL%3,        Javier%Coy Coy%NULL%0,        Javier%Coy Coy%NULL%0,        Inmaculada%Poquet Catala%NULL%1,        Marta%Santos Peña%NULL%3,        Marta%Santos Peña%NULL%0,        Marta%Santos Peña%NULL%0,        Virginia%Naranjo Velasco%NULL%1,        Tamara%Manso Gómez%NULL%3,        Tamara%Manso Gómez%NULL%0,        Tamara%Manso Gómez%NULL%0,        Delia%Quilez Ágreda%NULL%1,        Gema%Barbeito Castiñeiras%NULL%3,        Gema%Barbeito Castiñeiras%NULL%0,        Gema%Barbeito Castiñeiras%NULL%0,        María Jesús%Domínguez Santalla%NULL%1,        Laura%Mao Martín%NULL%3,        Laura%Mao Martín%NULL%0,        Laura%Mao Martín%NULL%0,        Rodrigo%Alonso Navarro%NULL%1,        Jose David%Ampuero Martinich%NULL%1,        Raquel%Barrós González%NULL%1,        María Aránzazu%Galindo Martín%NULL%1,        Lourdes%Herrera Pacheco%NULL%1,        Rocío%Martínez Avilés%NULL%1,        Sara%Rodrigo González%NULL%1,        Cristóbal Manuel%Rodríguez Leal%NULL%1,        Eva María%Romay Lema%NULL%3,        Eva María%Romay Lema%NULL%0,        Eva María%Romay Lema%NULL%0,        Roi%Suárez Gil%NULL%1,        Maialen%Ibarguren Pinilla%NULL%3,        Maialen%Ibarguren Pinilla%NULL%0,        Maialen%Ibarguren Pinilla%NULL%0,        José María%Marimón Ortiz de Zárate%NULL%1,        Loreto%Vidaur Tello%NULL%1,        Xabier%Kortajarena Urkola%NULL%1,        Miriam%García Gómez%NULL%3,        Miriam%García Gómez%NULL%0,        Miriam%García Gómez%NULL%0,        Asier%Aranguren Arostegui%NULL%1,        Maria%Álvarez de Castro%NULL%3,        Maria%Álvarez de Castro%NULL%0,        Maria%Álvarez de Castro%NULL%0,        Cintia María%Martínez Mateu%NULL%1,        Francisco%Rodríguez Gómez%NULL%3,        Francisco%Rodríguez Gómez%NULL%0,        Francisco%Rodríguez Gómez%NULL%0,        Francisco%Muñoz Beamud%NULL%1,        Elena%Chamarro Martí%NULL%3,        Elena%Chamarro Martí%NULL%0,        Elena%Chamarro Martí%NULL%0,        Merce%Cardona Rivera%NULL%1,        Ismail%Zakariya-Yousef Breval%NULL%3,        Ismail%Zakariya-Yousef Breval%NULL%0,        Ismail%Zakariya-Yousef Breval%NULL%0,        Marta%Rico Rodríguez%NULL%1,        Jara%Llenas García%NULL%3,        Jara%Llenas García%NULL%0,        Jara%Llenas García%NULL%0,        Mª Carmen%Sánchez Arenas%NULL%1,        Ana%Fernández Cruz%NULL%3,        Ana%Fernández Cruz%NULL%0,        Ana%Fernández Cruz%NULL%0,        Jorge%Calderón Parra%NULL%1,        Marcos%López Dosil%NULL%1,        Antonio%Ramos Martínez%NULL%1,        Elena%Múñez Rubio%NULL%1,        Alejandro%Callejas Díaz%NULL%1,        José Manuel%Vázquez Comendador%NULL%1,        Itziar%Diego Yagüe%NULL%1,        Esther%Expósito Palomo%NULL%1,        Jorge%Anel Pedroche%NULL%1,        Raquel%Álvarez Franco%NULL%3,        Raquel%Álvarez Franco%NULL%0,        Raquel%Álvarez Franco%NULL%0,        Lucía%Fernández de Orueta%NULL%1,        Roberto%Vates Gómez%NULL%1,        Andrés Felipe%Cardona Arias%NULL%1,        Pablo%Marguenda Contreras%NULL%1,        Gabriel%Gaspar Alonso-Vega%NULL%1,        Elena María%Aranda Rife%NULL%1,        Blanca%Martínez Cifre%NULL%1,        Daniel%Roger Zapata%NULL%1,        Irene%Martín Rubio%NULL%1,        André%Barbosa Ventura%NULL%3,        André%Barbosa Ventura%NULL%0,        André%Barbosa Ventura%NULL%0,        Iván%Piñero%NULL%1,        Alberto%Bahamonde Carrasco%NULL%3,        Alberto%Bahamonde Carrasco%NULL%0,        Alberto%Bahamonde Carrasco%NULL%0,        Paula%Runza Buznego%NULL%1,        Eva%Talavera García%NULL%3,        Eva%Talavera García%NULL%0,        Eva%Talavera García%NULL%0,        Marta%Lamata Subero%NULL%1,        Ainhoa%Urrutia Losada%NULL%3,        Ainhoa%Urrutia Losada%NULL%0,        Ainhoa%Urrutia Losada%NULL%0,        Lorea%Arteche Eguizabal%NULL%1,        Elisabet%Delgado Sánchez%NULL%3,        Elisabet%Delgado Sánchez%NULL%0,        Elisabet%Delgado Sánchez%NULL%0,        Virginia%Molina Peinado%NULL%1,        Sarah%Caro Bragado%NULL%3,        Sarah%Caro Bragado%NULL%0,        Sarah%Caro Bragado%NULL%0,        Gema%Domínguez de Pablos%NULL%1,        Carolina%Roldán Fontana%NULL%3,        Carolina%Roldán Fontana%NULL%0,        Carolina%Roldán Fontana%NULL%0,        Carmen%Herrero Rodríguez%NULL%1,        Luis%Force Sanmartín%NULL%3,        Luis%Force Sanmartín%NULL%0,        Luis%Force Sanmartín%NULL%0,        Raquel%Aranega%NULL%1,        Arantzazu%Mera Fidalgo%NULL%3,        Arantzazu%Mera Fidalgo%NULL%0,        Arantzazu%Mera Fidalgo%NULL%0,        María Roca%Toda Savall%NULL%1,        Nicolas%Merchante Gutiérrez%NULL%3,        Nicolas%Merchante Gutiérrez%NULL%0,        Nicolas%Merchante Gutiérrez%NULL%0,        Eva María%León Jiménez%NULL%1,        José Luís%Del Pozo%NULL%3,        José Luís%Del Pozo%NULL%0,        José Luís%Del Pozo%NULL%0,        Josefa%Serralta Buades%NULL%3,        Josefa%Serralta Buades%NULL%0,        Josefa%Serralta Buades%NULL%0,        Ginger Giorgiana%Cabrera Tejada%NULL%1,        Mario%Fernández-Ruiz%NULL%4,        Mario%Fernández-Ruiz%NULL%0,        Mario%Fernández-Ruiz%NULL%0,        José María%Aguado%NULL%1,        Guillermo%Maestro de la Calle%NULL%1,        José Miguel%Cisneros%NULL%0,        José Miguel%Cisneros%NULL%0,        José Miguel%Cisneros%NULL%0,        Jerónimo%Pachón%NULL%0,        Manuela%Aguilar-Guisado%NULL%1,        Teresa%Aldabó%NULL%1,        María Dolores%Avilés%NULL%0,        Claudio%Bueno%NULL%1,        Elisa%Cordero-Matía%NULL%1,        Ana%Escoresca%NULL%1,        Lydia%Gálvez-Benítez%NULL%1,        Carmen%Infante%NULL%1,        Guillermo%Martín%NULL%1,        Julia%Praena%NULL%1,        Cristina%Roca%NULL%1,        Celia%Salamanca%NULL%1,        Alejandro%Suárez-Benjumea%NULL%1,        Pilar%Vizcarra%NULL%3,        Pilar%Vizcarra%NULL%0,        Pilar%Vizcarra%NULL%0,        Carmen%Quereda%NULL%1,        Mario José%Rodriguez Dominguez%NULL%1,        Francesca%Gioia%NULL%1,        Francesca%Norman%NULL%1,        Santos%Del Campo%NULL%1,        Rafael%Cantón Moreno%NULL%1,        Antonio%Oteo Revuelta José%NULL%3,        Antonio%Oteo Revuelta José%NULL%0,        Antonio%Oteo Revuelta José%NULL%0,        Paula%Santibáñez Sáenz%NULL%1,        Cristina%Cervera Acedo%NULL%1,        Carlos%Ruiz Martínez%NULL%1,        José R.%Blanco Ramos%NULL%1,        José M.%Azcona Gutiérrez%NULL%1,        Concepción%García García%NULL%1,        Jorge%Alba Fernández%NULL%1,        Valvanera%Ibarra Cucalón%NULL%1,        Mercedes%San Franco%NULL%1,        Luis%Metola Sacristán%NULL%1,        Héctor%Meijide Míguez%NULL%3,        Héctor%Meijide Míguez%NULL%0,        Héctor%Meijide Míguez%NULL%0,        Silvia%Paulos Viñas%NULL%1,        Justo%Menéndez%NULL%3,        Justo%Menéndez%NULL%0,        Justo%Menéndez%NULL%0,        Paula%Villares Fernández%NULL%1,        Lara%Montes Andújar%NULL%1,        Álvaro%Navarro Batet%NULL%3,        Álvaro%Navarro Batet%NULL%0,        Álvaro%Navarro Batet%NULL%0,        Anna%Ferrer Santolaria%NULL%1,        María de la Luz%Padilla Salazar%NULL%3,        María de la Luz%Padilla Salazar%NULL%0,        María de la Luz%Padilla Salazar%NULL%0,        Lucy%Abella Vázquez%NULL%1,        Marcelino%Hayek Peraza%NULL%1,        Antonio%García Pardo%NULL%1,        Carolina%Hernández Carballo%NULL%1,        Andrés Javier%Ruiz Fernández%NULL%3,        Andrés Javier%Ruiz Fernández%NULL%0,        Andrés Javier%Ruiz Fernández%NULL%0,        Isabel%Barrio López%NULL%1,        Alí%Martakoush%NULL%3,        Alí%Martakoush%NULL%0,        Alí%Martakoush%NULL%0,        Agustín%Rojas-Vieyra%NULL%3,        Agustín%Rojas-Vieyra%NULL%0,        Agustín%Rojas-Vieyra%NULL%0,        Sonia%García Calvo%NULL%3,        Sonia%García Calvo%NULL%0,        Sonia%García Calvo%NULL%0,        Mercedes%Villarreal García-Lomas%NULL%1,        Marta%Vizcaíno Callejón%NULL%3,        Marta%Vizcaíno Callejón%NULL%0,        Marta%Vizcaíno Callejón%NULL%0,        María Pilar%García García%NULL%1,        Ana%Lérida Urteaga%NULL%3,        Ana%Lérida Urteaga%NULL%0,        Ana%Lérida Urteaga%NULL%0,        Natalia%Carrasco Fons%NULL%1,        Beatriz%María Sanjuan%NULL%1,        Lydia%Martín González%NULL%1,        Camilo%Sanz Zamudio%NULL%1,        Inmaculada%Jarrín%NULL%0,        Inmaculada%Jarrín%NULL%0,        Inmaculada%Jarrín%NULL%0,        Belén%Alejos%NULL%1,        Cristina%Moreno%NULL%1,        Marta%Rava%NULL%1,        Carlos%Iniesta%NULL%1,        Rebeca%Izquierdo%NULL%1,        Inés%Suárez-García%NULL%1,        Asunción%Díaz%NULL%1,        Marta%Ruiz-Alguero%NULL%1,        Victoria%Hernando%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,        Denise J%McCulloch%NULL%0,        Denise J%McCulloch%NULL%0,        Vidya%Atluri%NULL%0,        Michela%Blain%NULL%0,        Sarah A%McGuffin%NULL%0,        Arun K%Nalla%NULL%0,        Meei-Li%Huang%NULL%0,        Alex L%Greninger%NULL%0,        Keith R%Jerome%NULL%0,        Seth A%Cohen%NULL%0,        Santiago%Neme%NULL%0,        Margaret L%Green%NULL%0,        Helen Y%Chu%NULL%0,        H Nina%Kim%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,        Wenlin%Cheng%NULL%0,        Lei%Yu%NULL%0,        Ya-Kun%Liu%NULL%0,        Xiaoyong%Hu%NULL%0,        Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,        Alberto%Zucchelli%NULL%1,        Marinella%Turla%NULL%1,        Maria Sofia%Cotelli%NULL%1,        Sara%Fascendini%NULL%1,        Mara%Zanni%NULL%1,        Angelo%Bianchetti%NULL%1,        Matteo Peli%Psy%NULL%1,        Renzo%Rozzini%NULL%1,        Stefano%Boffelli%NULL%1,        Melania%Cappuccio%NULL%1,        Federica Gottardi%Psy%NULL%1,        Chiara Vecchi%Psy%NULL%1,        Daniele%Bellandi%NULL%1,        Claudia%Caminati%NULL%1,        Simona%Gentile%NULL%1,        Elena Lucchi%Psy%NULL%1,        Ignazio%Di Fazio%NULL%1,        Marina Zanetti%Psy%NULL%1,        Giuliana%Vezzadini%NULL%1,        Chiara Forlani%Psy%NULL%1,        Maura Cosseddu%Psy%NULL%1,        Rosanna Turrone%Psy%NULL%1,        Silvia Pelizzari%Psy%NULL%1,        Andrea%Scalvini%NULL%1,        Marco%Di Cesare%NULL%1,        Marta Grigolo%Psy%NULL%1,        Lina%Falanga%NULL%1,        Nives%Medici%NULL%1,        Nives%Palamini%NULL%1,        Elisa Zanacchi%Psy%NULL%1,        Eleonora Grossi%Psy%NULL%1,        Giuseppe%Bellelli%NULL%1,        Alessandra%Marengoni%NULL%1,        Marco%Trabucchi%NULL%1,        Alessandro%Padovani%alessandro.padovani@unibs.it%1,        NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0,        Nancy%Chow%NULL%2,        Katherine%Fleming-Dutra%NULL%1,        Ryan%Gierke%NULL%2,        Aron%Hall%NULL%2,        Michelle%Hughes%NULL%1,        Tamara%Pilishvili%NULL%2,        Matthew%Ritchey%NULL%2,        Katherine%Roguski%NULL%1,        Tami%Skoff%NULL%1,        Emily%Ussery%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,        Zhencang%Zheng%NULL%1,        Chao%Zhang%NULL%1,        Xijiang%Zhang%NULL%1,        Huijuan%Wu%NULL%1,        Jingdong%Wang%NULL%1,        Shuwei%Wang%NULL%1,        Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,        Wei%Liu%NULL%0,        Kui%Liu%NULL%0,        Yuan-Yuan%Fang%NULL%0,        Jin%Shang%NULL%0,        Ling%Zhou%NULL%0,        Ke%Wang%NULL%0,        Fan%Leng%NULL%0,        Shuang%Wei%NULL%0,        Lei%Chen%NULL%0,        Hui-Guo%Liu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nathalie%Nicolay%NULL%1,        Francesco%Innocenti%NULL%1,        Julien%Beauté%NULL%1,        Veronika%Učakar%NULL%1,        Marta%Grgič Vitek%NULL%1,        Eero%Poukka%NULL%1,        Tuula%Hannila-Handelberg%NULL%1,        Charmaine%Gauci%NULL%1,        Tanya%Melillo%NULL%1,        Theano%Georgakopoulou%NULL%1,        Jiri%Jarkovsky%NULL%1,        Pavel%Slezak%NULL%1,        Concepción%Delgado-Sanz%NULL%1,        Carmen%Olmedo-Lucerón%NULL%1,        Heleene%Suija%NULL%1,        Rasa%Liausediene%NULL%1,        Piaras%O’Lorcain%NULL%1,        Niamh%Murphy%NULL%1,        André%Peralta-Santos%NULL%1,        Pedro%Casaca%NULL%1,        Ioanna%Gregoriou%NULL%1,        Nick%Bundle%NULL%1,        Gianfranco%Spiteri%NULL%1,        Giovanni%Ravasi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Feng%NULL%2,        Peiyun%Li%NULL%1,        Liang%Ma%NULL%1,        Hang%Liang%NULL%1,        Jie%Lei%NULL%1,        Wenqiang%Li%NULL%1,        Kun%Wang%NULL%1,        Yu%Song%NULL%1,        Shuai%Li%NULL%1,        Wei%Yang%NULL%0,        Cao%Yang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Yun%Feng%NULL%0,        Yun%Ling%NULL%0,        Yun%Ling%NULL%0,        Tao%Bai%NULL%2,        Tao%Bai%NULL%0,        Yusang%Xie%NULL%1,        Jie%Huang%NULL%2,        Jie%Huang%NULL%0,        Jian%Li%NULL%1,        Weining%Xiong%NULL%1,        Dexiang%Yang%NULL%1,        Rong%Chen%NULL%1,        Fangying%Lu%NULL%1,        Yunfei%Lu%NULL%1,        Xuhui%Liu%NULL%1,        Yuqing%Chen%NULL%2,        Yuqing%Chen%NULL%0,        Xin%Li%NULL%1,        Yong%Li%NULL%0,        Hanssa Dwarka%Summah%NULL%1,        Huihuang%Lin%NULL%1,        Jiayang%Yan%NULL%1,        Min%Zhou%NULL%0,        Hongzhou%Lu%NULL%0,        Hongzhou%Lu%NULL%0,        Jieming%Qu%NULL%0,        Jieming%Qu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Paolo%Giorgi Rossi%NULL%0,        Massimiliano%Marino%NULL%0,        Debora%Formisano%NULL%0,        Francesco%Venturelli%NULL%0,        Massimo%Vicentini%NULL%0,        Massimo%Vicentini%NULL%0,        Roberto%Grilli%NULL%0,        NULL%NULL%NULL%0,        Gianluigi%Forloni%NULL%8,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0,        Gianluigi%Forloni%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,        Justin J.%Choi%NULL%0,        Laura C.%Pinheiro%NULL%0,        Edward J.%Schenck%NULL%0,        Ruijun%Chen%NULL%0,        Assem%Jabri%NULL%0,        Michael J.%Satlin%NULL%0,        Thomas R.%Campion%NULL%0,        Musarrat%Nahid%NULL%0,        Joanna B.%Ringel%NULL%0,        Katherine L.%Hoffman%NULL%0,        Mark N.%Alshak%NULL%0,        Han A.%Li%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Graham T.%Wehmeyer%NULL%0,        Mangala%Rajan%NULL%0,        Evgeniya%Reshetnyak%NULL%0,        Nathaniel%Hupert%NULL%0,        Evelyn M.%Horn%NULL%0,        Fernando J.%Martinez%NULL%0,        Roy M.%Gulick%NULL%0,        Monika M.%Safford%NULL%0,        Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jonathan%Grein%NULL%1,        Norio%Ohmagari%NULL%1,        Daniel%Shin%NULL%1,        George%Diaz%NULL%1,        Erika%Asperges%NULL%1,        Antonella%Castagna%NULL%0,        Torsten%Feldt%NULL%1,        Gary%Green%NULL%1,        Margaret L.%Green%NULL%1,        François-Xavier%Lescure%NULL%1,        Emanuele%Nicastri%NULL%1,        Rentaro%Oda%NULL%2,        Rentaro%Oda%NULL%0,        Kikuo%Yo%NULL%2,        Kikuo%Yo%NULL%0,        Eugenia%Quiros-Roldan%NULL%1,        Alex%Studemeister%NULL%1,        John%Redinski%NULL%1,        Seema%Ahmed%NULL%1,        Jorge%Bernett%NULL%1,        Daniel%Chelliah%NULL%1,        Danny%Chen%NULL%1,        Shingo%Chihara%NULL%1,        Stuart H.%Cohen%NULL%1,        Jennifer%Cunningham%NULL%1,        Antonella%D’Arminio Monforte%NULL%1,        Saad%Ismail%NULL%1,        Hideaki%Kato%NULL%1,        Giuseppe%Lapadula%NULL%1,        Erwan%L’Her%NULL%1,        Toshitaka%Maeno%NULL%1,        Sumit%Majumder%NULL%1,        Marco%Massari%NULL%0,        Marta%Mora-Rillo%NULL%1,        Yoshikazu%Mutoh%NULL%1,        Duc%Nguyen%NULL%1,        Ewa%Verweij%NULL%1,        Alexander%Zoufaly%NULL%1,        Anu O.%Osinusi%NULL%1,        Adam%DeZure%NULL%1,        Yang%Zhao%NULL%1,        Lijie%Zhong%NULL%1,        Anand%Chokkalingam%NULL%1,        Emon%Elboudwarej%NULL%1,        Laura%Telep%NULL%1,        Leighann%Timbs%NULL%1,        Ilana%Henne%NULL%1,        Scott%Sellers%NULL%1,        Huyen%Cao%NULL%1,        Susanna K.%Tan%NULL%1,        Lucinda%Winterbourne%NULL%1,        Polly%Desai%NULL%1,        Robertino%Mera%NULL%1,        Anuj%Gaggar%NULL%1,        Robert P.%Myers%NULL%1,        Diana M.%Brainard%NULL%1,        Richard%Childs%NULL%1,        Timothy%Flanigan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,        Zheng-yi%Ni%NULL%0,        Zheng-yi%Ni%NULL%0,        Yu%Hu%NULL%0,        Wen-hua%Liang%NULL%0,        Chun-quan%Ou%NULL%0,        Jian-xing%He%NULL%0,        Lei%Liu%NULL%0,        Hong%Shan%NULL%0,        Chun-liang%Lei%NULL%0,        David S.C.%Hui%NULL%0,        Bin%Du%NULL%0,        Lan-juan%Li%NULL%0,        Guang%Zeng%NULL%0,        Kwok-Yung%Yuen%NULL%0,        Ru-chong%Chen%NULL%0,        Chun-li%Tang%NULL%0,        Tao%Wang%NULL%0,        Ping-yan%Chen%NULL%0,        Jie%Xiang%NULL%0,        Shi-yue%Li%NULL%0,        Jin-lin%Wang%NULL%0,        Zi-jing%Liang%NULL%0,        Yi-xiang%Peng%NULL%0,        Li%Wei%NULL%0,        Yong%Liu%NULL%0,        Ya-hua%Hu%NULL%0,        Peng%Peng%NULL%0,        Jian-ming%Wang%NULL%0,        Ji-yang%Liu%NULL%0,        Zhong%Chen%NULL%0,        Gang%Li%NULL%0,        Zhi-jian%Zheng%NULL%0,        Shao-qin%Qiu%NULL%0,        Jie%Luo%NULL%0,        Chang-jiang%Ye%NULL%0,        Shao-yong%Zhu%NULL%0,        Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Admon%Andrew J.%coreGivesNoEmail%1,       Arunthamakun%Justin%coreGivesNoEmail%1,       Athavale%Ambarish M.%coreGivesNoEmail%1,       Bansal%Anip%coreGivesNoEmail%1,       Brenner%Samantha K.%coreGivesNoEmail%1,       Chan%Lili%coreGivesNoEmail%1,       Donnelly%John P.%coreGivesNoEmail%1,       Friedman%Allon N.%coreGivesNoEmail%1,       Gershengorn%Hayley B.%coreGivesNoEmail%1,       Goyal%Nitender%coreGivesNoEmail%1,       Green%Adam%coreGivesNoEmail%1,       Gupta%Shruti%coreGivesNoEmail%1,       Hayek%Salim S.%coreGivesNoEmail%1,       Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,       Kibbelaar%Zoe A.%coreGivesNoEmail%1,       Leaf%David E.%coreGivesNoEmail%1,       Leonberg-Yoo%Amanda%coreGivesNoEmail%1,       Mathews%Kusum S.%coreGivesNoEmail%1,       Melamed%Michal L.%coreGivesNoEmail%1,       Omar%Samah Abu%coreGivesNoEmail%1,       Parikh%Chirag R.%coreGivesNoEmail%1,       Radbel%Jared%coreGivesNoEmail%1,       Reiser%Jochen%coreGivesNoEmail%1,       Schenck%Edward J.%coreGivesNoEmail%1,       Semler%Matthew W.%coreGivesNoEmail%1,       Shaefi%Shahzad%coreGivesNoEmail%1,       Shehata%Alexandre M.%coreGivesNoEmail%1,       Short%Samuel A. P.%coreGivesNoEmail%1,       Srivastava%Anand%coreGivesNoEmail%1,       Sutherland%Anne%coreGivesNoEmail%1,       Velez%Juan Carlos Q.%coreGivesNoEmail%1,       Vijayan%Anitha%coreGivesNoEmail%1,       Wang%Wei%coreGivesNoEmail%1,       Zhou%Yan%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Rahmet%GÜNER%NULL%1,        İmran%HASANOĞLU%NULL%2,        İmran%HASANOĞLU%NULL%0,        Bircan%KAYAASLAN%NULL%2,        Bircan%KAYAASLAN%NULL%0,        Adalet%AYPAK%NULL%2,        Adalet%AYPAK%NULL%0,        Ayşe%KAYA KALEM%NULL%2,        Ayşe%KAYA KALEM%NULL%0,        Fatma%ESER%NULL%2,        Fatma%ESER%NULL%0,        Burcu%ÖZDEMİR%NULL%2,        Burcu%ÖZDEMİR%NULL%0,        Elif Mükime%SARICAOĞLU%NULL%2,        Elif Mükime%SARICAOĞLU%NULL%0,        Müge%AYHAN%NULL%2,        Müge%AYHAN%NULL%0,        Yeşim%AYBAR BİLİR%NULL%2,        Yeşim%AYBAR BİLİR%NULL%0,        Işıl%ÖZKOÇAK TURAN%NULL%2,        Işıl%ÖZKOÇAK TURAN%NULL%0,        Deniz%ERDEM%NULL%2,        Deniz%ERDEM%NULL%0,        Nevzat Mehmet%MUTLU%NULL%1,        Turan%BUZGAN%NULL%2,        Turan%BUZGAN%NULL%0,        Bedia%DİNÇ%NULL%2,        Bedia%DİNÇ%NULL%0,        Esragül%AKINCI%NULL%2,        Esragül%AKINCI%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Stephanie L.%Harrison%NULL%1,        Elnara%Fazio-Eynullayeva%NULL%2,        Elnara%Fazio-Eynullayeva%NULL%0,        Deirdre A.%Lane%NULL%2,        Deirdre A.%Lane%NULL%0,        Paula%Underhill%NULL%2,        Paula%Underhill%NULL%0,        Gregory Y. H.%Lip%NULL%1,        Mirjam E. E.%Kretzschmar%NULL%3,        Mirjam E. E.%Kretzschmar%NULL%0,        Mirjam E. E.%Kretzschmar%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yuanzhou%He%NULL%1,        Min%Xie%NULL%3,        Jianping%Zhao%NULL%0,        Xiansheng%Liu%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Ling%Hu%NULL%0,        Shaoqiu%Chen%NULL%0,        Yuanyuan%Fu%NULL%0,        Zitong%Gao%NULL%0,        Hui%Long%NULL%0,        Jian-ming%Wang%NULL%0,        Hong-wei%Ren%NULL%0,        Yi%Zuo%NULL%0,        Huan%Li%NULL%0,        Jie%Wang%NULL%0,        Qing-bang%Xu%NULL%0,        Wen-xiong%Yu%NULL%0,        Jia%Liu%NULL%0,        Chen%Shao%NULL%0,        Jun-jie%Hao%NULL%0,        Chuan-zhen%Wang%NULL%0,        Yao%Ma%NULL%0,        Zhanwei%Wang%NULL%0,        Richard%Yanagihara%NULL%0,        Youping%Deng%dengy@hawaii.edu%0]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,        Yeming%Wang%NULL%0,        Xingwang%Li%NULL%0,        Lili%Ren%NULL%0,        Jianping%Zhao%NULL%0,        Yi%Hu%NULL%0,        Li%Zhang%NULL%0,        Guohui%Fan%NULL%0,        Jiuyang%Xu%NULL%0,        Xiaoying%Gu%NULL%0,        Zhenshun%Cheng%NULL%0,        Ting%Yu%NULL%0,        Jiaan%Xia%NULL%0,        Yuan%Wei%NULL%0,        Wenjuan%Wu%NULL%0,        Xuelei%Xie%NULL%0,        Wen%Yin%NULL%0,        Hui%Li%NULL%0,        Min%Liu%NULL%0,        Yan%Xiao%NULL%0,        Hong%Gao%NULL%0,        Li%Guo%NULL%0,        Jungang%Xie%NULL%0,        Guangfa%Wang%NULL%0,        Rongmeng%Jiang%NULL%0,        Zhancheng%Gao%NULL%0,        Qi%Jin%NULL%0,        Jianwei%Wang%wangjw28@163.com%0,        Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,       Bayani%Masomeh%coreGivesNoEmail%1,       Bijani%Ali%coreGivesNoEmail%1,       Ebrahimpour%Soheil%coreGivesNoEmail%1,       Gholinejad%Hossein Emam%coreGivesNoEmail%1,       Ghorbani%Hossein%coreGivesNoEmail%1,       Hasanpour%Amir Hossein%coreGivesNoEmail%1,       Javanian%Mostafa%coreGivesNoEmail%1,       Masrour-Roudsari%Jila%coreGivesNoEmail%1,       Mehraeen%Rahele%coreGivesNoEmail%1,       Mohseni%Sima%coreGivesNoEmail%1,       Rostami%Ali%coreGivesNoEmail%1,       Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,       Sepidarkish%Mahdi%coreGivesNoEmail%1,       Shabani%Asieh%coreGivesNoEmail%1,       Shahbazi%Mehdi%coreGivesNoEmail%1,       Shokri%Mehran%coreGivesNoEmail%1,       Tabari%Afrooz Monadi%coreGivesNoEmail%1,       Yeganeh%Babak%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Filippo%Lagi%NULL%1,        Matteo%Piccica%NULL%1,        Lucia%Graziani%NULL%1,        Iacopo%Vellere%NULL%1,        Annarita%Botta%NULL%1,        Marta%Tilli%NULL%1,        Letizia%Ottino%NULL%1,        Beatrice%Borchi%NULL%1,        Marco%Pozzi%NULL%1,        Filippo%Bartalesi%NULL%1,        Jessica%Mencarini%NULL%1,        Michele%Spinicci%NULL%1,        Lorenzo%Zammarchi%NULL%1,        Filippo%Pieralli%NULL%1,        Giovanni%Zagli%NULL%1,        Carlo%Nozzoli%NULL%1,        Stefano%Romagnoli%NULL%1,        Alessandro%Bartoloni%NULL%1,        NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,        Zhao-Wu%Tao%NULL%0,        Lei%Wang%NULL%0,        Ming-Li%Yuan%NULL%0,        Kui%Liu%NULL%0,        Ling%Zhou%NULL%0,        Shuang%Wei%NULL%0,        Yan%Deng%NULL%0,        Jing%Liu%NULL%0,        Hui-Guo%Liu%NULL%0,        Ming%Yang%NULL%0,        Yi%Hu%NULL%0,        Pei-Fang%Wei%NULL%0,        Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaochen%Li%NULL%0,        Shuyun%Xu%NULL%2,        Muqing%Yu%NULL%2,        Ke%Wang%NULL%0,        Yu%Tao%NULL%0,        Ying%Zhou%NULL%0,        Jing%Shi%NULL%2,        Min%Zhou%NULL%0,        Bo%Wu%NULL%2,        Zhenyu%Yang%NULL%2,        Cong%Zhang%NULL%0,        Junqing%Yue%NULL%2,        Zhiguo%Zhang%NULL%2,        Harald%Renz%NULL%2,        Xiansheng%Liu%NULL%0,        Jungang%Xie%NULL%0,        Min%Xie%NULL%0,        Jianping%Zhao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yang-kai%Li%doclyk@163.com%1,        Shu%Peng%NULL%1,        Le-qun%Li%NULL%1,        Qi%Wang%NULL%1,        Wei%Ping%NULL%1,        Ni%Zhang%NULL%1,        Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,        Yuanyuan%Xing%NULL%0,        Yu%Xiao%NULL%0,        Liping%Deng%NULL%0,        Qiu%Zhao%NULL%0,        Hongling%Wang%NULL%0,        Yong%Xiong%NULL%0,        Zhenshun%Cheng%NULL%0,        Shicheng%Gao%NULL%0,        Ke%Liang%NULL%0,        Mingqi%Luo%NULL%0,        Tielong%Chen%NULL%0,        Shihui%Song%NULL%0,        Zhiyong%Ma%NULL%0,        Xiaoping%Chen%NULL%0,        Ruiying%Zheng%NULL%0,        Qian%Cao%NULL%0,        Fan%Wang%fanndywang@foxmail.com%0,        Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,        Nicolas%Lopez-Villalobos%NULL%1,        Francisco E.%Parra-Bracamonte%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ishan%Paranjpe%NULL%2,        Adam J%Russak%NULL%0,        Adam J%Russak%NULL%0,        Jessica K%De Freitas%NULL%0,        Anuradha%Lala%NULL%0,        Riccardo%Miotto%NULL%0,        Akhil%Vaid%NULL%0,        Kipp W%Johnson%NULL%0,        Matteo%Danieletto%NULL%0,        Eddye%Golden%NULL%0,        Dara%Meyer%NULL%0,        Manbir%Singh%NULL%0,        Sulaiman%Somani%NULL%0,        Arjun%Kapoor%NULL%1,        Ross%O'Hagan%NULL%1,        Sayan%Manna%NULL%1,        Udit%Nangia%NULL%1,        Suraj K%Jaladanki%NULL%1,        Paul%O’Reilly%NULL%2,        Paul%O’Reilly%NULL%0,        Laura M%Huckins%NULL%1,        Patricia%Glowe%NULL%1,        Arash%Kia%NULL%0,        Prem%Timsina%NULL%0,        Robert M%Freeman%NULL%1,        Matthew A%Levin%NULL%0,        Jeffrey%Jhang%NULL%0,        Adolfo%Firpo%NULL%1,        Patricia%Kovatch%NULL%0,        Joseph%Finkelstein%NULL%0,        Judith A%Aberg%NULL%0,        Emilia%Bagiella%NULL%0,        Carol R%Horowitz%NULL%0,        Barbara%Murphy%NULL%0,        Zahi A%Fayad%NULL%0,        Jagat%Narula%NULL%0,        Eric J%Nestler%NULL%0,        V%Fuster%NULL%1,        Carlos%Cordon-Cardo%NULL%0,        Dennis%Charney%NULL%1,        David L%Reich%NULL%0,        Allan%Just%NULL%1,        Erwin P%Bottinger%NULL%0,        Alexander W%Charney%NULL%0,        Benjamin S%Glicksberg%NULL%0,        Girish N%Nadkarni%NULL%0,        NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ D.%Qi%null%1,         X.% Yan%null%1,         X.% Tang%null%1,         J.% Peng%null%1,         Q.% Yu%null%1,         L.% Feng%null%1,         G.% Yuan%null%1,         A.% Zhang%null%1,         Y.% Chen%null%2,         J.% Yuan%null%1,         X.% Huang%null%1,         X.% Zhang%null%1,         P.% Hu%null%1,         Y.% Song%null%1,         C.% Qian%null%1,         Q.% Sun%null%1,         D.% Wang%null%1,         J.% Tong%null%1,         J. % Xiang%null%1]</t>
-  </si>
-  <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,        Kevin Bryan%Lo%NULL%0,        Kevin Bryan%Lo%NULL%0,        Fahad%Gul%NULL%0,        Eric%Peterson%NULL%0,        Robert%De Joy%NULL%0,        Ruchika%Bhargav%NULL%0,        Jerald%Pelayo%NULL%0,        Jeri%Albano%NULL%0,        Zurab%Azmaiparashvili%NULL%0,        Sadia%Benzaquen%NULL%0,        Gabriel%Patarroyo‐Aponte%NULL%0,        Janani%Rangaswami%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,        Mu%Qin%qinmuae@163.com%0,        Yuli%Cai%NULL%0,        Tao%Liu%NULL%0,        Bo%Shen%NULL%0,        Fan%Yang%NULL%0,        Sheng%Cao%NULL%0,        Xu%Liu%NULL%0,        Xu%Liu%NULL%0,        Yaozu%Xiang%NULL%0,        Qinyan%Zhao%NULL%0,        He%Huang%huanghe1977@whu.edu.cn%0,        Bo%Yang%yybb112@whu.edu.cn%0,        Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jennifer%Tomlins%NULL%1,        Fergus%Hamilton%NULL%1,        Samuel%Gunning%NULL%1,        Caitlin%Sheehy%NULL%1,        Ed%Moran%NULL%1,        Alastair%MacGowan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,        Yi%Xiang%NULL%0,        Wei%Fang%NULL%0,        Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,        Boqun%Li%279685211@qq.com%0,        Boqun%Li%279685211@qq.com%0,        Yanjun%Hu%huyanjun@163.com%0,        Chunhui%Lang%NULL%0,        Daoqiu%Huang%NULL%0,        Qiuyan%Sun%NULL%0,        Yan%Xiong%NULL%0,        Xia%Huang%NULL%0,        Jinglong%Lv%NULL%0,        Yaling%Luo%NULL%0,        Li%Shen%NULL%0,        Haoran%Yang%NULL%0,        Gu%Huang%NULL%0,        Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,       Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,       Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,       Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%5,        Wenbo%He%NULL%3,        Xiaomei%Yu%NULL%3,        Dalong%Hu%NULL%3,        Mingwei%Bao%NULL%3,        Huafen%Liu%NULL%3,        Jiali%Zhou%NULL%3,        Hong%Jiang%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,        Bohan%Yang%NULL%0,        Qianwen%Li%NULL%0,        Lu%Wen%NULL%0,        Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Wu%J%coreGivesNoEmail%1,       Xu%Y%coreGivesNoEmail%1,       Zhanwei%Du%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,        Fen%Li%NULL%0,        Xiao%Wang%NULL%0,        Jie%Yan%NULL%0,        Fen%Zhu%NULL%0,        Shifan%Tang%NULL%0,        Yingzhong%Deng%NULL%0,        Hua%Wang%NULL%0,        Rui%Chen%NULL%0,        Zhili%Yu%NULL%0,        Yaping%Li%NULL%0,        Jingzhou%Shang%NULL%0,        Lingjun%Zeng%NULL%0,        Jie%Zhao%NULL%0,        Chaokun%Guan%NULL%0,        Qiaomei%Liu%NULL%0,        Haifeng%Chen%NULL%0,        Wei%Gong%NULL%0,        Xin%Huang%NULL%0,        Yu‐Jiao%Zhang%NULL%0,        Jianguang%Liu%NULL%0,        Xiaoyan%Dong%NULL%0,        Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,        Shaoping%Nie%spnie@126.com%0,        Dongsheng%Li%dongshengli196809@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Ping%Yang%NULL%1,        Pengfei%Wang%NULL%2,        Pengfei%Wang%NULL%0,        Yuyan%Song%NULL%1,        An%Zhang%zhangan@hospital.cqmu.edu.cn%1,        Guodan%Yuan%71502294@qq.com%1,        Yong%Cui%754605155@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,        Yuan%Yu%NULL%0,        Jiqian%Xu%NULL%0,        Huaqing%Shu%NULL%0,        Jia'an%Xia%NULL%0,        Hong%Liu%NULL%0,        Yongran%Wu%NULL%0,        Lu%Zhang%NULL%0,        Zhui%Yu%NULL%0,        Minghao%Fang%NULL%0,        Ting%Yu%NULL%0,        Yaxin%Wang%NULL%0,        Shangwen%Pan%NULL%0,        Xiaojing%Zou%NULL%0,        Shiying%Yuan%NULL%0,        You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,       Cao%Yi-yuan%coreGivesNoEmail%0,       Dong%Xiang%coreGivesNoEmail%0,       Gao%Ya-dong%coreGivesNoEmail%0,       Yan%You-qin%coreGivesNoEmail%0,       Yang%Yi-bin%coreGivesNoEmail%0,       Yuan%Ya-dong%coreGivesNoEmail%0,       Zhang%Jin-jin%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%3,        Chang%Hu%NULL%3,        Linjie%Luo%NULL%2,        Fang%Fang%NULL%4,        Yongfeng%Chen%NULL%2,        Jianguo%Li%NULL%2,        Zhiyong%Peng%NULL%0,        Huaqin%Pan%phq2012@whu.edu.cn%0]</t>
-  </si>
-  <si>
-    <t>[Jun%Zhang%NULL%1,        Miao%Yu%NULL%0,        Song%Tong%NULL%1,        Lu-Yu%Liu%NULL%1,        Liang-V.%Tang%lancet.tang@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,        Huangqing%Ouyang%NULL%1,        Lingli%Fu%NULL%1,        Shijie%Wang%NULL%1,        Jianglong%Han%NULL%1,        Kejie%Huang%NULL%1,        Mingfang%Jia%NULL%1,        Qibin%Song%NULL%1,        Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
-  </si>
-  <si>
-    <t>[Zirun%Zhao%NULL%0,        Anne%Chen%NULL%0,        Wei%Hou%NULL%0,        James M.%Graham%NULL%0,        Haifang%Li%NULL%0,        Paul S.%Richman%NULL%0,        Henry C.%Thode%NULL%0,        Adam J.%Singer%NULL%0,        Tim Q.%Duong%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0,        Muhammad%Adrish%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Sulaiman%Almazeedi%NULL%2,         Sarah%Al-Youha%sarahalyouha@gmail.com%1,         Mohammad H.%Jamal%NULL%1,         Mohannad%Al-Haddad%NULL%1,         Ali%Al-Muhaini%NULL%1,         Fahad%Al-Ghimlas%NULL%1,         Salman%Al-Sabah%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Michael G%Argenziano%NULL%0,         Samuel L%Bruce%NULL%2,         Cody L%Slater%NULL%2,         Jonathan R%Tiao%NULL%2,         Matthew R%Baldwin%NULL%3,         R Graham%Barr%NULL%2,         Bernard P%Chang%NULL%2,         Katherine H%Chau%NULL%2,         Justin J%Choi%NULL%2,         Nicholas%Gavin%NULL%2,         Parag%Goyal%NULL%2,         Angela M%Mills%NULL%2,         Ashmi A%Patel%NULL%2,         Marie-Laure S%Romney%NULL%2,         Monika M%Safford%NULL%2,         Neil W%Schluger%NULL%2,         Soumitra%Sengupta%NULL%2,         Magdalena E%Sobieszczyk%NULL%2,         Jason E%Zucker%NULL%2,         Paul A%Asadourian%NULL%2,         Fletcher M%Bell%NULL%2,         Rebekah%Boyd%NULL%2,         Matthew F%Cohen%NULL%2,         MacAlistair I%Colquhoun%NULL%2,         Lucy A%Colville%NULL%2,         Joseph H%de Jonge%NULL%2,         Lyle B%Dershowitz%NULL%2,         Shirin A%Dey%NULL%2,         Katherine A%Eiseman%NULL%2,         Zachary P%Girvin%NULL%2,         Daniella T%Goni%NULL%2,         Amro A%Harb%NULL%2,         Nicholas%Herzik%NULL%2,         Sarah%Householder%NULL%2,         Lara E%Karaaslan%NULL%2,         Heather%Lee%NULL%2,         Evan%Lieberman%NULL%2,         Andrew%Ling%NULL%2,         Ree%Lu%NULL%2,         Arthur Y%Shou%NULL%2,         Alexander C%Sisti%NULL%2,         Zachary E%Snow%NULL%2,         Colin P%Sperring%NULL%2,         Yuqing%Xiong%NULL%2,         Henry W%Zhou%NULL%2,         Karthik%Natarajan%NULL%2,         George%Hripcsak%NULL%2,         Ruijun%Chen%NULL%3]</t>
-  </si>
-  <si>
-    <t>[Sara C.%Auld%NULL%0,         Mark%Caridi-Scheible%NULL%4,         James M.%Blum%NULL%3,         Chad%Robichaux%NULL%3,         Colleen%Kraft%NULL%3,         Jesse T.%Jacob%NULL%3,         Craig S.%Jabaley%NULL%3,         David%Carpenter%NULL%3,         Roberta%Kaplow%NULL%3,         Alfonso C.%Hernandez-Romieu%NULL%3,         Max W.%Adelman%NULL%3,         Greg S.%Martin%NULL%3,         Craig M.%Coopersmith%NULL%3,         David J.%Murphy%NULL%3,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Juan%Berenguer%NULL%1,         Pablo%Ryan%NULL%2,         Jesús%Rodríguez-Baño%NULL%1,         Inmaculada%Jarrín%NULL%4,         Jordi%Carratalà%NULL%4,         Jerónimo%Pachón%NULL%2,         María%Yllescas%NULL%1,         José Ramón%Arriba%NULL%1,         NULL%NULL%NULL%0,         Esther%Aznar Muñoz%NULL%1,         Pedro%Gil Divasson%NULL%1,         Patricia%González Muñiz%NULL%1,         Clara%Muñoz Aguirre%NULL%1,         Juan Carlos%López%NULL%3,         Juan Carlos%López%NULL%0,         Juan Carlos%López%NULL%0,         Margarita%Ramírez-Schacke%NULL%1,         Isabel%Gutiérrez%NULL%1,         Francisco%Tejerina%NULL%1,         Teresa%Aldámiz-Echevarría%NULL%1,         Cristina%Díez%NULL%1,         Chiara%Fanciulli%NULL%1,         Leire%Pérez-Latorre%NULL%1,         Francisco%Parras%NULL%1,         Pilar%Catalán%NULL%1,         María E.%García-Leoni%NULL%1,         Isabel%Pérez-Tamayo%NULL%1,         Luis%Puente%NULL%1,         Jamil%Cedeño%NULL%1,         Juan%Berenguer%NULL%1,         Marta%Díaz Menéndez%NULL%3,         Marta%Díaz Menéndez%NULL%0,         Marta%Díaz Menéndez%NULL%0,         Fernando%de la Calle Prieto%NULL%1,         Marta%Arsuaga Vicente%NULL%1,         Elena%Trigo Esteban%NULL%1,         Mª del Mar%Lago Núñez%NULL%1,         Rosa%de Miguel Buckley%NULL%1,         Julen%Cadiñaños Loidi%NULL%1,         Carmen%Busca Arenzana%NULL%1,         Alfredo%Mican%NULL%1,         Marta%Mora Rillo%NULL%1,         Juan Carlos%Ramos Ramos%NULL%1,         Belén%Loeches Yagüe%NULL%1,         José Ignacio%Bernardino de la Serna%NULL%1,         Julio%García Rodríguez%NULL%1,         José Ramón%Arribas López%NULL%1,         Ana%Such Diaz%NULL%3,         Ana%Such Diaz%NULL%0,         Ana%Such Diaz%NULL%0,         Elena%Álvaro Alonso%NULL%1,         Elsa%Izquierdo García%NULL%1,         Juan%Torres Macho%NULL%1,         Guillermo%Cuevas Tascon%NULL%1,         Jesús%Troya García%NULL%1,         Beatriz%Mestre Gómez%NULL%1,         Eva%Jiménez González de Buitrago%NULL%1,         Inés%Fernández Jiménez%NULL%1,         Ana Josefa%Tebar Martínez%NULL%1,         Fátima%Brañas Baztán%NULL%1,         Jorge%Valencia de la Rosa%NULL%1,         Mario%Pérez Butragueño%NULL%1,         Marta%Alvarado Blasco%NULL%1,         Pablo%Ryan%NULL%0,         Mª Antonia%Sepúlveda Berrocal%NULL%3,         Mª Antonia%Sepúlveda Berrocal%NULL%0,         Mª Antonia%Sepúlveda Berrocal%NULL%0,         Carmen%Yera Bergua%NULL%1,         Pilar%Toledano Sierra%NULL%1,         Verónica%Cano Llorente%NULL%1,         Sadaf%Zafar Iqubal-Mirza%NULL%1,         Gema%Muñiz%NULL%1,         Inmaculada%Martín Pérez%NULL%1,         Helena%Mozas Moriñigo%NULL%1,         Ana%Alguacil%NULL%1,         María Paz%García Butenegro%NULL%1,         Ana Isabel%Peláez Ballesta%NULL%3,         Ana Isabel%Peláez Ballesta%NULL%0,         Ana Isabel%Peláez Ballesta%NULL%0,         Elena%Morcillo Rodríguez%NULL%1,         Josune%Goikoetxea Agirre%NULL%3,         Josune%Goikoetxea Agirre%NULL%0,         Josune%Goikoetxea Agirre%NULL%0,         María José%Blanco Vidal%NULL%1,         Javier%Nieto Arana%NULL%1,         Mikel%del Álamo Martínez de Lagos%NULL%1,         Isabel A.%Pérez Hernández%NULL%3,         Isabel A.%Pérez Hernández%NULL%0,         Isabel A.%Pérez Hernández%NULL%0,         Inés%Pérez Zapata%NULL%1,         Rafael%Silvariño Fernández%NULL%3,         Rafael%Silvariño Fernández%NULL%0,         Rafael%Silvariño Fernández%NULL%0,         Jon%Ugalde Espiñeira%NULL%1,         Víctor%Asensi Álvarez%NULL%3,         Víctor%Asensi Álvarez%NULL%0,         Víctor%Asensi Álvarez%NULL%0,         Lucia%Suárez Pérez%NULL%1,         Silvia%Suárez Diaz%NULL%1,         Carmen%Yllera Gutiérrez%NULL%1,         Vicente%Boix%NULL%3,         Vicente%Boix%NULL%0,         Vicente%Boix%NULL%0,         Marcos%Díez Martínez%NULL%1,         Melissa%Carreres Candela%NULL%1,         Cristina%Gómez-Ayerbe%NULL%3,         Cristina%Gómez-Ayerbe%NULL%0,         Cristina%Gómez-Ayerbe%NULL%0,         Javier%Sánchez-Lora%NULL%1,         José Luis%Velasco Garrido%NULL%1,         María%López-Jódar%NULL%1,         Jesús%Santos González%NULL%1,         Jesús%Ruiz Aragón%NULL%3,         Jesús%Ruiz Aragón%NULL%0,         Jesús%Ruiz Aragón%NULL%0,         Ianire%Virto Peña%NULL%1,         Vanessa%Alende Castro%NULL%3,         Vanessa%Alende Castro%NULL%0,         Vanessa%Alende Castro%NULL%0,         Ruth%Brea Aparicio%NULL%1,         Sonia%Vega Molpeceres%NULL%3,         Sonia%Vega Molpeceres%NULL%0,         Sonia%Vega Molpeceres%NULL%0,         Estel%Pons Viñas%NULL%1,         Oscar%del Río Pérez%NULL%3,         Oscar%del Río Pérez%NULL%0,         Oscar%del Río Pérez%NULL%0,         Silvia%Valero Rovira%NULL%1,         Judit%Villar-García%NULL%3,         Judit%Villar-García%NULL%0,         Judit%Villar-García%NULL%0,         Joan%Gómez-Junyent%NULL%1,         Hernando%Knobel%NULL%1,         María Cecilia%Cánepa%NULL%1,         Silvia%Castañeda Espinosa%NULL%1,         Luisa%Sorli Redò%NULL%1,         Roberto%Güerri-Fernández%NULL%1,         María%Milagro Montero%NULL%1,         Juan Pablo%Horcajada%NULL%1,         Elisa%García Vázquez%NULL%3,         Elisa%García Vázquez%NULL%0,         Elisa%García Vázquez%NULL%0,         Encarnación%Moral Escudero%NULL%1,         Alicia%Hernández Torres%NULL%1,         Esther%García Almodóvar%NULL%3,         Esther%García Almodóvar%NULL%0,         Esther%García Almodóvar%NULL%0,         Carmen%Sáez Barberá%NULL%3,         Carmen%Sáez Barberá%NULL%0,         Carmen%Sáez Barberá%NULL%0,         Zineb%Karroud%NULL%1,         José%Hernández Quero%NULL%3,         José%Hernández Quero%NULL%0,         José%Hernández Quero%NULL%0,         David%Vinuesa García%NULL%1,         José Luis%García Fogeda%NULL%1,         José Antonio%Peregrina%NULL%1,         María%Novella Mena%NULL%3,         María%Novella Mena%NULL%0,         María%Novella Mena%NULL%0,         Cristina%Hernández Gutiérrez%NULL%1,         José%Sanz Moreno%NULL%1,         Ramón%Pérez Tanoira%NULL%1,         Rodrigo%Sierra Rodríguez%NULL%1,         David%Alonso Menchén%NULL%1,         Aida%Gutiérrez García%NULL%1,         Alberto%Arranz Caso%NULL%1,         Juan%Cuadros González%NULL%1,         Melchor%Álvarez de Mon Soto%NULL%1,         Vicente Ferrer%Díaz de Brito Fernández%NULL%3,         Vicente Ferrer%Díaz de Brito Fernández%NULL%0,         Vicente Ferrer%Díaz de Brito Fernández%NULL%0,         Montserrat%Sanmarti Vilamala%NULL%1,         Aina%Gabarrell Pascuet%NULL%1,         Daniel%Molina Morant%NULL%1,         Sergio%España Cueto%NULL%1,         Jonathan%Cámara Fernández%NULL%1,         Albert%Sabater Gil%NULL%1,         Laura%Muñoz López%NULL%1,         Paula%Sáez Escolano%NULL%3,         Paula%Sáez Escolano%NULL%0,         Paula%Sáez Escolano%NULL%0,         Esperanza%Bejarano Tello%NULL%1,         Marco Antonio%Sempere Alcocer%NULL%3,         Marco Antonio%Sempere Alcocer%NULL%0,         Marco Antonio%Sempere Alcocer%NULL%0,         Salvador%Álvarez Martin%NULL%1,         Ignacio%De los Santos Gil%NULL%3,         Ignacio%De los Santos Gil%NULL%0,         Ignacio%De los Santos Gil%NULL%0,         Lucio%García-Fraile%NULL%1,         Miguel%Sampedro Núñez%NULL%1,         Ana%Barrios Blandino%NULL%1,         Carlos%Rodríguez Franco%NULL%1,         Daniel%Useros Brañas%NULL%1,         Almudena%Villa Martí%NULL%1,         Javier%Oliver Ortega%NULL%1,         Alexia%Costanza Espiño Álvarez%NULL%1,         Jesús%Sanz Sanz%NULL%1,         María%Rexach Fumaña%NULL%3,         María%Rexach Fumaña%NULL%0,         María%Rexach Fumaña%NULL%0,         Ivette%Abascal Cambras%NULL%1,         Ana del Cielo%Pérez Jaén%NULL%1,         Clara%Sala Jofre%NULL%3,         Clara%Sala Jofre%NULL%0,         Clara%Sala Jofre%NULL%0,         Susana%Casas Rodríguez%NULL%1,         Cecilia%Tortajada Alamilla%NULL%3,         Cecilia%Tortajada Alamilla%NULL%0,         Cecilia%Tortajada Alamilla%NULL%0,         Carmina%Oltra%NULL%1,         Mar%Masiá Canuto%NULL%3,         Mar%Masiá Canuto%NULL%0,         Mar%Masiá Canuto%NULL%0,         Félix%Gutiérrez Rodero%NULL%1,         Ana%Ferrer Ribera%NULL%3,         Ana%Ferrer Ribera%NULL%0,         Ana%Ferrer Ribera%NULL%0,         Carlos%Bea Serrano%NULL%1,         Miguel%Pedromingo Kus%NULL%3,         Miguel%Pedromingo Kus%NULL%0,         Miguel%Pedromingo Kus%NULL%0,         María Ángeles%Garcinuño%NULL%1,         Silvana%Fiorante%NULL%1,         Sergio%Pérez Pinto%NULL%1,         Pilar%Hernández Machín%NULL%3,         Pilar%Hernández Machín%NULL%0,         Pilar%Hernández Machín%NULL%0,         Alba%Alastrué Violeta%NULL%1,         María Carmen%Fariñas Álvarez%NULL%3,         María Carmen%Fariñas Álvarez%NULL%0,         María Carmen%Fariñas Álvarez%NULL%0,         Claudia%González Rico%NULL%1,         Francisco%Arnaiz de las Revillas%NULL%1,         Jorge%Calvo%NULL%1,         Mónica%Gozalo%NULL%1,         Francisco%Mora Gómez%NULL%3,         Francisco%Mora Gómez%NULL%0,         Francisco%Mora Gómez%NULL%0,         Ana%Milagro Beamonte%NULL%3,         Ana%Milagro Beamonte%NULL%0,         Ana%Milagro Beamonte%NULL%0,         Miriam%Latorre-Millán%NULL%1,         Antonio%Rezusta López%NULL%1,         Ana%Martínez Sapiña%NULL%1,         Yolanda%Meije%NULL%3,         Yolanda%Meije%NULL%0,         Yolanda%Meije%NULL%0,         Alejandra%Duarte Borges%NULL%1,         Julia%Pareja Coca%NULL%1,         Mercedes%Clemente Presas%NULL%1,         Juan Emilio%Losa García%NULL%3,         Juan Emilio%Losa García%NULL%0,         Juan Emilio%Losa García%NULL%0,         Ana%Vegas Serrano%NULL%1,         M. Teresa%Pérez-Rodríguez%NULL%3,         M. Teresa%Pérez-Rodríguez%NULL%0,         M. Teresa%Pérez-Rodríguez%NULL%0,         Alexandre%Pérez González%NULL%1,         Moncef%Belhassen-García%NULL%3,         Moncef%Belhassen-García%NULL%0,         Moncef%Belhassen-García%NULL%0,         Beatriz%Rodríguez-Alonso%NULL%1,         Amparo%López-Bernus%NULL%1,         Cristina%Carbonell%NULL%1,         Rafael%Torres Perea%NULL%3,         Rafael%Torres Perea%NULL%0,         Rafael%Torres Perea%NULL%0,         Juan%Cantón de Seoane%NULL%1,         Blanca%Alonso%NULL%1,         Sara Lidia%Kamal%NULL%1,         Lucia%Cajuela%NULL%1,         David%Roa%NULL%1,         Miguel%Cervero%NULL%1,         Alberto%Oreja%NULL%1,         Juan Pablo%Avilés%NULL%1,         Lidia%Martín%NULL%1,         Iván%Pelegrín Senent%NULL%3,         Iván%Pelegrín Senent%NULL%0,         Iván%Pelegrín Senent%NULL%0,         Rosana%Rouco Esteves Marques%NULL%1,         Jorge%Parra Ruiz%NULL%3,         Jorge%Parra Ruiz%NULL%0,         Jorge%Parra Ruiz%NULL%0,         Violeta%Ramos Sesma%NULL%1,         Jessica%Abadia Otero%NULL%3,         Jessica%Abadia Otero%NULL%0,         Jessica%Abadia Otero%NULL%0,         Juan%Salillas Hernando%NULL%3,         Juan%Salillas Hernando%NULL%0,         Juan%Salillas Hernando%NULL%0,         Robert%Torres Sánchez del Arco%NULL%1,         Miguel%Torralba González de Suso%NULL%1,         Alberto%Serrano Martínez%NULL%1,         Sergio%Gilaberte Reyzábal%NULL%1,         Marina%Pacheco Martínez-Atienza%NULL%1,         Mónica%Liébana Gómez%NULL%1,         Sara%Fernández Rodríguez%NULL%1,         Álvaro%Varela Plaza%NULL%1,         Henar%Calvo Sánchez%NULL%1,         Patricia%Martínez Martín%NULL%3,         Patricia%Martínez Martín%NULL%0,         Patricia%Martínez Martín%NULL%0,         Patricia%González- Ruano%NULL%1,         Eduardo%Malmierca Corral%NULL%1,         Isabel%Rábago Lorite%NULL%1,         Beatriz%Pérez-Monte Mínguez%NULL%1,         Ángeles%García Flores%NULL%3,         Ángeles%García Flores%NULL%0,         Ángeles%García Flores%NULL%0,         Pere%Comas Casanova%NULL%1,         Merce%Sirisi%NULL%3,         Merce%Sirisi%NULL%0,         Merce%Sirisi%NULL%0,         Richard%Rojas%NULL%1,         José Luis%Díaz de Tuesta del Arco%NULL%3,         José Luis%Díaz de Tuesta del Arco%NULL%0,         José Luis%Díaz de Tuesta del Arco%NULL%0,         Ruth%Figueroa Cerón%NULL%1,         Ander%González Sarria%NULL%1,         Remedios%Alemán Valls%NULL%3,         Remedios%Alemán Valls%NULL%0,         Remedios%Alemán Valls%NULL%0,         María del Mar%Alonso Socas%NULL%1,         Oscar%Sanz Peláez%NULL%3,         Oscar%Sanz Peláez%NULL%0,         Oscar%Sanz Peláez%NULL%0,         Karim%Mohamed Ramírez%NULL%1,         Melchor%Riera Jaume%NULL%3,         Melchor%Riera Jaume%NULL%0,         Melchor%Riera Jaume%NULL%0,         Helem Haydee%Vilchez%NULL%1,         Francesc%Albertí%NULL%1,         Ana Isabel%Cañabate%NULL%1,         Víctor J.%Moreno Cuerda%NULL%3,         Víctor J.%Moreno Cuerda%NULL%0,         Víctor J.%Moreno Cuerda%NULL%0,         Silvia%Álvarez Kaelis%NULL%1,         Beatriz%Álvarez Zapatero%NULL%1,         Alejandro%García García%NULL%1,         Elena%Isaba Ares%NULL%1,         Covadonga%Morcate Fernández%NULL%1,         Andrea%Pérez Rodríguez%NULL%1,         Lucía%Ramos Merino%NULL%3,         Lucía%Ramos Merino%NULL%0,         Lucía%Ramos Merino%NULL%0,         Laura%Castelo Corral%NULL%1,         María%Rodríguez Mahía%NULL%1,         Mónica%González Bardanca%NULL%1,         Efrén%Sánchez Vidal%NULL%1,         Enrique%Míguez Rey%NULL%1,         Javier%De la Torre Lima%NULL%3,         Javier%De la Torre Lima%NULL%0,         Javier%De la Torre Lima%NULL%0,         José Mª%García de Lomas Guerrero%NULL%1,         Elena%Morte%NULL%3,         Elena%Morte%NULL%0,         Elena%Morte%NULL%0,         Silvia%Loscos%NULL%1,         Ana%Camón%NULL%1,         Lucía%Gómez García%NULL%3,         Lucía%Gómez García%NULL%0,         Lucía%Gómez García%NULL%0,         Lucia%Boix Palop%NULL%1,         Beatriz%Dietl Gómez-Luengo%NULL%1,         Iris%Pedrola Gorrea%NULL%3,         Iris%Pedrola Gorrea%NULL%0,         Iris%Pedrola Gorrea%NULL%0,         Amparo%Blasco Claramunt%NULL%1,         Cristina%López Mestanza%NULL%3,         Cristina%López Mestanza%NULL%0,         Cristina%López Mestanza%NULL%0,         Esther%Fraile Villarejo%NULL%1,         Tomás%Tosco Núñez%NULL%3,         Tomás%Tosco Núñez%NULL%0,         Tomás%Tosco Núñez%NULL%0,         María%Aroca Ferri%NULL%1,         José Tomas%Algado Rabasa%NULL%3,         José Tomas%Algado Rabasa%NULL%0,         José Tomas%Algado Rabasa%NULL%0,         Ana María%Garijo Saiz%NULL%1,         Concepción%Amador Prous%NULL%1,         Jesús Rodriguez%Baño%NULL%3,         Jesús Rodriguez%Baño%NULL%0,         Jesús Rodriguez%Baño%NULL%0,         Pilar%Retamar%NULL%1,         Adoración%Valiente%NULL%1,         Luis E.%López-Cortés%NULL%1,         Jesús%Sojo%NULL%1,         Belén%Gutiérrez-Gutiérrez%NULL%1,         José%Bravo-Ferrer%NULL%1,         Elena%Salamanca%NULL%1,         Zaira R.%Palacios%NULL%1,         Patricia%Pérez-Palacios%NULL%1,         Enrique%Peral%NULL%1,         José Antonio%Pérez de León%NULL%1,         Jesús%Sánchez-Gómez%NULL%1,         Lucía%Marín-Barrera%NULL%1,         Domingo%García-Jiménez%NULL%1,         Jordi%Carratalà%NULL%0,         Jordi%Carratalà%NULL%0,         Jordi%Carratalà%NULL%0,         Gabriela%Abelenda-Alonso%NULL%1,         Carmen%Ardanuy%NULL%1,         Alba%Bergas%NULL%1,         Guillermo%Cuervo%NULL%1,         María Ángeles%Domínguez%NULL%1,         Miguel%Fernández-Huerta%NULL%1,         Carlota%Gudiol%NULL%1,         Laia%Lorenzo-Esteller%NULL%1,         Jordi%Niubó%NULL%1,         Sandra%Pérez-Recio%NULL%1,         Daniel%Podzamczer%NULL%1,         Miquel%Pujol%NULL%1,         Alexander%Rombauts%NULL%1,         Núria%Trullen%NULL%1,         Miguel%Salavert Lletí%NULL%3,         Miguel%Salavert Lletí%NULL%0,         Miguel%Salavert Lletí%NULL%0,         Iván%Castro Hernández%NULL%1,         Adriana%Hernández Belmonte%NULL%3,         Adriana%Hernández Belmonte%NULL%0,         Adriana%Hernández Belmonte%NULL%0,         Raquel%Martínez Goñi%NULL%1,         Marta%Navarro Vilasaró%NULL%3,         Marta%Navarro Vilasaró%NULL%0,         Marta%Navarro Vilasaró%NULL%0,         Sonia%Calzado Isbert%NULL%1,         Manuel%Cervantes García%NULL%1,         Aina%Gomila Grange%NULL%1,         Oriol%Gasch Blasi%NULL%1,         María Luisa%Machado Sicilia%NULL%1,         Eva%Van den Eynde Otero%NULL%1,         Luis%Falgueras López%NULL%1,         María del Carmen%Navarro Sáez%NULL%1,         Esteban%Martínez%NULL%3,         Esteban%Martínez%NULL%0,         Esteban%Martínez%NULL%0,         Mª Ángeles%Marcos%NULL%1,         Mar%Mosquera%NULL%1,         José Luis%Blanco%NULL%1,         Montserrat%Laguno%NULL%1,         Jhon%Rojas%NULL%1,         Ana%González-Cordón%NULL%1,         Alexy%Inciarte%NULL%1,         Berta%Torres%NULL%1,         Lorena%De la Mora%NULL%1,         Alex%Soriano%NULL%1,         Olalla%Martínez Macias%NULL%3,         Olalla%Martínez Macias%NULL%0,         Olalla%Martínez Macias%NULL%0,         Virginia%Pérez Doñate%NULL%1,         Alfonso%Cabello Úbeda%NULL%3,         Alfonso%Cabello Úbeda%NULL%0,         Alfonso%Cabello Úbeda%NULL%0,         Nerea%Carrasco Antón%NULL%1,         Beatriz%Álvarez Álvarez%NULL%1,         Elizabet%Petkova Saiz%NULL%1,         Miguel%Górgolas Hernández-Mora%NULL%1,         Laura%Prieto Pérez%NULL%1,         Irene%Carrillo Acosta%NULL%1,         Sara%Heili Frades%NULL%1,         Felipe%Villar Álvarez%NULL%1,         Ricardo%Fernández Roblas%NULL%1,         José María%Milicua Muñoz%NULL%1,         Virginia%Fernández Espinilla%NULL%3,         Virginia%Fernández Espinilla%NULL%0,         Virginia%Fernández Espinilla%NULL%0,         Carlos Jesús%Dueñas Gutiérrez%NULL%1,         Cristina%Hernán García%NULL%1,         Fernando%González-Romo%NULL%3,         Fernando%González-Romo%NULL%0,         Fernando%González-Romo%NULL%0,         Paloma%Merino Amador%NULL%1,         Alba%Rueda López%NULL%1,         Jorge%Martínez Jordán%NULL%1,         Sara%Medrano Pardo%NULL%1,         Irene%Díaz de la Torre%NULL%1,         Yolanda%Posada Franco%NULL%1,         Alberto%Delgado-Iribarren%NULL%1,         Joaquín%López-Contreras González%NULL%3,         Joaquín%López-Contreras González%NULL%0,         Joaquín%López-Contreras González%NULL%0,         Pablo%Pascual Alonso%NULL%1,         Virginia%Pomar Solchaga%NULL%1,         Nuria%Rabella García%NULL%1,         Natividad%Benito Hernández%NULL%1,         Pere%Domingo Pedrol%NULL%1,         Xavier%Bonfill Cosp%NULL%1,         Rafael%Padrós Selma%NULL%1,         Mireia%Puig Campmany%NULL%1,         Jordi%Mancebo Cortés%NULL%1,         Mercè%Gurguí Ferrer%NULL%1,         Melania%Íñigo Pestaña%NULL%3,         Melania%Íñigo Pestaña%NULL%0,         Melania%Íñigo Pestaña%NULL%0,         Alejandra%Pérez García%NULL%1,         Patricia%Sorní Moreno%NULL%3,         Patricia%Sorní Moreno%NULL%0,         Patricia%Sorní Moreno%NULL%0,         Nora%Izko Gartzia%NULL%1,         Francisco Javier%Membrillo de Novales%NULL%3,         Francisco Javier%Membrillo de Novales%NULL%0,         Francisco Javier%Membrillo de Novales%NULL%0,         María%Simón Sacristán%NULL%1,         Maribel%Zamora Cintas%NULL%1,         Yolanda%Martínez Martínez%NULL%1,         Pablo%Fernández-González%NULL%1,         Francisco%Alcántara Nicolás%NULL%1,         Alejandro%Aguirre Vila-Cora%NULL%1,         Elena%López Tizón%NULL%1,         Germán%Ramírez-Olivencia%NULL%1,         Miriam%Estébanez Muñoz%NULL%1,         Ester%Sáez de Adana Arróniz%NULL%3,         Ester%Sáez de Adana Arróniz%NULL%0,         Ester%Sáez de Adana Arróniz%NULL%0,         Joseba%Portu Zapirain%NULL%1,         Juan Carlos%Gainzarain Arana%NULL%1,         Zuriñe%Ortiz de Zárate Ibarra%NULL%1,         Miguel Ángel%Moran Rodríguez%NULL%1,         Andrés%Canut Blasco%NULL%1,         Silvia%Hernáez Crespo%NULL%1,         Leire%Balerdi Sarasola%NULL%1,         Cristina%Morales García%NULL%1,         Miguel%Corral Saracho%NULL%1,         Zeltia%Valcarce González%NULL%1,         Noelia%Arenal Andrés%NULL%3,         Noelia%Arenal Andrés%NULL%0,         Noelia%Arenal Andrés%NULL%0,         Raquel Elisa%Rodríguez Tarazona%NULL%1,         Laura%Iglesias Llorente%NULL%3,         Laura%Iglesias Llorente%NULL%0,         Laura%Iglesias Llorente%NULL%0,         Beatriz%Loureiro Rodríguez%NULL%1,         Adrián%Sánchez Montalvá%NULL%3,         Adrián%Sánchez Montalvá%NULL%0,         Adrián%Sánchez Montalvá%NULL%0,         Juan%Espinosa Pereiro%NULL%1,         Benito%Almirante%NULL%1,         Marta%Miarons%NULL%1,         Júlia%Sellarés%NULL%1,         María%Larrosa%NULL%1,         Sonia%García%NULL%1,         Blanca%Marzo%NULL%1,         Miguel%Villamarín%NULL%1,         Nuria%Fernández%NULL%1,         Conchita%Pérez-Jorge Peremarch%NULL%3,         Conchita%Pérez-Jorge Peremarch%NULL%0,         Conchita%Pérez-Jorge Peremarch%NULL%0,         Elena%Resino Foz%NULL%1,         Andrea%Espigares Correa%NULL%1,         Teresa%Álvarez de Espejo Montiel%NULL%1,         Iván%Navas Clemente%NULL%1,         María Isabel%Quijano Contreras%NULL%1,         Luis Alberto%Nieto Fernández del Campo%NULL%1,         Guillermo%Jiménez Álvarez%NULL%1,         Mercedes%Guillamón Sánchez%NULL%3,         Mercedes%Guillamón Sánchez%NULL%0,         Mercedes%Guillamón Sánchez%NULL%0,         Josefina%García García%NULL%1,         Constanza%Muñoz Hornero%NULL%3,         Constanza%Muñoz Hornero%NULL%0,         Constanza%Muñoz Hornero%NULL%0,         Ana%Mariño Callejo%NULL%3,         Ana%Mariño Callejo%NULL%0,         Ana%Mariño Callejo%NULL%0,         Nieves%Valcarce Pardeiro%NULL%1,         Alex%Smithson Amat%NULL%3,         Alex%Smithson Amat%NULL%0,         Alex%Smithson Amat%NULL%0,         Cristina%Chico Chumillas%NULL%1,         Adriana%Sánchez Serrano%NULL%3,         Adriana%Sánchez Serrano%NULL%0,         Adriana%Sánchez Serrano%NULL%0,         Eva Pilar%García Villalba%NULL%1,         Isabel%Jiménez Martínez%NULL%3,         Isabel%Jiménez Martínez%NULL%0,         Isabel%Jiménez Martínez%NULL%0,         Guillermo%Estrada Fernández%NULL%1,         María%Lorén Vargas%NULL%1,         Nuria%Parra Arribas%NULL%1,         Carmen%Martínez Cilleros%NULL%1,         Aránzazu%Villasante de la Puente%NULL%1,         Teresa%García Delange%NULL%1,         María José%Ruiz Rodríguez%NULL%1,         Marta%Robledo del Prado%NULL%1,         Juan Carlos%Abad Almendro%NULL%1,         José Román%Muñoz del Rey%NULL%3,         José Román%Muñoz del Rey%NULL%0,         José Román%Muñoz del Rey%NULL%0,         Montaña%Jiménez Álvaro%NULL%1,         Javier%Coy Coy%NULL%3,         Javier%Coy Coy%NULL%0,         Javier%Coy Coy%NULL%0,         Inmaculada%Poquet Catala%NULL%1,         Marta%Santos Peña%NULL%3,         Marta%Santos Peña%NULL%0,         Marta%Santos Peña%NULL%0,         Virginia%Naranjo Velasco%NULL%1,         Tamara%Manso Gómez%NULL%3,         Tamara%Manso Gómez%NULL%0,         Tamara%Manso Gómez%NULL%0,         Delia%Quilez Ágreda%NULL%1,         Gema%Barbeito Castiñeiras%NULL%3,         Gema%Barbeito Castiñeiras%NULL%0,         Gema%Barbeito Castiñeiras%NULL%0,         María Jesús%Domínguez Santalla%NULL%1,         Laura%Mao Martín%NULL%3,         Laura%Mao Martín%NULL%0,         Laura%Mao Martín%NULL%0,         Rodrigo%Alonso Navarro%NULL%1,         Jose David%Ampuero Martinich%NULL%1,         Raquel%Barrós González%NULL%1,         María Aránzazu%Galindo Martín%NULL%1,         Lourdes%Herrera Pacheco%NULL%1,         Rocío%Martínez Avilés%NULL%1,         Sara%Rodrigo González%NULL%1,         Cristóbal Manuel%Rodríguez Leal%NULL%1,         Eva María%Romay Lema%NULL%3,         Eva María%Romay Lema%NULL%0,         Eva María%Romay Lema%NULL%0,         Roi%Suárez Gil%NULL%1,         Maialen%Ibarguren Pinilla%NULL%3,         Maialen%Ibarguren Pinilla%NULL%0,         Maialen%Ibarguren Pinilla%NULL%0,         José María%Marimón Ortiz de Zárate%NULL%1,         Loreto%Vidaur Tello%NULL%1,         Xabier%Kortajarena Urkola%NULL%1,         Miriam%García Gómez%NULL%3,         Miriam%García Gómez%NULL%0,         Miriam%García Gómez%NULL%0,         Asier%Aranguren Arostegui%NULL%1,         Maria%Álvarez de Castro%NULL%3,         Maria%Álvarez de Castro%NULL%0,         Maria%Álvarez de Castro%NULL%0,         Cintia María%Martínez Mateu%NULL%1,         Francisco%Rodríguez Gómez%NULL%3,         Francisco%Rodríguez Gómez%NULL%0,         Francisco%Rodríguez Gómez%NULL%0,         Francisco%Muñoz Beamud%NULL%1,         Elena%Chamarro Martí%NULL%3,         Elena%Chamarro Martí%NULL%0,         Elena%Chamarro Martí%NULL%0,         Merce%Cardona Rivera%NULL%1,         Ismail%Zakariya-Yousef Breval%NULL%3,         Ismail%Zakariya-Yousef Breval%NULL%0,         Ismail%Zakariya-Yousef Breval%NULL%0,         Marta%Rico Rodríguez%NULL%1,         Jara%Llenas García%NULL%3,         Jara%Llenas García%NULL%0,         Jara%Llenas García%NULL%0,         Mª Carmen%Sánchez Arenas%NULL%1,         Ana%Fernández Cruz%NULL%3,         Ana%Fernández Cruz%NULL%0,         Ana%Fernández Cruz%NULL%0,         Jorge%Calderón Parra%NULL%1,         Marcos%López Dosil%NULL%1,         Antonio%Ramos Martínez%NULL%1,         Elena%Múñez Rubio%NULL%1,         Alejandro%Callejas Díaz%NULL%1,         José Manuel%Vázquez Comendador%NULL%1,         Itziar%Diego Yagüe%NULL%1,         Esther%Expósito Palomo%NULL%1,         Jorge%Anel Pedroche%NULL%1,         Raquel%Álvarez Franco%NULL%3,         Raquel%Álvarez Franco%NULL%0,         Raquel%Álvarez Franco%NULL%0,         Lucía%Fernández de Orueta%NULL%1,         Roberto%Vates Gómez%NULL%1,         Andrés Felipe%Cardona Arias%NULL%1,         Pablo%Marguenda Contreras%NULL%1,         Gabriel%Gaspar Alonso-Vega%NULL%1,         Elena María%Aranda Rife%NULL%1,         Blanca%Martínez Cifre%NULL%1,         Daniel%Roger Zapata%NULL%1,         Irene%Martín Rubio%NULL%1,         André%Barbosa Ventura%NULL%3,         André%Barbosa Ventura%NULL%0,         André%Barbosa Ventura%NULL%0,         Iván%Piñero%NULL%1,         Alberto%Bahamonde Carrasco%NULL%3,         Alberto%Bahamonde Carrasco%NULL%0,         Alberto%Bahamonde Carrasco%NULL%0,         Paula%Runza Buznego%NULL%1,         Eva%Talavera García%NULL%3,         Eva%Talavera García%NULL%0,         Eva%Talavera García%NULL%0,         Marta%Lamata Subero%NULL%1,         Ainhoa%Urrutia Losada%NULL%3,         Ainhoa%Urrutia Losada%NULL%0,         Ainhoa%Urrutia Losada%NULL%0,         Lorea%Arteche Eguizabal%NULL%1,         Elisabet%Delgado Sánchez%NULL%3,         Elisabet%Delgado Sánchez%NULL%0,         Elisabet%Delgado Sánchez%NULL%0,         Virginia%Molina Peinado%NULL%1,         Sarah%Caro Bragado%NULL%3,         Sarah%Caro Bragado%NULL%0,         Sarah%Caro Bragado%NULL%0,         Gema%Domínguez de Pablos%NULL%1,         Carolina%Roldán Fontana%NULL%3,         Carolina%Roldán Fontana%NULL%0,         Carolina%Roldán Fontana%NULL%0,         Carmen%Herrero Rodríguez%NULL%1,         Luis%Force Sanmartín%NULL%3,         Luis%Force Sanmartín%NULL%0,         Luis%Force Sanmartín%NULL%0,         Raquel%Aranega%NULL%1,         Arantzazu%Mera Fidalgo%NULL%3,         Arantzazu%Mera Fidalgo%NULL%0,         Arantzazu%Mera Fidalgo%NULL%0,         María Roca%Toda Savall%NULL%1,         Nicolas%Merchante Gutiérrez%NULL%3,         Nicolas%Merchante Gutiérrez%NULL%0,         Nicolas%Merchante Gutiérrez%NULL%0,         Eva María%León Jiménez%NULL%1,         José Luís%Del Pozo%NULL%3,         José Luís%Del Pozo%NULL%0,         José Luís%Del Pozo%NULL%0,         Josefa%Serralta Buades%NULL%3,         Josefa%Serralta Buades%NULL%0,         Josefa%Serralta Buades%NULL%0,         Ginger Giorgiana%Cabrera Tejada%NULL%1,         Mario%Fernández-Ruiz%NULL%3,         Mario%Fernández-Ruiz%NULL%0,         Mario%Fernández-Ruiz%NULL%0,         José María%Aguado%NULL%1,         Guillermo%Maestro de la Calle%NULL%1,         José Miguel%Cisneros%NULL%3,         José Miguel%Cisneros%NULL%0,         José Miguel%Cisneros%NULL%0,         Jerónimo%Pachón%NULL%0,         Manuela%Aguilar-Guisado%NULL%1,         Teresa%Aldabó%NULL%1,         María Dolores%Avilés%NULL%1,         Claudio%Bueno%NULL%1,         Elisa%Cordero-Matía%NULL%1,         Ana%Escoresca%NULL%1,         Lydia%Gálvez-Benítez%NULL%1,         Carmen%Infante%NULL%1,         Guillermo%Martín%NULL%1,         Julia%Praena%NULL%1,         Cristina%Roca%NULL%1,         Celia%Salamanca%NULL%1,         Alejandro%Suárez-Benjumea%NULL%1,         Pilar%Vizcarra%NULL%3,         Pilar%Vizcarra%NULL%0,         Pilar%Vizcarra%NULL%0,         Carmen%Quereda%NULL%1,         Mario José%Rodriguez Dominguez%NULL%1,         Francesca%Gioia%NULL%1,         Francesca%Norman%NULL%1,         Santos%Del Campo%NULL%1,         Rafael%Cantón Moreno%NULL%1,         Antonio%Oteo Revuelta José%NULL%3,         Antonio%Oteo Revuelta José%NULL%0,         Antonio%Oteo Revuelta José%NULL%0,         Paula%Santibáñez Sáenz%NULL%1,         Cristina%Cervera Acedo%NULL%1,         Carlos%Ruiz Martínez%NULL%1,         José R.%Blanco Ramos%NULL%1,         José M.%Azcona Gutiérrez%NULL%1,         Concepción%García García%NULL%1,         Jorge%Alba Fernández%NULL%1,         Valvanera%Ibarra Cucalón%NULL%1,         Mercedes%San Franco%NULL%1,         Luis%Metola Sacristán%NULL%1,         Héctor%Meijide Míguez%NULL%3,         Héctor%Meijide Míguez%NULL%0,         Héctor%Meijide Míguez%NULL%0,         Silvia%Paulos Viñas%NULL%1,         Justo%Menéndez%NULL%3,         Justo%Menéndez%NULL%0,         Justo%Menéndez%NULL%0,         Paula%Villares Fernández%NULL%1,         Lara%Montes Andújar%NULL%1,         Álvaro%Navarro Batet%NULL%3,         Álvaro%Navarro Batet%NULL%0,         Álvaro%Navarro Batet%NULL%0,         Anna%Ferrer Santolaria%NULL%1,         María de la Luz%Padilla Salazar%NULL%3,         María de la Luz%Padilla Salazar%NULL%0,         María de la Luz%Padilla Salazar%NULL%0,         Lucy%Abella Vázquez%NULL%1,         Marcelino%Hayek Peraza%NULL%1,         Antonio%García Pardo%NULL%1,         Carolina%Hernández Carballo%NULL%1,         Andrés Javier%Ruiz Fernández%NULL%3,         Andrés Javier%Ruiz Fernández%NULL%0,         Andrés Javier%Ruiz Fernández%NULL%0,         Isabel%Barrio López%NULL%1,         Alí%Martakoush%NULL%3,         Alí%Martakoush%NULL%0,         Alí%Martakoush%NULL%0,         Agustín%Rojas-Vieyra%NULL%3,         Agustín%Rojas-Vieyra%NULL%0,         Agustín%Rojas-Vieyra%NULL%0,         Sonia%García Calvo%NULL%3,         Sonia%García Calvo%NULL%0,         Sonia%García Calvo%NULL%0,         Mercedes%Villarreal García-Lomas%NULL%1,         Marta%Vizcaíno Callejón%NULL%3,         Marta%Vizcaíno Callejón%NULL%0,         Marta%Vizcaíno Callejón%NULL%0,         María Pilar%García García%NULL%1,         Ana%Lérida Urteaga%NULL%3,         Ana%Lérida Urteaga%NULL%0,         Ana%Lérida Urteaga%NULL%0,         Natalia%Carrasco Fons%NULL%1,         Beatriz%María Sanjuan%NULL%1,         Lydia%Martín González%NULL%1,         Camilo%Sanz Zamudio%NULL%1,         Inmaculada%Jarrín%NULL%0,         Inmaculada%Jarrín%NULL%0,         Inmaculada%Jarrín%NULL%0,         Belén%Alejos%NULL%1,         Cristina%Moreno%NULL%1,         Marta%Rava%NULL%1,         Carlos%Iniesta%NULL%1,         Rebeca%Izquierdo%NULL%1,         Inés%Suárez-García%NULL%1,         Asunción%Díaz%NULL%1,         Marta%Ruiz-Alguero%NULL%1,         Victoria%Hernando%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,         Denise J%McCulloch%NULL%4,         Denise J%McCulloch%NULL%0,         Vidya%Atluri%NULL%2,         Michela%Blain%NULL%2,         Sarah A%McGuffin%NULL%2,         Arun K%Nalla%NULL%2,         Meei-Li%Huang%NULL%2,         Alex L%Greninger%NULL%2,         Keith R%Jerome%NULL%2,         Seth A%Cohen%NULL%2,         Santiago%Neme%NULL%2,         Margaret L%Green%NULL%2,         Helen Y%Chu%NULL%2,         H Nina%Kim%NULL%2]</t>
   </si>
   <si>
     <t>"Obesity and COVID-19 Severity in a Designated Hospital in Shenzhen, China"</t>
@@ -2218,147 +1468,12 @@
 \n               </t>
   </si>
   <si>
-    <t>[Qingxian%Cai%xref no email%1, Fengjuan%Chen%xref no email%1, Tao%Wang%xref no email%0, Fang%Luo%xref no email%1, Xiaohui%Liu%xref no email%1, Qikai%Wu%xref no email%1, Qing%He%xref no email%1, Zhaoqin%Wang%xref no email%1, Yingxia%Liu%xref no email%0, Lei%Liu%xref no email%1, Jun%Chen%xref no email%0, Lin%Xu%xref no email%1]</t>
-  </si>
-  <si>
     <t>CROSSREF</t>
   </si>
   <si>
     <t>2023-05-25</t>
   </si>
   <si>
-    <t>[Jianlei%Cao%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,         Wenlin%Cheng%NULL%0,         Lei%Yu%NULL%0,         Ya-Kun%Liu%NULL%0,         Xiaoyong%Hu%NULL%0,         Qiang%Liu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Salvatore%Caratozzolo%NULL%1,         Alberto%Zucchelli%NULL%1,         Marinella%Turla%NULL%1,         Maria Sofia%Cotelli%NULL%1,         Sara%Fascendini%NULL%1,         Mara%Zanni%NULL%1,         Angelo%Bianchetti%NULL%1,         Matteo Peli%Psy%NULL%1,         Renzo%Rozzini%NULL%1,         Stefano%Boffelli%NULL%1,         Melania%Cappuccio%NULL%1,         Federica Gottardi%Psy%NULL%1,         Chiara Vecchi%Psy%NULL%1,         Daniele%Bellandi%NULL%1,         Claudia%Caminati%NULL%1,         Simona%Gentile%NULL%1,         Elena Lucchi%Psy%NULL%1,         Ignazio%Di Fazio%NULL%1,         Marina Zanetti%Psy%NULL%1,         Giuliana%Vezzadini%NULL%1,         Chiara Forlani%Psy%NULL%1,         Maura Cosseddu%Psy%NULL%1,         Rosanna Turrone%Psy%NULL%1,         Silvia Pelizzari%Psy%NULL%1,         Andrea%Scalvini%NULL%1,         Marco%Di Cesare%NULL%1,         Marta Grigolo%Psy%NULL%1,         Lina%Falanga%NULL%1,         Nives%Medici%NULL%1,         Nives%Palamini%NULL%1,         Elisa Zanacchi%Psy%NULL%1,         Eleonora Grossi%Psy%NULL%1,         Giuseppe%Bellelli%NULL%1,         Alessandra%Marengoni%NULL%1,         Marco%Trabucchi%NULL%1,         Alessandro%Padovani%alessandro.padovani@unibs.it%1,         NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0,         Nancy%Chow%NULL%3,         Katherine%Fleming-Dutra%NULL%2,         Ryan%Gierke%NULL%3,         Aron%Hall%NULL%3,         Michelle%Hughes%NULL%2,         Tamara%Pilishvili%NULL%3,         Matthew%Ritchey%NULL%3,         Katherine%Roguski%NULL%2,         Tami%Skoff%NULL%2,         Emily%Ussery%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Qingqing%Chen%NULL%2,         Zhencang%Zheng%NULL%2,         Chao%Zhang%NULL%2,         Xijiang%Zhang%NULL%2,         Huijuan%Wu%NULL%2,         Jingdong%Wang%NULL%2,         Shuwei%Wang%NULL%2,         Cheng%Zheng%dr.zhengcheng@foxmail.com%2]</t>
-  </si>
-  <si>
-    <t>[Yan%Deng%NULL%0,         Wei%Liu%NULL%0,         Kui%Liu%NULL%0,         Yuan-Yuan%Fang%NULL%0,         Jin%Shang%NULL%0,         Ling%Zhou%NULL%0,         Ke%Wang%NULL%0,         Fan%Leng%NULL%0,         Shuang%Wei%NULL%0,         Lei%Chen%NULL%0,         Hui-Guo%Liu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Nathalie%Nicolay%NULL%1,         Francesco%Innocenti%NULL%1,         Julien%Beauté%NULL%0,         Veronika%Učakar%NULL%1,         Marta%Grgič Vitek%NULL%1,         Eero%Poukka%NULL%1,         Tuula%Hannila-Handelberg%NULL%1,         Charmaine%Gauci%NULL%1,         Tanya%Melillo%NULL%1,         Theano%Georgakopoulou%NULL%1,         Jiri%Jarkovsky%NULL%1,         Pavel%Slezak%NULL%1,         Concepción%Delgado-Sanz%NULL%1,         Carmen%Olmedo-Lucerón%NULL%1,         Heleene%Suija%NULL%1,         Rasa%Liausediene%NULL%1,         Piaras%O’Lorcain%NULL%1,         Niamh%Murphy%NULL%1,         André%Peralta-Santos%NULL%1,         Pedro%Casaca%NULL%1,         Ioanna%Gregoriou%NULL%1,         Nick%Bundle%NULL%0,         Gianfranco%Spiteri%NULL%1,         Giovanni%Ravasi%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Feng%NULL%2,         Peiyun%Li%NULL%2,         Liang%Ma%NULL%2,         Hang%Liang%NULL%2,         Jie%Lei%NULL%3,         Wenqiang%Li%NULL%2,         Kun%Wang%NULL%3,         Yu%Song%NULL%2,         Shuai%Li%NULL%2,         Wei%Yang%NULL%2,         Cao%Yang%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Yun%Feng%NULL%0,         Yun%Ling%NULL%0,         Yun%Ling%NULL%0,         Tao%Bai%NULL%6,         Tao%Bai%NULL%0,         Yusang%Xie%NULL%2,         Jie%Huang%NULL%4,         Jie%Huang%NULL%0,         Jian%Li%NULL%2,         Weining%Xiong%NULL%2,         Dexiang%Yang%NULL%2,         Rong%Chen%NULL%2,         Fangying%Lu%NULL%2,         Yunfei%Lu%NULL%3,         Xuhui%Liu%NULL%2,         Yuqing%Chen%NULL%4,         Yuqing%Chen%NULL%0,         Xin%Li%NULL%3,         Yong%Li%NULL%2,         Hanssa Dwarka%Summah%NULL%2,         Huihuang%Lin%NULL%2,         Jiayang%Yan%NULL%2,         Min%Zhou%NULL%0,         Hongzhou%Lu%NULL%0,         Hongzhou%Lu%NULL%0,         Jieming%Qu%NULL%0,         Jieming%Qu%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Paolo%Giorgi Rossi%NULL%0,         Massimiliano%Marino%NULL%1,         Debora%Formisano%NULL%1,         Francesco%Venturelli%NULL%1,         Massimo%Vicentini%NULL%2,         Massimo%Vicentini%NULL%0,         Roberto%Grilli%NULL%1,         NULL%NULL%NULL%0,         Gianluigi%Forloni%NULL%8,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0,         Gianluigi%Forloni%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Parag%Goyal%NULL%0,         Justin J.%Choi%NULL%1,         Laura C.%Pinheiro%NULL%1,         Edward J.%Schenck%NULL%1,         Ruijun%Chen%NULL%0,         Assem%Jabri%NULL%1,         Michael J.%Satlin%NULL%1,         Thomas R.%Campion%NULL%1,         Musarrat%Nahid%NULL%1,         Joanna B.%Ringel%NULL%1,         Katherine L.%Hoffman%NULL%1,         Mark N.%Alshak%NULL%1,         Han A.%Li%NULL%1,         Graham T.%Wehmeyer%NULL%2,         Graham T.%Wehmeyer%NULL%0,         Mangala%Rajan%NULL%1,         Evgeniya%Reshetnyak%NULL%1,         Nathaniel%Hupert%NULL%1,         Evelyn M.%Horn%NULL%1,         Fernando J.%Martinez%NULL%1,         Roy M.%Gulick%NULL%1,         Monika M.%Safford%NULL%2,         Monika M.%Safford%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jonathan%Grein%NULL%1,         Norio%Ohmagari%NULL%1,         Daniel%Shin%NULL%1,         George%Diaz%NULL%1,         Erika%Asperges%NULL%1,         Antonella%Castagna%NULL%0,         Torsten%Feldt%NULL%1,         Gary%Green%NULL%1,         Margaret L.%Green%NULL%1,         François-Xavier%Lescure%NULL%1,         Emanuele%Nicastri%NULL%0,         Rentaro%Oda%NULL%2,         Rentaro%Oda%NULL%0,         Kikuo%Yo%NULL%2,         Kikuo%Yo%NULL%0,         Eugenia%Quiros-Roldan%NULL%1,         Alex%Studemeister%NULL%1,         John%Redinski%NULL%1,         Seema%Ahmed%NULL%1,         Jorge%Bernett%NULL%1,         Daniel%Chelliah%NULL%1,         Danny%Chen%NULL%1,         Shingo%Chihara%NULL%1,         Stuart H.%Cohen%NULL%1,         Jennifer%Cunningham%NULL%1,         Antonella%D’Arminio Monforte%NULL%1,         Saad%Ismail%NULL%1,         Hideaki%Kato%NULL%1,         Giuseppe%Lapadula%NULL%1,         Erwan%L’Her%NULL%1,         Toshitaka%Maeno%NULL%1,         Sumit%Majumder%NULL%1,         Marco%Massari%NULL%1,         Marta%Mora-Rillo%NULL%1,         Yoshikazu%Mutoh%NULL%1,         Duc%Nguyen%NULL%1,         Ewa%Verweij%NULL%1,         Alexander%Zoufaly%NULL%1,         Anu O.%Osinusi%NULL%1,         Adam%DeZure%NULL%1,         Yang%Zhao%NULL%1,         Lijie%Zhong%NULL%1,         Anand%Chokkalingam%NULL%1,         Emon%Elboudwarej%NULL%1,         Laura%Telep%NULL%1,         Leighann%Timbs%NULL%1,         Ilana%Henne%NULL%1,         Scott%Sellers%NULL%1,         Huyen%Cao%NULL%1,         Susanna K.%Tan%NULL%1,         Lucinda%Winterbourne%NULL%1,         Polly%Desai%NULL%1,         Robertino%Mera%NULL%1,         Anuj%Gaggar%NULL%1,         Robert P.%Myers%NULL%1,         Diana M.%Brainard%NULL%1,         Richard%Childs%NULL%1,         Timothy%Flanigan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Wei-jie%Guan%NULL%0,         Zheng-yi%Ni%NULL%0,         Zheng-yi%Ni%NULL%0,         Yu%Hu%NULL%0,         Wen-hua%Liang%NULL%0,         Chun-quan%Ou%NULL%0,         Jian-xing%He%NULL%0,         Lei%Liu%NULL%0,         Hong%Shan%NULL%0,         Chun-liang%Lei%NULL%0,         David S.C.%Hui%NULL%0,         Bin%Du%NULL%0,         Lan-juan%Li%NULL%0,         Guang%Zeng%NULL%0,         Kwok-Yung%Yuen%NULL%0,         Ru-chong%Chen%NULL%0,         Chun-li%Tang%NULL%0,         Tao%Wang%NULL%0,         Ping-yan%Chen%NULL%0,         Jie%Xiang%NULL%0,         Shi-yue%Li%NULL%0,         Jin-lin%Wang%NULL%0,         Zi-jing%Liang%NULL%0,         Yi-xiang%Peng%NULL%0,         Li%Wei%NULL%0,         Yong%Liu%NULL%0,         Ya-hua%Hu%NULL%0,         Peng%Peng%NULL%0,         Jian-ming%Wang%NULL%0,         Ji-yang%Liu%NULL%0,         Zhong%Chen%NULL%0,         Gang%Li%NULL%0,         Zhi-jian%Zheng%NULL%0,         Shao-qin%Qiu%NULL%0,         Jie%Luo%NULL%0,         Chang-jiang%Ye%NULL%0,         Shao-yong%Zhu%NULL%0,         Nan-shan%Zhong%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Admon%Andrew J.%coreGivesNoEmail%1,        Arunthamakun%Justin%coreGivesNoEmail%1,        Athavale%Ambarish M.%coreGivesNoEmail%1,        Bansal%Anip%coreGivesNoEmail%1,        Brenner%Samantha K.%coreGivesNoEmail%1,        Chan%Lili%coreGivesNoEmail%1,        Donnelly%John P.%coreGivesNoEmail%1,        Friedman%Allon N.%coreGivesNoEmail%1,        Gershengorn%Hayley B.%coreGivesNoEmail%1,        Goyal%Nitender%coreGivesNoEmail%1,        Green%Adam%coreGivesNoEmail%1,        Gupta%Shruti%coreGivesNoEmail%1,        Hayek%Salim S.%coreGivesNoEmail%1,        Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,        Kibbelaar%Zoe A.%coreGivesNoEmail%1,        Leaf%David E.%coreGivesNoEmail%1,        Leonberg-Yoo%Amanda%coreGivesNoEmail%1,        Mathews%Kusum S.%coreGivesNoEmail%1,        Melamed%Michal L.%coreGivesNoEmail%1,        Omar%Samah Abu%coreGivesNoEmail%1,        Parikh%Chirag R.%coreGivesNoEmail%1,        Radbel%Jared%coreGivesNoEmail%1,        Reiser%Jochen%coreGivesNoEmail%1,        Schenck%Edward J.%coreGivesNoEmail%1,        Semler%Matthew W.%coreGivesNoEmail%1,        Shaefi%Shahzad%coreGivesNoEmail%1,        Shehata%Alexandre M.%coreGivesNoEmail%1,        Short%Samuel A. P.%coreGivesNoEmail%1,        Srivastava%Anand%coreGivesNoEmail%1,        Sutherland%Anne%coreGivesNoEmail%1,        Velez%Juan Carlos Q.%coreGivesNoEmail%1,        Vijayan%Anitha%coreGivesNoEmail%1,        Wang%Wei%coreGivesNoEmail%2,        Zhou%Yan%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Rahmet%GÜNER%NULL%1,         İmran%HASANOĞLU%NULL%2,         İmran%HASANOĞLU%NULL%0,         Bircan%KAYAASLAN%NULL%2,         Bircan%KAYAASLAN%NULL%0,         Adalet%AYPAK%NULL%2,         Adalet%AYPAK%NULL%0,         Ayşe%KAYA KALEM%NULL%2,         Ayşe%KAYA KALEM%NULL%0,         Fatma%ESER%NULL%2,         Fatma%ESER%NULL%0,         Burcu%ÖZDEMİR%NULL%2,         Burcu%ÖZDEMİR%NULL%0,         Elif Mükime%SARICAOĞLU%NULL%2,         Elif Mükime%SARICAOĞLU%NULL%0,         Müge%AYHAN%NULL%2,         Müge%AYHAN%NULL%0,         Yeşim%AYBAR BİLİR%NULL%2,         Yeşim%AYBAR BİLİR%NULL%0,         Işıl%ÖZKOÇAK TURAN%NULL%2,         Işıl%ÖZKOÇAK TURAN%NULL%0,         Deniz%ERDEM%NULL%2,         Deniz%ERDEM%NULL%0,         Nevzat Mehmet%MUTLU%NULL%1,         Turan%BUZGAN%NULL%2,         Turan%BUZGAN%NULL%0,         Bedia%DİNÇ%NULL%2,         Bedia%DİNÇ%NULL%0,         Esragül%AKINCI%NULL%2,         Esragül%AKINCI%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Stephanie L.%Harrison%NULL%1,         Elnara%Fazio-Eynullayeva%NULL%2,         Elnara%Fazio-Eynullayeva%NULL%0,         Deirdre A.%Lane%NULL%2,         Deirdre A.%Lane%NULL%0,         Paula%Underhill%NULL%2,         Paula%Underhill%NULL%0,         Gregory Y. H.%Lip%NULL%1,         Mirjam E. E.%Kretzschmar%NULL%3,         Mirjam E. E.%Kretzschmar%NULL%0,         Mirjam E. E.%Kretzschmar%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yuanzhou%He%NULL%1,         Min%Xie%NULL%2,         Jianping%Zhao%NULL%0,         Xiansheng%Liu%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Ling%Hu%NULL%0,         Shaoqiu%Chen%NULL%1,         Yuanyuan%Fu%NULL%1,         Zitong%Gao%NULL%1,         Hui%Long%NULL%1,         Jian-ming%Wang%NULL%0,         Hong-wei%Ren%NULL%1,         Yi%Zuo%NULL%1,         Huan%Li%NULL%0,         Jie%Wang%NULL%1,         Qing-bang%Xu%NULL%1,         Wen-xiong%Yu%NULL%1,         Jia%Liu%NULL%1,         Chen%Shao%NULL%1,         Jun-jie%Hao%NULL%1,         Chuan-zhen%Wang%NULL%1,         Yao%Ma%NULL%1,         Zhanwei%Wang%NULL%1,         Richard%Yanagihara%NULL%1,         Youping%Deng%dengy@hawaii.edu%1]</t>
-  </si>
-  <si>
-    <t>[Chaolin%Huang%NULL%0,         Yeming%Wang%NULL%0,         Xingwang%Li%NULL%0,         Lili%Ren%NULL%0,         Jianping%Zhao%NULL%0,         Yi%Hu%NULL%0,         Li%Zhang%NULL%0,         Guohui%Fan%NULL%0,         Jiuyang%Xu%NULL%0,         Xiaoying%Gu%NULL%0,         Zhenshun%Cheng%NULL%0,         Ting%Yu%NULL%0,         Jiaan%Xia%NULL%0,         Yuan%Wei%NULL%0,         Wenjuan%Wu%NULL%0,         Xuelei%Xie%NULL%0,         Wen%Yin%NULL%0,         Hui%Li%NULL%0,         Min%Liu%NULL%0,         Yan%Xiao%NULL%0,         Hong%Gao%NULL%0,         Li%Guo%NULL%0,         Jungang%Xie%NULL%0,         Guangfa%Wang%NULL%0,         Rongmeng%Jiang%NULL%0,         Zhancheng%Gao%NULL%0,         Qi%Jin%NULL%0,         Jianwei%Wang%wangjw28@163.com%0,         Bin%Cao%caobin_ben@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,        Bayani%Masomeh%coreGivesNoEmail%1,        Bijani%Ali%coreGivesNoEmail%1,        Ebrahimpour%Soheil%coreGivesNoEmail%1,        Gholinejad%Hossein Emam%coreGivesNoEmail%1,        Ghorbani%Hossein%coreGivesNoEmail%1,        Hasanpour%Amir Hossein%coreGivesNoEmail%1,        Javanian%Mostafa%coreGivesNoEmail%1,        Masrour-Roudsari%Jila%coreGivesNoEmail%1,        Mehraeen%Rahele%coreGivesNoEmail%1,        Mohseni%Sima%coreGivesNoEmail%1,        Rostami%Ali%coreGivesNoEmail%1,        Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,        Sepidarkish%Mahdi%coreGivesNoEmail%1,        Shabani%Asieh%coreGivesNoEmail%1,        Shahbazi%Mehdi%coreGivesNoEmail%1,        Shokri%Mehran%coreGivesNoEmail%1,        Tabari%Afrooz Monadi%coreGivesNoEmail%1,        Yeganeh%Babak%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Filippo%Lagi%NULL%1,         Matteo%Piccica%NULL%1,         Lucia%Graziani%NULL%1,         Iacopo%Vellere%NULL%1,         Annarita%Botta%NULL%1,         Marta%Tilli%NULL%1,         Letizia%Ottino%NULL%1,         Beatrice%Borchi%NULL%1,         Marco%Pozzi%NULL%1,         Filippo%Bartalesi%NULL%1,         Jessica%Mencarini%NULL%1,         Michele%Spinicci%NULL%1,         Lorenzo%Zammarchi%NULL%1,         Filippo%Pieralli%NULL%1,         Giovanni%Zagli%NULL%1,         Carlo%Nozzoli%NULL%1,         Stefano%Romagnoli%NULL%1,         Alessandro%Bartoloni%NULL%1,         NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Wei%Liu%NULL%0,         Zhao-Wu%Tao%NULL%0,         Lei%Wang%NULL%0,         Ming-Li%Yuan%NULL%0,         Kui%Liu%NULL%0,         Ling%Zhou%NULL%0,         Shuang%Wei%NULL%0,         Yan%Deng%NULL%0,         Jing%Liu%NULL%0,         Hui-Guo%Liu%NULL%0,         Ming%Yang%NULL%0,         Yi%Hu%NULL%0,         Pei-Fang%Wei%NULL%0,         Pei-Fang%Wei%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaochen%Li%NULL%0,         Shuyun%Xu%NULL%1,         Muqing%Yu%NULL%1,         Ke%Wang%NULL%0,         Yu%Tao%NULL%0,         Ying%Zhou%NULL%0,         Jing%Shi%NULL%2,         Min%Zhou%NULL%0,         Bo%Wu%NULL%1,         Zhenyu%Yang%NULL%1,         Cong%Zhang%NULL%0,         Junqing%Yue%NULL%1,         Zhiguo%Zhang%NULL%1,         Harald%Renz%NULL%1,         Xiansheng%Liu%NULL%0,         Jungang%Xie%NULL%0,         Min%Xie%NULL%0,         Jianping%Zhao%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Yang-kai%Li%doclyk@163.com%1,         Shu%Peng%NULL%1,         Le-qun%Li%NULL%1,         Qi%Wang%NULL%0,         Wei%Ping%NULL%1,         Ni%Zhang%NULL%1,         Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
-  </si>
-  <si>
-    <t>[Pingzheng%Mo%NULL%0,         Yuanyuan%Xing%NULL%0,         Yu%Xiao%NULL%0,         Liping%Deng%NULL%0,         Qiu%Zhao%NULL%0,         Hongling%Wang%NULL%0,         Yong%Xiong%NULL%0,         Zhenshun%Cheng%NULL%0,         Shicheng%Gao%NULL%0,         Ke%Liang%NULL%0,         Mingqi%Luo%NULL%0,         Tielong%Chen%NULL%0,         Shihui%Song%NULL%0,         Zhiyong%Ma%NULL%0,         Xiaoping%Chen%NULL%0,         Ruiying%Zheng%NULL%0,         Qian%Cao%NULL%0,         Fan%Wang%fanndywang@foxmail.com%0,         Yongxi%Zhang%znact1936@126.com%0]</t>
-  </si>
-  <si>
-    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,         Nicolas%Lopez-Villalobos%NULL%1,         Francisco E.%Parra-Bracamonte%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Ishan%Paranjpe%NULL%2,         Adam J%Russak%NULL%4,         Adam J%Russak%NULL%0,         Jessica K%De Freitas%NULL%2,         Anuradha%Lala%NULL%2,         Riccardo%Miotto%NULL%2,         Akhil%Vaid%NULL%2,         Kipp W%Johnson%NULL%2,         Matteo%Danieletto%NULL%2,         Eddye%Golden%NULL%2,         Dara%Meyer%NULL%2,         Manbir%Singh%NULL%2,         Sulaiman%Somani%NULL%2,         Arjun%Kapoor%NULL%2,         Ross%O'Hagan%NULL%2,         Sayan%Manna%NULL%2,         Udit%Nangia%NULL%2,         Suraj K%Jaladanki%NULL%2,         Paul%O’Reilly%NULL%4,         Paul%O’Reilly%NULL%0,         Laura M%Huckins%NULL%2,         Patricia%Glowe%NULL%2,         Arash%Kia%NULL%2,         Prem%Timsina%NULL%2,         Robert M%Freeman%NULL%2,         Matthew A%Levin%NULL%2,         Jeffrey%Jhang%NULL%2,         Adolfo%Firpo%NULL%2,         Patricia%Kovatch%NULL%2,         Joseph%Finkelstein%NULL%2,         Judith A%Aberg%NULL%2,         Emilia%Bagiella%NULL%2,         Carol R%Horowitz%NULL%2,         Barbara%Murphy%NULL%2,         Zahi A%Fayad%NULL%2,         Jagat%Narula%NULL%2,         Eric J%Nestler%NULL%2,         V%Fuster%NULL%2,         Carlos%Cordon-Cardo%NULL%2,         Dennis%Charney%NULL%2,         David L%Reich%NULL%2,         Allan%Just%NULL%2,         Erwin P%Bottinger%NULL%2,         Alexander W%Charney%NULL%2,         Benjamin S%Glicksberg%NULL%2,         Girish N%Nadkarni%NULL%2,         NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t>[ D.%Qi%null%1,          X.% Yan%null%1,          X.% Tang%null%1,          J.% Peng%null%1,          Q.% Yu%null%1,          L.% Feng%null%1,          G.% Yuan%null%1,          A.% Zhang%null%1,          Y.% Chen%null%1,          J.% Yuan%null%1,          X.% Huang%null%1,          X.% Zhang%null%1,          P.% Hu%null%1,          Y.% Song%null%1,          C.% Qian%null%1,          Q.% Sun%null%1,          D.% Wang%null%1,          J.% Tong%null%1,          J. % Xiang%null%1]</t>
-  </si>
-  <si>
-    <t>[Grace%Salacup%salacupg@einstein.edu%0,         Kevin Bryan%Lo%NULL%0,         Kevin Bryan%Lo%NULL%0,         Fahad%Gul%NULL%0,         Eric%Peterson%NULL%0,         Robert%De Joy%NULL%0,         Ruchika%Bhargav%NULL%0,         Jerald%Pelayo%NULL%0,         Jeri%Albano%NULL%0,         Zurab%Azmaiparashvili%NULL%0,         Sadia%Benzaquen%NULL%0,         Gabriel%Patarroyo‐Aponte%NULL%0,         Janani%Rangaswami%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Shaobo%Shi%NULL%0,         Mu%Qin%qinmuae@163.com%0,         Yuli%Cai%NULL%0,         Tao%Liu%NULL%0,         Bo%Shen%NULL%0,         Fan%Yang%NULL%0,         Sheng%Cao%NULL%0,         Xu%Liu%NULL%0,         Xu%Liu%NULL%0,         Yaozu%Xiang%NULL%0,         Qinyan%Zhao%NULL%0,         He%Huang%huanghe1977@whu.edu.cn%0,         Bo%Yang%yybb112@whu.edu.cn%0,         Congxin%Huang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Jennifer%Tomlins%NULL%1,         Fergus%Hamilton%NULL%1,         Samuel%Gunning%NULL%1,         Caitlin%Sheehy%NULL%1,         Ed%Moran%NULL%1,         Alastair%MacGowan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Suxin%Wan%NULL%0,         Yi%Xiang%NULL%0,         Wei%Fang%NULL%0,         Yu%Zheng%yuzheng1@cdutcm.edu.cn%0,         Boqun%Li%279685211@qq.com%0,         Boqun%Li%279685211@qq.com%0,         Yanjun%Hu%huyanjun@163.com%0,         Chunhui%Lang%NULL%0,         Daoqiu%Huang%NULL%0,         Qiuyan%Sun%NULL%0,         Yan%Xiong%NULL%0,         Xia%Huang%NULL%0,         Jinglong%Lv%NULL%0,         Yaling%Luo%NULL%0,         Li%Shen%NULL%0,         Haoran%Yang%NULL%0,         Gu%Huang%NULL%0,         Ruishan%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,        Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%0,        Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%0,        Subert-Salas%Lizandra%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Lang%Wang%NULL%5,         Wenbo%He%NULL%4,         Xiaomei%Yu%NULL%4,         Dalong%Hu%NULL%4,         Mingwei%Bao%NULL%4,         Huafen%Liu%NULL%4,         Jiali%Zhou%NULL%4,         Hong%Jiang%NULL%4]</t>
-  </si>
-  <si>
-    <t>[Zhongliang%Wang%NULL%0,         Bohan%Yang%NULL%0,         Qianwen%Li%NULL%0,         Lu%Wen%NULL%0,         Ruiguang%Zhang%zrg27@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Wu%J%coreGivesNoEmail%1,        Xu%Y%coreGivesNoEmail%1,        Zhanwei%Du%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Xisheng%Yan%NULL%0,         Fen%Li%NULL%0,         Xiao%Wang%NULL%0,         Jie%Yan%NULL%0,         Fen%Zhu%NULL%0,         Shifan%Tang%NULL%0,         Yingzhong%Deng%NULL%0,         Hua%Wang%NULL%0,         Rui%Chen%NULL%0,         Zhili%Yu%NULL%0,         Yaping%Li%NULL%0,         Jingzhou%Shang%NULL%0,         Lingjun%Zeng%NULL%0,         Jie%Zhao%NULL%0,         Chaokun%Guan%NULL%0,         Qiaomei%Liu%NULL%0,         Haifeng%Chen%NULL%0,         Wei%Gong%NULL%0,         Xin%Huang%NULL%0,         Yu‐Jiao%Zhang%NULL%0,         Jianguang%Liu%NULL%0,         Xiaoyan%Dong%NULL%0,         Wen%Zheng%zhengwen12@mails.jlu.edu.cn%0,         Shaoping%Nie%spnie@126.com%0,         Dongsheng%Li%dongshengli196809@163.com%0]</t>
-  </si>
-  <si>
-    <t>[Ping%Yang%NULL%1,         Pengfei%Wang%NULL%2,         Pengfei%Wang%NULL%0,         Yuyan%Song%NULL%1,         An%Zhang%zhangan@hospital.cqmu.edu.cn%1,         Guodan%Yuan%71502294@qq.com%1,         Yong%Cui%754605155@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Xiaobo%Yang%NULL%0,         Yuan%Yu%NULL%0,         Jiqian%Xu%NULL%0,         Huaqing%Shu%NULL%0,         Jia'an%Xia%NULL%0,         Hong%Liu%NULL%0,         Yongran%Wu%NULL%0,         Lu%Zhang%NULL%0,         Zhui%Yu%NULL%0,         Minghao%Fang%NULL%0,         Ting%Yu%NULL%0,         Yaxin%Wang%NULL%0,         Shangwen%Pan%NULL%0,         Xiaojing%Zou%NULL%0,         Shiying%Yuan%NULL%0,         You%Shang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,        Cao%Yi-yuan%coreGivesNoEmail%0,        Dong%Xiang%coreGivesNoEmail%0,        Gao%Ya-dong%coreGivesNoEmail%0,        Yan%You-qin%coreGivesNoEmail%0,        Yang%Yi-bin%coreGivesNoEmail%0,        Yuan%Ya-dong%coreGivesNoEmail%0,        Zhang%Jin-jin%coreGivesNoEmail%0]</t>
-  </si>
-  <si>
-    <t>[Guqin%Zhang%NULL%4,         Chang%Hu%NULL%4,         Linjie%Luo%NULL%3,         Fang%Fang%NULL%5,         Yongfeng%Chen%NULL%3,         Jianguo%Li%NULL%3,         Zhiyong%Peng%NULL%0,         Huaqin%Pan%phq2012@whu.edu.cn%3]</t>
-  </si>
-  <si>
-    <t>[Jun%Zhang%NULL%1,         Miao%Yu%NULL%1,         Song%Tong%NULL%1,         Lu-Yu%Liu%NULL%1,         Liang-V.%Tang%lancet.tang@qq.com%1]</t>
-  </si>
-  <si>
-    <t>[Rui%Zhang%NULL%2,         Huangqing%Ouyang%NULL%2,         Lingli%Fu%NULL%2,         Shijie%Wang%NULL%2,         Jianglong%Han%NULL%2,         Kejie%Huang%NULL%2,         Mingfang%Jia%NULL%2,         Qibin%Song%NULL%2,         Zhenming%Fu%davidfuzming@whu.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Zirun%Zhao%NULL%0,         Anne%Chen%NULL%1,         Wei%Hou%NULL%3,         James M.%Graham%NULL%1,         Haifang%Li%NULL%1,         Paul S.%Richman%NULL%1,         Henry C.%Thode%NULL%1,         Adam J.%Singer%NULL%1,         Tim Q.%Duong%NULL%1,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0,         Muhammad%Adrish%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
-  </si>
-  <si>
     <t>[Sulaiman%Almazeedi%NULL%2,          Sarah%Al-Youha%sarahalyouha@gmail.com%1,          Mohammad H.%Jamal%NULL%1,          Mohannad%Al-Haddad%NULL%1,          Ali%Al-Muhaini%NULL%1,          Fahad%Al-Ghimlas%NULL%1,          Salman%Al-Sabah%NULL%1]</t>
   </si>
   <si>
@@ -2507,6 +1622,9 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
   </si>
 </sst>
 </file>
@@ -2833,7 +1951,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:G51"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2881,7 +1999,7 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>538</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -2910,7 +2028,7 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>539</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -2939,7 +2057,7 @@
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>540</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
         <v>76</v>
@@ -2968,7 +2086,7 @@
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>541</v>
+        <v>246</v>
       </c>
       <c r="F5" t="s">
         <v>80</v>
@@ -2997,7 +2115,7 @@
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>542</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
@@ -3020,22 +2138,22 @@
         <v>44013</v>
       </c>
       <c r="C7" t="s">
-        <v>489</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
-        <v>490</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>543</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>492</v>
+        <v>241</v>
       </c>
       <c r="H7" t="s">
-        <v>493</v>
+        <v>242</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
@@ -3055,7 +2173,7 @@
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>544</v>
+        <v>249</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -3084,7 +2202,7 @@
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>545</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
         <v>91</v>
@@ -3113,7 +2231,7 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>546</v>
+        <v>251</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -3142,7 +2260,7 @@
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>547</v>
+        <v>252</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -3171,7 +2289,7 @@
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>548</v>
+        <v>253</v>
       </c>
       <c r="F12" t="s">
         <v>102</v>
@@ -3200,7 +2318,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>549</v>
+        <v>254</v>
       </c>
       <c r="F13" t="s">
         <v>105</v>
@@ -3229,7 +2347,7 @@
         <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>550</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -3258,7 +2376,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>551</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
         <v>113</v>
@@ -3287,7 +2405,7 @@
         <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>552</v>
+        <v>257</v>
       </c>
       <c r="F16" t="s">
         <v>117</v>
@@ -3316,7 +2434,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>553</v>
+        <v>258</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -3345,7 +2463,7 @@
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>554</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
@@ -3374,7 +2492,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>555</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
@@ -3403,13 +2521,13 @@
         <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>556</v>
+        <v>261</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="H20" t="s">
         <v>77</v>
@@ -3432,7 +2550,7 @@
         <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>557</v>
+        <v>262</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -3461,7 +2579,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>558</v>
+        <v>263</v>
       </c>
       <c r="F22" t="s">
         <v>133</v>
@@ -3490,7 +2608,7 @@
         <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>559</v>
+        <v>264</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3519,7 +2637,7 @@
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>560</v>
+        <v>265</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3548,7 +2666,7 @@
         <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>561</v>
+        <v>266</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -3577,13 +2695,13 @@
         <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>562</v>
+        <v>267</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -3606,7 +2724,7 @@
         <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>563</v>
+        <v>268</v>
       </c>
       <c r="F27" t="s">
         <v>147</v>
@@ -3635,7 +2753,7 @@
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>564</v>
+        <v>269</v>
       </c>
       <c r="F28" t="s">
         <v>151</v>
@@ -3664,7 +2782,7 @@
         <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>565</v>
+        <v>270</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3693,7 +2811,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>566</v>
+        <v>271</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -3722,7 +2840,7 @@
         <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>567</v>
+        <v>272</v>
       </c>
       <c r="F31" t="s">
         <v>161</v>
@@ -3751,7 +2869,7 @@
         <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>568</v>
+        <v>273</v>
       </c>
       <c r="F32" t="s">
         <v>164</v>
@@ -3780,7 +2898,7 @@
         <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>569</v>
+        <v>274</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3809,13 +2927,13 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>570</v>
-      </c>
-      <c r="F34" t="s">
-        <v>62</v>
+        <v>275</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>293</v>
       </c>
       <c r="H34" t="s">
         <v>171</v>
@@ -3838,7 +2956,7 @@
         <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>571</v>
+        <v>276</v>
       </c>
       <c r="F35" t="s">
         <v>174</v>
@@ -3867,7 +2985,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>572</v>
+        <v>277</v>
       </c>
       <c r="F36" t="s">
         <v>178</v>
@@ -3896,7 +3014,7 @@
         <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>573</v>
+        <v>278</v>
       </c>
       <c r="F37" t="s">
         <v>181</v>
@@ -3925,7 +3043,7 @@
         <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>574</v>
+        <v>279</v>
       </c>
       <c r="F38" t="s">
         <v>185</v>
@@ -3954,13 +3072,13 @@
         <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>575</v>
+        <v>280</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="H39" t="s">
         <v>77</v>
@@ -3983,7 +3101,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>576</v>
+        <v>281</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -4012,7 +3130,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>577</v>
+        <v>282</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -4041,13 +3159,13 @@
         <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>578</v>
+        <v>283</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
       </c>
       <c r="G42" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="H42" t="s">
         <v>77</v>
@@ -4070,7 +3188,7 @@
         <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>579</v>
+        <v>284</v>
       </c>
       <c r="F43" t="s">
         <v>196</v>
@@ -4099,7 +3217,7 @@
         <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>580</v>
+        <v>285</v>
       </c>
       <c r="F44" t="s">
         <v>200</v>
@@ -4128,7 +3246,7 @@
         <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>581</v>
+        <v>286</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
@@ -4157,13 +3275,13 @@
         <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>582</v>
+        <v>287</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
       </c>
       <c r="G46" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="H46" t="s">
         <v>77</v>
@@ -4186,7 +3304,7 @@
         <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>583</v>
+        <v>288</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -4215,7 +3333,7 @@
         <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>584</v>
+        <v>289</v>
       </c>
       <c r="F48" t="s">
         <v>211</v>
@@ -4244,7 +3362,7 @@
         <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>585</v>
+        <v>290</v>
       </c>
       <c r="F49" t="s">
         <v>215</v>
@@ -4273,7 +3391,7 @@
         <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>586</v>
+        <v>291</v>
       </c>
       <c r="F50" t="s">
         <v>219</v>
@@ -4331,7 +3449,7 @@
         <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>587</v>
+        <v>292</v>
       </c>
       <c r="F52" t="s">
         <v>223</v>

--- a/Covid_19_Dataset_and_References/References/42.xlsx
+++ b/Covid_19_Dataset_and_References/References/42.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="346">
   <si>
     <t>Doi</t>
   </si>
@@ -1625,6 +1625,162 @@
   </si>
   <si>
     <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,           Sarah%Al-Youha%sarahalyouha@gmail.com%1,           Mohammad H.%Jamal%NULL%1,           Mohannad%Al-Haddad%NULL%1,           Ali%Al-Muhaini%NULL%1,           Fahad%Al-Ghimlas%NULL%1,           Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,           Samuel L%Bruce%NULL%1,           Cody L%Slater%NULL%1,           Jonathan R%Tiao%NULL%1,           Matthew R%Baldwin%NULL%1,           R Graham%Barr%NULL%1,           Bernard P%Chang%NULL%1,           Katherine H%Chau%NULL%1,           Justin J%Choi%NULL%1,           Nicholas%Gavin%NULL%1,           Parag%Goyal%NULL%1,           Angela M%Mills%NULL%1,           Ashmi A%Patel%NULL%1,           Marie-Laure S%Romney%NULL%1,           Monika M%Safford%NULL%1,           Neil W%Schluger%NULL%1,           Soumitra%Sengupta%NULL%1,           Magdalena E%Sobieszczyk%NULL%1,           Jason E%Zucker%NULL%1,           Paul A%Asadourian%NULL%1,           Fletcher M%Bell%NULL%1,           Rebekah%Boyd%NULL%1,           Matthew F%Cohen%NULL%1,           MacAlistair I%Colquhoun%NULL%1,           Lucy A%Colville%NULL%1,           Joseph H%de Jonge%NULL%1,           Lyle B%Dershowitz%NULL%1,           Shirin A%Dey%NULL%1,           Katherine A%Eiseman%NULL%1,           Zachary P%Girvin%NULL%1,           Daniella T%Goni%NULL%1,           Amro A%Harb%NULL%1,           Nicholas%Herzik%NULL%1,           Sarah%Householder%NULL%1,           Lara E%Karaaslan%NULL%1,           Heather%Lee%NULL%1,           Evan%Lieberman%NULL%1,           Andrew%Ling%NULL%1,           Ree%Lu%NULL%1,           Arthur Y%Shou%NULL%1,           Alexander C%Sisti%NULL%1,           Zachary E%Snow%NULL%1,           Colin P%Sperring%NULL%1,           Yuqing%Xiong%NULL%1,           Henry W%Zhou%NULL%1,           Karthik%Natarajan%NULL%1,           George%Hripcsak%NULL%1,           Ruijun%Chen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,           Mark%Caridi-Scheible%NULL%1,           James M.%Blum%NULL%1,           Chad%Robichaux%NULL%1,           Colleen%Kraft%NULL%1,           Jesse T.%Jacob%NULL%1,           Craig S.%Jabaley%NULL%1,           David%Carpenter%NULL%1,           Roberta%Kaplow%NULL%1,           Alfonso C.%Hernandez-Romieu%NULL%1,           Max W.%Adelman%NULL%1,           Greg S.%Martin%NULL%1,           Craig M.%Coopersmith%NULL%1,           David J.%Murphy%NULL%1,           NULL%NULL%NULL%9,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,           Denise J%McCulloch%NULL%2,           Denise J%McCulloch%NULL%0,           Vidya%Atluri%NULL%1,           Michela%Blain%NULL%1,           Sarah A%McGuffin%NULL%1,           Arun K%Nalla%NULL%1,           Meei-Li%Huang%NULL%1,           Alex L%Greninger%NULL%1,           Keith R%Jerome%NULL%1,           Seth A%Cohen%NULL%1,           Santiago%Neme%NULL%1,           Margaret L%Green%NULL%1,           Helen Y%Chu%NULL%1,           H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingxian%Cai%xref no email%0, Fengjuan%Chen%xref no email%1, Tao%Wang%xref no email%0, Fang%Luo%xref no email%1, Xiaohui%Liu%xref no email%1, Qikai%Wu%xref no email%1, Qing%He%xref no email%1, Zhaoqin%Wang%xref no email%1, Yingxia%Liu%xref no email%0, Lei%Liu%xref no email%1, Jun%Chen%xref no email%0, Lin%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Diabetes Association</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,           Wenlin%Cheng%NULL%1,           Lei%Yu%NULL%1,           Ya-Kun%Liu%NULL%1,           Xiaoyong%Hu%NULL%1,           Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,           Alberto%Zucchelli%NULL%1,           Marinella%Turla%NULL%1,           Maria Sofia%Cotelli%NULL%1,           Sara%Fascendini%NULL%1,           Mara%Zanni%NULL%1,           Angelo%Bianchetti%NULL%1,           Matteo Peli%Psy%NULL%1,           Renzo%Rozzini%NULL%1,           Stefano%Boffelli%NULL%1,           Melania%Cappuccio%NULL%1,           Federica Gottardi%Psy%NULL%1,           Chiara Vecchi%Psy%NULL%1,           Daniele%Bellandi%NULL%1,           Claudia%Caminati%NULL%1,           Simona%Gentile%NULL%1,           Elena Lucchi%Psy%NULL%1,           Ignazio%Di Fazio%NULL%1,           Marina Zanetti%Psy%NULL%1,           Giuliana%Vezzadini%NULL%1,           Chiara Forlani%Psy%NULL%1,           Maura Cosseddu%Psy%NULL%1,           Rosanna Turrone%Psy%NULL%1,           Silvia Pelizzari%Psy%NULL%1,           Andrea%Scalvini%NULL%1,           Marco%Di Cesare%NULL%1,           Marta Grigolo%Psy%NULL%1,           Lina%Falanga%NULL%1,           Nives%Medici%NULL%1,           Nives%Palamini%NULL%1,           Elisa Zanacchi%Psy%NULL%1,           Eleonora Grossi%Psy%NULL%1,           Giuseppe%Bellelli%NULL%1,           Alessandra%Marengoni%NULL%1,           Marco%Trabucchi%NULL%1,           Alessandro%Padovani%alessandro.padovani@unibs.it%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0,           Nancy%Chow%NULL%1,           Katherine%Fleming-Dutra%NULL%1,           Ryan%Gierke%NULL%1,           Aron%Hall%NULL%1,           Michelle%Hughes%NULL%1,           Tamara%Pilishvili%NULL%1,           Matthew%Ritchey%NULL%1,           Katherine%Roguski%NULL%1,           Tami%Skoff%NULL%1,           Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,           Zhencang%Zheng%NULL%1,           Chao%Zhang%NULL%1,           Xijiang%Zhang%NULL%1,           Huijuan%Wu%NULL%1,           Jingdong%Wang%NULL%1,           Shuwei%Wang%NULL%1,           Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,           Wei%Liu%NULL%1,           Kui%Liu%NULL%2,           Yuan-Yuan%Fang%NULL%1,           Jin%Shang%NULL%1,           Ling%Zhou%NULL%2,           Ke%Wang%NULL%2,           Fan%Leng%NULL%1,           Shuang%Wei%NULL%2,           Lei%Chen%NULL%1,           Hui-Guo%Liu%NULL%2,           Pei-Fang%Wei%NULL%4,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,           Francesco%Innocenti%NULL%1,           Julien%Beauté%NULL%1,           Veronika%Učakar%NULL%1,           Marta%Grgič Vitek%NULL%1,           Eero%Poukka%NULL%1,           Tuula%Hannila-Handelberg%NULL%1,           Charmaine%Gauci%NULL%1,           Tanya%Melillo%NULL%1,           Theano%Georgakopoulou%NULL%1,           Jiri%Jarkovsky%NULL%1,           Pavel%Slezak%NULL%1,           Concepción%Delgado-Sanz%NULL%1,           Carmen%Olmedo-Lucerón%NULL%1,           Heleene%Suija%NULL%1,           Rasa%Liausediene%NULL%1,           Piaras%O’Lorcain%NULL%1,           Niamh%Murphy%NULL%1,           André%Peralta-Santos%NULL%1,           Pedro%Casaca%NULL%1,           Ioanna%Gregoriou%NULL%1,           Nick%Bundle%NULL%1,           Gianfranco%Spiteri%NULL%1,           Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,           Peiyun%Li%NULL%1,           Liang%Ma%NULL%1,           Hang%Liang%NULL%1,           Jie%Lei%NULL%1,           Wenqiang%Li%NULL%1,           Kun%Wang%NULL%1,           Yu%Song%NULL%1,           Shuai%Li%NULL%1,           Wei%Yang%NULL%1,           Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,           Yun%Ling%NULL%2,           Yun%Ling%NULL%0,           Tao%Bai%NULL%2,           Tao%Bai%NULL%0,           Yusang%Xie%NULL%1,           Jie%Huang%NULL%2,           Jie%Huang%NULL%0,           Jian%Li%NULL%1,           Weining%Xiong%NULL%1,           Dexiang%Yang%NULL%1,           Rong%Chen%NULL%1,           Fangying%Lu%NULL%1,           Yunfei%Lu%NULL%1,           Xuhui%Liu%NULL%1,           Yuqing%Chen%NULL%2,           Yuqing%Chen%NULL%0,           Xin%Li%NULL%1,           Yong%Li%NULL%1,           Hanssa Dwarka%Summah%NULL%1,           Huihuang%Lin%NULL%1,           Jiayang%Yan%NULL%1,           Min%Zhou%NULL%2,           Hongzhou%Lu%NULL%2,           Hongzhou%Lu%NULL%0,           Jieming%Qu%NULL%2,           Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,           Massimiliano%Marino%NULL%1,           Debora%Formisano%NULL%1,           Francesco%Venturelli%NULL%1,           Massimo%Vicentini%NULL%2,           Massimo%Vicentini%NULL%0,           Roberto%Grilli%NULL%1,           NULL%NULL%NULL%0,           Gianluigi%Forloni%NULL%8,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0,           Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,           Justin J.%Choi%NULL%1,           Laura C.%Pinheiro%NULL%1,           Edward J.%Schenck%NULL%1,           Ruijun%Chen%NULL%0,           Assem%Jabri%NULL%1,           Michael J.%Satlin%NULL%1,           Thomas R.%Campion%NULL%1,           Musarrat%Nahid%NULL%1,           Joanna B.%Ringel%NULL%1,           Katherine L.%Hoffman%NULL%1,           Mark N.%Alshak%NULL%1,           Han A.%Li%NULL%1,           Graham T.%Wehmeyer%NULL%2,           Graham T.%Wehmeyer%NULL%0,           Mangala%Rajan%NULL%1,           Evgeniya%Reshetnyak%NULL%1,           Nathaniel%Hupert%NULL%1,           Evelyn M.%Horn%NULL%1,           Fernando J.%Martinez%NULL%1,           Roy M.%Gulick%NULL%1,           Monika M.%Safford%NULL%2,           Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,           Norio%Ohmagari%NULL%1,           Daniel%Shin%NULL%1,           George%Diaz%NULL%1,           Erika%Asperges%NULL%1,           Antonella%Castagna%NULL%1,           Torsten%Feldt%NULL%1,           Gary%Green%NULL%1,           Margaret L.%Green%NULL%1,           François-Xavier%Lescure%NULL%1,           Emanuele%Nicastri%NULL%1,           Rentaro%Oda%NULL%2,           Rentaro%Oda%NULL%0,           Kikuo%Yo%NULL%2,           Kikuo%Yo%NULL%0,           Eugenia%Quiros-Roldan%NULL%1,           Alex%Studemeister%NULL%1,           John%Redinski%NULL%1,           Seema%Ahmed%NULL%1,           Jorge%Bernett%NULL%1,           Daniel%Chelliah%NULL%1,           Danny%Chen%NULL%1,           Shingo%Chihara%NULL%1,           Stuart H.%Cohen%NULL%1,           Jennifer%Cunningham%NULL%1,           Antonella%D’Arminio Monforte%NULL%1,           Saad%Ismail%NULL%1,           Hideaki%Kato%NULL%1,           Giuseppe%Lapadula%NULL%1,           Erwan%L’Her%NULL%1,           Toshitaka%Maeno%NULL%1,           Sumit%Majumder%NULL%1,           Marco%Massari%NULL%1,           Marta%Mora-Rillo%NULL%1,           Yoshikazu%Mutoh%NULL%1,           Duc%Nguyen%NULL%1,           Ewa%Verweij%NULL%1,           Alexander%Zoufaly%NULL%1,           Anu O.%Osinusi%NULL%1,           Adam%DeZure%NULL%1,           Yang%Zhao%NULL%1,           Lijie%Zhong%NULL%1,           Anand%Chokkalingam%NULL%1,           Emon%Elboudwarej%NULL%1,           Laura%Telep%NULL%1,           Leighann%Timbs%NULL%1,           Ilana%Henne%NULL%1,           Scott%Sellers%NULL%1,           Huyen%Cao%NULL%1,           Susanna K.%Tan%NULL%1,           Lucinda%Winterbourne%NULL%1,           Polly%Desai%NULL%1,           Robertino%Mera%NULL%1,           Anuj%Gaggar%NULL%1,           Robert P.%Myers%NULL%1,           Diana M.%Brainard%NULL%1,           Richard%Childs%NULL%1,           Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,           Zheng-yi%Ni%NULL%2,           Zheng-yi%Ni%NULL%0,           Yu%Hu%NULL%1,           Wen-hua%Liang%NULL%1,           Chun-quan%Ou%NULL%1,           Jian-xing%He%NULL%1,           Lei%Liu%NULL%1,           Hong%Shan%NULL%1,           Chun-liang%Lei%NULL%1,           David S.C.%Hui%NULL%1,           Bin%Du%NULL%1,           Lan-juan%Li%NULL%1,           Guang%Zeng%NULL%1,           Kwok-Yung%Yuen%NULL%1,           Ru-chong%Chen%NULL%1,           Chun-li%Tang%NULL%1,           Tao%Wang%NULL%1,           Ping-yan%Chen%NULL%1,           Jie%Xiang%NULL%2,           Shi-yue%Li%NULL%1,           Jin-lin%Wang%NULL%1,           Zi-jing%Liang%NULL%1,           Yi-xiang%Peng%NULL%1,           Li%Wei%NULL%1,           Yong%Liu%NULL%1,           Ya-hua%Hu%NULL%1,           Peng%Peng%NULL%1,           Jian-ming%Wang%NULL%2,           Ji-yang%Liu%NULL%1,           Zhong%Chen%NULL%1,           Gang%Li%NULL%1,           Zhi-jian%Zheng%NULL%1,           Shao-qin%Qiu%NULL%1,           Jie%Luo%NULL%1,           Chang-jiang%Ye%NULL%1,           Shao-yong%Zhu%NULL%1,           Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,          Arunthamakun%Justin%coreGivesNoEmail%1,          Athavale%Ambarish M.%coreGivesNoEmail%1,          Bansal%Anip%coreGivesNoEmail%1,          Brenner%Samantha K.%coreGivesNoEmail%1,          Chan%Lili%coreGivesNoEmail%1,          Donnelly%John P.%coreGivesNoEmail%1,          Friedman%Allon N.%coreGivesNoEmail%1,          Gershengorn%Hayley B.%coreGivesNoEmail%1,          Goyal%Nitender%coreGivesNoEmail%1,          Green%Adam%coreGivesNoEmail%1,          Gupta%Shruti%coreGivesNoEmail%1,          Hayek%Salim S.%coreGivesNoEmail%1,          Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,          Kibbelaar%Zoe A.%coreGivesNoEmail%1,          Leaf%David E.%coreGivesNoEmail%1,          Leonberg-Yoo%Amanda%coreGivesNoEmail%1,          Mathews%Kusum S.%coreGivesNoEmail%1,          Melamed%Michal L.%coreGivesNoEmail%1,          Omar%Samah Abu%coreGivesNoEmail%1,          Parikh%Chirag R.%coreGivesNoEmail%1,          Radbel%Jared%coreGivesNoEmail%1,          Reiser%Jochen%coreGivesNoEmail%1,          Schenck%Edward J.%coreGivesNoEmail%1,          Semler%Matthew W.%coreGivesNoEmail%1,          Shaefi%Shahzad%coreGivesNoEmail%1,          Shehata%Alexandre M.%coreGivesNoEmail%1,          Short%Samuel A. P.%coreGivesNoEmail%1,          Srivastava%Anand%coreGivesNoEmail%1,          Sutherland%Anne%coreGivesNoEmail%1,          Velez%Juan Carlos Q.%coreGivesNoEmail%1,          Vijayan%Anitha%coreGivesNoEmail%1,          Wang%Wei%coreGivesNoEmail%1,          Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,           İmran%HASANOĞLU%NULL%2,           İmran%HASANOĞLU%NULL%0,           Bircan%KAYAASLAN%NULL%2,           Bircan%KAYAASLAN%NULL%0,           Adalet%AYPAK%NULL%2,           Adalet%AYPAK%NULL%0,           Ayşe%KAYA KALEM%NULL%2,           Ayşe%KAYA KALEM%NULL%0,           Fatma%ESER%NULL%2,           Fatma%ESER%NULL%0,           Burcu%ÖZDEMİR%NULL%2,           Burcu%ÖZDEMİR%NULL%0,           Elif Mükime%SARICAOĞLU%NULL%2,           Elif Mükime%SARICAOĞLU%NULL%0,           Müge%AYHAN%NULL%2,           Müge%AYHAN%NULL%0,           Yeşim%AYBAR BİLİR%NULL%2,           Yeşim%AYBAR BİLİR%NULL%0,           Işıl%ÖZKOÇAK TURAN%NULL%2,           Işıl%ÖZKOÇAK TURAN%NULL%0,           Deniz%ERDEM%NULL%2,           Deniz%ERDEM%NULL%0,           Nevzat Mehmet%MUTLU%NULL%1,           Turan%BUZGAN%NULL%2,           Turan%BUZGAN%NULL%0,           Bedia%DİNÇ%NULL%2,           Bedia%DİNÇ%NULL%0,           Esragül%AKINCI%NULL%2,           Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,           Elnara%Fazio-Eynullayeva%NULL%2,           Elnara%Fazio-Eynullayeva%NULL%0,           Deirdre A.%Lane%NULL%2,           Deirdre A.%Lane%NULL%0,           Paula%Underhill%NULL%2,           Paula%Underhill%NULL%0,           Gregory Y. H.%Lip%NULL%1,           Mirjam E. E.%Kretzschmar%NULL%3,           Mirjam E. E.%Kretzschmar%NULL%0,           Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,           Min%Xie%NULL%2,           Jianping%Zhao%NULL%3,           Xiansheng%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,           Shaoqiu%Chen%NULL%1,           Yuanyuan%Fu%NULL%1,           Zitong%Gao%NULL%1,           Hui%Long%NULL%1,           Jian-ming%Wang%NULL%0,           Hong-wei%Ren%NULL%1,           Yi%Zuo%NULL%1,           Huan%Li%NULL%1,           Jie%Wang%NULL%1,           Qing-bang%Xu%NULL%1,           Wen-xiong%Yu%NULL%1,           Jia%Liu%NULL%1,           Chen%Shao%NULL%1,           Jun-jie%Hao%NULL%1,           Chuan-zhen%Wang%NULL%1,           Yao%Ma%NULL%1,           Zhanwei%Wang%NULL%1,           Richard%Yanagihara%NULL%1,           Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,           Yeming%Wang%NULL%2,           Xingwang%Li%NULL%1,           Lili%Ren%NULL%1,           Jianping%Zhao%NULL%0,           Yi%Hu%NULL%2,           Li%Zhang%NULL%1,           Guohui%Fan%NULL%2,           Jiuyang%Xu%NULL%2,           Xiaoying%Gu%NULL%2,           Zhenshun%Cheng%NULL%2,           Ting%Yu%NULL%3,           Jiaan%Xia%NULL%1,           Yuan%Wei%NULL%2,           Wenjuan%Wu%NULL%1,           Xuelei%Xie%NULL%1,           Wen%Yin%NULL%1,           Hui%Li%NULL%2,           Min%Liu%NULL%1,           Yan%Xiao%NULL%1,           Hong%Gao%NULL%1,           Li%Guo%NULL%1,           Jungang%Xie%NULL%2,           Guangfa%Wang%NULL%1,           Rongmeng%Jiang%NULL%1,           Zhancheng%Gao%NULL%1,           Qi%Jin%NULL%1,           Jianwei%Wang%wangjw28@163.com%1,           Bin%Cao%caobin_ben@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,          Bayani%Masomeh%coreGivesNoEmail%1,          Bijani%Ali%coreGivesNoEmail%1,          Ebrahimpour%Soheil%coreGivesNoEmail%1,          Gholinejad%Hossein Emam%coreGivesNoEmail%1,          Ghorbani%Hossein%coreGivesNoEmail%1,          Hasanpour%Amir Hossein%coreGivesNoEmail%1,          Javanian%Mostafa%coreGivesNoEmail%1,          Masrour-Roudsari%Jila%coreGivesNoEmail%1,          Mehraeen%Rahele%coreGivesNoEmail%1,          Mohseni%Sima%coreGivesNoEmail%1,          Rostami%Ali%coreGivesNoEmail%1,          Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,          Sepidarkish%Mahdi%coreGivesNoEmail%1,          Shabani%Asieh%coreGivesNoEmail%1,          Shahbazi%Mehdi%coreGivesNoEmail%1,          Shokri%Mehran%coreGivesNoEmail%1,          Tabari%Afrooz Monadi%coreGivesNoEmail%1,          Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,           Matteo%Piccica%NULL%1,           Lucia%Graziani%NULL%1,           Iacopo%Vellere%NULL%1,           Annarita%Botta%NULL%1,           Marta%Tilli%NULL%1,           Letizia%Ottino%NULL%1,           Beatrice%Borchi%NULL%1,           Marco%Pozzi%NULL%1,           Filippo%Bartalesi%NULL%1,           Jessica%Mencarini%NULL%1,           Michele%Spinicci%NULL%1,           Lorenzo%Zammarchi%NULL%1,           Filippo%Pieralli%NULL%1,           Giovanni%Zagli%NULL%1,           Carlo%Nozzoli%NULL%1,           Stefano%Romagnoli%NULL%1,           Alessandro%Bartoloni%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,           Zhao-Wu%Tao%NULL%1,           Lei%Wang%NULL%1,           Ming-Li%Yuan%NULL%1,           Kui%Liu%NULL%0,           Ling%Zhou%NULL%0,           Shuang%Wei%NULL%0,           Yan%Deng%NULL%1,           Jing%Liu%NULL%1,           Hui-Guo%Liu%NULL%0,           Ming%Yang%NULL%1,           Yi%Hu%NULL%0,           Pei-Fang%Wei%NULL%0,           Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,           Shuyun%Xu%NULL%1,           Muqing%Yu%NULL%1,           Ke%Wang%NULL%0,           Yu%Tao%NULL%1,           Ying%Zhou%NULL%1,           Jing%Shi%NULL%1,           Min%Zhou%NULL%0,           Bo%Wu%NULL%1,           Zhenyu%Yang%NULL%1,           Cong%Zhang%NULL%1,           Junqing%Yue%NULL%1,           Zhiguo%Zhang%NULL%1,           Harald%Renz%NULL%1,           Xiansheng%Liu%NULL%0,           Jungang%Xie%NULL%0,           Min%Xie%NULL%0,           Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,           Shu%Peng%NULL%1,           Le-qun%Li%NULL%1,           Qi%Wang%NULL%1,           Wei%Ping%NULL%1,           Ni%Zhang%NULL%1,           Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,           Yuanyuan%Xing%NULL%1,           Yu%Xiao%NULL%1,           Liping%Deng%NULL%1,           Qiu%Zhao%NULL%1,           Hongling%Wang%NULL%1,           Yong%Xiong%NULL%1,           Zhenshun%Cheng%NULL%0,           Shicheng%Gao%NULL%1,           Ke%Liang%NULL%1,           Mingqi%Luo%NULL%1,           Tielong%Chen%NULL%1,           Shihui%Song%NULL%1,           Zhiyong%Ma%NULL%1,           Xiaoping%Chen%NULL%1,           Ruiying%Zheng%NULL%1,           Qian%Cao%NULL%1,           Fan%Wang%fanndywang@foxmail.com%1,           Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,           Nicolas%Lopez-Villalobos%NULL%1,           Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,           Adam J%Russak%NULL%2,           Adam J%Russak%NULL%0,           Jessica K%De Freitas%NULL%1,           Anuradha%Lala%NULL%1,           Riccardo%Miotto%NULL%1,           Akhil%Vaid%NULL%1,           Kipp W%Johnson%NULL%1,           Matteo%Danieletto%NULL%1,           Eddye%Golden%NULL%1,           Dara%Meyer%NULL%1,           Manbir%Singh%NULL%1,           Sulaiman%Somani%NULL%1,           Arjun%Kapoor%NULL%1,           Ross%O'Hagan%NULL%1,           Sayan%Manna%NULL%1,           Udit%Nangia%NULL%1,           Suraj K%Jaladanki%NULL%1,           Paul%O’Reilly%NULL%2,           Paul%O’Reilly%NULL%0,           Laura M%Huckins%NULL%1,           Patricia%Glowe%NULL%1,           Arash%Kia%NULL%1,           Prem%Timsina%NULL%1,           Robert M%Freeman%NULL%1,           Matthew A%Levin%NULL%1,           Jeffrey%Jhang%NULL%1,           Adolfo%Firpo%NULL%1,           Patricia%Kovatch%NULL%1,           Joseph%Finkelstein%NULL%1,           Judith A%Aberg%NULL%1,           Emilia%Bagiella%NULL%1,           Carol R%Horowitz%NULL%1,           Barbara%Murphy%NULL%1,           Zahi A%Fayad%NULL%1,           Jagat%Narula%NULL%1,           Eric J%Nestler%NULL%1,           V%Fuster%NULL%1,           Carlos%Cordon-Cardo%NULL%1,           Dennis%Charney%NULL%1,           David L%Reich%NULL%1,           Allan%Just%NULL%1,           Erwin P%Bottinger%NULL%1,           Alexander W%Charney%NULL%1,           Benjamin S%Glicksberg%NULL%1,           Girish N%Nadkarni%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,            X.% Yan%null%1,            X.% Tang%null%1,            J.% Peng%null%1,            Q.% Yu%null%1,            L.% Feng%null%1,            G.% Yuan%null%1,            A.% Zhang%null%1,            Y.% Chen%null%1,            J.% Yuan%null%1,            X.% Huang%null%1,            X.% Zhang%null%1,            P.% Hu%null%1,            Y.% Song%null%1,            C.% Qian%null%1,            Q.% Sun%null%1,            D.% Wang%null%1,            J.% Tong%null%1,            J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,           Kevin Bryan%Lo%NULL%2,           Kevin Bryan%Lo%NULL%0,           Fahad%Gul%NULL%1,           Eric%Peterson%NULL%1,           Robert%De Joy%NULL%1,           Ruchika%Bhargav%NULL%1,           Jerald%Pelayo%NULL%1,           Jeri%Albano%NULL%1,           Zurab%Azmaiparashvili%NULL%1,           Sadia%Benzaquen%NULL%1,           Gabriel%Patarroyo‐Aponte%NULL%1,           Janani%Rangaswami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,           Mu%Qin%qinmuae@163.com%1,           Yuli%Cai%NULL%1,           Tao%Liu%NULL%1,           Bo%Shen%NULL%1,           Fan%Yang%NULL%1,           Sheng%Cao%NULL%1,           Xu%Liu%NULL%2,           Xu%Liu%NULL%0,           Yaozu%Xiang%NULL%1,           Qinyan%Zhao%NULL%1,           He%Huang%huanghe1977@whu.edu.cn%1,           Bo%Yang%yybb112@whu.edu.cn%1,           Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,           Fergus%Hamilton%NULL%1,           Samuel%Gunning%NULL%1,           Caitlin%Sheehy%NULL%1,           Ed%Moran%NULL%1,           Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,           Yi%Xiang%NULL%1,           Wei%Fang%NULL%1,           Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,           Boqun%Li%279685211@qq.com%2,           Boqun%Li%279685211@qq.com%0,           Yanjun%Hu%huyanjun@163.com%1,           Chunhui%Lang%NULL%1,           Daoqiu%Huang%NULL%1,           Qiuyan%Sun%NULL%1,           Yan%Xiong%NULL%1,           Xia%Huang%NULL%1,           Jinglong%Lv%NULL%1,           Yaling%Luo%NULL%1,           Li%Shen%NULL%1,           Haoran%Yang%NULL%1,           Gu%Huang%NULL%1,           Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,          Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,          Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,          Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,           Wenbo%He%NULL%1,           Xiaomei%Yu%NULL%1,           Dalong%Hu%NULL%1,           Mingwei%Bao%NULL%1,           Huafen%Liu%NULL%1,           Jiali%Zhou%NULL%1,           Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,           Bohan%Yang%NULL%1,           Qianwen%Li%NULL%1,           Lu%Wen%NULL%1,           Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,          Xu%Y%coreGivesNoEmail%1,          Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,           Fen%Li%NULL%1,           Xiao%Wang%NULL%1,           Jie%Yan%NULL%1,           Fen%Zhu%NULL%1,           Shifan%Tang%NULL%1,           Yingzhong%Deng%NULL%1,           Hua%Wang%NULL%1,           Rui%Chen%NULL%1,           Zhili%Yu%NULL%1,           Yaping%Li%NULL%1,           Jingzhou%Shang%NULL%1,           Lingjun%Zeng%NULL%1,           Jie%Zhao%NULL%1,           Chaokun%Guan%NULL%1,           Qiaomei%Liu%NULL%1,           Haifeng%Chen%NULL%1,           Wei%Gong%NULL%1,           Xin%Huang%NULL%1,           Yu‐Jiao%Zhang%NULL%1,           Jianguang%Liu%NULL%1,           Xiaoyan%Dong%NULL%1,           Wen%Zheng%zhengwen12@mails.jlu.edu.cn%1,           Shaoping%Nie%spnie@126.com%1,           Dongsheng%Li%dongshengli196809@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,           Pengfei%Wang%NULL%2,           Pengfei%Wang%NULL%0,           Yuyan%Song%NULL%1,           An%Zhang%zhangan@hospital.cqmu.edu.cn%1,           Guodan%Yuan%71502294@qq.com%1,           Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,           Yuan%Yu%NULL%1,           Jiqian%Xu%NULL%1,           Huaqing%Shu%NULL%1,           Jia'an%Xia%NULL%1,           Hong%Liu%NULL%1,           Yongran%Wu%NULL%1,           Lu%Zhang%NULL%1,           Zhui%Yu%NULL%1,           Minghao%Fang%NULL%1,           Ting%Yu%NULL%0,           Yaxin%Wang%NULL%1,           Shangwen%Pan%NULL%1,           Xiaojing%Zou%NULL%1,           Shiying%Yuan%NULL%1,           You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,          Cao%Yi-yuan%coreGivesNoEmail%1,          Dong%Xiang%coreGivesNoEmail%1,          Gao%Ya-dong%coreGivesNoEmail%1,          Yan%You-qin%coreGivesNoEmail%1,          Yang%Yi-bin%coreGivesNoEmail%1,          Yuan%Ya-dong%coreGivesNoEmail%1,          Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,           Chang%Hu%NULL%1,           Linjie%Luo%NULL%1,           Fang%Fang%NULL%1,           Yongfeng%Chen%NULL%1,           Jianguo%Li%NULL%1,           Zhiyong%Peng%NULL%1,           Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,           Miao%Yu%NULL%1,           Song%Tong%NULL%1,           Lu-Yu%Liu%NULL%1,           Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,           Huangqing%Ouyang%NULL%1,           Lingli%Fu%NULL%1,           Shijie%Wang%NULL%1,           Jianglong%Han%NULL%1,           Kejie%Huang%NULL%1,           Mingfang%Jia%NULL%1,           Qibin%Song%NULL%1,           Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,           Anne%Chen%NULL%1,           Wei%Hou%NULL%1,           James M.%Graham%NULL%1,           Haifang%Li%NULL%1,           Paul S.%Richman%NULL%1,           Henry C.%Thode%NULL%1,           Adam J.%Singer%NULL%1,           Tim Q.%Duong%NULL%1,           Muhammad%Adrish%NULL%9,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0,           Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%1,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%1,           Zhibo%Liu%NULL%1,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%1,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%1,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%1,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%1,           Yi%Zhang%NULL%1,           Hua%Chen%NULL%1,           Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1984,6 +2140,9 @@
       <c r="I1" t="s">
         <v>233</v>
       </c>
+      <c r="J1" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1999,7 +2158,7 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -2012,6 +2171,9 @@
       </c>
       <c r="I2" t="s">
         <v>234</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2028,7 +2190,7 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -2041,6 +2203,9 @@
       </c>
       <c r="I3" t="s">
         <v>235</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2057,7 +2222,7 @@
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
         <v>76</v>
@@ -2070,6 +2235,9 @@
       </c>
       <c r="I4" t="s">
         <v>235</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2085,9 +2253,7 @@
       <c r="D5" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s">
-        <v>246</v>
-      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
         <v>80</v>
       </c>
@@ -2099,6 +2265,9 @@
       </c>
       <c r="I5" t="s">
         <v>234</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2115,7 +2284,7 @@
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
@@ -2128,6 +2297,9 @@
       </c>
       <c r="I6" t="s">
         <v>235</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2144,7 +2316,7 @@
         <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2153,10 +2325,13 @@
         <v>241</v>
       </c>
       <c r="H7" t="s">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="I7" t="s">
         <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2173,7 +2348,7 @@
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -2186,6 +2361,9 @@
       </c>
       <c r="I8" t="s">
         <v>235</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2202,7 +2380,7 @@
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="F9" t="s">
         <v>91</v>
@@ -2215,6 +2393,9 @@
       </c>
       <c r="I9" t="s">
         <v>236</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2231,7 +2412,7 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -2244,6 +2425,9 @@
       </c>
       <c r="I10" t="s">
         <v>235</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2260,7 +2444,7 @@
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -2273,6 +2457,9 @@
       </c>
       <c r="I11" t="s">
         <v>236</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2289,7 +2476,7 @@
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="F12" t="s">
         <v>102</v>
@@ -2302,6 +2489,9 @@
       </c>
       <c r="I12" t="s">
         <v>235</v>
+      </c>
+      <c r="J12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2318,7 +2508,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="F13" t="s">
         <v>105</v>
@@ -2331,6 +2521,9 @@
       </c>
       <c r="I13" t="s">
         <v>235</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2347,7 +2540,7 @@
         <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -2360,6 +2553,9 @@
       </c>
       <c r="I14" t="s">
         <v>235</v>
+      </c>
+      <c r="J14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2376,7 +2572,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="F15" t="s">
         <v>113</v>
@@ -2389,6 +2585,9 @@
       </c>
       <c r="I15" t="s">
         <v>235</v>
+      </c>
+      <c r="J15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2405,7 +2604,7 @@
         <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="F16" t="s">
         <v>117</v>
@@ -2418,6 +2617,9 @@
       </c>
       <c r="I16" t="s">
         <v>235</v>
+      </c>
+      <c r="J16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2434,7 +2636,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -2447,6 +2649,9 @@
       </c>
       <c r="I17" t="s">
         <v>235</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2463,7 +2668,7 @@
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
@@ -2476,6 +2681,9 @@
       </c>
       <c r="I18" t="s">
         <v>235</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2492,7 +2700,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
@@ -2505,6 +2713,9 @@
       </c>
       <c r="I19" t="s">
         <v>235</v>
+      </c>
+      <c r="J19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2521,7 +2732,7 @@
         <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2533,6 +2744,9 @@
         <v>77</v>
       </c>
       <c r="I20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2550,7 +2764,7 @@
         <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -2563,6 +2777,9 @@
       </c>
       <c r="I21" t="s">
         <v>235</v>
+      </c>
+      <c r="J21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2579,7 +2796,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="F22" t="s">
         <v>133</v>
@@ -2592,6 +2809,9 @@
       </c>
       <c r="I22" t="s">
         <v>235</v>
+      </c>
+      <c r="J22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2608,7 +2828,7 @@
         <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>264</v>
+        <v>317</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -2621,6 +2841,9 @@
       </c>
       <c r="I23" t="s">
         <v>235</v>
+      </c>
+      <c r="J23" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2637,7 +2860,7 @@
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>265</v>
+        <v>318</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -2650,6 +2873,9 @@
       </c>
       <c r="I24" t="s">
         <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2666,7 +2892,7 @@
         <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -2679,6 +2905,9 @@
       </c>
       <c r="I25" t="s">
         <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2695,7 +2924,7 @@
         <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -2707,6 +2936,9 @@
         <v>77</v>
       </c>
       <c r="I26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2724,7 +2956,7 @@
         <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>268</v>
+        <v>321</v>
       </c>
       <c r="F27" t="s">
         <v>147</v>
@@ -2737,6 +2969,9 @@
       </c>
       <c r="I27" t="s">
         <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2753,7 +2988,7 @@
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="F28" t="s">
         <v>151</v>
@@ -2766,6 +3001,9 @@
       </c>
       <c r="I28" t="s">
         <v>235</v>
+      </c>
+      <c r="J28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2782,7 +3020,7 @@
         <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -2795,6 +3033,9 @@
       </c>
       <c r="I29" t="s">
         <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -2811,7 +3052,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>271</v>
+        <v>324</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -2824,6 +3065,9 @@
       </c>
       <c r="I30" t="s">
         <v>236</v>
+      </c>
+      <c r="J30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2840,7 +3084,7 @@
         <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>272</v>
+        <v>325</v>
       </c>
       <c r="F31" t="s">
         <v>161</v>
@@ -2853,6 +3097,9 @@
       </c>
       <c r="I31" t="s">
         <v>235</v>
+      </c>
+      <c r="J31" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2869,7 +3116,7 @@
         <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>273</v>
+        <v>326</v>
       </c>
       <c r="F32" t="s">
         <v>164</v>
@@ -2882,6 +3129,9 @@
       </c>
       <c r="I32" t="s">
         <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2898,7 +3148,7 @@
         <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -2911,6 +3161,9 @@
       </c>
       <c r="I33" t="s">
         <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2927,9 +3180,9 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>275</v>
-      </c>
-      <c r="F34" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="F34" t="s">
         <v>34</v>
       </c>
       <c r="G34" t="s">
@@ -2940,6 +3193,9 @@
       </c>
       <c r="I34" t="s">
         <v>237</v>
+      </c>
+      <c r="J34" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2956,7 +3212,7 @@
         <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>276</v>
+        <v>329</v>
       </c>
       <c r="F35" t="s">
         <v>174</v>
@@ -2969,6 +3225,9 @@
       </c>
       <c r="I35" t="s">
         <v>235</v>
+      </c>
+      <c r="J35" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2985,7 +3244,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="F36" t="s">
         <v>178</v>
@@ -2998,6 +3257,9 @@
       </c>
       <c r="I36" t="s">
         <v>235</v>
+      </c>
+      <c r="J36" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -3014,7 +3276,7 @@
         <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="F37" t="s">
         <v>181</v>
@@ -3027,6 +3289,9 @@
       </c>
       <c r="I37" t="s">
         <v>234</v>
+      </c>
+      <c r="J37" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3043,7 +3308,7 @@
         <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="F38" t="s">
         <v>185</v>
@@ -3056,6 +3321,9 @@
       </c>
       <c r="I38" t="s">
         <v>235</v>
+      </c>
+      <c r="J38" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3072,7 +3340,7 @@
         <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -3084,6 +3352,9 @@
         <v>77</v>
       </c>
       <c r="I39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J39" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3101,7 +3372,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -3114,6 +3385,9 @@
       </c>
       <c r="I40" t="s">
         <v>234</v>
+      </c>
+      <c r="J40" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3130,7 +3404,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -3143,6 +3417,9 @@
       </c>
       <c r="I41" t="s">
         <v>235</v>
+      </c>
+      <c r="J41" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3159,7 +3436,7 @@
         <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
@@ -3171,6 +3448,9 @@
         <v>77</v>
       </c>
       <c r="I42" t="s">
+        <v>94</v>
+      </c>
+      <c r="J42" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3188,7 +3468,7 @@
         <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="F43" t="s">
         <v>196</v>
@@ -3201,6 +3481,9 @@
       </c>
       <c r="I43" t="s">
         <v>235</v>
+      </c>
+      <c r="J43" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3217,7 +3500,7 @@
         <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>285</v>
+        <v>338</v>
       </c>
       <c r="F44" t="s">
         <v>200</v>
@@ -3230,6 +3513,9 @@
       </c>
       <c r="I44" t="s">
         <v>235</v>
+      </c>
+      <c r="J44" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3246,7 +3532,7 @@
         <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
@@ -3259,6 +3545,9 @@
       </c>
       <c r="I45" t="s">
         <v>234</v>
+      </c>
+      <c r="J45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3275,7 +3564,7 @@
         <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
@@ -3287,6 +3576,9 @@
         <v>77</v>
       </c>
       <c r="I46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J46" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3304,7 +3596,7 @@
         <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -3317,6 +3609,9 @@
       </c>
       <c r="I47" t="s">
         <v>234</v>
+      </c>
+      <c r="J47" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -3333,7 +3628,7 @@
         <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>289</v>
+        <v>342</v>
       </c>
       <c r="F48" t="s">
         <v>211</v>
@@ -3346,6 +3641,9 @@
       </c>
       <c r="I48" t="s">
         <v>234</v>
+      </c>
+      <c r="J48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -3362,7 +3660,7 @@
         <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="F49" t="s">
         <v>215</v>
@@ -3375,6 +3673,9 @@
       </c>
       <c r="I49" t="s">
         <v>236</v>
+      </c>
+      <c r="J49" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -3391,7 +3692,7 @@
         <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="F50" t="s">
         <v>219</v>
@@ -3404,6 +3705,9 @@
       </c>
       <c r="I50" t="s">
         <v>235</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -3434,6 +3738,9 @@
       <c r="I51" t="s">
         <v>94</v>
       </c>
+      <c r="J51" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
@@ -3449,7 +3756,7 @@
         <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="F52" t="s">
         <v>223</v>
@@ -3462,6 +3769,9 @@
       </c>
       <c r="I52" t="s">
         <v>234</v>
+      </c>
+      <c r="J52" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/42.xlsx
+++ b/Covid_19_Dataset_and_References/References/42.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="451">
   <si>
     <t>Doi</t>
   </si>
@@ -1781,6 +1781,328 @@
   </si>
   <si>
     <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%1,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%1,           Zhibo%Liu%NULL%1,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%1,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%1,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%1,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%1,           Yi%Zhang%NULL%1,           Hua%Chen%NULL%1,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,            Sarah%Al-Youha%sarahalyouha@gmail.com%1,            Mohammad H.%Jamal%NULL%1,            Mohannad%Al-Haddad%NULL%1,            Ali%Al-Muhaini%NULL%1,            Fahad%Al-Ghimlas%NULL%1,            Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,            Samuel L%Bruce%NULL%1,            Cody L%Slater%NULL%1,            Jonathan R%Tiao%NULL%1,            Matthew R%Baldwin%NULL%1,            R Graham%Barr%NULL%1,            Bernard P%Chang%NULL%1,            Katherine H%Chau%NULL%1,            Justin J%Choi%NULL%1,            Nicholas%Gavin%NULL%1,            Parag%Goyal%NULL%1,            Angela M%Mills%NULL%1,            Ashmi A%Patel%NULL%1,            Marie-Laure S%Romney%NULL%1,            Monika M%Safford%NULL%1,            Neil W%Schluger%NULL%1,            Soumitra%Sengupta%NULL%1,            Magdalena E%Sobieszczyk%NULL%1,            Jason E%Zucker%NULL%1,            Paul A%Asadourian%NULL%1,            Fletcher M%Bell%NULL%1,            Rebekah%Boyd%NULL%1,            Matthew F%Cohen%NULL%1,            MacAlistair I%Colquhoun%NULL%1,            Lucy A%Colville%NULL%1,            Joseph H%de Jonge%NULL%1,            Lyle B%Dershowitz%NULL%1,            Shirin A%Dey%NULL%1,            Katherine A%Eiseman%NULL%1,            Zachary P%Girvin%NULL%1,            Daniella T%Goni%NULL%1,            Amro A%Harb%NULL%1,            Nicholas%Herzik%NULL%1,            Sarah%Householder%NULL%1,            Lara E%Karaaslan%NULL%1,            Heather%Lee%NULL%1,            Evan%Lieberman%NULL%1,            Andrew%Ling%NULL%1,            Ree%Lu%NULL%1,            Arthur Y%Shou%NULL%1,            Alexander C%Sisti%NULL%1,            Zachary E%Snow%NULL%1,            Colin P%Sperring%NULL%1,            Yuqing%Xiong%NULL%1,            Henry W%Zhou%NULL%1,            Karthik%Natarajan%NULL%1,            George%Hripcsak%NULL%1,            Ruijun%Chen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,            Mark%Caridi-Scheible%NULL%1,            James M.%Blum%NULL%1,            Chad%Robichaux%NULL%1,            Colleen%Kraft%NULL%1,            Jesse T.%Jacob%NULL%1,            Craig S.%Jabaley%NULL%1,            David%Carpenter%NULL%1,            Roberta%Kaplow%NULL%1,            Alfonso C.%Hernandez-Romieu%NULL%1,            Max W.%Adelman%NULL%1,            Greg S.%Martin%NULL%1,            Craig M.%Coopersmith%NULL%1,            David J.%Murphy%NULL%1,            NULL%NULL%NULL%8,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,            Denise J%McCulloch%NULL%2,            Denise J%McCulloch%NULL%0,            Vidya%Atluri%NULL%1,            Michela%Blain%NULL%1,            Sarah A%McGuffin%NULL%1,            Arun K%Nalla%NULL%1,            Meei-Li%Huang%NULL%1,            Alex L%Greninger%NULL%1,            Keith R%Jerome%NULL%1,            Seth A%Cohen%NULL%1,            Santiago%Neme%NULL%1,            Margaret L%Green%NULL%1,            Helen Y%Chu%NULL%1,            H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingxian%Cai%xref no email%1,  Fengjuan%Chen%xref no email%1,  Tao%Wang%xref no email%1,  Fang%Luo%xref no email%1,  Xiaohui%Liu%xref no email%1,  Qikai%Wu%xref no email%1,  Qing%He%xref no email%1,  Zhaoqin%Wang%xref no email%1,  Yingxia%Liu%xref no email%0,  Lei%Liu%xref no email%1,  Jun%Chen%xref no email%1,  Lin%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,            Wenlin%Cheng%NULL%1,            Lei%Yu%NULL%1,            Ya-Kun%Liu%NULL%1,            Xiaoyong%Hu%NULL%1,            Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,            Alberto%Zucchelli%NULL%1,            Marinella%Turla%NULL%1,            Maria Sofia%Cotelli%NULL%1,            Sara%Fascendini%NULL%1,            Mara%Zanni%NULL%1,            Angelo%Bianchetti%NULL%1,            Matteo Peli%Psy%NULL%1,            Renzo%Rozzini%NULL%1,            Stefano%Boffelli%NULL%1,            Melania%Cappuccio%NULL%1,            Federica Gottardi%Psy%NULL%1,            Chiara Vecchi%Psy%NULL%1,            Daniele%Bellandi%NULL%1,            Claudia%Caminati%NULL%1,            Simona%Gentile%NULL%1,            Elena Lucchi%Psy%NULL%1,            Ignazio%Di Fazio%NULL%1,            Marina Zanetti%Psy%NULL%1,            Giuliana%Vezzadini%NULL%1,            Chiara Forlani%Psy%NULL%1,            Maura Cosseddu%Psy%NULL%1,            Rosanna Turrone%Psy%NULL%1,            Silvia Pelizzari%Psy%NULL%1,            Andrea%Scalvini%NULL%1,            Marco%Di Cesare%NULL%1,            Marta Grigolo%Psy%NULL%1,            Lina%Falanga%NULL%1,            Nives%Medici%NULL%1,            Nives%Palamini%NULL%1,            Elisa Zanacchi%Psy%NULL%1,            Eleonora Grossi%Psy%NULL%1,            Giuseppe%Bellelli%NULL%1,            Alessandra%Marengoni%NULL%1,            Marco%Trabucchi%NULL%1,            Alessandro%Padovani%alessandro.padovani@unibs.it%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0,            Nancy%Chow%NULL%1,            Katherine%Fleming-Dutra%NULL%1,            Ryan%Gierke%NULL%1,            Aron%Hall%NULL%1,            Michelle%Hughes%NULL%1,            Tamara%Pilishvili%NULL%1,            Matthew%Ritchey%NULL%1,            Katherine%Roguski%NULL%1,            Tami%Skoff%NULL%1,            Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,            Zhencang%Zheng%NULL%1,            Chao%Zhang%NULL%1,            Xijiang%Zhang%NULL%1,            Huijuan%Wu%NULL%1,            Jingdong%Wang%NULL%1,            Shuwei%Wang%NULL%1,            Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,            Wei%Liu%NULL%1,            Kui%Liu%NULL%2,            Yuan-Yuan%Fang%NULL%1,            Jin%Shang%NULL%1,            Ling%Zhou%NULL%2,            Ke%Wang%NULL%2,            Fan%Leng%NULL%1,            Shuang%Wei%NULL%2,            Lei%Chen%NULL%1,            Hui-Guo%Liu%NULL%2,            Pei-Fang%Wei%NULL%4,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,            Francesco%Innocenti%NULL%1,            Julien%Beauté%NULL%1,            Veronika%Učakar%NULL%1,            Marta%Grgič Vitek%NULL%1,            Eero%Poukka%NULL%1,            Tuula%Hannila-Handelberg%NULL%1,            Charmaine%Gauci%NULL%1,            Tanya%Melillo%NULL%1,            Theano%Georgakopoulou%NULL%1,            Jiri%Jarkovsky%NULL%1,            Pavel%Slezak%NULL%1,            Concepción%Delgado-Sanz%NULL%1,            Carmen%Olmedo-Lucerón%NULL%1,            Heleene%Suija%NULL%1,            Rasa%Liausediene%NULL%1,            Piaras%O’Lorcain%NULL%1,            Niamh%Murphy%NULL%1,            André%Peralta-Santos%NULL%1,            Pedro%Casaca%NULL%1,            Ioanna%Gregoriou%NULL%1,            Nick%Bundle%NULL%1,            Gianfranco%Spiteri%NULL%1,            Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,            Peiyun%Li%NULL%1,            Liang%Ma%NULL%1,            Hang%Liang%NULL%1,            Jie%Lei%NULL%1,            Wenqiang%Li%NULL%1,            Kun%Wang%NULL%1,            Yu%Song%NULL%1,            Shuai%Li%NULL%1,            Wei%Yang%NULL%1,            Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,            Yun%Ling%NULL%2,            Yun%Ling%NULL%0,            Tao%Bai%NULL%2,            Tao%Bai%NULL%0,            Yusang%Xie%NULL%1,            Jie%Huang%NULL%2,            Jie%Huang%NULL%0,            Jian%Li%NULL%1,            Weining%Xiong%NULL%1,            Dexiang%Yang%NULL%1,            Rong%Chen%NULL%1,            Fangying%Lu%NULL%1,            Yunfei%Lu%NULL%1,            Xuhui%Liu%NULL%1,            Yuqing%Chen%NULL%2,            Yuqing%Chen%NULL%0,            Xin%Li%NULL%1,            Yong%Li%NULL%1,            Hanssa Dwarka%Summah%NULL%1,            Huihuang%Lin%NULL%1,            Jiayang%Yan%NULL%1,            Min%Zhou%NULL%2,            Hongzhou%Lu%NULL%2,            Hongzhou%Lu%NULL%0,            Jieming%Qu%NULL%2,            Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,            Massimiliano%Marino%NULL%1,            Debora%Formisano%NULL%1,            Francesco%Venturelli%NULL%1,            Massimo%Vicentini%NULL%2,            Massimo%Vicentini%NULL%0,            Roberto%Grilli%NULL%1,            NULL%NULL%NULL%0,            Gianluigi%Forloni%NULL%8,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0,            Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,            Justin J.%Choi%NULL%1,            Laura C.%Pinheiro%NULL%1,            Edward J.%Schenck%NULL%1,            Ruijun%Chen%NULL%0,            Assem%Jabri%NULL%1,            Michael J.%Satlin%NULL%1,            Thomas R.%Campion%NULL%1,            Musarrat%Nahid%NULL%1,            Joanna B.%Ringel%NULL%1,            Katherine L.%Hoffman%NULL%1,            Mark N.%Alshak%NULL%1,            Han A.%Li%NULL%1,            Graham T.%Wehmeyer%NULL%2,            Graham T.%Wehmeyer%NULL%0,            Mangala%Rajan%NULL%1,            Evgeniya%Reshetnyak%NULL%1,            Nathaniel%Hupert%NULL%1,            Evelyn M.%Horn%NULL%1,            Fernando J.%Martinez%NULL%1,            Roy M.%Gulick%NULL%1,            Monika M.%Safford%NULL%2,            Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,            Norio%Ohmagari%NULL%1,            Daniel%Shin%NULL%1,            George%Diaz%NULL%1,            Erika%Asperges%NULL%1,            Antonella%Castagna%NULL%1,            Torsten%Feldt%NULL%1,            Gary%Green%NULL%1,            Margaret L.%Green%NULL%1,            François-Xavier%Lescure%NULL%1,            Emanuele%Nicastri%NULL%1,            Rentaro%Oda%NULL%2,            Rentaro%Oda%NULL%0,            Kikuo%Yo%NULL%2,            Kikuo%Yo%NULL%0,            Eugenia%Quiros-Roldan%NULL%1,            Alex%Studemeister%NULL%1,            John%Redinski%NULL%1,            Seema%Ahmed%NULL%1,            Jorge%Bernett%NULL%1,            Daniel%Chelliah%NULL%1,            Danny%Chen%NULL%1,            Shingo%Chihara%NULL%1,            Stuart H.%Cohen%NULL%1,            Jennifer%Cunningham%NULL%1,            Antonella%D’Arminio Monforte%NULL%1,            Saad%Ismail%NULL%1,            Hideaki%Kato%NULL%1,            Giuseppe%Lapadula%NULL%1,            Erwan%L’Her%NULL%1,            Toshitaka%Maeno%NULL%1,            Sumit%Majumder%NULL%1,            Marco%Massari%NULL%1,            Marta%Mora-Rillo%NULL%1,            Yoshikazu%Mutoh%NULL%1,            Duc%Nguyen%NULL%1,            Ewa%Verweij%NULL%1,            Alexander%Zoufaly%NULL%1,            Anu O.%Osinusi%NULL%1,            Adam%DeZure%NULL%1,            Yang%Zhao%NULL%1,            Lijie%Zhong%NULL%1,            Anand%Chokkalingam%NULL%1,            Emon%Elboudwarej%NULL%1,            Laura%Telep%NULL%1,            Leighann%Timbs%NULL%1,            Ilana%Henne%NULL%1,            Scott%Sellers%NULL%1,            Huyen%Cao%NULL%1,            Susanna K.%Tan%NULL%1,            Lucinda%Winterbourne%NULL%1,            Polly%Desai%NULL%1,            Robertino%Mera%NULL%1,            Anuj%Gaggar%NULL%1,            Robert P.%Myers%NULL%1,            Diana M.%Brainard%NULL%1,            Richard%Childs%NULL%1,            Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,            Zheng-yi%Ni%NULL%2,            Zheng-yi%Ni%NULL%0,            Yu%Hu%NULL%1,            Wen-hua%Liang%NULL%1,            Chun-quan%Ou%NULL%1,            Jian-xing%He%NULL%1,            Lei%Liu%NULL%1,            Hong%Shan%NULL%1,            Chun-liang%Lei%NULL%1,            David S.C.%Hui%NULL%1,            Bin%Du%NULL%1,            Lan-juan%Li%NULL%1,            Guang%Zeng%NULL%1,            Kwok-Yung%Yuen%NULL%1,            Ru-chong%Chen%NULL%1,            Chun-li%Tang%NULL%1,            Tao%Wang%NULL%1,            Ping-yan%Chen%NULL%1,            Jie%Xiang%NULL%2,            Shi-yue%Li%NULL%1,            Jin-lin%Wang%NULL%1,            Zi-jing%Liang%NULL%1,            Yi-xiang%Peng%NULL%1,            Li%Wei%NULL%1,            Yong%Liu%NULL%1,            Ya-hua%Hu%NULL%1,            Peng%Peng%NULL%1,            Jian-ming%Wang%NULL%2,            Ji-yang%Liu%NULL%1,            Zhong%Chen%NULL%1,            Gang%Li%NULL%1,            Zhi-jian%Zheng%NULL%1,            Shao-qin%Qiu%NULL%1,            Jie%Luo%NULL%1,            Chang-jiang%Ye%NULL%1,            Shao-yong%Zhu%NULL%1,            Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,           Arunthamakun%Justin%coreGivesNoEmail%1,           Athavale%Ambarish M.%coreGivesNoEmail%1,           Bansal%Anip%coreGivesNoEmail%1,           Brenner%Samantha K.%coreGivesNoEmail%1,           Chan%Lili%coreGivesNoEmail%1,           Donnelly%John P.%coreGivesNoEmail%1,           Friedman%Allon N.%coreGivesNoEmail%1,           Gershengorn%Hayley B.%coreGivesNoEmail%1,           Goyal%Nitender%coreGivesNoEmail%1,           Green%Adam%coreGivesNoEmail%1,           Gupta%Shruti%coreGivesNoEmail%1,           Hayek%Salim S.%coreGivesNoEmail%1,           Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,           Kibbelaar%Zoe A.%coreGivesNoEmail%1,           Leaf%David E.%coreGivesNoEmail%1,           Leonberg-Yoo%Amanda%coreGivesNoEmail%1,           Mathews%Kusum S.%coreGivesNoEmail%1,           Melamed%Michal L.%coreGivesNoEmail%1,           Omar%Samah Abu%coreGivesNoEmail%1,           Parikh%Chirag R.%coreGivesNoEmail%1,           Radbel%Jared%coreGivesNoEmail%1,           Reiser%Jochen%coreGivesNoEmail%1,           Schenck%Edward J.%coreGivesNoEmail%1,           Semler%Matthew W.%coreGivesNoEmail%1,           Shaefi%Shahzad%coreGivesNoEmail%1,           Shehata%Alexandre M.%coreGivesNoEmail%1,           Short%Samuel A. P.%coreGivesNoEmail%1,           Srivastava%Anand%coreGivesNoEmail%1,           Sutherland%Anne%coreGivesNoEmail%1,           Velez%Juan Carlos Q.%coreGivesNoEmail%1,           Vijayan%Anitha%coreGivesNoEmail%1,           Wang%Wei%coreGivesNoEmail%1,           Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,            İmran%HASANOĞLU%NULL%2,            İmran%HASANOĞLU%NULL%0,            Bircan%KAYAASLAN%NULL%2,            Bircan%KAYAASLAN%NULL%0,            Adalet%AYPAK%NULL%2,            Adalet%AYPAK%NULL%0,            Ayşe%KAYA KALEM%NULL%2,            Ayşe%KAYA KALEM%NULL%0,            Fatma%ESER%NULL%2,            Fatma%ESER%NULL%0,            Burcu%ÖZDEMİR%NULL%2,            Burcu%ÖZDEMİR%NULL%0,            Elif Mükime%SARICAOĞLU%NULL%2,            Elif Mükime%SARICAOĞLU%NULL%0,            Müge%AYHAN%NULL%2,            Müge%AYHAN%NULL%0,            Yeşim%AYBAR BİLİR%NULL%2,            Yeşim%AYBAR BİLİR%NULL%0,            Işıl%ÖZKOÇAK TURAN%NULL%2,            Işıl%ÖZKOÇAK TURAN%NULL%0,            Deniz%ERDEM%NULL%2,            Deniz%ERDEM%NULL%0,            Nevzat Mehmet%MUTLU%NULL%1,            Turan%BUZGAN%NULL%2,            Turan%BUZGAN%NULL%0,            Bedia%DİNÇ%NULL%2,            Bedia%DİNÇ%NULL%0,            Esragül%AKINCI%NULL%2,            Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,            Elnara%Fazio-Eynullayeva%NULL%2,            Elnara%Fazio-Eynullayeva%NULL%0,            Deirdre A.%Lane%NULL%2,            Deirdre A.%Lane%NULL%0,            Paula%Underhill%NULL%2,            Paula%Underhill%NULL%0,            Gregory Y. H.%Lip%NULL%1,            Mirjam E. E.%Kretzschmar%NULL%3,            Mirjam E. E.%Kretzschmar%NULL%0,            Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,            Min%Xie%NULL%2,            Jianping%Zhao%NULL%3,            Xiansheng%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,            Shaoqiu%Chen%NULL%1,            Yuanyuan%Fu%NULL%1,            Zitong%Gao%NULL%1,            Hui%Long%NULL%1,            Jian-ming%Wang%NULL%0,            Hong-wei%Ren%NULL%1,            Yi%Zuo%NULL%1,            Huan%Li%NULL%1,            Jie%Wang%NULL%1,            Qing-bang%Xu%NULL%1,            Wen-xiong%Yu%NULL%1,            Jia%Liu%NULL%1,            Chen%Shao%NULL%1,            Jun-jie%Hao%NULL%1,            Chuan-zhen%Wang%NULL%1,            Yao%Ma%NULL%1,            Zhanwei%Wang%NULL%1,            Richard%Yanagihara%NULL%1,            Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,            Yeming%Wang%NULL%2,            Xingwang%Li%NULL%1,            Lili%Ren%NULL%1,            Jianping%Zhao%NULL%0,            Yi%Hu%NULL%2,            Li%Zhang%NULL%1,            Guohui%Fan%NULL%2,            Jiuyang%Xu%NULL%2,            Xiaoying%Gu%NULL%2,            Zhenshun%Cheng%NULL%2,            Ting%Yu%NULL%3,            Jiaan%Xia%NULL%1,            Yuan%Wei%NULL%2,            Wenjuan%Wu%NULL%1,            Xuelei%Xie%NULL%1,            Wen%Yin%NULL%1,            Hui%Li%NULL%2,            Min%Liu%NULL%1,            Yan%Xiao%NULL%1,            Hong%Gao%NULL%1,            Li%Guo%NULL%1,            Jungang%Xie%NULL%2,            Guangfa%Wang%NULL%1,            Rongmeng%Jiang%NULL%1,            Zhancheng%Gao%NULL%1,            Qi%Jin%NULL%1,            Jianwei%Wang%wangjw28@163.com%1,            Bin%Cao%caobin_ben@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,           Bayani%Masomeh%coreGivesNoEmail%1,           Bijani%Ali%coreGivesNoEmail%1,           Ebrahimpour%Soheil%coreGivesNoEmail%1,           Gholinejad%Hossein Emam%coreGivesNoEmail%1,           Ghorbani%Hossein%coreGivesNoEmail%1,           Hasanpour%Amir Hossein%coreGivesNoEmail%1,           Javanian%Mostafa%coreGivesNoEmail%1,           Masrour-Roudsari%Jila%coreGivesNoEmail%1,           Mehraeen%Rahele%coreGivesNoEmail%1,           Mohseni%Sima%coreGivesNoEmail%1,           Rostami%Ali%coreGivesNoEmail%1,           Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,           Sepidarkish%Mahdi%coreGivesNoEmail%1,           Shabani%Asieh%coreGivesNoEmail%1,           Shahbazi%Mehdi%coreGivesNoEmail%1,           Shokri%Mehran%coreGivesNoEmail%1,           Tabari%Afrooz Monadi%coreGivesNoEmail%1,           Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,            Matteo%Piccica%NULL%1,            Lucia%Graziani%NULL%1,            Iacopo%Vellere%NULL%1,            Annarita%Botta%NULL%1,            Marta%Tilli%NULL%1,            Letizia%Ottino%NULL%1,            Beatrice%Borchi%NULL%1,            Marco%Pozzi%NULL%1,            Filippo%Bartalesi%NULL%1,            Jessica%Mencarini%NULL%1,            Michele%Spinicci%NULL%1,            Lorenzo%Zammarchi%NULL%1,            Filippo%Pieralli%NULL%1,            Giovanni%Zagli%NULL%1,            Carlo%Nozzoli%NULL%1,            Stefano%Romagnoli%NULL%1,            Alessandro%Bartoloni%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,            Zhao-Wu%Tao%NULL%1,            Lei%Wang%NULL%1,            Ming-Li%Yuan%NULL%1,            Kui%Liu%NULL%0,            Ling%Zhou%NULL%0,            Shuang%Wei%NULL%0,            Yan%Deng%NULL%1,            Jing%Liu%NULL%1,            Hui-Guo%Liu%NULL%0,            Ming%Yang%NULL%1,            Yi%Hu%NULL%0,            Pei-Fang%Wei%NULL%0,            Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,            Shuyun%Xu%NULL%1,            Muqing%Yu%NULL%1,            Ke%Wang%NULL%0,            Yu%Tao%NULL%1,            Ying%Zhou%NULL%1,            Jing%Shi%NULL%1,            Min%Zhou%NULL%0,            Bo%Wu%NULL%1,            Zhenyu%Yang%NULL%1,            Cong%Zhang%NULL%1,            Junqing%Yue%NULL%1,            Zhiguo%Zhang%NULL%1,            Harald%Renz%NULL%1,            Xiansheng%Liu%NULL%0,            Jungang%Xie%NULL%0,            Min%Xie%NULL%0,            Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,            Shu%Peng%NULL%1,            Le-qun%Li%NULL%1,            Qi%Wang%NULL%1,            Wei%Ping%NULL%1,            Ni%Zhang%NULL%1,            Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,            Yuanyuan%Xing%NULL%1,            Yu%Xiao%NULL%1,            Liping%Deng%NULL%1,            Qiu%Zhao%NULL%1,            Hongling%Wang%NULL%1,            Yong%Xiong%NULL%1,            Zhenshun%Cheng%NULL%0,            Shicheng%Gao%NULL%1,            Ke%Liang%NULL%1,            Mingqi%Luo%NULL%1,            Tielong%Chen%NULL%1,            Shihui%Song%NULL%1,            Zhiyong%Ma%NULL%1,            Xiaoping%Chen%NULL%1,            Ruiying%Zheng%NULL%1,            Qian%Cao%NULL%1,            Fan%Wang%fanndywang@foxmail.com%1,            Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,            Nicolas%Lopez-Villalobos%NULL%1,            Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,            Adam J%Russak%NULL%2,            Adam J%Russak%NULL%0,            Jessica K%De Freitas%NULL%1,            Anuradha%Lala%NULL%1,            Riccardo%Miotto%NULL%1,            Akhil%Vaid%NULL%1,            Kipp W%Johnson%NULL%1,            Matteo%Danieletto%NULL%1,            Eddye%Golden%NULL%1,            Dara%Meyer%NULL%1,            Manbir%Singh%NULL%1,            Sulaiman%Somani%NULL%1,            Arjun%Kapoor%NULL%1,            Ross%O'Hagan%NULL%1,            Sayan%Manna%NULL%1,            Udit%Nangia%NULL%1,            Suraj K%Jaladanki%NULL%1,            Paul%O’Reilly%NULL%2,            Paul%O’Reilly%NULL%0,            Laura M%Huckins%NULL%1,            Patricia%Glowe%NULL%1,            Arash%Kia%NULL%1,            Prem%Timsina%NULL%1,            Robert M%Freeman%NULL%1,            Matthew A%Levin%NULL%1,            Jeffrey%Jhang%NULL%1,            Adolfo%Firpo%NULL%1,            Patricia%Kovatch%NULL%1,            Joseph%Finkelstein%NULL%1,            Judith A%Aberg%NULL%1,            Emilia%Bagiella%NULL%1,            Carol R%Horowitz%NULL%1,            Barbara%Murphy%NULL%1,            Zahi A%Fayad%NULL%1,            Jagat%Narula%NULL%1,            Eric J%Nestler%NULL%1,            V%Fuster%NULL%1,            Carlos%Cordon-Cardo%NULL%1,            Dennis%Charney%NULL%1,            David L%Reich%NULL%1,            Allan%Just%NULL%1,            Erwin P%Bottinger%NULL%1,            Alexander W%Charney%NULL%1,            Benjamin S%Glicksberg%NULL%1,            Girish N%Nadkarni%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,             X.% Yan%null%1,             X.% Tang%null%1,             J.% Peng%null%1,             Q.% Yu%null%1,             L.% Feng%null%1,             G.% Yuan%null%1,             A.% Zhang%null%1,             Y.% Chen%null%1,             J.% Yuan%null%1,             X.% Huang%null%1,             X.% Zhang%null%1,             P.% Hu%null%1,             Y.% Song%null%1,             C.% Qian%null%1,             Q.% Sun%null%1,             D.% Wang%null%1,             J.% Tong%null%1,             J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,            Kevin Bryan%Lo%NULL%2,            Kevin Bryan%Lo%NULL%0,            Fahad%Gul%NULL%1,            Eric%Peterson%NULL%1,            Robert%De Joy%NULL%1,            Ruchika%Bhargav%NULL%1,            Jerald%Pelayo%NULL%1,            Jeri%Albano%NULL%1,            Zurab%Azmaiparashvili%NULL%1,            Sadia%Benzaquen%NULL%1,            Gabriel%Patarroyo‐Aponte%NULL%1,            Janani%Rangaswami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,            Mu%Qin%qinmuae@163.com%1,            Yuli%Cai%NULL%1,            Tao%Liu%NULL%1,            Bo%Shen%NULL%1,            Fan%Yang%NULL%1,            Sheng%Cao%NULL%1,            Xu%Liu%NULL%2,            Xu%Liu%NULL%0,            Yaozu%Xiang%NULL%1,            Qinyan%Zhao%NULL%1,            He%Huang%huanghe1977@whu.edu.cn%1,            Bo%Yang%yybb112@whu.edu.cn%1,            Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,            Fergus%Hamilton%NULL%1,            Samuel%Gunning%NULL%1,            Caitlin%Sheehy%NULL%1,            Ed%Moran%NULL%1,            Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,            Yi%Xiang%NULL%1,            Wei%Fang%NULL%1,            Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,            Boqun%Li%279685211@qq.com%2,            Boqun%Li%279685211@qq.com%0,            Yanjun%Hu%huyanjun@163.com%1,            Chunhui%Lang%NULL%1,            Daoqiu%Huang%NULL%1,            Qiuyan%Sun%NULL%1,            Yan%Xiong%NULL%1,            Xia%Huang%NULL%1,            Jinglong%Lv%NULL%1,            Yaling%Luo%NULL%1,            Li%Shen%NULL%1,            Haoran%Yang%NULL%1,            Gu%Huang%NULL%1,            Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,           Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,           Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,           Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,            Wenbo%He%NULL%1,            Xiaomei%Yu%NULL%1,            Dalong%Hu%NULL%1,            Mingwei%Bao%NULL%1,            Huafen%Liu%NULL%1,            Jiali%Zhou%NULL%1,            Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,            Bohan%Yang%NULL%1,            Qianwen%Li%NULL%1,            Lu%Wen%NULL%1,            Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,           Xu%Y%coreGivesNoEmail%1,           Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,            Fen%Li%NULL%1,            Xiao%Wang%NULL%1,            Jie%Yan%NULL%1,            Fen%Zhu%NULL%1,            Shifan%Tang%NULL%1,            Yingzhong%Deng%NULL%1,            Hua%Wang%NULL%1,            Rui%Chen%NULL%1,            Zhili%Yu%NULL%1,            Yaping%Li%NULL%1,            Jingzhou%Shang%NULL%1,            Lingjun%Zeng%NULL%1,            Jie%Zhao%NULL%1,            Chaokun%Guan%NULL%1,            Qiaomei%Liu%NULL%1,            Haifeng%Chen%NULL%1,            Wei%Gong%NULL%1,            Xin%Huang%NULL%1,            Yu‐Jiao%Zhang%NULL%1,            Jianguang%Liu%NULL%1,            Xiaoyan%Dong%NULL%1,            Wen%Zheng%zhengwen12@mails.jlu.edu.cn%1,            Shaoping%Nie%spnie@126.com%1,            Dongsheng%Li%dongshengli196809@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,            Pengfei%Wang%NULL%2,            Pengfei%Wang%NULL%0,            Yuyan%Song%NULL%1,            An%Zhang%zhangan@hospital.cqmu.edu.cn%1,            Guodan%Yuan%71502294@qq.com%1,            Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,            Yuan%Yu%NULL%1,            Jiqian%Xu%NULL%1,            Huaqing%Shu%NULL%1,            Jia'an%Xia%NULL%1,            Hong%Liu%NULL%1,            Yongran%Wu%NULL%1,            Lu%Zhang%NULL%1,            Zhui%Yu%NULL%1,            Minghao%Fang%NULL%1,            Ting%Yu%NULL%0,            Yaxin%Wang%NULL%1,            Shangwen%Pan%NULL%1,            Xiaojing%Zou%NULL%1,            Shiying%Yuan%NULL%1,            You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,           Cao%Yi-yuan%coreGivesNoEmail%1,           Dong%Xiang%coreGivesNoEmail%1,           Gao%Ya-dong%coreGivesNoEmail%1,           Yan%You-qin%coreGivesNoEmail%1,           Yang%Yi-bin%coreGivesNoEmail%1,           Yuan%Ya-dong%coreGivesNoEmail%1,           Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,            Chang%Hu%NULL%1,            Linjie%Luo%NULL%1,            Fang%Fang%NULL%1,            Yongfeng%Chen%NULL%1,            Jianguo%Li%NULL%1,            Zhiyong%Peng%NULL%1,            Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,            Miao%Yu%NULL%1,            Song%Tong%NULL%1,            Lu-Yu%Liu%NULL%1,            Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,            Huangqing%Ouyang%NULL%1,            Lingli%Fu%NULL%1,            Shijie%Wang%NULL%1,            Jianglong%Han%NULL%1,            Kejie%Huang%NULL%1,            Mingfang%Jia%NULL%1,            Qibin%Song%NULL%1,            Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,            Anne%Chen%NULL%1,            Wei%Hou%NULL%1,            James M.%Graham%NULL%1,            Haifang%Li%NULL%1,            Paul S.%Richman%NULL%1,            Henry C.%Thode%NULL%1,            Adam J.%Singer%NULL%1,            Tim Q.%Duong%NULL%1,            Muhammad%Adrish%NULL%9,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0,            Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t>Clinical characteristics of 161 cases of corona virus disease 2019 (COVID-19) in Changsha.</t>
+  </si>
+  <si>
+    <t>OBJECTIVE In December 2019, a new type of coronavirus-infected pneumonia broke out in Wuhan and spread rapidly to other parts of the country. The purpose of this study was to investigate the clinical features of coronavirus disease 2019 (COVID-19). MATERIALS AND METHODS A retrospective analysis was performed on the confirmed cases of COVID-19, who were admitted to the North Hospital of Changsha first Hospital (Changsha Public Health treatment Center) from January 17 to February 7, 2020. RESULTS The median age of COVID-19 patients was 45 years (range 33.5-57). The male patients accounted for 49.7%, 64.6% of the patients had a history of exposure in Wuhan, and 31.7% had family aggregation. The median days of onset were six, and the incidence of severe illness was 18.6%. Compared with the non-severe group, the severe group showed statistical significance in older age, hypertension, bilateral lung plaque shadow, decrease in lymphocyte count, increase in C-reactive protein (CRP), aspartate aminotransferase (AST), lactate dehydrogenase, and creatine kinase. CONCLUSIONS Age, combined hypertension, oxygenation index, double lung patch, decreased lymphocyte count, and elevated levels of C-reactive protein, aspartate aminotransferase, lactate dehydrogenase, and creatine kinase can be used as predictors of the disease severity.</t>
+  </si>
+  <si>
+    <t>[ F%Zheng%elasticNoEmail%2,  W% Tang%elasticNoEmail%2,  H% Li%elasticNoEmail%2,  Y-X% Huang%elasticNoEmail%2,  Y-L% Xie%elasticNoEmail%2,  Z-G% Zhou%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%1,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%1,            Zhibo%Liu%NULL%1,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%1,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%1,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%1,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%1,            Yi%Zhang%NULL%1,            Hua%Chen%NULL%1,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sulaiman%Almazeedi%NULL%2,             Sarah%Al-Youha%sarahalyouha@gmail.com%1,             Mohammad H.%Jamal%NULL%1,             Mohannad%Al-Haddad%NULL%1,             Ali%Al-Muhaini%NULL%1,             Fahad%Al-Ghimlas%NULL%1,             Salman%Al-Sabah%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michael G%Argenziano%NULL%0,             Samuel L%Bruce%NULL%1,             Cody L%Slater%NULL%1,             Jonathan R%Tiao%NULL%1,             Matthew R%Baldwin%NULL%1,             R Graham%Barr%NULL%1,             Bernard P%Chang%NULL%1,             Katherine H%Chau%NULL%1,             Justin J%Choi%NULL%1,             Nicholas%Gavin%NULL%1,             Parag%Goyal%NULL%1,             Angela M%Mills%NULL%1,             Ashmi A%Patel%NULL%1,             Marie-Laure S%Romney%NULL%1,             Monika M%Safford%NULL%1,             Neil W%Schluger%NULL%1,             Soumitra%Sengupta%NULL%1,             Magdalena E%Sobieszczyk%NULL%1,             Jason E%Zucker%NULL%1,             Paul A%Asadourian%NULL%1,             Fletcher M%Bell%NULL%1,             Rebekah%Boyd%NULL%1,             Matthew F%Cohen%NULL%1,             MacAlistair I%Colquhoun%NULL%1,             Lucy A%Colville%NULL%1,             Joseph H%de Jonge%NULL%1,             Lyle B%Dershowitz%NULL%1,             Shirin A%Dey%NULL%1,             Katherine A%Eiseman%NULL%1,             Zachary P%Girvin%NULL%1,             Daniella T%Goni%NULL%1,             Amro A%Harb%NULL%1,             Nicholas%Herzik%NULL%1,             Sarah%Householder%NULL%1,             Lara E%Karaaslan%NULL%1,             Heather%Lee%NULL%1,             Evan%Lieberman%NULL%1,             Andrew%Ling%NULL%1,             Ree%Lu%NULL%1,             Arthur Y%Shou%NULL%1,             Alexander C%Sisti%NULL%1,             Zachary E%Snow%NULL%1,             Colin P%Sperring%NULL%1,             Yuqing%Xiong%NULL%1,             Henry W%Zhou%NULL%1,             Karthik%Natarajan%NULL%1,             George%Hripcsak%NULL%1,             Ruijun%Chen%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara C.%Auld%NULL%0,             Mark%Caridi-Scheible%NULL%1,             James M.%Blum%NULL%1,             Chad%Robichaux%NULL%1,             Colleen%Kraft%NULL%1,             Jesse T.%Jacob%NULL%1,             Craig S.%Jabaley%NULL%1,             David%Carpenter%NULL%1,             Roberta%Kaplow%NULL%1,             Alfonso C.%Hernandez-Romieu%NULL%1,             Max W.%Adelman%NULL%1,             Greg S.%Martin%NULL%1,             Craig M.%Coopersmith%NULL%1,             David J.%Murphy%NULL%1,             NULL%NULL%NULL%8,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Frederick S%Buckner%fbuckner@uw.edu%0,             Denise J%McCulloch%NULL%2,             Denise J%McCulloch%NULL%0,             Vidya%Atluri%NULL%1,             Michela%Blain%NULL%1,             Sarah A%McGuffin%NULL%1,             Arun K%Nalla%NULL%1,             Meei-Li%Huang%NULL%1,             Alex L%Greninger%NULL%1,             Keith R%Jerome%NULL%1,             Seth A%Cohen%NULL%1,             Santiago%Neme%NULL%1,             Margaret L%Green%NULL%1,             Helen Y%Chu%NULL%1,             H Nina%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingxian%Cai%xref no email%1,   Fengjuan%Chen%xref no email%1,   Tao%Wang%xref no email%1,   Fang%Luo%xref no email%1,   Xiaohui%Liu%xref no email%1,   Qikai%Wu%xref no email%1,   Qing%He%xref no email%1,   Zhaoqin%Wang%xref no email%1,   Yingxia%Liu%xref no email%1,   Lei%Liu%xref no email%1,   Jun%Chen%xref no email%1,   Lin%Xu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,             Wenlin%Cheng%NULL%1,             Lei%Yu%NULL%1,             Ya-Kun%Liu%NULL%1,             Xiaoyong%Hu%NULL%1,             Qiang%Liu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Salvatore%Caratozzolo%NULL%1,             Alberto%Zucchelli%NULL%1,             Marinella%Turla%NULL%1,             Maria Sofia%Cotelli%NULL%1,             Sara%Fascendini%NULL%1,             Mara%Zanni%NULL%1,             Angelo%Bianchetti%NULL%1,             Matteo Peli%Psy%NULL%1,             Renzo%Rozzini%NULL%1,             Stefano%Boffelli%NULL%1,             Melania%Cappuccio%NULL%1,             Federica Gottardi%Psy%NULL%1,             Chiara Vecchi%Psy%NULL%1,             Daniele%Bellandi%NULL%1,             Claudia%Caminati%NULL%1,             Simona%Gentile%NULL%1,             Elena Lucchi%Psy%NULL%1,             Ignazio%Di Fazio%NULL%1,             Marina Zanetti%Psy%NULL%1,             Giuliana%Vezzadini%NULL%1,             Chiara Forlani%Psy%NULL%1,             Maura Cosseddu%Psy%NULL%1,             Rosanna Turrone%Psy%NULL%1,             Silvia Pelizzari%Psy%NULL%1,             Andrea%Scalvini%NULL%1,             Marco%Di Cesare%NULL%1,             Marta Grigolo%Psy%NULL%1,             Lina%Falanga%NULL%1,             Nives%Medici%NULL%1,             Nives%Palamini%NULL%1,             Elisa Zanacchi%Psy%NULL%1,             Eleonora Grossi%Psy%NULL%1,             Giuseppe%Bellelli%NULL%1,             Alessandra%Marengoni%NULL%1,             Marco%Trabucchi%NULL%1,             Alessandro%Padovani%alessandro.padovani@unibs.it%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0,             Nancy%Chow%NULL%1,             Katherine%Fleming-Dutra%NULL%1,             Ryan%Gierke%NULL%1,             Aron%Hall%NULL%1,             Michelle%Hughes%NULL%1,             Tamara%Pilishvili%NULL%1,             Matthew%Ritchey%NULL%1,             Katherine%Roguski%NULL%1,             Tami%Skoff%NULL%1,             Emily%Ussery%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qingqing%Chen%NULL%2,             Zhencang%Zheng%NULL%1,             Chao%Zhang%NULL%1,             Xijiang%Zhang%NULL%1,             Huijuan%Wu%NULL%1,             Jingdong%Wang%NULL%1,             Shuwei%Wang%NULL%1,             Cheng%Zheng%dr.zhengcheng@foxmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Yan%Deng%NULL%0,             Wei%Liu%NULL%1,             Kui%Liu%NULL%2,             Yuan-Yuan%Fang%NULL%1,             Jin%Shang%NULL%1,             Ling%Zhou%NULL%2,             Ke%Wang%NULL%2,             Fan%Leng%NULL%1,             Shuang%Wei%NULL%2,             Lei%Chen%NULL%1,             Hui-Guo%Liu%NULL%2,             Pei-Fang%Wei%NULL%4,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nathalie%Nicolay%NULL%1,             Francesco%Innocenti%NULL%1,             Julien%Beauté%NULL%1,             Veronika%Učakar%NULL%1,             Marta%Grgič Vitek%NULL%1,             Eero%Poukka%NULL%1,             Tuula%Hannila-Handelberg%NULL%1,             Charmaine%Gauci%NULL%1,             Tanya%Melillo%NULL%1,             Theano%Georgakopoulou%NULL%1,             Jiri%Jarkovsky%NULL%1,             Pavel%Slezak%NULL%1,             Concepción%Delgado-Sanz%NULL%1,             Carmen%Olmedo-Lucerón%NULL%1,             Heleene%Suija%NULL%1,             Rasa%Liausediene%NULL%1,             Piaras%O’Lorcain%NULL%1,             Niamh%Murphy%NULL%1,             André%Peralta-Santos%NULL%1,             Pedro%Casaca%NULL%1,             Ioanna%Gregoriou%NULL%1,             Nick%Bundle%NULL%1,             Gianfranco%Spiteri%NULL%1,             Giovanni%Ravasi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Feng%NULL%2,             Peiyun%Li%NULL%1,             Liang%Ma%NULL%1,             Hang%Liang%NULL%1,             Jie%Lei%NULL%1,             Wenqiang%Li%NULL%1,             Kun%Wang%NULL%1,             Yu%Song%NULL%1,             Shuai%Li%NULL%1,             Wei%Yang%NULL%1,             Cao%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yun%Feng%NULL%0,             Yun%Ling%NULL%2,             Yun%Ling%NULL%0,             Tao%Bai%NULL%2,             Tao%Bai%NULL%0,             Yusang%Xie%NULL%1,             Jie%Huang%NULL%2,             Jie%Huang%NULL%0,             Jian%Li%NULL%1,             Weining%Xiong%NULL%1,             Dexiang%Yang%NULL%1,             Rong%Chen%NULL%1,             Fangying%Lu%NULL%1,             Yunfei%Lu%NULL%1,             Xuhui%Liu%NULL%1,             Yuqing%Chen%NULL%2,             Yuqing%Chen%NULL%0,             Xin%Li%NULL%1,             Yong%Li%NULL%1,             Hanssa Dwarka%Summah%NULL%1,             Huihuang%Lin%NULL%1,             Jiayang%Yan%NULL%1,             Min%Zhou%NULL%2,             Hongzhou%Lu%NULL%2,             Hongzhou%Lu%NULL%0,             Jieming%Qu%NULL%2,             Jieming%Qu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Giorgi Rossi%NULL%0,             Massimiliano%Marino%NULL%1,             Debora%Formisano%NULL%1,             Francesco%Venturelli%NULL%1,             Massimo%Vicentini%NULL%2,             Massimo%Vicentini%NULL%0,             Roberto%Grilli%NULL%1,             NULL%NULL%NULL%0,             Gianluigi%Forloni%NULL%8,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0,             Gianluigi%Forloni%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Parag%Goyal%NULL%0,             Justin J.%Choi%NULL%1,             Laura C.%Pinheiro%NULL%1,             Edward J.%Schenck%NULL%1,             Ruijun%Chen%NULL%0,             Assem%Jabri%NULL%1,             Michael J.%Satlin%NULL%1,             Thomas R.%Campion%NULL%1,             Musarrat%Nahid%NULL%1,             Joanna B.%Ringel%NULL%1,             Katherine L.%Hoffman%NULL%1,             Mark N.%Alshak%NULL%1,             Han A.%Li%NULL%1,             Graham T.%Wehmeyer%NULL%2,             Graham T.%Wehmeyer%NULL%0,             Mangala%Rajan%NULL%1,             Evgeniya%Reshetnyak%NULL%1,             Nathaniel%Hupert%NULL%1,             Evelyn M.%Horn%NULL%1,             Fernando J.%Martinez%NULL%1,             Roy M.%Gulick%NULL%1,             Monika M.%Safford%NULL%2,             Monika M.%Safford%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jonathan%Grein%NULL%1,             Norio%Ohmagari%NULL%1,             Daniel%Shin%NULL%1,             George%Diaz%NULL%1,             Erika%Asperges%NULL%1,             Antonella%Castagna%NULL%1,             Torsten%Feldt%NULL%1,             Gary%Green%NULL%1,             Margaret L.%Green%NULL%1,             François-Xavier%Lescure%NULL%1,             Emanuele%Nicastri%NULL%1,             Rentaro%Oda%NULL%2,             Rentaro%Oda%NULL%0,             Kikuo%Yo%NULL%2,             Kikuo%Yo%NULL%0,             Eugenia%Quiros-Roldan%NULL%1,             Alex%Studemeister%NULL%1,             John%Redinski%NULL%1,             Seema%Ahmed%NULL%1,             Jorge%Bernett%NULL%1,             Daniel%Chelliah%NULL%1,             Danny%Chen%NULL%1,             Shingo%Chihara%NULL%1,             Stuart H.%Cohen%NULL%1,             Jennifer%Cunningham%NULL%1,             Antonella%D’Arminio Monforte%NULL%1,             Saad%Ismail%NULL%1,             Hideaki%Kato%NULL%1,             Giuseppe%Lapadula%NULL%1,             Erwan%L’Her%NULL%1,             Toshitaka%Maeno%NULL%1,             Sumit%Majumder%NULL%1,             Marco%Massari%NULL%1,             Marta%Mora-Rillo%NULL%1,             Yoshikazu%Mutoh%NULL%1,             Duc%Nguyen%NULL%1,             Ewa%Verweij%NULL%1,             Alexander%Zoufaly%NULL%1,             Anu O.%Osinusi%NULL%1,             Adam%DeZure%NULL%1,             Yang%Zhao%NULL%1,             Lijie%Zhong%NULL%1,             Anand%Chokkalingam%NULL%1,             Emon%Elboudwarej%NULL%1,             Laura%Telep%NULL%1,             Leighann%Timbs%NULL%1,             Ilana%Henne%NULL%1,             Scott%Sellers%NULL%1,             Huyen%Cao%NULL%1,             Susanna K.%Tan%NULL%1,             Lucinda%Winterbourne%NULL%1,             Polly%Desai%NULL%1,             Robertino%Mera%NULL%1,             Anuj%Gaggar%NULL%1,             Robert P.%Myers%NULL%1,             Diana M.%Brainard%NULL%1,             Richard%Childs%NULL%1,             Timothy%Flanigan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0,             Zheng-yi%Ni%NULL%2,             Zheng-yi%Ni%NULL%0,             Yu%Hu%NULL%1,             Wen-hua%Liang%NULL%1,             Chun-quan%Ou%NULL%1,             Jian-xing%He%NULL%1,             Lei%Liu%NULL%1,             Hong%Shan%NULL%1,             Chun-liang%Lei%NULL%1,             David S.C.%Hui%NULL%1,             Bin%Du%NULL%1,             Lan-juan%Li%NULL%1,             Guang%Zeng%NULL%1,             Kwok-Yung%Yuen%NULL%1,             Ru-chong%Chen%NULL%1,             Chun-li%Tang%NULL%1,             Tao%Wang%NULL%1,             Ping-yan%Chen%NULL%1,             Jie%Xiang%NULL%2,             Shi-yue%Li%NULL%1,             Jin-lin%Wang%NULL%1,             Zi-jing%Liang%NULL%1,             Yi-xiang%Peng%NULL%1,             Li%Wei%NULL%1,             Yong%Liu%NULL%1,             Ya-hua%Hu%NULL%1,             Peng%Peng%NULL%1,             Jian-ming%Wang%NULL%2,             Ji-yang%Liu%NULL%1,             Zhong%Chen%NULL%1,             Gang%Li%NULL%1,             Zhi-jian%Zheng%NULL%1,             Shao-qin%Qiu%NULL%1,             Jie%Luo%NULL%1,             Chang-jiang%Ye%NULL%1,             Shao-yong%Zhu%NULL%1,             Nan-shan%Zhong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Admon%Andrew J.%coreGivesNoEmail%1,            Arunthamakun%Justin%coreGivesNoEmail%1,            Athavale%Ambarish M.%coreGivesNoEmail%1,            Bansal%Anip%coreGivesNoEmail%1,            Brenner%Samantha K.%coreGivesNoEmail%1,            Chan%Lili%coreGivesNoEmail%1,            Donnelly%John P.%coreGivesNoEmail%1,            Friedman%Allon N.%coreGivesNoEmail%1,            Gershengorn%Hayley B.%coreGivesNoEmail%1,            Goyal%Nitender%coreGivesNoEmail%1,            Green%Adam%coreGivesNoEmail%1,            Gupta%Shruti%coreGivesNoEmail%1,            Hayek%Salim S.%coreGivesNoEmail%1,            Hern\u00e1n%Miguel A.%coreGivesNoEmail%1,            Kibbelaar%Zoe A.%coreGivesNoEmail%1,            Leaf%David E.%coreGivesNoEmail%1,            Leonberg-Yoo%Amanda%coreGivesNoEmail%1,            Mathews%Kusum S.%coreGivesNoEmail%1,            Melamed%Michal L.%coreGivesNoEmail%1,            Omar%Samah Abu%coreGivesNoEmail%1,            Parikh%Chirag R.%coreGivesNoEmail%1,            Radbel%Jared%coreGivesNoEmail%1,            Reiser%Jochen%coreGivesNoEmail%1,            Schenck%Edward J.%coreGivesNoEmail%1,            Semler%Matthew W.%coreGivesNoEmail%1,            Shaefi%Shahzad%coreGivesNoEmail%1,            Shehata%Alexandre M.%coreGivesNoEmail%1,            Short%Samuel A. P.%coreGivesNoEmail%1,            Srivastava%Anand%coreGivesNoEmail%1,            Sutherland%Anne%coreGivesNoEmail%1,            Velez%Juan Carlos Q.%coreGivesNoEmail%1,            Vijayan%Anitha%coreGivesNoEmail%1,            Wang%Wei%coreGivesNoEmail%1,            Zhou%Yan%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Rahmet%GÜNER%NULL%1,             İmran%HASANOĞLU%NULL%2,             İmran%HASANOĞLU%NULL%0,             Bircan%KAYAASLAN%NULL%2,             Bircan%KAYAASLAN%NULL%0,             Adalet%AYPAK%NULL%2,             Adalet%AYPAK%NULL%0,             Ayşe%KAYA KALEM%NULL%2,             Ayşe%KAYA KALEM%NULL%0,             Fatma%ESER%NULL%2,             Fatma%ESER%NULL%0,             Burcu%ÖZDEMİR%NULL%2,             Burcu%ÖZDEMİR%NULL%0,             Elif Mükime%SARICAOĞLU%NULL%2,             Elif Mükime%SARICAOĞLU%NULL%0,             Müge%AYHAN%NULL%2,             Müge%AYHAN%NULL%0,             Yeşim%AYBAR BİLİR%NULL%2,             Yeşim%AYBAR BİLİR%NULL%0,             Işıl%ÖZKOÇAK TURAN%NULL%2,             Işıl%ÖZKOÇAK TURAN%NULL%0,             Deniz%ERDEM%NULL%2,             Deniz%ERDEM%NULL%0,             Nevzat Mehmet%MUTLU%NULL%1,             Turan%BUZGAN%NULL%2,             Turan%BUZGAN%NULL%0,             Bedia%DİNÇ%NULL%2,             Bedia%DİNÇ%NULL%0,             Esragül%AKINCI%NULL%2,             Esragül%AKINCI%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Stephanie L.%Harrison%NULL%1,             Elnara%Fazio-Eynullayeva%NULL%2,             Elnara%Fazio-Eynullayeva%NULL%0,             Deirdre A.%Lane%NULL%2,             Deirdre A.%Lane%NULL%0,             Paula%Underhill%NULL%2,             Paula%Underhill%NULL%0,             Gregory Y. H.%Lip%NULL%1,             Mirjam E. E.%Kretzschmar%NULL%3,             Mirjam E. E.%Kretzschmar%NULL%0,             Mirjam E. E.%Kretzschmar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanzhou%He%NULL%1,             Min%Xie%NULL%2,             Jianping%Zhao%NULL%3,             Xiansheng%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Ling%Hu%NULL%0,             Shaoqiu%Chen%NULL%1,             Yuanyuan%Fu%NULL%1,             Zitong%Gao%NULL%1,             Hui%Long%NULL%1,             Jian-ming%Wang%NULL%0,             Hong-wei%Ren%NULL%1,             Yi%Zuo%NULL%1,             Huan%Li%NULL%1,             Jie%Wang%NULL%1,             Qing-bang%Xu%NULL%1,             Wen-xiong%Yu%NULL%1,             Jia%Liu%NULL%1,             Chen%Shao%NULL%1,             Jun-jie%Hao%NULL%1,             Chuan-zhen%Wang%NULL%1,             Yao%Ma%NULL%1,             Zhanwei%Wang%NULL%1,             Richard%Yanagihara%NULL%1,             Youping%Deng%dengy@hawaii.edu%1]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,             Yeming%Wang%NULL%2,             Xingwang%Li%NULL%1,             Lili%Ren%NULL%1,             Jianping%Zhao%NULL%0,             Yi%Hu%NULL%2,             Li%Zhang%NULL%1,             Guohui%Fan%NULL%2,             Jiuyang%Xu%NULL%2,             Xiaoying%Gu%NULL%2,             Zhenshun%Cheng%NULL%2,             Ting%Yu%NULL%3,             Jiaan%Xia%NULL%1,             Yuan%Wei%NULL%2,             Wenjuan%Wu%NULL%1,             Xuelei%Xie%NULL%1,             Wen%Yin%NULL%1,             Hui%Li%NULL%2,             Min%Liu%NULL%1,             Yan%Xiao%NULL%1,             Hong%Gao%NULL%1,             Li%Guo%NULL%1,             Jungang%Xie%NULL%2,             Guangfa%Wang%NULL%1,             Rongmeng%Jiang%NULL%1,             Zhancheng%Gao%NULL%1,             Qi%Jin%NULL%1,             Jianwei%Wang%wangjw28@163.com%1,             Bin%Cao%caobin_ben@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Babazadeh%Arefeh%coreGivesNoEmail%1,            Bayani%Masomeh%coreGivesNoEmail%1,            Bijani%Ali%coreGivesNoEmail%1,            Ebrahimpour%Soheil%coreGivesNoEmail%1,            Gholinejad%Hossein Emam%coreGivesNoEmail%1,            Ghorbani%Hossein%coreGivesNoEmail%1,            Hasanpour%Amir Hossein%coreGivesNoEmail%1,            Javanian%Mostafa%coreGivesNoEmail%1,            Masrour-Roudsari%Jila%coreGivesNoEmail%1,            Mehraeen%Rahele%coreGivesNoEmail%1,            Mohseni%Sima%coreGivesNoEmail%1,            Rostami%Ali%coreGivesNoEmail%1,            Sadeghi-Haddad-Zavareh%Mahmoud%coreGivesNoEmail%1,            Sepidarkish%Mahdi%coreGivesNoEmail%1,            Shabani%Asieh%coreGivesNoEmail%1,            Shahbazi%Mehdi%coreGivesNoEmail%1,            Shokri%Mehran%coreGivesNoEmail%1,            Tabari%Afrooz Monadi%coreGivesNoEmail%1,            Yeganeh%Babak%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Filippo%Lagi%NULL%1,             Matteo%Piccica%NULL%1,             Lucia%Graziani%NULL%1,             Iacopo%Vellere%NULL%1,             Annarita%Botta%NULL%1,             Marta%Tilli%NULL%1,             Letizia%Ottino%NULL%1,             Beatrice%Borchi%NULL%1,             Marco%Pozzi%NULL%1,             Filippo%Bartalesi%NULL%1,             Jessica%Mencarini%NULL%1,             Michele%Spinicci%NULL%1,             Lorenzo%Zammarchi%NULL%1,             Filippo%Pieralli%NULL%1,             Giovanni%Zagli%NULL%1,             Carlo%Nozzoli%NULL%1,             Stefano%Romagnoli%NULL%1,             Alessandro%Bartoloni%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wei%Liu%NULL%0,             Zhao-Wu%Tao%NULL%1,             Lei%Wang%NULL%1,             Ming-Li%Yuan%NULL%1,             Kui%Liu%NULL%0,             Ling%Zhou%NULL%0,             Shuang%Wei%NULL%0,             Yan%Deng%NULL%1,             Jing%Liu%NULL%1,             Hui-Guo%Liu%NULL%0,             Ming%Yang%NULL%1,             Yi%Hu%NULL%0,             Pei-Fang%Wei%NULL%0,             Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaochen%Li%NULL%0,             Shuyun%Xu%NULL%1,             Muqing%Yu%NULL%1,             Ke%Wang%NULL%0,             Yu%Tao%NULL%1,             Ying%Zhou%NULL%1,             Jing%Shi%NULL%1,             Min%Zhou%NULL%0,             Bo%Wu%NULL%1,             Zhenyu%Yang%NULL%1,             Cong%Zhang%NULL%1,             Junqing%Yue%NULL%1,             Zhiguo%Zhang%NULL%1,             Harald%Renz%NULL%1,             Xiansheng%Liu%NULL%0,             Jungang%Xie%NULL%0,             Min%Xie%NULL%0,             Jianping%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yang-kai%Li%doclyk@163.com%1,             Shu%Peng%NULL%1,             Le-qun%Li%NULL%1,             Qi%Wang%NULL%1,             Wei%Ping%NULL%1,             Ni%Zhang%NULL%1,             Xiang-ning%Fu%fuxn2006@aliyun.com%1]</t>
+  </si>
+  <si>
+    <t>[Pingzheng%Mo%NULL%0,             Yuanyuan%Xing%NULL%1,             Yu%Xiao%NULL%1,             Liping%Deng%NULL%1,             Qiu%Zhao%NULL%1,             Hongling%Wang%NULL%1,             Yong%Xiong%NULL%1,             Zhenshun%Cheng%NULL%0,             Shicheng%Gao%NULL%1,             Ke%Liang%NULL%1,             Mingqi%Luo%NULL%1,             Tielong%Chen%NULL%1,             Shihui%Song%NULL%1,             Zhiyong%Ma%NULL%1,             Xiaoping%Chen%NULL%1,             Ruiying%Zheng%NULL%1,             Qian%Cao%NULL%1,             Fan%Wang%fanndywang@foxmail.com%1,             Yongxi%Zhang%znact1936@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaspar Manuel%Parra-Bracamonte%NULL%1,             Nicolas%Lopez-Villalobos%NULL%1,             Francisco E.%Parra-Bracamonte%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ishan%Paranjpe%NULL%2,             Adam J%Russak%NULL%2,             Adam J%Russak%NULL%0,             Jessica K%De Freitas%NULL%1,             Anuradha%Lala%NULL%1,             Riccardo%Miotto%NULL%1,             Akhil%Vaid%NULL%1,             Kipp W%Johnson%NULL%1,             Matteo%Danieletto%NULL%1,             Eddye%Golden%NULL%1,             Dara%Meyer%NULL%1,             Manbir%Singh%NULL%1,             Sulaiman%Somani%NULL%1,             Arjun%Kapoor%NULL%1,             Ross%O'Hagan%NULL%1,             Sayan%Manna%NULL%1,             Udit%Nangia%NULL%1,             Suraj K%Jaladanki%NULL%1,             Paul%O’Reilly%NULL%2,             Paul%O’Reilly%NULL%0,             Laura M%Huckins%NULL%1,             Patricia%Glowe%NULL%1,             Arash%Kia%NULL%1,             Prem%Timsina%NULL%1,             Robert M%Freeman%NULL%1,             Matthew A%Levin%NULL%1,             Jeffrey%Jhang%NULL%1,             Adolfo%Firpo%NULL%1,             Patricia%Kovatch%NULL%1,             Joseph%Finkelstein%NULL%1,             Judith A%Aberg%NULL%1,             Emilia%Bagiella%NULL%1,             Carol R%Horowitz%NULL%1,             Barbara%Murphy%NULL%1,             Zahi A%Fayad%NULL%1,             Jagat%Narula%NULL%1,             Eric J%Nestler%NULL%1,             V%Fuster%NULL%1,             Carlos%Cordon-Cardo%NULL%1,             Dennis%Charney%NULL%1,             David L%Reich%NULL%1,             Allan%Just%NULL%1,             Erwin P%Bottinger%NULL%1,             Alexander W%Charney%NULL%1,             Benjamin S%Glicksberg%NULL%1,             Girish N%Nadkarni%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ D.%Qi%null%1,              X.% Yan%null%1,              X.% Tang%null%1,              J.% Peng%null%1,              Q.% Yu%null%1,              L.% Feng%null%1,              G.% Yuan%null%1,              A.% Zhang%null%1,              Y.% Chen%null%1,              J.% Yuan%null%1,              X.% Huang%null%1,              X.% Zhang%null%1,              P.% Hu%null%1,              Y.% Song%null%1,              C.% Qian%null%1,              Q.% Sun%null%1,              D.% Wang%null%1,              J.% Tong%null%1,              J. % Xiang%null%1]</t>
+  </si>
+  <si>
+    <t>[Grace%Salacup%salacupg@einstein.edu%0,             Kevin Bryan%Lo%NULL%2,             Kevin Bryan%Lo%NULL%0,             Fahad%Gul%NULL%1,             Eric%Peterson%NULL%1,             Robert%De Joy%NULL%1,             Ruchika%Bhargav%NULL%1,             Jerald%Pelayo%NULL%1,             Jeri%Albano%NULL%1,             Zurab%Azmaiparashvili%NULL%1,             Sadia%Benzaquen%NULL%1,             Gabriel%Patarroyo‐Aponte%NULL%1,             Janani%Rangaswami%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shaobo%Shi%NULL%0,             Mu%Qin%qinmuae@163.com%1,             Yuli%Cai%NULL%1,             Tao%Liu%NULL%1,             Bo%Shen%NULL%1,             Fan%Yang%NULL%1,             Sheng%Cao%NULL%1,             Xu%Liu%NULL%2,             Xu%Liu%NULL%0,             Yaozu%Xiang%NULL%1,             Qinyan%Zhao%NULL%1,             He%Huang%huanghe1977@whu.edu.cn%1,             Bo%Yang%yybb112@whu.edu.cn%1,             Congxin%Huang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jennifer%Tomlins%NULL%1,             Fergus%Hamilton%NULL%1,             Samuel%Gunning%NULL%1,             Caitlin%Sheehy%NULL%1,             Ed%Moran%NULL%1,             Alastair%MacGowan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Suxin%Wan%NULL%0,             Yi%Xiang%NULL%1,             Wei%Fang%NULL%1,             Yu%Zheng%yuzheng1@cdutcm.edu.cn%1,             Boqun%Li%279685211@qq.com%2,             Boqun%Li%279685211@qq.com%0,             Yanjun%Hu%huyanjun@163.com%1,             Chunhui%Lang%NULL%1,             Daoqiu%Huang%NULL%1,             Qiuyan%Sun%NULL%1,             Yan%Xiong%NULL%1,             Xia%Huang%NULL%1,             Jinglong%Lv%NULL%1,             Yaling%Luo%NULL%1,             Li%Shen%NULL%1,             Haoran%Yang%NULL%1,             Gu%Huang%NULL%1,             Ruishan%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carb\u00f3-Cisnero%Yacquelin%coreGivesNoEmail%0,            Fern\u00e1ndez-Gonz\u00e1lez%Paula%coreGivesNoEmail%1,            Hierrezuelo-Rojas%Naifi%coreGivesNoEmail%1,            Subert-Salas%Lizandra%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Lang%Wang%NULL%5,             Wenbo%He%NULL%1,             Xiaomei%Yu%NULL%1,             Dalong%Hu%NULL%1,             Mingwei%Bao%NULL%1,             Huafen%Liu%NULL%1,             Jiali%Zhou%NULL%1,             Hong%Jiang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhongliang%Wang%NULL%0,             Bohan%Yang%NULL%1,             Qianwen%Li%NULL%1,             Lu%Wen%NULL%1,             Ruiguang%Zhang%zrg27@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Wu%J%coreGivesNoEmail%1,            Xu%Y%coreGivesNoEmail%1,            Zhanwei%Du%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Xisheng%Yan%NULL%0,             Fen%Li%NULL%1,             Xiao%Wang%NULL%1,             Jie%Yan%NULL%1,             Fen%Zhu%NULL%1,             Shifan%Tang%NULL%1,             Yingzhong%Deng%NULL%1,             Hua%Wang%NULL%1,             Rui%Chen%NULL%1,             Zhili%Yu%NULL%1,             Yaping%Li%NULL%1,             Jingzhou%Shang%NULL%1,             Lingjun%Zeng%NULL%1,             Jie%Zhao%NULL%1,             Chaokun%Guan%NULL%1,             Qiaomei%Liu%NULL%1,             Haifeng%Chen%NULL%1,             Wei%Gong%NULL%1,             Xin%Huang%NULL%1,             Yu‐Jiao%Zhang%NULL%1,             Jianguang%Liu%NULL%1,             Xiaoyan%Dong%NULL%1,             Wen%Zheng%zhengwen12@mails.jlu.edu.cn%1,             Shaoping%Nie%spnie@126.com%1,             Dongsheng%Li%dongshengli196809@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Yang%NULL%1,             Pengfei%Wang%NULL%2,             Pengfei%Wang%NULL%0,             Yuyan%Song%NULL%1,             An%Zhang%zhangan@hospital.cqmu.edu.cn%1,             Guodan%Yuan%71502294@qq.com%1,             Yong%Cui%754605155@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,             Yuan%Yu%NULL%1,             Jiqian%Xu%NULL%1,             Huaqing%Shu%NULL%1,             Jia'an%Xia%NULL%1,             Hong%Liu%NULL%1,             Yongran%Wu%NULL%1,             Lu%Zhang%NULL%1,             Zhui%Yu%NULL%1,             Minghao%Fang%NULL%1,             Ting%Yu%NULL%0,             Yaxin%Wang%NULL%1,             Shangwen%Pan%NULL%1,             Xiaojing%Zou%NULL%1,             Shiying%Yuan%NULL%1,             You%Shang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Akdis%Cezmi A%coreGivesNoEmail%0,            Cao%Yi-yuan%coreGivesNoEmail%1,            Dong%Xiang%coreGivesNoEmail%1,            Gao%Ya-dong%coreGivesNoEmail%1,            Yan%You-qin%coreGivesNoEmail%1,            Yang%Yi-bin%coreGivesNoEmail%1,            Yuan%Ya-dong%coreGivesNoEmail%1,            Zhang%Jin-jin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Guqin%Zhang%NULL%3,             Chang%Hu%NULL%1,             Linjie%Luo%NULL%1,             Fang%Fang%NULL%1,             Yongfeng%Chen%NULL%1,             Jianguo%Li%NULL%1,             Zhiyong%Peng%NULL%1,             Huaqin%Pan%phq2012@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Jun%Zhang%NULL%1,             Miao%Yu%NULL%1,             Song%Tong%NULL%1,             Lu-Yu%Liu%NULL%1,             Liang-V.%Tang%lancet.tang@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Rui%Zhang%NULL%2,             Huangqing%Ouyang%NULL%1,             Lingli%Fu%NULL%1,             Shijie%Wang%NULL%1,             Jianglong%Han%NULL%1,             Kejie%Huang%NULL%1,             Mingfang%Jia%NULL%1,             Qibin%Song%NULL%1,             Zhenming%Fu%davidfuzming@whu.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Zirun%Zhao%NULL%0,             Anne%Chen%NULL%1,             Wei%Hou%NULL%1,             James M.%Graham%NULL%1,             Haifang%Li%NULL%1,             Paul S.%Richman%NULL%1,             Henry C.%Thode%NULL%1,             Adam J.%Singer%NULL%1,             Tim Q.%Duong%NULL%1,             Muhammad%Adrish%NULL%9,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0,             Muhammad%Adrish%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE In December 2019, a new type of coronavirus-infected pneumonia broke out in Wuhan and spread rapidly to other parts of the country.
+ The purpose of this study was to investigate the clinical features of coronavirus disease 2019 (COVID-19).
+ MATERIALS AND METHODS A retrospective analysis was performed on the confirmed cases of COVID-19, who were admitted to the North Hospital of Changsha first Hospital (Changsha Public Health treatment Center) from January 17 to February 7, 2020. RESULTS The median age of COVID-19 patients was 45 years (range 33.5-57).
+ The male patients accounted for 49.7%, 64.6% of the patients had a history of exposure in Wuhan, and 31.7% had family aggregation.
+ The median days of onset were six, and the incidence of severe illness was 18.6%.
+ Compared with the non-severe group, the severe group showed statistical significance in older age, hypertension, bilateral lung plaque shadow, decrease in lymphocyte count, increase in C-reactive protein (CRP), aspartate aminotransferase (AST), lactate dehydrogenase, and creatine kinase.
+ CONCLUSIONS Age, combined hypertension, oxygenation index, double lung patch, decreased lymphocyte count, and elevated levels of C-reactive protein, aspartate aminotransferase, lactate dehydrogenase, and creatine kinase can be used as predictors of the disease severity.
+</t>
+  </si>
+  <si>
+    <t>[ F%Zheng%elasticNoEmail%2,   W% Tang%elasticNoEmail%2,   H% Li%elasticNoEmail%2,   Y-X% Huang%elasticNoEmail%2,   Y-L% Xie%elasticNoEmail%2,   Z-G% Zhou%elasticNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%1,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%1,             Zhibo%Liu%NULL%1,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%1,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%1,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%1,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%1,             Yi%Zhang%NULL%1,             Hua%Chen%NULL%1,             Bin%Cao%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2480,7 @@
         <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>400</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -2190,7 +2512,7 @@
         <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>401</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -2222,7 +2544,7 @@
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>402</v>
       </c>
       <c r="F4" t="s">
         <v>76</v>
@@ -2253,7 +2575,9 @@
       <c r="D5" t="s">
         <v>79</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
       <c r="F5" t="s">
         <v>80</v>
       </c>
@@ -2284,7 +2608,7 @@
         <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
@@ -2316,7 +2640,7 @@
         <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>404</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -2348,7 +2672,7 @@
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>405</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
@@ -2380,7 +2704,7 @@
         <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>406</v>
       </c>
       <c r="F9" t="s">
         <v>91</v>
@@ -2412,7 +2736,7 @@
         <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>304</v>
+        <v>407</v>
       </c>
       <c r="F10" t="s">
         <v>95</v>
@@ -2444,7 +2768,7 @@
         <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>305</v>
+        <v>408</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -2476,7 +2800,7 @@
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
       <c r="F12" t="s">
         <v>102</v>
@@ -2508,7 +2832,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>307</v>
+        <v>410</v>
       </c>
       <c r="F13" t="s">
         <v>105</v>
@@ -2540,7 +2864,7 @@
         <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>308</v>
+        <v>411</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -2572,7 +2896,7 @@
         <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="F15" t="s">
         <v>113</v>
@@ -2604,7 +2928,7 @@
         <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
+        <v>413</v>
       </c>
       <c r="F16" t="s">
         <v>117</v>
@@ -2636,7 +2960,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>414</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -2668,7 +2992,7 @@
         <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>312</v>
+        <v>415</v>
       </c>
       <c r="F18" t="s">
         <v>123</v>
@@ -2700,7 +3024,7 @@
         <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>313</v>
+        <v>416</v>
       </c>
       <c r="F19" t="s">
         <v>126</v>
@@ -2732,7 +3056,7 @@
         <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>314</v>
+        <v>417</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2764,7 +3088,7 @@
         <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>315</v>
+        <v>418</v>
       </c>
       <c r="F21" t="s">
         <v>129</v>
@@ -2796,7 +3120,7 @@
         <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>316</v>
+        <v>419</v>
       </c>
       <c r="F22" t="s">
         <v>133</v>
@@ -2828,7 +3152,7 @@
         <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>317</v>
+        <v>420</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -2860,7 +3184,7 @@
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>318</v>
+        <v>421</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -2892,7 +3216,7 @@
         <v>143</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>422</v>
       </c>
       <c r="F25" t="s">
         <v>144</v>
@@ -2924,7 +3248,7 @@
         <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>423</v>
       </c>
       <c r="F26" t="s">
         <v>26</v>
@@ -2956,7 +3280,7 @@
         <v>146</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>424</v>
       </c>
       <c r="F27" t="s">
         <v>147</v>
@@ -2988,7 +3312,7 @@
         <v>150</v>
       </c>
       <c r="E28" t="s">
-        <v>322</v>
+        <v>425</v>
       </c>
       <c r="F28" t="s">
         <v>151</v>
@@ -3020,7 +3344,7 @@
         <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
+        <v>426</v>
       </c>
       <c r="F29" t="s">
         <v>154</v>
@@ -3052,7 +3376,7 @@
         <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="F30" t="s">
         <v>158</v>
@@ -3084,7 +3408,7 @@
         <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="F31" t="s">
         <v>161</v>
@@ -3116,7 +3440,7 @@
         <v>163</v>
       </c>
       <c r="E32" t="s">
-        <v>326</v>
+        <v>429</v>
       </c>
       <c r="F32" t="s">
         <v>164</v>
@@ -3148,7 +3472,7 @@
         <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>327</v>
+        <v>430</v>
       </c>
       <c r="F33" t="s">
         <v>167</v>
@@ -3180,7 +3504,7 @@
         <v>170</v>
       </c>
       <c r="E34" t="s">
-        <v>328</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
         <v>34</v>
@@ -3212,7 +3536,7 @@
         <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>329</v>
+        <v>432</v>
       </c>
       <c r="F35" t="s">
         <v>174</v>
@@ -3244,7 +3568,7 @@
         <v>177</v>
       </c>
       <c r="E36" t="s">
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="F36" t="s">
         <v>178</v>
@@ -3276,7 +3600,7 @@
         <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>331</v>
+        <v>434</v>
       </c>
       <c r="F37" t="s">
         <v>181</v>
@@ -3308,7 +3632,7 @@
         <v>184</v>
       </c>
       <c r="E38" t="s">
-        <v>332</v>
+        <v>435</v>
       </c>
       <c r="F38" t="s">
         <v>185</v>
@@ -3340,7 +3664,7 @@
         <v>229</v>
       </c>
       <c r="E39" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="F39" t="s">
         <v>40</v>
@@ -3372,7 +3696,7 @@
         <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>334</v>
+        <v>437</v>
       </c>
       <c r="F40" t="s">
         <v>189</v>
@@ -3404,7 +3728,7 @@
         <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>335</v>
+        <v>438</v>
       </c>
       <c r="F41" t="s">
         <v>193</v>
@@ -3436,7 +3760,7 @@
         <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>336</v>
+        <v>439</v>
       </c>
       <c r="F42" t="s">
         <v>43</v>
@@ -3468,7 +3792,7 @@
         <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>337</v>
+        <v>440</v>
       </c>
       <c r="F43" t="s">
         <v>196</v>
@@ -3500,7 +3824,7 @@
         <v>199</v>
       </c>
       <c r="E44" t="s">
-        <v>338</v>
+        <v>441</v>
       </c>
       <c r="F44" t="s">
         <v>200</v>
@@ -3532,7 +3856,7 @@
         <v>203</v>
       </c>
       <c r="E45" t="s">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="F45" t="s">
         <v>204</v>
@@ -3564,7 +3888,7 @@
         <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>340</v>
+        <v>443</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
@@ -3596,7 +3920,7 @@
         <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>341</v>
+        <v>444</v>
       </c>
       <c r="F47" t="s">
         <v>207</v>
@@ -3628,7 +3952,7 @@
         <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>342</v>
+        <v>445</v>
       </c>
       <c r="F48" t="s">
         <v>211</v>
@@ -3660,7 +3984,7 @@
         <v>214</v>
       </c>
       <c r="E49" t="s">
-        <v>343</v>
+        <v>446</v>
       </c>
       <c r="F49" t="s">
         <v>215</v>
@@ -3692,7 +4016,7 @@
         <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="F50" t="s">
         <v>219</v>
@@ -3718,22 +4042,22 @@
         <v>43891</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>394</v>
       </c>
       <c r="D51" t="s">
-        <v>58</v>
+        <v>448</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>449</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="H51" t="s">
-        <v>77</v>
+        <v>398</v>
       </c>
       <c r="I51" t="s">
         <v>94</v>
@@ -3756,7 +4080,7 @@
         <v>222</v>
       </c>
       <c r="E52" t="s">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="F52" t="s">
         <v>223</v>
